--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Downtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON Day Entries</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,6 +564,14 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -641,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FL1" activeCellId="0" sqref="FL1"/>
+      <selection pane="topRight" activeCell="FE1" activeCellId="0" sqref="FE1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FM23" activeCellId="0" sqref="FM23"/>
+      <selection pane="bottomRight" activeCell="FN23" activeCellId="0" sqref="FN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11356,674 +11367,679 @@
       <c r="HL20" s="69"/>
       <c r="AMJ20" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="str">
+    <row r="23" s="71" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(D2)&amp;", ""month"": "&amp;MONTH(D2)&amp;", ""day"": "&amp;DAY(D2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;D3&amp;", ""memberCount"": "&amp;D4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;D5&amp;", ""memberCount"": "&amp;D6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;D7&amp;", ""memberCount"": "&amp;D8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;D9&amp;", ""memberCount"": "&amp;D10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;D11&amp;", ""memberCount"": "&amp;D12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;D13&amp;", ""memberCount"": "&amp;D14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;D15&amp;", ""memberCount"": "&amp;D16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;D17&amp;", ""memberCount"": "&amp;D18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;D19&amp;", ""memberCount"": "&amp;D20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 161140101, "memberCount": null}, {"name": "Smile", "contribution": 161686485, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="E23" s="0" t="str">
+      <c r="E23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(E2)&amp;", ""month"": "&amp;MONTH(E2)&amp;", ""day"": "&amp;DAY(E2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;E3&amp;", ""memberCount"": "&amp;E4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;E5&amp;", ""memberCount"": "&amp;E6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;E7&amp;", ""memberCount"": "&amp;E8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;E9&amp;", ""memberCount"": "&amp;E10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;E11&amp;", ""memberCount"": "&amp;E12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;E13&amp;", ""memberCount"": "&amp;E14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;E15&amp;", ""memberCount"": "&amp;E16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;E17&amp;", ""memberCount"": "&amp;E18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;E19&amp;", ""memberCount"": "&amp;E20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 161042838, "memberCount": null}, {"name": "Smile", "contribution": 162059117, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="F23" s="0" t="str">
+      <c r="F23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(F2)&amp;", ""month"": "&amp;MONTH(F2)&amp;", ""day"": "&amp;DAY(F2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;F3&amp;", ""memberCount"": "&amp;F4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;F5&amp;", ""memberCount"": "&amp;F6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;F7&amp;", ""memberCount"": "&amp;F8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;F9&amp;", ""memberCount"": "&amp;F10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;F11&amp;", ""memberCount"": "&amp;F12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;F13&amp;", ""memberCount"": "&amp;F14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;F15&amp;", ""memberCount"": "&amp;F16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;F17&amp;", ""memberCount"": "&amp;F18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;F19&amp;", ""memberCount"": "&amp;F20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 161278187, "memberCount": null}, {"name": "Smile", "contribution": 162367297, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="G23" s="0" t="str">
+      <c r="G23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(G2)&amp;", ""month"": "&amp;MONTH(G2)&amp;", ""day"": "&amp;DAY(G2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;G3&amp;", ""memberCount"": "&amp;G4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;G5&amp;", ""memberCount"": "&amp;G6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;G7&amp;", ""memberCount"": "&amp;G8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;G9&amp;", ""memberCount"": "&amp;G10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;G11&amp;", ""memberCount"": "&amp;G12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;G13&amp;", ""memberCount"": "&amp;G14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;G15&amp;", ""memberCount"": "&amp;G16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;G17&amp;", ""memberCount"": "&amp;G18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;G19&amp;", ""memberCount"": "&amp;G20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 161607812, "memberCount": null}, {"name": "Smile", "contribution": 162687457, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="H23" s="0" t="str">
+      <c r="H23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(H2)&amp;", ""month"": "&amp;MONTH(H2)&amp;", ""day"": "&amp;DAY(H2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;H3&amp;", ""memberCount"": "&amp;H4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;H5&amp;", ""memberCount"": "&amp;H6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;H7&amp;", ""memberCount"": "&amp;H8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;H9&amp;", ""memberCount"": "&amp;H10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;H11&amp;", ""memberCount"": "&amp;H12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;H13&amp;", ""memberCount"": "&amp;H14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;H15&amp;", ""memberCount"": "&amp;H16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;H17&amp;", ""memberCount"": "&amp;H18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;H19&amp;", ""memberCount"": "&amp;H20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 161231442, "memberCount": null}, {"name": "Smile", "contribution": 162823582, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="I23" s="0" t="str">
+      <c r="I23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(I2)&amp;", ""month"": "&amp;MONTH(I2)&amp;", ""day"": "&amp;DAY(I2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;I3&amp;", ""memberCount"": "&amp;I4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;I5&amp;", ""memberCount"": "&amp;I6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;I7&amp;", ""memberCount"": "&amp;I8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;I9&amp;", ""memberCount"": "&amp;I10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;I11&amp;", ""memberCount"": "&amp;I12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;I13&amp;", ""memberCount"": "&amp;I14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;I15&amp;", ""memberCount"": "&amp;I16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;I17&amp;", ""memberCount"": "&amp;I18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;I19&amp;", ""memberCount"": "&amp;I20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 161285006, "memberCount": null}, {"name": "Smile", "contribution": 163139819, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="J23" s="0" t="str">
+      <c r="J23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(J2)&amp;", ""month"": "&amp;MONTH(J2)&amp;", ""day"": "&amp;DAY(J2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;J3&amp;", ""memberCount"": "&amp;J4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;J5&amp;", ""memberCount"": "&amp;J6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;J7&amp;", ""memberCount"": "&amp;J8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;J9&amp;", ""memberCount"": "&amp;J10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;J11&amp;", ""memberCount"": "&amp;J12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;J13&amp;", ""memberCount"": "&amp;J14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;J15&amp;", ""memberCount"": "&amp;J16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;J17&amp;", ""memberCount"": "&amp;J18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;J19&amp;", ""memberCount"": "&amp;J20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 161518037, "memberCount": null}, {"name": "Smile", "contribution": 163436639, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="K23" s="0" t="str">
+      <c r="K23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(K2)&amp;", ""month"": "&amp;MONTH(K2)&amp;", ""day"": "&amp;DAY(K2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;K3&amp;", ""memberCount"": "&amp;K4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;K5&amp;", ""memberCount"": "&amp;K6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;K7&amp;", ""memberCount"": "&amp;K8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;K9&amp;", ""memberCount"": "&amp;K10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;K11&amp;", ""memberCount"": "&amp;K12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;K13&amp;", ""memberCount"": "&amp;K14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;K15&amp;", ""memberCount"": "&amp;K16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;K17&amp;", ""memberCount"": "&amp;K18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;K19&amp;", ""memberCount"": "&amp;K20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 161870928, "memberCount": null}, {"name": "Smile", "contribution": 163716171, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="L23" s="0" t="str">
+      <c r="L23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(L2)&amp;", ""month"": "&amp;MONTH(L2)&amp;", ""day"": "&amp;DAY(L2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;L3&amp;", ""memberCount"": "&amp;L4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;L5&amp;", ""memberCount"": "&amp;L6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;L7&amp;", ""memberCount"": "&amp;L8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;L9&amp;", ""memberCount"": "&amp;L10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;L11&amp;", ""memberCount"": "&amp;L12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;L13&amp;", ""memberCount"": "&amp;L14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;L15&amp;", ""memberCount"": "&amp;L16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;L17&amp;", ""memberCount"": "&amp;L18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;L19&amp;", ""memberCount"": "&amp;L20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 162171093, "memberCount": 197}, {"name": "Smile", "contribution": 164065238, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="M23" s="0" t="str">
+      <c r="M23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(M2)&amp;", ""month"": "&amp;MONTH(M2)&amp;", ""day"": "&amp;DAY(M2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;M3&amp;", ""memberCount"": "&amp;M4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;M5&amp;", ""memberCount"": "&amp;M6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;M7&amp;", ""memberCount"": "&amp;M8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;M9&amp;", ""memberCount"": "&amp;M10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;M11&amp;", ""memberCount"": "&amp;M12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;M13&amp;", ""memberCount"": "&amp;M14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;M15&amp;", ""memberCount"": "&amp;M16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;M17&amp;", ""memberCount"": "&amp;M18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;M19&amp;", ""memberCount"": "&amp;M20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 162409328, "memberCount": 198}, {"name": "Smile", "contribution": 164315858, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="N23" s="0" t="str">
+      <c r="N23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(N2)&amp;", ""month"": "&amp;MONTH(N2)&amp;", ""day"": "&amp;DAY(N2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;N3&amp;", ""memberCount"": "&amp;N4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;N5&amp;", ""memberCount"": "&amp;N6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;N7&amp;", ""memberCount"": "&amp;N8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;N9&amp;", ""memberCount"": "&amp;N10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;N11&amp;", ""memberCount"": "&amp;N12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;N13&amp;", ""memberCount"": "&amp;N14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;N15&amp;", ""memberCount"": "&amp;N16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;N17&amp;", ""memberCount"": "&amp;N18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;N19&amp;", ""memberCount"": "&amp;N20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 162685325, "memberCount": 199}, {"name": "Smile", "contribution": 164566587, "memberCount": 196}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="O23" s="0" t="str">
+      <c r="O23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(O2)&amp;", ""month"": "&amp;MONTH(O2)&amp;", ""day"": "&amp;DAY(O2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;O3&amp;", ""memberCount"": "&amp;O4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;O5&amp;", ""memberCount"": "&amp;O6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;O7&amp;", ""memberCount"": "&amp;O8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;O9&amp;", ""memberCount"": "&amp;O10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;O11&amp;", ""memberCount"": "&amp;O12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;O13&amp;", ""memberCount"": "&amp;O14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;O15&amp;", ""memberCount"": "&amp;O16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;O17&amp;", ""memberCount"": "&amp;O18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;O19&amp;", ""memberCount"": "&amp;O20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 162982306, "memberCount": 199}, {"name": "Smile", "contribution": 164866647, "memberCount": 196}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="P23" s="0" t="str">
+      <c r="P23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(P2)&amp;", ""month"": "&amp;MONTH(P2)&amp;", ""day"": "&amp;DAY(P2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;P3&amp;", ""memberCount"": "&amp;P4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;P5&amp;", ""memberCount"": "&amp;P6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;P7&amp;", ""memberCount"": "&amp;P8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;P9&amp;", ""memberCount"": "&amp;P10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;P11&amp;", ""memberCount"": "&amp;P12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;P13&amp;", ""memberCount"": "&amp;P14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;P15&amp;", ""memberCount"": "&amp;P16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;P17&amp;", ""memberCount"": "&amp;P18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;P19&amp;", ""memberCount"": "&amp;P20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 163219067, "memberCount": 199}, {"name": "Smile", "contribution": 165179792, "memberCount": 196}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="Q23" s="0" t="str">
+      <c r="Q23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(Q2)&amp;", ""month"": "&amp;MONTH(Q2)&amp;", ""day"": "&amp;DAY(Q2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;Q3&amp;", ""memberCount"": "&amp;Q4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;Q5&amp;", ""memberCount"": "&amp;Q6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;Q7&amp;", ""memberCount"": "&amp;Q8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;Q9&amp;", ""memberCount"": "&amp;Q10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;Q11&amp;", ""memberCount"": "&amp;Q12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;Q13&amp;", ""memberCount"": "&amp;Q14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;Q15&amp;", ""memberCount"": "&amp;Q16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;Q17&amp;", ""memberCount"": "&amp;Q18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;Q19&amp;", ""memberCount"": "&amp;Q20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 163523893, "memberCount": 199}, {"name": "Smile", "contribution": 165369857, "memberCount": 197}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="R23" s="0" t="str">
+      <c r="R23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(R2)&amp;", ""month"": "&amp;MONTH(R2)&amp;", ""day"": "&amp;DAY(R2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;R3&amp;", ""memberCount"": "&amp;R4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;R5&amp;", ""memberCount"": "&amp;R6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;R7&amp;", ""memberCount"": "&amp;R8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;R9&amp;", ""memberCount"": "&amp;R10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;R11&amp;", ""memberCount"": "&amp;R12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;R13&amp;", ""memberCount"": "&amp;R14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;R15&amp;", ""memberCount"": "&amp;R16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;R17&amp;", ""memberCount"": "&amp;R18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;R19&amp;", ""memberCount"": "&amp;R20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 163782457, "memberCount": 199}, {"name": "Smile", "contribution": 165684895, "memberCount": 197}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="S23" s="0" t="str">
+      <c r="S23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(S2)&amp;", ""month"": "&amp;MONTH(S2)&amp;", ""day"": "&amp;DAY(S2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;S3&amp;", ""memberCount"": "&amp;S4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;S5&amp;", ""memberCount"": "&amp;S6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;S7&amp;", ""memberCount"": "&amp;S8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;S9&amp;", ""memberCount"": "&amp;S10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;S11&amp;", ""memberCount"": "&amp;S12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;S13&amp;", ""memberCount"": "&amp;S14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;S15&amp;", ""memberCount"": "&amp;S16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;S17&amp;", ""memberCount"": "&amp;S18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;S19&amp;", ""memberCount"": "&amp;S20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 164033334, "memberCount": 199}, {"name": "Smile", "contribution": 166009506, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="T23" s="0" t="str">
+      <c r="T23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(T2)&amp;", ""month"": "&amp;MONTH(T2)&amp;", ""day"": "&amp;DAY(T2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;T3&amp;", ""memberCount"": "&amp;T4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;T5&amp;", ""memberCount"": "&amp;T6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;T7&amp;", ""memberCount"": "&amp;T8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;T9&amp;", ""memberCount"": "&amp;T10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;T11&amp;", ""memberCount"": "&amp;T12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;T13&amp;", ""memberCount"": "&amp;T14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;T15&amp;", ""memberCount"": "&amp;T16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;T17&amp;", ""memberCount"": "&amp;T18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;T19&amp;", ""memberCount"": "&amp;T20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 164303010, "memberCount": 199}, {"name": "Smile", "contribution": 166357681, "memberCount": 199}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="U23" s="0" t="str">
+      <c r="U23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(U2)&amp;", ""month"": "&amp;MONTH(U2)&amp;", ""day"": "&amp;DAY(U2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;U3&amp;", ""memberCount"": "&amp;U4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;U5&amp;", ""memberCount"": "&amp;U6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;U7&amp;", ""memberCount"": "&amp;U8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;U9&amp;", ""memberCount"": "&amp;U10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;U11&amp;", ""memberCount"": "&amp;U12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;U13&amp;", ""memberCount"": "&amp;U14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;U15&amp;", ""memberCount"": "&amp;U16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;U17&amp;", ""memberCount"": "&amp;U18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;U19&amp;", ""memberCount"": "&amp;U20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 164484652, "memberCount": 198}, {"name": "Smile", "contribution": 166644172, "memberCount": 199}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="V23" s="0" t="str">
+      <c r="V23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(V2)&amp;", ""month"": "&amp;MONTH(V2)&amp;", ""day"": "&amp;DAY(V2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;V3&amp;", ""memberCount"": "&amp;V4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;V5&amp;", ""memberCount"": "&amp;V6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;V7&amp;", ""memberCount"": "&amp;V8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;V9&amp;", ""memberCount"": "&amp;V10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;V11&amp;", ""memberCount"": "&amp;V12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;V13&amp;", ""memberCount"": "&amp;V14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;V15&amp;", ""memberCount"": "&amp;V16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;V17&amp;", ""memberCount"": "&amp;V18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;V19&amp;", ""memberCount"": "&amp;V20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 164711324, "memberCount": 198}, {"name": "Smile", "contribution": 167002659, "memberCount": 199}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="W23" s="0" t="str">
+      <c r="W23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(W2)&amp;", ""month"": "&amp;MONTH(W2)&amp;", ""day"": "&amp;DAY(W2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;W3&amp;", ""memberCount"": "&amp;W4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;W5&amp;", ""memberCount"": "&amp;W6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;W7&amp;", ""memberCount"": "&amp;W8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;W9&amp;", ""memberCount"": "&amp;W10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;W11&amp;", ""memberCount"": "&amp;W12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;W13&amp;", ""memberCount"": "&amp;W14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;W15&amp;", ""memberCount"": "&amp;W16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;W17&amp;", ""memberCount"": "&amp;W18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;W19&amp;", ""memberCount"": "&amp;W20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 164968413, "memberCount": 199}, {"name": "Smile", "contribution": 167249775, "memberCount": 199}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="X23" s="0" t="str">
+      <c r="X23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(X2)&amp;", ""month"": "&amp;MONTH(X2)&amp;", ""day"": "&amp;DAY(X2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;X3&amp;", ""memberCount"": "&amp;X4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;X5&amp;", ""memberCount"": "&amp;X6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;X7&amp;", ""memberCount"": "&amp;X8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;X9&amp;", ""memberCount"": "&amp;X10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;X11&amp;", ""memberCount"": "&amp;X12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;X13&amp;", ""memberCount"": "&amp;X14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;X15&amp;", ""memberCount"": "&amp;X16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;X17&amp;", ""memberCount"": "&amp;X18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;X19&amp;", ""memberCount"": "&amp;X20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 165176792, "memberCount": 199}, {"name": "Smile", "contribution": 155743078, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="Y23" s="0" t="str">
+      <c r="Y23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(Y2)&amp;", ""month"": "&amp;MONTH(Y2)&amp;", ""day"": "&amp;DAY(Y2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;Y3&amp;", ""memberCount"": "&amp;Y4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;Y5&amp;", ""memberCount"": "&amp;Y6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;Y7&amp;", ""memberCount"": "&amp;Y8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;Y9&amp;", ""memberCount"": "&amp;Y10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;Y11&amp;", ""memberCount"": "&amp;Y12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;Y13&amp;", ""memberCount"": "&amp;Y14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;Y15&amp;", ""memberCount"": "&amp;Y16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;Y17&amp;", ""memberCount"": "&amp;Y18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;Y19&amp;", ""memberCount"": "&amp;Y20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 9, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 164832694, "memberCount": 198}, {"name": "Smile", "contribution": 152695544, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="Z23" s="0" t="str">
+      <c r="Z23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(Z2)&amp;", ""month"": "&amp;MONTH(Z2)&amp;", ""day"": "&amp;DAY(Z2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;Z3&amp;", ""memberCount"": "&amp;Z4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;Z5&amp;", ""memberCount"": "&amp;Z6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;Z7&amp;", ""memberCount"": "&amp;Z8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;Z9&amp;", ""memberCount"": "&amp;Z10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;Z11&amp;", ""memberCount"": "&amp;Z12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;Z13&amp;", ""memberCount"": "&amp;Z14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;Z15&amp;", ""memberCount"": "&amp;Z16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;Z17&amp;", ""memberCount"": "&amp;Z18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;Z19&amp;", ""memberCount"": "&amp;Z20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 165092815, "memberCount": 198}, {"name": "Smile", "contribution": 150585052, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AA23" s="0" t="str">
+      <c r="AA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AA2)&amp;", ""month"": "&amp;MONTH(AA2)&amp;", ""day"": "&amp;DAY(AA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AA3&amp;", ""memberCount"": "&amp;AA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AA5&amp;", ""memberCount"": "&amp;AA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AA7&amp;", ""memberCount"": "&amp;AA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AA9&amp;", ""memberCount"": "&amp;AA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AA11&amp;", ""memberCount"": "&amp;AA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AA13&amp;", ""memberCount"": "&amp;AA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AA15&amp;", ""memberCount"": "&amp;AA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AA17&amp;", ""memberCount"": "&amp;AA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AA19&amp;", ""memberCount"": "&amp;AA20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 165366508, "memberCount": 198}, {"name": "Smile", "contribution": 150809939, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AB23" s="0" t="str">
+      <c r="AB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AB2)&amp;", ""month"": "&amp;MONTH(AB2)&amp;", ""day"": "&amp;DAY(AB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AB3&amp;", ""memberCount"": "&amp;AB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AB5&amp;", ""memberCount"": "&amp;AB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AB7&amp;", ""memberCount"": "&amp;AB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AB9&amp;", ""memberCount"": "&amp;AB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AB11&amp;", ""memberCount"": "&amp;AB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AB13&amp;", ""memberCount"": "&amp;AB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AB15&amp;", ""memberCount"": "&amp;AB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AB17&amp;", ""memberCount"": "&amp;AB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AB19&amp;", ""memberCount"": "&amp;AB20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 165614337, "memberCount": 199}, {"name": "Smile", "contribution": 148091825, "memberCount": 166}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AC23" s="0" t="str">
+      <c r="AC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AC2)&amp;", ""month"": "&amp;MONTH(AC2)&amp;", ""day"": "&amp;DAY(AC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AC3&amp;", ""memberCount"": "&amp;AC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AC5&amp;", ""memberCount"": "&amp;AC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AC7&amp;", ""memberCount"": "&amp;AC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AC9&amp;", ""memberCount"": "&amp;AC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AC11&amp;", ""memberCount"": "&amp;AC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AC13&amp;", ""memberCount"": "&amp;AC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AC15&amp;", ""memberCount"": "&amp;AC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AC17&amp;", ""memberCount"": "&amp;AC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AC19&amp;", ""memberCount"": "&amp;AC20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 165936454, "memberCount": 199}, {"name": "Smile", "contribution": 148415088, "memberCount": 167}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AD23" s="0" t="str">
+      <c r="AD23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AD2)&amp;", ""month"": "&amp;MONTH(AD2)&amp;", ""day"": "&amp;DAY(AD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AD3&amp;", ""memberCount"": "&amp;AD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AD5&amp;", ""memberCount"": "&amp;AD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AD7&amp;", ""memberCount"": "&amp;AD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AD9&amp;", ""memberCount"": "&amp;AD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AD11&amp;", ""memberCount"": "&amp;AD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AD13&amp;", ""memberCount"": "&amp;AD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AD15&amp;", ""memberCount"": "&amp;AD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AD17&amp;", ""memberCount"": "&amp;AD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AD19&amp;", ""memberCount"": "&amp;AD20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 165835359, "memberCount": 199}, {"name": "Smile", "contribution": 148649504, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AE23" s="0" t="str">
+      <c r="AE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AE2)&amp;", ""month"": "&amp;MONTH(AE2)&amp;", ""day"": "&amp;DAY(AE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AE3&amp;", ""memberCount"": "&amp;AE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AE5&amp;", ""memberCount"": "&amp;AE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AE7&amp;", ""memberCount"": "&amp;AE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AE9&amp;", ""memberCount"": "&amp;AE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AE11&amp;", ""memberCount"": "&amp;AE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AE13&amp;", ""memberCount"": "&amp;AE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AE15&amp;", ""memberCount"": "&amp;AE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AE17&amp;", ""memberCount"": "&amp;AE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AE19&amp;", ""memberCount"": "&amp;AE20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 166110979, "memberCount": 200}, {"name": "Smile", "contribution": 148882269, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AF23" s="0" t="str">
+      <c r="AF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AF2)&amp;", ""month"": "&amp;MONTH(AF2)&amp;", ""day"": "&amp;DAY(AF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AF3&amp;", ""memberCount"": "&amp;AF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AF5&amp;", ""memberCount"": "&amp;AF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AF7&amp;", ""memberCount"": "&amp;AF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AF9&amp;", ""memberCount"": "&amp;AF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AF11&amp;", ""memberCount"": "&amp;AF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AF13&amp;", ""memberCount"": "&amp;AF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AF15&amp;", ""memberCount"": "&amp;AF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AF17&amp;", ""memberCount"": "&amp;AF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AF19&amp;", ""memberCount"": "&amp;AF20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 166103086, "memberCount": 198}, {"name": "Smile", "contribution": 149207984, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AG23" s="0" t="str">
+      <c r="AG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AG2)&amp;", ""month"": "&amp;MONTH(AG2)&amp;", ""day"": "&amp;DAY(AG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AG3&amp;", ""memberCount"": "&amp;AG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AG5&amp;", ""memberCount"": "&amp;AG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AG7&amp;", ""memberCount"": "&amp;AG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AG9&amp;", ""memberCount"": "&amp;AG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AG11&amp;", ""memberCount"": "&amp;AG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AG13&amp;", ""memberCount"": "&amp;AG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AG15&amp;", ""memberCount"": "&amp;AG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AG17&amp;", ""memberCount"": "&amp;AG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AG19&amp;", ""memberCount"": "&amp;AG20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 166377788, "memberCount": 198}, {"name": "Smile", "contribution": 147836382, "memberCount": 174}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AH23" s="0" t="str">
+      <c r="AH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AH2)&amp;", ""month"": "&amp;MONTH(AH2)&amp;", ""day"": "&amp;DAY(AH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AH3&amp;", ""memberCount"": "&amp;AH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AH5&amp;", ""memberCount"": "&amp;AH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AH7&amp;", ""memberCount"": "&amp;AH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AH9&amp;", ""memberCount"": "&amp;AH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AH11&amp;", ""memberCount"": "&amp;AH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AH13&amp;", ""memberCount"": "&amp;AH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AH15&amp;", ""memberCount"": "&amp;AH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AH17&amp;", ""memberCount"": "&amp;AH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AH19&amp;", ""memberCount"": "&amp;AH20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 166074845, "memberCount": 199}, {"name": "Smile", "contribution": 148135222, "memberCount": 174}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AI23" s="0" t="str">
+      <c r="AI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AI2)&amp;", ""month"": "&amp;MONTH(AI2)&amp;", ""day"": "&amp;DAY(AI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AI3&amp;", ""memberCount"": "&amp;AI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AI5&amp;", ""memberCount"": "&amp;AI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AI7&amp;", ""memberCount"": "&amp;AI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AI9&amp;", ""memberCount"": "&amp;AI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AI11&amp;", ""memberCount"": "&amp;AI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AI13&amp;", ""memberCount"": "&amp;AI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AI15&amp;", ""memberCount"": "&amp;AI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AI17&amp;", ""memberCount"": "&amp;AI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AI19&amp;", ""memberCount"": "&amp;AI20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 166143560, "memberCount": 199}, {"name": "Smile", "contribution": 146091821, "memberCount": 177}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AJ23" s="0" t="str">
+      <c r="AJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AJ2)&amp;", ""month"": "&amp;MONTH(AJ2)&amp;", ""day"": "&amp;DAY(AJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AJ3&amp;", ""memberCount"": "&amp;AJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AJ5&amp;", ""memberCount"": "&amp;AJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AJ7&amp;", ""memberCount"": "&amp;AJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AJ9&amp;", ""memberCount"": "&amp;AJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AJ11&amp;", ""memberCount"": "&amp;AJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AJ13&amp;", ""memberCount"": "&amp;AJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AJ15&amp;", ""memberCount"": "&amp;AJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AJ17&amp;", ""memberCount"": "&amp;AJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AJ19&amp;", ""memberCount"": "&amp;AJ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 166564881, "memberCount": 199}, {"name": "Smile", "contribution": 146409582, "memberCount": 178}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AK23" s="0" t="str">
+      <c r="AK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AK2)&amp;", ""month"": "&amp;MONTH(AK2)&amp;", ""day"": "&amp;DAY(AK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AK3&amp;", ""memberCount"": "&amp;AK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AK5&amp;", ""memberCount"": "&amp;AK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AK7&amp;", ""memberCount"": "&amp;AK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AK9&amp;", ""memberCount"": "&amp;AK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AK11&amp;", ""memberCount"": "&amp;AK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AK13&amp;", ""memberCount"": "&amp;AK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AK15&amp;", ""memberCount"": "&amp;AK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AK17&amp;", ""memberCount"": "&amp;AK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AK19&amp;", ""memberCount"": "&amp;AK20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 166887260, "memberCount": 199}, {"name": "Smile", "contribution": 146664008, "memberCount": 178}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AL23" s="0" t="str">
+      <c r="AL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AL2)&amp;", ""month"": "&amp;MONTH(AL2)&amp;", ""day"": "&amp;DAY(AL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AL3&amp;", ""memberCount"": "&amp;AL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AL5&amp;", ""memberCount"": "&amp;AL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AL7&amp;", ""memberCount"": "&amp;AL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AL9&amp;", ""memberCount"": "&amp;AL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AL11&amp;", ""memberCount"": "&amp;AL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AL13&amp;", ""memberCount"": "&amp;AL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AL15&amp;", ""memberCount"": "&amp;AL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AL17&amp;", ""memberCount"": "&amp;AL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AL19&amp;", ""memberCount"": "&amp;AL20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 167180223, "memberCount": 199}, {"name": "Smile", "contribution": 147015871, "memberCount": 179}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AM23" s="0" t="str">
+      <c r="AM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AM2)&amp;", ""month"": "&amp;MONTH(AM2)&amp;", ""day"": "&amp;DAY(AM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AM3&amp;", ""memberCount"": "&amp;AM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AM5&amp;", ""memberCount"": "&amp;AM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AM7&amp;", ""memberCount"": "&amp;AM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AM9&amp;", ""memberCount"": "&amp;AM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AM11&amp;", ""memberCount"": "&amp;AM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AM13&amp;", ""memberCount"": "&amp;AM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AM15&amp;", ""memberCount"": "&amp;AM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AM17&amp;", ""memberCount"": "&amp;AM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AM19&amp;", ""memberCount"": "&amp;AM20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 167476603, "memberCount": 200}, {"name": "Smile", "contribution": 146672719, "memberCount": 177}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AN23" s="0" t="str">
+      <c r="AN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AN2)&amp;", ""month"": "&amp;MONTH(AN2)&amp;", ""day"": "&amp;DAY(AN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AN3&amp;", ""memberCount"": "&amp;AN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AN5&amp;", ""memberCount"": "&amp;AN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AN7&amp;", ""memberCount"": "&amp;AN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AN9&amp;", ""memberCount"": "&amp;AN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AN11&amp;", ""memberCount"": "&amp;AN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AN13&amp;", ""memberCount"": "&amp;AN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AN15&amp;", ""memberCount"": "&amp;AN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AN17&amp;", ""memberCount"": "&amp;AN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AN19&amp;", ""memberCount"": "&amp;AN20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 167707282, "memberCount": 200}, {"name": "Smile", "contribution": 145750746, "memberCount": 177}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AO23" s="0" t="str">
+      <c r="AO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AO2)&amp;", ""month"": "&amp;MONTH(AO2)&amp;", ""day"": "&amp;DAY(AO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AO3&amp;", ""memberCount"": "&amp;AO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AO5&amp;", ""memberCount"": "&amp;AO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AO7&amp;", ""memberCount"": "&amp;AO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AO9&amp;", ""memberCount"": "&amp;AO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AO11&amp;", ""memberCount"": "&amp;AO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AO13&amp;", ""memberCount"": "&amp;AO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AO15&amp;", ""memberCount"": "&amp;AO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AO17&amp;", ""memberCount"": "&amp;AO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AO19&amp;", ""memberCount"": "&amp;AO20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 167628539, "memberCount": 200}, {"name": "Smile", "contribution": 146064725, "memberCount": 177}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AP23" s="0" t="str">
+      <c r="AP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AP2)&amp;", ""month"": "&amp;MONTH(AP2)&amp;", ""day"": "&amp;DAY(AP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AP3&amp;", ""memberCount"": "&amp;AP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AP5&amp;", ""memberCount"": "&amp;AP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AP7&amp;", ""memberCount"": "&amp;AP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AP9&amp;", ""memberCount"": "&amp;AP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AP11&amp;", ""memberCount"": "&amp;AP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AP13&amp;", ""memberCount"": "&amp;AP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AP15&amp;", ""memberCount"": "&amp;AP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AP17&amp;", ""memberCount"": "&amp;AP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AP19&amp;", ""memberCount"": "&amp;AP20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 167902030, "memberCount": 198}, {"name": "Smile", "contribution": 146332167, "memberCount": 178}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AQ23" s="0" t="str">
+      <c r="AQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AQ2)&amp;", ""month"": "&amp;MONTH(AQ2)&amp;", ""day"": "&amp;DAY(AQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AQ3&amp;", ""memberCount"": "&amp;AQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AQ5&amp;", ""memberCount"": "&amp;AQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AQ7&amp;", ""memberCount"": "&amp;AQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AQ9&amp;", ""memberCount"": "&amp;AQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AQ11&amp;", ""memberCount"": "&amp;AQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AQ13&amp;", ""memberCount"": "&amp;AQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AQ15&amp;", ""memberCount"": "&amp;AQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AQ17&amp;", ""memberCount"": "&amp;AQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AQ19&amp;", ""memberCount"": "&amp;AQ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 168259751, "memberCount": 198}, {"name": "Smile", "contribution": 146673575, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AR23" s="0" t="str">
+      <c r="AR23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AR2)&amp;", ""month"": "&amp;MONTH(AR2)&amp;", ""day"": "&amp;DAY(AR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AR3&amp;", ""memberCount"": "&amp;AR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AR5&amp;", ""memberCount"": "&amp;AR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AR7&amp;", ""memberCount"": "&amp;AR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AR9&amp;", ""memberCount"": "&amp;AR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AR11&amp;", ""memberCount"": "&amp;AR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AR13&amp;", ""memberCount"": "&amp;AR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AR15&amp;", ""memberCount"": "&amp;AR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AR17&amp;", ""memberCount"": "&amp;AR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AR19&amp;", ""memberCount"": "&amp;AR20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 168478060, "memberCount": 198}, {"name": "Smile", "contribution": 146932801, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AS23" s="0" t="str">
+      <c r="AS23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AS2)&amp;", ""month"": "&amp;MONTH(AS2)&amp;", ""day"": "&amp;DAY(AS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AS3&amp;", ""memberCount"": "&amp;AS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AS5&amp;", ""memberCount"": "&amp;AS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AS7&amp;", ""memberCount"": "&amp;AS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AS9&amp;", ""memberCount"": "&amp;AS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AS11&amp;", ""memberCount"": "&amp;AS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AS13&amp;", ""memberCount"": "&amp;AS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AS15&amp;", ""memberCount"": "&amp;AS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AS17&amp;", ""memberCount"": "&amp;AS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AS19&amp;", ""memberCount"": "&amp;AS20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 168785289, "memberCount": 198}, {"name": "Smile", "contribution": 147283112, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AT23" s="0" t="str">
+      <c r="AT23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AT2)&amp;", ""month"": "&amp;MONTH(AT2)&amp;", ""day"": "&amp;DAY(AT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AT3&amp;", ""memberCount"": "&amp;AT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AT5&amp;", ""memberCount"": "&amp;AT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AT7&amp;", ""memberCount"": "&amp;AT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AT9&amp;", ""memberCount"": "&amp;AT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AT11&amp;", ""memberCount"": "&amp;AT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AT13&amp;", ""memberCount"": "&amp;AT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AT15&amp;", ""memberCount"": "&amp;AT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AT17&amp;", ""memberCount"": "&amp;AT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AT19&amp;", ""memberCount"": "&amp;AT20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 169088680, "memberCount": 198}, {"name": "Smile", "contribution": 147319349, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AU23" s="0" t="str">
+      <c r="AU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AU2)&amp;", ""month"": "&amp;MONTH(AU2)&amp;", ""day"": "&amp;DAY(AU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AU3&amp;", ""memberCount"": "&amp;AU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AU5&amp;", ""memberCount"": "&amp;AU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AU7&amp;", ""memberCount"": "&amp;AU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AU9&amp;", ""memberCount"": "&amp;AU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AU11&amp;", ""memberCount"": "&amp;AU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AU13&amp;", ""memberCount"": "&amp;AU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AU15&amp;", ""memberCount"": "&amp;AU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AU17&amp;", ""memberCount"": "&amp;AU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AU19&amp;", ""memberCount"": "&amp;AU20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 169419541, "memberCount": 199}, {"name": "Smile", "contribution": 147216301, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AV23" s="0" t="str">
+      <c r="AV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AV2)&amp;", ""month"": "&amp;MONTH(AV2)&amp;", ""day"": "&amp;DAY(AV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AV3&amp;", ""memberCount"": "&amp;AV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AV5&amp;", ""memberCount"": "&amp;AV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AV7&amp;", ""memberCount"": "&amp;AV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AV9&amp;", ""memberCount"": "&amp;AV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AV11&amp;", ""memberCount"": "&amp;AV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AV13&amp;", ""memberCount"": "&amp;AV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AV15&amp;", ""memberCount"": "&amp;AV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AV17&amp;", ""memberCount"": "&amp;AV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AV19&amp;", ""memberCount"": "&amp;AV20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 169715610, "memberCount": 199}, {"name": "Smile", "contribution": 147566010, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AW23" s="0" t="str">
+      <c r="AW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AW2)&amp;", ""month"": "&amp;MONTH(AW2)&amp;", ""day"": "&amp;DAY(AW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AW3&amp;", ""memberCount"": "&amp;AW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AW5&amp;", ""memberCount"": "&amp;AW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AW7&amp;", ""memberCount"": "&amp;AW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AW9&amp;", ""memberCount"": "&amp;AW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AW11&amp;", ""memberCount"": "&amp;AW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AW13&amp;", ""memberCount"": "&amp;AW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AW15&amp;", ""memberCount"": "&amp;AW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AW17&amp;", ""memberCount"": "&amp;AW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AW19&amp;", ""memberCount"": "&amp;AW20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 169911632, "memberCount": 199}, {"name": "Smile", "contribution": 147827701, "memberCount": 184}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AX23" s="0" t="str">
+      <c r="AX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AX2)&amp;", ""month"": "&amp;MONTH(AX2)&amp;", ""day"": "&amp;DAY(AX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AX3&amp;", ""memberCount"": "&amp;AX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AX5&amp;", ""memberCount"": "&amp;AX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AX7&amp;", ""memberCount"": "&amp;AX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AX9&amp;", ""memberCount"": "&amp;AX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AX11&amp;", ""memberCount"": "&amp;AX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AX13&amp;", ""memberCount"": "&amp;AX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AX15&amp;", ""memberCount"": "&amp;AX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AX17&amp;", ""memberCount"": "&amp;AX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AX19&amp;", ""memberCount"": "&amp;AX20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 170168321, "memberCount": 199}, {"name": "Smile", "contribution": 148043273, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AY23" s="0" t="str">
+      <c r="AY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AY2)&amp;", ""month"": "&amp;MONTH(AY2)&amp;", ""day"": "&amp;DAY(AY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AY3&amp;", ""memberCount"": "&amp;AY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AY5&amp;", ""memberCount"": "&amp;AY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AY7&amp;", ""memberCount"": "&amp;AY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AY9&amp;", ""memberCount"": "&amp;AY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AY11&amp;", ""memberCount"": "&amp;AY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AY13&amp;", ""memberCount"": "&amp;AY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AY15&amp;", ""memberCount"": "&amp;AY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AY17&amp;", ""memberCount"": "&amp;AY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AY19&amp;", ""memberCount"": "&amp;AY20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 170411974, "memberCount": 199}, {"name": "Smile", "contribution": 148333612, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="AZ23" s="0" t="str">
+      <c r="AZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AZ2)&amp;", ""month"": "&amp;MONTH(AZ2)&amp;", ""day"": "&amp;DAY(AZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AZ3&amp;", ""memberCount"": "&amp;AZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AZ5&amp;", ""memberCount"": "&amp;AZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AZ7&amp;", ""memberCount"": "&amp;AZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AZ9&amp;", ""memberCount"": "&amp;AZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AZ11&amp;", ""memberCount"": "&amp;AZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AZ13&amp;", ""memberCount"": "&amp;AZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AZ15&amp;", ""memberCount"": "&amp;AZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AZ17&amp;", ""memberCount"": "&amp;AZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AZ19&amp;", ""memberCount"": "&amp;AZ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 170673397, "memberCount": 199}, {"name": "Smile", "contribution": 148615041, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BA23" s="0" t="str">
+      <c r="BA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BA2)&amp;", ""month"": "&amp;MONTH(BA2)&amp;", ""day"": "&amp;DAY(BA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BA3&amp;", ""memberCount"": "&amp;BA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BA5&amp;", ""memberCount"": "&amp;BA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BA7&amp;", ""memberCount"": "&amp;BA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BA9&amp;", ""memberCount"": "&amp;BA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BA11&amp;", ""memberCount"": "&amp;BA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BA13&amp;", ""memberCount"": "&amp;BA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BA15&amp;", ""memberCount"": "&amp;BA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BA17&amp;", ""memberCount"": "&amp;BA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BA19&amp;", ""memberCount"": "&amp;BA20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 171024300, "memberCount": 200}, {"name": "Smile", "contribution": 148918557, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BB23" s="0" t="str">
+      <c r="BB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BB2)&amp;", ""month"": "&amp;MONTH(BB2)&amp;", ""day"": "&amp;DAY(BB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BB3&amp;", ""memberCount"": "&amp;BB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BB5&amp;", ""memberCount"": "&amp;BB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BB7&amp;", ""memberCount"": "&amp;BB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BB9&amp;", ""memberCount"": "&amp;BB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BB11&amp;", ""memberCount"": "&amp;BB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BB13&amp;", ""memberCount"": "&amp;BB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BB15&amp;", ""memberCount"": "&amp;BB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BB17&amp;", ""memberCount"": "&amp;BB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BB19&amp;", ""memberCount"": "&amp;BB20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 170869036, "memberCount": 198}, {"name": "Smile", "contribution": 149225333, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BC23" s="0" t="str">
+      <c r="BC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BC2)&amp;", ""month"": "&amp;MONTH(BC2)&amp;", ""day"": "&amp;DAY(BC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BC3&amp;", ""memberCount"": "&amp;BC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BC5&amp;", ""memberCount"": "&amp;BC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BC7&amp;", ""memberCount"": "&amp;BC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BC9&amp;", ""memberCount"": "&amp;BC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BC11&amp;", ""memberCount"": "&amp;BC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BC13&amp;", ""memberCount"": "&amp;BC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BC15&amp;", ""memberCount"": "&amp;BC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BC17&amp;", ""memberCount"": "&amp;BC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BC19&amp;", ""memberCount"": "&amp;BC20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 171112991, "memberCount": 198}, {"name": "Smile", "contribution": 149491202, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BD23" s="0" t="str">
+      <c r="BD23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BD2)&amp;", ""month"": "&amp;MONTH(BD2)&amp;", ""day"": "&amp;DAY(BD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BD3&amp;", ""memberCount"": "&amp;BD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BD5&amp;", ""memberCount"": "&amp;BD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BD7&amp;", ""memberCount"": "&amp;BD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BD9&amp;", ""memberCount"": "&amp;BD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BD11&amp;", ""memberCount"": "&amp;BD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BD13&amp;", ""memberCount"": "&amp;BD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BD15&amp;", ""memberCount"": "&amp;BD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BD17&amp;", ""memberCount"": "&amp;BD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BD19&amp;", ""memberCount"": "&amp;BD20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 10, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BE23" s="0" t="str">
+      <c r="BE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BE2)&amp;", ""month"": "&amp;MONTH(BE2)&amp;", ""day"": "&amp;DAY(BE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BE3&amp;", ""memberCount"": "&amp;BE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BE5&amp;", ""memberCount"": "&amp;BE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BE7&amp;", ""memberCount"": "&amp;BE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BE9&amp;", ""memberCount"": "&amp;BE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BE11&amp;", ""memberCount"": "&amp;BE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BE13&amp;", ""memberCount"": "&amp;BE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BE15&amp;", ""memberCount"": "&amp;BE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BE17&amp;", ""memberCount"": "&amp;BE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BE19&amp;", ""memberCount"": "&amp;BE20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 171655854, "memberCount": 199}, {"name": "Smile", "contribution": 149975738, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BF23" s="0" t="str">
+      <c r="BF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BF2)&amp;", ""month"": "&amp;MONTH(BF2)&amp;", ""day"": "&amp;DAY(BF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BF3&amp;", ""memberCount"": "&amp;BF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BF5&amp;", ""memberCount"": "&amp;BF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BF7&amp;", ""memberCount"": "&amp;BF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BF9&amp;", ""memberCount"": "&amp;BF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BF11&amp;", ""memberCount"": "&amp;BF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BF13&amp;", ""memberCount"": "&amp;BF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BF15&amp;", ""memberCount"": "&amp;BF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BF17&amp;", ""memberCount"": "&amp;BF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BF19&amp;", ""memberCount"": "&amp;BF20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BG23" s="0" t="str">
+      <c r="BG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BG2)&amp;", ""month"": "&amp;MONTH(BG2)&amp;", ""day"": "&amp;DAY(BG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BG3&amp;", ""memberCount"": "&amp;BG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BG5&amp;", ""memberCount"": "&amp;BG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BG7&amp;", ""memberCount"": "&amp;BG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BG9&amp;", ""memberCount"": "&amp;BG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BG11&amp;", ""memberCount"": "&amp;BG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BG13&amp;", ""memberCount"": "&amp;BG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BG15&amp;", ""memberCount"": "&amp;BG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BG17&amp;", ""memberCount"": "&amp;BG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BG19&amp;", ""memberCount"": "&amp;BG20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BH23" s="0" t="str">
+      <c r="BH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BH2)&amp;", ""month"": "&amp;MONTH(BH2)&amp;", ""day"": "&amp;DAY(BH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BH3&amp;", ""memberCount"": "&amp;BH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BH5&amp;", ""memberCount"": "&amp;BH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BH7&amp;", ""memberCount"": "&amp;BH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BH9&amp;", ""memberCount"": "&amp;BH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BH11&amp;", ""memberCount"": "&amp;BH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BH13&amp;", ""memberCount"": "&amp;BH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BH15&amp;", ""memberCount"": "&amp;BH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BH17&amp;", ""memberCount"": "&amp;BH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BH19&amp;", ""memberCount"": "&amp;BH20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 172440821, "memberCount": 199}, {"name": "Smile", "contribution": 147056627, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BI23" s="0" t="str">
+      <c r="BI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BI2)&amp;", ""month"": "&amp;MONTH(BI2)&amp;", ""day"": "&amp;DAY(BI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BI3&amp;", ""memberCount"": "&amp;BI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BI5&amp;", ""memberCount"": "&amp;BI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BI7&amp;", ""memberCount"": "&amp;BI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BI9&amp;", ""memberCount"": "&amp;BI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BI11&amp;", ""memberCount"": "&amp;BI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BI13&amp;", ""memberCount"": "&amp;BI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BI15&amp;", ""memberCount"": "&amp;BI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BI17&amp;", ""memberCount"": "&amp;BI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BI19&amp;", ""memberCount"": "&amp;BI20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 172684806, "memberCount": 199}, {"name": "Smile", "contribution": 147238674, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BJ23" s="0" t="str">
+      <c r="BJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BJ2)&amp;", ""month"": "&amp;MONTH(BJ2)&amp;", ""day"": "&amp;DAY(BJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BJ3&amp;", ""memberCount"": "&amp;BJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BJ5&amp;", ""memberCount"": "&amp;BJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BJ7&amp;", ""memberCount"": "&amp;BJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BJ9&amp;", ""memberCount"": "&amp;BJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BJ11&amp;", ""memberCount"": "&amp;BJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BJ13&amp;", ""memberCount"": "&amp;BJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BJ15&amp;", ""memberCount"": "&amp;BJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BJ17&amp;", ""memberCount"": "&amp;BJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BJ19&amp;", ""memberCount"": "&amp;BJ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 173066706, "memberCount": 200}, {"name": "Smile", "contribution": 147460383, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BK23" s="0" t="str">
+      <c r="BK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BK2)&amp;", ""month"": "&amp;MONTH(BK2)&amp;", ""day"": "&amp;DAY(BK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BK3&amp;", ""memberCount"": "&amp;BK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BK5&amp;", ""memberCount"": "&amp;BK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BK7&amp;", ""memberCount"": "&amp;BK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BK9&amp;", ""memberCount"": "&amp;BK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BK11&amp;", ""memberCount"": "&amp;BK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BK13&amp;", ""memberCount"": "&amp;BK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BK15&amp;", ""memberCount"": "&amp;BK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BK17&amp;", ""memberCount"": "&amp;BK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BK19&amp;", ""memberCount"": "&amp;BK20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 173272261, "memberCount": 199}, {"name": "Smile", "contribution": 147726173, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BL23" s="0" t="str">
+      <c r="BL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BL2)&amp;", ""month"": "&amp;MONTH(BL2)&amp;", ""day"": "&amp;DAY(BL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BL3&amp;", ""memberCount"": "&amp;BL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BL5&amp;", ""memberCount"": "&amp;BL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BL7&amp;", ""memberCount"": "&amp;BL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BL9&amp;", ""memberCount"": "&amp;BL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BL11&amp;", ""memberCount"": "&amp;BL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BL13&amp;", ""memberCount"": "&amp;BL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BL15&amp;", ""memberCount"": "&amp;BL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BL17&amp;", ""memberCount"": "&amp;BL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BL19&amp;", ""memberCount"": "&amp;BL20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 173576671, "memberCount": 199}, {"name": "Smile", "contribution": 147967155, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BM23" s="0" t="str">
+      <c r="BM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BM2)&amp;", ""month"": "&amp;MONTH(BM2)&amp;", ""day"": "&amp;DAY(BM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BM3&amp;", ""memberCount"": "&amp;BM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BM5&amp;", ""memberCount"": "&amp;BM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BM7&amp;", ""memberCount"": "&amp;BM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BM9&amp;", ""memberCount"": "&amp;BM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BM11&amp;", ""memberCount"": "&amp;BM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BM13&amp;", ""memberCount"": "&amp;BM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BM15&amp;", ""memberCount"": "&amp;BM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BM17&amp;", ""memberCount"": "&amp;BM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BM19&amp;", ""memberCount"": "&amp;BM20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 173795904, "memberCount": 199}, {"name": "Smile", "contribution": 148237475, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BN23" s="0" t="str">
+      <c r="BN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BN2)&amp;", ""month"": "&amp;MONTH(BN2)&amp;", ""day"": "&amp;DAY(BN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BN3&amp;", ""memberCount"": "&amp;BN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BN5&amp;", ""memberCount"": "&amp;BN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BN7&amp;", ""memberCount"": "&amp;BN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BN9&amp;", ""memberCount"": "&amp;BN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BN11&amp;", ""memberCount"": "&amp;BN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BN13&amp;", ""memberCount"": "&amp;BN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BN15&amp;", ""memberCount"": "&amp;BN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BN17&amp;", ""memberCount"": "&amp;BN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BN19&amp;", ""memberCount"": "&amp;BN20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 174094215, "memberCount": 199}, {"name": "Smile", "contribution": 148511113, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BO23" s="0" t="str">
+      <c r="BO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BO2)&amp;", ""month"": "&amp;MONTH(BO2)&amp;", ""day"": "&amp;DAY(BO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BO3&amp;", ""memberCount"": "&amp;BO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BO5&amp;", ""memberCount"": "&amp;BO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BO7&amp;", ""memberCount"": "&amp;BO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BO9&amp;", ""memberCount"": "&amp;BO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BO11&amp;", ""memberCount"": "&amp;BO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BO13&amp;", ""memberCount"": "&amp;BO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BO15&amp;", ""memberCount"": "&amp;BO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BO17&amp;", ""memberCount"": "&amp;BO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BO19&amp;", ""memberCount"": "&amp;BO20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 174382505, "memberCount": 199}, {"name": "Smile", "contribution": 148693935, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BP23" s="0" t="str">
+      <c r="BP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BP2)&amp;", ""month"": "&amp;MONTH(BP2)&amp;", ""day"": "&amp;DAY(BP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BP3&amp;", ""memberCount"": "&amp;BP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BP5&amp;", ""memberCount"": "&amp;BP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BP7&amp;", ""memberCount"": "&amp;BP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BP9&amp;", ""memberCount"": "&amp;BP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BP11&amp;", ""memberCount"": "&amp;BP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BP13&amp;", ""memberCount"": "&amp;BP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BP15&amp;", ""memberCount"": "&amp;BP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BP17&amp;", ""memberCount"": "&amp;BP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BP19&amp;", ""memberCount"": "&amp;BP20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 174706970, "memberCount": 199}, {"name": "Smile", "contribution": 148956298, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BQ23" s="0" t="str">
+      <c r="BQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BQ2)&amp;", ""month"": "&amp;MONTH(BQ2)&amp;", ""day"": "&amp;DAY(BQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BQ3&amp;", ""memberCount"": "&amp;BQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BQ5&amp;", ""memberCount"": "&amp;BQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BQ7&amp;", ""memberCount"": "&amp;BQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BQ9&amp;", ""memberCount"": "&amp;BQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BQ11&amp;", ""memberCount"": "&amp;BQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BQ13&amp;", ""memberCount"": "&amp;BQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BQ15&amp;", ""memberCount"": "&amp;BQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BQ17&amp;", ""memberCount"": "&amp;BQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BQ19&amp;", ""memberCount"": "&amp;BQ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 174953481, "memberCount": 199}, {"name": "Smile", "contribution": 148889761, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BR23" s="0" t="str">
+      <c r="BR23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BR2)&amp;", ""month"": "&amp;MONTH(BR2)&amp;", ""day"": "&amp;DAY(BR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BR3&amp;", ""memberCount"": "&amp;BR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BR5&amp;", ""memberCount"": "&amp;BR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BR7&amp;", ""memberCount"": "&amp;BR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BR9&amp;", ""memberCount"": "&amp;BR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BR11&amp;", ""memberCount"": "&amp;BR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BR13&amp;", ""memberCount"": "&amp;BR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BR15&amp;", ""memberCount"": "&amp;BR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BR17&amp;", ""memberCount"": "&amp;BR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BR19&amp;", ""memberCount"": "&amp;BR20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 174765629, "memberCount": 199}, {"name": "Smile", "contribution": 149019681, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BS23" s="0" t="str">
+      <c r="BS23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BS2)&amp;", ""month"": "&amp;MONTH(BS2)&amp;", ""day"": "&amp;DAY(BS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BS3&amp;", ""memberCount"": "&amp;BS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BS5&amp;", ""memberCount"": "&amp;BS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BS7&amp;", ""memberCount"": "&amp;BS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BS9&amp;", ""memberCount"": "&amp;BS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BS11&amp;", ""memberCount"": "&amp;BS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BS13&amp;", ""memberCount"": "&amp;BS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BS15&amp;", ""memberCount"": "&amp;BS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BS17&amp;", ""memberCount"": "&amp;BS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BS19&amp;", ""memberCount"": "&amp;BS20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 175218524, "memberCount": 199}, {"name": "Smile", "contribution": 149302152, "memberCount": 184}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BT23" s="0" t="str">
+      <c r="BT23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BT2)&amp;", ""month"": "&amp;MONTH(BT2)&amp;", ""day"": "&amp;DAY(BT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BT3&amp;", ""memberCount"": "&amp;BT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BT5&amp;", ""memberCount"": "&amp;BT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BT7&amp;", ""memberCount"": "&amp;BT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BT9&amp;", ""memberCount"": "&amp;BT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BT11&amp;", ""memberCount"": "&amp;BT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BT13&amp;", ""memberCount"": "&amp;BT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BT15&amp;", ""memberCount"": "&amp;BT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BT17&amp;", ""memberCount"": "&amp;BT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BT19&amp;", ""memberCount"": "&amp;BT20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BU23" s="0" t="str">
+      <c r="BU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BU2)&amp;", ""month"": "&amp;MONTH(BU2)&amp;", ""day"": "&amp;DAY(BU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BU3&amp;", ""memberCount"": "&amp;BU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BU5&amp;", ""memberCount"": "&amp;BU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BU7&amp;", ""memberCount"": "&amp;BU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BU9&amp;", ""memberCount"": "&amp;BU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BU11&amp;", ""memberCount"": "&amp;BU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BU13&amp;", ""memberCount"": "&amp;BU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BU15&amp;", ""memberCount"": "&amp;BU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BU17&amp;", ""memberCount"": "&amp;BU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BU19&amp;", ""memberCount"": "&amp;BU20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 175765564, "memberCount": 199}, {"name": "Smile", "contribution": 149726051, "memberCount": 186}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BV23" s="0" t="str">
+      <c r="BV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BV2)&amp;", ""month"": "&amp;MONTH(BV2)&amp;", ""day"": "&amp;DAY(BV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BV3&amp;", ""memberCount"": "&amp;BV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BV5&amp;", ""memberCount"": "&amp;BV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BV7&amp;", ""memberCount"": "&amp;BV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BV9&amp;", ""memberCount"": "&amp;BV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BV11&amp;", ""memberCount"": "&amp;BV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BV13&amp;", ""memberCount"": "&amp;BV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BV15&amp;", ""memberCount"": "&amp;BV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BV17&amp;", ""memberCount"": "&amp;BV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BV19&amp;", ""memberCount"": "&amp;BV20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 176079506, "memberCount": 199}, {"name": "Smile", "contribution": 149969698, "memberCount": 186}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BW23" s="0" t="str">
+      <c r="BW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BW2)&amp;", ""month"": "&amp;MONTH(BW2)&amp;", ""day"": "&amp;DAY(BW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BW3&amp;", ""memberCount"": "&amp;BW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BW5&amp;", ""memberCount"": "&amp;BW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BW7&amp;", ""memberCount"": "&amp;BW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BW9&amp;", ""memberCount"": "&amp;BW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BW11&amp;", ""memberCount"": "&amp;BW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BW13&amp;", ""memberCount"": "&amp;BW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BW15&amp;", ""memberCount"": "&amp;BW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BW17&amp;", ""memberCount"": "&amp;BW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BW19&amp;", ""memberCount"": "&amp;BW20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 176343763, "memberCount": 199}, {"name": "Smile", "contribution": 150277530, "memberCount": 187}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BX23" s="0" t="str">
+      <c r="BX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BX2)&amp;", ""month"": "&amp;MONTH(BX2)&amp;", ""day"": "&amp;DAY(BX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BX3&amp;", ""memberCount"": "&amp;BX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BX5&amp;", ""memberCount"": "&amp;BX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BX7&amp;", ""memberCount"": "&amp;BX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BX9&amp;", ""memberCount"": "&amp;BX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BX11&amp;", ""memberCount"": "&amp;BX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BX13&amp;", ""memberCount"": "&amp;BX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BX15&amp;", ""memberCount"": "&amp;BX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BX17&amp;", ""memberCount"": "&amp;BX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BX19&amp;", ""memberCount"": "&amp;BX20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BY23" s="0" t="str">
+      <c r="BY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BY2)&amp;", ""month"": "&amp;MONTH(BY2)&amp;", ""day"": "&amp;DAY(BY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BY3&amp;", ""memberCount"": "&amp;BY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BY5&amp;", ""memberCount"": "&amp;BY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BY7&amp;", ""memberCount"": "&amp;BY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BY9&amp;", ""memberCount"": "&amp;BY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BY11&amp;", ""memberCount"": "&amp;BY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BY13&amp;", ""memberCount"": "&amp;BY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BY15&amp;", ""memberCount"": "&amp;BY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BY17&amp;", ""memberCount"": "&amp;BY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BY19&amp;", ""memberCount"": "&amp;BY20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 176860193, "memberCount": 199}, {"name": "Smile", "contribution": 150797492, "memberCount": 188}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="BZ23" s="0" t="str">
+      <c r="BZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BZ2)&amp;", ""month"": "&amp;MONTH(BZ2)&amp;", ""day"": "&amp;DAY(BZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BZ3&amp;", ""memberCount"": "&amp;BZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BZ5&amp;", ""memberCount"": "&amp;BZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BZ7&amp;", ""memberCount"": "&amp;BZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BZ9&amp;", ""memberCount"": "&amp;BZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BZ11&amp;", ""memberCount"": "&amp;BZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BZ13&amp;", ""memberCount"": "&amp;BZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BZ15&amp;", ""memberCount"": "&amp;BZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BZ17&amp;", ""memberCount"": "&amp;BZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BZ19&amp;", ""memberCount"": "&amp;BZ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 177184954, "memberCount": 199}, {"name": "Smile", "contribution": 151029638, "memberCount": 189}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CA23" s="0" t="str">
+      <c r="CA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CA2)&amp;", ""month"": "&amp;MONTH(CA2)&amp;", ""day"": "&amp;DAY(CA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CA3&amp;", ""memberCount"": "&amp;CA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CA5&amp;", ""memberCount"": "&amp;CA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CA7&amp;", ""memberCount"": "&amp;CA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CA9&amp;", ""memberCount"": "&amp;CA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CA11&amp;", ""memberCount"": "&amp;CA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CA13&amp;", ""memberCount"": "&amp;CA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CA15&amp;", ""memberCount"": "&amp;CA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CA17&amp;", ""memberCount"": "&amp;CA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CA19&amp;", ""memberCount"": "&amp;CA20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 177450207, "memberCount": 199}, {"name": "Smile", "contribution": 151304993, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CB23" s="0" t="str">
+      <c r="CB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CB2)&amp;", ""month"": "&amp;MONTH(CB2)&amp;", ""day"": "&amp;DAY(CB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CB3&amp;", ""memberCount"": "&amp;CB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CB5&amp;", ""memberCount"": "&amp;CB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CB7&amp;", ""memberCount"": "&amp;CB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CB9&amp;", ""memberCount"": "&amp;CB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CB11&amp;", ""memberCount"": "&amp;CB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CB13&amp;", ""memberCount"": "&amp;CB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CB15&amp;", ""memberCount"": "&amp;CB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CB17&amp;", ""memberCount"": "&amp;CB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CB19&amp;", ""memberCount"": "&amp;CB20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 177712429, "memberCount": 199}, {"name": "Smile", "contribution": 151562805, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CC23" s="0" t="str">
+      <c r="CC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CC2)&amp;", ""month"": "&amp;MONTH(CC2)&amp;", ""day"": "&amp;DAY(CC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CC3&amp;", ""memberCount"": "&amp;CC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CC5&amp;", ""memberCount"": "&amp;CC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CC7&amp;", ""memberCount"": "&amp;CC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CC9&amp;", ""memberCount"": "&amp;CC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CC11&amp;", ""memberCount"": "&amp;CC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CC13&amp;", ""memberCount"": "&amp;CC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CC15&amp;", ""memberCount"": "&amp;CC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CC17&amp;", ""memberCount"": "&amp;CC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CC19&amp;", ""memberCount"": "&amp;CC20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CD23" s="0" t="str">
+      <c r="CD23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CD2)&amp;", ""month"": "&amp;MONTH(CD2)&amp;", ""day"": "&amp;DAY(CD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CD3&amp;", ""memberCount"": "&amp;CD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CD5&amp;", ""memberCount"": "&amp;CD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CD7&amp;", ""memberCount"": "&amp;CD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CD9&amp;", ""memberCount"": "&amp;CD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CD11&amp;", ""memberCount"": "&amp;CD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CD13&amp;", ""memberCount"": "&amp;CD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CD15&amp;", ""memberCount"": "&amp;CD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CD17&amp;", ""memberCount"": "&amp;CD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CD19&amp;", ""memberCount"": "&amp;CD20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CE23" s="0" t="str">
+      <c r="CE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CE2)&amp;", ""month"": "&amp;MONTH(CE2)&amp;", ""day"": "&amp;DAY(CE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CE3&amp;", ""memberCount"": "&amp;CE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CE5&amp;", ""memberCount"": "&amp;CE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CE7&amp;", ""memberCount"": "&amp;CE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CE9&amp;", ""memberCount"": "&amp;CE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CE11&amp;", ""memberCount"": "&amp;CE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CE13&amp;", ""memberCount"": "&amp;CE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CE15&amp;", ""memberCount"": "&amp;CE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CE17&amp;", ""memberCount"": "&amp;CE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CE19&amp;", ""memberCount"": "&amp;CE20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CF23" s="0" t="str">
+      <c r="CF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CF2)&amp;", ""month"": "&amp;MONTH(CF2)&amp;", ""day"": "&amp;DAY(CF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CF3&amp;", ""memberCount"": "&amp;CF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CF5&amp;", ""memberCount"": "&amp;CF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CF7&amp;", ""memberCount"": "&amp;CF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CF9&amp;", ""memberCount"": "&amp;CF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CF11&amp;", ""memberCount"": "&amp;CF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CF13&amp;", ""memberCount"": "&amp;CF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CF15&amp;", ""memberCount"": "&amp;CF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CF17&amp;", ""memberCount"": "&amp;CF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CF19&amp;", ""memberCount"": "&amp;CF20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CG23" s="0" t="str">
+      <c r="CG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CG2)&amp;", ""month"": "&amp;MONTH(CG2)&amp;", ""day"": "&amp;DAY(CG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CG3&amp;", ""memberCount"": "&amp;CG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CG5&amp;", ""memberCount"": "&amp;CG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CG7&amp;", ""memberCount"": "&amp;CG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CG9&amp;", ""memberCount"": "&amp;CG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CG11&amp;", ""memberCount"": "&amp;CG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CG13&amp;", ""memberCount"": "&amp;CG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CG15&amp;", ""memberCount"": "&amp;CG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CG17&amp;", ""memberCount"": "&amp;CG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CG19&amp;", ""memberCount"": "&amp;CG20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 178556388, "memberCount": 199}, {"name": "Smile", "contribution": 152722699, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CH23" s="0" t="str">
+      <c r="CH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CH2)&amp;", ""month"": "&amp;MONTH(CH2)&amp;", ""day"": "&amp;DAY(CH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CH3&amp;", ""memberCount"": "&amp;CH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CH5&amp;", ""memberCount"": "&amp;CH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CH7&amp;", ""memberCount"": "&amp;CH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CH9&amp;", ""memberCount"": "&amp;CH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CH11&amp;", ""memberCount"": "&amp;CH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CH13&amp;", ""memberCount"": "&amp;CH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CH15&amp;", ""memberCount"": "&amp;CH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CH17&amp;", ""memberCount"": "&amp;CH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CH19&amp;", ""memberCount"": "&amp;CH20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 11, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 178744882, "memberCount": 199}, {"name": "Smile", "contribution": 152264135, "memberCount": 188}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CI23" s="0" t="str">
+      <c r="CI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CI2)&amp;", ""month"": "&amp;MONTH(CI2)&amp;", ""day"": "&amp;DAY(CI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CI3&amp;", ""memberCount"": "&amp;CI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CI5&amp;", ""memberCount"": "&amp;CI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CI7&amp;", ""memberCount"": "&amp;CI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CI9&amp;", ""memberCount"": "&amp;CI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CI11&amp;", ""memberCount"": "&amp;CI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CI13&amp;", ""memberCount"": "&amp;CI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CI15&amp;", ""memberCount"": "&amp;CI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CI17&amp;", ""memberCount"": "&amp;CI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CI19&amp;", ""memberCount"": "&amp;CI20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CJ23" s="0" t="str">
+      <c r="CJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CJ2)&amp;", ""month"": "&amp;MONTH(CJ2)&amp;", ""day"": "&amp;DAY(CJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CJ3&amp;", ""memberCount"": "&amp;CJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CJ5&amp;", ""memberCount"": "&amp;CJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CJ7&amp;", ""memberCount"": "&amp;CJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CJ9&amp;", ""memberCount"": "&amp;CJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CJ11&amp;", ""memberCount"": "&amp;CJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CJ13&amp;", ""memberCount"": "&amp;CJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CJ15&amp;", ""memberCount"": "&amp;CJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CJ17&amp;", ""memberCount"": "&amp;CJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CJ19&amp;", ""memberCount"": "&amp;CJ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CK23" s="0" t="str">
+      <c r="CK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CK2)&amp;", ""month"": "&amp;MONTH(CK2)&amp;", ""day"": "&amp;DAY(CK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CK3&amp;", ""memberCount"": "&amp;CK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CK5&amp;", ""memberCount"": "&amp;CK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CK7&amp;", ""memberCount"": "&amp;CK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CK9&amp;", ""memberCount"": "&amp;CK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CK11&amp;", ""memberCount"": "&amp;CK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CK13&amp;", ""memberCount"": "&amp;CK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CK15&amp;", ""memberCount"": "&amp;CK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CK17&amp;", ""memberCount"": "&amp;CK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CK19&amp;", ""memberCount"": "&amp;CK20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 179524235, "memberCount": 199}, {"name": "Smile", "contribution": 152722828, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CL23" s="0" t="str">
+      <c r="CL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CL2)&amp;", ""month"": "&amp;MONTH(CL2)&amp;", ""day"": "&amp;DAY(CL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CL3&amp;", ""memberCount"": "&amp;CL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CL5&amp;", ""memberCount"": "&amp;CL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CL7&amp;", ""memberCount"": "&amp;CL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CL9&amp;", ""memberCount"": "&amp;CL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CL11&amp;", ""memberCount"": "&amp;CL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CL13&amp;", ""memberCount"": "&amp;CL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CL15&amp;", ""memberCount"": "&amp;CL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CL17&amp;", ""memberCount"": "&amp;CL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CL19&amp;", ""memberCount"": "&amp;CL20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 179673834, "memberCount": 198}, {"name": "Smile", "contribution": 152934584, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CM23" s="0" t="str">
+      <c r="CM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CM2)&amp;", ""month"": "&amp;MONTH(CM2)&amp;", ""day"": "&amp;DAY(CM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CM3&amp;", ""memberCount"": "&amp;CM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CM5&amp;", ""memberCount"": "&amp;CM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CM7&amp;", ""memberCount"": "&amp;CM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CM9&amp;", ""memberCount"": "&amp;CM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CM11&amp;", ""memberCount"": "&amp;CM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CM13&amp;", ""memberCount"": "&amp;CM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CM15&amp;", ""memberCount"": "&amp;CM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CM17&amp;", ""memberCount"": "&amp;CM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CM19&amp;", ""memberCount"": "&amp;CM20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 179946319, "memberCount": 198}, {"name": "Smile", "contribution": 153168438, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CN23" s="0" t="str">
+      <c r="CN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CN2)&amp;", ""month"": "&amp;MONTH(CN2)&amp;", ""day"": "&amp;DAY(CN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CN3&amp;", ""memberCount"": "&amp;CN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CN5&amp;", ""memberCount"": "&amp;CN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CN7&amp;", ""memberCount"": "&amp;CN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CN9&amp;", ""memberCount"": "&amp;CN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CN11&amp;", ""memberCount"": "&amp;CN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CN13&amp;", ""memberCount"": "&amp;CN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CN15&amp;", ""memberCount"": "&amp;CN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CN17&amp;", ""memberCount"": "&amp;CN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CN19&amp;", ""memberCount"": "&amp;CN20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 180176115, "memberCount": 199}, {"name": "Smile", "contribution": 153390094, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CO23" s="0" t="str">
+      <c r="CO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CO2)&amp;", ""month"": "&amp;MONTH(CO2)&amp;", ""day"": "&amp;DAY(CO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CO3&amp;", ""memberCount"": "&amp;CO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CO5&amp;", ""memberCount"": "&amp;CO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CO7&amp;", ""memberCount"": "&amp;CO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CO9&amp;", ""memberCount"": "&amp;CO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CO11&amp;", ""memberCount"": "&amp;CO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CO13&amp;", ""memberCount"": "&amp;CO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CO15&amp;", ""memberCount"": "&amp;CO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CO17&amp;", ""memberCount"": "&amp;CO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CO19&amp;", ""memberCount"": "&amp;CO20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 180472308, "memberCount": 199}, {"name": "Smile", "contribution": 153581062, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CP23" s="0" t="str">
+      <c r="CP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CP2)&amp;", ""month"": "&amp;MONTH(CP2)&amp;", ""day"": "&amp;DAY(CP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CP3&amp;", ""memberCount"": "&amp;CP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CP5&amp;", ""memberCount"": "&amp;CP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CP7&amp;", ""memberCount"": "&amp;CP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CP9&amp;", ""memberCount"": "&amp;CP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CP11&amp;", ""memberCount"": "&amp;CP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CP13&amp;", ""memberCount"": "&amp;CP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CP15&amp;", ""memberCount"": "&amp;CP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CP17&amp;", ""memberCount"": "&amp;CP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CP19&amp;", ""memberCount"": "&amp;CP20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 180655528, "memberCount": 199}, {"name": "Smile", "contribution": 153777314, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CQ23" s="0" t="str">
+      <c r="CQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CQ2)&amp;", ""month"": "&amp;MONTH(CQ2)&amp;", ""day"": "&amp;DAY(CQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CQ3&amp;", ""memberCount"": "&amp;CQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CQ5&amp;", ""memberCount"": "&amp;CQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CQ7&amp;", ""memberCount"": "&amp;CQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CQ9&amp;", ""memberCount"": "&amp;CQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CQ11&amp;", ""memberCount"": "&amp;CQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CQ13&amp;", ""memberCount"": "&amp;CQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CQ15&amp;", ""memberCount"": "&amp;CQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CQ17&amp;", ""memberCount"": "&amp;CQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CQ19&amp;", ""memberCount"": "&amp;CQ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 180891894, "memberCount": 199}, {"name": "Smile", "contribution": 154003498, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CR23" s="0" t="str">
+      <c r="CR23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CR2)&amp;", ""month"": "&amp;MONTH(CR2)&amp;", ""day"": "&amp;DAY(CR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CR3&amp;", ""memberCount"": "&amp;CR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CR5&amp;", ""memberCount"": "&amp;CR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CR7&amp;", ""memberCount"": "&amp;CR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CR9&amp;", ""memberCount"": "&amp;CR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CR11&amp;", ""memberCount"": "&amp;CR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CR13&amp;", ""memberCount"": "&amp;CR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CR15&amp;", ""memberCount"": "&amp;CR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CR17&amp;", ""memberCount"": "&amp;CR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CR19&amp;", ""memberCount"": "&amp;CR20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 181124367, "memberCount": 199}, {"name": "Smile", "contribution": 154212333, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CS23" s="0" t="str">
+      <c r="CS23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CS2)&amp;", ""month"": "&amp;MONTH(CS2)&amp;", ""day"": "&amp;DAY(CS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CS3&amp;", ""memberCount"": "&amp;CS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CS5&amp;", ""memberCount"": "&amp;CS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CS7&amp;", ""memberCount"": "&amp;CS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CS9&amp;", ""memberCount"": "&amp;CS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CS11&amp;", ""memberCount"": "&amp;CS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CS13&amp;", ""memberCount"": "&amp;CS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CS15&amp;", ""memberCount"": "&amp;CS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CS17&amp;", ""memberCount"": "&amp;CS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CS19&amp;", ""memberCount"": "&amp;CS20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 181389343, "memberCount": 199}, {"name": "Smile", "contribution": 154442920, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CT23" s="0" t="str">
+      <c r="CT23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CT2)&amp;", ""month"": "&amp;MONTH(CT2)&amp;", ""day"": "&amp;DAY(CT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CT3&amp;", ""memberCount"": "&amp;CT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CT5&amp;", ""memberCount"": "&amp;CT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CT7&amp;", ""memberCount"": "&amp;CT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CT9&amp;", ""memberCount"": "&amp;CT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CT11&amp;", ""memberCount"": "&amp;CT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CT13&amp;", ""memberCount"": "&amp;CT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CT15&amp;", ""memberCount"": "&amp;CT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CT17&amp;", ""memberCount"": "&amp;CT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CT19&amp;", ""memberCount"": "&amp;CT20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 181631827, "memberCount": 199}, {"name": "Smile", "contribution": 154669513, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CU23" s="0" t="str">
+      <c r="CU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CU2)&amp;", ""month"": "&amp;MONTH(CU2)&amp;", ""day"": "&amp;DAY(CU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CU3&amp;", ""memberCount"": "&amp;CU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CU5&amp;", ""memberCount"": "&amp;CU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CU7&amp;", ""memberCount"": "&amp;CU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CU9&amp;", ""memberCount"": "&amp;CU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CU11&amp;", ""memberCount"": "&amp;CU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CU13&amp;", ""memberCount"": "&amp;CU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CU15&amp;", ""memberCount"": "&amp;CU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CU17&amp;", ""memberCount"": "&amp;CU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CU19&amp;", ""memberCount"": "&amp;CU20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 181876107, "memberCount": 199}, {"name": "Smile", "contribution": 154926700, "memberCount": 187}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CV23" s="0" t="str">
+      <c r="CV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CV2)&amp;", ""month"": "&amp;MONTH(CV2)&amp;", ""day"": "&amp;DAY(CV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CV3&amp;", ""memberCount"": "&amp;CV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CV5&amp;", ""memberCount"": "&amp;CV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CV7&amp;", ""memberCount"": "&amp;CV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CV9&amp;", ""memberCount"": "&amp;CV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CV11&amp;", ""memberCount"": "&amp;CV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CV13&amp;", ""memberCount"": "&amp;CV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CV15&amp;", ""memberCount"": "&amp;CV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CV17&amp;", ""memberCount"": "&amp;CV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CV19&amp;", ""memberCount"": "&amp;CV20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CW23" s="0" t="str">
+      <c r="CW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CW2)&amp;", ""month"": "&amp;MONTH(CW2)&amp;", ""day"": "&amp;DAY(CW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CW3&amp;", ""memberCount"": "&amp;CW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CW5&amp;", ""memberCount"": "&amp;CW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CW7&amp;", ""memberCount"": "&amp;CW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CW9&amp;", ""memberCount"": "&amp;CW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CW11&amp;", ""memberCount"": "&amp;CW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CW13&amp;", ""memberCount"": "&amp;CW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CW15&amp;", ""memberCount"": "&amp;CW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CW17&amp;", ""memberCount"": "&amp;CW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CW19&amp;", ""memberCount"": "&amp;CW20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 182367482, "memberCount": 199}, {"name": "Smile", "contribution": 155349623, "memberCount": 188}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CX23" s="0" t="str">
+      <c r="CX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CX2)&amp;", ""month"": "&amp;MONTH(CX2)&amp;", ""day"": "&amp;DAY(CX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CX3&amp;", ""memberCount"": "&amp;CX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CX5&amp;", ""memberCount"": "&amp;CX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CX7&amp;", ""memberCount"": "&amp;CX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CX9&amp;", ""memberCount"": "&amp;CX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CX11&amp;", ""memberCount"": "&amp;CX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CX13&amp;", ""memberCount"": "&amp;CX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CX15&amp;", ""memberCount"": "&amp;CX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CX17&amp;", ""memberCount"": "&amp;CX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CX19&amp;", ""memberCount"": "&amp;CX20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 182583652, "memberCount": 199}, {"name": "Smile", "contribution": 155602058, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CY23" s="0" t="str">
+      <c r="CY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CY2)&amp;", ""month"": "&amp;MONTH(CY2)&amp;", ""day"": "&amp;DAY(CY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CY3&amp;", ""memberCount"": "&amp;CY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CY5&amp;", ""memberCount"": "&amp;CY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CY7&amp;", ""memberCount"": "&amp;CY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CY9&amp;", ""memberCount"": "&amp;CY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CY11&amp;", ""memberCount"": "&amp;CY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CY13&amp;", ""memberCount"": "&amp;CY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CY15&amp;", ""memberCount"": "&amp;CY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CY17&amp;", ""memberCount"": "&amp;CY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CY19&amp;", ""memberCount"": "&amp;CY20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 182800778, "memberCount": 199}, {"name": "Smile", "contribution": 155919179, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="CZ23" s="0" t="str">
+      <c r="CZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CZ2)&amp;", ""month"": "&amp;MONTH(CZ2)&amp;", ""day"": "&amp;DAY(CZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CZ3&amp;", ""memberCount"": "&amp;CZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CZ5&amp;", ""memberCount"": "&amp;CZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CZ7&amp;", ""memberCount"": "&amp;CZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CZ9&amp;", ""memberCount"": "&amp;CZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CZ11&amp;", ""memberCount"": "&amp;CZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CZ13&amp;", ""memberCount"": "&amp;CZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CZ15&amp;", ""memberCount"": "&amp;CZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CZ17&amp;", ""memberCount"": "&amp;CZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CZ19&amp;", ""memberCount"": "&amp;CZ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 182961613, "memberCount": 199}, {"name": "Smile", "contribution": 156200059, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DA23" s="0" t="str">
+      <c r="DA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DA2)&amp;", ""month"": "&amp;MONTH(DA2)&amp;", ""day"": "&amp;DAY(DA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DA3&amp;", ""memberCount"": "&amp;DA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DA5&amp;", ""memberCount"": "&amp;DA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DA7&amp;", ""memberCount"": "&amp;DA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DA9&amp;", ""memberCount"": "&amp;DA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DA11&amp;", ""memberCount"": "&amp;DA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DA13&amp;", ""memberCount"": "&amp;DA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DA15&amp;", ""memberCount"": "&amp;DA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DA17&amp;", ""memberCount"": "&amp;DA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DA19&amp;", ""memberCount"": "&amp;DA20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DB23" s="0" t="str">
+      <c r="DB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DB2)&amp;", ""month"": "&amp;MONTH(DB2)&amp;", ""day"": "&amp;DAY(DB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DB3&amp;", ""memberCount"": "&amp;DB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DB5&amp;", ""memberCount"": "&amp;DB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DB7&amp;", ""memberCount"": "&amp;DB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DB9&amp;", ""memberCount"": "&amp;DB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DB11&amp;", ""memberCount"": "&amp;DB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DB13&amp;", ""memberCount"": "&amp;DB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DB15&amp;", ""memberCount"": "&amp;DB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DB17&amp;", ""memberCount"": "&amp;DB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DB19&amp;", ""memberCount"": "&amp;DB20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 182622991, "memberCount": 196}, {"name": "Smile", "contribution": 156748575, "memberCount": 197}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DC23" s="0" t="str">
+      <c r="DC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DC2)&amp;", ""month"": "&amp;MONTH(DC2)&amp;", ""day"": "&amp;DAY(DC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DC3&amp;", ""memberCount"": "&amp;DC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DC5&amp;", ""memberCount"": "&amp;DC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DC7&amp;", ""memberCount"": "&amp;DC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DC9&amp;", ""memberCount"": "&amp;DC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DC11&amp;", ""memberCount"": "&amp;DC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DC13&amp;", ""memberCount"": "&amp;DC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DC15&amp;", ""memberCount"": "&amp;DC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DC17&amp;", ""memberCount"": "&amp;DC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DC19&amp;", ""memberCount"": "&amp;DC20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 182896222, "memberCount": 196}, {"name": "Smile", "contribution": 157047533, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DD23" s="0" t="str">
+      <c r="DD23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DD2)&amp;", ""month"": "&amp;MONTH(DD2)&amp;", ""day"": "&amp;DAY(DD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DD3&amp;", ""memberCount"": "&amp;DD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DD5&amp;", ""memberCount"": "&amp;DD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DD7&amp;", ""memberCount"": "&amp;DD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DD9&amp;", ""memberCount"": "&amp;DD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DD11&amp;", ""memberCount"": "&amp;DD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DD13&amp;", ""memberCount"": "&amp;DD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DD15&amp;", ""memberCount"": "&amp;DD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DD17&amp;", ""memberCount"": "&amp;DD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DD19&amp;", ""memberCount"": "&amp;DD20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 183056451, "memberCount": 196}, {"name": "Smile", "contribution": 157324074, "memberCount": 197}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DE23" s="0" t="str">
+      <c r="DE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DE2)&amp;", ""month"": "&amp;MONTH(DE2)&amp;", ""day"": "&amp;DAY(DE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DE3&amp;", ""memberCount"": "&amp;DE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DE5&amp;", ""memberCount"": "&amp;DE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DE7&amp;", ""memberCount"": "&amp;DE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DE9&amp;", ""memberCount"": "&amp;DE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DE11&amp;", ""memberCount"": "&amp;DE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DE13&amp;", ""memberCount"": "&amp;DE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DE15&amp;", ""memberCount"": "&amp;DE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DE17&amp;", ""memberCount"": "&amp;DE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DE19&amp;", ""memberCount"": "&amp;DE20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 183327141, "memberCount": 196}, {"name": "Smile", "contribution": 157654214, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DF23" s="0" t="str">
+      <c r="DF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DF2)&amp;", ""month"": "&amp;MONTH(DF2)&amp;", ""day"": "&amp;DAY(DF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DF3&amp;", ""memberCount"": "&amp;DF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DF5&amp;", ""memberCount"": "&amp;DF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DF7&amp;", ""memberCount"": "&amp;DF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DF9&amp;", ""memberCount"": "&amp;DF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DF11&amp;", ""memberCount"": "&amp;DF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DF13&amp;", ""memberCount"": "&amp;DF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DF15&amp;", ""memberCount"": "&amp;DF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DF17&amp;", ""memberCount"": "&amp;DF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DF19&amp;", ""memberCount"": "&amp;DF20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 183507955, "memberCount": 197}, {"name": "Smile", "contribution": 157873697, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DG23" s="0" t="str">
+      <c r="DG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DG2)&amp;", ""month"": "&amp;MONTH(DG2)&amp;", ""day"": "&amp;DAY(DG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DG3&amp;", ""memberCount"": "&amp;DG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DG5&amp;", ""memberCount"": "&amp;DG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DG7&amp;", ""memberCount"": "&amp;DG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DG9&amp;", ""memberCount"": "&amp;DG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DG11&amp;", ""memberCount"": "&amp;DG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DG13&amp;", ""memberCount"": "&amp;DG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DG15&amp;", ""memberCount"": "&amp;DG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DG17&amp;", ""memberCount"": "&amp;DG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DG19&amp;", ""memberCount"": "&amp;DG20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 183734947, "memberCount": 197}, {"name": "Smile", "contribution": 158109784, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DH23" s="0" t="str">
+      <c r="DH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DH2)&amp;", ""month"": "&amp;MONTH(DH2)&amp;", ""day"": "&amp;DAY(DH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DH3&amp;", ""memberCount"": "&amp;DH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DH5&amp;", ""memberCount"": "&amp;DH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DH7&amp;", ""memberCount"": "&amp;DH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DH9&amp;", ""memberCount"": "&amp;DH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DH11&amp;", ""memberCount"": "&amp;DH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DH13&amp;", ""memberCount"": "&amp;DH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DH15&amp;", ""memberCount"": "&amp;DH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DH17&amp;", ""memberCount"": "&amp;DH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DH19&amp;", ""memberCount"": "&amp;DH20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 183958289, "memberCount": 197}, {"name": "Smile", "contribution": 158201494, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DI23" s="0" t="str">
+      <c r="DI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DI2)&amp;", ""month"": "&amp;MONTH(DI2)&amp;", ""day"": "&amp;DAY(DI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DI3&amp;", ""memberCount"": "&amp;DI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DI5&amp;", ""memberCount"": "&amp;DI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DI7&amp;", ""memberCount"": "&amp;DI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DI9&amp;", ""memberCount"": "&amp;DI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DI11&amp;", ""memberCount"": "&amp;DI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DI13&amp;", ""memberCount"": "&amp;DI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DI15&amp;", ""memberCount"": "&amp;DI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DI17&amp;", ""memberCount"": "&amp;DI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DI19&amp;", ""memberCount"": "&amp;DI20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DJ23" s="0" t="str">
+      <c r="DJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DJ2)&amp;", ""month"": "&amp;MONTH(DJ2)&amp;", ""day"": "&amp;DAY(DJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DJ3&amp;", ""memberCount"": "&amp;DJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DJ5&amp;", ""memberCount"": "&amp;DJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DJ7&amp;", ""memberCount"": "&amp;DJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DJ9&amp;", ""memberCount"": "&amp;DJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DJ11&amp;", ""memberCount"": "&amp;DJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DJ13&amp;", ""memberCount"": "&amp;DJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DJ15&amp;", ""memberCount"": "&amp;DJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DJ17&amp;", ""memberCount"": "&amp;DJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DJ19&amp;", ""memberCount"": "&amp;DJ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 184394450, "memberCount": 197}, {"name": "Smile", "contribution": 158736927, "memberCount": 195}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DK23" s="0" t="str">
+      <c r="DK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DK2)&amp;", ""month"": "&amp;MONTH(DK2)&amp;", ""day"": "&amp;DAY(DK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DK3&amp;", ""memberCount"": "&amp;DK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DK5&amp;", ""memberCount"": "&amp;DK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DK7&amp;", ""memberCount"": "&amp;DK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DK9&amp;", ""memberCount"": "&amp;DK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DK11&amp;", ""memberCount"": "&amp;DK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DK13&amp;", ""memberCount"": "&amp;DK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DK15&amp;", ""memberCount"": "&amp;DK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DK17&amp;", ""memberCount"": "&amp;DK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DK19&amp;", ""memberCount"": "&amp;DK20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 184610058, "memberCount": 197}, {"name": "Smile", "contribution": 158770099, "memberCount": 194}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DL23" s="0" t="str">
+      <c r="DL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DL2)&amp;", ""month"": "&amp;MONTH(DL2)&amp;", ""day"": "&amp;DAY(DL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DL3&amp;", ""memberCount"": "&amp;DL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DL5&amp;", ""memberCount"": "&amp;DL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DL7&amp;", ""memberCount"": "&amp;DL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DL9&amp;", ""memberCount"": "&amp;DL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DL11&amp;", ""memberCount"": "&amp;DL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DL13&amp;", ""memberCount"": "&amp;DL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DL15&amp;", ""memberCount"": "&amp;DL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DL17&amp;", ""memberCount"": "&amp;DL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DL19&amp;", ""memberCount"": "&amp;DL20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DM23" s="0" t="str">
+      <c r="DM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DM2)&amp;", ""month"": "&amp;MONTH(DM2)&amp;", ""day"": "&amp;DAY(DM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DM3&amp;", ""memberCount"": "&amp;DM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DM5&amp;", ""memberCount"": "&amp;DM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DM7&amp;", ""memberCount"": "&amp;DM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DM9&amp;", ""memberCount"": "&amp;DM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DM11&amp;", ""memberCount"": "&amp;DM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DM13&amp;", ""memberCount"": "&amp;DM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DM15&amp;", ""memberCount"": "&amp;DM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DM17&amp;", ""memberCount"": "&amp;DM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DM19&amp;", ""memberCount"": "&amp;DM20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2018, "month": 12, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DN23" s="0" t="str">
+      <c r="DN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DN2)&amp;", ""month"": "&amp;MONTH(DN2)&amp;", ""day"": "&amp;DAY(DN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DN3&amp;", ""memberCount"": "&amp;DN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DN5&amp;", ""memberCount"": "&amp;DN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DN7&amp;", ""memberCount"": "&amp;DN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DN9&amp;", ""memberCount"": "&amp;DN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DN11&amp;", ""memberCount"": "&amp;DN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DN13&amp;", ""memberCount"": "&amp;DN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DN15&amp;", ""memberCount"": "&amp;DN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DN17&amp;", ""memberCount"": "&amp;DN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DN19&amp;", ""memberCount"": "&amp;DN20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 185200323, "memberCount": 197}, {"name": "Smile", "contribution": 159299718, "memberCount": 193}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DO23" s="0" t="str">
+      <c r="DO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DO2)&amp;", ""month"": "&amp;MONTH(DO2)&amp;", ""day"": "&amp;DAY(DO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DO3&amp;", ""memberCount"": "&amp;DO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DO5&amp;", ""memberCount"": "&amp;DO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DO7&amp;", ""memberCount"": "&amp;DO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DO9&amp;", ""memberCount"": "&amp;DO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DO11&amp;", ""memberCount"": "&amp;DO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DO13&amp;", ""memberCount"": "&amp;DO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DO15&amp;", ""memberCount"": "&amp;DO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DO17&amp;", ""memberCount"": "&amp;DO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DO19&amp;", ""memberCount"": "&amp;DO20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 185165577, "memberCount": 194}, {"name": "Smile", "contribution": 159561807, "memberCount": 193}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DP23" s="0" t="str">
+      <c r="DP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DP2)&amp;", ""month"": "&amp;MONTH(DP2)&amp;", ""day"": "&amp;DAY(DP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DP3&amp;", ""memberCount"": "&amp;DP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DP5&amp;", ""memberCount"": "&amp;DP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DP7&amp;", ""memberCount"": "&amp;DP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DP9&amp;", ""memberCount"": "&amp;DP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DP11&amp;", ""memberCount"": "&amp;DP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DP13&amp;", ""memberCount"": "&amp;DP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DP15&amp;", ""memberCount"": "&amp;DP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DP17&amp;", ""memberCount"": "&amp;DP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DP19&amp;", ""memberCount"": "&amp;DP20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 185397575, "memberCount": 194}, {"name": "Smile", "contribution": 159020140, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DQ23" s="0" t="str">
+      <c r="DQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DQ2)&amp;", ""month"": "&amp;MONTH(DQ2)&amp;", ""day"": "&amp;DAY(DQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DQ3&amp;", ""memberCount"": "&amp;DQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DQ5&amp;", ""memberCount"": "&amp;DQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DQ7&amp;", ""memberCount"": "&amp;DQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DQ9&amp;", ""memberCount"": "&amp;DQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DQ11&amp;", ""memberCount"": "&amp;DQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DQ13&amp;", ""memberCount"": "&amp;DQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DQ15&amp;", ""memberCount"": "&amp;DQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DQ17&amp;", ""memberCount"": "&amp;DQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DQ19&amp;", ""memberCount"": "&amp;DQ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 185591824, "memberCount": 195}, {"name": "Smile", "contribution": 159223000, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DR23" s="0" t="str">
+      <c r="DR23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DR2)&amp;", ""month"": "&amp;MONTH(DR2)&amp;", ""day"": "&amp;DAY(DR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DR3&amp;", ""memberCount"": "&amp;DR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DR5&amp;", ""memberCount"": "&amp;DR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DR7&amp;", ""memberCount"": "&amp;DR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DR9&amp;", ""memberCount"": "&amp;DR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DR11&amp;", ""memberCount"": "&amp;DR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DR13&amp;", ""memberCount"": "&amp;DR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DR15&amp;", ""memberCount"": "&amp;DR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DR17&amp;", ""memberCount"": "&amp;DR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DR19&amp;", ""memberCount"": "&amp;DR20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 185818605, "memberCount": 194}, {"name": "Smile", "contribution": 159454512, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DS23" s="0" t="str">
+      <c r="DS23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DS2)&amp;", ""month"": "&amp;MONTH(DS2)&amp;", ""day"": "&amp;DAY(DS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DS3&amp;", ""memberCount"": "&amp;DS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DS5&amp;", ""memberCount"": "&amp;DS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DS7&amp;", ""memberCount"": "&amp;DS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DS9&amp;", ""memberCount"": "&amp;DS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DS11&amp;", ""memberCount"": "&amp;DS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DS13&amp;", ""memberCount"": "&amp;DS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DS15&amp;", ""memberCount"": "&amp;DS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DS17&amp;", ""memberCount"": "&amp;DS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DS19&amp;", ""memberCount"": "&amp;DS20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 186103508, "memberCount": 195}, {"name": "Smile", "contribution": 159701078, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DT23" s="0" t="str">
+      <c r="DT23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DT2)&amp;", ""month"": "&amp;MONTH(DT2)&amp;", ""day"": "&amp;DAY(DT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DT3&amp;", ""memberCount"": "&amp;DT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DT5&amp;", ""memberCount"": "&amp;DT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DT7&amp;", ""memberCount"": "&amp;DT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DT9&amp;", ""memberCount"": "&amp;DT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DT11&amp;", ""memberCount"": "&amp;DT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DT13&amp;", ""memberCount"": "&amp;DT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DT15&amp;", ""memberCount"": "&amp;DT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DT17&amp;", ""memberCount"": "&amp;DT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DT19&amp;", ""memberCount"": "&amp;DT20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 186342981, "memberCount": 195}, {"name": "Smile", "contribution": 159955093, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DU23" s="0" t="str">
+      <c r="DU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DU2)&amp;", ""month"": "&amp;MONTH(DU2)&amp;", ""day"": "&amp;DAY(DU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DU3&amp;", ""memberCount"": "&amp;DU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DU5&amp;", ""memberCount"": "&amp;DU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DU7&amp;", ""memberCount"": "&amp;DU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DU9&amp;", ""memberCount"": "&amp;DU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DU11&amp;", ""memberCount"": "&amp;DU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DU13&amp;", ""memberCount"": "&amp;DU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DU15&amp;", ""memberCount"": "&amp;DU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DU17&amp;", ""memberCount"": "&amp;DU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DU19&amp;", ""memberCount"": "&amp;DU20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 186538216, "memberCount": 195}, {"name": "Smile", "contribution": 160221769, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DV23" s="0" t="str">
+      <c r="DV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DV2)&amp;", ""month"": "&amp;MONTH(DV2)&amp;", ""day"": "&amp;DAY(DV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DV3&amp;", ""memberCount"": "&amp;DV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DV5&amp;", ""memberCount"": "&amp;DV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DV7&amp;", ""memberCount"": "&amp;DV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DV9&amp;", ""memberCount"": "&amp;DV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DV11&amp;", ""memberCount"": "&amp;DV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DV13&amp;", ""memberCount"": "&amp;DV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DV15&amp;", ""memberCount"": "&amp;DV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DV17&amp;", ""memberCount"": "&amp;DV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DV19&amp;", ""memberCount"": "&amp;DV20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 186839873, "memberCount": 197}, {"name": "Smile", "contribution": 160456920, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DW23" s="0" t="str">
+      <c r="DW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DW2)&amp;", ""month"": "&amp;MONTH(DW2)&amp;", ""day"": "&amp;DAY(DW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DW3&amp;", ""memberCount"": "&amp;DW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DW5&amp;", ""memberCount"": "&amp;DW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DW7&amp;", ""memberCount"": "&amp;DW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DW9&amp;", ""memberCount"": "&amp;DW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DW11&amp;", ""memberCount"": "&amp;DW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DW13&amp;", ""memberCount"": "&amp;DW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DW15&amp;", ""memberCount"": "&amp;DW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DW17&amp;", ""memberCount"": "&amp;DW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DW19&amp;", ""memberCount"": "&amp;DW20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DX23" s="0" t="str">
+      <c r="DX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DX2)&amp;", ""month"": "&amp;MONTH(DX2)&amp;", ""day"": "&amp;DAY(DX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DX3&amp;", ""memberCount"": "&amp;DX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DX5&amp;", ""memberCount"": "&amp;DX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DX7&amp;", ""memberCount"": "&amp;DX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DX9&amp;", ""memberCount"": "&amp;DX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DX11&amp;", ""memberCount"": "&amp;DX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DX13&amp;", ""memberCount"": "&amp;DX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DX15&amp;", ""memberCount"": "&amp;DX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DX17&amp;", ""memberCount"": "&amp;DX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DX19&amp;", ""memberCount"": "&amp;DX20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 187400850, "memberCount": 197}, {"name": "Smile", "contribution": 160976728, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DY23" s="0" t="str">
+      <c r="DY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DY2)&amp;", ""month"": "&amp;MONTH(DY2)&amp;", ""day"": "&amp;DAY(DY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DY3&amp;", ""memberCount"": "&amp;DY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DY5&amp;", ""memberCount"": "&amp;DY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DY7&amp;", ""memberCount"": "&amp;DY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DY9&amp;", ""memberCount"": "&amp;DY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DY11&amp;", ""memberCount"": "&amp;DY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DY13&amp;", ""memberCount"": "&amp;DY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DY15&amp;", ""memberCount"": "&amp;DY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DY17&amp;", ""memberCount"": "&amp;DY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DY19&amp;", ""memberCount"": "&amp;DY20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="DZ23" s="0" t="str">
+      <c r="DZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DZ2)&amp;", ""month"": "&amp;MONTH(DZ2)&amp;", ""day"": "&amp;DAY(DZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DZ3&amp;", ""memberCount"": "&amp;DZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DZ5&amp;", ""memberCount"": "&amp;DZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DZ7&amp;", ""memberCount"": "&amp;DZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DZ9&amp;", ""memberCount"": "&amp;DZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DZ11&amp;", ""memberCount"": "&amp;DZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DZ13&amp;", ""memberCount"": "&amp;DZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DZ15&amp;", ""memberCount"": "&amp;DZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DZ17&amp;", ""memberCount"": "&amp;DZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DZ19&amp;", ""memberCount"": "&amp;DZ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 187931211, "memberCount": 198}, {"name": "Smile", "contribution": 161321505, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EA23" s="0" t="str">
+      <c r="EA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EA2)&amp;", ""month"": "&amp;MONTH(EA2)&amp;", ""day"": "&amp;DAY(EA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EA3&amp;", ""memberCount"": "&amp;EA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EA5&amp;", ""memberCount"": "&amp;EA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EA7&amp;", ""memberCount"": "&amp;EA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EA9&amp;", ""memberCount"": "&amp;EA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EA11&amp;", ""memberCount"": "&amp;EA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EA13&amp;", ""memberCount"": "&amp;EA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EA15&amp;", ""memberCount"": "&amp;EA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EA17&amp;", ""memberCount"": "&amp;EA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EA19&amp;", ""memberCount"": "&amp;EA20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 188156311, "memberCount": 197}, {"name": "Smile", "contribution": 161555387, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EB23" s="0" t="str">
+      <c r="EB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EB2)&amp;", ""month"": "&amp;MONTH(EB2)&amp;", ""day"": "&amp;DAY(EB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EB3&amp;", ""memberCount"": "&amp;EB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EB5&amp;", ""memberCount"": "&amp;EB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EB7&amp;", ""memberCount"": "&amp;EB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EB9&amp;", ""memberCount"": "&amp;EB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EB11&amp;", ""memberCount"": "&amp;EB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EB13&amp;", ""memberCount"": "&amp;EB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EB15&amp;", ""memberCount"": "&amp;EB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EB17&amp;", ""memberCount"": "&amp;EB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EB19&amp;", ""memberCount"": "&amp;EB20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 188430959, "memberCount": 195}, {"name": "Smile", "contribution": 161793095, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EC23" s="0" t="str">
+      <c r="EC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EC2)&amp;", ""month"": "&amp;MONTH(EC2)&amp;", ""day"": "&amp;DAY(EC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EC3&amp;", ""memberCount"": "&amp;EC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EC5&amp;", ""memberCount"": "&amp;EC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EC7&amp;", ""memberCount"": "&amp;EC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EC9&amp;", ""memberCount"": "&amp;EC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EC11&amp;", ""memberCount"": "&amp;EC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EC13&amp;", ""memberCount"": "&amp;EC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EC15&amp;", ""memberCount"": "&amp;EC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EC17&amp;", ""memberCount"": "&amp;EC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EC19&amp;", ""memberCount"": "&amp;EC20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 188699895, "memberCount": 195}, {"name": "Smile", "contribution": 162078278, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="ED23" s="0" t="str">
+      <c r="ED23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ED2)&amp;", ""month"": "&amp;MONTH(ED2)&amp;", ""day"": "&amp;DAY(ED2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ED3&amp;", ""memberCount"": "&amp;ED4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ED5&amp;", ""memberCount"": "&amp;ED6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ED7&amp;", ""memberCount"": "&amp;ED8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ED9&amp;", ""memberCount"": "&amp;ED10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ED11&amp;", ""memberCount"": "&amp;ED12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ED13&amp;", ""memberCount"": "&amp;ED14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ED15&amp;", ""memberCount"": "&amp;ED16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ED17&amp;", ""memberCount"": "&amp;ED18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ED19&amp;", ""memberCount"": "&amp;ED20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 188933902, "memberCount": 195}, {"name": "Smile", "contribution": 162285948, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EE23" s="0" t="str">
+      <c r="EE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EE2)&amp;", ""month"": "&amp;MONTH(EE2)&amp;", ""day"": "&amp;DAY(EE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EE3&amp;", ""memberCount"": "&amp;EE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EE5&amp;", ""memberCount"": "&amp;EE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EE7&amp;", ""memberCount"": "&amp;EE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EE9&amp;", ""memberCount"": "&amp;EE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EE11&amp;", ""memberCount"": "&amp;EE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EE13&amp;", ""memberCount"": "&amp;EE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EE15&amp;", ""memberCount"": "&amp;EE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EE17&amp;", ""memberCount"": "&amp;EE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EE19&amp;", ""memberCount"": "&amp;EE20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EF23" s="0" t="str">
+      <c r="EF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EF2)&amp;", ""month"": "&amp;MONTH(EF2)&amp;", ""day"": "&amp;DAY(EF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EF3&amp;", ""memberCount"": "&amp;EF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EF5&amp;", ""memberCount"": "&amp;EF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EF7&amp;", ""memberCount"": "&amp;EF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EF9&amp;", ""memberCount"": "&amp;EF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EF11&amp;", ""memberCount"": "&amp;EF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EF13&amp;", ""memberCount"": "&amp;EF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EF15&amp;", ""memberCount"": "&amp;EF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EF17&amp;", ""memberCount"": "&amp;EF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EF19&amp;", ""memberCount"": "&amp;EF20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 189438101, "memberCount": 195}, {"name": "Smile", "contribution": 162718851, "memberCount": 193}, {"name": "Elite", "contribution": 153632149, "memberCount": 198}, {"name": "Savages", "contribution": 147726884, "memberCount": 199}, {"name": "Spring", "contribution": 128509084, "memberCount": 196}, {"name": "Bounce", "contribution": 117809192, "memberCount": 199}, {"name": "Sunset", "contribution": 123736742, "memberCount": 195}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EG23" s="0" t="str">
+      <c r="EG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EG2)&amp;", ""month"": "&amp;MONTH(EG2)&amp;", ""day"": "&amp;DAY(EG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EG3&amp;", ""memberCount"": "&amp;EG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EG5&amp;", ""memberCount"": "&amp;EG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EG7&amp;", ""memberCount"": "&amp;EG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EG9&amp;", ""memberCount"": "&amp;EG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EG11&amp;", ""memberCount"": "&amp;EG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EG13&amp;", ""memberCount"": "&amp;EG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EG15&amp;", ""memberCount"": "&amp;EG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EG17&amp;", ""memberCount"": "&amp;EG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EG19&amp;", ""memberCount"": "&amp;EG20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 189765833, "memberCount": 195}, {"name": "Smile", "contribution": 162979036, "memberCount": 193}, {"name": "Elite", "contribution": 153839284, "memberCount": 198}, {"name": "Savages", "contribution": 147903390, "memberCount": 199}, {"name": "Spring", "contribution": 128627785, "memberCount": 196}, {"name": "Bounce", "contribution": 118202201, "memberCount": 199}, {"name": "Sunset", "contribution": 123931566, "memberCount": 196}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EH23" s="0" t="str">
+      <c r="EH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EH2)&amp;", ""month"": "&amp;MONTH(EH2)&amp;", ""day"": "&amp;DAY(EH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EH3&amp;", ""memberCount"": "&amp;EH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EH5&amp;", ""memberCount"": "&amp;EH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EH7&amp;", ""memberCount"": "&amp;EH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EH9&amp;", ""memberCount"": "&amp;EH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EH11&amp;", ""memberCount"": "&amp;EH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EH13&amp;", ""memberCount"": "&amp;EH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EH15&amp;", ""memberCount"": "&amp;EH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EH17&amp;", ""memberCount"": "&amp;EH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EH19&amp;", ""memberCount"": "&amp;EH20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 190021176, "memberCount": 196}, {"name": "Smile", "contribution": 163218398, "memberCount": 193}, {"name": "Elite", "contribution": 154023549, "memberCount": 198}, {"name": "Savages", "contribution": 148074114, "memberCount": 199}, {"name": "Spring", "contribution": 128726770, "memberCount": 196}, {"name": "Bounce", "contribution": 118324864, "memberCount": 195}, {"name": "Sunset", "contribution": 124055808, "memberCount": 197}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EI23" s="0" t="str">
+      <c r="EI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EI2)&amp;", ""month"": "&amp;MONTH(EI2)&amp;", ""day"": "&amp;DAY(EI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EI3&amp;", ""memberCount"": "&amp;EI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EI5&amp;", ""memberCount"": "&amp;EI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EI7&amp;", ""memberCount"": "&amp;EI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EI9&amp;", ""memberCount"": "&amp;EI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EI11&amp;", ""memberCount"": "&amp;EI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EI13&amp;", ""memberCount"": "&amp;EI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EI15&amp;", ""memberCount"": "&amp;EI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EI17&amp;", ""memberCount"": "&amp;EI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EI19&amp;", ""memberCount"": "&amp;EI20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 190287755, "memberCount": 196}, {"name": "Smile", "contribution": 163497947, "memberCount": 193}, {"name": "Elite", "contribution": 154338017, "memberCount": 198}, {"name": "Savages", "contribution": 148220799, "memberCount": 199}, {"name": "Spring", "contribution": 128828967, "memberCount": 196}, {"name": "Bounce", "contribution": 118560848, "memberCount": 195}, {"name": "Sunset", "contribution": 124190713, "memberCount": 197}, {"name": "Beaters", "contribution": 104746636, "memberCount": 199}, {"name": "Downtime", "contribution": 84374573, "memberCount": 199}]}</v>
       </c>
-      <c r="EJ23" s="0" t="str">
+      <c r="EJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EJ2)&amp;", ""month"": "&amp;MONTH(EJ2)&amp;", ""day"": "&amp;DAY(EJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EJ3&amp;", ""memberCount"": "&amp;EJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EJ5&amp;", ""memberCount"": "&amp;EJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EJ7&amp;", ""memberCount"": "&amp;EJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EJ9&amp;", ""memberCount"": "&amp;EJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EJ11&amp;", ""memberCount"": "&amp;EJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EJ13&amp;", ""memberCount"": "&amp;EJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EJ15&amp;", ""memberCount"": "&amp;EJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EJ17&amp;", ""memberCount"": "&amp;EJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EJ19&amp;", ""memberCount"": "&amp;EJ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 190513621, "memberCount": 197}, {"name": "Smile", "contribution": 163734703, "memberCount": 193}, {"name": "Elite", "contribution": 154508859, "memberCount": 198}, {"name": "Savages", "contribution": 148343901, "memberCount": 199}, {"name": "Spring", "contribution": 128993512, "memberCount": 197}, {"name": "Bounce", "contribution": 118775882, "memberCount": 195}, {"name": "Sunset", "contribution": 124286541, "memberCount": 197}, {"name": "Beaters", "contribution": 104982797, "memberCount": 199}, {"name": "Downtime", "contribution": 84490781, "memberCount": 200}]}</v>
       </c>
-      <c r="EK23" s="0" t="str">
+      <c r="EK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EK2)&amp;", ""month"": "&amp;MONTH(EK2)&amp;", ""day"": "&amp;DAY(EK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EK3&amp;", ""memberCount"": "&amp;EK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EK5&amp;", ""memberCount"": "&amp;EK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EK7&amp;", ""memberCount"": "&amp;EK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EK9&amp;", ""memberCount"": "&amp;EK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EK11&amp;", ""memberCount"": "&amp;EK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EK13&amp;", ""memberCount"": "&amp;EK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EK15&amp;", ""memberCount"": "&amp;EK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EK17&amp;", ""memberCount"": "&amp;EK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EK19&amp;", ""memberCount"": "&amp;EK20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 190814131, "memberCount": 197}, {"name": "Smile", "contribution": 164010344, "memberCount": 193}, {"name": "Elite", "contribution": 154706458, "memberCount": 198}, {"name": "Savages", "contribution": 148480227, "memberCount": 199}, {"name": "Spring", "contribution": 129084086, "memberCount": 197}, {"name": "Bounce", "contribution": 119031790, "memberCount": 195}, {"name": "Sunset", "contribution": 117396613, "memberCount": 176}, {"name": "Beaters", "contribution": 105170978, "memberCount": 200}, {"name": "Downtime", "contribution": 84613096, "memberCount": 200}]}</v>
       </c>
-      <c r="EL23" s="0" t="str">
+      <c r="EL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EL2)&amp;", ""month"": "&amp;MONTH(EL2)&amp;", ""day"": "&amp;DAY(EL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EL3&amp;", ""memberCount"": "&amp;EL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EL5&amp;", ""memberCount"": "&amp;EL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EL7&amp;", ""memberCount"": "&amp;EL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EL9&amp;", ""memberCount"": "&amp;EL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EL11&amp;", ""memberCount"": "&amp;EL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EL13&amp;", ""memberCount"": "&amp;EL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EL15&amp;", ""memberCount"": "&amp;EL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EL17&amp;", ""memberCount"": "&amp;EL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EL19&amp;", ""memberCount"": "&amp;EL20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 191035540, "memberCount": 198}, {"name": "Smile", "contribution": 164212994, "memberCount": 194}, {"name": "Elite", "contribution": 154933476, "memberCount": 198}, {"name": "Savages", "contribution": 148568088, "memberCount": 199}, {"name": "Spring", "contribution": 129189038, "memberCount": 197}, {"name": "Bounce", "contribution": 119229692, "memberCount": 195}, {"name": "Sunset", "contribution": 117584928, "memberCount": 178}, {"name": "Beaters", "contribution": 105375446, "memberCount": 200}, {"name": "Downtime", "contribution": 84781117, "memberCount": 200}]}</v>
       </c>
-      <c r="EM23" s="0" t="str">
+      <c r="EM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EM2)&amp;", ""month"": "&amp;MONTH(EM2)&amp;", ""day"": "&amp;DAY(EM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EM3&amp;", ""memberCount"": "&amp;EM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EM5&amp;", ""memberCount"": "&amp;EM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EM7&amp;", ""memberCount"": "&amp;EM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EM9&amp;", ""memberCount"": "&amp;EM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EM11&amp;", ""memberCount"": "&amp;EM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EM13&amp;", ""memberCount"": "&amp;EM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EM15&amp;", ""memberCount"": "&amp;EM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EM17&amp;", ""memberCount"": "&amp;EM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EM19&amp;", ""memberCount"": "&amp;EM20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 191264525, "memberCount": 200}, {"name": "Smile", "contribution": 164197235, "memberCount": 194}, {"name": "Elite", "contribution": 155169508, "memberCount": 198}, {"name": "Savages", "contribution": 148680596, "memberCount": 199}, {"name": "Spring", "contribution": 129316377, "memberCount": 197}, {"name": "Bounce", "contribution": 119497040, "memberCount": 195}, {"name": "Sunset", "contribution": 117732505, "memberCount": 178}, {"name": "Beaters", "contribution": 105521612, "memberCount": 200}, {"name": "Downtime", "contribution": 84871283, "memberCount": 200}]}</v>
       </c>
-      <c r="EN23" s="0" t="str">
+      <c r="EN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EN2)&amp;", ""month"": "&amp;MONTH(EN2)&amp;", ""day"": "&amp;DAY(EN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EN3&amp;", ""memberCount"": "&amp;EN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EN5&amp;", ""memberCount"": "&amp;EN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EN7&amp;", ""memberCount"": "&amp;EN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EN9&amp;", ""memberCount"": "&amp;EN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EN11&amp;", ""memberCount"": "&amp;EN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EN13&amp;", ""memberCount"": "&amp;EN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EN15&amp;", ""memberCount"": "&amp;EN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EN17&amp;", ""memberCount"": "&amp;EN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EN19&amp;", ""memberCount"": "&amp;EN20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 190901833, "memberCount": 197}, {"name": "Smile", "contribution": 164494879, "memberCount": 194}, {"name": "Elite", "contribution": 155365136, "memberCount": 198}, {"name": "Savages", "contribution": 148772158, "memberCount": 197}, {"name": "Spring", "contribution": 129122583, "memberCount": 196}, {"name": "Bounce", "contribution": 119784943, "memberCount": 196}, {"name": "Sunset", "contribution": 117909968, "memberCount": 178}, {"name": "Beaters", "contribution": 105723823, "memberCount": 200}, {"name": "Downtime", "contribution": 84973302, "memberCount": 200}]}</v>
       </c>
-      <c r="EO23" s="0" t="str">
+      <c r="EO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EO2)&amp;", ""month"": "&amp;MONTH(EO2)&amp;", ""day"": "&amp;DAY(EO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EO3&amp;", ""memberCount"": "&amp;EO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EO5&amp;", ""memberCount"": "&amp;EO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EO7&amp;", ""memberCount"": "&amp;EO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EO9&amp;", ""memberCount"": "&amp;EO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EO11&amp;", ""memberCount"": "&amp;EO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EO13&amp;", ""memberCount"": "&amp;EO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EO15&amp;", ""memberCount"": "&amp;EO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EO17&amp;", ""memberCount"": "&amp;EO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EO19&amp;", ""memberCount"": "&amp;EO20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 191125263, "memberCount": 197}, {"name": "Smile", "contribution": 164668631, "memberCount": 194}, {"name": "Elite", "contribution": 155620832, "memberCount": 198}, {"name": "Savages", "contribution": 148903164, "memberCount": 197}, {"name": "Spring", "contribution": 129204841, "memberCount": 196}, {"name": "Bounce", "contribution": 120055747, "memberCount": 197}, {"name": "Sunset", "contribution": 118001857, "memberCount": 180}, {"name": "Beaters", "contribution": 105747168, "memberCount": 200}, {"name": "Downtime", "contribution": 85092605, "memberCount": 200}]}</v>
       </c>
-      <c r="EP23" s="0" t="str">
+      <c r="EP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EP2)&amp;", ""month"": "&amp;MONTH(EP2)&amp;", ""day"": "&amp;DAY(EP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EP3&amp;", ""memberCount"": "&amp;EP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EP5&amp;", ""memberCount"": "&amp;EP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EP7&amp;", ""memberCount"": "&amp;EP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EP9&amp;", ""memberCount"": "&amp;EP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EP11&amp;", ""memberCount"": "&amp;EP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EP13&amp;", ""memberCount"": "&amp;EP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EP15&amp;", ""memberCount"": "&amp;EP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EP17&amp;", ""memberCount"": "&amp;EP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EP19&amp;", ""memberCount"": "&amp;EP20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 191447600, "memberCount": 199}, {"name": "Smile", "contribution": 164867904, "memberCount": 194}, {"name": "Elite", "contribution": 155817459, "memberCount": 198}, {"name": "Savages", "contribution": 148737276, "memberCount": 196}, {"name": "Spring", "contribution": 129327151, "memberCount": 196}, {"name": "Bounce", "contribution": 120337647, "memberCount": 198}, {"name": "Sunset", "contribution": 118177613, "memberCount": 180}, {"name": "Beaters", "contribution": 105907477, "memberCount": 200}, {"name": "Downtime", "contribution": 85240216, "memberCount": 200}]}</v>
       </c>
-      <c r="EQ23" s="0" t="str">
+      <c r="EQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EQ2)&amp;", ""month"": "&amp;MONTH(EQ2)&amp;", ""day"": "&amp;DAY(EQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EQ3&amp;", ""memberCount"": "&amp;EQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EQ5&amp;", ""memberCount"": "&amp;EQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EQ7&amp;", ""memberCount"": "&amp;EQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EQ9&amp;", ""memberCount"": "&amp;EQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EQ11&amp;", ""memberCount"": "&amp;EQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EQ13&amp;", ""memberCount"": "&amp;EQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EQ15&amp;", ""memberCount"": "&amp;EQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EQ17&amp;", ""memberCount"": "&amp;EQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EQ19&amp;", ""memberCount"": "&amp;EQ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 191676104, "memberCount": 199}, {"name": "Smile", "contribution": 165080052, "memberCount": 194}, {"name": "Elite", "contribution": 156026713, "memberCount": 198}, {"name": "Savages", "contribution": 148873498, "memberCount": 198}, {"name": "Spring", "contribution": 129520962, "memberCount": 197}, {"name": "Bounce", "contribution": 120575359, "memberCount": 199}, {"name": "Sunset", "contribution": 118361638, "memberCount": 181}, {"name": "Beaters", "contribution": 106122811, "memberCount": 200}, {"name": "Downtime", "contribution": 85350091, "memberCount": 200}]}</v>
       </c>
-      <c r="ER23" s="0" t="str">
+      <c r="ER23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ER2)&amp;", ""month"": "&amp;MONTH(ER2)&amp;", ""day"": "&amp;DAY(ER2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ER3&amp;", ""memberCount"": "&amp;ER4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ER5&amp;", ""memberCount"": "&amp;ER6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ER7&amp;", ""memberCount"": "&amp;ER8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ER9&amp;", ""memberCount"": "&amp;ER10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ER11&amp;", ""memberCount"": "&amp;ER12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ER13&amp;", ""memberCount"": "&amp;ER14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ER15&amp;", ""memberCount"": "&amp;ER16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ER17&amp;", ""memberCount"": "&amp;ER18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ER19&amp;", ""memberCount"": "&amp;ER20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 1, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="ES23" s="0" t="str">
+      <c r="ES23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ES2)&amp;", ""month"": "&amp;MONTH(ES2)&amp;", ""day"": "&amp;DAY(ES2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ES3&amp;", ""memberCount"": "&amp;ES4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ES5&amp;", ""memberCount"": "&amp;ES6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ES7&amp;", ""memberCount"": "&amp;ES8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ES9&amp;", ""memberCount"": "&amp;ES10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ES11&amp;", ""memberCount"": "&amp;ES12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ES13&amp;", ""memberCount"": "&amp;ES14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ES15&amp;", ""memberCount"": "&amp;ES16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ES17&amp;", ""memberCount"": "&amp;ES18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ES19&amp;", ""memberCount"": "&amp;ES20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 192245907, "memberCount": 199}, {"name": "Smile", "contribution": 165505136, "memberCount": 194}, {"name": "Elite", "contribution": 156425360, "memberCount": 198}, {"name": "Savages", "contribution": 149041818, "memberCount": 198}, {"name": "Spring", "contribution": 129828884, "memberCount": 199}, {"name": "Bounce", "contribution": 119445730, "memberCount": 195}, {"name": "Sunset", "contribution": 118665057, "memberCount": 182}, {"name": "Beaters", "contribution": 106593196, "memberCount": 200}, {"name": "Downtime", "contribution": 85184324, "memberCount": 198}]}</v>
       </c>
-      <c r="ET23" s="0" t="str">
+      <c r="ET23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ET2)&amp;", ""month"": "&amp;MONTH(ET2)&amp;", ""day"": "&amp;DAY(ET2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ET3&amp;", ""memberCount"": "&amp;ET4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ET5&amp;", ""memberCount"": "&amp;ET6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ET7&amp;", ""memberCount"": "&amp;ET8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ET9&amp;", ""memberCount"": "&amp;ET10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ET11&amp;", ""memberCount"": "&amp;ET12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ET13&amp;", ""memberCount"": "&amp;ET14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ET15&amp;", ""memberCount"": "&amp;ET16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ET17&amp;", ""memberCount"": "&amp;ET18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ET19&amp;", ""memberCount"": "&amp;ET20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="EU23" s="0" t="str">
+      <c r="EU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EU2)&amp;", ""month"": "&amp;MONTH(EU2)&amp;", ""day"": "&amp;DAY(EU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EU3&amp;", ""memberCount"": "&amp;EU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EU5&amp;", ""memberCount"": "&amp;EU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EU7&amp;", ""memberCount"": "&amp;EU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EU9&amp;", ""memberCount"": "&amp;EU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EU11&amp;", ""memberCount"": "&amp;EU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EU13&amp;", ""memberCount"": "&amp;EU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EU15&amp;", ""memberCount"": "&amp;EU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EU17&amp;", ""memberCount"": "&amp;EU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EU19&amp;", ""memberCount"": "&amp;EU20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 190988240, "memberCount": 199}, {"name": "Smile", "contribution": 165961289, "memberCount": 194}, {"name": "Elite", "contribution": 156808113, "memberCount": 198}, {"name": "Savages", "contribution": 149236626, "memberCount": 199}, {"name": "Spring", "contribution": 130048333, "memberCount": 199}, {"name": "Bounce", "contribution": 120109254, "memberCount": 197}, {"name": "Sunset", "contribution": 119064983, "memberCount": 192}, {"name": "Beaters", "contribution": 106891363, "memberCount": 199}, {"name": "Downtime", "contribution": 85424224, "memberCount": 198}]}</v>
       </c>
-      <c r="EV23" s="0" t="str">
+      <c r="EV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EV2)&amp;", ""month"": "&amp;MONTH(EV2)&amp;", ""day"": "&amp;DAY(EV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EV3&amp;", ""memberCount"": "&amp;EV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EV5&amp;", ""memberCount"": "&amp;EV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EV7&amp;", ""memberCount"": "&amp;EV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EV9&amp;", ""memberCount"": "&amp;EV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EV11&amp;", ""memberCount"": "&amp;EV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EV13&amp;", ""memberCount"": "&amp;EV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EV15&amp;", ""memberCount"": "&amp;EV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EV17&amp;", ""memberCount"": "&amp;EV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EV19&amp;", ""memberCount"": "&amp;EV20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 191185702, "memberCount": 197}, {"name": "Smile", "contribution": 166200326, "memberCount": 195}, {"name": "Elite", "contribution": 157062133, "memberCount": 199}, {"name": "Savages", "contribution": 149319259, "memberCount": 199}, {"name": "Spring", "contribution": 130192802, "memberCount": 199}, {"name": "Bounce", "contribution": 120412234, "memberCount": 198}, {"name": "Sunset", "contribution": 119241466, "memberCount": 197}, {"name": "Beaters", "contribution": 107089091, "memberCount": 198}, {"name": "Downtime", "contribution": 85561297, "memberCount": 198}]}</v>
       </c>
-      <c r="EW23" s="0" t="str">
+      <c r="EW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EW2)&amp;", ""month"": "&amp;MONTH(EW2)&amp;", ""day"": "&amp;DAY(EW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EW3&amp;", ""memberCount"": "&amp;EW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EW5&amp;", ""memberCount"": "&amp;EW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EW7&amp;", ""memberCount"": "&amp;EW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EW9&amp;", ""memberCount"": "&amp;EW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EW11&amp;", ""memberCount"": "&amp;EW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EW13&amp;", ""memberCount"": "&amp;EW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EW15&amp;", ""memberCount"": "&amp;EW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EW17&amp;", ""memberCount"": "&amp;EW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EW19&amp;", ""memberCount"": "&amp;EW20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 191475728, "memberCount": 198}, {"name": "Smile", "contribution": 166371187, "memberCount": 195}, {"name": "Elite", "contribution": 157252433, "memberCount": 199}, {"name": "Savages", "contribution": 149404671, "memberCount": 199}, {"name": "Spring", "contribution": 130327215, "memberCount": 199}, {"name": "Bounce", "contribution": 120698889, "memberCount": 199}, {"name": "Sunset", "contribution": 119502645, "memberCount": 195}, {"name": "Beaters", "contribution": 107275800, "memberCount": 198}, {"name": "Downtime", "contribution": 85684163, "memberCount": 198}]}</v>
       </c>
-      <c r="EX23" s="0" t="str">
+      <c r="EX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EX2)&amp;", ""month"": "&amp;MONTH(EX2)&amp;", ""day"": "&amp;DAY(EX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EX3&amp;", ""memberCount"": "&amp;EX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EX5&amp;", ""memberCount"": "&amp;EX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EX7&amp;", ""memberCount"": "&amp;EX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EX9&amp;", ""memberCount"": "&amp;EX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EX11&amp;", ""memberCount"": "&amp;EX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EX13&amp;", ""memberCount"": "&amp;EX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EX15&amp;", ""memberCount"": "&amp;EX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EX17&amp;", ""memberCount"": "&amp;EX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EX19&amp;", ""memberCount"": "&amp;EX20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 191758797, "memberCount": 198}, {"name": "Smile", "contribution": 166628392, "memberCount": 195}, {"name": "Elite", "contribution": 157458860, "memberCount": 199}, {"name": "Savages", "contribution": 149505281, "memberCount": 199}, {"name": "Spring", "contribution": 130519064, "memberCount": 200}, {"name": "Bounce", "contribution": 121004523, "memberCount": 199}, {"name": "Sunset", "contribution": 119727961, "memberCount": 197}, {"name": "Beaters", "contribution": 102448802, "memberCount": 197}, {"name": "Downtime", "contribution": 85802184, "memberCount": 198}]}</v>
       </c>
-      <c r="EY23" s="0" t="str">
+      <c r="EY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EY2)&amp;", ""month"": "&amp;MONTH(EY2)&amp;", ""day"": "&amp;DAY(EY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EY3&amp;", ""memberCount"": "&amp;EY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EY5&amp;", ""memberCount"": "&amp;EY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EY7&amp;", ""memberCount"": "&amp;EY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EY9&amp;", ""memberCount"": "&amp;EY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EY11&amp;", ""memberCount"": "&amp;EY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EY13&amp;", ""memberCount"": "&amp;EY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EY15&amp;", ""memberCount"": "&amp;EY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EY17&amp;", ""memberCount"": "&amp;EY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EY19&amp;", ""memberCount"": "&amp;EY20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 191950446, "memberCount": 198}, {"name": "Smile", "contribution": 166819646, "memberCount": 195}, {"name": "Elite", "contribution": 157678798, "memberCount": 199}, {"name": "Savages", "contribution": 149576422, "memberCount": 199}, {"name": "Spring", "contribution": 130606386, "memberCount": 200}, {"name": "Bounce", "contribution": 121326495, "memberCount": 199}, {"name": "Sunset", "contribution": 119904626, "memberCount": 197}, {"name": "Beaters", "contribution": 102608184, "memberCount": 197}, {"name": "Downtime", "contribution": 85930720, "memberCount": 199}]}</v>
       </c>
-      <c r="EZ23" s="0" t="str">
+      <c r="EZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EZ2)&amp;", ""month"": "&amp;MONTH(EZ2)&amp;", ""day"": "&amp;DAY(EZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EZ3&amp;", ""memberCount"": "&amp;EZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EZ5&amp;", ""memberCount"": "&amp;EZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EZ7&amp;", ""memberCount"": "&amp;EZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EZ9&amp;", ""memberCount"": "&amp;EZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EZ11&amp;", ""memberCount"": "&amp;EZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EZ13&amp;", ""memberCount"": "&amp;EZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EZ15&amp;", ""memberCount"": "&amp;EZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EZ17&amp;", ""memberCount"": "&amp;EZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EZ19&amp;", ""memberCount"": "&amp;EZ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 192242741, "memberCount": 198}, {"name": "Smile", "contribution": 167065574, "memberCount": 196}, {"name": "Elite", "contribution": 157935067, "memberCount": 199}, {"name": "Savages", "contribution": 149660220, "memberCount": 199}, {"name": "Spring", "contribution": 130790017, "memberCount": 200}, {"name": "Bounce", "contribution": 121578702, "memberCount": 199}, {"name": "Sunset", "contribution": 120099691, "memberCount": 199}, {"name": "Beaters", "contribution": 102825055, "memberCount": 197}, {"name": "Downtime", "contribution": 85059543, "memberCount": 197}]}</v>
       </c>
-      <c r="FA23" s="0" t="str">
+      <c r="FA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FA2)&amp;", ""month"": "&amp;MONTH(FA2)&amp;", ""day"": "&amp;DAY(FA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FA3&amp;", ""memberCount"": "&amp;FA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FA5&amp;", ""memberCount"": "&amp;FA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FA7&amp;", ""memberCount"": "&amp;FA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FA9&amp;", ""memberCount"": "&amp;FA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FA11&amp;", ""memberCount"": "&amp;FA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FA13&amp;", ""memberCount"": "&amp;FA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FA15&amp;", ""memberCount"": "&amp;FA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FA17&amp;", ""memberCount"": "&amp;FA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FA19&amp;", ""memberCount"": "&amp;FA20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 192547785, "memberCount": 198}, {"name": "Smile", "contribution": 167292732, "memberCount": 196}, {"name": "Elite", "contribution": 158177528, "memberCount": 199}, {"name": "Savages", "contribution": 149737192, "memberCount": 199}, {"name": "Spring", "contribution": 130957630, "memberCount": 200}, {"name": "Bounce", "contribution": 121938993, "memberCount": 199}, {"name": "Sunset", "contribution": 118789304, "memberCount": 196}, {"name": "Beaters", "contribution": 103010459, "memberCount": 197}, {"name": "Downtime", "contribution": 85125522, "memberCount": 196}]}</v>
       </c>
-      <c r="FB23" s="0" t="str">
+      <c r="FB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FB2)&amp;", ""month"": "&amp;MONTH(FB2)&amp;", ""day"": "&amp;DAY(FB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FB3&amp;", ""memberCount"": "&amp;FB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FB5&amp;", ""memberCount"": "&amp;FB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FB7&amp;", ""memberCount"": "&amp;FB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FB9&amp;", ""memberCount"": "&amp;FB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FB11&amp;", ""memberCount"": "&amp;FB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FB13&amp;", ""memberCount"": "&amp;FB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FB15&amp;", ""memberCount"": "&amp;FB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FB17&amp;", ""memberCount"": "&amp;FB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FB19&amp;", ""memberCount"": "&amp;FB20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 192848490, "memberCount": 198}, {"name": "Smile", "contribution": 167340060, "memberCount": 189}, {"name": "Elite", "contribution": 158407802, "memberCount": 199}, {"name": "Savages", "contribution": 149819536, "memberCount": 199}, {"name": "Spring", "contribution": 131082366, "memberCount": 199}, {"name": "Bounce", "contribution": 122275514, "memberCount": 199}, {"name": "Sunset", "contribution": 118996616, "memberCount": 195}, {"name": "Beaters", "contribution": 103196934, "memberCount": 197}, {"name": "Downtime", "contribution": 85294289, "memberCount": 196}]}</v>
       </c>
-      <c r="FC23" s="0" t="str">
+      <c r="FC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FC2)&amp;", ""month"": "&amp;MONTH(FC2)&amp;", ""day"": "&amp;DAY(FC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FC3&amp;", ""memberCount"": "&amp;FC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FC5&amp;", ""memberCount"": "&amp;FC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FC7&amp;", ""memberCount"": "&amp;FC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FC9&amp;", ""memberCount"": "&amp;FC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FC11&amp;", ""memberCount"": "&amp;FC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FC13&amp;", ""memberCount"": "&amp;FC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FC15&amp;", ""memberCount"": "&amp;FC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FC17&amp;", ""memberCount"": "&amp;FC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FC19&amp;", ""memberCount"": "&amp;FC20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
-      <c r="FD23" s="0" t="str">
+      <c r="FD23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FD2)&amp;", ""month"": "&amp;MONTH(FD2)&amp;", ""day"": "&amp;DAY(FD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FD3&amp;", ""memberCount"": "&amp;FD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FD5&amp;", ""memberCount"": "&amp;FD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FD7&amp;", ""memberCount"": "&amp;FD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FD9&amp;", ""memberCount"": "&amp;FD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FD11&amp;", ""memberCount"": "&amp;FD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FD13&amp;", ""memberCount"": "&amp;FD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FD15&amp;", ""memberCount"": "&amp;FD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FD17&amp;", ""memberCount"": "&amp;FD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FD19&amp;", ""memberCount"": "&amp;FD20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 193287486, "memberCount": 198}, {"name": "Smile", "contribution": 167696651, "memberCount": 189}, {"name": "Elite", "contribution": 158731381, "memberCount": 199}, {"name": "Savages", "contribution": 149773039, "memberCount": 198}, {"name": "Spring", "contribution": 131334050, "memberCount": 200}, {"name": "Bounce", "contribution": 122832556, "memberCount": 199}, {"name": "Sunset", "contribution": 119359280, "memberCount": 195}, {"name": "Beaters", "contribution": 103491112, "memberCount": 197}, {"name": "Downtime", "contribution": 85593759, "memberCount": 196}]}</v>
       </c>
-      <c r="FE23" s="0" t="str">
+      <c r="FE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FE2)&amp;", ""month"": "&amp;MONTH(FE2)&amp;", ""day"": "&amp;DAY(FE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FE3&amp;", ""memberCount"": "&amp;FE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FE5&amp;", ""memberCount"": "&amp;FE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FE7&amp;", ""memberCount"": "&amp;FE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FE9&amp;", ""memberCount"": "&amp;FE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FE11&amp;", ""memberCount"": "&amp;FE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FE13&amp;", ""memberCount"": "&amp;FE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FE15&amp;", ""memberCount"": "&amp;FE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FE17&amp;", ""memberCount"": "&amp;FE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FE19&amp;", ""memberCount"": "&amp;FE20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 193558807, "memberCount": 198}, {"name": "Smile", "contribution": 167917405, "memberCount": 190}, {"name": "Elite", "contribution": 158942482, "memberCount": 199}, {"name": "Savages", "contribution": 149863413, "memberCount": 198}, {"name": "Spring", "contribution": 131479022, "memberCount": 200}, {"name": "Bounce", "contribution": 123141159, "memberCount": 199}, {"name": "Sunset", "contribution": 119543285, "memberCount": 196}, {"name": "Beaters", "contribution": 103690516, "memberCount": 197}, {"name": "Downtime", "contribution": 85795734, "memberCount": 197}]}</v>
       </c>
-      <c r="FF23" s="0" t="str">
+      <c r="FF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FF2)&amp;", ""month"": "&amp;MONTH(FF2)&amp;", ""day"": "&amp;DAY(FF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FF3&amp;", ""memberCount"": "&amp;FF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FF5&amp;", ""memberCount"": "&amp;FF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FF7&amp;", ""memberCount"": "&amp;FF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FF9&amp;", ""memberCount"": "&amp;FF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FF11&amp;", ""memberCount"": "&amp;FF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FF13&amp;", ""memberCount"": "&amp;FF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FF15&amp;", ""memberCount"": "&amp;FF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FF17&amp;", ""memberCount"": "&amp;FF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FF19&amp;", ""memberCount"": "&amp;FF20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 193765796, "memberCount": 198}, {"name": "Smile", "contribution": 168190125, "memberCount": 190}, {"name": "Elite", "contribution": 159139524, "memberCount": 199}, {"name": "Savages", "contribution": 149940519, "memberCount": 198}, {"name": "Spring", "contribution": 131568733, "memberCount": 200}, {"name": "Bounce", "contribution": 123380438, "memberCount": 199}, {"name": "Sunset", "contribution": 119666812, "memberCount": 196}, {"name": "Beaters", "contribution": 103843944, "memberCount": 197}, {"name": "Downtime", "contribution": 85858806, "memberCount": 197}]}</v>
       </c>
-      <c r="FG23" s="0" t="str">
+      <c r="FG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FG2)&amp;", ""month"": "&amp;MONTH(FG2)&amp;", ""day"": "&amp;DAY(FG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FG3&amp;", ""memberCount"": "&amp;FG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FG5&amp;", ""memberCount"": "&amp;FG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FG7&amp;", ""memberCount"": "&amp;FG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FG9&amp;", ""memberCount"": "&amp;FG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FG11&amp;", ""memberCount"": "&amp;FG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FG13&amp;", ""memberCount"": "&amp;FG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FG15&amp;", ""memberCount"": "&amp;FG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FG17&amp;", ""memberCount"": "&amp;FG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FG19&amp;", ""memberCount"": "&amp;FG20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 194024347, "memberCount": 198}, {"name": "Smile", "contribution": 168389588, "memberCount": 191}, {"name": "Elite", "contribution": 159424447, "memberCount": 199}, {"name": "Savages", "contribution": 150005245, "memberCount": 198}, {"name": "Spring", "contribution": 131739410, "memberCount": 200}, {"name": "Bounce", "contribution": 123617503, "memberCount": 199}, {"name": "Sunset", "contribution": 119881805, "memberCount": 197}, {"name": "Beaters", "contribution": 104015509, "memberCount": 198}, {"name": "Downtime", "contribution": 85972408, "memberCount": 197}]}</v>
       </c>
-      <c r="FH23" s="0" t="str">
+      <c r="FH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FH2)&amp;", ""month"": "&amp;MONTH(FH2)&amp;", ""day"": "&amp;DAY(FH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FH3&amp;", ""memberCount"": "&amp;FH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FH5&amp;", ""memberCount"": "&amp;FH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FH7&amp;", ""memberCount"": "&amp;FH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FH9&amp;", ""memberCount"": "&amp;FH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FH11&amp;", ""memberCount"": "&amp;FH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FH13&amp;", ""memberCount"": "&amp;FH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FH15&amp;", ""memberCount"": "&amp;FH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FH17&amp;", ""memberCount"": "&amp;FH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FH19&amp;", ""memberCount"": "&amp;FH20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 194258781, "memberCount": 198}, {"name": "Smile", "contribution": 168600759, "memberCount": 191}, {"name": "Elite", "contribution": 159579791, "memberCount": 199}, {"name": "Savages", "contribution": 150109458, "memberCount": 198}, {"name": "Spring", "contribution": 131877122, "memberCount": 200}, {"name": "Bounce", "contribution": 123807981, "memberCount": 199}, {"name": "Sunset", "contribution": 120065478, "memberCount": 197}, {"name": "Beaters", "contribution": 104148804, "memberCount": 198}, {"name": "Downtime", "contribution": 86104582, "memberCount": 198}]}</v>
       </c>
-      <c r="FI23" s="0" t="str">
+      <c r="FI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FI2)&amp;", ""month"": "&amp;MONTH(FI2)&amp;", ""day"": "&amp;DAY(FI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FI3&amp;", ""memberCount"": "&amp;FI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FI5&amp;", ""memberCount"": "&amp;FI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FI7&amp;", ""memberCount"": "&amp;FI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FI9&amp;", ""memberCount"": "&amp;FI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FI11&amp;", ""memberCount"": "&amp;FI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FI13&amp;", ""memberCount"": "&amp;FI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FI15&amp;", ""memberCount"": "&amp;FI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FI17&amp;", ""memberCount"": "&amp;FI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FI19&amp;", ""memberCount"": "&amp;FI20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 194542069, "memberCount": 198}, {"name": "Smile", "contribution": 168853236, "memberCount": 192}, {"name": "Elite", "contribution": 159755953, "memberCount": 199}, {"name": "Savages", "contribution": 150212795, "memberCount": 198}, {"name": "Spring", "contribution": 132001410, "memberCount": 200}, {"name": "Bounce", "contribution": 122818253, "memberCount": 198}, {"name": "Sunset", "contribution": 120217302, "memberCount": 198}, {"name": "Beaters", "contribution": 104287500, "memberCount": 198}, {"name": "Downtime", "contribution": 86286109, "memberCount": 200}]}</v>
       </c>
-      <c r="FJ23" s="0" t="str">
+      <c r="FJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FJ2)&amp;", ""month"": "&amp;MONTH(FJ2)&amp;", ""day"": "&amp;DAY(FJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FJ3&amp;", ""memberCount"": "&amp;FJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FJ5&amp;", ""memberCount"": "&amp;FJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FJ7&amp;", ""memberCount"": "&amp;FJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FJ9&amp;", ""memberCount"": "&amp;FJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FJ11&amp;", ""memberCount"": "&amp;FJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FJ13&amp;", ""memberCount"": "&amp;FJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FJ15&amp;", ""memberCount"": "&amp;FJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FJ17&amp;", ""memberCount"": "&amp;FJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FJ19&amp;", ""memberCount"": "&amp;FJ20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 194785085, "memberCount": 198}, {"name": "Smile", "contribution": 169055301, "memberCount": 192}, {"name": "Elite", "contribution": 159943980, "memberCount": 199}, {"name": "Savages", "contribution": 150297857, "memberCount": 198}, {"name": "Spring", "contribution": 131477242, "memberCount": 193}, {"name": "Bounce", "contribution": 123198033, "memberCount": 198}, {"name": "Sunset", "contribution": 120399991, "memberCount": 198}, {"name": "Beaters", "contribution": 104440062, "memberCount": 198}, {"name": "Downtime", "contribution": 86456022, "memberCount": 200}]}</v>
       </c>
-      <c r="FK23" s="0" t="str">
+      <c r="FK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FK2)&amp;", ""month"": "&amp;MONTH(FK2)&amp;", ""day"": "&amp;DAY(FK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FK3&amp;", ""memberCount"": "&amp;FK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FK5&amp;", ""memberCount"": "&amp;FK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FK7&amp;", ""memberCount"": "&amp;FK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FK9&amp;", ""memberCount"": "&amp;FK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FK11&amp;", ""memberCount"": "&amp;FK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FK13&amp;", ""memberCount"": "&amp;FK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FK15&amp;", ""memberCount"": "&amp;FK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FK17&amp;", ""memberCount"": "&amp;FK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FK19&amp;", ""memberCount"": "&amp;FK20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 195033335, "memberCount": 198}, {"name": "Smile", "contribution": 169273413, "memberCount": 194}, {"name": "Elite", "contribution": 160215394, "memberCount": 199}, {"name": "Savages", "contribution": 150399255, "memberCount": 199}, {"name": "Spring", "contribution": 131614182, "memberCount": 193}, {"name": "Bounce", "contribution": 123448375, "memberCount": 198}, {"name": "Sunset", "contribution": 120578127, "memberCount": 195}, {"name": "Beaters", "contribution": 104571072, "memberCount": 198}, {"name": "Downtime", "contribution": 86277659, "memberCount": 199}]}</v>
       </c>
-      <c r="FL23" s="0" t="str">
+      <c r="FL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FL2)&amp;", ""month"": "&amp;MONTH(FL2)&amp;", ""day"": "&amp;DAY(FL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FL3&amp;", ""memberCount"": "&amp;FL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FL5&amp;", ""memberCount"": "&amp;FL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FL7&amp;", ""memberCount"": "&amp;FL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FL9&amp;", ""memberCount"": "&amp;FL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FL11&amp;", ""memberCount"": "&amp;FL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FL13&amp;", ""memberCount"": "&amp;FL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FL15&amp;", ""memberCount"": "&amp;FL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FL17&amp;", ""memberCount"": "&amp;FL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FL19&amp;", ""memberCount"": "&amp;FL20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 195316466, "memberCount": 199}, {"name": "Smile", "contribution": 169540848, "memberCount": 195}, {"name": "Elite", "contribution": 160419768, "memberCount": 199}, {"name": "Savages", "contribution": 150618091, "memberCount": 199}, {"name": "Spring", "contribution": 131789206, "memberCount": 193}, {"name": "Bounce", "contribution": 123740348, "memberCount": 199}, {"name": "Sunset", "contribution": 120723350, "memberCount": 194}, {"name": "Beaters", "contribution": 104708167, "memberCount": 197}, {"name": "Downtime", "contribution": 86416814, "memberCount": 199}]}</v>
       </c>
-      <c r="FM23" s="0" t="str">
+      <c r="FM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FM2)&amp;", ""month"": "&amp;MONTH(FM2)&amp;", ""day"": "&amp;DAY(FM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FM3&amp;", ""memberCount"": "&amp;FM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FM5&amp;", ""memberCount"": "&amp;FM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FM7&amp;", ""memberCount"": "&amp;FM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FM9&amp;", ""memberCount"": "&amp;FM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FM11&amp;", ""memberCount"": "&amp;FM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FM13&amp;", ""memberCount"": "&amp;FM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FM15&amp;", ""memberCount"": "&amp;FM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FM17&amp;", ""memberCount"": "&amp;FM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FM19&amp;", ""memberCount"": "&amp;FM20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 2, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 195548504, "memberCount": 199}, {"name": "Smile", "contribution": 169819416, "memberCount": 196}, {"name": "Elite", "contribution": 160633000, "memberCount": 199}, {"name": "Savages", "contribution": 150617210, "memberCount": 199}, {"name": "Spring", "contribution": 131882263, "memberCount": 193}, {"name": "Bounce", "contribution": 124025131, "memberCount": 199}, {"name": "Sunset", "contribution": 120857331, "memberCount": 197}, {"name": "Beaters", "contribution": 102213921, "memberCount": 194}, {"name": "Downtime", "contribution": 86534075, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 2, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 195548504, "memberCount": 199}, {"name": "Smile", "contribution": 169819416, "memberCount": 196}, {"name": "Elite", "contribution": 160633000, "memberCount": 199}, {"name": "Savages", "contribution": 150617210, "memberCount": 199}, {"name": "Spring", "contribution": 131882263, "memberCount": 193}, {"name": "Bounce", "contribution": 124025131, "memberCount": 199}, {"name": "Sunset", "contribution": 120857331, "memberCount": 197}, {"name": "Beaters", "contribution": 102213921, "memberCount": 194}, {"name": "Downtime", "contribution": 86534075, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -12033,6 +12049,7 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,9 +652,9 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FE1" activeCellId="0" sqref="FE1"/>
+      <selection pane="topRight" activeCell="FM1" activeCellId="0" sqref="FM1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
       <selection pane="bottomRight" activeCell="FN23" activeCellId="0" sqref="FN23"/>
     </sheetView>
@@ -1829,7 +1829,9 @@
       <c r="FM3" s="7" t="n">
         <v>195548504</v>
       </c>
-      <c r="FN3" s="7"/>
+      <c r="FN3" s="7" t="n">
+        <v>195770584</v>
+      </c>
       <c r="FO3" s="7"/>
       <c r="FP3" s="7"/>
       <c r="FQ3" s="7"/>
@@ -2386,7 +2388,9 @@
       <c r="FM4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="FN4" s="11"/>
+      <c r="FN4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="FO4" s="11"/>
       <c r="FP4" s="11"/>
       <c r="FQ4" s="11"/>
@@ -2945,7 +2949,9 @@
       <c r="FM5" s="17" t="n">
         <v>169819416</v>
       </c>
-      <c r="FN5" s="17"/>
+      <c r="FN5" s="17" t="n">
+        <v>170064240</v>
+      </c>
       <c r="FO5" s="17"/>
       <c r="FP5" s="17"/>
       <c r="FQ5" s="17"/>
@@ -3502,7 +3508,9 @@
       <c r="FM6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="FN6" s="20"/>
+      <c r="FN6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="FO6" s="20"/>
       <c r="FP6" s="20"/>
       <c r="FQ6" s="20"/>
@@ -4061,7 +4069,9 @@
       <c r="FM7" s="24" t="n">
         <v>160633000</v>
       </c>
-      <c r="FN7" s="24"/>
+      <c r="FN7" s="24" t="n">
+        <v>160848773</v>
+      </c>
       <c r="FO7" s="24"/>
       <c r="FP7" s="24"/>
       <c r="FQ7" s="24"/>
@@ -4618,7 +4628,9 @@
       <c r="FM8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="FN8" s="27"/>
+      <c r="FN8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="FO8" s="27"/>
       <c r="FP8" s="27"/>
       <c r="FQ8" s="27"/>
@@ -5177,7 +5189,9 @@
       <c r="FM9" s="31" t="n">
         <v>150617210</v>
       </c>
-      <c r="FN9" s="31"/>
+      <c r="FN9" s="31" t="n">
+        <v>150733593</v>
+      </c>
       <c r="FO9" s="31"/>
       <c r="FP9" s="31"/>
       <c r="FQ9" s="31"/>
@@ -5734,7 +5748,9 @@
       <c r="FM10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="FN10" s="34"/>
+      <c r="FN10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="FO10" s="34"/>
       <c r="FP10" s="34"/>
       <c r="FQ10" s="34"/>
@@ -6293,7 +6309,9 @@
       <c r="FM11" s="38" t="n">
         <v>131882263</v>
       </c>
-      <c r="FN11" s="38"/>
+      <c r="FN11" s="38" t="n">
+        <v>132028701</v>
+      </c>
       <c r="FO11" s="38"/>
       <c r="FP11" s="38"/>
       <c r="FQ11" s="38"/>
@@ -6850,7 +6868,9 @@
       <c r="FM12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="FN12" s="41"/>
+      <c r="FN12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="FO12" s="41"/>
       <c r="FP12" s="41"/>
       <c r="FQ12" s="41"/>
@@ -7409,7 +7429,9 @@
       <c r="FM13" s="45" t="n">
         <v>124025131</v>
       </c>
-      <c r="FN13" s="45"/>
+      <c r="FN13" s="45" t="n">
+        <v>124265252</v>
+      </c>
       <c r="FO13" s="45"/>
       <c r="FP13" s="45"/>
       <c r="FQ13" s="45"/>
@@ -7966,7 +7988,9 @@
       <c r="FM14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="FN14" s="48"/>
+      <c r="FN14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="FO14" s="48"/>
       <c r="FP14" s="48"/>
       <c r="FQ14" s="48"/>
@@ -8525,7 +8549,9 @@
       <c r="FM15" s="52" t="n">
         <v>120857331</v>
       </c>
-      <c r="FN15" s="52"/>
+      <c r="FN15" s="52" t="n">
+        <v>121057206</v>
+      </c>
       <c r="FO15" s="52"/>
       <c r="FP15" s="52"/>
       <c r="FQ15" s="52"/>
@@ -9082,7 +9108,9 @@
       <c r="FM16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="FN16" s="55"/>
+      <c r="FN16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="FO16" s="55"/>
       <c r="FP16" s="55"/>
       <c r="FQ16" s="55"/>
@@ -9641,7 +9669,9 @@
       <c r="FM17" s="59" t="n">
         <v>102213921</v>
       </c>
-      <c r="FN17" s="59"/>
+      <c r="FN17" s="59" t="n">
+        <v>101653149</v>
+      </c>
       <c r="FO17" s="59"/>
       <c r="FP17" s="59"/>
       <c r="FQ17" s="59"/>
@@ -10198,7 +10228,9 @@
       <c r="FM18" s="62" t="n">
         <v>194</v>
       </c>
-      <c r="FN18" s="62"/>
+      <c r="FN18" s="62" t="n">
+        <v>192</v>
+      </c>
       <c r="FO18" s="62"/>
       <c r="FP18" s="62"/>
       <c r="FQ18" s="62"/>
@@ -10757,7 +10789,9 @@
       <c r="FM19" s="66" t="n">
         <v>86534075</v>
       </c>
-      <c r="FN19" s="66"/>
+      <c r="FN19" s="66" t="n">
+        <v>86676167</v>
+      </c>
       <c r="FO19" s="66"/>
       <c r="FP19" s="66"/>
       <c r="FQ19" s="66"/>
@@ -11314,7 +11348,9 @@
       <c r="FM20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="FN20" s="69"/>
+      <c r="FN20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="FO20" s="69"/>
       <c r="FP20" s="69"/>
       <c r="FQ20" s="69"/>
@@ -12037,6 +12073,10 @@
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FM2)&amp;", ""month"": "&amp;MONTH(FM2)&amp;", ""day"": "&amp;DAY(FM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FM3&amp;", ""memberCount"": "&amp;FM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FM5&amp;", ""memberCount"": "&amp;FM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FM7&amp;", ""memberCount"": "&amp;FM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FM9&amp;", ""memberCount"": "&amp;FM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FM11&amp;", ""memberCount"": "&amp;FM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FM13&amp;", ""memberCount"": "&amp;FM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FM15&amp;", ""memberCount"": "&amp;FM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FM17&amp;", ""memberCount"": "&amp;FM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FM19&amp;", ""memberCount"": "&amp;FM20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 2, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 195548504, "memberCount": 199}, {"name": "Smile", "contribution": 169819416, "memberCount": 196}, {"name": "Elite", "contribution": 160633000, "memberCount": 199}, {"name": "Savages", "contribution": 150617210, "memberCount": 199}, {"name": "Spring", "contribution": 131882263, "memberCount": 193}, {"name": "Bounce", "contribution": 124025131, "memberCount": 199}, {"name": "Sunset", "contribution": 120857331, "memberCount": 197}, {"name": "Beaters", "contribution": 102213921, "memberCount": 194}, {"name": "Downtime", "contribution": 86534075, "memberCount": 199}]}</v>
       </c>
+      <c r="FN23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FN2)&amp;", ""month"": "&amp;MONTH(FN2)&amp;", ""day"": "&amp;DAY(FN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FN3&amp;", ""memberCount"": "&amp;FN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FN5&amp;", ""memberCount"": "&amp;FN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FN7&amp;", ""memberCount"": "&amp;FN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FN9&amp;", ""memberCount"": "&amp;FN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FN11&amp;", ""memberCount"": "&amp;FN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FN13&amp;", ""memberCount"": "&amp;FN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FN15&amp;", ""memberCount"": "&amp;FN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FN17&amp;", ""memberCount"": "&amp;FN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FN19&amp;", ""memberCount"": "&amp;FN20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 2, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 195770584, "memberCount": 198}, {"name": "Smile", "contribution": 170064240, "memberCount": 196}, {"name": "Elite", "contribution": 160848773, "memberCount": 199}, {"name": "Savages", "contribution": 150733593, "memberCount": 199}, {"name": "Spring", "contribution": 132028701, "memberCount": 193}, {"name": "Bounce", "contribution": 124265252, "memberCount": 199}, {"name": "Sunset", "contribution": 121057206, "memberCount": 197}, {"name": "Beaters", "contribution": 101653149, "memberCount": 192}, {"name": "Downtime", "contribution": 86676167, "memberCount": 199}]}</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FM1" activeCellId="0" sqref="FM1"/>
+      <selection pane="topRight" activeCell="FN1" activeCellId="0" sqref="FN1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FN23" activeCellId="0" sqref="FN23"/>
+      <selection pane="bottomRight" activeCell="FP3" activeCellId="0" sqref="FP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1832,7 +1832,9 @@
       <c r="FN3" s="7" t="n">
         <v>195770584</v>
       </c>
-      <c r="FO3" s="7"/>
+      <c r="FO3" s="7" t="n">
+        <v>195929589</v>
+      </c>
       <c r="FP3" s="7"/>
       <c r="FQ3" s="7"/>
       <c r="FR3" s="7"/>
@@ -2391,7 +2393,9 @@
       <c r="FN4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="FO4" s="11"/>
+      <c r="FO4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="FP4" s="11"/>
       <c r="FQ4" s="11"/>
       <c r="FR4" s="11"/>
@@ -2952,7 +2956,9 @@
       <c r="FN5" s="17" t="n">
         <v>170064240</v>
       </c>
-      <c r="FO5" s="17"/>
+      <c r="FO5" s="17" t="n">
+        <v>170292781</v>
+      </c>
       <c r="FP5" s="17"/>
       <c r="FQ5" s="17"/>
       <c r="FR5" s="17"/>
@@ -3511,7 +3517,9 @@
       <c r="FN6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="FO6" s="20"/>
+      <c r="FO6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="FP6" s="20"/>
       <c r="FQ6" s="20"/>
       <c r="FR6" s="20"/>
@@ -4072,7 +4080,9 @@
       <c r="FN7" s="24" t="n">
         <v>160848773</v>
       </c>
-      <c r="FO7" s="24"/>
+      <c r="FO7" s="24" t="n">
+        <v>161102816</v>
+      </c>
       <c r="FP7" s="24"/>
       <c r="FQ7" s="24"/>
       <c r="FR7" s="24"/>
@@ -4631,7 +4641,9 @@
       <c r="FN8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="FO8" s="27"/>
+      <c r="FO8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="FP8" s="27"/>
       <c r="FQ8" s="27"/>
       <c r="FR8" s="27"/>
@@ -5192,7 +5204,9 @@
       <c r="FN9" s="31" t="n">
         <v>150733593</v>
       </c>
-      <c r="FO9" s="31"/>
+      <c r="FO9" s="31" t="n">
+        <v>150916748</v>
+      </c>
       <c r="FP9" s="31"/>
       <c r="FQ9" s="31"/>
       <c r="FR9" s="31"/>
@@ -5751,7 +5765,9 @@
       <c r="FN10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="FO10" s="34"/>
+      <c r="FO10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="FP10" s="34"/>
       <c r="FQ10" s="34"/>
       <c r="FR10" s="34"/>
@@ -6312,7 +6328,9 @@
       <c r="FN11" s="38" t="n">
         <v>132028701</v>
       </c>
-      <c r="FO11" s="38"/>
+      <c r="FO11" s="38" t="n">
+        <v>132180085</v>
+      </c>
       <c r="FP11" s="38"/>
       <c r="FQ11" s="38"/>
       <c r="FR11" s="38"/>
@@ -6871,7 +6889,9 @@
       <c r="FN12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="FO12" s="41"/>
+      <c r="FO12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="FP12" s="41"/>
       <c r="FQ12" s="41"/>
       <c r="FR12" s="41"/>
@@ -7432,7 +7452,9 @@
       <c r="FN13" s="45" t="n">
         <v>124265252</v>
       </c>
-      <c r="FO13" s="45"/>
+      <c r="FO13" s="45" t="n">
+        <v>124549573</v>
+      </c>
       <c r="FP13" s="45"/>
       <c r="FQ13" s="45"/>
       <c r="FR13" s="45"/>
@@ -7991,7 +8013,9 @@
       <c r="FN14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="FO14" s="48"/>
+      <c r="FO14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="FP14" s="48"/>
       <c r="FQ14" s="48"/>
       <c r="FR14" s="48"/>
@@ -8552,7 +8576,9 @@
       <c r="FN15" s="52" t="n">
         <v>121057206</v>
       </c>
-      <c r="FO15" s="52"/>
+      <c r="FO15" s="52" t="n">
+        <v>121222872</v>
+      </c>
       <c r="FP15" s="52"/>
       <c r="FQ15" s="52"/>
       <c r="FR15" s="52"/>
@@ -9111,7 +9137,9 @@
       <c r="FN16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="FO16" s="55"/>
+      <c r="FO16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="FP16" s="55"/>
       <c r="FQ16" s="55"/>
       <c r="FR16" s="55"/>
@@ -9672,7 +9700,9 @@
       <c r="FN17" s="59" t="n">
         <v>101653149</v>
       </c>
-      <c r="FO17" s="59"/>
+      <c r="FO17" s="59" t="n">
+        <v>101291438</v>
+      </c>
       <c r="FP17" s="59"/>
       <c r="FQ17" s="59"/>
       <c r="FR17" s="59"/>
@@ -10231,7 +10261,9 @@
       <c r="FN18" s="62" t="n">
         <v>192</v>
       </c>
-      <c r="FO18" s="62"/>
+      <c r="FO18" s="62" t="n">
+        <v>191</v>
+      </c>
       <c r="FP18" s="62"/>
       <c r="FQ18" s="62"/>
       <c r="FR18" s="62"/>
@@ -10792,7 +10824,9 @@
       <c r="FN19" s="66" t="n">
         <v>86676167</v>
       </c>
-      <c r="FO19" s="66"/>
+      <c r="FO19" s="66" t="n">
+        <v>86806955</v>
+      </c>
       <c r="FP19" s="66"/>
       <c r="FQ19" s="66"/>
       <c r="FR19" s="66"/>
@@ -11351,7 +11385,9 @@
       <c r="FN20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="FO20" s="69"/>
+      <c r="FO20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="FP20" s="69"/>
       <c r="FQ20" s="69"/>
       <c r="FR20" s="69"/>
@@ -12075,7 +12111,11 @@
       </c>
       <c r="FN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FN2)&amp;", ""month"": "&amp;MONTH(FN2)&amp;", ""day"": "&amp;DAY(FN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FN3&amp;", ""memberCount"": "&amp;FN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FN5&amp;", ""memberCount"": "&amp;FN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FN7&amp;", ""memberCount"": "&amp;FN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FN9&amp;", ""memberCount"": "&amp;FN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FN11&amp;", ""memberCount"": "&amp;FN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FN13&amp;", ""memberCount"": "&amp;FN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FN15&amp;", ""memberCount"": "&amp;FN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FN17&amp;", ""memberCount"": "&amp;FN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FN19&amp;", ""memberCount"": "&amp;FN20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 2, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 195770584, "memberCount": 198}, {"name": "Smile", "contribution": 170064240, "memberCount": 196}, {"name": "Elite", "contribution": 160848773, "memberCount": 199}, {"name": "Savages", "contribution": 150733593, "memberCount": 199}, {"name": "Spring", "contribution": 132028701, "memberCount": 193}, {"name": "Bounce", "contribution": 124265252, "memberCount": 199}, {"name": "Sunset", "contribution": 121057206, "memberCount": 197}, {"name": "Beaters", "contribution": 101653149, "memberCount": 192}, {"name": "Downtime", "contribution": 86676167, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 2, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 195770584, "memberCount": 198}, {"name": "Smile", "contribution": 170064240, "memberCount": 196}, {"name": "Elite", "contribution": 160848773, "memberCount": 199}, {"name": "Savages", "contribution": 150733593, "memberCount": 199}, {"name": "Spring", "contribution": 132028701, "memberCount": 193}, {"name": "Bounce", "contribution": 124265252, "memberCount": 199}, {"name": "Sunset", "contribution": 121057206, "memberCount": 197}, {"name": "Beaters", "contribution": 101653149, "memberCount": 192}, {"name": "Downtime", "contribution": 86676167, "memberCount": 199}]}</v>
+      </c>
+      <c r="FO23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FO2)&amp;", ""month"": "&amp;MONTH(FO2)&amp;", ""day"": "&amp;DAY(FO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FO3&amp;", ""memberCount"": "&amp;FO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FO5&amp;", ""memberCount"": "&amp;FO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FO7&amp;", ""memberCount"": "&amp;FO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FO9&amp;", ""memberCount"": "&amp;FO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FO11&amp;", ""memberCount"": "&amp;FO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FO13&amp;", ""memberCount"": "&amp;FO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FO15&amp;", ""memberCount"": "&amp;FO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FO17&amp;", ""memberCount"": "&amp;FO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FO19&amp;", ""memberCount"": "&amp;FO20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 2, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 195929589, "memberCount": 198}, {"name": "Smile", "contribution": 170292781, "memberCount": 196}, {"name": "Elite", "contribution": 161102816, "memberCount": 199}, {"name": "Savages", "contribution": 150916748, "memberCount": 198}, {"name": "Spring", "contribution": 132180085, "memberCount": 193}, {"name": "Bounce", "contribution": 124549573, "memberCount": 199}, {"name": "Sunset", "contribution": 121222872, "memberCount": 197}, {"name": "Beaters", "contribution": 101291438, "memberCount": 191}, {"name": "Downtime", "contribution": 86806955, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FN1" activeCellId="0" sqref="FN1"/>
+      <selection pane="topRight" activeCell="FO1" activeCellId="0" sqref="FO1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FP3" activeCellId="0" sqref="FP3"/>
+      <selection pane="bottomRight" activeCell="FP23" activeCellId="0" sqref="FP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1835,7 +1835,9 @@
       <c r="FO3" s="7" t="n">
         <v>195929589</v>
       </c>
-      <c r="FP3" s="7"/>
+      <c r="FP3" s="7" t="n">
+        <v>196138238</v>
+      </c>
       <c r="FQ3" s="7"/>
       <c r="FR3" s="7"/>
       <c r="FS3" s="7"/>
@@ -2396,7 +2398,9 @@
       <c r="FO4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="FP4" s="11"/>
+      <c r="FP4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="FQ4" s="11"/>
       <c r="FR4" s="11"/>
       <c r="FS4" s="11"/>
@@ -2959,7 +2963,9 @@
       <c r="FO5" s="17" t="n">
         <v>170292781</v>
       </c>
-      <c r="FP5" s="17"/>
+      <c r="FP5" s="17" t="n">
+        <v>170539099</v>
+      </c>
       <c r="FQ5" s="17"/>
       <c r="FR5" s="17"/>
       <c r="FS5" s="17"/>
@@ -3520,7 +3526,9 @@
       <c r="FO6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="FP6" s="20"/>
+      <c r="FP6" s="20" t="n">
+        <v>198</v>
+      </c>
       <c r="FQ6" s="20"/>
       <c r="FR6" s="20"/>
       <c r="FS6" s="20"/>
@@ -4083,7 +4091,9 @@
       <c r="FO7" s="24" t="n">
         <v>161102816</v>
       </c>
-      <c r="FP7" s="24"/>
+      <c r="FP7" s="24" t="n">
+        <v>161070123</v>
+      </c>
       <c r="FQ7" s="24"/>
       <c r="FR7" s="24"/>
       <c r="FS7" s="24"/>
@@ -4644,7 +4654,9 @@
       <c r="FO8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="FP8" s="27"/>
+      <c r="FP8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="FQ8" s="27"/>
       <c r="FR8" s="27"/>
       <c r="FS8" s="27"/>
@@ -5207,7 +5219,9 @@
       <c r="FO9" s="31" t="n">
         <v>150916748</v>
       </c>
-      <c r="FP9" s="31"/>
+      <c r="FP9" s="31" t="n">
+        <v>151134934</v>
+      </c>
       <c r="FQ9" s="31"/>
       <c r="FR9" s="31"/>
       <c r="FS9" s="31"/>
@@ -5768,7 +5782,9 @@
       <c r="FO10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="FP10" s="34"/>
+      <c r="FP10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="FQ10" s="34"/>
       <c r="FR10" s="34"/>
       <c r="FS10" s="34"/>
@@ -6331,7 +6347,9 @@
       <c r="FO11" s="38" t="n">
         <v>132180085</v>
       </c>
-      <c r="FP11" s="38"/>
+      <c r="FP11" s="38" t="n">
+        <v>132305247</v>
+      </c>
       <c r="FQ11" s="38"/>
       <c r="FR11" s="38"/>
       <c r="FS11" s="38"/>
@@ -6892,7 +6910,9 @@
       <c r="FO12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="FP12" s="41"/>
+      <c r="FP12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="FQ12" s="41"/>
       <c r="FR12" s="41"/>
       <c r="FS12" s="41"/>
@@ -7455,7 +7475,9 @@
       <c r="FO13" s="45" t="n">
         <v>124549573</v>
       </c>
-      <c r="FP13" s="45"/>
+      <c r="FP13" s="45" t="n">
+        <v>124924978</v>
+      </c>
       <c r="FQ13" s="45"/>
       <c r="FR13" s="45"/>
       <c r="FS13" s="45"/>
@@ -8016,7 +8038,9 @@
       <c r="FO14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="FP14" s="48"/>
+      <c r="FP14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="FQ14" s="48"/>
       <c r="FR14" s="48"/>
       <c r="FS14" s="48"/>
@@ -8579,7 +8603,9 @@
       <c r="FO15" s="52" t="n">
         <v>121222872</v>
       </c>
-      <c r="FP15" s="52"/>
+      <c r="FP15" s="52" t="n">
+        <v>121288811</v>
+      </c>
       <c r="FQ15" s="52"/>
       <c r="FR15" s="52"/>
       <c r="FS15" s="52"/>
@@ -9140,7 +9166,9 @@
       <c r="FO16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="FP16" s="55"/>
+      <c r="FP16" s="55" t="n">
+        <v>198</v>
+      </c>
       <c r="FQ16" s="55"/>
       <c r="FR16" s="55"/>
       <c r="FS16" s="55"/>
@@ -9703,7 +9731,9 @@
       <c r="FO17" s="59" t="n">
         <v>101291438</v>
       </c>
-      <c r="FP17" s="59"/>
+      <c r="FP17" s="59" t="n">
+        <v>101431388</v>
+      </c>
       <c r="FQ17" s="59"/>
       <c r="FR17" s="59"/>
       <c r="FS17" s="59"/>
@@ -10264,7 +10294,9 @@
       <c r="FO18" s="62" t="n">
         <v>191</v>
       </c>
-      <c r="FP18" s="62"/>
+      <c r="FP18" s="62" t="n">
+        <v>192</v>
+      </c>
       <c r="FQ18" s="62"/>
       <c r="FR18" s="62"/>
       <c r="FS18" s="62"/>
@@ -10827,7 +10859,9 @@
       <c r="FO19" s="66" t="n">
         <v>86806955</v>
       </c>
-      <c r="FP19" s="66"/>
+      <c r="FP19" s="66" t="n">
+        <v>86994497</v>
+      </c>
       <c r="FQ19" s="66"/>
       <c r="FR19" s="66"/>
       <c r="FS19" s="66"/>
@@ -11388,7 +11422,9 @@
       <c r="FO20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="FP20" s="69"/>
+      <c r="FP20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="FQ20" s="69"/>
       <c r="FR20" s="69"/>
       <c r="FS20" s="69"/>
@@ -12115,7 +12151,11 @@
       </c>
       <c r="FO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FO2)&amp;", ""month"": "&amp;MONTH(FO2)&amp;", ""day"": "&amp;DAY(FO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FO3&amp;", ""memberCount"": "&amp;FO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FO5&amp;", ""memberCount"": "&amp;FO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FO7&amp;", ""memberCount"": "&amp;FO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FO9&amp;", ""memberCount"": "&amp;FO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FO11&amp;", ""memberCount"": "&amp;FO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FO13&amp;", ""memberCount"": "&amp;FO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FO15&amp;", ""memberCount"": "&amp;FO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FO17&amp;", ""memberCount"": "&amp;FO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FO19&amp;", ""memberCount"": "&amp;FO20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 2, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 195929589, "memberCount": 198}, {"name": "Smile", "contribution": 170292781, "memberCount": 196}, {"name": "Elite", "contribution": 161102816, "memberCount": 199}, {"name": "Savages", "contribution": 150916748, "memberCount": 198}, {"name": "Spring", "contribution": 132180085, "memberCount": 193}, {"name": "Bounce", "contribution": 124549573, "memberCount": 199}, {"name": "Sunset", "contribution": 121222872, "memberCount": 197}, {"name": "Beaters", "contribution": 101291438, "memberCount": 191}, {"name": "Downtime", "contribution": 86806955, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 2, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 195929589, "memberCount": 198}, {"name": "Smile", "contribution": 170292781, "memberCount": 196}, {"name": "Elite", "contribution": 161102816, "memberCount": 199}, {"name": "Savages", "contribution": 150916748, "memberCount": 198}, {"name": "Spring", "contribution": 132180085, "memberCount": 193}, {"name": "Bounce", "contribution": 124549573, "memberCount": 199}, {"name": "Sunset", "contribution": 121222872, "memberCount": 197}, {"name": "Beaters", "contribution": 101291438, "memberCount": 191}, {"name": "Downtime", "contribution": 86806955, "memberCount": 199}]}</v>
+      </c>
+      <c r="FP23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FP2)&amp;", ""month"": "&amp;MONTH(FP2)&amp;", ""day"": "&amp;DAY(FP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FP3&amp;", ""memberCount"": "&amp;FP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FP5&amp;", ""memberCount"": "&amp;FP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FP7&amp;", ""memberCount"": "&amp;FP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FP9&amp;", ""memberCount"": "&amp;FP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FP11&amp;", ""memberCount"": "&amp;FP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FP13&amp;", ""memberCount"": "&amp;FP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FP15&amp;", ""memberCount"": "&amp;FP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FP17&amp;", ""memberCount"": "&amp;FP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FP19&amp;", ""memberCount"": "&amp;FP20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 2, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 196138238, "memberCount": 198}, {"name": "Smile", "contribution": 170539099, "memberCount": 198}, {"name": "Elite", "contribution": 161070123, "memberCount": 198}, {"name": "Savages", "contribution": 151134934, "memberCount": 198}, {"name": "Spring", "contribution": 132305247, "memberCount": 193}, {"name": "Bounce", "contribution": 124924978, "memberCount": 199}, {"name": "Sunset", "contribution": 121288811, "memberCount": 198}, {"name": "Beaters", "contribution": 101431388, "memberCount": 192}, {"name": "Downtime", "contribution": 86994497, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FO1" activeCellId="0" sqref="FO1"/>
+      <selection pane="topRight" activeCell="FP1" activeCellId="0" sqref="FP1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FP23" activeCellId="0" sqref="FP23"/>
+      <selection pane="bottomRight" activeCell="FQ23" activeCellId="0" sqref="FQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1838,7 +1838,9 @@
       <c r="FP3" s="7" t="n">
         <v>196138238</v>
       </c>
-      <c r="FQ3" s="7"/>
+      <c r="FQ3" s="7" t="n">
+        <v>196402004</v>
+      </c>
       <c r="FR3" s="7"/>
       <c r="FS3" s="7"/>
       <c r="FT3" s="7"/>
@@ -2401,7 +2403,9 @@
       <c r="FP4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="FQ4" s="11"/>
+      <c r="FQ4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="FR4" s="11"/>
       <c r="FS4" s="11"/>
       <c r="FT4" s="11"/>
@@ -2966,7 +2970,9 @@
       <c r="FP5" s="17" t="n">
         <v>170539099</v>
       </c>
-      <c r="FQ5" s="17"/>
+      <c r="FQ5" s="17" t="n">
+        <v>170747829</v>
+      </c>
       <c r="FR5" s="17"/>
       <c r="FS5" s="17"/>
       <c r="FT5" s="17"/>
@@ -3529,7 +3535,9 @@
       <c r="FP6" s="20" t="n">
         <v>198</v>
       </c>
-      <c r="FQ6" s="20"/>
+      <c r="FQ6" s="20" t="n">
+        <v>198</v>
+      </c>
       <c r="FR6" s="20"/>
       <c r="FS6" s="20"/>
       <c r="FT6" s="20"/>
@@ -4094,7 +4102,9 @@
       <c r="FP7" s="24" t="n">
         <v>161070123</v>
       </c>
-      <c r="FQ7" s="24"/>
+      <c r="FQ7" s="24" t="n">
+        <v>161257738</v>
+      </c>
       <c r="FR7" s="24"/>
       <c r="FS7" s="24"/>
       <c r="FT7" s="24"/>
@@ -4657,7 +4667,9 @@
       <c r="FP8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="FQ8" s="27"/>
+      <c r="FQ8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="FR8" s="27"/>
       <c r="FS8" s="27"/>
       <c r="FT8" s="27"/>
@@ -5222,7 +5234,9 @@
       <c r="FP9" s="31" t="n">
         <v>151134934</v>
       </c>
-      <c r="FQ9" s="31"/>
+      <c r="FQ9" s="31" t="n">
+        <v>151332126</v>
+      </c>
       <c r="FR9" s="31"/>
       <c r="FS9" s="31"/>
       <c r="FT9" s="31"/>
@@ -5785,7 +5799,9 @@
       <c r="FP10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="FQ10" s="34"/>
+      <c r="FQ10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="FR10" s="34"/>
       <c r="FS10" s="34"/>
       <c r="FT10" s="34"/>
@@ -6350,7 +6366,9 @@
       <c r="FP11" s="38" t="n">
         <v>132305247</v>
       </c>
-      <c r="FQ11" s="38"/>
+      <c r="FQ11" s="38" t="n">
+        <v>132412327</v>
+      </c>
       <c r="FR11" s="38"/>
       <c r="FS11" s="38"/>
       <c r="FT11" s="38"/>
@@ -6913,7 +6931,9 @@
       <c r="FP12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="FQ12" s="41"/>
+      <c r="FQ12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="FR12" s="41"/>
       <c r="FS12" s="41"/>
       <c r="FT12" s="41"/>
@@ -7478,7 +7498,9 @@
       <c r="FP13" s="45" t="n">
         <v>124924978</v>
       </c>
-      <c r="FQ13" s="45"/>
+      <c r="FQ13" s="45" t="n">
+        <v>125178368</v>
+      </c>
       <c r="FR13" s="45"/>
       <c r="FS13" s="45"/>
       <c r="FT13" s="45"/>
@@ -8041,7 +8063,9 @@
       <c r="FP14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="FQ14" s="48"/>
+      <c r="FQ14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="FR14" s="48"/>
       <c r="FS14" s="48"/>
       <c r="FT14" s="48"/>
@@ -8606,7 +8630,9 @@
       <c r="FP15" s="52" t="n">
         <v>121288811</v>
       </c>
-      <c r="FQ15" s="52"/>
+      <c r="FQ15" s="52" t="n">
+        <v>121455199</v>
+      </c>
       <c r="FR15" s="52"/>
       <c r="FS15" s="52"/>
       <c r="FT15" s="52"/>
@@ -9169,7 +9195,9 @@
       <c r="FP16" s="55" t="n">
         <v>198</v>
       </c>
-      <c r="FQ16" s="55"/>
+      <c r="FQ16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="FR16" s="55"/>
       <c r="FS16" s="55"/>
       <c r="FT16" s="55"/>
@@ -9734,7 +9762,9 @@
       <c r="FP17" s="59" t="n">
         <v>101431388</v>
       </c>
-      <c r="FQ17" s="59"/>
+      <c r="FQ17" s="59" t="n">
+        <v>101561255</v>
+      </c>
       <c r="FR17" s="59"/>
       <c r="FS17" s="59"/>
       <c r="FT17" s="59"/>
@@ -10297,7 +10327,9 @@
       <c r="FP18" s="62" t="n">
         <v>192</v>
       </c>
-      <c r="FQ18" s="62"/>
+      <c r="FQ18" s="62" t="n">
+        <v>192</v>
+      </c>
       <c r="FR18" s="62"/>
       <c r="FS18" s="62"/>
       <c r="FT18" s="62"/>
@@ -10862,7 +10894,9 @@
       <c r="FP19" s="66" t="n">
         <v>86994497</v>
       </c>
-      <c r="FQ19" s="66"/>
+      <c r="FQ19" s="66" t="n">
+        <v>87111128</v>
+      </c>
       <c r="FR19" s="66"/>
       <c r="FS19" s="66"/>
       <c r="FT19" s="66"/>
@@ -11425,7 +11459,9 @@
       <c r="FP20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="FQ20" s="69"/>
+      <c r="FQ20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="FR20" s="69"/>
       <c r="FS20" s="69"/>
       <c r="FT20" s="69"/>
@@ -12155,7 +12191,11 @@
       </c>
       <c r="FP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FP2)&amp;", ""month"": "&amp;MONTH(FP2)&amp;", ""day"": "&amp;DAY(FP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FP3&amp;", ""memberCount"": "&amp;FP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FP5&amp;", ""memberCount"": "&amp;FP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FP7&amp;", ""memberCount"": "&amp;FP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FP9&amp;", ""memberCount"": "&amp;FP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FP11&amp;", ""memberCount"": "&amp;FP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FP13&amp;", ""memberCount"": "&amp;FP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FP15&amp;", ""memberCount"": "&amp;FP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FP17&amp;", ""memberCount"": "&amp;FP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FP19&amp;", ""memberCount"": "&amp;FP20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 2, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 196138238, "memberCount": 198}, {"name": "Smile", "contribution": 170539099, "memberCount": 198}, {"name": "Elite", "contribution": 161070123, "memberCount": 198}, {"name": "Savages", "contribution": 151134934, "memberCount": 198}, {"name": "Spring", "contribution": 132305247, "memberCount": 193}, {"name": "Bounce", "contribution": 124924978, "memberCount": 199}, {"name": "Sunset", "contribution": 121288811, "memberCount": 198}, {"name": "Beaters", "contribution": 101431388, "memberCount": 192}, {"name": "Downtime", "contribution": 86994497, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 2, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 196138238, "memberCount": 198}, {"name": "Smile", "contribution": 170539099, "memberCount": 198}, {"name": "Elite", "contribution": 161070123, "memberCount": 198}, {"name": "Savages", "contribution": 151134934, "memberCount": 198}, {"name": "Spring", "contribution": 132305247, "memberCount": 193}, {"name": "Bounce", "contribution": 124924978, "memberCount": 199}, {"name": "Sunset", "contribution": 121288811, "memberCount": 198}, {"name": "Beaters", "contribution": 101431388, "memberCount": 192}, {"name": "Downtime", "contribution": 86994497, "memberCount": 199}]}</v>
+      </c>
+      <c r="FQ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FQ2)&amp;", ""month"": "&amp;MONTH(FQ2)&amp;", ""day"": "&amp;DAY(FQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FQ3&amp;", ""memberCount"": "&amp;FQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FQ5&amp;", ""memberCount"": "&amp;FQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FQ7&amp;", ""memberCount"": "&amp;FQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FQ9&amp;", ""memberCount"": "&amp;FQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FQ11&amp;", ""memberCount"": "&amp;FQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FQ13&amp;", ""memberCount"": "&amp;FQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FQ15&amp;", ""memberCount"": "&amp;FQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FQ17&amp;", ""memberCount"": "&amp;FQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FQ19&amp;", ""memberCount"": "&amp;FQ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 2, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 196402004, "memberCount": 198}, {"name": "Smile", "contribution": 170747829, "memberCount": 198}, {"name": "Elite", "contribution": 161257738, "memberCount": 198}, {"name": "Savages", "contribution": 151332126, "memberCount": 199}, {"name": "Spring", "contribution": 132412327, "memberCount": 193}, {"name": "Bounce", "contribution": 125178368, "memberCount": 199}, {"name": "Sunset", "contribution": 121455199, "memberCount": 197}, {"name": "Beaters", "contribution": 101561255, "memberCount": 192}, {"name": "Downtime", "contribution": 87111128, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FP1" activeCellId="0" sqref="FP1"/>
+      <selection pane="topRight" activeCell="FQ1" activeCellId="0" sqref="FQ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FQ23" activeCellId="0" sqref="FQ23"/>
+      <selection pane="bottomRight" activeCell="FR23" activeCellId="0" sqref="FR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1841,7 +1841,9 @@
       <c r="FQ3" s="7" t="n">
         <v>196402004</v>
       </c>
-      <c r="FR3" s="7"/>
+      <c r="FR3" s="7" t="n">
+        <v>196559953</v>
+      </c>
       <c r="FS3" s="7"/>
       <c r="FT3" s="7"/>
       <c r="FU3" s="7"/>
@@ -2406,7 +2408,9 @@
       <c r="FQ4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="FR4" s="11"/>
+      <c r="FR4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="FS4" s="11"/>
       <c r="FT4" s="11"/>
       <c r="FU4" s="11"/>
@@ -2973,7 +2977,9 @@
       <c r="FQ5" s="17" t="n">
         <v>170747829</v>
       </c>
-      <c r="FR5" s="17"/>
+      <c r="FR5" s="17" t="n">
+        <v>170956980</v>
+      </c>
       <c r="FS5" s="17"/>
       <c r="FT5" s="17"/>
       <c r="FU5" s="17"/>
@@ -3538,7 +3544,9 @@
       <c r="FQ6" s="20" t="n">
         <v>198</v>
       </c>
-      <c r="FR6" s="20"/>
+      <c r="FR6" s="20" t="n">
+        <v>198</v>
+      </c>
       <c r="FS6" s="20"/>
       <c r="FT6" s="20"/>
       <c r="FU6" s="20"/>
@@ -4105,7 +4113,9 @@
       <c r="FQ7" s="24" t="n">
         <v>161257738</v>
       </c>
-      <c r="FR7" s="24"/>
+      <c r="FR7" s="24" t="n">
+        <v>161394434</v>
+      </c>
       <c r="FS7" s="24"/>
       <c r="FT7" s="24"/>
       <c r="FU7" s="24"/>
@@ -4670,7 +4680,9 @@
       <c r="FQ8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="FR8" s="27"/>
+      <c r="FR8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="FS8" s="27"/>
       <c r="FT8" s="27"/>
       <c r="FU8" s="27"/>
@@ -5237,7 +5249,9 @@
       <c r="FQ9" s="31" t="n">
         <v>151332126</v>
       </c>
-      <c r="FR9" s="31"/>
+      <c r="FR9" s="31" t="n">
+        <v>151553058</v>
+      </c>
       <c r="FS9" s="31"/>
       <c r="FT9" s="31"/>
       <c r="FU9" s="31"/>
@@ -5802,7 +5816,9 @@
       <c r="FQ10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="FR10" s="34"/>
+      <c r="FR10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="FS10" s="34"/>
       <c r="FT10" s="34"/>
       <c r="FU10" s="34"/>
@@ -6369,7 +6385,9 @@
       <c r="FQ11" s="38" t="n">
         <v>132412327</v>
       </c>
-      <c r="FR11" s="38"/>
+      <c r="FR11" s="38" t="n">
+        <v>132540077</v>
+      </c>
       <c r="FS11" s="38"/>
       <c r="FT11" s="38"/>
       <c r="FU11" s="38"/>
@@ -6934,7 +6952,9 @@
       <c r="FQ12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="FR12" s="41"/>
+      <c r="FR12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="FS12" s="41"/>
       <c r="FT12" s="41"/>
       <c r="FU12" s="41"/>
@@ -7501,7 +7521,9 @@
       <c r="FQ13" s="45" t="n">
         <v>125178368</v>
       </c>
-      <c r="FR13" s="45"/>
+      <c r="FR13" s="45" t="n">
+        <v>125219215</v>
+      </c>
       <c r="FS13" s="45"/>
       <c r="FT13" s="45"/>
       <c r="FU13" s="45"/>
@@ -8066,7 +8088,9 @@
       <c r="FQ14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="FR14" s="48"/>
+      <c r="FR14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="FS14" s="48"/>
       <c r="FT14" s="48"/>
       <c r="FU14" s="48"/>
@@ -8633,7 +8657,9 @@
       <c r="FQ15" s="52" t="n">
         <v>121455199</v>
       </c>
-      <c r="FR15" s="52"/>
+      <c r="FR15" s="52" t="n">
+        <v>121611151</v>
+      </c>
       <c r="FS15" s="52"/>
       <c r="FT15" s="52"/>
       <c r="FU15" s="52"/>
@@ -9198,7 +9224,9 @@
       <c r="FQ16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="FR16" s="55"/>
+      <c r="FR16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="FS16" s="55"/>
       <c r="FT16" s="55"/>
       <c r="FU16" s="55"/>
@@ -9765,7 +9793,9 @@
       <c r="FQ17" s="59" t="n">
         <v>101561255</v>
       </c>
-      <c r="FR17" s="59"/>
+      <c r="FR17" s="59" t="n">
+        <v>101643464</v>
+      </c>
       <c r="FS17" s="59"/>
       <c r="FT17" s="59"/>
       <c r="FU17" s="59"/>
@@ -10330,7 +10360,9 @@
       <c r="FQ18" s="62" t="n">
         <v>192</v>
       </c>
-      <c r="FR18" s="62"/>
+      <c r="FR18" s="62" t="n">
+        <v>192</v>
+      </c>
       <c r="FS18" s="62"/>
       <c r="FT18" s="62"/>
       <c r="FU18" s="62"/>
@@ -10897,7 +10929,9 @@
       <c r="FQ19" s="66" t="n">
         <v>87111128</v>
       </c>
-      <c r="FR19" s="66"/>
+      <c r="FR19" s="66" t="n">
+        <v>87220871</v>
+      </c>
       <c r="FS19" s="66"/>
       <c r="FT19" s="66"/>
       <c r="FU19" s="66"/>
@@ -11462,7 +11496,9 @@
       <c r="FQ20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="FR20" s="69"/>
+      <c r="FR20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="FS20" s="69"/>
       <c r="FT20" s="69"/>
       <c r="FU20" s="69"/>
@@ -12195,7 +12231,11 @@
       </c>
       <c r="FQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FQ2)&amp;", ""month"": "&amp;MONTH(FQ2)&amp;", ""day"": "&amp;DAY(FQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FQ3&amp;", ""memberCount"": "&amp;FQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FQ5&amp;", ""memberCount"": "&amp;FQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FQ7&amp;", ""memberCount"": "&amp;FQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FQ9&amp;", ""memberCount"": "&amp;FQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FQ11&amp;", ""memberCount"": "&amp;FQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FQ13&amp;", ""memberCount"": "&amp;FQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FQ15&amp;", ""memberCount"": "&amp;FQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FQ17&amp;", ""memberCount"": "&amp;FQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FQ19&amp;", ""memberCount"": "&amp;FQ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 2, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 196402004, "memberCount": 198}, {"name": "Smile", "contribution": 170747829, "memberCount": 198}, {"name": "Elite", "contribution": 161257738, "memberCount": 198}, {"name": "Savages", "contribution": 151332126, "memberCount": 199}, {"name": "Spring", "contribution": 132412327, "memberCount": 193}, {"name": "Bounce", "contribution": 125178368, "memberCount": 199}, {"name": "Sunset", "contribution": 121455199, "memberCount": 197}, {"name": "Beaters", "contribution": 101561255, "memberCount": 192}, {"name": "Downtime", "contribution": 87111128, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 2, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 196402004, "memberCount": 198}, {"name": "Smile", "contribution": 170747829, "memberCount": 198}, {"name": "Elite", "contribution": 161257738, "memberCount": 198}, {"name": "Savages", "contribution": 151332126, "memberCount": 199}, {"name": "Spring", "contribution": 132412327, "memberCount": 193}, {"name": "Bounce", "contribution": 125178368, "memberCount": 199}, {"name": "Sunset", "contribution": 121455199, "memberCount": 197}, {"name": "Beaters", "contribution": 101561255, "memberCount": 192}, {"name": "Downtime", "contribution": 87111128, "memberCount": 199}]}</v>
+      </c>
+      <c r="FR23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FR2)&amp;", ""month"": "&amp;MONTH(FR2)&amp;", ""day"": "&amp;DAY(FR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FR3&amp;", ""memberCount"": "&amp;FR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FR5&amp;", ""memberCount"": "&amp;FR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FR7&amp;", ""memberCount"": "&amp;FR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FR9&amp;", ""memberCount"": "&amp;FR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FR11&amp;", ""memberCount"": "&amp;FR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FR13&amp;", ""memberCount"": "&amp;FR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FR15&amp;", ""memberCount"": "&amp;FR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FR17&amp;", ""memberCount"": "&amp;FR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FR19&amp;", ""memberCount"": "&amp;FR20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 2, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 196559953, "memberCount": 197}, {"name": "Smile", "contribution": 170956980, "memberCount": 198}, {"name": "Elite", "contribution": 161394434, "memberCount": 198}, {"name": "Savages", "contribution": 151553058, "memberCount": 199}, {"name": "Spring", "contribution": 132540077, "memberCount": 193}, {"name": "Bounce", "contribution": 125219215, "memberCount": 199}, {"name": "Sunset", "contribution": 121611151, "memberCount": 197}, {"name": "Beaters", "contribution": 101643464, "memberCount": 192}, {"name": "Downtime", "contribution": 87220871, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FQ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FQ1" activeCellId="0" sqref="FQ1"/>
+      <selection pane="topRight" activeCell="FT1" activeCellId="0" sqref="FT1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FR23" activeCellId="0" sqref="FR23"/>
+      <selection pane="bottomRight" activeCell="FU23" activeCellId="0" sqref="FT23:FU23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1844,9 +1844,15 @@
       <c r="FR3" s="7" t="n">
         <v>196559953</v>
       </c>
-      <c r="FS3" s="7"/>
-      <c r="FT3" s="7"/>
-      <c r="FU3" s="7"/>
+      <c r="FS3" s="7" t="n">
+        <v>196537352</v>
+      </c>
+      <c r="FT3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU3" s="7" t="n">
+        <v>197070658</v>
+      </c>
       <c r="FV3" s="7"/>
       <c r="FW3" s="7"/>
       <c r="FX3" s="7"/>
@@ -2411,9 +2417,15 @@
       <c r="FR4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="FS4" s="11"/>
-      <c r="FT4" s="11"/>
-      <c r="FU4" s="11"/>
+      <c r="FS4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="FT4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="FV4" s="11"/>
       <c r="FW4" s="11"/>
       <c r="FX4" s="11"/>
@@ -2980,9 +2992,15 @@
       <c r="FR5" s="17" t="n">
         <v>170956980</v>
       </c>
-      <c r="FS5" s="17"/>
-      <c r="FT5" s="17"/>
-      <c r="FU5" s="17"/>
+      <c r="FS5" s="17" t="n">
+        <v>171217743</v>
+      </c>
+      <c r="FT5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU5" s="17" t="n">
+        <v>171704480</v>
+      </c>
       <c r="FV5" s="17"/>
       <c r="FW5" s="17"/>
       <c r="FX5" s="17"/>
@@ -3547,9 +3565,15 @@
       <c r="FR6" s="20" t="n">
         <v>198</v>
       </c>
-      <c r="FS6" s="20"/>
-      <c r="FT6" s="20"/>
-      <c r="FU6" s="20"/>
+      <c r="FS6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="FT6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="FV6" s="20"/>
       <c r="FW6" s="20"/>
       <c r="FX6" s="20"/>
@@ -4116,9 +4140,15 @@
       <c r="FR7" s="24" t="n">
         <v>161394434</v>
       </c>
-      <c r="FS7" s="24"/>
-      <c r="FT7" s="24"/>
-      <c r="FU7" s="24"/>
+      <c r="FS7" s="24" t="n">
+        <v>161561959</v>
+      </c>
+      <c r="FT7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU7" s="24" t="n">
+        <v>161918231</v>
+      </c>
       <c r="FV7" s="24"/>
       <c r="FW7" s="24"/>
       <c r="FX7" s="24"/>
@@ -4683,9 +4713,15 @@
       <c r="FR8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="FS8" s="27"/>
-      <c r="FT8" s="27"/>
-      <c r="FU8" s="27"/>
+      <c r="FS8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="FT8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="FV8" s="27"/>
       <c r="FW8" s="27"/>
       <c r="FX8" s="27"/>
@@ -5252,9 +5288,15 @@
       <c r="FR9" s="31" t="n">
         <v>151553058</v>
       </c>
-      <c r="FS9" s="31"/>
-      <c r="FT9" s="31"/>
-      <c r="FU9" s="31"/>
+      <c r="FS9" s="31" t="n">
+        <v>151782420</v>
+      </c>
+      <c r="FT9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU9" s="31" t="n">
+        <v>152175138</v>
+      </c>
       <c r="FV9" s="31"/>
       <c r="FW9" s="31"/>
       <c r="FX9" s="31"/>
@@ -5819,9 +5861,15 @@
       <c r="FR10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="FS10" s="34"/>
-      <c r="FT10" s="34"/>
-      <c r="FU10" s="34"/>
+      <c r="FS10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="FT10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="FV10" s="34"/>
       <c r="FW10" s="34"/>
       <c r="FX10" s="34"/>
@@ -6388,9 +6436,15 @@
       <c r="FR11" s="38" t="n">
         <v>132540077</v>
       </c>
-      <c r="FS11" s="38"/>
-      <c r="FT11" s="38"/>
-      <c r="FU11" s="38"/>
+      <c r="FS11" s="38" t="n">
+        <v>132731785</v>
+      </c>
+      <c r="FT11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU11" s="38" t="n">
+        <v>133006136</v>
+      </c>
       <c r="FV11" s="38"/>
       <c r="FW11" s="38"/>
       <c r="FX11" s="38"/>
@@ -6955,9 +7009,15 @@
       <c r="FR12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="FS12" s="41"/>
-      <c r="FT12" s="41"/>
-      <c r="FU12" s="41"/>
+      <c r="FS12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="FT12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="FV12" s="41"/>
       <c r="FW12" s="41"/>
       <c r="FX12" s="41"/>
@@ -7524,9 +7584,15 @@
       <c r="FR13" s="45" t="n">
         <v>125219215</v>
       </c>
-      <c r="FS13" s="45"/>
-      <c r="FT13" s="45"/>
-      <c r="FU13" s="45"/>
+      <c r="FS13" s="45" t="n">
+        <v>125485004</v>
+      </c>
+      <c r="FT13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU13" s="45" t="n">
+        <v>125951414</v>
+      </c>
       <c r="FV13" s="45"/>
       <c r="FW13" s="45"/>
       <c r="FX13" s="45"/>
@@ -8091,9 +8157,15 @@
       <c r="FR14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="FS14" s="48"/>
-      <c r="FT14" s="48"/>
-      <c r="FU14" s="48"/>
+      <c r="FS14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="FT14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="FV14" s="48"/>
       <c r="FW14" s="48"/>
       <c r="FX14" s="48"/>
@@ -8660,9 +8732,15 @@
       <c r="FR15" s="52" t="n">
         <v>121611151</v>
       </c>
-      <c r="FS15" s="52"/>
-      <c r="FT15" s="52"/>
-      <c r="FU15" s="52"/>
+      <c r="FS15" s="52" t="n">
+        <v>121740966</v>
+      </c>
+      <c r="FT15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU15" s="52" t="n">
+        <v>121724269</v>
+      </c>
       <c r="FV15" s="52"/>
       <c r="FW15" s="52"/>
       <c r="FX15" s="52"/>
@@ -9227,9 +9305,15 @@
       <c r="FR16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="FS16" s="55"/>
-      <c r="FT16" s="55"/>
-      <c r="FU16" s="55"/>
+      <c r="FS16" s="55" t="n">
+        <v>196</v>
+      </c>
+      <c r="FT16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU16" s="55" t="n">
+        <v>195</v>
+      </c>
       <c r="FV16" s="55"/>
       <c r="FW16" s="55"/>
       <c r="FX16" s="55"/>
@@ -9796,9 +9880,15 @@
       <c r="FR17" s="59" t="n">
         <v>101643464</v>
       </c>
-      <c r="FS17" s="59"/>
-      <c r="FT17" s="59"/>
-      <c r="FU17" s="59"/>
+      <c r="FS17" s="59" t="n">
+        <v>101782509</v>
+      </c>
+      <c r="FT17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU17" s="59" t="n">
+        <v>101983793</v>
+      </c>
       <c r="FV17" s="59"/>
       <c r="FW17" s="59"/>
       <c r="FX17" s="59"/>
@@ -10363,9 +10453,15 @@
       <c r="FR18" s="62" t="n">
         <v>192</v>
       </c>
-      <c r="FS18" s="62"/>
-      <c r="FT18" s="62"/>
-      <c r="FU18" s="62"/>
+      <c r="FS18" s="62" t="n">
+        <v>194</v>
+      </c>
+      <c r="FT18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU18" s="62" t="n">
+        <v>194</v>
+      </c>
       <c r="FV18" s="62"/>
       <c r="FW18" s="62"/>
       <c r="FX18" s="62"/>
@@ -10932,9 +11028,15 @@
       <c r="FR19" s="66" t="n">
         <v>87220871</v>
       </c>
-      <c r="FS19" s="66"/>
-      <c r="FT19" s="66"/>
-      <c r="FU19" s="66"/>
+      <c r="FS19" s="66" t="n">
+        <v>87270501</v>
+      </c>
+      <c r="FT19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU19" s="66" t="n">
+        <v>87473654</v>
+      </c>
       <c r="FV19" s="66"/>
       <c r="FW19" s="66"/>
       <c r="FX19" s="66"/>
@@ -11499,9 +11601,15 @@
       <c r="FR20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="FS20" s="69"/>
-      <c r="FT20" s="69"/>
-      <c r="FU20" s="69"/>
+      <c r="FS20" s="69" t="n">
+        <v>198</v>
+      </c>
+      <c r="FT20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="FU20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="FV20" s="69"/>
       <c r="FW20" s="69"/>
       <c r="FX20" s="69"/>
@@ -12235,7 +12343,19 @@
       </c>
       <c r="FR23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FR2)&amp;", ""month"": "&amp;MONTH(FR2)&amp;", ""day"": "&amp;DAY(FR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FR3&amp;", ""memberCount"": "&amp;FR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FR5&amp;", ""memberCount"": "&amp;FR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FR7&amp;", ""memberCount"": "&amp;FR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FR9&amp;", ""memberCount"": "&amp;FR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FR11&amp;", ""memberCount"": "&amp;FR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FR13&amp;", ""memberCount"": "&amp;FR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FR15&amp;", ""memberCount"": "&amp;FR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FR17&amp;", ""memberCount"": "&amp;FR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FR19&amp;", ""memberCount"": "&amp;FR20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 2, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 196559953, "memberCount": 197}, {"name": "Smile", "contribution": 170956980, "memberCount": 198}, {"name": "Elite", "contribution": 161394434, "memberCount": 198}, {"name": "Savages", "contribution": 151553058, "memberCount": 199}, {"name": "Spring", "contribution": 132540077, "memberCount": 193}, {"name": "Bounce", "contribution": 125219215, "memberCount": 199}, {"name": "Sunset", "contribution": 121611151, "memberCount": 197}, {"name": "Beaters", "contribution": 101643464, "memberCount": 192}, {"name": "Downtime", "contribution": 87220871, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 2, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 196559953, "memberCount": 197}, {"name": "Smile", "contribution": 170956980, "memberCount": 198}, {"name": "Elite", "contribution": 161394434, "memberCount": 198}, {"name": "Savages", "contribution": 151553058, "memberCount": 199}, {"name": "Spring", "contribution": 132540077, "memberCount": 193}, {"name": "Bounce", "contribution": 125219215, "memberCount": 199}, {"name": "Sunset", "contribution": 121611151, "memberCount": 197}, {"name": "Beaters", "contribution": 101643464, "memberCount": 192}, {"name": "Downtime", "contribution": 87220871, "memberCount": 199}]}</v>
+      </c>
+      <c r="FS23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FS2)&amp;", ""month"": "&amp;MONTH(FS2)&amp;", ""day"": "&amp;DAY(FS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FS3&amp;", ""memberCount"": "&amp;FS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FS5&amp;", ""memberCount"": "&amp;FS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FS7&amp;", ""memberCount"": "&amp;FS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FS9&amp;", ""memberCount"": "&amp;FS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FS11&amp;", ""memberCount"": "&amp;FS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FS13&amp;", ""memberCount"": "&amp;FS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FS15&amp;", ""memberCount"": "&amp;FS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FS17&amp;", ""memberCount"": "&amp;FS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FS19&amp;", ""memberCount"": "&amp;FS20&amp;"}"&amp;"]}"</f>
+        <v>, {"year": 2019, "month": 2, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 196537352, "memberCount": 196}, {"name": "Smile", "contribution": 171217743, "memberCount": 199}, {"name": "Elite", "contribution": 161561959, "memberCount": 198}, {"name": "Savages", "contribution": 151782420, "memberCount": 199}, {"name": "Spring", "contribution": 132731785, "memberCount": 193}, {"name": "Bounce", "contribution": 125485004, "memberCount": 199}, {"name": "Sunset", "contribution": 121740966, "memberCount": 196}, {"name": "Beaters", "contribution": 101782509, "memberCount": 194}, {"name": "Downtime", "contribution": 87270501, "memberCount": 198}]}</v>
+      </c>
+      <c r="FT23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FT2)&amp;", ""month"": "&amp;MONTH(FT2)&amp;", ""day"": "&amp;DAY(FT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FT3&amp;", ""memberCount"": "&amp;FT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FT5&amp;", ""memberCount"": "&amp;FT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FT7&amp;", ""memberCount"": "&amp;FT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FT9&amp;", ""memberCount"": "&amp;FT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FT11&amp;", ""memberCount"": "&amp;FT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FT13&amp;", ""memberCount"": "&amp;FT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FT15&amp;", ""memberCount"": "&amp;FT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FT17&amp;", ""memberCount"": "&amp;FT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FT19&amp;", ""memberCount"": "&amp;FT20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 2, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="FU23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FU2)&amp;", ""month"": "&amp;MONTH(FU2)&amp;", ""day"": "&amp;DAY(FU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FU3&amp;", ""memberCount"": "&amp;FU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FU5&amp;", ""memberCount"": "&amp;FU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FU7&amp;", ""memberCount"": "&amp;FU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FU9&amp;", ""memberCount"": "&amp;FU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FU11&amp;", ""memberCount"": "&amp;FU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FU13&amp;", ""memberCount"": "&amp;FU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FU15&amp;", ""memberCount"": "&amp;FU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FU17&amp;", ""memberCount"": "&amp;FU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FU19&amp;", ""memberCount"": "&amp;FU20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 197070658, "memberCount": 196}, {"name": "Smile", "contribution": 171704480, "memberCount": 199}, {"name": "Elite", "contribution": 161918231, "memberCount": 198}, {"name": "Savages", "contribution": 152175138, "memberCount": 199}, {"name": "Spring", "contribution": 133006136, "memberCount": 193}, {"name": "Bounce", "contribution": 125951414, "memberCount": 199}, {"name": "Sunset", "contribution": 121724269, "memberCount": 195}, {"name": "Beaters", "contribution": 101983793, "memberCount": 194}, {"name": "Downtime", "contribution": 87473654, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FT1" activeCellId="0" sqref="FT1"/>
+      <selection pane="topRight" activeCell="FU1" activeCellId="0" sqref="FU1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FU23" activeCellId="0" sqref="FT23:FU23"/>
+      <selection pane="bottomRight" activeCell="FV23" activeCellId="0" sqref="FV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1853,7 +1853,9 @@
       <c r="FU3" s="7" t="n">
         <v>197070658</v>
       </c>
-      <c r="FV3" s="7"/>
+      <c r="FV3" s="7" t="n">
+        <v>197291823</v>
+      </c>
       <c r="FW3" s="7"/>
       <c r="FX3" s="7"/>
       <c r="FY3" s="7"/>
@@ -2426,7 +2428,9 @@
       <c r="FU4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="FV4" s="11"/>
+      <c r="FV4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="FW4" s="11"/>
       <c r="FX4" s="11"/>
       <c r="FY4" s="11"/>
@@ -3001,7 +3005,9 @@
       <c r="FU5" s="17" t="n">
         <v>171704480</v>
       </c>
-      <c r="FV5" s="17"/>
+      <c r="FV5" s="17" t="n">
+        <v>171923046</v>
+      </c>
       <c r="FW5" s="17"/>
       <c r="FX5" s="17"/>
       <c r="FY5" s="17"/>
@@ -3574,7 +3580,9 @@
       <c r="FU6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="FV6" s="20"/>
+      <c r="FV6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="FW6" s="20"/>
       <c r="FX6" s="20"/>
       <c r="FY6" s="20"/>
@@ -4149,7 +4157,9 @@
       <c r="FU7" s="24" t="n">
         <v>161918231</v>
       </c>
-      <c r="FV7" s="24"/>
+      <c r="FV7" s="24" t="n">
+        <v>162090257</v>
+      </c>
       <c r="FW7" s="24"/>
       <c r="FX7" s="24"/>
       <c r="FY7" s="24"/>
@@ -4722,7 +4732,9 @@
       <c r="FU8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="FV8" s="27"/>
+      <c r="FV8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="FW8" s="27"/>
       <c r="FX8" s="27"/>
       <c r="FY8" s="27"/>
@@ -5297,7 +5309,9 @@
       <c r="FU9" s="31" t="n">
         <v>152175138</v>
       </c>
-      <c r="FV9" s="31"/>
+      <c r="FV9" s="31" t="n">
+        <v>152181186</v>
+      </c>
       <c r="FW9" s="31"/>
       <c r="FX9" s="31"/>
       <c r="FY9" s="31"/>
@@ -5870,7 +5884,9 @@
       <c r="FU10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="FV10" s="34"/>
+      <c r="FV10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="FW10" s="34"/>
       <c r="FX10" s="34"/>
       <c r="FY10" s="34"/>
@@ -6445,7 +6461,9 @@
       <c r="FU11" s="38" t="n">
         <v>133006136</v>
       </c>
-      <c r="FV11" s="38"/>
+      <c r="FV11" s="38" t="n">
+        <v>133092505</v>
+      </c>
       <c r="FW11" s="38"/>
       <c r="FX11" s="38"/>
       <c r="FY11" s="38"/>
@@ -7018,7 +7036,9 @@
       <c r="FU12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="FV12" s="41"/>
+      <c r="FV12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="FW12" s="41"/>
       <c r="FX12" s="41"/>
       <c r="FY12" s="41"/>
@@ -7593,7 +7613,9 @@
       <c r="FU13" s="45" t="n">
         <v>125951414</v>
       </c>
-      <c r="FV13" s="45"/>
+      <c r="FV13" s="45" t="n">
+        <v>126188730</v>
+      </c>
       <c r="FW13" s="45"/>
       <c r="FX13" s="45"/>
       <c r="FY13" s="45"/>
@@ -8166,7 +8188,9 @@
       <c r="FU14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="FV14" s="48"/>
+      <c r="FV14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="FW14" s="48"/>
       <c r="FX14" s="48"/>
       <c r="FY14" s="48"/>
@@ -8741,7 +8765,9 @@
       <c r="FU15" s="52" t="n">
         <v>121724269</v>
       </c>
-      <c r="FV15" s="52"/>
+      <c r="FV15" s="52" t="n">
+        <v>121848879</v>
+      </c>
       <c r="FW15" s="52"/>
       <c r="FX15" s="52"/>
       <c r="FY15" s="52"/>
@@ -9314,7 +9340,9 @@
       <c r="FU16" s="55" t="n">
         <v>195</v>
       </c>
-      <c r="FV16" s="55"/>
+      <c r="FV16" s="55" t="n">
+        <v>196</v>
+      </c>
       <c r="FW16" s="55"/>
       <c r="FX16" s="55"/>
       <c r="FY16" s="55"/>
@@ -9889,7 +9917,9 @@
       <c r="FU17" s="59" t="n">
         <v>101983793</v>
       </c>
-      <c r="FV17" s="59"/>
+      <c r="FV17" s="59" t="n">
+        <v>102131451</v>
+      </c>
       <c r="FW17" s="59"/>
       <c r="FX17" s="59"/>
       <c r="FY17" s="59"/>
@@ -10462,7 +10492,9 @@
       <c r="FU18" s="62" t="n">
         <v>194</v>
       </c>
-      <c r="FV18" s="62"/>
+      <c r="FV18" s="62" t="n">
+        <v>194</v>
+      </c>
       <c r="FW18" s="62"/>
       <c r="FX18" s="62"/>
       <c r="FY18" s="62"/>
@@ -11037,7 +11069,9 @@
       <c r="FU19" s="66" t="n">
         <v>87473654</v>
       </c>
-      <c r="FV19" s="66"/>
+      <c r="FV19" s="66" t="n">
+        <v>87619316</v>
+      </c>
       <c r="FW19" s="66"/>
       <c r="FX19" s="66"/>
       <c r="FY19" s="66"/>
@@ -11610,7 +11644,9 @@
       <c r="FU20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="FV20" s="69"/>
+      <c r="FV20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="FW20" s="69"/>
       <c r="FX20" s="69"/>
       <c r="FY20" s="69"/>
@@ -12351,11 +12387,15 @@
       </c>
       <c r="FT23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FT2)&amp;", ""month"": "&amp;MONTH(FT2)&amp;", ""day"": "&amp;DAY(FT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FT3&amp;", ""memberCount"": "&amp;FT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FT5&amp;", ""memberCount"": "&amp;FT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FT7&amp;", ""memberCount"": "&amp;FT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FT9&amp;", ""memberCount"": "&amp;FT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FT11&amp;", ""memberCount"": "&amp;FT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FT13&amp;", ""memberCount"": "&amp;FT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FT15&amp;", ""memberCount"": "&amp;FT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FT17&amp;", ""memberCount"": "&amp;FT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FT19&amp;", ""memberCount"": "&amp;FT20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 2, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 2, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="FU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FU2)&amp;", ""month"": "&amp;MONTH(FU2)&amp;", ""day"": "&amp;DAY(FU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FU3&amp;", ""memberCount"": "&amp;FU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FU5&amp;", ""memberCount"": "&amp;FU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FU7&amp;", ""memberCount"": "&amp;FU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FU9&amp;", ""memberCount"": "&amp;FU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FU11&amp;", ""memberCount"": "&amp;FU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FU13&amp;", ""memberCount"": "&amp;FU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FU15&amp;", ""memberCount"": "&amp;FU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FU17&amp;", ""memberCount"": "&amp;FU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FU19&amp;", ""memberCount"": "&amp;FU20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 197070658, "memberCount": 196}, {"name": "Smile", "contribution": 171704480, "memberCount": 199}, {"name": "Elite", "contribution": 161918231, "memberCount": 198}, {"name": "Savages", "contribution": 152175138, "memberCount": 199}, {"name": "Spring", "contribution": 133006136, "memberCount": 193}, {"name": "Bounce", "contribution": 125951414, "memberCount": 199}, {"name": "Sunset", "contribution": 121724269, "memberCount": 195}, {"name": "Beaters", "contribution": 101983793, "memberCount": 194}, {"name": "Downtime", "contribution": 87473654, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 197070658, "memberCount": 196}, {"name": "Smile", "contribution": 171704480, "memberCount": 199}, {"name": "Elite", "contribution": 161918231, "memberCount": 198}, {"name": "Savages", "contribution": 152175138, "memberCount": 199}, {"name": "Spring", "contribution": 133006136, "memberCount": 193}, {"name": "Bounce", "contribution": 125951414, "memberCount": 199}, {"name": "Sunset", "contribution": 121724269, "memberCount": 195}, {"name": "Beaters", "contribution": 101983793, "memberCount": 194}, {"name": "Downtime", "contribution": 87473654, "memberCount": 198}]}</v>
+      </c>
+      <c r="FV23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FV2)&amp;", ""month"": "&amp;MONTH(FV2)&amp;", ""day"": "&amp;DAY(FV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FV3&amp;", ""memberCount"": "&amp;FV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FV5&amp;", ""memberCount"": "&amp;FV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FV7&amp;", ""memberCount"": "&amp;FV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FV9&amp;", ""memberCount"": "&amp;FV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FV11&amp;", ""memberCount"": "&amp;FV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FV13&amp;", ""memberCount"": "&amp;FV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FV15&amp;", ""memberCount"": "&amp;FV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FV17&amp;", ""memberCount"": "&amp;FV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FV19&amp;", ""memberCount"": "&amp;FV20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 197291823, "memberCount": 196}, {"name": "Smile", "contribution": 171923046, "memberCount": 199}, {"name": "Elite", "contribution": 162090257, "memberCount": 198}, {"name": "Savages", "contribution": 152181186, "memberCount": 198}, {"name": "Spring", "contribution": 133092505, "memberCount": 193}, {"name": "Bounce", "contribution": 126188730, "memberCount": 199}, {"name": "Sunset", "contribution": 121848879, "memberCount": 196}, {"name": "Beaters", "contribution": 102131451, "memberCount": 194}, {"name": "Downtime", "contribution": 87619316, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FU3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FU1" activeCellId="0" sqref="FU1"/>
+      <selection pane="topRight" activeCell="FN1" activeCellId="0" sqref="FN1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FV23" activeCellId="0" sqref="FV23"/>
+      <selection pane="bottomRight" activeCell="FW23" activeCellId="0" sqref="FW23:FZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1856,10 +1856,18 @@
       <c r="FV3" s="7" t="n">
         <v>197291823</v>
       </c>
-      <c r="FW3" s="7"/>
-      <c r="FX3" s="7"/>
-      <c r="FY3" s="7"/>
-      <c r="FZ3" s="7"/>
+      <c r="FW3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ3" s="7" t="n">
+        <v>198189759</v>
+      </c>
       <c r="GA3" s="7"/>
       <c r="GB3" s="7"/>
       <c r="GC3" s="7"/>
@@ -2431,10 +2439,18 @@
       <c r="FV4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="FW4" s="11"/>
-      <c r="FX4" s="11"/>
-      <c r="FY4" s="11"/>
-      <c r="FZ4" s="11"/>
+      <c r="FW4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GA4" s="11"/>
       <c r="GB4" s="11"/>
       <c r="GC4" s="11"/>
@@ -3008,10 +3024,18 @@
       <c r="FV5" s="17" t="n">
         <v>171923046</v>
       </c>
-      <c r="FW5" s="17"/>
-      <c r="FX5" s="17"/>
-      <c r="FY5" s="17"/>
-      <c r="FZ5" s="17"/>
+      <c r="FW5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ5" s="17" t="n">
+        <v>171080384</v>
+      </c>
       <c r="GA5" s="17"/>
       <c r="GB5" s="17"/>
       <c r="GC5" s="17"/>
@@ -3583,10 +3607,18 @@
       <c r="FV6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="FW6" s="20"/>
-      <c r="FX6" s="20"/>
-      <c r="FY6" s="20"/>
-      <c r="FZ6" s="20"/>
+      <c r="FW6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GA6" s="20"/>
       <c r="GB6" s="20"/>
       <c r="GC6" s="20"/>
@@ -4160,10 +4192,18 @@
       <c r="FV7" s="24" t="n">
         <v>162090257</v>
       </c>
-      <c r="FW7" s="24"/>
-      <c r="FX7" s="24"/>
-      <c r="FY7" s="24"/>
-      <c r="FZ7" s="24"/>
+      <c r="FW7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ7" s="24" t="n">
+        <v>162796501</v>
+      </c>
       <c r="GA7" s="24"/>
       <c r="GB7" s="24"/>
       <c r="GC7" s="24"/>
@@ -4735,10 +4775,18 @@
       <c r="FV8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="FW8" s="27"/>
-      <c r="FX8" s="27"/>
-      <c r="FY8" s="27"/>
-      <c r="FZ8" s="27"/>
+      <c r="FW8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GA8" s="27"/>
       <c r="GB8" s="27"/>
       <c r="GC8" s="27"/>
@@ -5312,10 +5360,18 @@
       <c r="FV9" s="31" t="n">
         <v>152181186</v>
       </c>
-      <c r="FW9" s="31"/>
-      <c r="FX9" s="31"/>
-      <c r="FY9" s="31"/>
-      <c r="FZ9" s="31"/>
+      <c r="FW9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ9" s="31" t="n">
+        <v>153008994</v>
+      </c>
       <c r="GA9" s="31"/>
       <c r="GB9" s="31"/>
       <c r="GC9" s="31"/>
@@ -5887,10 +5943,18 @@
       <c r="FV10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="FW10" s="34"/>
-      <c r="FX10" s="34"/>
-      <c r="FY10" s="34"/>
-      <c r="FZ10" s="34"/>
+      <c r="FW10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GA10" s="34"/>
       <c r="GB10" s="34"/>
       <c r="GC10" s="34"/>
@@ -6464,10 +6528,18 @@
       <c r="FV11" s="38" t="n">
         <v>133092505</v>
       </c>
-      <c r="FW11" s="38"/>
-      <c r="FX11" s="38"/>
-      <c r="FY11" s="38"/>
-      <c r="FZ11" s="38"/>
+      <c r="FW11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ11" s="38" t="n">
+        <v>133436665</v>
+      </c>
       <c r="GA11" s="38"/>
       <c r="GB11" s="38"/>
       <c r="GC11" s="38"/>
@@ -7039,10 +7111,18 @@
       <c r="FV12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="FW12" s="41"/>
-      <c r="FX12" s="41"/>
-      <c r="FY12" s="41"/>
-      <c r="FZ12" s="41"/>
+      <c r="FW12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="GA12" s="41"/>
       <c r="GB12" s="41"/>
       <c r="GC12" s="41"/>
@@ -7616,10 +7696,18 @@
       <c r="FV13" s="45" t="n">
         <v>126188730</v>
       </c>
-      <c r="FW13" s="45"/>
-      <c r="FX13" s="45"/>
-      <c r="FY13" s="45"/>
-      <c r="FZ13" s="45"/>
+      <c r="FW13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ13" s="45" t="n">
+        <v>127130105</v>
+      </c>
       <c r="GA13" s="45"/>
       <c r="GB13" s="45"/>
       <c r="GC13" s="45"/>
@@ -8191,10 +8279,18 @@
       <c r="FV14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="FW14" s="48"/>
-      <c r="FX14" s="48"/>
-      <c r="FY14" s="48"/>
-      <c r="FZ14" s="48"/>
+      <c r="FW14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GA14" s="48"/>
       <c r="GB14" s="48"/>
       <c r="GC14" s="48"/>
@@ -8768,10 +8864,18 @@
       <c r="FV15" s="52" t="n">
         <v>121848879</v>
       </c>
-      <c r="FW15" s="52"/>
-      <c r="FX15" s="52"/>
-      <c r="FY15" s="52"/>
-      <c r="FZ15" s="52"/>
+      <c r="FW15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ15" s="52" t="n">
+        <v>122437300</v>
+      </c>
       <c r="GA15" s="52"/>
       <c r="GB15" s="52"/>
       <c r="GC15" s="52"/>
@@ -9343,10 +9447,18 @@
       <c r="FV16" s="55" t="n">
         <v>196</v>
       </c>
-      <c r="FW16" s="55"/>
-      <c r="FX16" s="55"/>
-      <c r="FY16" s="55"/>
-      <c r="FZ16" s="55"/>
+      <c r="FW16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ16" s="55" t="n">
+        <v>196</v>
+      </c>
       <c r="GA16" s="55"/>
       <c r="GB16" s="55"/>
       <c r="GC16" s="55"/>
@@ -9920,10 +10032,18 @@
       <c r="FV17" s="59" t="n">
         <v>102131451</v>
       </c>
-      <c r="FW17" s="59"/>
-      <c r="FX17" s="59"/>
-      <c r="FY17" s="59"/>
-      <c r="FZ17" s="59"/>
+      <c r="FW17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ17" s="59" t="n">
+        <v>102683083</v>
+      </c>
       <c r="GA17" s="59"/>
       <c r="GB17" s="59"/>
       <c r="GC17" s="59"/>
@@ -10495,10 +10615,18 @@
       <c r="FV18" s="62" t="n">
         <v>194</v>
       </c>
-      <c r="FW18" s="62"/>
-      <c r="FX18" s="62"/>
-      <c r="FY18" s="62"/>
-      <c r="FZ18" s="62"/>
+      <c r="FW18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GA18" s="62"/>
       <c r="GB18" s="62"/>
       <c r="GC18" s="62"/>
@@ -11072,10 +11200,18 @@
       <c r="FV19" s="66" t="n">
         <v>87619316</v>
       </c>
-      <c r="FW19" s="66"/>
-      <c r="FX19" s="66"/>
-      <c r="FY19" s="66"/>
-      <c r="FZ19" s="66"/>
+      <c r="FW19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ19" s="66" t="n">
+        <v>88148919</v>
+      </c>
       <c r="GA19" s="66"/>
       <c r="GB19" s="66"/>
       <c r="GC19" s="66"/>
@@ -11647,10 +11783,18 @@
       <c r="FV20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="FW20" s="69"/>
-      <c r="FX20" s="69"/>
-      <c r="FY20" s="69"/>
-      <c r="FZ20" s="69"/>
+      <c r="FW20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="FX20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="FY20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="FZ20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="GA20" s="69"/>
       <c r="GB20" s="69"/>
       <c r="GC20" s="69"/>
@@ -12395,7 +12539,23 @@
       </c>
       <c r="FV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FV2)&amp;", ""month"": "&amp;MONTH(FV2)&amp;", ""day"": "&amp;DAY(FV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FV3&amp;", ""memberCount"": "&amp;FV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FV5&amp;", ""memberCount"": "&amp;FV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FV7&amp;", ""memberCount"": "&amp;FV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FV9&amp;", ""memberCount"": "&amp;FV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FV11&amp;", ""memberCount"": "&amp;FV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FV13&amp;", ""memberCount"": "&amp;FV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FV15&amp;", ""memberCount"": "&amp;FV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FV17&amp;", ""memberCount"": "&amp;FV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FV19&amp;", ""memberCount"": "&amp;FV20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 197291823, "memberCount": 196}, {"name": "Smile", "contribution": 171923046, "memberCount": 199}, {"name": "Elite", "contribution": 162090257, "memberCount": 198}, {"name": "Savages", "contribution": 152181186, "memberCount": 198}, {"name": "Spring", "contribution": 133092505, "memberCount": 193}, {"name": "Bounce", "contribution": 126188730, "memberCount": 199}, {"name": "Sunset", "contribution": 121848879, "memberCount": 196}, {"name": "Beaters", "contribution": 102131451, "memberCount": 194}, {"name": "Downtime", "contribution": 87619316, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 197291823, "memberCount": 196}, {"name": "Smile", "contribution": 171923046, "memberCount": 199}, {"name": "Elite", "contribution": 162090257, "memberCount": 198}, {"name": "Savages", "contribution": 152181186, "memberCount": 198}, {"name": "Spring", "contribution": 133092505, "memberCount": 193}, {"name": "Bounce", "contribution": 126188730, "memberCount": 199}, {"name": "Sunset", "contribution": 121848879, "memberCount": 196}, {"name": "Beaters", "contribution": 102131451, "memberCount": 194}, {"name": "Downtime", "contribution": 87619316, "memberCount": 199}]}</v>
+      </c>
+      <c r="FW23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FW2)&amp;", ""month"": "&amp;MONTH(FW2)&amp;", ""day"": "&amp;DAY(FW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FW3&amp;", ""memberCount"": "&amp;FW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FW5&amp;", ""memberCount"": "&amp;FW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FW7&amp;", ""memberCount"": "&amp;FW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FW9&amp;", ""memberCount"": "&amp;FW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FW11&amp;", ""memberCount"": "&amp;FW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FW13&amp;", ""memberCount"": "&amp;FW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FW15&amp;", ""memberCount"": "&amp;FW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FW17&amp;", ""memberCount"": "&amp;FW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FW19&amp;", ""memberCount"": "&amp;FW20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="FX23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FX2)&amp;", ""month"": "&amp;MONTH(FX2)&amp;", ""day"": "&amp;DAY(FX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FX3&amp;", ""memberCount"": "&amp;FX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FX5&amp;", ""memberCount"": "&amp;FX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FX7&amp;", ""memberCount"": "&amp;FX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FX9&amp;", ""memberCount"": "&amp;FX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FX11&amp;", ""memberCount"": "&amp;FX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FX13&amp;", ""memberCount"": "&amp;FX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FX15&amp;", ""memberCount"": "&amp;FX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FX17&amp;", ""memberCount"": "&amp;FX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FX19&amp;", ""memberCount"": "&amp;FX20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="FY23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FY2)&amp;", ""month"": "&amp;MONTH(FY2)&amp;", ""day"": "&amp;DAY(FY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FY3&amp;", ""memberCount"": "&amp;FY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FY5&amp;", ""memberCount"": "&amp;FY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FY7&amp;", ""memberCount"": "&amp;FY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FY9&amp;", ""memberCount"": "&amp;FY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FY11&amp;", ""memberCount"": "&amp;FY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FY13&amp;", ""memberCount"": "&amp;FY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FY15&amp;", ""memberCount"": "&amp;FY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FY17&amp;", ""memberCount"": "&amp;FY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FY19&amp;", ""memberCount"": "&amp;FY20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="FZ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FZ2)&amp;", ""month"": "&amp;MONTH(FZ2)&amp;", ""day"": "&amp;DAY(FZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FZ3&amp;", ""memberCount"": "&amp;FZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FZ5&amp;", ""memberCount"": "&amp;FZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FZ7&amp;", ""memberCount"": "&amp;FZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FZ9&amp;", ""memberCount"": "&amp;FZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FZ11&amp;", ""memberCount"": "&amp;FZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FZ13&amp;", ""memberCount"": "&amp;FZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FZ15&amp;", ""memberCount"": "&amp;FZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FZ17&amp;", ""memberCount"": "&amp;FZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FZ19&amp;", ""memberCount"": "&amp;FZ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 198189759, "memberCount": 196}, {"name": "Smile", "contribution": 171080384, "memberCount": 200}, {"name": "Elite", "contribution": 162796501, "memberCount": 199}, {"name": "Savages", "contribution": 153008994, "memberCount": 199}, {"name": "Spring", "contribution": 133436665, "memberCount": 194}, {"name": "Bounce", "contribution": 127130105, "memberCount": 199}, {"name": "Sunset", "contribution": 122437300, "memberCount": 196}, {"name": "Beaters", "contribution": 102683083, "memberCount": 195}, {"name": "Downtime", "contribution": 88148919, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FN1" activeCellId="0" sqref="FN1"/>
+      <selection pane="topRight" activeCell="FY1" activeCellId="0" sqref="FY1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FW23" activeCellId="0" sqref="FW23:FZ23"/>
+      <selection pane="bottomRight" activeCell="GA23" activeCellId="0" sqref="GA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1868,7 +1868,9 @@
       <c r="FZ3" s="7" t="n">
         <v>198189759</v>
       </c>
-      <c r="GA3" s="7"/>
+      <c r="GA3" s="7" t="n">
+        <v>198373876</v>
+      </c>
       <c r="GB3" s="7"/>
       <c r="GC3" s="7"/>
       <c r="GD3" s="7"/>
@@ -2451,7 +2453,9 @@
       <c r="FZ4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GA4" s="11"/>
+      <c r="GA4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GB4" s="11"/>
       <c r="GC4" s="11"/>
       <c r="GD4" s="11"/>
@@ -3036,7 +3040,9 @@
       <c r="FZ5" s="17" t="n">
         <v>171080384</v>
       </c>
-      <c r="GA5" s="17"/>
+      <c r="GA5" s="17" t="n">
+        <v>171283722</v>
+      </c>
       <c r="GB5" s="17"/>
       <c r="GC5" s="17"/>
       <c r="GD5" s="17"/>
@@ -3619,7 +3625,9 @@
       <c r="FZ6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GA6" s="20"/>
+      <c r="GA6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GB6" s="20"/>
       <c r="GC6" s="20"/>
       <c r="GD6" s="20"/>
@@ -4204,7 +4212,9 @@
       <c r="FZ7" s="24" t="n">
         <v>162796501</v>
       </c>
-      <c r="GA7" s="24"/>
+      <c r="GA7" s="24" t="n">
+        <v>162982970</v>
+      </c>
       <c r="GB7" s="24"/>
       <c r="GC7" s="24"/>
       <c r="GD7" s="24"/>
@@ -4787,7 +4797,9 @@
       <c r="FZ8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GA8" s="27"/>
+      <c r="GA8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GB8" s="27"/>
       <c r="GC8" s="27"/>
       <c r="GD8" s="27"/>
@@ -5372,7 +5384,9 @@
       <c r="FZ9" s="31" t="n">
         <v>153008994</v>
       </c>
-      <c r="GA9" s="31"/>
+      <c r="GA9" s="31" t="n">
+        <v>153193331</v>
+      </c>
       <c r="GB9" s="31"/>
       <c r="GC9" s="31"/>
       <c r="GD9" s="31"/>
@@ -5955,7 +5969,9 @@
       <c r="FZ10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GA10" s="34"/>
+      <c r="GA10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GB10" s="34"/>
       <c r="GC10" s="34"/>
       <c r="GD10" s="34"/>
@@ -6540,7 +6556,9 @@
       <c r="FZ11" s="38" t="n">
         <v>133436665</v>
       </c>
-      <c r="GA11" s="38"/>
+      <c r="GA11" s="38" t="n">
+        <v>133538581</v>
+      </c>
       <c r="GB11" s="38"/>
       <c r="GC11" s="38"/>
       <c r="GD11" s="38"/>
@@ -7123,7 +7141,9 @@
       <c r="FZ12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="GA12" s="41"/>
+      <c r="GA12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="GB12" s="41"/>
       <c r="GC12" s="41"/>
       <c r="GD12" s="41"/>
@@ -7708,7 +7728,9 @@
       <c r="FZ13" s="45" t="n">
         <v>127130105</v>
       </c>
-      <c r="GA13" s="45"/>
+      <c r="GA13" s="45" t="n">
+        <v>127375913</v>
+      </c>
       <c r="GB13" s="45"/>
       <c r="GC13" s="45"/>
       <c r="GD13" s="45"/>
@@ -8291,7 +8313,9 @@
       <c r="FZ14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GA14" s="48"/>
+      <c r="GA14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GB14" s="48"/>
       <c r="GC14" s="48"/>
       <c r="GD14" s="48"/>
@@ -8876,7 +8900,9 @@
       <c r="FZ15" s="52" t="n">
         <v>122437300</v>
       </c>
-      <c r="GA15" s="52"/>
+      <c r="GA15" s="52" t="n">
+        <v>122578970</v>
+      </c>
       <c r="GB15" s="52"/>
       <c r="GC15" s="52"/>
       <c r="GD15" s="52"/>
@@ -9459,7 +9485,9 @@
       <c r="FZ16" s="55" t="n">
         <v>196</v>
       </c>
-      <c r="GA16" s="55"/>
+      <c r="GA16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="GB16" s="55"/>
       <c r="GC16" s="55"/>
       <c r="GD16" s="55"/>
@@ -10044,7 +10072,9 @@
       <c r="FZ17" s="59" t="n">
         <v>102683083</v>
       </c>
-      <c r="GA17" s="59"/>
+      <c r="GA17" s="59" t="n">
+        <v>102788491</v>
+      </c>
       <c r="GB17" s="59"/>
       <c r="GC17" s="59"/>
       <c r="GD17" s="59"/>
@@ -10627,7 +10657,9 @@
       <c r="FZ18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GA18" s="62"/>
+      <c r="GA18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GB18" s="62"/>
       <c r="GC18" s="62"/>
       <c r="GD18" s="62"/>
@@ -11212,7 +11244,9 @@
       <c r="FZ19" s="66" t="n">
         <v>88148919</v>
       </c>
-      <c r="GA19" s="66"/>
+      <c r="GA19" s="66" t="n">
+        <v>88218951</v>
+      </c>
       <c r="GB19" s="66"/>
       <c r="GC19" s="66"/>
       <c r="GD19" s="66"/>
@@ -11795,7 +11829,9 @@
       <c r="FZ20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="GA20" s="69"/>
+      <c r="GA20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="GB20" s="69"/>
       <c r="GC20" s="69"/>
       <c r="GD20" s="69"/>
@@ -12543,19 +12579,23 @@
       </c>
       <c r="FW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FW2)&amp;", ""month"": "&amp;MONTH(FW2)&amp;", ""day"": "&amp;DAY(FW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FW3&amp;", ""memberCount"": "&amp;FW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FW5&amp;", ""memberCount"": "&amp;FW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FW7&amp;", ""memberCount"": "&amp;FW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FW9&amp;", ""memberCount"": "&amp;FW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FW11&amp;", ""memberCount"": "&amp;FW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FW13&amp;", ""memberCount"": "&amp;FW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FW15&amp;", ""memberCount"": "&amp;FW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FW17&amp;", ""memberCount"": "&amp;FW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FW19&amp;", ""memberCount"": "&amp;FW20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="FX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FX2)&amp;", ""month"": "&amp;MONTH(FX2)&amp;", ""day"": "&amp;DAY(FX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FX3&amp;", ""memberCount"": "&amp;FX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FX5&amp;", ""memberCount"": "&amp;FX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FX7&amp;", ""memberCount"": "&amp;FX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FX9&amp;", ""memberCount"": "&amp;FX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FX11&amp;", ""memberCount"": "&amp;FX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FX13&amp;", ""memberCount"": "&amp;FX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FX15&amp;", ""memberCount"": "&amp;FX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FX17&amp;", ""memberCount"": "&amp;FX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FX19&amp;", ""memberCount"": "&amp;FX20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="FY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FY2)&amp;", ""month"": "&amp;MONTH(FY2)&amp;", ""day"": "&amp;DAY(FY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FY3&amp;", ""memberCount"": "&amp;FY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FY5&amp;", ""memberCount"": "&amp;FY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FY7&amp;", ""memberCount"": "&amp;FY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FY9&amp;", ""memberCount"": "&amp;FY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FY11&amp;", ""memberCount"": "&amp;FY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FY13&amp;", ""memberCount"": "&amp;FY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FY15&amp;", ""memberCount"": "&amp;FY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FY17&amp;", ""memberCount"": "&amp;FY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FY19&amp;", ""memberCount"": "&amp;FY20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="FZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FZ2)&amp;", ""month"": "&amp;MONTH(FZ2)&amp;", ""day"": "&amp;DAY(FZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FZ3&amp;", ""memberCount"": "&amp;FZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FZ5&amp;", ""memberCount"": "&amp;FZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FZ7&amp;", ""memberCount"": "&amp;FZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FZ9&amp;", ""memberCount"": "&amp;FZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FZ11&amp;", ""memberCount"": "&amp;FZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FZ13&amp;", ""memberCount"": "&amp;FZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FZ15&amp;", ""memberCount"": "&amp;FZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FZ17&amp;", ""memberCount"": "&amp;FZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FZ19&amp;", ""memberCount"": "&amp;FZ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 198189759, "memberCount": 196}, {"name": "Smile", "contribution": 171080384, "memberCount": 200}, {"name": "Elite", "contribution": 162796501, "memberCount": 199}, {"name": "Savages", "contribution": 153008994, "memberCount": 199}, {"name": "Spring", "contribution": 133436665, "memberCount": 194}, {"name": "Bounce", "contribution": 127130105, "memberCount": 199}, {"name": "Sunset", "contribution": 122437300, "memberCount": 196}, {"name": "Beaters", "contribution": 102683083, "memberCount": 195}, {"name": "Downtime", "contribution": 88148919, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 198189759, "memberCount": 196}, {"name": "Smile", "contribution": 171080384, "memberCount": 200}, {"name": "Elite", "contribution": 162796501, "memberCount": 199}, {"name": "Savages", "contribution": 153008994, "memberCount": 199}, {"name": "Spring", "contribution": 133436665, "memberCount": 194}, {"name": "Bounce", "contribution": 127130105, "memberCount": 199}, {"name": "Sunset", "contribution": 122437300, "memberCount": 196}, {"name": "Beaters", "contribution": 102683083, "memberCount": 195}, {"name": "Downtime", "contribution": 88148919, "memberCount": 200}]}</v>
+      </c>
+      <c r="GA23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GA2)&amp;", ""month"": "&amp;MONTH(GA2)&amp;", ""day"": "&amp;DAY(GA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GA3&amp;", ""memberCount"": "&amp;GA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GA5&amp;", ""memberCount"": "&amp;GA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GA7&amp;", ""memberCount"": "&amp;GA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GA9&amp;", ""memberCount"": "&amp;GA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GA11&amp;", ""memberCount"": "&amp;GA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GA13&amp;", ""memberCount"": "&amp;GA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GA15&amp;", ""memberCount"": "&amp;GA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GA17&amp;", ""memberCount"": "&amp;GA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GA19&amp;", ""memberCount"": "&amp;GA20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 198373876, "memberCount": 196}, {"name": "Smile", "contribution": 171283722, "memberCount": 200}, {"name": "Elite", "contribution": 162982970, "memberCount": 199}, {"name": "Savages", "contribution": 153193331, "memberCount": 199}, {"name": "Spring", "contribution": 133538581, "memberCount": 194}, {"name": "Bounce", "contribution": 127375913, "memberCount": 199}, {"name": "Sunset", "contribution": 122578970, "memberCount": 197}, {"name": "Beaters", "contribution": 102788491, "memberCount": 195}, {"name": "Downtime", "contribution": 88218951, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="FZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FY1" activeCellId="0" sqref="FY1"/>
+      <selection pane="topRight" activeCell="FZ1" activeCellId="0" sqref="FZ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GA23" activeCellId="0" sqref="GA23"/>
+      <selection pane="bottomRight" activeCell="GB23" activeCellId="0" sqref="GB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1871,7 +1871,9 @@
       <c r="GA3" s="7" t="n">
         <v>198373876</v>
       </c>
-      <c r="GB3" s="7"/>
+      <c r="GB3" s="7" t="n">
+        <v>198673314</v>
+      </c>
       <c r="GC3" s="7"/>
       <c r="GD3" s="7"/>
       <c r="GE3" s="7"/>
@@ -2456,7 +2458,9 @@
       <c r="GA4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GB4" s="11"/>
+      <c r="GB4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GC4" s="11"/>
       <c r="GD4" s="11"/>
       <c r="GE4" s="11"/>
@@ -3043,7 +3047,9 @@
       <c r="GA5" s="17" t="n">
         <v>171283722</v>
       </c>
-      <c r="GB5" s="17"/>
+      <c r="GB5" s="17" t="n">
+        <v>171528221</v>
+      </c>
       <c r="GC5" s="17"/>
       <c r="GD5" s="17"/>
       <c r="GE5" s="17"/>
@@ -3628,7 +3634,9 @@
       <c r="GA6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GB6" s="20"/>
+      <c r="GB6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GC6" s="20"/>
       <c r="GD6" s="20"/>
       <c r="GE6" s="20"/>
@@ -4215,7 +4223,9 @@
       <c r="GA7" s="24" t="n">
         <v>162982970</v>
       </c>
-      <c r="GB7" s="24"/>
+      <c r="GB7" s="24" t="n">
+        <v>163196773</v>
+      </c>
       <c r="GC7" s="24"/>
       <c r="GD7" s="24"/>
       <c r="GE7" s="24"/>
@@ -4800,7 +4810,9 @@
       <c r="GA8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GB8" s="27"/>
+      <c r="GB8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GC8" s="27"/>
       <c r="GD8" s="27"/>
       <c r="GE8" s="27"/>
@@ -5387,7 +5399,9 @@
       <c r="GA9" s="31" t="n">
         <v>153193331</v>
       </c>
-      <c r="GB9" s="31"/>
+      <c r="GB9" s="31" t="n">
+        <v>153378007</v>
+      </c>
       <c r="GC9" s="31"/>
       <c r="GD9" s="31"/>
       <c r="GE9" s="31"/>
@@ -5972,7 +5986,9 @@
       <c r="GA10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GB10" s="34"/>
+      <c r="GB10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GC10" s="34"/>
       <c r="GD10" s="34"/>
       <c r="GE10" s="34"/>
@@ -6559,7 +6575,9 @@
       <c r="GA11" s="38" t="n">
         <v>133538581</v>
       </c>
-      <c r="GB11" s="38"/>
+      <c r="GB11" s="38" t="n">
+        <v>133687635</v>
+      </c>
       <c r="GC11" s="38"/>
       <c r="GD11" s="38"/>
       <c r="GE11" s="38"/>
@@ -7144,7 +7162,9 @@
       <c r="GA12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="GB12" s="41"/>
+      <c r="GB12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="GC12" s="41"/>
       <c r="GD12" s="41"/>
       <c r="GE12" s="41"/>
@@ -7731,7 +7751,9 @@
       <c r="GA13" s="45" t="n">
         <v>127375913</v>
       </c>
-      <c r="GB13" s="45"/>
+      <c r="GB13" s="45" t="n">
+        <v>127625254</v>
+      </c>
       <c r="GC13" s="45"/>
       <c r="GD13" s="45"/>
       <c r="GE13" s="45"/>
@@ -8316,7 +8338,9 @@
       <c r="GA14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GB14" s="48"/>
+      <c r="GB14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GC14" s="48"/>
       <c r="GD14" s="48"/>
       <c r="GE14" s="48"/>
@@ -8903,7 +8927,9 @@
       <c r="GA15" s="52" t="n">
         <v>122578970</v>
       </c>
-      <c r="GB15" s="52"/>
+      <c r="GB15" s="52" t="n">
+        <v>122725914</v>
+      </c>
       <c r="GC15" s="52"/>
       <c r="GD15" s="52"/>
       <c r="GE15" s="52"/>
@@ -9488,7 +9514,9 @@
       <c r="GA16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="GB16" s="55"/>
+      <c r="GB16" s="55" t="n">
+        <v>198</v>
+      </c>
       <c r="GC16" s="55"/>
       <c r="GD16" s="55"/>
       <c r="GE16" s="55"/>
@@ -10075,7 +10103,9 @@
       <c r="GA17" s="59" t="n">
         <v>102788491</v>
       </c>
-      <c r="GB17" s="59"/>
+      <c r="GB17" s="59" t="n">
+        <v>102906518</v>
+      </c>
       <c r="GC17" s="59"/>
       <c r="GD17" s="59"/>
       <c r="GE17" s="59"/>
@@ -10660,7 +10690,9 @@
       <c r="GA18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GB18" s="62"/>
+      <c r="GB18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GC18" s="62"/>
       <c r="GD18" s="62"/>
       <c r="GE18" s="62"/>
@@ -11247,7 +11279,9 @@
       <c r="GA19" s="66" t="n">
         <v>88218951</v>
       </c>
-      <c r="GB19" s="66"/>
+      <c r="GB19" s="66" t="n">
+        <v>88342057</v>
+      </c>
       <c r="GC19" s="66"/>
       <c r="GD19" s="66"/>
       <c r="GE19" s="66"/>
@@ -11832,7 +11866,9 @@
       <c r="GA20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="GB20" s="69"/>
+      <c r="GB20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="GC20" s="69"/>
       <c r="GD20" s="69"/>
       <c r="GE20" s="69"/>
@@ -12595,7 +12631,11 @@
       </c>
       <c r="GA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GA2)&amp;", ""month"": "&amp;MONTH(GA2)&amp;", ""day"": "&amp;DAY(GA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GA3&amp;", ""memberCount"": "&amp;GA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GA5&amp;", ""memberCount"": "&amp;GA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GA7&amp;", ""memberCount"": "&amp;GA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GA9&amp;", ""memberCount"": "&amp;GA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GA11&amp;", ""memberCount"": "&amp;GA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GA13&amp;", ""memberCount"": "&amp;GA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GA15&amp;", ""memberCount"": "&amp;GA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GA17&amp;", ""memberCount"": "&amp;GA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GA19&amp;", ""memberCount"": "&amp;GA20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 198373876, "memberCount": 196}, {"name": "Smile", "contribution": 171283722, "memberCount": 200}, {"name": "Elite", "contribution": 162982970, "memberCount": 199}, {"name": "Savages", "contribution": 153193331, "memberCount": 199}, {"name": "Spring", "contribution": 133538581, "memberCount": 194}, {"name": "Bounce", "contribution": 127375913, "memberCount": 199}, {"name": "Sunset", "contribution": 122578970, "memberCount": 197}, {"name": "Beaters", "contribution": 102788491, "memberCount": 195}, {"name": "Downtime", "contribution": 88218951, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 198373876, "memberCount": 196}, {"name": "Smile", "contribution": 171283722, "memberCount": 200}, {"name": "Elite", "contribution": 162982970, "memberCount": 199}, {"name": "Savages", "contribution": 153193331, "memberCount": 199}, {"name": "Spring", "contribution": 133538581, "memberCount": 194}, {"name": "Bounce", "contribution": 127375913, "memberCount": 199}, {"name": "Sunset", "contribution": 122578970, "memberCount": 197}, {"name": "Beaters", "contribution": 102788491, "memberCount": 195}, {"name": "Downtime", "contribution": 88218951, "memberCount": 200}]}</v>
+      </c>
+      <c r="GB23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GB2)&amp;", ""month"": "&amp;MONTH(GB2)&amp;", ""day"": "&amp;DAY(GB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GB3&amp;", ""memberCount"": "&amp;GB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GB5&amp;", ""memberCount"": "&amp;GB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GB7&amp;", ""memberCount"": "&amp;GB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GB9&amp;", ""memberCount"": "&amp;GB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GB11&amp;", ""memberCount"": "&amp;GB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GB13&amp;", ""memberCount"": "&amp;GB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GB15&amp;", ""memberCount"": "&amp;GB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GB17&amp;", ""memberCount"": "&amp;GB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GB19&amp;", ""memberCount"": "&amp;GB20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 198673314, "memberCount": 196}, {"name": "Smile", "contribution": 171528221, "memberCount": 200}, {"name": "Elite", "contribution": 163196773, "memberCount": 199}, {"name": "Savages", "contribution": 153378007, "memberCount": 199}, {"name": "Spring", "contribution": 133687635, "memberCount": 194}, {"name": "Bounce", "contribution": 127625254, "memberCount": 199}, {"name": "Sunset", "contribution": 122725914, "memberCount": 198}, {"name": "Beaters", "contribution": 102906518, "memberCount": 195}, {"name": "Downtime", "contribution": 88342057, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="FZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="FZ1" activeCellId="0" sqref="FZ1"/>
+      <selection pane="topRight" activeCell="GA1" activeCellId="0" sqref="GA1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GB23" activeCellId="0" sqref="GB23"/>
+      <selection pane="bottomRight" activeCell="GC23" activeCellId="0" sqref="GC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1874,7 +1874,9 @@
       <c r="GB3" s="7" t="n">
         <v>198673314</v>
       </c>
-      <c r="GC3" s="7"/>
+      <c r="GC3" s="7" t="n">
+        <v>198899384</v>
+      </c>
       <c r="GD3" s="7"/>
       <c r="GE3" s="7"/>
       <c r="GF3" s="7"/>
@@ -2461,7 +2463,9 @@
       <c r="GB4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GC4" s="11"/>
+      <c r="GC4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GD4" s="11"/>
       <c r="GE4" s="11"/>
       <c r="GF4" s="11"/>
@@ -3050,7 +3054,9 @@
       <c r="GB5" s="17" t="n">
         <v>171528221</v>
       </c>
-      <c r="GC5" s="17"/>
+      <c r="GC5" s="17" t="n">
+        <v>171689487</v>
+      </c>
       <c r="GD5" s="17"/>
       <c r="GE5" s="17"/>
       <c r="GF5" s="17"/>
@@ -3637,7 +3643,9 @@
       <c r="GB6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GC6" s="20"/>
+      <c r="GC6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GD6" s="20"/>
       <c r="GE6" s="20"/>
       <c r="GF6" s="20"/>
@@ -4226,7 +4234,9 @@
       <c r="GB7" s="24" t="n">
         <v>163196773</v>
       </c>
-      <c r="GC7" s="24"/>
+      <c r="GC7" s="24" t="n">
+        <v>163371739</v>
+      </c>
       <c r="GD7" s="24"/>
       <c r="GE7" s="24"/>
       <c r="GF7" s="24"/>
@@ -4813,7 +4823,9 @@
       <c r="GB8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GC8" s="27"/>
+      <c r="GC8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GD8" s="27"/>
       <c r="GE8" s="27"/>
       <c r="GF8" s="27"/>
@@ -5402,7 +5414,9 @@
       <c r="GB9" s="31" t="n">
         <v>153378007</v>
       </c>
-      <c r="GC9" s="31"/>
+      <c r="GC9" s="31" t="n">
+        <v>152915277</v>
+      </c>
       <c r="GD9" s="31"/>
       <c r="GE9" s="31"/>
       <c r="GF9" s="31"/>
@@ -5989,7 +6003,9 @@
       <c r="GB10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GC10" s="34"/>
+      <c r="GC10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GD10" s="34"/>
       <c r="GE10" s="34"/>
       <c r="GF10" s="34"/>
@@ -6578,7 +6594,9 @@
       <c r="GB11" s="38" t="n">
         <v>133687635</v>
       </c>
-      <c r="GC11" s="38"/>
+      <c r="GC11" s="38" t="n">
+        <v>133822975</v>
+      </c>
       <c r="GD11" s="38"/>
       <c r="GE11" s="38"/>
       <c r="GF11" s="38"/>
@@ -7165,7 +7183,9 @@
       <c r="GB12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="GC12" s="41"/>
+      <c r="GC12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="GD12" s="41"/>
       <c r="GE12" s="41"/>
       <c r="GF12" s="41"/>
@@ -7754,7 +7774,9 @@
       <c r="GB13" s="45" t="n">
         <v>127625254</v>
       </c>
-      <c r="GC13" s="45"/>
+      <c r="GC13" s="45" t="n">
+        <v>127915231</v>
+      </c>
       <c r="GD13" s="45"/>
       <c r="GE13" s="45"/>
       <c r="GF13" s="45"/>
@@ -8341,7 +8363,9 @@
       <c r="GB14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GC14" s="48"/>
+      <c r="GC14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GD14" s="48"/>
       <c r="GE14" s="48"/>
       <c r="GF14" s="48"/>
@@ -8930,7 +8954,9 @@
       <c r="GB15" s="52" t="n">
         <v>122725914</v>
       </c>
-      <c r="GC15" s="52"/>
+      <c r="GC15" s="52" t="n">
+        <v>122848533</v>
+      </c>
       <c r="GD15" s="52"/>
       <c r="GE15" s="52"/>
       <c r="GF15" s="52"/>
@@ -9517,7 +9543,9 @@
       <c r="GB16" s="55" t="n">
         <v>198</v>
       </c>
-      <c r="GC16" s="55"/>
+      <c r="GC16" s="55" t="n">
+        <v>198</v>
+      </c>
       <c r="GD16" s="55"/>
       <c r="GE16" s="55"/>
       <c r="GF16" s="55"/>
@@ -10106,7 +10134,9 @@
       <c r="GB17" s="59" t="n">
         <v>102906518</v>
       </c>
-      <c r="GC17" s="59"/>
+      <c r="GC17" s="59" t="n">
+        <v>103070556</v>
+      </c>
       <c r="GD17" s="59"/>
       <c r="GE17" s="59"/>
       <c r="GF17" s="59"/>
@@ -10693,7 +10723,9 @@
       <c r="GB18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GC18" s="62"/>
+      <c r="GC18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GD18" s="62"/>
       <c r="GE18" s="62"/>
       <c r="GF18" s="62"/>
@@ -11282,7 +11314,9 @@
       <c r="GB19" s="66" t="n">
         <v>88342057</v>
       </c>
-      <c r="GC19" s="66"/>
+      <c r="GC19" s="66" t="n">
+        <v>88542489</v>
+      </c>
       <c r="GD19" s="66"/>
       <c r="GE19" s="66"/>
       <c r="GF19" s="66"/>
@@ -11869,7 +11903,9 @@
       <c r="GB20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="GC20" s="69"/>
+      <c r="GC20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="GD20" s="69"/>
       <c r="GE20" s="69"/>
       <c r="GF20" s="69"/>
@@ -12635,7 +12671,11 @@
       </c>
       <c r="GB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GB2)&amp;", ""month"": "&amp;MONTH(GB2)&amp;", ""day"": "&amp;DAY(GB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GB3&amp;", ""memberCount"": "&amp;GB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GB5&amp;", ""memberCount"": "&amp;GB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GB7&amp;", ""memberCount"": "&amp;GB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GB9&amp;", ""memberCount"": "&amp;GB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GB11&amp;", ""memberCount"": "&amp;GB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GB13&amp;", ""memberCount"": "&amp;GB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GB15&amp;", ""memberCount"": "&amp;GB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GB17&amp;", ""memberCount"": "&amp;GB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GB19&amp;", ""memberCount"": "&amp;GB20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 198673314, "memberCount": 196}, {"name": "Smile", "contribution": 171528221, "memberCount": 200}, {"name": "Elite", "contribution": 163196773, "memberCount": 199}, {"name": "Savages", "contribution": 153378007, "memberCount": 199}, {"name": "Spring", "contribution": 133687635, "memberCount": 194}, {"name": "Bounce", "contribution": 127625254, "memberCount": 199}, {"name": "Sunset", "contribution": 122725914, "memberCount": 198}, {"name": "Beaters", "contribution": 102906518, "memberCount": 195}, {"name": "Downtime", "contribution": 88342057, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 198673314, "memberCount": 196}, {"name": "Smile", "contribution": 171528221, "memberCount": 200}, {"name": "Elite", "contribution": 163196773, "memberCount": 199}, {"name": "Savages", "contribution": 153378007, "memberCount": 199}, {"name": "Spring", "contribution": 133687635, "memberCount": 194}, {"name": "Bounce", "contribution": 127625254, "memberCount": 199}, {"name": "Sunset", "contribution": 122725914, "memberCount": 198}, {"name": "Beaters", "contribution": 102906518, "memberCount": 195}, {"name": "Downtime", "contribution": 88342057, "memberCount": 200}]}</v>
+      </c>
+      <c r="GC23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GC2)&amp;", ""month"": "&amp;MONTH(GC2)&amp;", ""day"": "&amp;DAY(GC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GC3&amp;", ""memberCount"": "&amp;GC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GC5&amp;", ""memberCount"": "&amp;GC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GC7&amp;", ""memberCount"": "&amp;GC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GC9&amp;", ""memberCount"": "&amp;GC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GC11&amp;", ""memberCount"": "&amp;GC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GC13&amp;", ""memberCount"": "&amp;GC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GC15&amp;", ""memberCount"": "&amp;GC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GC17&amp;", ""memberCount"": "&amp;GC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GC19&amp;", ""memberCount"": "&amp;GC20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 198899384, "memberCount": 196}, {"name": "Smile", "contribution": 171689487, "memberCount": 200}, {"name": "Elite", "contribution": 163371739, "memberCount": 199}, {"name": "Savages", "contribution": 152915277, "memberCount": 198}, {"name": "Spring", "contribution": 133822975, "memberCount": 193}, {"name": "Bounce", "contribution": 127915231, "memberCount": 199}, {"name": "Sunset", "contribution": 122848533, "memberCount": 198}, {"name": "Beaters", "contribution": 103070556, "memberCount": 195}, {"name": "Downtime", "contribution": 88542489, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GA1" activeCellId="0" sqref="GA1"/>
+      <selection pane="topRight" activeCell="GB1" activeCellId="0" sqref="GB1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GC23" activeCellId="0" sqref="GC23"/>
+      <selection pane="bottomRight" activeCell="GD23" activeCellId="0" sqref="GD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1877,7 +1877,9 @@
       <c r="GC3" s="7" t="n">
         <v>198899384</v>
       </c>
-      <c r="GD3" s="7"/>
+      <c r="GD3" s="7" t="n">
+        <v>199140164</v>
+      </c>
       <c r="GE3" s="7"/>
       <c r="GF3" s="7"/>
       <c r="GG3" s="7"/>
@@ -2466,7 +2468,9 @@
       <c r="GC4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GD4" s="11"/>
+      <c r="GD4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GE4" s="11"/>
       <c r="GF4" s="11"/>
       <c r="GG4" s="11"/>
@@ -3057,7 +3061,9 @@
       <c r="GC5" s="17" t="n">
         <v>171689487</v>
       </c>
-      <c r="GD5" s="17"/>
+      <c r="GD5" s="17" t="n">
+        <v>171958538</v>
+      </c>
       <c r="GE5" s="17"/>
       <c r="GF5" s="17"/>
       <c r="GG5" s="17"/>
@@ -3646,7 +3652,9 @@
       <c r="GC6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GD6" s="20"/>
+      <c r="GD6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GE6" s="20"/>
       <c r="GF6" s="20"/>
       <c r="GG6" s="20"/>
@@ -4237,7 +4245,9 @@
       <c r="GC7" s="24" t="n">
         <v>163371739</v>
       </c>
-      <c r="GD7" s="24"/>
+      <c r="GD7" s="24" t="n">
+        <v>163501565</v>
+      </c>
       <c r="GE7" s="24"/>
       <c r="GF7" s="24"/>
       <c r="GG7" s="24"/>
@@ -4826,7 +4836,9 @@
       <c r="GC8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GD8" s="27"/>
+      <c r="GD8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GE8" s="27"/>
       <c r="GF8" s="27"/>
       <c r="GG8" s="27"/>
@@ -5417,7 +5429,9 @@
       <c r="GC9" s="31" t="n">
         <v>152915277</v>
       </c>
-      <c r="GD9" s="31"/>
+      <c r="GD9" s="31" t="n">
+        <v>153160813</v>
+      </c>
       <c r="GE9" s="31"/>
       <c r="GF9" s="31"/>
       <c r="GG9" s="31"/>
@@ -6006,7 +6020,9 @@
       <c r="GC10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GD10" s="34"/>
+      <c r="GD10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GE10" s="34"/>
       <c r="GF10" s="34"/>
       <c r="GG10" s="34"/>
@@ -6597,7 +6613,9 @@
       <c r="GC11" s="38" t="n">
         <v>133822975</v>
       </c>
-      <c r="GD11" s="38"/>
+      <c r="GD11" s="38" t="n">
+        <v>133913949</v>
+      </c>
       <c r="GE11" s="38"/>
       <c r="GF11" s="38"/>
       <c r="GG11" s="38"/>
@@ -7186,7 +7204,9 @@
       <c r="GC12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="GD12" s="41"/>
+      <c r="GD12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="GE12" s="41"/>
       <c r="GF12" s="41"/>
       <c r="GG12" s="41"/>
@@ -7777,7 +7797,9 @@
       <c r="GC13" s="45" t="n">
         <v>127915231</v>
       </c>
-      <c r="GD13" s="45"/>
+      <c r="GD13" s="45" t="n">
+        <v>128321630</v>
+      </c>
       <c r="GE13" s="45"/>
       <c r="GF13" s="45"/>
       <c r="GG13" s="45"/>
@@ -8366,7 +8388,9 @@
       <c r="GC14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GD14" s="48"/>
+      <c r="GD14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GE14" s="48"/>
       <c r="GF14" s="48"/>
       <c r="GG14" s="48"/>
@@ -8957,7 +8981,9 @@
       <c r="GC15" s="52" t="n">
         <v>122848533</v>
       </c>
-      <c r="GD15" s="52"/>
+      <c r="GD15" s="52" t="n">
+        <v>122973730</v>
+      </c>
       <c r="GE15" s="52"/>
       <c r="GF15" s="52"/>
       <c r="GG15" s="52"/>
@@ -9546,7 +9572,9 @@
       <c r="GC16" s="55" t="n">
         <v>198</v>
       </c>
-      <c r="GD16" s="55"/>
+      <c r="GD16" s="55" t="n">
+        <v>198</v>
+      </c>
       <c r="GE16" s="55"/>
       <c r="GF16" s="55"/>
       <c r="GG16" s="55"/>
@@ -10137,7 +10165,9 @@
       <c r="GC17" s="59" t="n">
         <v>103070556</v>
       </c>
-      <c r="GD17" s="59"/>
+      <c r="GD17" s="59" t="n">
+        <v>103263406</v>
+      </c>
       <c r="GE17" s="59"/>
       <c r="GF17" s="59"/>
       <c r="GG17" s="59"/>
@@ -10726,7 +10756,9 @@
       <c r="GC18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GD18" s="62"/>
+      <c r="GD18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GE18" s="62"/>
       <c r="GF18" s="62"/>
       <c r="GG18" s="62"/>
@@ -11317,7 +11349,9 @@
       <c r="GC19" s="66" t="n">
         <v>88542489</v>
       </c>
-      <c r="GD19" s="66"/>
+      <c r="GD19" s="66" t="n">
+        <v>88651789</v>
+      </c>
       <c r="GE19" s="66"/>
       <c r="GF19" s="66"/>
       <c r="GG19" s="66"/>
@@ -11906,7 +11940,9 @@
       <c r="GC20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="GD20" s="69"/>
+      <c r="GD20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="GE20" s="69"/>
       <c r="GF20" s="69"/>
       <c r="GG20" s="69"/>
@@ -12675,7 +12711,11 @@
       </c>
       <c r="GC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GC2)&amp;", ""month"": "&amp;MONTH(GC2)&amp;", ""day"": "&amp;DAY(GC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GC3&amp;", ""memberCount"": "&amp;GC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GC5&amp;", ""memberCount"": "&amp;GC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GC7&amp;", ""memberCount"": "&amp;GC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GC9&amp;", ""memberCount"": "&amp;GC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GC11&amp;", ""memberCount"": "&amp;GC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GC13&amp;", ""memberCount"": "&amp;GC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GC15&amp;", ""memberCount"": "&amp;GC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GC17&amp;", ""memberCount"": "&amp;GC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GC19&amp;", ""memberCount"": "&amp;GC20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 198899384, "memberCount": 196}, {"name": "Smile", "contribution": 171689487, "memberCount": 200}, {"name": "Elite", "contribution": 163371739, "memberCount": 199}, {"name": "Savages", "contribution": 152915277, "memberCount": 198}, {"name": "Spring", "contribution": 133822975, "memberCount": 193}, {"name": "Bounce", "contribution": 127915231, "memberCount": 199}, {"name": "Sunset", "contribution": 122848533, "memberCount": 198}, {"name": "Beaters", "contribution": 103070556, "memberCount": 195}, {"name": "Downtime", "contribution": 88542489, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 198899384, "memberCount": 196}, {"name": "Smile", "contribution": 171689487, "memberCount": 200}, {"name": "Elite", "contribution": 163371739, "memberCount": 199}, {"name": "Savages", "contribution": 152915277, "memberCount": 198}, {"name": "Spring", "contribution": 133822975, "memberCount": 193}, {"name": "Bounce", "contribution": 127915231, "memberCount": 199}, {"name": "Sunset", "contribution": 122848533, "memberCount": 198}, {"name": "Beaters", "contribution": 103070556, "memberCount": 195}, {"name": "Downtime", "contribution": 88542489, "memberCount": 199}]}</v>
+      </c>
+      <c r="GD23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GD2)&amp;", ""month"": "&amp;MONTH(GD2)&amp;", ""day"": "&amp;DAY(GD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GD3&amp;", ""memberCount"": "&amp;GD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GD5&amp;", ""memberCount"": "&amp;GD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GD7&amp;", ""memberCount"": "&amp;GD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GD9&amp;", ""memberCount"": "&amp;GD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GD11&amp;", ""memberCount"": "&amp;GD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GD13&amp;", ""memberCount"": "&amp;GD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GD15&amp;", ""memberCount"": "&amp;GD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GD17&amp;", ""memberCount"": "&amp;GD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GD19&amp;", ""memberCount"": "&amp;GD20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 199140164, "memberCount": 196}, {"name": "Smile", "contribution": 171958538, "memberCount": 200}, {"name": "Elite", "contribution": 163501565, "memberCount": 199}, {"name": "Savages", "contribution": 153160813, "memberCount": 198}, {"name": "Spring", "contribution": 133913949, "memberCount": 193}, {"name": "Bounce", "contribution": 128321630, "memberCount": 199}, {"name": "Sunset", "contribution": 122973730, "memberCount": 198}, {"name": "Beaters", "contribution": 103263406, "memberCount": 195}, {"name": "Downtime", "contribution": 88651789, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GB1" activeCellId="0" sqref="GB1"/>
+      <selection pane="topRight" activeCell="GC1" activeCellId="0" sqref="GC1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GD23" activeCellId="0" sqref="GD23"/>
+      <selection pane="bottomRight" activeCell="GE23" activeCellId="0" sqref="GE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1880,7 +1880,9 @@
       <c r="GD3" s="7" t="n">
         <v>199140164</v>
       </c>
-      <c r="GE3" s="7"/>
+      <c r="GE3" s="7" t="n">
+        <v>199344264</v>
+      </c>
       <c r="GF3" s="7"/>
       <c r="GG3" s="7"/>
       <c r="GH3" s="7"/>
@@ -2471,7 +2473,9 @@
       <c r="GD4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GE4" s="11"/>
+      <c r="GE4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GF4" s="11"/>
       <c r="GG4" s="11"/>
       <c r="GH4" s="11"/>
@@ -3064,7 +3068,9 @@
       <c r="GD5" s="17" t="n">
         <v>171958538</v>
       </c>
-      <c r="GE5" s="17"/>
+      <c r="GE5" s="17" t="n">
+        <v>172070718</v>
+      </c>
       <c r="GF5" s="17"/>
       <c r="GG5" s="17"/>
       <c r="GH5" s="17"/>
@@ -3655,7 +3661,9 @@
       <c r="GD6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GE6" s="20"/>
+      <c r="GE6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="GF6" s="20"/>
       <c r="GG6" s="20"/>
       <c r="GH6" s="20"/>
@@ -4248,7 +4256,9 @@
       <c r="GD7" s="24" t="n">
         <v>163501565</v>
       </c>
-      <c r="GE7" s="24"/>
+      <c r="GE7" s="24" t="n">
+        <v>163681350</v>
+      </c>
       <c r="GF7" s="24"/>
       <c r="GG7" s="24"/>
       <c r="GH7" s="24"/>
@@ -4839,7 +4849,9 @@
       <c r="GD8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GE8" s="27"/>
+      <c r="GE8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GF8" s="27"/>
       <c r="GG8" s="27"/>
       <c r="GH8" s="27"/>
@@ -5432,7 +5444,9 @@
       <c r="GD9" s="31" t="n">
         <v>153160813</v>
       </c>
-      <c r="GE9" s="31"/>
+      <c r="GE9" s="31" t="n">
+        <v>153437044</v>
+      </c>
       <c r="GF9" s="31"/>
       <c r="GG9" s="31"/>
       <c r="GH9" s="31"/>
@@ -6023,7 +6037,9 @@
       <c r="GD10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GE10" s="34"/>
+      <c r="GE10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GF10" s="34"/>
       <c r="GG10" s="34"/>
       <c r="GH10" s="34"/>
@@ -6616,7 +6632,9 @@
       <c r="GD11" s="38" t="n">
         <v>133913949</v>
       </c>
-      <c r="GE11" s="38"/>
+      <c r="GE11" s="38" t="n">
+        <v>134021722</v>
+      </c>
       <c r="GF11" s="38"/>
       <c r="GG11" s="38"/>
       <c r="GH11" s="38"/>
@@ -7207,7 +7225,9 @@
       <c r="GD12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="GE12" s="41"/>
+      <c r="GE12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="GF12" s="41"/>
       <c r="GG12" s="41"/>
       <c r="GH12" s="41"/>
@@ -7800,7 +7820,9 @@
       <c r="GD13" s="45" t="n">
         <v>128321630</v>
       </c>
-      <c r="GE13" s="45"/>
+      <c r="GE13" s="45" t="n">
+        <v>128571900</v>
+      </c>
       <c r="GF13" s="45"/>
       <c r="GG13" s="45"/>
       <c r="GH13" s="45"/>
@@ -8391,7 +8413,9 @@
       <c r="GD14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GE14" s="48"/>
+      <c r="GE14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GF14" s="48"/>
       <c r="GG14" s="48"/>
       <c r="GH14" s="48"/>
@@ -8984,7 +9008,9 @@
       <c r="GD15" s="52" t="n">
         <v>122973730</v>
       </c>
-      <c r="GE15" s="52"/>
+      <c r="GE15" s="52" t="n">
+        <v>123097885</v>
+      </c>
       <c r="GF15" s="52"/>
       <c r="GG15" s="52"/>
       <c r="GH15" s="52"/>
@@ -9575,7 +9601,9 @@
       <c r="GD16" s="55" t="n">
         <v>198</v>
       </c>
-      <c r="GE16" s="55"/>
+      <c r="GE16" s="55" t="n">
+        <v>198</v>
+      </c>
       <c r="GF16" s="55"/>
       <c r="GG16" s="55"/>
       <c r="GH16" s="55"/>
@@ -10168,7 +10196,9 @@
       <c r="GD17" s="59" t="n">
         <v>103263406</v>
       </c>
-      <c r="GE17" s="59"/>
+      <c r="GE17" s="59" t="n">
+        <v>103355160</v>
+      </c>
       <c r="GF17" s="59"/>
       <c r="GG17" s="59"/>
       <c r="GH17" s="59"/>
@@ -10759,7 +10789,9 @@
       <c r="GD18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GE18" s="62"/>
+      <c r="GE18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GF18" s="62"/>
       <c r="GG18" s="62"/>
       <c r="GH18" s="62"/>
@@ -11352,7 +11384,9 @@
       <c r="GD19" s="66" t="n">
         <v>88651789</v>
       </c>
-      <c r="GE19" s="66"/>
+      <c r="GE19" s="66" t="n">
+        <v>88768228</v>
+      </c>
       <c r="GF19" s="66"/>
       <c r="GG19" s="66"/>
       <c r="GH19" s="66"/>
@@ -11943,7 +11977,9 @@
       <c r="GD20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="GE20" s="69"/>
+      <c r="GE20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="GF20" s="69"/>
       <c r="GG20" s="69"/>
       <c r="GH20" s="69"/>
@@ -12715,7 +12751,11 @@
       </c>
       <c r="GD23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GD2)&amp;", ""month"": "&amp;MONTH(GD2)&amp;", ""day"": "&amp;DAY(GD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GD3&amp;", ""memberCount"": "&amp;GD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GD5&amp;", ""memberCount"": "&amp;GD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GD7&amp;", ""memberCount"": "&amp;GD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GD9&amp;", ""memberCount"": "&amp;GD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GD11&amp;", ""memberCount"": "&amp;GD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GD13&amp;", ""memberCount"": "&amp;GD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GD15&amp;", ""memberCount"": "&amp;GD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GD17&amp;", ""memberCount"": "&amp;GD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GD19&amp;", ""memberCount"": "&amp;GD20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 199140164, "memberCount": 196}, {"name": "Smile", "contribution": 171958538, "memberCount": 200}, {"name": "Elite", "contribution": 163501565, "memberCount": 199}, {"name": "Savages", "contribution": 153160813, "memberCount": 198}, {"name": "Spring", "contribution": 133913949, "memberCount": 193}, {"name": "Bounce", "contribution": 128321630, "memberCount": 199}, {"name": "Sunset", "contribution": 122973730, "memberCount": 198}, {"name": "Beaters", "contribution": 103263406, "memberCount": 195}, {"name": "Downtime", "contribution": 88651789, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 199140164, "memberCount": 196}, {"name": "Smile", "contribution": 171958538, "memberCount": 200}, {"name": "Elite", "contribution": 163501565, "memberCount": 199}, {"name": "Savages", "contribution": 153160813, "memberCount": 198}, {"name": "Spring", "contribution": 133913949, "memberCount": 193}, {"name": "Bounce", "contribution": 128321630, "memberCount": 199}, {"name": "Sunset", "contribution": 122973730, "memberCount": 198}, {"name": "Beaters", "contribution": 103263406, "memberCount": 195}, {"name": "Downtime", "contribution": 88651789, "memberCount": 199}]}</v>
+      </c>
+      <c r="GE23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GE2)&amp;", ""month"": "&amp;MONTH(GE2)&amp;", ""day"": "&amp;DAY(GE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GE3&amp;", ""memberCount"": "&amp;GE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GE5&amp;", ""memberCount"": "&amp;GE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GE7&amp;", ""memberCount"": "&amp;GE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GE9&amp;", ""memberCount"": "&amp;GE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GE11&amp;", ""memberCount"": "&amp;GE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GE13&amp;", ""memberCount"": "&amp;GE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GE15&amp;", ""memberCount"": "&amp;GE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GE17&amp;", ""memberCount"": "&amp;GE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GE19&amp;", ""memberCount"": "&amp;GE20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 199344264, "memberCount": 196}, {"name": "Smile", "contribution": 172070718, "memberCount": 199}, {"name": "Elite", "contribution": 163681350, "memberCount": 199}, {"name": "Savages", "contribution": 153437044, "memberCount": 198}, {"name": "Spring", "contribution": 134021722, "memberCount": 193}, {"name": "Bounce", "contribution": 128571900, "memberCount": 199}, {"name": "Sunset", "contribution": 123097885, "memberCount": 198}, {"name": "Beaters", "contribution": 103355160, "memberCount": 195}, {"name": "Downtime", "contribution": 88768228, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GC1" activeCellId="0" sqref="GC1"/>
+      <selection pane="topRight" activeCell="GD1" activeCellId="0" sqref="GD1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GE23" activeCellId="0" sqref="GE23"/>
+      <selection pane="bottomRight" activeCell="GF23" activeCellId="0" sqref="GF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,7 +1883,9 @@
       <c r="GE3" s="7" t="n">
         <v>199344264</v>
       </c>
-      <c r="GF3" s="7"/>
+      <c r="GF3" s="7" t="n">
+        <v>199579588</v>
+      </c>
       <c r="GG3" s="7"/>
       <c r="GH3" s="7"/>
       <c r="GI3" s="7"/>
@@ -2476,7 +2478,9 @@
       <c r="GE4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GF4" s="11"/>
+      <c r="GF4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GG4" s="11"/>
       <c r="GH4" s="11"/>
       <c r="GI4" s="11"/>
@@ -3071,7 +3075,9 @@
       <c r="GE5" s="17" t="n">
         <v>172070718</v>
       </c>
-      <c r="GF5" s="17"/>
+      <c r="GF5" s="17" t="n">
+        <v>172296214</v>
+      </c>
       <c r="GG5" s="17"/>
       <c r="GH5" s="17"/>
       <c r="GI5" s="17"/>
@@ -3664,7 +3670,9 @@
       <c r="GE6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="GF6" s="20"/>
+      <c r="GF6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GG6" s="20"/>
       <c r="GH6" s="20"/>
       <c r="GI6" s="20"/>
@@ -4259,7 +4267,9 @@
       <c r="GE7" s="24" t="n">
         <v>163681350</v>
       </c>
-      <c r="GF7" s="24"/>
+      <c r="GF7" s="24" t="n">
+        <v>163877095</v>
+      </c>
       <c r="GG7" s="24"/>
       <c r="GH7" s="24"/>
       <c r="GI7" s="24"/>
@@ -4852,7 +4862,9 @@
       <c r="GE8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GF8" s="27"/>
+      <c r="GF8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GG8" s="27"/>
       <c r="GH8" s="27"/>
       <c r="GI8" s="27"/>
@@ -5447,7 +5459,9 @@
       <c r="GE9" s="31" t="n">
         <v>153437044</v>
       </c>
-      <c r="GF9" s="31"/>
+      <c r="GF9" s="31" t="n">
+        <v>153597125</v>
+      </c>
       <c r="GG9" s="31"/>
       <c r="GH9" s="31"/>
       <c r="GI9" s="31"/>
@@ -6040,7 +6054,9 @@
       <c r="GE10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GF10" s="34"/>
+      <c r="GF10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GG10" s="34"/>
       <c r="GH10" s="34"/>
       <c r="GI10" s="34"/>
@@ -6635,7 +6651,9 @@
       <c r="GE11" s="38" t="n">
         <v>134021722</v>
       </c>
-      <c r="GF11" s="38"/>
+      <c r="GF11" s="38" t="n">
+        <v>134132508</v>
+      </c>
       <c r="GG11" s="38"/>
       <c r="GH11" s="38"/>
       <c r="GI11" s="38"/>
@@ -7228,7 +7246,9 @@
       <c r="GE12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="GF12" s="41"/>
+      <c r="GF12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="GG12" s="41"/>
       <c r="GH12" s="41"/>
       <c r="GI12" s="41"/>
@@ -7823,7 +7843,9 @@
       <c r="GE13" s="45" t="n">
         <v>128571900</v>
       </c>
-      <c r="GF13" s="45"/>
+      <c r="GF13" s="45" t="n">
+        <v>128940453</v>
+      </c>
       <c r="GG13" s="45"/>
       <c r="GH13" s="45"/>
       <c r="GI13" s="45"/>
@@ -8416,7 +8438,9 @@
       <c r="GE14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GF14" s="48"/>
+      <c r="GF14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GG14" s="48"/>
       <c r="GH14" s="48"/>
       <c r="GI14" s="48"/>
@@ -9011,7 +9035,9 @@
       <c r="GE15" s="52" t="n">
         <v>123097885</v>
       </c>
-      <c r="GF15" s="52"/>
+      <c r="GF15" s="52" t="n">
+        <v>123243857</v>
+      </c>
       <c r="GG15" s="52"/>
       <c r="GH15" s="52"/>
       <c r="GI15" s="52"/>
@@ -9604,7 +9630,9 @@
       <c r="GE16" s="55" t="n">
         <v>198</v>
       </c>
-      <c r="GF16" s="55"/>
+      <c r="GF16" s="55" t="n">
+        <v>199</v>
+      </c>
       <c r="GG16" s="55"/>
       <c r="GH16" s="55"/>
       <c r="GI16" s="55"/>
@@ -10199,7 +10227,9 @@
       <c r="GE17" s="59" t="n">
         <v>103355160</v>
       </c>
-      <c r="GF17" s="59"/>
+      <c r="GF17" s="59" t="n">
+        <v>103441149</v>
+      </c>
       <c r="GG17" s="59"/>
       <c r="GH17" s="59"/>
       <c r="GI17" s="59"/>
@@ -10792,7 +10822,9 @@
       <c r="GE18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GF18" s="62"/>
+      <c r="GF18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GG18" s="62"/>
       <c r="GH18" s="62"/>
       <c r="GI18" s="62"/>
@@ -11387,7 +11419,9 @@
       <c r="GE19" s="66" t="n">
         <v>88768228</v>
       </c>
-      <c r="GF19" s="66"/>
+      <c r="GF19" s="66" t="n">
+        <v>88874002</v>
+      </c>
       <c r="GG19" s="66"/>
       <c r="GH19" s="66"/>
       <c r="GI19" s="66"/>
@@ -11980,7 +12014,9 @@
       <c r="GE20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="GF20" s="69"/>
+      <c r="GF20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="GG20" s="69"/>
       <c r="GH20" s="69"/>
       <c r="GI20" s="69"/>
@@ -12755,7 +12791,11 @@
       </c>
       <c r="GE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GE2)&amp;", ""month"": "&amp;MONTH(GE2)&amp;", ""day"": "&amp;DAY(GE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GE3&amp;", ""memberCount"": "&amp;GE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GE5&amp;", ""memberCount"": "&amp;GE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GE7&amp;", ""memberCount"": "&amp;GE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GE9&amp;", ""memberCount"": "&amp;GE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GE11&amp;", ""memberCount"": "&amp;GE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GE13&amp;", ""memberCount"": "&amp;GE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GE15&amp;", ""memberCount"": "&amp;GE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GE17&amp;", ""memberCount"": "&amp;GE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GE19&amp;", ""memberCount"": "&amp;GE20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 199344264, "memberCount": 196}, {"name": "Smile", "contribution": 172070718, "memberCount": 199}, {"name": "Elite", "contribution": 163681350, "memberCount": 199}, {"name": "Savages", "contribution": 153437044, "memberCount": 198}, {"name": "Spring", "contribution": 134021722, "memberCount": 193}, {"name": "Bounce", "contribution": 128571900, "memberCount": 199}, {"name": "Sunset", "contribution": 123097885, "memberCount": 198}, {"name": "Beaters", "contribution": 103355160, "memberCount": 195}, {"name": "Downtime", "contribution": 88768228, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 199344264, "memberCount": 196}, {"name": "Smile", "contribution": 172070718, "memberCount": 199}, {"name": "Elite", "contribution": 163681350, "memberCount": 199}, {"name": "Savages", "contribution": 153437044, "memberCount": 198}, {"name": "Spring", "contribution": 134021722, "memberCount": 193}, {"name": "Bounce", "contribution": 128571900, "memberCount": 199}, {"name": "Sunset", "contribution": 123097885, "memberCount": 198}, {"name": "Beaters", "contribution": 103355160, "memberCount": 195}, {"name": "Downtime", "contribution": 88768228, "memberCount": 200}]}</v>
+      </c>
+      <c r="GF23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GF2)&amp;", ""month"": "&amp;MONTH(GF2)&amp;", ""day"": "&amp;DAY(GF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GF3&amp;", ""memberCount"": "&amp;GF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GF5&amp;", ""memberCount"": "&amp;GF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GF7&amp;", ""memberCount"": "&amp;GF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GF9&amp;", ""memberCount"": "&amp;GF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GF11&amp;", ""memberCount"": "&amp;GF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GF13&amp;", ""memberCount"": "&amp;GF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GF15&amp;", ""memberCount"": "&amp;GF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GF17&amp;", ""memberCount"": "&amp;GF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GF19&amp;", ""memberCount"": "&amp;GF20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 199579588, "memberCount": 196}, {"name": "Smile", "contribution": 172296214, "memberCount": 200}, {"name": "Elite", "contribution": 163877095, "memberCount": 199}, {"name": "Savages", "contribution": 153597125, "memberCount": 198}, {"name": "Spring", "contribution": 134132508, "memberCount": 193}, {"name": "Bounce", "contribution": 128940453, "memberCount": 199}, {"name": "Sunset", "contribution": 123243857, "memberCount": 199}, {"name": "Beaters", "contribution": 103441149, "memberCount": 195}, {"name": "Downtime", "contribution": 88874002, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GD1" activeCellId="0" sqref="GD1"/>
+      <selection pane="topRight" activeCell="GE1" activeCellId="0" sqref="GE1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GF23" activeCellId="0" sqref="GF23"/>
+      <selection pane="bottomRight" activeCell="GG23" activeCellId="0" sqref="GG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1886,7 +1886,9 @@
       <c r="GF3" s="7" t="n">
         <v>199579588</v>
       </c>
-      <c r="GG3" s="7"/>
+      <c r="GG3" s="7" t="n">
+        <v>199829691</v>
+      </c>
       <c r="GH3" s="7"/>
       <c r="GI3" s="7"/>
       <c r="GJ3" s="7"/>
@@ -2481,7 +2483,9 @@
       <c r="GF4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GG4" s="11"/>
+      <c r="GG4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GH4" s="11"/>
       <c r="GI4" s="11"/>
       <c r="GJ4" s="11"/>
@@ -3078,7 +3082,9 @@
       <c r="GF5" s="17" t="n">
         <v>172296214</v>
       </c>
-      <c r="GG5" s="17"/>
+      <c r="GG5" s="17" t="n">
+        <v>172537509</v>
+      </c>
       <c r="GH5" s="17"/>
       <c r="GI5" s="17"/>
       <c r="GJ5" s="17"/>
@@ -3673,7 +3679,9 @@
       <c r="GF6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GG6" s="20"/>
+      <c r="GG6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GH6" s="20"/>
       <c r="GI6" s="20"/>
       <c r="GJ6" s="20"/>
@@ -4270,7 +4278,9 @@
       <c r="GF7" s="24" t="n">
         <v>163877095</v>
       </c>
-      <c r="GG7" s="24"/>
+      <c r="GG7" s="24" t="n">
+        <v>164066878</v>
+      </c>
       <c r="GH7" s="24"/>
       <c r="GI7" s="24"/>
       <c r="GJ7" s="24"/>
@@ -4865,7 +4875,9 @@
       <c r="GF8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GG8" s="27"/>
+      <c r="GG8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GH8" s="27"/>
       <c r="GI8" s="27"/>
       <c r="GJ8" s="27"/>
@@ -5462,7 +5474,9 @@
       <c r="GF9" s="31" t="n">
         <v>153597125</v>
       </c>
-      <c r="GG9" s="31"/>
+      <c r="GG9" s="31" t="n">
+        <v>153811267</v>
+      </c>
       <c r="GH9" s="31"/>
       <c r="GI9" s="31"/>
       <c r="GJ9" s="31"/>
@@ -6057,7 +6071,9 @@
       <c r="GF10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GG10" s="34"/>
+      <c r="GG10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GH10" s="34"/>
       <c r="GI10" s="34"/>
       <c r="GJ10" s="34"/>
@@ -6654,7 +6670,9 @@
       <c r="GF11" s="38" t="n">
         <v>134132508</v>
       </c>
-      <c r="GG11" s="38"/>
+      <c r="GG11" s="38" t="n">
+        <v>134262448</v>
+      </c>
       <c r="GH11" s="38"/>
       <c r="GI11" s="38"/>
       <c r="GJ11" s="38"/>
@@ -7249,7 +7267,9 @@
       <c r="GF12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="GG12" s="41"/>
+      <c r="GG12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="GH12" s="41"/>
       <c r="GI12" s="41"/>
       <c r="GJ12" s="41"/>
@@ -7846,7 +7866,9 @@
       <c r="GF13" s="45" t="n">
         <v>128940453</v>
       </c>
-      <c r="GG13" s="45"/>
+      <c r="GG13" s="45" t="n">
+        <v>129238534</v>
+      </c>
       <c r="GH13" s="45"/>
       <c r="GI13" s="45"/>
       <c r="GJ13" s="45"/>
@@ -8441,7 +8463,9 @@
       <c r="GF14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GG14" s="48"/>
+      <c r="GG14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GH14" s="48"/>
       <c r="GI14" s="48"/>
       <c r="GJ14" s="48"/>
@@ -9038,7 +9062,9 @@
       <c r="GF15" s="52" t="n">
         <v>123243857</v>
       </c>
-      <c r="GG15" s="52"/>
+      <c r="GG15" s="52" t="n">
+        <v>123402695</v>
+      </c>
       <c r="GH15" s="52"/>
       <c r="GI15" s="52"/>
       <c r="GJ15" s="52"/>
@@ -9633,7 +9659,9 @@
       <c r="GF16" s="55" t="n">
         <v>199</v>
       </c>
-      <c r="GG16" s="55"/>
+      <c r="GG16" s="55" t="n">
+        <v>199</v>
+      </c>
       <c r="GH16" s="55"/>
       <c r="GI16" s="55"/>
       <c r="GJ16" s="55"/>
@@ -10230,7 +10258,9 @@
       <c r="GF17" s="59" t="n">
         <v>103441149</v>
       </c>
-      <c r="GG17" s="59"/>
+      <c r="GG17" s="59" t="n">
+        <v>103574289</v>
+      </c>
       <c r="GH17" s="59"/>
       <c r="GI17" s="59"/>
       <c r="GJ17" s="59"/>
@@ -10825,7 +10855,9 @@
       <c r="GF18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GG18" s="62"/>
+      <c r="GG18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GH18" s="62"/>
       <c r="GI18" s="62"/>
       <c r="GJ18" s="62"/>
@@ -11422,7 +11454,9 @@
       <c r="GF19" s="66" t="n">
         <v>88874002</v>
       </c>
-      <c r="GG19" s="66"/>
+      <c r="GG19" s="66" t="n">
+        <v>88996825</v>
+      </c>
       <c r="GH19" s="66"/>
       <c r="GI19" s="66"/>
       <c r="GJ19" s="66"/>
@@ -12017,7 +12051,9 @@
       <c r="GF20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="GG20" s="69"/>
+      <c r="GG20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="GH20" s="69"/>
       <c r="GI20" s="69"/>
       <c r="GJ20" s="69"/>
@@ -12795,7 +12831,11 @@
       </c>
       <c r="GF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GF2)&amp;", ""month"": "&amp;MONTH(GF2)&amp;", ""day"": "&amp;DAY(GF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GF3&amp;", ""memberCount"": "&amp;GF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GF5&amp;", ""memberCount"": "&amp;GF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GF7&amp;", ""memberCount"": "&amp;GF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GF9&amp;", ""memberCount"": "&amp;GF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GF11&amp;", ""memberCount"": "&amp;GF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GF13&amp;", ""memberCount"": "&amp;GF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GF15&amp;", ""memberCount"": "&amp;GF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GF17&amp;", ""memberCount"": "&amp;GF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GF19&amp;", ""memberCount"": "&amp;GF20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 199579588, "memberCount": 196}, {"name": "Smile", "contribution": 172296214, "memberCount": 200}, {"name": "Elite", "contribution": 163877095, "memberCount": 199}, {"name": "Savages", "contribution": 153597125, "memberCount": 198}, {"name": "Spring", "contribution": 134132508, "memberCount": 193}, {"name": "Bounce", "contribution": 128940453, "memberCount": 199}, {"name": "Sunset", "contribution": 123243857, "memberCount": 199}, {"name": "Beaters", "contribution": 103441149, "memberCount": 195}, {"name": "Downtime", "contribution": 88874002, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 199579588, "memberCount": 196}, {"name": "Smile", "contribution": 172296214, "memberCount": 200}, {"name": "Elite", "contribution": 163877095, "memberCount": 199}, {"name": "Savages", "contribution": 153597125, "memberCount": 198}, {"name": "Spring", "contribution": 134132508, "memberCount": 193}, {"name": "Bounce", "contribution": 128940453, "memberCount": 199}, {"name": "Sunset", "contribution": 123243857, "memberCount": 199}, {"name": "Beaters", "contribution": 103441149, "memberCount": 195}, {"name": "Downtime", "contribution": 88874002, "memberCount": 200}]}</v>
+      </c>
+      <c r="GG23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GG2)&amp;", ""month"": "&amp;MONTH(GG2)&amp;", ""day"": "&amp;DAY(GG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GG3&amp;", ""memberCount"": "&amp;GG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GG5&amp;", ""memberCount"": "&amp;GG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GG7&amp;", ""memberCount"": "&amp;GG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GG9&amp;", ""memberCount"": "&amp;GG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GG11&amp;", ""memberCount"": "&amp;GG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GG13&amp;", ""memberCount"": "&amp;GG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GG15&amp;", ""memberCount"": "&amp;GG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GG17&amp;", ""memberCount"": "&amp;GG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GG19&amp;", ""memberCount"": "&amp;GG20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 199829691, "memberCount": 196}, {"name": "Smile", "contribution": 172537509, "memberCount": 200}, {"name": "Elite", "contribution": 164066878, "memberCount": 199}, {"name": "Savages", "contribution": 153811267, "memberCount": 198}, {"name": "Spring", "contribution": 134262448, "memberCount": 193}, {"name": "Bounce", "contribution": 129238534, "memberCount": 199}, {"name": "Sunset", "contribution": 123402695, "memberCount": 199}, {"name": "Beaters", "contribution": 103574289, "memberCount": 195}, {"name": "Downtime", "contribution": 88996825, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GE1" activeCellId="0" sqref="GE1"/>
+      <selection pane="topRight" activeCell="GF1" activeCellId="0" sqref="GF1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GG23" activeCellId="0" sqref="GG23"/>
+      <selection pane="bottomRight" activeCell="GH23" activeCellId="0" sqref="GH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1889,7 +1889,9 @@
       <c r="GG3" s="7" t="n">
         <v>199829691</v>
       </c>
-      <c r="GH3" s="7"/>
+      <c r="GH3" s="7" t="n">
+        <v>200010021</v>
+      </c>
       <c r="GI3" s="7"/>
       <c r="GJ3" s="7"/>
       <c r="GK3" s="7"/>
@@ -2486,7 +2488,9 @@
       <c r="GG4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GH4" s="11"/>
+      <c r="GH4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GI4" s="11"/>
       <c r="GJ4" s="11"/>
       <c r="GK4" s="11"/>
@@ -3085,7 +3089,9 @@
       <c r="GG5" s="17" t="n">
         <v>172537509</v>
       </c>
-      <c r="GH5" s="17"/>
+      <c r="GH5" s="17" t="n">
+        <v>172626180</v>
+      </c>
       <c r="GI5" s="17"/>
       <c r="GJ5" s="17"/>
       <c r="GK5" s="17"/>
@@ -3682,7 +3688,9 @@
       <c r="GG6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GH6" s="20"/>
+      <c r="GH6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GI6" s="20"/>
       <c r="GJ6" s="20"/>
       <c r="GK6" s="20"/>
@@ -4281,7 +4289,9 @@
       <c r="GG7" s="24" t="n">
         <v>164066878</v>
       </c>
-      <c r="GH7" s="24"/>
+      <c r="GH7" s="24" t="n">
+        <v>164236860</v>
+      </c>
       <c r="GI7" s="24"/>
       <c r="GJ7" s="24"/>
       <c r="GK7" s="24"/>
@@ -4878,7 +4888,9 @@
       <c r="GG8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GH8" s="27"/>
+      <c r="GH8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GI8" s="27"/>
       <c r="GJ8" s="27"/>
       <c r="GK8" s="27"/>
@@ -5477,7 +5489,9 @@
       <c r="GG9" s="31" t="n">
         <v>153811267</v>
       </c>
-      <c r="GH9" s="31"/>
+      <c r="GH9" s="31" t="n">
+        <v>153989394</v>
+      </c>
       <c r="GI9" s="31"/>
       <c r="GJ9" s="31"/>
       <c r="GK9" s="31"/>
@@ -6074,7 +6088,9 @@
       <c r="GG10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GH10" s="34"/>
+      <c r="GH10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GI10" s="34"/>
       <c r="GJ10" s="34"/>
       <c r="GK10" s="34"/>
@@ -6673,7 +6689,9 @@
       <c r="GG11" s="38" t="n">
         <v>134262448</v>
       </c>
-      <c r="GH11" s="38"/>
+      <c r="GH11" s="38" t="n">
+        <v>134365609</v>
+      </c>
       <c r="GI11" s="38"/>
       <c r="GJ11" s="38"/>
       <c r="GK11" s="38"/>
@@ -7270,7 +7288,9 @@
       <c r="GG12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="GH12" s="41"/>
+      <c r="GH12" s="41" t="n">
+        <v>193</v>
+      </c>
       <c r="GI12" s="41"/>
       <c r="GJ12" s="41"/>
       <c r="GK12" s="41"/>
@@ -7869,7 +7889,9 @@
       <c r="GG13" s="45" t="n">
         <v>129238534</v>
       </c>
-      <c r="GH13" s="45"/>
+      <c r="GH13" s="45" t="n">
+        <v>129491935</v>
+      </c>
       <c r="GI13" s="45"/>
       <c r="GJ13" s="45"/>
       <c r="GK13" s="45"/>
@@ -8466,7 +8488,9 @@
       <c r="GG14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GH14" s="48"/>
+      <c r="GH14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GI14" s="48"/>
       <c r="GJ14" s="48"/>
       <c r="GK14" s="48"/>
@@ -9065,7 +9089,9 @@
       <c r="GG15" s="52" t="n">
         <v>123402695</v>
       </c>
-      <c r="GH15" s="52"/>
+      <c r="GH15" s="52" t="n">
+        <v>123497272</v>
+      </c>
       <c r="GI15" s="52"/>
       <c r="GJ15" s="52"/>
       <c r="GK15" s="52"/>
@@ -9662,7 +9688,9 @@
       <c r="GG16" s="55" t="n">
         <v>199</v>
       </c>
-      <c r="GH16" s="55"/>
+      <c r="GH16" s="55" t="n">
+        <v>199</v>
+      </c>
       <c r="GI16" s="55"/>
       <c r="GJ16" s="55"/>
       <c r="GK16" s="55"/>
@@ -10261,7 +10289,9 @@
       <c r="GG17" s="59" t="n">
         <v>103574289</v>
       </c>
-      <c r="GH17" s="59"/>
+      <c r="GH17" s="59" t="n">
+        <v>103653005</v>
+      </c>
       <c r="GI17" s="59"/>
       <c r="GJ17" s="59"/>
       <c r="GK17" s="59"/>
@@ -10858,7 +10888,9 @@
       <c r="GG18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GH18" s="62"/>
+      <c r="GH18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GI18" s="62"/>
       <c r="GJ18" s="62"/>
       <c r="GK18" s="62"/>
@@ -11457,7 +11489,9 @@
       <c r="GG19" s="66" t="n">
         <v>88996825</v>
       </c>
-      <c r="GH19" s="66"/>
+      <c r="GH19" s="66" t="n">
+        <v>89069785</v>
+      </c>
       <c r="GI19" s="66"/>
       <c r="GJ19" s="66"/>
       <c r="GK19" s="66"/>
@@ -12054,7 +12088,9 @@
       <c r="GG20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="GH20" s="69"/>
+      <c r="GH20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="GI20" s="69"/>
       <c r="GJ20" s="69"/>
       <c r="GK20" s="69"/>
@@ -12835,7 +12871,11 @@
       </c>
       <c r="GG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GG2)&amp;", ""month"": "&amp;MONTH(GG2)&amp;", ""day"": "&amp;DAY(GG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GG3&amp;", ""memberCount"": "&amp;GG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GG5&amp;", ""memberCount"": "&amp;GG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GG7&amp;", ""memberCount"": "&amp;GG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GG9&amp;", ""memberCount"": "&amp;GG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GG11&amp;", ""memberCount"": "&amp;GG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GG13&amp;", ""memberCount"": "&amp;GG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GG15&amp;", ""memberCount"": "&amp;GG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GG17&amp;", ""memberCount"": "&amp;GG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GG19&amp;", ""memberCount"": "&amp;GG20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 199829691, "memberCount": 196}, {"name": "Smile", "contribution": 172537509, "memberCount": 200}, {"name": "Elite", "contribution": 164066878, "memberCount": 199}, {"name": "Savages", "contribution": 153811267, "memberCount": 198}, {"name": "Spring", "contribution": 134262448, "memberCount": 193}, {"name": "Bounce", "contribution": 129238534, "memberCount": 199}, {"name": "Sunset", "contribution": 123402695, "memberCount": 199}, {"name": "Beaters", "contribution": 103574289, "memberCount": 195}, {"name": "Downtime", "contribution": 88996825, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 199829691, "memberCount": 196}, {"name": "Smile", "contribution": 172537509, "memberCount": 200}, {"name": "Elite", "contribution": 164066878, "memberCount": 199}, {"name": "Savages", "contribution": 153811267, "memberCount": 198}, {"name": "Spring", "contribution": 134262448, "memberCount": 193}, {"name": "Bounce", "contribution": 129238534, "memberCount": 199}, {"name": "Sunset", "contribution": 123402695, "memberCount": 199}, {"name": "Beaters", "contribution": 103574289, "memberCount": 195}, {"name": "Downtime", "contribution": 88996825, "memberCount": 199}]}</v>
+      </c>
+      <c r="GH23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GH2)&amp;", ""month"": "&amp;MONTH(GH2)&amp;", ""day"": "&amp;DAY(GH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GH3&amp;", ""memberCount"": "&amp;GH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GH5&amp;", ""memberCount"": "&amp;GH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GH7&amp;", ""memberCount"": "&amp;GH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GH9&amp;", ""memberCount"": "&amp;GH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GH11&amp;", ""memberCount"": "&amp;GH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GH13&amp;", ""memberCount"": "&amp;GH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GH15&amp;", ""memberCount"": "&amp;GH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GH17&amp;", ""memberCount"": "&amp;GH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GH19&amp;", ""memberCount"": "&amp;GH20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 200010021, "memberCount": 196}, {"name": "Smile", "contribution": 172626180, "memberCount": 200}, {"name": "Elite", "contribution": 164236860, "memberCount": 199}, {"name": "Savages", "contribution": 153989394, "memberCount": 198}, {"name": "Spring", "contribution": 134365609, "memberCount": 193}, {"name": "Bounce", "contribution": 129491935, "memberCount": 198}, {"name": "Sunset", "contribution": 123497272, "memberCount": 199}, {"name": "Beaters", "contribution": 103653005, "memberCount": 195}, {"name": "Downtime", "contribution": 89069785, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GF1" activeCellId="0" sqref="GF1"/>
+      <selection pane="topRight" activeCell="GG1" activeCellId="0" sqref="GG1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GH23" activeCellId="0" sqref="GH23"/>
+      <selection pane="bottomRight" activeCell="GI23" activeCellId="0" sqref="GI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1892,7 +1892,9 @@
       <c r="GH3" s="7" t="n">
         <v>200010021</v>
       </c>
-      <c r="GI3" s="7"/>
+      <c r="GI3" s="7" t="n">
+        <v>200345126</v>
+      </c>
       <c r="GJ3" s="7"/>
       <c r="GK3" s="7"/>
       <c r="GL3" s="7"/>
@@ -2491,7 +2493,9 @@
       <c r="GH4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GI4" s="11"/>
+      <c r="GI4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GJ4" s="11"/>
       <c r="GK4" s="11"/>
       <c r="GL4" s="11"/>
@@ -3092,7 +3096,9 @@
       <c r="GH5" s="17" t="n">
         <v>172626180</v>
       </c>
-      <c r="GI5" s="17"/>
+      <c r="GI5" s="17" t="n">
+        <v>172808199</v>
+      </c>
       <c r="GJ5" s="17"/>
       <c r="GK5" s="17"/>
       <c r="GL5" s="17"/>
@@ -3691,7 +3697,9 @@
       <c r="GH6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GI6" s="20"/>
+      <c r="GI6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GJ6" s="20"/>
       <c r="GK6" s="20"/>
       <c r="GL6" s="20"/>
@@ -4292,7 +4300,9 @@
       <c r="GH7" s="24" t="n">
         <v>164236860</v>
       </c>
-      <c r="GI7" s="24"/>
+      <c r="GI7" s="24" t="n">
+        <v>164434240</v>
+      </c>
       <c r="GJ7" s="24"/>
       <c r="GK7" s="24"/>
       <c r="GL7" s="24"/>
@@ -4891,7 +4901,9 @@
       <c r="GH8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GI8" s="27"/>
+      <c r="GI8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GJ8" s="27"/>
       <c r="GK8" s="27"/>
       <c r="GL8" s="27"/>
@@ -5492,7 +5504,9 @@
       <c r="GH9" s="31" t="n">
         <v>153989394</v>
       </c>
-      <c r="GI9" s="31"/>
+      <c r="GI9" s="31" t="n">
+        <v>154161080</v>
+      </c>
       <c r="GJ9" s="31"/>
       <c r="GK9" s="31"/>
       <c r="GL9" s="31"/>
@@ -6091,7 +6105,9 @@
       <c r="GH10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GI10" s="34"/>
+      <c r="GI10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GJ10" s="34"/>
       <c r="GK10" s="34"/>
       <c r="GL10" s="34"/>
@@ -6692,7 +6708,9 @@
       <c r="GH11" s="38" t="n">
         <v>134365609</v>
       </c>
-      <c r="GI11" s="38"/>
+      <c r="GI11" s="38" t="n">
+        <v>134522941</v>
+      </c>
       <c r="GJ11" s="38"/>
       <c r="GK11" s="38"/>
       <c r="GL11" s="38"/>
@@ -7291,7 +7309,9 @@
       <c r="GH12" s="41" t="n">
         <v>193</v>
       </c>
-      <c r="GI12" s="41"/>
+      <c r="GI12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="GJ12" s="41"/>
       <c r="GK12" s="41"/>
       <c r="GL12" s="41"/>
@@ -7892,7 +7912,9 @@
       <c r="GH13" s="45" t="n">
         <v>129491935</v>
       </c>
-      <c r="GI13" s="45"/>
+      <c r="GI13" s="45" t="n">
+        <v>129739707</v>
+      </c>
       <c r="GJ13" s="45"/>
       <c r="GK13" s="45"/>
       <c r="GL13" s="45"/>
@@ -8491,7 +8513,9 @@
       <c r="GH14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GI14" s="48"/>
+      <c r="GI14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GJ14" s="48"/>
       <c r="GK14" s="48"/>
       <c r="GL14" s="48"/>
@@ -9092,7 +9116,9 @@
       <c r="GH15" s="52" t="n">
         <v>123497272</v>
       </c>
-      <c r="GI15" s="52"/>
+      <c r="GI15" s="52" t="n">
+        <v>123507851</v>
+      </c>
       <c r="GJ15" s="52"/>
       <c r="GK15" s="52"/>
       <c r="GL15" s="52"/>
@@ -9691,7 +9717,9 @@
       <c r="GH16" s="55" t="n">
         <v>199</v>
       </c>
-      <c r="GI16" s="55"/>
+      <c r="GI16" s="55" t="n">
+        <v>191</v>
+      </c>
       <c r="GJ16" s="55"/>
       <c r="GK16" s="55"/>
       <c r="GL16" s="55"/>
@@ -10292,7 +10320,9 @@
       <c r="GH17" s="59" t="n">
         <v>103653005</v>
       </c>
-      <c r="GI17" s="59"/>
+      <c r="GI17" s="59" t="n">
+        <v>103773730</v>
+      </c>
       <c r="GJ17" s="59"/>
       <c r="GK17" s="59"/>
       <c r="GL17" s="59"/>
@@ -10891,7 +10921,9 @@
       <c r="GH18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GI18" s="62"/>
+      <c r="GI18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GJ18" s="62"/>
       <c r="GK18" s="62"/>
       <c r="GL18" s="62"/>
@@ -11492,7 +11524,9 @@
       <c r="GH19" s="66" t="n">
         <v>89069785</v>
       </c>
-      <c r="GI19" s="66"/>
+      <c r="GI19" s="66" t="n">
+        <v>89151649</v>
+      </c>
       <c r="GJ19" s="66"/>
       <c r="GK19" s="66"/>
       <c r="GL19" s="66"/>
@@ -12091,7 +12125,9 @@
       <c r="GH20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="GI20" s="69"/>
+      <c r="GI20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="GJ20" s="69"/>
       <c r="GK20" s="69"/>
       <c r="GL20" s="69"/>
@@ -12875,7 +12911,11 @@
       </c>
       <c r="GH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GH2)&amp;", ""month"": "&amp;MONTH(GH2)&amp;", ""day"": "&amp;DAY(GH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GH3&amp;", ""memberCount"": "&amp;GH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GH5&amp;", ""memberCount"": "&amp;GH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GH7&amp;", ""memberCount"": "&amp;GH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GH9&amp;", ""memberCount"": "&amp;GH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GH11&amp;", ""memberCount"": "&amp;GH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GH13&amp;", ""memberCount"": "&amp;GH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GH15&amp;", ""memberCount"": "&amp;GH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GH17&amp;", ""memberCount"": "&amp;GH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GH19&amp;", ""memberCount"": "&amp;GH20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 200010021, "memberCount": 196}, {"name": "Smile", "contribution": 172626180, "memberCount": 200}, {"name": "Elite", "contribution": 164236860, "memberCount": 199}, {"name": "Savages", "contribution": 153989394, "memberCount": 198}, {"name": "Spring", "contribution": 134365609, "memberCount": 193}, {"name": "Bounce", "contribution": 129491935, "memberCount": 198}, {"name": "Sunset", "contribution": 123497272, "memberCount": 199}, {"name": "Beaters", "contribution": 103653005, "memberCount": 195}, {"name": "Downtime", "contribution": 89069785, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 200010021, "memberCount": 196}, {"name": "Smile", "contribution": 172626180, "memberCount": 200}, {"name": "Elite", "contribution": 164236860, "memberCount": 199}, {"name": "Savages", "contribution": 153989394, "memberCount": 198}, {"name": "Spring", "contribution": 134365609, "memberCount": 193}, {"name": "Bounce", "contribution": 129491935, "memberCount": 198}, {"name": "Sunset", "contribution": 123497272, "memberCount": 199}, {"name": "Beaters", "contribution": 103653005, "memberCount": 195}, {"name": "Downtime", "contribution": 89069785, "memberCount": 200}]}</v>
+      </c>
+      <c r="GI23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GI2)&amp;", ""month"": "&amp;MONTH(GI2)&amp;", ""day"": "&amp;DAY(GI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GI3&amp;", ""memberCount"": "&amp;GI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GI5&amp;", ""memberCount"": "&amp;GI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GI7&amp;", ""memberCount"": "&amp;GI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GI9&amp;", ""memberCount"": "&amp;GI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GI11&amp;", ""memberCount"": "&amp;GI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GI13&amp;", ""memberCount"": "&amp;GI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GI15&amp;", ""memberCount"": "&amp;GI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GI17&amp;", ""memberCount"": "&amp;GI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GI19&amp;", ""memberCount"": "&amp;GI20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 200345126, "memberCount": 196}, {"name": "Smile", "contribution": 172808199, "memberCount": 200}, {"name": "Elite", "contribution": 164434240, "memberCount": 200}, {"name": "Savages", "contribution": 154161080, "memberCount": 198}, {"name": "Spring", "contribution": 134522941, "memberCount": 194}, {"name": "Bounce", "contribution": 129739707, "memberCount": 198}, {"name": "Sunset", "contribution": 123507851, "memberCount": 191}, {"name": "Beaters", "contribution": 103773730, "memberCount": 195}, {"name": "Downtime", "contribution": 89151649, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GG1" activeCellId="0" sqref="GG1"/>
+      <selection pane="topRight" activeCell="GH1" activeCellId="0" sqref="GH1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GI23" activeCellId="0" sqref="GI23"/>
+      <selection pane="bottomRight" activeCell="GJ23" activeCellId="0" sqref="GJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1895,7 +1895,9 @@
       <c r="GI3" s="7" t="n">
         <v>200345126</v>
       </c>
-      <c r="GJ3" s="7"/>
+      <c r="GJ3" s="7" t="n">
+        <v>200490523</v>
+      </c>
       <c r="GK3" s="7"/>
       <c r="GL3" s="7"/>
       <c r="GM3" s="7"/>
@@ -2496,7 +2498,9 @@
       <c r="GI4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GJ4" s="11"/>
+      <c r="GJ4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="GK4" s="11"/>
       <c r="GL4" s="11"/>
       <c r="GM4" s="11"/>
@@ -3099,7 +3103,9 @@
       <c r="GI5" s="17" t="n">
         <v>172808199</v>
       </c>
-      <c r="GJ5" s="17"/>
+      <c r="GJ5" s="17" t="n">
+        <v>173050244</v>
+      </c>
       <c r="GK5" s="17"/>
       <c r="GL5" s="17"/>
       <c r="GM5" s="17"/>
@@ -3700,7 +3706,9 @@
       <c r="GI6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GJ6" s="20"/>
+      <c r="GJ6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GK6" s="20"/>
       <c r="GL6" s="20"/>
       <c r="GM6" s="20"/>
@@ -4303,7 +4311,9 @@
       <c r="GI7" s="24" t="n">
         <v>164434240</v>
       </c>
-      <c r="GJ7" s="24"/>
+      <c r="GJ7" s="24" t="n">
+        <v>164636603</v>
+      </c>
       <c r="GK7" s="24"/>
       <c r="GL7" s="24"/>
       <c r="GM7" s="24"/>
@@ -4904,7 +4914,9 @@
       <c r="GI8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GJ8" s="27"/>
+      <c r="GJ8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GK8" s="27"/>
       <c r="GL8" s="27"/>
       <c r="GM8" s="27"/>
@@ -5507,7 +5519,9 @@
       <c r="GI9" s="31" t="n">
         <v>154161080</v>
       </c>
-      <c r="GJ9" s="31"/>
+      <c r="GJ9" s="31" t="n">
+        <v>154372851</v>
+      </c>
       <c r="GK9" s="31"/>
       <c r="GL9" s="31"/>
       <c r="GM9" s="31"/>
@@ -6108,7 +6122,9 @@
       <c r="GI10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GJ10" s="34"/>
+      <c r="GJ10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GK10" s="34"/>
       <c r="GL10" s="34"/>
       <c r="GM10" s="34"/>
@@ -6711,7 +6727,9 @@
       <c r="GI11" s="38" t="n">
         <v>134522941</v>
       </c>
-      <c r="GJ11" s="38"/>
+      <c r="GJ11" s="38" t="n">
+        <v>134692934</v>
+      </c>
       <c r="GK11" s="38"/>
       <c r="GL11" s="38"/>
       <c r="GM11" s="38"/>
@@ -7312,7 +7330,9 @@
       <c r="GI12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="GJ12" s="41"/>
+      <c r="GJ12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="GK12" s="41"/>
       <c r="GL12" s="41"/>
       <c r="GM12" s="41"/>
@@ -7915,7 +7935,9 @@
       <c r="GI13" s="45" t="n">
         <v>129739707</v>
       </c>
-      <c r="GJ13" s="45"/>
+      <c r="GJ13" s="45" t="n">
+        <v>130082852</v>
+      </c>
       <c r="GK13" s="45"/>
       <c r="GL13" s="45"/>
       <c r="GM13" s="45"/>
@@ -8516,7 +8538,9 @@
       <c r="GI14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GJ14" s="48"/>
+      <c r="GJ14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GK14" s="48"/>
       <c r="GL14" s="48"/>
       <c r="GM14" s="48"/>
@@ -9119,7 +9143,9 @@
       <c r="GI15" s="52" t="n">
         <v>123507851</v>
       </c>
-      <c r="GJ15" s="52"/>
+      <c r="GJ15" s="52" t="n">
+        <v>123688837</v>
+      </c>
       <c r="GK15" s="52"/>
       <c r="GL15" s="52"/>
       <c r="GM15" s="52"/>
@@ -9720,7 +9746,9 @@
       <c r="GI16" s="55" t="n">
         <v>191</v>
       </c>
-      <c r="GJ16" s="55"/>
+      <c r="GJ16" s="55" t="n">
+        <v>191</v>
+      </c>
       <c r="GK16" s="55"/>
       <c r="GL16" s="55"/>
       <c r="GM16" s="55"/>
@@ -10323,7 +10351,9 @@
       <c r="GI17" s="59" t="n">
         <v>103773730</v>
       </c>
-      <c r="GJ17" s="59"/>
+      <c r="GJ17" s="59" t="n">
+        <v>103928182</v>
+      </c>
       <c r="GK17" s="59"/>
       <c r="GL17" s="59"/>
       <c r="GM17" s="59"/>
@@ -10924,7 +10954,9 @@
       <c r="GI18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GJ18" s="62"/>
+      <c r="GJ18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GK18" s="62"/>
       <c r="GL18" s="62"/>
       <c r="GM18" s="62"/>
@@ -11527,7 +11559,9 @@
       <c r="GI19" s="66" t="n">
         <v>89151649</v>
       </c>
-      <c r="GJ19" s="66"/>
+      <c r="GJ19" s="66" t="n">
+        <v>89279783</v>
+      </c>
       <c r="GK19" s="66"/>
       <c r="GL19" s="66"/>
       <c r="GM19" s="66"/>
@@ -12128,7 +12162,9 @@
       <c r="GI20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="GJ20" s="69"/>
+      <c r="GJ20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="GK20" s="69"/>
       <c r="GL20" s="69"/>
       <c r="GM20" s="69"/>
@@ -12915,7 +12951,11 @@
       </c>
       <c r="GI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GI2)&amp;", ""month"": "&amp;MONTH(GI2)&amp;", ""day"": "&amp;DAY(GI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GI3&amp;", ""memberCount"": "&amp;GI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GI5&amp;", ""memberCount"": "&amp;GI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GI7&amp;", ""memberCount"": "&amp;GI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GI9&amp;", ""memberCount"": "&amp;GI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GI11&amp;", ""memberCount"": "&amp;GI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GI13&amp;", ""memberCount"": "&amp;GI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GI15&amp;", ""memberCount"": "&amp;GI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GI17&amp;", ""memberCount"": "&amp;GI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GI19&amp;", ""memberCount"": "&amp;GI20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 200345126, "memberCount": 196}, {"name": "Smile", "contribution": 172808199, "memberCount": 200}, {"name": "Elite", "contribution": 164434240, "memberCount": 200}, {"name": "Savages", "contribution": 154161080, "memberCount": 198}, {"name": "Spring", "contribution": 134522941, "memberCount": 194}, {"name": "Bounce", "contribution": 129739707, "memberCount": 198}, {"name": "Sunset", "contribution": 123507851, "memberCount": 191}, {"name": "Beaters", "contribution": 103773730, "memberCount": 195}, {"name": "Downtime", "contribution": 89151649, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 200345126, "memberCount": 196}, {"name": "Smile", "contribution": 172808199, "memberCount": 200}, {"name": "Elite", "contribution": 164434240, "memberCount": 200}, {"name": "Savages", "contribution": 154161080, "memberCount": 198}, {"name": "Spring", "contribution": 134522941, "memberCount": 194}, {"name": "Bounce", "contribution": 129739707, "memberCount": 198}, {"name": "Sunset", "contribution": 123507851, "memberCount": 191}, {"name": "Beaters", "contribution": 103773730, "memberCount": 195}, {"name": "Downtime", "contribution": 89151649, "memberCount": 199}]}</v>
+      </c>
+      <c r="GJ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GJ2)&amp;", ""month"": "&amp;MONTH(GJ2)&amp;", ""day"": "&amp;DAY(GJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GJ3&amp;", ""memberCount"": "&amp;GJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GJ5&amp;", ""memberCount"": "&amp;GJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GJ7&amp;", ""memberCount"": "&amp;GJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GJ9&amp;", ""memberCount"": "&amp;GJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GJ11&amp;", ""memberCount"": "&amp;GJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GJ13&amp;", ""memberCount"": "&amp;GJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GJ15&amp;", ""memberCount"": "&amp;GJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GJ17&amp;", ""memberCount"": "&amp;GJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GJ19&amp;", ""memberCount"": "&amp;GJ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 200490523, "memberCount": 196}, {"name": "Smile", "contribution": 173050244, "memberCount": 200}, {"name": "Elite", "contribution": 164636603, "memberCount": 200}, {"name": "Savages", "contribution": 154372851, "memberCount": 198}, {"name": "Spring", "contribution": 134692934, "memberCount": 194}, {"name": "Bounce", "contribution": 130082852, "memberCount": 198}, {"name": "Sunset", "contribution": 123688837, "memberCount": 191}, {"name": "Beaters", "contribution": 103928182, "memberCount": 195}, {"name": "Downtime", "contribution": 89279783, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="GH1" activeCellId="0" sqref="GH1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GJ23" activeCellId="0" sqref="GJ23"/>
+      <selection pane="bottomRight" activeCell="GK23" activeCellId="0" sqref="GK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1898,7 +1898,9 @@
       <c r="GJ3" s="7" t="n">
         <v>200490523</v>
       </c>
-      <c r="GK3" s="7"/>
+      <c r="GK3" s="7" t="n">
+        <v>200740739</v>
+      </c>
       <c r="GL3" s="7"/>
       <c r="GM3" s="7"/>
       <c r="GN3" s="7"/>
@@ -2501,7 +2503,9 @@
       <c r="GJ4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="GK4" s="11"/>
+      <c r="GK4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GL4" s="11"/>
       <c r="GM4" s="11"/>
       <c r="GN4" s="11"/>
@@ -3106,7 +3110,9 @@
       <c r="GJ5" s="17" t="n">
         <v>173050244</v>
       </c>
-      <c r="GK5" s="17"/>
+      <c r="GK5" s="17" t="n">
+        <v>173244837</v>
+      </c>
       <c r="GL5" s="17"/>
       <c r="GM5" s="17"/>
       <c r="GN5" s="17"/>
@@ -3709,7 +3715,9 @@
       <c r="GJ6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GK6" s="20"/>
+      <c r="GK6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GL6" s="20"/>
       <c r="GM6" s="20"/>
       <c r="GN6" s="20"/>
@@ -4314,7 +4322,9 @@
       <c r="GJ7" s="24" t="n">
         <v>164636603</v>
       </c>
-      <c r="GK7" s="24"/>
+      <c r="GK7" s="24" t="n">
+        <v>164819711</v>
+      </c>
       <c r="GL7" s="24"/>
       <c r="GM7" s="24"/>
       <c r="GN7" s="24"/>
@@ -4917,7 +4927,9 @@
       <c r="GJ8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GK8" s="27"/>
+      <c r="GK8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GL8" s="27"/>
       <c r="GM8" s="27"/>
       <c r="GN8" s="27"/>
@@ -5522,7 +5534,9 @@
       <c r="GJ9" s="31" t="n">
         <v>154372851</v>
       </c>
-      <c r="GK9" s="31"/>
+      <c r="GK9" s="31" t="n">
+        <v>154545977</v>
+      </c>
       <c r="GL9" s="31"/>
       <c r="GM9" s="31"/>
       <c r="GN9" s="31"/>
@@ -6125,7 +6139,9 @@
       <c r="GJ10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GK10" s="34"/>
+      <c r="GK10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GL10" s="34"/>
       <c r="GM10" s="34"/>
       <c r="GN10" s="34"/>
@@ -6730,7 +6746,9 @@
       <c r="GJ11" s="38" t="n">
         <v>134692934</v>
       </c>
-      <c r="GK11" s="38"/>
+      <c r="GK11" s="38" t="n">
+        <v>134756388</v>
+      </c>
       <c r="GL11" s="38"/>
       <c r="GM11" s="38"/>
       <c r="GN11" s="38"/>
@@ -7333,7 +7351,9 @@
       <c r="GJ12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="GK12" s="41"/>
+      <c r="GK12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="GL12" s="41"/>
       <c r="GM12" s="41"/>
       <c r="GN12" s="41"/>
@@ -7938,7 +7958,9 @@
       <c r="GJ13" s="45" t="n">
         <v>130082852</v>
       </c>
-      <c r="GK13" s="45"/>
+      <c r="GK13" s="45" t="n">
+        <v>130417073</v>
+      </c>
       <c r="GL13" s="45"/>
       <c r="GM13" s="45"/>
       <c r="GN13" s="45"/>
@@ -8541,7 +8563,9 @@
       <c r="GJ14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GK14" s="48"/>
+      <c r="GK14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GL14" s="48"/>
       <c r="GM14" s="48"/>
       <c r="GN14" s="48"/>
@@ -9146,7 +9170,9 @@
       <c r="GJ15" s="52" t="n">
         <v>123688837</v>
       </c>
-      <c r="GK15" s="52"/>
+      <c r="GK15" s="52" t="n">
+        <v>123790695</v>
+      </c>
       <c r="GL15" s="52"/>
       <c r="GM15" s="52"/>
       <c r="GN15" s="52"/>
@@ -9749,7 +9775,9 @@
       <c r="GJ16" s="55" t="n">
         <v>191</v>
       </c>
-      <c r="GK16" s="55"/>
+      <c r="GK16" s="55" t="n">
+        <v>192</v>
+      </c>
       <c r="GL16" s="55"/>
       <c r="GM16" s="55"/>
       <c r="GN16" s="55"/>
@@ -10354,7 +10382,9 @@
       <c r="GJ17" s="59" t="n">
         <v>103928182</v>
       </c>
-      <c r="GK17" s="59"/>
+      <c r="GK17" s="59" t="n">
+        <v>103967475</v>
+      </c>
       <c r="GL17" s="59"/>
       <c r="GM17" s="59"/>
       <c r="GN17" s="59"/>
@@ -10957,7 +10987,9 @@
       <c r="GJ18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GK18" s="62"/>
+      <c r="GK18" s="62" t="n">
+        <v>196</v>
+      </c>
       <c r="GL18" s="62"/>
       <c r="GM18" s="62"/>
       <c r="GN18" s="62"/>
@@ -11562,7 +11594,9 @@
       <c r="GJ19" s="66" t="n">
         <v>89279783</v>
       </c>
-      <c r="GK19" s="66"/>
+      <c r="GK19" s="66" t="n">
+        <v>89430946</v>
+      </c>
       <c r="GL19" s="66"/>
       <c r="GM19" s="66"/>
       <c r="GN19" s="66"/>
@@ -12165,7 +12199,9 @@
       <c r="GJ20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="GK20" s="69"/>
+      <c r="GK20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="GL20" s="69"/>
       <c r="GM20" s="69"/>
       <c r="GN20" s="69"/>
@@ -12955,7 +12991,11 @@
       </c>
       <c r="GJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GJ2)&amp;", ""month"": "&amp;MONTH(GJ2)&amp;", ""day"": "&amp;DAY(GJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GJ3&amp;", ""memberCount"": "&amp;GJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GJ5&amp;", ""memberCount"": "&amp;GJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GJ7&amp;", ""memberCount"": "&amp;GJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GJ9&amp;", ""memberCount"": "&amp;GJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GJ11&amp;", ""memberCount"": "&amp;GJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GJ13&amp;", ""memberCount"": "&amp;GJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GJ15&amp;", ""memberCount"": "&amp;GJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GJ17&amp;", ""memberCount"": "&amp;GJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GJ19&amp;", ""memberCount"": "&amp;GJ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 200490523, "memberCount": 196}, {"name": "Smile", "contribution": 173050244, "memberCount": 200}, {"name": "Elite", "contribution": 164636603, "memberCount": 200}, {"name": "Savages", "contribution": 154372851, "memberCount": 198}, {"name": "Spring", "contribution": 134692934, "memberCount": 194}, {"name": "Bounce", "contribution": 130082852, "memberCount": 198}, {"name": "Sunset", "contribution": 123688837, "memberCount": 191}, {"name": "Beaters", "contribution": 103928182, "memberCount": 195}, {"name": "Downtime", "contribution": 89279783, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 200490523, "memberCount": 196}, {"name": "Smile", "contribution": 173050244, "memberCount": 200}, {"name": "Elite", "contribution": 164636603, "memberCount": 200}, {"name": "Savages", "contribution": 154372851, "memberCount": 198}, {"name": "Spring", "contribution": 134692934, "memberCount": 194}, {"name": "Bounce", "contribution": 130082852, "memberCount": 198}, {"name": "Sunset", "contribution": 123688837, "memberCount": 191}, {"name": "Beaters", "contribution": 103928182, "memberCount": 195}, {"name": "Downtime", "contribution": 89279783, "memberCount": 199}]}</v>
+      </c>
+      <c r="GK23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GK2)&amp;", ""month"": "&amp;MONTH(GK2)&amp;", ""day"": "&amp;DAY(GK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GK3&amp;", ""memberCount"": "&amp;GK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GK5&amp;", ""memberCount"": "&amp;GK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GK7&amp;", ""memberCount"": "&amp;GK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GK9&amp;", ""memberCount"": "&amp;GK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GK11&amp;", ""memberCount"": "&amp;GK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GK13&amp;", ""memberCount"": "&amp;GK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GK15&amp;", ""memberCount"": "&amp;GK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GK17&amp;", ""memberCount"": "&amp;GK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GK19&amp;", ""memberCount"": "&amp;GK20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 200740739, "memberCount": 198}, {"name": "Smile", "contribution": 173244837, "memberCount": 200}, {"name": "Elite", "contribution": 164819711, "memberCount": 200}, {"name": "Savages", "contribution": 154545977, "memberCount": 198}, {"name": "Spring", "contribution": 134756388, "memberCount": 194}, {"name": "Bounce", "contribution": 130417073, "memberCount": 199}, {"name": "Sunset", "contribution": 123790695, "memberCount": 192}, {"name": "Beaters", "contribution": 103967475, "memberCount": 196}, {"name": "Downtime", "contribution": 89430946, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GH1" activeCellId="0" sqref="GH1"/>
+      <selection pane="topRight" activeCell="GK1" activeCellId="0" sqref="GK1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GK23" activeCellId="0" sqref="GK23"/>
+      <selection pane="bottomRight" activeCell="GL23" activeCellId="0" sqref="GL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1901,7 +1901,9 @@
       <c r="GK3" s="7" t="n">
         <v>200740739</v>
       </c>
-      <c r="GL3" s="7"/>
+      <c r="GL3" s="7" t="n">
+        <v>200950217</v>
+      </c>
       <c r="GM3" s="7"/>
       <c r="GN3" s="7"/>
       <c r="GO3" s="7"/>
@@ -2506,7 +2508,9 @@
       <c r="GK4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GL4" s="11"/>
+      <c r="GL4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GM4" s="11"/>
       <c r="GN4" s="11"/>
       <c r="GO4" s="11"/>
@@ -3113,7 +3117,9 @@
       <c r="GK5" s="17" t="n">
         <v>173244837</v>
       </c>
-      <c r="GL5" s="17"/>
+      <c r="GL5" s="17" t="n">
+        <v>173534311</v>
+      </c>
       <c r="GM5" s="17"/>
       <c r="GN5" s="17"/>
       <c r="GO5" s="17"/>
@@ -3718,7 +3724,9 @@
       <c r="GK6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GL6" s="20"/>
+      <c r="GL6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GM6" s="20"/>
       <c r="GN6" s="20"/>
       <c r="GO6" s="20"/>
@@ -4325,7 +4333,9 @@
       <c r="GK7" s="24" t="n">
         <v>164819711</v>
       </c>
-      <c r="GL7" s="24"/>
+      <c r="GL7" s="24" t="n">
+        <v>164998547</v>
+      </c>
       <c r="GM7" s="24"/>
       <c r="GN7" s="24"/>
       <c r="GO7" s="24"/>
@@ -4930,7 +4940,9 @@
       <c r="GK8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GL8" s="27"/>
+      <c r="GL8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GM8" s="27"/>
       <c r="GN8" s="27"/>
       <c r="GO8" s="27"/>
@@ -5537,7 +5549,9 @@
       <c r="GK9" s="31" t="n">
         <v>154545977</v>
       </c>
-      <c r="GL9" s="31"/>
+      <c r="GL9" s="31" t="n">
+        <v>154708646</v>
+      </c>
       <c r="GM9" s="31"/>
       <c r="GN9" s="31"/>
       <c r="GO9" s="31"/>
@@ -6142,7 +6156,9 @@
       <c r="GK10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GL10" s="34"/>
+      <c r="GL10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GM10" s="34"/>
       <c r="GN10" s="34"/>
       <c r="GO10" s="34"/>
@@ -6749,7 +6765,9 @@
       <c r="GK11" s="38" t="n">
         <v>134756388</v>
       </c>
-      <c r="GL11" s="38"/>
+      <c r="GL11" s="38" t="n">
+        <v>134847476</v>
+      </c>
       <c r="GM11" s="38"/>
       <c r="GN11" s="38"/>
       <c r="GO11" s="38"/>
@@ -7354,7 +7372,9 @@
       <c r="GK12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="GL12" s="41"/>
+      <c r="GL12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="GM12" s="41"/>
       <c r="GN12" s="41"/>
       <c r="GO12" s="41"/>
@@ -7961,7 +7981,9 @@
       <c r="GK13" s="45" t="n">
         <v>130417073</v>
       </c>
-      <c r="GL13" s="45"/>
+      <c r="GL13" s="45" t="n">
+        <v>130757940</v>
+      </c>
       <c r="GM13" s="45"/>
       <c r="GN13" s="45"/>
       <c r="GO13" s="45"/>
@@ -8566,7 +8588,9 @@
       <c r="GK14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GL14" s="48"/>
+      <c r="GL14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GM14" s="48"/>
       <c r="GN14" s="48"/>
       <c r="GO14" s="48"/>
@@ -9173,7 +9197,9 @@
       <c r="GK15" s="52" t="n">
         <v>123790695</v>
       </c>
-      <c r="GL15" s="52"/>
+      <c r="GL15" s="52" t="n">
+        <v>123916946</v>
+      </c>
       <c r="GM15" s="52"/>
       <c r="GN15" s="52"/>
       <c r="GO15" s="52"/>
@@ -9778,7 +9804,9 @@
       <c r="GK16" s="55" t="n">
         <v>192</v>
       </c>
-      <c r="GL16" s="55"/>
+      <c r="GL16" s="55" t="n">
+        <v>192</v>
+      </c>
       <c r="GM16" s="55"/>
       <c r="GN16" s="55"/>
       <c r="GO16" s="55"/>
@@ -10385,7 +10413,9 @@
       <c r="GK17" s="59" t="n">
         <v>103967475</v>
       </c>
-      <c r="GL17" s="59"/>
+      <c r="GL17" s="59" t="n">
+        <v>104057089</v>
+      </c>
       <c r="GM17" s="59"/>
       <c r="GN17" s="59"/>
       <c r="GO17" s="59"/>
@@ -10990,7 +11020,9 @@
       <c r="GK18" s="62" t="n">
         <v>196</v>
       </c>
-      <c r="GL18" s="62"/>
+      <c r="GL18" s="62" t="n">
+        <v>196</v>
+      </c>
       <c r="GM18" s="62"/>
       <c r="GN18" s="62"/>
       <c r="GO18" s="62"/>
@@ -11597,7 +11629,9 @@
       <c r="GK19" s="66" t="n">
         <v>89430946</v>
       </c>
-      <c r="GL19" s="66"/>
+      <c r="GL19" s="66" t="n">
+        <v>88977002</v>
+      </c>
       <c r="GM19" s="66"/>
       <c r="GN19" s="66"/>
       <c r="GO19" s="66"/>
@@ -12202,7 +12236,9 @@
       <c r="GK20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="GL20" s="69"/>
+      <c r="GL20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="GM20" s="69"/>
       <c r="GN20" s="69"/>
       <c r="GO20" s="69"/>
@@ -12995,7 +13031,11 @@
       </c>
       <c r="GK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GK2)&amp;", ""month"": "&amp;MONTH(GK2)&amp;", ""day"": "&amp;DAY(GK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GK3&amp;", ""memberCount"": "&amp;GK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GK5&amp;", ""memberCount"": "&amp;GK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GK7&amp;", ""memberCount"": "&amp;GK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GK9&amp;", ""memberCount"": "&amp;GK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GK11&amp;", ""memberCount"": "&amp;GK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GK13&amp;", ""memberCount"": "&amp;GK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GK15&amp;", ""memberCount"": "&amp;GK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GK17&amp;", ""memberCount"": "&amp;GK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GK19&amp;", ""memberCount"": "&amp;GK20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 200740739, "memberCount": 198}, {"name": "Smile", "contribution": 173244837, "memberCount": 200}, {"name": "Elite", "contribution": 164819711, "memberCount": 200}, {"name": "Savages", "contribution": 154545977, "memberCount": 198}, {"name": "Spring", "contribution": 134756388, "memberCount": 194}, {"name": "Bounce", "contribution": 130417073, "memberCount": 199}, {"name": "Sunset", "contribution": 123790695, "memberCount": 192}, {"name": "Beaters", "contribution": 103967475, "memberCount": 196}, {"name": "Downtime", "contribution": 89430946, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 200740739, "memberCount": 198}, {"name": "Smile", "contribution": 173244837, "memberCount": 200}, {"name": "Elite", "contribution": 164819711, "memberCount": 200}, {"name": "Savages", "contribution": 154545977, "memberCount": 198}, {"name": "Spring", "contribution": 134756388, "memberCount": 194}, {"name": "Bounce", "contribution": 130417073, "memberCount": 199}, {"name": "Sunset", "contribution": 123790695, "memberCount": 192}, {"name": "Beaters", "contribution": 103967475, "memberCount": 196}, {"name": "Downtime", "contribution": 89430946, "memberCount": 199}]}</v>
+      </c>
+      <c r="GL23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GL2)&amp;", ""month"": "&amp;MONTH(GL2)&amp;", ""day"": "&amp;DAY(GL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GL3&amp;", ""memberCount"": "&amp;GL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GL5&amp;", ""memberCount"": "&amp;GL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GL7&amp;", ""memberCount"": "&amp;GL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GL9&amp;", ""memberCount"": "&amp;GL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GL11&amp;", ""memberCount"": "&amp;GL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GL13&amp;", ""memberCount"": "&amp;GL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GL15&amp;", ""memberCount"": "&amp;GL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GL17&amp;", ""memberCount"": "&amp;GL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GL19&amp;", ""memberCount"": "&amp;GL20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 200950217, "memberCount": 198}, {"name": "Smile", "contribution": 173534311, "memberCount": 200}, {"name": "Elite", "contribution": 164998547, "memberCount": 200}, {"name": "Savages", "contribution": 154708646, "memberCount": 198}, {"name": "Spring", "contribution": 134847476, "memberCount": 194}, {"name": "Bounce", "contribution": 130757940, "memberCount": 199}, {"name": "Sunset", "contribution": 123916946, "memberCount": 192}, {"name": "Beaters", "contribution": 104057089, "memberCount": 196}, {"name": "Downtime", "contribution": 88977002, "memberCount": 195}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GK1" activeCellId="0" sqref="GK1"/>
+      <selection pane="topRight" activeCell="GL1" activeCellId="0" sqref="GL1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GL23" activeCellId="0" sqref="GL23"/>
+      <selection pane="bottomRight" activeCell="GM23" activeCellId="0" sqref="GM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1904,7 +1904,9 @@
       <c r="GL3" s="7" t="n">
         <v>200950217</v>
       </c>
-      <c r="GM3" s="7"/>
+      <c r="GM3" s="7" t="n">
+        <v>201139427</v>
+      </c>
       <c r="GN3" s="7"/>
       <c r="GO3" s="7"/>
       <c r="GP3" s="7"/>
@@ -2511,7 +2513,9 @@
       <c r="GL4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GM4" s="11"/>
+      <c r="GM4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GN4" s="11"/>
       <c r="GO4" s="11"/>
       <c r="GP4" s="11"/>
@@ -3120,7 +3124,9 @@
       <c r="GL5" s="17" t="n">
         <v>173534311</v>
       </c>
-      <c r="GM5" s="17"/>
+      <c r="GM5" s="17" t="n">
+        <v>173721369</v>
+      </c>
       <c r="GN5" s="17"/>
       <c r="GO5" s="17"/>
       <c r="GP5" s="17"/>
@@ -3727,7 +3733,9 @@
       <c r="GL6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GM6" s="20"/>
+      <c r="GM6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GN6" s="20"/>
       <c r="GO6" s="20"/>
       <c r="GP6" s="20"/>
@@ -4336,7 +4344,9 @@
       <c r="GL7" s="24" t="n">
         <v>164998547</v>
       </c>
-      <c r="GM7" s="24"/>
+      <c r="GM7" s="24" t="n">
+        <v>165143735</v>
+      </c>
       <c r="GN7" s="24"/>
       <c r="GO7" s="24"/>
       <c r="GP7" s="24"/>
@@ -4943,7 +4953,9 @@
       <c r="GL8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GM8" s="27"/>
+      <c r="GM8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GN8" s="27"/>
       <c r="GO8" s="27"/>
       <c r="GP8" s="27"/>
@@ -5552,7 +5564,9 @@
       <c r="GL9" s="31" t="n">
         <v>154708646</v>
       </c>
-      <c r="GM9" s="31"/>
+      <c r="GM9" s="31" t="n">
+        <v>154899020</v>
+      </c>
       <c r="GN9" s="31"/>
       <c r="GO9" s="31"/>
       <c r="GP9" s="31"/>
@@ -6159,7 +6173,9 @@
       <c r="GL10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GM10" s="34"/>
+      <c r="GM10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GN10" s="34"/>
       <c r="GO10" s="34"/>
       <c r="GP10" s="34"/>
@@ -6768,7 +6784,9 @@
       <c r="GL11" s="38" t="n">
         <v>134847476</v>
       </c>
-      <c r="GM11" s="38"/>
+      <c r="GM11" s="38" t="n">
+        <v>134962249</v>
+      </c>
       <c r="GN11" s="38"/>
       <c r="GO11" s="38"/>
       <c r="GP11" s="38"/>
@@ -7375,7 +7393,9 @@
       <c r="GL12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="GM12" s="41"/>
+      <c r="GM12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="GN12" s="41"/>
       <c r="GO12" s="41"/>
       <c r="GP12" s="41"/>
@@ -7984,7 +8004,9 @@
       <c r="GL13" s="45" t="n">
         <v>130757940</v>
       </c>
-      <c r="GM13" s="45"/>
+      <c r="GM13" s="45" t="n">
+        <v>130988051</v>
+      </c>
       <c r="GN13" s="45"/>
       <c r="GO13" s="45"/>
       <c r="GP13" s="45"/>
@@ -8591,7 +8613,9 @@
       <c r="GL14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GM14" s="48"/>
+      <c r="GM14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GN14" s="48"/>
       <c r="GO14" s="48"/>
       <c r="GP14" s="48"/>
@@ -9200,7 +9224,9 @@
       <c r="GL15" s="52" t="n">
         <v>123916946</v>
       </c>
-      <c r="GM15" s="52"/>
+      <c r="GM15" s="52" t="n">
+        <v>124095789</v>
+      </c>
       <c r="GN15" s="52"/>
       <c r="GO15" s="52"/>
       <c r="GP15" s="52"/>
@@ -9807,7 +9833,9 @@
       <c r="GL16" s="55" t="n">
         <v>192</v>
       </c>
-      <c r="GM16" s="55"/>
+      <c r="GM16" s="55" t="n">
+        <v>193</v>
+      </c>
       <c r="GN16" s="55"/>
       <c r="GO16" s="55"/>
       <c r="GP16" s="55"/>
@@ -10416,7 +10444,9 @@
       <c r="GL17" s="59" t="n">
         <v>104057089</v>
       </c>
-      <c r="GM17" s="59"/>
+      <c r="GM17" s="59" t="n">
+        <v>103646922</v>
+      </c>
       <c r="GN17" s="59"/>
       <c r="GO17" s="59"/>
       <c r="GP17" s="59"/>
@@ -11023,7 +11053,9 @@
       <c r="GL18" s="62" t="n">
         <v>196</v>
       </c>
-      <c r="GM18" s="62"/>
+      <c r="GM18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GN18" s="62"/>
       <c r="GO18" s="62"/>
       <c r="GP18" s="62"/>
@@ -11632,7 +11664,9 @@
       <c r="GL19" s="66" t="n">
         <v>88977002</v>
       </c>
-      <c r="GM19" s="66"/>
+      <c r="GM19" s="66" t="n">
+        <v>89071323</v>
+      </c>
       <c r="GN19" s="66"/>
       <c r="GO19" s="66"/>
       <c r="GP19" s="66"/>
@@ -12239,7 +12273,9 @@
       <c r="GL20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="GM20" s="69"/>
+      <c r="GM20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="GN20" s="69"/>
       <c r="GO20" s="69"/>
       <c r="GP20" s="69"/>
@@ -13035,7 +13071,11 @@
       </c>
       <c r="GL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GL2)&amp;", ""month"": "&amp;MONTH(GL2)&amp;", ""day"": "&amp;DAY(GL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GL3&amp;", ""memberCount"": "&amp;GL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GL5&amp;", ""memberCount"": "&amp;GL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GL7&amp;", ""memberCount"": "&amp;GL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GL9&amp;", ""memberCount"": "&amp;GL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GL11&amp;", ""memberCount"": "&amp;GL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GL13&amp;", ""memberCount"": "&amp;GL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GL15&amp;", ""memberCount"": "&amp;GL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GL17&amp;", ""memberCount"": "&amp;GL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GL19&amp;", ""memberCount"": "&amp;GL20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 200950217, "memberCount": 198}, {"name": "Smile", "contribution": 173534311, "memberCount": 200}, {"name": "Elite", "contribution": 164998547, "memberCount": 200}, {"name": "Savages", "contribution": 154708646, "memberCount": 198}, {"name": "Spring", "contribution": 134847476, "memberCount": 194}, {"name": "Bounce", "contribution": 130757940, "memberCount": 199}, {"name": "Sunset", "contribution": 123916946, "memberCount": 192}, {"name": "Beaters", "contribution": 104057089, "memberCount": 196}, {"name": "Downtime", "contribution": 88977002, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 200950217, "memberCount": 198}, {"name": "Smile", "contribution": 173534311, "memberCount": 200}, {"name": "Elite", "contribution": 164998547, "memberCount": 200}, {"name": "Savages", "contribution": 154708646, "memberCount": 198}, {"name": "Spring", "contribution": 134847476, "memberCount": 194}, {"name": "Bounce", "contribution": 130757940, "memberCount": 199}, {"name": "Sunset", "contribution": 123916946, "memberCount": 192}, {"name": "Beaters", "contribution": 104057089, "memberCount": 196}, {"name": "Downtime", "contribution": 88977002, "memberCount": 195}]}</v>
+      </c>
+      <c r="GM23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GM2)&amp;", ""month"": "&amp;MONTH(GM2)&amp;", ""day"": "&amp;DAY(GM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GM3&amp;", ""memberCount"": "&amp;GM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GM5&amp;", ""memberCount"": "&amp;GM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GM7&amp;", ""memberCount"": "&amp;GM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GM9&amp;", ""memberCount"": "&amp;GM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GM11&amp;", ""memberCount"": "&amp;GM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GM13&amp;", ""memberCount"": "&amp;GM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GM15&amp;", ""memberCount"": "&amp;GM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GM17&amp;", ""memberCount"": "&amp;GM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GM19&amp;", ""memberCount"": "&amp;GM20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 201139427, "memberCount": 198}, {"name": "Smile", "contribution": 173721369, "memberCount": 200}, {"name": "Elite", "contribution": 165143735, "memberCount": 200}, {"name": "Savages", "contribution": 154899020, "memberCount": 198}, {"name": "Spring", "contribution": 134962249, "memberCount": 194}, {"name": "Bounce", "contribution": 130988051, "memberCount": 199}, {"name": "Sunset", "contribution": 124095789, "memberCount": 193}, {"name": "Beaters", "contribution": 103646922, "memberCount": 195}, {"name": "Downtime", "contribution": 89071323, "memberCount": 195}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GL1" activeCellId="0" sqref="GL1"/>
+      <selection pane="topRight" activeCell="GM1" activeCellId="0" sqref="GM1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GM23" activeCellId="0" sqref="GM23"/>
+      <selection pane="bottomRight" activeCell="GN23" activeCellId="0" sqref="GN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1907,7 +1907,9 @@
       <c r="GM3" s="7" t="n">
         <v>201139427</v>
       </c>
-      <c r="GN3" s="7"/>
+      <c r="GN3" s="7" t="n">
+        <v>201387539</v>
+      </c>
       <c r="GO3" s="7"/>
       <c r="GP3" s="7"/>
       <c r="GQ3" s="7"/>
@@ -2516,7 +2518,9 @@
       <c r="GM4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GN4" s="11"/>
+      <c r="GN4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GO4" s="11"/>
       <c r="GP4" s="11"/>
       <c r="GQ4" s="11"/>
@@ -3127,7 +3131,9 @@
       <c r="GM5" s="17" t="n">
         <v>173721369</v>
       </c>
-      <c r="GN5" s="17"/>
+      <c r="GN5" s="17" t="n">
+        <v>173997757</v>
+      </c>
       <c r="GO5" s="17"/>
       <c r="GP5" s="17"/>
       <c r="GQ5" s="17"/>
@@ -3736,7 +3742,9 @@
       <c r="GM6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GN6" s="20"/>
+      <c r="GN6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GO6" s="20"/>
       <c r="GP6" s="20"/>
       <c r="GQ6" s="20"/>
@@ -4347,7 +4355,9 @@
       <c r="GM7" s="24" t="n">
         <v>165143735</v>
       </c>
-      <c r="GN7" s="24"/>
+      <c r="GN7" s="24" t="n">
+        <v>165363223</v>
+      </c>
       <c r="GO7" s="24"/>
       <c r="GP7" s="24"/>
       <c r="GQ7" s="24"/>
@@ -4956,7 +4966,9 @@
       <c r="GM8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GN8" s="27"/>
+      <c r="GN8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GO8" s="27"/>
       <c r="GP8" s="27"/>
       <c r="GQ8" s="27"/>
@@ -5567,7 +5579,9 @@
       <c r="GM9" s="31" t="n">
         <v>154899020</v>
       </c>
-      <c r="GN9" s="31"/>
+      <c r="GN9" s="31" t="n">
+        <v>155115084</v>
+      </c>
       <c r="GO9" s="31"/>
       <c r="GP9" s="31"/>
       <c r="GQ9" s="31"/>
@@ -6176,7 +6190,9 @@
       <c r="GM10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GN10" s="34"/>
+      <c r="GN10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GO10" s="34"/>
       <c r="GP10" s="34"/>
       <c r="GQ10" s="34"/>
@@ -6787,7 +6803,9 @@
       <c r="GM11" s="38" t="n">
         <v>134962249</v>
       </c>
-      <c r="GN11" s="38"/>
+      <c r="GN11" s="38" t="n">
+        <v>135065420</v>
+      </c>
       <c r="GO11" s="38"/>
       <c r="GP11" s="38"/>
       <c r="GQ11" s="38"/>
@@ -7396,7 +7414,9 @@
       <c r="GM12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="GN12" s="41"/>
+      <c r="GN12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="GO12" s="41"/>
       <c r="GP12" s="41"/>
       <c r="GQ12" s="41"/>
@@ -8007,7 +8027,9 @@
       <c r="GM13" s="45" t="n">
         <v>130988051</v>
       </c>
-      <c r="GN13" s="45"/>
+      <c r="GN13" s="45" t="n">
+        <v>131090395</v>
+      </c>
       <c r="GO13" s="45"/>
       <c r="GP13" s="45"/>
       <c r="GQ13" s="45"/>
@@ -8616,7 +8638,9 @@
       <c r="GM14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GN14" s="48"/>
+      <c r="GN14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GO14" s="48"/>
       <c r="GP14" s="48"/>
       <c r="GQ14" s="48"/>
@@ -9227,7 +9251,9 @@
       <c r="GM15" s="52" t="n">
         <v>124095789</v>
       </c>
-      <c r="GN15" s="52"/>
+      <c r="GN15" s="52" t="n">
+        <v>124234698</v>
+      </c>
       <c r="GO15" s="52"/>
       <c r="GP15" s="52"/>
       <c r="GQ15" s="52"/>
@@ -9836,7 +9862,9 @@
       <c r="GM16" s="55" t="n">
         <v>193</v>
       </c>
-      <c r="GN16" s="55"/>
+      <c r="GN16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="GO16" s="55"/>
       <c r="GP16" s="55"/>
       <c r="GQ16" s="55"/>
@@ -10447,7 +10475,9 @@
       <c r="GM17" s="59" t="n">
         <v>103646922</v>
       </c>
-      <c r="GN17" s="59"/>
+      <c r="GN17" s="59" t="n">
+        <v>103150712</v>
+      </c>
       <c r="GO17" s="59"/>
       <c r="GP17" s="59"/>
       <c r="GQ17" s="59"/>
@@ -11056,7 +11086,9 @@
       <c r="GM18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GN18" s="62"/>
+      <c r="GN18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GO18" s="62"/>
       <c r="GP18" s="62"/>
       <c r="GQ18" s="62"/>
@@ -11667,7 +11699,9 @@
       <c r="GM19" s="66" t="n">
         <v>89071323</v>
       </c>
-      <c r="GN19" s="66"/>
+      <c r="GN19" s="66" t="n">
+        <v>89150186</v>
+      </c>
       <c r="GO19" s="66"/>
       <c r="GP19" s="66"/>
       <c r="GQ19" s="66"/>
@@ -12276,7 +12310,9 @@
       <c r="GM20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="GN20" s="69"/>
+      <c r="GN20" s="69" t="n">
+        <v>194</v>
+      </c>
       <c r="GO20" s="69"/>
       <c r="GP20" s="69"/>
       <c r="GQ20" s="69"/>
@@ -13075,7 +13111,11 @@
       </c>
       <c r="GM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GM2)&amp;", ""month"": "&amp;MONTH(GM2)&amp;", ""day"": "&amp;DAY(GM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GM3&amp;", ""memberCount"": "&amp;GM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GM5&amp;", ""memberCount"": "&amp;GM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GM7&amp;", ""memberCount"": "&amp;GM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GM9&amp;", ""memberCount"": "&amp;GM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GM11&amp;", ""memberCount"": "&amp;GM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GM13&amp;", ""memberCount"": "&amp;GM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GM15&amp;", ""memberCount"": "&amp;GM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GM17&amp;", ""memberCount"": "&amp;GM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GM19&amp;", ""memberCount"": "&amp;GM20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 201139427, "memberCount": 198}, {"name": "Smile", "contribution": 173721369, "memberCount": 200}, {"name": "Elite", "contribution": 165143735, "memberCount": 200}, {"name": "Savages", "contribution": 154899020, "memberCount": 198}, {"name": "Spring", "contribution": 134962249, "memberCount": 194}, {"name": "Bounce", "contribution": 130988051, "memberCount": 199}, {"name": "Sunset", "contribution": 124095789, "memberCount": 193}, {"name": "Beaters", "contribution": 103646922, "memberCount": 195}, {"name": "Downtime", "contribution": 89071323, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 201139427, "memberCount": 198}, {"name": "Smile", "contribution": 173721369, "memberCount": 200}, {"name": "Elite", "contribution": 165143735, "memberCount": 200}, {"name": "Savages", "contribution": 154899020, "memberCount": 198}, {"name": "Spring", "contribution": 134962249, "memberCount": 194}, {"name": "Bounce", "contribution": 130988051, "memberCount": 199}, {"name": "Sunset", "contribution": 124095789, "memberCount": 193}, {"name": "Beaters", "contribution": 103646922, "memberCount": 195}, {"name": "Downtime", "contribution": 89071323, "memberCount": 195}]}</v>
+      </c>
+      <c r="GN23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GN2)&amp;", ""month"": "&amp;MONTH(GN2)&amp;", ""day"": "&amp;DAY(GN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GN3&amp;", ""memberCount"": "&amp;GN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GN5&amp;", ""memberCount"": "&amp;GN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GN7&amp;", ""memberCount"": "&amp;GN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GN9&amp;", ""memberCount"": "&amp;GN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GN11&amp;", ""memberCount"": "&amp;GN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GN13&amp;", ""memberCount"": "&amp;GN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GN15&amp;", ""memberCount"": "&amp;GN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GN17&amp;", ""memberCount"": "&amp;GN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GN19&amp;", ""memberCount"": "&amp;GN20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 201387539, "memberCount": 198}, {"name": "Smile", "contribution": 173997757, "memberCount": 200}, {"name": "Elite", "contribution": 165363223, "memberCount": 200}, {"name": "Savages", "contribution": 155115084, "memberCount": 198}, {"name": "Spring", "contribution": 135065420, "memberCount": 195}, {"name": "Bounce", "contribution": 131090395, "memberCount": 198}, {"name": "Sunset", "contribution": 124234698, "memberCount": 194}, {"name": "Beaters", "contribution": 103150712, "memberCount": 195}, {"name": "Downtime", "contribution": 89150186, "memberCount": 194}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GM1" activeCellId="0" sqref="GM1"/>
+      <selection pane="topRight" activeCell="GN1" activeCellId="0" sqref="GN1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GN23" activeCellId="0" sqref="GN23"/>
+      <selection pane="bottomRight" activeCell="GO21" activeCellId="0" sqref="GO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1910,7 +1910,9 @@
       <c r="GN3" s="7" t="n">
         <v>201387539</v>
       </c>
-      <c r="GO3" s="7"/>
+      <c r="GO3" s="7" t="n">
+        <v>201620322</v>
+      </c>
       <c r="GP3" s="7"/>
       <c r="GQ3" s="7"/>
       <c r="GR3" s="7"/>
@@ -2521,7 +2523,9 @@
       <c r="GN4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GO4" s="11"/>
+      <c r="GO4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GP4" s="11"/>
       <c r="GQ4" s="11"/>
       <c r="GR4" s="11"/>
@@ -3134,7 +3138,9 @@
       <c r="GN5" s="17" t="n">
         <v>173997757</v>
       </c>
-      <c r="GO5" s="17"/>
+      <c r="GO5" s="17" t="n">
+        <v>174225674</v>
+      </c>
       <c r="GP5" s="17"/>
       <c r="GQ5" s="17"/>
       <c r="GR5" s="17"/>
@@ -3745,7 +3751,9 @@
       <c r="GN6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GO6" s="20"/>
+      <c r="GO6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GP6" s="20"/>
       <c r="GQ6" s="20"/>
       <c r="GR6" s="20"/>
@@ -4358,7 +4366,9 @@
       <c r="GN7" s="24" t="n">
         <v>165363223</v>
       </c>
-      <c r="GO7" s="24"/>
+      <c r="GO7" s="24" t="n">
+        <v>165526195</v>
+      </c>
       <c r="GP7" s="24"/>
       <c r="GQ7" s="24"/>
       <c r="GR7" s="24"/>
@@ -4969,7 +4979,9 @@
       <c r="GN8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GO8" s="27"/>
+      <c r="GO8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GP8" s="27"/>
       <c r="GQ8" s="27"/>
       <c r="GR8" s="27"/>
@@ -5582,7 +5594,9 @@
       <c r="GN9" s="31" t="n">
         <v>155115084</v>
       </c>
-      <c r="GO9" s="31"/>
+      <c r="GO9" s="31" t="n">
+        <v>155302164</v>
+      </c>
       <c r="GP9" s="31"/>
       <c r="GQ9" s="31"/>
       <c r="GR9" s="31"/>
@@ -6193,7 +6207,9 @@
       <c r="GN10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GO10" s="34"/>
+      <c r="GO10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GP10" s="34"/>
       <c r="GQ10" s="34"/>
       <c r="GR10" s="34"/>
@@ -6806,7 +6822,9 @@
       <c r="GN11" s="38" t="n">
         <v>135065420</v>
       </c>
-      <c r="GO11" s="38"/>
+      <c r="GO11" s="38" t="n">
+        <v>135198130</v>
+      </c>
       <c r="GP11" s="38"/>
       <c r="GQ11" s="38"/>
       <c r="GR11" s="38"/>
@@ -7417,7 +7435,9 @@
       <c r="GN12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="GO12" s="41"/>
+      <c r="GO12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="GP12" s="41"/>
       <c r="GQ12" s="41"/>
       <c r="GR12" s="41"/>
@@ -8030,7 +8050,9 @@
       <c r="GN13" s="45" t="n">
         <v>131090395</v>
       </c>
-      <c r="GO13" s="45"/>
+      <c r="GO13" s="45" t="n">
+        <v>131390472</v>
+      </c>
       <c r="GP13" s="45"/>
       <c r="GQ13" s="45"/>
       <c r="GR13" s="45"/>
@@ -8641,7 +8663,9 @@
       <c r="GN14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GO14" s="48"/>
+      <c r="GO14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GP14" s="48"/>
       <c r="GQ14" s="48"/>
       <c r="GR14" s="48"/>
@@ -9254,7 +9278,9 @@
       <c r="GN15" s="52" t="n">
         <v>124234698</v>
       </c>
-      <c r="GO15" s="52"/>
+      <c r="GO15" s="52" t="n">
+        <v>124366897</v>
+      </c>
       <c r="GP15" s="52"/>
       <c r="GQ15" s="52"/>
       <c r="GR15" s="52"/>
@@ -9865,7 +9891,9 @@
       <c r="GN16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="GO16" s="55"/>
+      <c r="GO16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="GP16" s="55"/>
       <c r="GQ16" s="55"/>
       <c r="GR16" s="55"/>
@@ -10478,7 +10506,9 @@
       <c r="GN17" s="59" t="n">
         <v>103150712</v>
       </c>
-      <c r="GO17" s="59"/>
+      <c r="GO17" s="59" t="n">
+        <v>103270067</v>
+      </c>
       <c r="GP17" s="59"/>
       <c r="GQ17" s="59"/>
       <c r="GR17" s="59"/>
@@ -11089,7 +11119,9 @@
       <c r="GN18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GO18" s="62"/>
+      <c r="GO18" s="62" t="n">
+        <v>197</v>
+      </c>
       <c r="GP18" s="62"/>
       <c r="GQ18" s="62"/>
       <c r="GR18" s="62"/>
@@ -11702,7 +11734,9 @@
       <c r="GN19" s="66" t="n">
         <v>89150186</v>
       </c>
-      <c r="GO19" s="66"/>
+      <c r="GO19" s="66" t="n">
+        <v>89213443</v>
+      </c>
       <c r="GP19" s="66"/>
       <c r="GQ19" s="66"/>
       <c r="GR19" s="66"/>
@@ -12313,7 +12347,9 @@
       <c r="GN20" s="69" t="n">
         <v>194</v>
       </c>
-      <c r="GO20" s="69"/>
+      <c r="GO20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="GP20" s="69"/>
       <c r="GQ20" s="69"/>
       <c r="GR20" s="69"/>
@@ -13115,7 +13151,7 @@
       </c>
       <c r="GN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GN2)&amp;", ""month"": "&amp;MONTH(GN2)&amp;", ""day"": "&amp;DAY(GN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GN3&amp;", ""memberCount"": "&amp;GN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GN5&amp;", ""memberCount"": "&amp;GN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GN7&amp;", ""memberCount"": "&amp;GN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GN9&amp;", ""memberCount"": "&amp;GN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GN11&amp;", ""memberCount"": "&amp;GN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GN13&amp;", ""memberCount"": "&amp;GN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GN15&amp;", ""memberCount"": "&amp;GN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GN17&amp;", ""memberCount"": "&amp;GN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GN19&amp;", ""memberCount"": "&amp;GN20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 201387539, "memberCount": 198}, {"name": "Smile", "contribution": 173997757, "memberCount": 200}, {"name": "Elite", "contribution": 165363223, "memberCount": 200}, {"name": "Savages", "contribution": 155115084, "memberCount": 198}, {"name": "Spring", "contribution": 135065420, "memberCount": 195}, {"name": "Bounce", "contribution": 131090395, "memberCount": 198}, {"name": "Sunset", "contribution": 124234698, "memberCount": 194}, {"name": "Beaters", "contribution": 103150712, "memberCount": 195}, {"name": "Downtime", "contribution": 89150186, "memberCount": 194}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 201387539, "memberCount": 198}, {"name": "Smile", "contribution": 173997757, "memberCount": 200}, {"name": "Elite", "contribution": 165363223, "memberCount": 200}, {"name": "Savages", "contribution": 155115084, "memberCount": 198}, {"name": "Spring", "contribution": 135065420, "memberCount": 195}, {"name": "Bounce", "contribution": 131090395, "memberCount": 198}, {"name": "Sunset", "contribution": 124234698, "memberCount": 194}, {"name": "Beaters", "contribution": 103150712, "memberCount": 195}, {"name": "Downtime", "contribution": 89150186, "memberCount": 194}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="GN1" activeCellId="0" sqref="GN1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GO21" activeCellId="0" sqref="GO21"/>
+      <selection pane="bottomRight" activeCell="GO25" activeCellId="0" sqref="GO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13153,6 +13153,10 @@
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GN2)&amp;", ""month"": "&amp;MONTH(GN2)&amp;", ""day"": "&amp;DAY(GN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GN3&amp;", ""memberCount"": "&amp;GN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GN5&amp;", ""memberCount"": "&amp;GN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GN7&amp;", ""memberCount"": "&amp;GN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GN9&amp;", ""memberCount"": "&amp;GN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GN11&amp;", ""memberCount"": "&amp;GN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GN13&amp;", ""memberCount"": "&amp;GN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GN15&amp;", ""memberCount"": "&amp;GN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GN17&amp;", ""memberCount"": "&amp;GN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GN19&amp;", ""memberCount"": "&amp;GN20&amp;"}"&amp;"]}"</f>
         <v>, {"year": 2019, "month": 3, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 201387539, "memberCount": 198}, {"name": "Smile", "contribution": 173997757, "memberCount": 200}, {"name": "Elite", "contribution": 165363223, "memberCount": 200}, {"name": "Savages", "contribution": 155115084, "memberCount": 198}, {"name": "Spring", "contribution": 135065420, "memberCount": 195}, {"name": "Bounce", "contribution": 131090395, "memberCount": 198}, {"name": "Sunset", "contribution": 124234698, "memberCount": 194}, {"name": "Beaters", "contribution": 103150712, "memberCount": 195}, {"name": "Downtime", "contribution": 89150186, "memberCount": 194}]}</v>
       </c>
+      <c r="GO23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GO2)&amp;", ""month"": "&amp;MONTH(GO2)&amp;", ""day"": "&amp;DAY(GO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GO3&amp;", ""memberCount"": "&amp;GO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GO5&amp;", ""memberCount"": "&amp;GO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GO7&amp;", ""memberCount"": "&amp;GO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GO9&amp;", ""memberCount"": "&amp;GO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GO11&amp;", ""memberCount"": "&amp;GO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GO13&amp;", ""memberCount"": "&amp;GO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GO15&amp;", ""memberCount"": "&amp;GO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GO17&amp;", ""memberCount"": "&amp;GO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GO19&amp;", ""memberCount"": "&amp;GO20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 201620322, "memberCount": 198}, {"name": "Smile", "contribution": 174225674, "memberCount": 200}, {"name": "Elite", "contribution": 165526195, "memberCount": 200}, {"name": "Savages", "contribution": 155302164, "memberCount": 198}, {"name": "Spring", "contribution": 135198130, "memberCount": 195}, {"name": "Bounce", "contribution": 131390472, "memberCount": 198}, {"name": "Sunset", "contribution": 124366897, "memberCount": 194}, {"name": "Beaters", "contribution": 103270067, "memberCount": 197}, {"name": "Downtime", "contribution": 89213443, "memberCount": 195}]}</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GN1" activeCellId="0" sqref="GN1"/>
+      <selection pane="topRight" activeCell="GO1" activeCellId="0" sqref="GO1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GO25" activeCellId="0" sqref="GO25"/>
+      <selection pane="bottomRight" activeCell="GP23" activeCellId="0" sqref="GP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1913,7 +1913,9 @@
       <c r="GO3" s="7" t="n">
         <v>201620322</v>
       </c>
-      <c r="GP3" s="7"/>
+      <c r="GP3" s="7" t="n">
+        <v>201852095</v>
+      </c>
       <c r="GQ3" s="7"/>
       <c r="GR3" s="7"/>
       <c r="GS3" s="7"/>
@@ -2526,7 +2528,9 @@
       <c r="GO4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GP4" s="11"/>
+      <c r="GP4" s="11" t="n">
+        <v>200</v>
+      </c>
       <c r="GQ4" s="11"/>
       <c r="GR4" s="11"/>
       <c r="GS4" s="11"/>
@@ -3141,7 +3145,9 @@
       <c r="GO5" s="17" t="n">
         <v>174225674</v>
       </c>
-      <c r="GP5" s="17"/>
+      <c r="GP5" s="17" t="n">
+        <v>174420301</v>
+      </c>
       <c r="GQ5" s="17"/>
       <c r="GR5" s="17"/>
       <c r="GS5" s="17"/>
@@ -3754,7 +3760,9 @@
       <c r="GO6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GP6" s="20"/>
+      <c r="GP6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GQ6" s="20"/>
       <c r="GR6" s="20"/>
       <c r="GS6" s="20"/>
@@ -4369,7 +4377,9 @@
       <c r="GO7" s="24" t="n">
         <v>165526195</v>
       </c>
-      <c r="GP7" s="24"/>
+      <c r="GP7" s="24" t="n">
+        <v>165714443</v>
+      </c>
       <c r="GQ7" s="24"/>
       <c r="GR7" s="24"/>
       <c r="GS7" s="24"/>
@@ -4982,7 +4992,9 @@
       <c r="GO8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GP8" s="27"/>
+      <c r="GP8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GQ8" s="27"/>
       <c r="GR8" s="27"/>
       <c r="GS8" s="27"/>
@@ -5597,7 +5609,9 @@
       <c r="GO9" s="31" t="n">
         <v>155302164</v>
       </c>
-      <c r="GP9" s="31"/>
+      <c r="GP9" s="31" t="n">
+        <v>155543388</v>
+      </c>
       <c r="GQ9" s="31"/>
       <c r="GR9" s="31"/>
       <c r="GS9" s="31"/>
@@ -6210,7 +6224,9 @@
       <c r="GO10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GP10" s="34"/>
+      <c r="GP10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GQ10" s="34"/>
       <c r="GR10" s="34"/>
       <c r="GS10" s="34"/>
@@ -6825,7 +6841,9 @@
       <c r="GO11" s="38" t="n">
         <v>135198130</v>
       </c>
-      <c r="GP11" s="38"/>
+      <c r="GP11" s="38" t="n">
+        <v>135303682</v>
+      </c>
       <c r="GQ11" s="38"/>
       <c r="GR11" s="38"/>
       <c r="GS11" s="38"/>
@@ -7438,7 +7456,9 @@
       <c r="GO12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="GP12" s="41"/>
+      <c r="GP12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="GQ12" s="41"/>
       <c r="GR12" s="41"/>
       <c r="GS12" s="41"/>
@@ -8053,7 +8073,9 @@
       <c r="GO13" s="45" t="n">
         <v>131390472</v>
       </c>
-      <c r="GP13" s="45"/>
+      <c r="GP13" s="45" t="n">
+        <v>131591529</v>
+      </c>
       <c r="GQ13" s="45"/>
       <c r="GR13" s="45"/>
       <c r="GS13" s="45"/>
@@ -8666,7 +8688,9 @@
       <c r="GO14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GP14" s="48"/>
+      <c r="GP14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GQ14" s="48"/>
       <c r="GR14" s="48"/>
       <c r="GS14" s="48"/>
@@ -9281,7 +9305,9 @@
       <c r="GO15" s="52" t="n">
         <v>124366897</v>
       </c>
-      <c r="GP15" s="52"/>
+      <c r="GP15" s="52" t="n">
+        <v>124486457</v>
+      </c>
       <c r="GQ15" s="52"/>
       <c r="GR15" s="52"/>
       <c r="GS15" s="52"/>
@@ -9894,7 +9920,9 @@
       <c r="GO16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="GP16" s="55"/>
+      <c r="GP16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="GQ16" s="55"/>
       <c r="GR16" s="55"/>
       <c r="GS16" s="55"/>
@@ -10509,7 +10537,9 @@
       <c r="GO17" s="59" t="n">
         <v>103270067</v>
       </c>
-      <c r="GP17" s="59"/>
+      <c r="GP17" s="59" t="n">
+        <v>102479803</v>
+      </c>
       <c r="GQ17" s="59"/>
       <c r="GR17" s="59"/>
       <c r="GS17" s="59"/>
@@ -11122,7 +11152,9 @@
       <c r="GO18" s="62" t="n">
         <v>197</v>
       </c>
-      <c r="GP18" s="62"/>
+      <c r="GP18" s="62" t="n">
+        <v>196</v>
+      </c>
       <c r="GQ18" s="62"/>
       <c r="GR18" s="62"/>
       <c r="GS18" s="62"/>
@@ -11737,7 +11769,9 @@
       <c r="GO19" s="66" t="n">
         <v>89213443</v>
       </c>
-      <c r="GP19" s="66"/>
+      <c r="GP19" s="66" t="n">
+        <v>88981689</v>
+      </c>
       <c r="GQ19" s="66"/>
       <c r="GR19" s="66"/>
       <c r="GS19" s="66"/>
@@ -12350,7 +12384,9 @@
       <c r="GO20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="GP20" s="69"/>
+      <c r="GP20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="GQ20" s="69"/>
       <c r="GR20" s="69"/>
       <c r="GS20" s="69"/>
@@ -13155,7 +13191,11 @@
       </c>
       <c r="GO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GO2)&amp;", ""month"": "&amp;MONTH(GO2)&amp;", ""day"": "&amp;DAY(GO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GO3&amp;", ""memberCount"": "&amp;GO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GO5&amp;", ""memberCount"": "&amp;GO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GO7&amp;", ""memberCount"": "&amp;GO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GO9&amp;", ""memberCount"": "&amp;GO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GO11&amp;", ""memberCount"": "&amp;GO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GO13&amp;", ""memberCount"": "&amp;GO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GO15&amp;", ""memberCount"": "&amp;GO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GO17&amp;", ""memberCount"": "&amp;GO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GO19&amp;", ""memberCount"": "&amp;GO20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 201620322, "memberCount": 198}, {"name": "Smile", "contribution": 174225674, "memberCount": 200}, {"name": "Elite", "contribution": 165526195, "memberCount": 200}, {"name": "Savages", "contribution": 155302164, "memberCount": 198}, {"name": "Spring", "contribution": 135198130, "memberCount": 195}, {"name": "Bounce", "contribution": 131390472, "memberCount": 198}, {"name": "Sunset", "contribution": 124366897, "memberCount": 194}, {"name": "Beaters", "contribution": 103270067, "memberCount": 197}, {"name": "Downtime", "contribution": 89213443, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 201620322, "memberCount": 198}, {"name": "Smile", "contribution": 174225674, "memberCount": 200}, {"name": "Elite", "contribution": 165526195, "memberCount": 200}, {"name": "Savages", "contribution": 155302164, "memberCount": 198}, {"name": "Spring", "contribution": 135198130, "memberCount": 195}, {"name": "Bounce", "contribution": 131390472, "memberCount": 198}, {"name": "Sunset", "contribution": 124366897, "memberCount": 194}, {"name": "Beaters", "contribution": 103270067, "memberCount": 197}, {"name": "Downtime", "contribution": 89213443, "memberCount": 195}]}</v>
+      </c>
+      <c r="GP23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GP2)&amp;", ""month"": "&amp;MONTH(GP2)&amp;", ""day"": "&amp;DAY(GP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GP3&amp;", ""memberCount"": "&amp;GP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GP5&amp;", ""memberCount"": "&amp;GP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GP7&amp;", ""memberCount"": "&amp;GP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GP9&amp;", ""memberCount"": "&amp;GP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GP11&amp;", ""memberCount"": "&amp;GP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GP13&amp;", ""memberCount"": "&amp;GP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GP15&amp;", ""memberCount"": "&amp;GP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GP17&amp;", ""memberCount"": "&amp;GP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GP19&amp;", ""memberCount"": "&amp;GP20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 201852095, "memberCount": 200}, {"name": "Smile", "contribution": 174420301, "memberCount": 200}, {"name": "Elite", "contribution": 165714443, "memberCount": 200}, {"name": "Savages", "contribution": 155543388, "memberCount": 199}, {"name": "Spring", "contribution": 135303682, "memberCount": 195}, {"name": "Bounce", "contribution": 131591529, "memberCount": 198}, {"name": "Sunset", "contribution": 124486457, "memberCount": 194}, {"name": "Beaters", "contribution": 102479803, "memberCount": 196}, {"name": "Downtime", "contribution": 88981689, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="GO1" activeCellId="0" sqref="GO1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GP23" activeCellId="0" sqref="GP23"/>
+      <selection pane="bottomRight" activeCell="GQ23" activeCellId="0" sqref="GQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1916,7 +1916,9 @@
       <c r="GP3" s="7" t="n">
         <v>201852095</v>
       </c>
-      <c r="GQ3" s="7"/>
+      <c r="GQ3" s="7" t="n">
+        <v>201995251</v>
+      </c>
       <c r="GR3" s="7"/>
       <c r="GS3" s="7"/>
       <c r="GT3" s="7"/>
@@ -2531,7 +2533,9 @@
       <c r="GP4" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="GQ4" s="11"/>
+      <c r="GQ4" s="11" t="n">
+        <v>200</v>
+      </c>
       <c r="GR4" s="11"/>
       <c r="GS4" s="11"/>
       <c r="GT4" s="11"/>
@@ -3148,7 +3152,9 @@
       <c r="GP5" s="17" t="n">
         <v>174420301</v>
       </c>
-      <c r="GQ5" s="17"/>
+      <c r="GQ5" s="17" t="n">
+        <v>174650928</v>
+      </c>
       <c r="GR5" s="17"/>
       <c r="GS5" s="17"/>
       <c r="GT5" s="17"/>
@@ -3763,7 +3769,9 @@
       <c r="GP6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GQ6" s="20"/>
+      <c r="GQ6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="GR6" s="20"/>
       <c r="GS6" s="20"/>
       <c r="GT6" s="20"/>
@@ -4380,7 +4388,9 @@
       <c r="GP7" s="24" t="n">
         <v>165714443</v>
       </c>
-      <c r="GQ7" s="24"/>
+      <c r="GQ7" s="24" t="n">
+        <v>165945595</v>
+      </c>
       <c r="GR7" s="24"/>
       <c r="GS7" s="24"/>
       <c r="GT7" s="24"/>
@@ -4995,7 +5005,9 @@
       <c r="GP8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GQ8" s="27"/>
+      <c r="GQ8" s="27" t="n">
+        <v>200</v>
+      </c>
       <c r="GR8" s="27"/>
       <c r="GS8" s="27"/>
       <c r="GT8" s="27"/>
@@ -5612,7 +5624,9 @@
       <c r="GP9" s="31" t="n">
         <v>155543388</v>
       </c>
-      <c r="GQ9" s="31"/>
+      <c r="GQ9" s="31" t="n">
+        <v>155658724</v>
+      </c>
       <c r="GR9" s="31"/>
       <c r="GS9" s="31"/>
       <c r="GT9" s="31"/>
@@ -6227,7 +6241,9 @@
       <c r="GP10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GQ10" s="34"/>
+      <c r="GQ10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GR10" s="34"/>
       <c r="GS10" s="34"/>
       <c r="GT10" s="34"/>
@@ -6844,7 +6860,9 @@
       <c r="GP11" s="38" t="n">
         <v>135303682</v>
       </c>
-      <c r="GQ11" s="38"/>
+      <c r="GQ11" s="38" t="n">
+        <v>135423901</v>
+      </c>
       <c r="GR11" s="38"/>
       <c r="GS11" s="38"/>
       <c r="GT11" s="38"/>
@@ -7459,7 +7477,9 @@
       <c r="GP12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="GQ12" s="41"/>
+      <c r="GQ12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="GR12" s="41"/>
       <c r="GS12" s="41"/>
       <c r="GT12" s="41"/>
@@ -8076,7 +8096,9 @@
       <c r="GP13" s="45" t="n">
         <v>131591529</v>
       </c>
-      <c r="GQ13" s="45"/>
+      <c r="GQ13" s="45" t="n">
+        <v>131864492</v>
+      </c>
       <c r="GR13" s="45"/>
       <c r="GS13" s="45"/>
       <c r="GT13" s="45"/>
@@ -8691,7 +8713,9 @@
       <c r="GP14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GQ14" s="48"/>
+      <c r="GQ14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GR14" s="48"/>
       <c r="GS14" s="48"/>
       <c r="GT14" s="48"/>
@@ -9308,7 +9332,9 @@
       <c r="GP15" s="52" t="n">
         <v>124486457</v>
       </c>
-      <c r="GQ15" s="52"/>
+      <c r="GQ15" s="52" t="n">
+        <v>124602094</v>
+      </c>
       <c r="GR15" s="52"/>
       <c r="GS15" s="52"/>
       <c r="GT15" s="52"/>
@@ -9923,7 +9949,9 @@
       <c r="GP16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="GQ16" s="55"/>
+      <c r="GQ16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="GR16" s="55"/>
       <c r="GS16" s="55"/>
       <c r="GT16" s="55"/>
@@ -10540,7 +10568,9 @@
       <c r="GP17" s="59" t="n">
         <v>102479803</v>
       </c>
-      <c r="GQ17" s="59"/>
+      <c r="GQ17" s="59" t="n">
+        <v>102598398</v>
+      </c>
       <c r="GR17" s="59"/>
       <c r="GS17" s="59"/>
       <c r="GT17" s="59"/>
@@ -11155,7 +11185,9 @@
       <c r="GP18" s="62" t="n">
         <v>196</v>
       </c>
-      <c r="GQ18" s="62"/>
+      <c r="GQ18" s="62" t="n">
+        <v>196</v>
+      </c>
       <c r="GR18" s="62"/>
       <c r="GS18" s="62"/>
       <c r="GT18" s="62"/>
@@ -11772,7 +11804,9 @@
       <c r="GP19" s="66" t="n">
         <v>88981689</v>
       </c>
-      <c r="GQ19" s="66"/>
+      <c r="GQ19" s="66" t="n">
+        <v>89103436</v>
+      </c>
       <c r="GR19" s="66"/>
       <c r="GS19" s="66"/>
       <c r="GT19" s="66"/>
@@ -12387,7 +12421,9 @@
       <c r="GP20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="GQ20" s="69"/>
+      <c r="GQ20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="GR20" s="69"/>
       <c r="GS20" s="69"/>
       <c r="GT20" s="69"/>
@@ -13195,7 +13231,11 @@
       </c>
       <c r="GP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GP2)&amp;", ""month"": "&amp;MONTH(GP2)&amp;", ""day"": "&amp;DAY(GP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GP3&amp;", ""memberCount"": "&amp;GP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GP5&amp;", ""memberCount"": "&amp;GP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GP7&amp;", ""memberCount"": "&amp;GP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GP9&amp;", ""memberCount"": "&amp;GP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GP11&amp;", ""memberCount"": "&amp;GP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GP13&amp;", ""memberCount"": "&amp;GP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GP15&amp;", ""memberCount"": "&amp;GP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GP17&amp;", ""memberCount"": "&amp;GP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GP19&amp;", ""memberCount"": "&amp;GP20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 201852095, "memberCount": 200}, {"name": "Smile", "contribution": 174420301, "memberCount": 200}, {"name": "Elite", "contribution": 165714443, "memberCount": 200}, {"name": "Savages", "contribution": 155543388, "memberCount": 199}, {"name": "Spring", "contribution": 135303682, "memberCount": 195}, {"name": "Bounce", "contribution": 131591529, "memberCount": 198}, {"name": "Sunset", "contribution": 124486457, "memberCount": 194}, {"name": "Beaters", "contribution": 102479803, "memberCount": 196}, {"name": "Downtime", "contribution": 88981689, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 201852095, "memberCount": 200}, {"name": "Smile", "contribution": 174420301, "memberCount": 200}, {"name": "Elite", "contribution": 165714443, "memberCount": 200}, {"name": "Savages", "contribution": 155543388, "memberCount": 199}, {"name": "Spring", "contribution": 135303682, "memberCount": 195}, {"name": "Bounce", "contribution": 131591529, "memberCount": 198}, {"name": "Sunset", "contribution": 124486457, "memberCount": 194}, {"name": "Beaters", "contribution": 102479803, "memberCount": 196}, {"name": "Downtime", "contribution": 88981689, "memberCount": 196}]}</v>
+      </c>
+      <c r="GQ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GQ2)&amp;", ""month"": "&amp;MONTH(GQ2)&amp;", ""day"": "&amp;DAY(GQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GQ3&amp;", ""memberCount"": "&amp;GQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GQ5&amp;", ""memberCount"": "&amp;GQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GQ7&amp;", ""memberCount"": "&amp;GQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GQ9&amp;", ""memberCount"": "&amp;GQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GQ11&amp;", ""memberCount"": "&amp;GQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GQ13&amp;", ""memberCount"": "&amp;GQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GQ15&amp;", ""memberCount"": "&amp;GQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GQ17&amp;", ""memberCount"": "&amp;GQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GQ19&amp;", ""memberCount"": "&amp;GQ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 201995251, "memberCount": 200}, {"name": "Smile", "contribution": 174650928, "memberCount": 199}, {"name": "Elite", "contribution": 165945595, "memberCount": 200}, {"name": "Savages", "contribution": 155658724, "memberCount": 199}, {"name": "Spring", "contribution": 135423901, "memberCount": 196}, {"name": "Bounce", "contribution": 131864492, "memberCount": 198}, {"name": "Sunset", "contribution": 124602094, "memberCount": 194}, {"name": "Beaters", "contribution": 102598398, "memberCount": 196}, {"name": "Downtime", "contribution": 89103436, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GO1" activeCellId="0" sqref="GO1"/>
+      <selection pane="topRight" activeCell="GP1" activeCellId="0" sqref="GP1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GQ23" activeCellId="0" sqref="GQ23"/>
+      <selection pane="bottomRight" activeCell="GR23" activeCellId="0" sqref="GR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1919,7 +1919,9 @@
       <c r="GQ3" s="7" t="n">
         <v>201995251</v>
       </c>
-      <c r="GR3" s="7"/>
+      <c r="GR3" s="7" t="n">
+        <v>201438387</v>
+      </c>
       <c r="GS3" s="7"/>
       <c r="GT3" s="7"/>
       <c r="GU3" s="7"/>
@@ -2536,7 +2538,9 @@
       <c r="GQ4" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="GR4" s="11"/>
+      <c r="GR4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="GS4" s="11"/>
       <c r="GT4" s="11"/>
       <c r="GU4" s="11"/>
@@ -3155,7 +3159,9 @@
       <c r="GQ5" s="17" t="n">
         <v>174650928</v>
       </c>
-      <c r="GR5" s="17"/>
+      <c r="GR5" s="17" t="n">
+        <v>174699577</v>
+      </c>
       <c r="GS5" s="17"/>
       <c r="GT5" s="17"/>
       <c r="GU5" s="17"/>
@@ -3772,7 +3778,9 @@
       <c r="GQ6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="GR6" s="20"/>
+      <c r="GR6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="GS6" s="20"/>
       <c r="GT6" s="20"/>
       <c r="GU6" s="20"/>
@@ -4391,7 +4399,9 @@
       <c r="GQ7" s="24" t="n">
         <v>165945595</v>
       </c>
-      <c r="GR7" s="24"/>
+      <c r="GR7" s="24" t="n">
+        <v>166154687</v>
+      </c>
       <c r="GS7" s="24"/>
       <c r="GT7" s="24"/>
       <c r="GU7" s="24"/>
@@ -5008,7 +5018,9 @@
       <c r="GQ8" s="27" t="n">
         <v>200</v>
       </c>
-      <c r="GR8" s="27"/>
+      <c r="GR8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GS8" s="27"/>
       <c r="GT8" s="27"/>
       <c r="GU8" s="27"/>
@@ -5627,7 +5639,9 @@
       <c r="GQ9" s="31" t="n">
         <v>155658724</v>
       </c>
-      <c r="GR9" s="31"/>
+      <c r="GR9" s="31" t="n">
+        <v>155862535</v>
+      </c>
       <c r="GS9" s="31"/>
       <c r="GT9" s="31"/>
       <c r="GU9" s="31"/>
@@ -6244,7 +6258,9 @@
       <c r="GQ10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GR10" s="34"/>
+      <c r="GR10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GS10" s="34"/>
       <c r="GT10" s="34"/>
       <c r="GU10" s="34"/>
@@ -6863,7 +6879,9 @@
       <c r="GQ11" s="38" t="n">
         <v>135423901</v>
       </c>
-      <c r="GR11" s="38"/>
+      <c r="GR11" s="38" t="n">
+        <v>135518832</v>
+      </c>
       <c r="GS11" s="38"/>
       <c r="GT11" s="38"/>
       <c r="GU11" s="38"/>
@@ -7480,7 +7498,9 @@
       <c r="GQ12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="GR12" s="41"/>
+      <c r="GR12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="GS12" s="41"/>
       <c r="GT12" s="41"/>
       <c r="GU12" s="41"/>
@@ -8099,7 +8119,9 @@
       <c r="GQ13" s="45" t="n">
         <v>131864492</v>
       </c>
-      <c r="GR13" s="45"/>
+      <c r="GR13" s="45" t="n">
+        <v>132217726</v>
+      </c>
       <c r="GS13" s="45"/>
       <c r="GT13" s="45"/>
       <c r="GU13" s="45"/>
@@ -8716,7 +8738,9 @@
       <c r="GQ14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GR14" s="48"/>
+      <c r="GR14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GS14" s="48"/>
       <c r="GT14" s="48"/>
       <c r="GU14" s="48"/>
@@ -9335,7 +9359,9 @@
       <c r="GQ15" s="52" t="n">
         <v>124602094</v>
       </c>
-      <c r="GR15" s="52"/>
+      <c r="GR15" s="52" t="n">
+        <v>124730470</v>
+      </c>
       <c r="GS15" s="52"/>
       <c r="GT15" s="52"/>
       <c r="GU15" s="52"/>
@@ -9952,7 +9978,9 @@
       <c r="GQ16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="GR16" s="55"/>
+      <c r="GR16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="GS16" s="55"/>
       <c r="GT16" s="55"/>
       <c r="GU16" s="55"/>
@@ -10571,7 +10599,9 @@
       <c r="GQ17" s="59" t="n">
         <v>102598398</v>
       </c>
-      <c r="GR17" s="59"/>
+      <c r="GR17" s="59" t="n">
+        <v>102431291</v>
+      </c>
       <c r="GS17" s="59"/>
       <c r="GT17" s="59"/>
       <c r="GU17" s="59"/>
@@ -11188,7 +11218,9 @@
       <c r="GQ18" s="62" t="n">
         <v>196</v>
       </c>
-      <c r="GR18" s="62"/>
+      <c r="GR18" s="62" t="n">
+        <v>195</v>
+      </c>
       <c r="GS18" s="62"/>
       <c r="GT18" s="62"/>
       <c r="GU18" s="62"/>
@@ -11807,7 +11839,9 @@
       <c r="GQ19" s="66" t="n">
         <v>89103436</v>
       </c>
-      <c r="GR19" s="66"/>
+      <c r="GR19" s="66" t="n">
+        <v>89311467</v>
+      </c>
       <c r="GS19" s="66"/>
       <c r="GT19" s="66"/>
       <c r="GU19" s="66"/>
@@ -12424,7 +12458,9 @@
       <c r="GQ20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="GR20" s="69"/>
+      <c r="GR20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="GS20" s="69"/>
       <c r="GT20" s="69"/>
       <c r="GU20" s="69"/>
@@ -13235,7 +13271,11 @@
       </c>
       <c r="GQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GQ2)&amp;", ""month"": "&amp;MONTH(GQ2)&amp;", ""day"": "&amp;DAY(GQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GQ3&amp;", ""memberCount"": "&amp;GQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GQ5&amp;", ""memberCount"": "&amp;GQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GQ7&amp;", ""memberCount"": "&amp;GQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GQ9&amp;", ""memberCount"": "&amp;GQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GQ11&amp;", ""memberCount"": "&amp;GQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GQ13&amp;", ""memberCount"": "&amp;GQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GQ15&amp;", ""memberCount"": "&amp;GQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GQ17&amp;", ""memberCount"": "&amp;GQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GQ19&amp;", ""memberCount"": "&amp;GQ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 201995251, "memberCount": 200}, {"name": "Smile", "contribution": 174650928, "memberCount": 199}, {"name": "Elite", "contribution": 165945595, "memberCount": 200}, {"name": "Savages", "contribution": 155658724, "memberCount": 199}, {"name": "Spring", "contribution": 135423901, "memberCount": 196}, {"name": "Bounce", "contribution": 131864492, "memberCount": 198}, {"name": "Sunset", "contribution": 124602094, "memberCount": 194}, {"name": "Beaters", "contribution": 102598398, "memberCount": 196}, {"name": "Downtime", "contribution": 89103436, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 201995251, "memberCount": 200}, {"name": "Smile", "contribution": 174650928, "memberCount": 199}, {"name": "Elite", "contribution": 165945595, "memberCount": 200}, {"name": "Savages", "contribution": 155658724, "memberCount": 199}, {"name": "Spring", "contribution": 135423901, "memberCount": 196}, {"name": "Bounce", "contribution": 131864492, "memberCount": 198}, {"name": "Sunset", "contribution": 124602094, "memberCount": 194}, {"name": "Beaters", "contribution": 102598398, "memberCount": 196}, {"name": "Downtime", "contribution": 89103436, "memberCount": 197}]}</v>
+      </c>
+      <c r="GR23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GR2)&amp;", ""month"": "&amp;MONTH(GR2)&amp;", ""day"": "&amp;DAY(GR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GR3&amp;", ""memberCount"": "&amp;GR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GR5&amp;", ""memberCount"": "&amp;GR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GR7&amp;", ""memberCount"": "&amp;GR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GR9&amp;", ""memberCount"": "&amp;GR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GR11&amp;", ""memberCount"": "&amp;GR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GR13&amp;", ""memberCount"": "&amp;GR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GR15&amp;", ""memberCount"": "&amp;GR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GR17&amp;", ""memberCount"": "&amp;GR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GR19&amp;", ""memberCount"": "&amp;GR20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 201438387, "memberCount": 197}, {"name": "Smile", "contribution": 174699577, "memberCount": 199}, {"name": "Elite", "contribution": 166154687, "memberCount": 199}, {"name": "Savages", "contribution": 155862535, "memberCount": 199}, {"name": "Spring", "contribution": 135518832, "memberCount": 196}, {"name": "Bounce", "contribution": 132217726, "memberCount": 199}, {"name": "Sunset", "contribution": 124730470, "memberCount": 194}, {"name": "Beaters", "contribution": 102431291, "memberCount": 195}, {"name": "Downtime", "contribution": 89311467, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GP1" activeCellId="0" sqref="GP1"/>
+      <selection pane="topRight" activeCell="GQ1" activeCellId="0" sqref="GQ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GR23" activeCellId="0" sqref="GR23"/>
+      <selection pane="bottomRight" activeCell="GS23" activeCellId="0" sqref="GS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1922,7 +1922,9 @@
       <c r="GR3" s="7" t="n">
         <v>201438387</v>
       </c>
-      <c r="GS3" s="7"/>
+      <c r="GS3" s="7" t="n">
+        <v>201617680</v>
+      </c>
       <c r="GT3" s="7"/>
       <c r="GU3" s="7"/>
       <c r="GV3" s="7"/>
@@ -2541,7 +2543,9 @@
       <c r="GR4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="GS4" s="11"/>
+      <c r="GS4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="GT4" s="11"/>
       <c r="GU4" s="11"/>
       <c r="GV4" s="11"/>
@@ -3162,7 +3166,9 @@
       <c r="GR5" s="17" t="n">
         <v>174699577</v>
       </c>
-      <c r="GS5" s="17"/>
+      <c r="GS5" s="17" t="n">
+        <v>174899346</v>
+      </c>
       <c r="GT5" s="17"/>
       <c r="GU5" s="17"/>
       <c r="GV5" s="17"/>
@@ -3781,7 +3787,9 @@
       <c r="GR6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="GS6" s="20"/>
+      <c r="GS6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="GT6" s="20"/>
       <c r="GU6" s="20"/>
       <c r="GV6" s="20"/>
@@ -4402,7 +4410,9 @@
       <c r="GR7" s="24" t="n">
         <v>166154687</v>
       </c>
-      <c r="GS7" s="24"/>
+      <c r="GS7" s="24" t="n">
+        <v>166248315</v>
+      </c>
       <c r="GT7" s="24"/>
       <c r="GU7" s="24"/>
       <c r="GV7" s="24"/>
@@ -5021,7 +5031,9 @@
       <c r="GR8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GS8" s="27"/>
+      <c r="GS8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GT8" s="27"/>
       <c r="GU8" s="27"/>
       <c r="GV8" s="27"/>
@@ -5642,7 +5654,9 @@
       <c r="GR9" s="31" t="n">
         <v>155862535</v>
       </c>
-      <c r="GS9" s="31"/>
+      <c r="GS9" s="31" t="n">
+        <v>155979498</v>
+      </c>
       <c r="GT9" s="31"/>
       <c r="GU9" s="31"/>
       <c r="GV9" s="31"/>
@@ -6261,7 +6275,9 @@
       <c r="GR10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GS10" s="34"/>
+      <c r="GS10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GT10" s="34"/>
       <c r="GU10" s="34"/>
       <c r="GV10" s="34"/>
@@ -6882,7 +6898,9 @@
       <c r="GR11" s="38" t="n">
         <v>135518832</v>
       </c>
-      <c r="GS11" s="38"/>
+      <c r="GS11" s="38" t="n">
+        <v>134190409</v>
+      </c>
       <c r="GT11" s="38"/>
       <c r="GU11" s="38"/>
       <c r="GV11" s="38"/>
@@ -7501,7 +7519,9 @@
       <c r="GR12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="GS12" s="41"/>
+      <c r="GS12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="GT12" s="41"/>
       <c r="GU12" s="41"/>
       <c r="GV12" s="41"/>
@@ -8122,7 +8142,9 @@
       <c r="GR13" s="45" t="n">
         <v>132217726</v>
       </c>
-      <c r="GS13" s="45"/>
+      <c r="GS13" s="45" t="n">
+        <v>132476377</v>
+      </c>
       <c r="GT13" s="45"/>
       <c r="GU13" s="45"/>
       <c r="GV13" s="45"/>
@@ -8741,7 +8763,9 @@
       <c r="GR14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GS14" s="48"/>
+      <c r="GS14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GT14" s="48"/>
       <c r="GU14" s="48"/>
       <c r="GV14" s="48"/>
@@ -9362,7 +9386,9 @@
       <c r="GR15" s="52" t="n">
         <v>124730470</v>
       </c>
-      <c r="GS15" s="52"/>
+      <c r="GS15" s="52" t="n">
+        <v>124851898</v>
+      </c>
       <c r="GT15" s="52"/>
       <c r="GU15" s="52"/>
       <c r="GV15" s="52"/>
@@ -9981,7 +10007,9 @@
       <c r="GR16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="GS16" s="55"/>
+      <c r="GS16" s="55" t="n">
+        <v>195</v>
+      </c>
       <c r="GT16" s="55"/>
       <c r="GU16" s="55"/>
       <c r="GV16" s="55"/>
@@ -10602,7 +10630,9 @@
       <c r="GR17" s="59" t="n">
         <v>102431291</v>
       </c>
-      <c r="GS17" s="59"/>
+      <c r="GS17" s="59" t="n">
+        <v>100762515</v>
+      </c>
       <c r="GT17" s="59"/>
       <c r="GU17" s="59"/>
       <c r="GV17" s="59"/>
@@ -11221,7 +11251,9 @@
       <c r="GR18" s="62" t="n">
         <v>195</v>
       </c>
-      <c r="GS18" s="62"/>
+      <c r="GS18" s="62" t="n">
+        <v>193</v>
+      </c>
       <c r="GT18" s="62"/>
       <c r="GU18" s="62"/>
       <c r="GV18" s="62"/>
@@ -11842,7 +11874,9 @@
       <c r="GR19" s="66" t="n">
         <v>89311467</v>
       </c>
-      <c r="GS19" s="66"/>
+      <c r="GS19" s="66" t="n">
+        <v>89405949</v>
+      </c>
       <c r="GT19" s="66"/>
       <c r="GU19" s="66"/>
       <c r="GV19" s="66"/>
@@ -12461,7 +12495,9 @@
       <c r="GR20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="GS20" s="69"/>
+      <c r="GS20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="GT20" s="69"/>
       <c r="GU20" s="69"/>
       <c r="GV20" s="69"/>
@@ -13275,7 +13311,11 @@
       </c>
       <c r="GR23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GR2)&amp;", ""month"": "&amp;MONTH(GR2)&amp;", ""day"": "&amp;DAY(GR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GR3&amp;", ""memberCount"": "&amp;GR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GR5&amp;", ""memberCount"": "&amp;GR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GR7&amp;", ""memberCount"": "&amp;GR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GR9&amp;", ""memberCount"": "&amp;GR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GR11&amp;", ""memberCount"": "&amp;GR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GR13&amp;", ""memberCount"": "&amp;GR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GR15&amp;", ""memberCount"": "&amp;GR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GR17&amp;", ""memberCount"": "&amp;GR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GR19&amp;", ""memberCount"": "&amp;GR20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 201438387, "memberCount": 197}, {"name": "Smile", "contribution": 174699577, "memberCount": 199}, {"name": "Elite", "contribution": 166154687, "memberCount": 199}, {"name": "Savages", "contribution": 155862535, "memberCount": 199}, {"name": "Spring", "contribution": 135518832, "memberCount": 196}, {"name": "Bounce", "contribution": 132217726, "memberCount": 199}, {"name": "Sunset", "contribution": 124730470, "memberCount": 194}, {"name": "Beaters", "contribution": 102431291, "memberCount": 195}, {"name": "Downtime", "contribution": 89311467, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 201438387, "memberCount": 197}, {"name": "Smile", "contribution": 174699577, "memberCount": 199}, {"name": "Elite", "contribution": 166154687, "memberCount": 199}, {"name": "Savages", "contribution": 155862535, "memberCount": 199}, {"name": "Spring", "contribution": 135518832, "memberCount": 196}, {"name": "Bounce", "contribution": 132217726, "memberCount": 199}, {"name": "Sunset", "contribution": 124730470, "memberCount": 194}, {"name": "Beaters", "contribution": 102431291, "memberCount": 195}, {"name": "Downtime", "contribution": 89311467, "memberCount": 197}]}</v>
+      </c>
+      <c r="GS23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GS2)&amp;", ""month"": "&amp;MONTH(GS2)&amp;", ""day"": "&amp;DAY(GS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GS3&amp;", ""memberCount"": "&amp;GS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GS5&amp;", ""memberCount"": "&amp;GS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GS7&amp;", ""memberCount"": "&amp;GS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GS9&amp;", ""memberCount"": "&amp;GS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GS11&amp;", ""memberCount"": "&amp;GS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GS13&amp;", ""memberCount"": "&amp;GS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GS15&amp;", ""memberCount"": "&amp;GS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GS17&amp;", ""memberCount"": "&amp;GS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GS19&amp;", ""memberCount"": "&amp;GS20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 201617680, "memberCount": 197}, {"name": "Smile", "contribution": 174899346, "memberCount": 199}, {"name": "Elite", "contribution": 166248315, "memberCount": 199}, {"name": "Savages", "contribution": 155979498, "memberCount": 199}, {"name": "Spring", "contribution": 134190409, "memberCount": 195}, {"name": "Bounce", "contribution": 132476377, "memberCount": 199}, {"name": "Sunset", "contribution": 124851898, "memberCount": 195}, {"name": "Beaters", "contribution": 100762515, "memberCount": 193}, {"name": "Downtime", "contribution": 89405949, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GQ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GQ1" activeCellId="0" sqref="GQ1"/>
+      <selection pane="topRight" activeCell="GR1" activeCellId="0" sqref="GR1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GS23" activeCellId="0" sqref="GS23"/>
+      <selection pane="bottomRight" activeCell="GT23" activeCellId="0" sqref="GT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1925,7 +1925,9 @@
       <c r="GS3" s="7" t="n">
         <v>201617680</v>
       </c>
-      <c r="GT3" s="7"/>
+      <c r="GT3" s="7" t="n">
+        <v>201813453</v>
+      </c>
       <c r="GU3" s="7"/>
       <c r="GV3" s="7"/>
       <c r="GW3" s="7"/>
@@ -2546,7 +2548,9 @@
       <c r="GS4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="GT4" s="11"/>
+      <c r="GT4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="GU4" s="11"/>
       <c r="GV4" s="11"/>
       <c r="GW4" s="11"/>
@@ -3169,7 +3173,9 @@
       <c r="GS5" s="17" t="n">
         <v>174899346</v>
       </c>
-      <c r="GT5" s="17"/>
+      <c r="GT5" s="17" t="n">
+        <v>175073835</v>
+      </c>
       <c r="GU5" s="17"/>
       <c r="GV5" s="17"/>
       <c r="GW5" s="17"/>
@@ -3790,7 +3796,9 @@
       <c r="GS6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="GT6" s="20"/>
+      <c r="GT6" s="20" t="n">
+        <v>198</v>
+      </c>
       <c r="GU6" s="20"/>
       <c r="GV6" s="20"/>
       <c r="GW6" s="20"/>
@@ -4413,7 +4421,9 @@
       <c r="GS7" s="24" t="n">
         <v>166248315</v>
       </c>
-      <c r="GT7" s="24"/>
+      <c r="GT7" s="24" t="n">
+        <v>166470539</v>
+      </c>
       <c r="GU7" s="24"/>
       <c r="GV7" s="24"/>
       <c r="GW7" s="24"/>
@@ -5034,7 +5044,9 @@
       <c r="GS8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GT8" s="27"/>
+      <c r="GT8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GU8" s="27"/>
       <c r="GV8" s="27"/>
       <c r="GW8" s="27"/>
@@ -5657,7 +5669,9 @@
       <c r="GS9" s="31" t="n">
         <v>155979498</v>
       </c>
-      <c r="GT9" s="31"/>
+      <c r="GT9" s="31" t="n">
+        <v>156104703</v>
+      </c>
       <c r="GU9" s="31"/>
       <c r="GV9" s="31"/>
       <c r="GW9" s="31"/>
@@ -6278,7 +6292,9 @@
       <c r="GS10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GT10" s="34"/>
+      <c r="GT10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GU10" s="34"/>
       <c r="GV10" s="34"/>
       <c r="GW10" s="34"/>
@@ -6901,7 +6917,9 @@
       <c r="GS11" s="38" t="n">
         <v>134190409</v>
       </c>
-      <c r="GT11" s="38"/>
+      <c r="GT11" s="38" t="n">
+        <v>134289211</v>
+      </c>
       <c r="GU11" s="38"/>
       <c r="GV11" s="38"/>
       <c r="GW11" s="38"/>
@@ -7522,7 +7540,9 @@
       <c r="GS12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="GT12" s="41"/>
+      <c r="GT12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="GU12" s="41"/>
       <c r="GV12" s="41"/>
       <c r="GW12" s="41"/>
@@ -8145,7 +8165,9 @@
       <c r="GS13" s="45" t="n">
         <v>132476377</v>
       </c>
-      <c r="GT13" s="45"/>
+      <c r="GT13" s="45" t="n">
+        <v>132690208</v>
+      </c>
       <c r="GU13" s="45"/>
       <c r="GV13" s="45"/>
       <c r="GW13" s="45"/>
@@ -8766,7 +8788,9 @@
       <c r="GS14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GT14" s="48"/>
+      <c r="GT14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="GU14" s="48"/>
       <c r="GV14" s="48"/>
       <c r="GW14" s="48"/>
@@ -9389,7 +9413,9 @@
       <c r="GS15" s="52" t="n">
         <v>124851898</v>
       </c>
-      <c r="GT15" s="52"/>
+      <c r="GT15" s="52" t="n">
+        <v>125008195</v>
+      </c>
       <c r="GU15" s="52"/>
       <c r="GV15" s="52"/>
       <c r="GW15" s="52"/>
@@ -10010,7 +10036,9 @@
       <c r="GS16" s="55" t="n">
         <v>195</v>
       </c>
-      <c r="GT16" s="55"/>
+      <c r="GT16" s="55" t="n">
+        <v>195</v>
+      </c>
       <c r="GU16" s="55"/>
       <c r="GV16" s="55"/>
       <c r="GW16" s="55"/>
@@ -10633,7 +10661,9 @@
       <c r="GS17" s="59" t="n">
         <v>100762515</v>
       </c>
-      <c r="GT17" s="59"/>
+      <c r="GT17" s="59" t="n">
+        <v>100825113</v>
+      </c>
       <c r="GU17" s="59"/>
       <c r="GV17" s="59"/>
       <c r="GW17" s="59"/>
@@ -11254,7 +11284,9 @@
       <c r="GS18" s="62" t="n">
         <v>193</v>
       </c>
-      <c r="GT18" s="62"/>
+      <c r="GT18" s="62" t="n">
+        <v>193</v>
+      </c>
       <c r="GU18" s="62"/>
       <c r="GV18" s="62"/>
       <c r="GW18" s="62"/>
@@ -11877,7 +11909,9 @@
       <c r="GS19" s="66" t="n">
         <v>89405949</v>
       </c>
-      <c r="GT19" s="66"/>
+      <c r="GT19" s="66" t="n">
+        <v>89543532</v>
+      </c>
       <c r="GU19" s="66"/>
       <c r="GV19" s="66"/>
       <c r="GW19" s="66"/>
@@ -12498,7 +12532,9 @@
       <c r="GS20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="GT20" s="69"/>
+      <c r="GT20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="GU20" s="69"/>
       <c r="GV20" s="69"/>
       <c r="GW20" s="69"/>
@@ -13315,7 +13351,11 @@
       </c>
       <c r="GS23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GS2)&amp;", ""month"": "&amp;MONTH(GS2)&amp;", ""day"": "&amp;DAY(GS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GS3&amp;", ""memberCount"": "&amp;GS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GS5&amp;", ""memberCount"": "&amp;GS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GS7&amp;", ""memberCount"": "&amp;GS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GS9&amp;", ""memberCount"": "&amp;GS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GS11&amp;", ""memberCount"": "&amp;GS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GS13&amp;", ""memberCount"": "&amp;GS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GS15&amp;", ""memberCount"": "&amp;GS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GS17&amp;", ""memberCount"": "&amp;GS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GS19&amp;", ""memberCount"": "&amp;GS20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 201617680, "memberCount": 197}, {"name": "Smile", "contribution": 174899346, "memberCount": 199}, {"name": "Elite", "contribution": 166248315, "memberCount": 199}, {"name": "Savages", "contribution": 155979498, "memberCount": 199}, {"name": "Spring", "contribution": 134190409, "memberCount": 195}, {"name": "Bounce", "contribution": 132476377, "memberCount": 199}, {"name": "Sunset", "contribution": 124851898, "memberCount": 195}, {"name": "Beaters", "contribution": 100762515, "memberCount": 193}, {"name": "Downtime", "contribution": 89405949, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 201617680, "memberCount": 197}, {"name": "Smile", "contribution": 174899346, "memberCount": 199}, {"name": "Elite", "contribution": 166248315, "memberCount": 199}, {"name": "Savages", "contribution": 155979498, "memberCount": 199}, {"name": "Spring", "contribution": 134190409, "memberCount": 195}, {"name": "Bounce", "contribution": 132476377, "memberCount": 199}, {"name": "Sunset", "contribution": 124851898, "memberCount": 195}, {"name": "Beaters", "contribution": 100762515, "memberCount": 193}, {"name": "Downtime", "contribution": 89405949, "memberCount": 198}]}</v>
+      </c>
+      <c r="GT23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GT2)&amp;", ""month"": "&amp;MONTH(GT2)&amp;", ""day"": "&amp;DAY(GT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GT3&amp;", ""memberCount"": "&amp;GT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GT5&amp;", ""memberCount"": "&amp;GT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GT7&amp;", ""memberCount"": "&amp;GT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GT9&amp;", ""memberCount"": "&amp;GT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GT11&amp;", ""memberCount"": "&amp;GT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GT13&amp;", ""memberCount"": "&amp;GT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GT15&amp;", ""memberCount"": "&amp;GT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GT17&amp;", ""memberCount"": "&amp;GT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GT19&amp;", ""memberCount"": "&amp;GT20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 201813453, "memberCount": 197}, {"name": "Smile", "contribution": 175073835, "memberCount": 198}, {"name": "Elite", "contribution": 166470539, "memberCount": 199}, {"name": "Savages", "contribution": 156104703, "memberCount": 199}, {"name": "Spring", "contribution": 134289211, "memberCount": 195}, {"name": "Bounce", "contribution": 132690208, "memberCount": 199}, {"name": "Sunset", "contribution": 125008195, "memberCount": 195}, {"name": "Beaters", "contribution": 100825113, "memberCount": 193}, {"name": "Downtime", "contribution": 89543532, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GR1" activeCellId="0" sqref="GR1"/>
+      <selection pane="topRight" activeCell="GT1" activeCellId="0" sqref="GT1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GT23" activeCellId="0" sqref="GT23"/>
+      <selection pane="bottomRight" activeCell="GU23" activeCellId="0" sqref="GU23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1928,7 +1928,9 @@
       <c r="GT3" s="7" t="n">
         <v>201813453</v>
       </c>
-      <c r="GU3" s="7"/>
+      <c r="GU3" s="7" t="n">
+        <v>202078210</v>
+      </c>
       <c r="GV3" s="7"/>
       <c r="GW3" s="7"/>
       <c r="GX3" s="7"/>
@@ -2551,7 +2553,9 @@
       <c r="GT4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="GU4" s="11"/>
+      <c r="GU4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="GV4" s="11"/>
       <c r="GW4" s="11"/>
       <c r="GX4" s="11"/>
@@ -3176,7 +3180,9 @@
       <c r="GT5" s="17" t="n">
         <v>175073835</v>
       </c>
-      <c r="GU5" s="17"/>
+      <c r="GU5" s="17" t="n">
+        <v>175324968</v>
+      </c>
       <c r="GV5" s="17"/>
       <c r="GW5" s="17"/>
       <c r="GX5" s="17"/>
@@ -3799,7 +3805,9 @@
       <c r="GT6" s="20" t="n">
         <v>198</v>
       </c>
-      <c r="GU6" s="20"/>
+      <c r="GU6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GV6" s="20"/>
       <c r="GW6" s="20"/>
       <c r="GX6" s="20"/>
@@ -4424,7 +4432,9 @@
       <c r="GT7" s="24" t="n">
         <v>166470539</v>
       </c>
-      <c r="GU7" s="24"/>
+      <c r="GU7" s="24" t="n">
+        <v>166749183</v>
+      </c>
       <c r="GV7" s="24"/>
       <c r="GW7" s="24"/>
       <c r="GX7" s="24"/>
@@ -5047,7 +5057,9 @@
       <c r="GT8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GU8" s="27"/>
+      <c r="GU8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GV8" s="27"/>
       <c r="GW8" s="27"/>
       <c r="GX8" s="27"/>
@@ -5672,7 +5684,9 @@
       <c r="GT9" s="31" t="n">
         <v>156104703</v>
       </c>
-      <c r="GU9" s="31"/>
+      <c r="GU9" s="31" t="n">
+        <v>156305169</v>
+      </c>
       <c r="GV9" s="31"/>
       <c r="GW9" s="31"/>
       <c r="GX9" s="31"/>
@@ -6295,7 +6309,9 @@
       <c r="GT10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GU10" s="34"/>
+      <c r="GU10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="GV10" s="34"/>
       <c r="GW10" s="34"/>
       <c r="GX10" s="34"/>
@@ -6920,7 +6936,9 @@
       <c r="GT11" s="38" t="n">
         <v>134289211</v>
       </c>
-      <c r="GU11" s="38"/>
+      <c r="GU11" s="38" t="n">
+        <v>134416657</v>
+      </c>
       <c r="GV11" s="38"/>
       <c r="GW11" s="38"/>
       <c r="GX11" s="38"/>
@@ -7543,7 +7561,9 @@
       <c r="GT12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="GU12" s="41"/>
+      <c r="GU12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="GV12" s="41"/>
       <c r="GW12" s="41"/>
       <c r="GX12" s="41"/>
@@ -8168,7 +8188,9 @@
       <c r="GT13" s="45" t="n">
         <v>132690208</v>
       </c>
-      <c r="GU13" s="45"/>
+      <c r="GU13" s="45" t="n">
+        <v>132970482</v>
+      </c>
       <c r="GV13" s="45"/>
       <c r="GW13" s="45"/>
       <c r="GX13" s="45"/>
@@ -8791,7 +8813,9 @@
       <c r="GT14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="GU14" s="48"/>
+      <c r="GU14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GV14" s="48"/>
       <c r="GW14" s="48"/>
       <c r="GX14" s="48"/>
@@ -9416,7 +9440,9 @@
       <c r="GT15" s="52" t="n">
         <v>125008195</v>
       </c>
-      <c r="GU15" s="52"/>
+      <c r="GU15" s="52" t="n">
+        <v>125088671</v>
+      </c>
       <c r="GV15" s="52"/>
       <c r="GW15" s="52"/>
       <c r="GX15" s="52"/>
@@ -10039,7 +10065,9 @@
       <c r="GT16" s="55" t="n">
         <v>195</v>
       </c>
-      <c r="GU16" s="55"/>
+      <c r="GU16" s="55" t="n">
+        <v>192</v>
+      </c>
       <c r="GV16" s="55"/>
       <c r="GW16" s="55"/>
       <c r="GX16" s="55"/>
@@ -10664,7 +10692,9 @@
       <c r="GT17" s="59" t="n">
         <v>100825113</v>
       </c>
-      <c r="GU17" s="59"/>
+      <c r="GU17" s="59" t="n">
+        <v>100960888</v>
+      </c>
       <c r="GV17" s="59"/>
       <c r="GW17" s="59"/>
       <c r="GX17" s="59"/>
@@ -11287,7 +11317,9 @@
       <c r="GT18" s="62" t="n">
         <v>193</v>
       </c>
-      <c r="GU18" s="62"/>
+      <c r="GU18" s="62" t="n">
+        <v>193</v>
+      </c>
       <c r="GV18" s="62"/>
       <c r="GW18" s="62"/>
       <c r="GX18" s="62"/>
@@ -11912,7 +11944,9 @@
       <c r="GT19" s="66" t="n">
         <v>89543532</v>
       </c>
-      <c r="GU19" s="66"/>
+      <c r="GU19" s="66" t="n">
+        <v>89691241</v>
+      </c>
       <c r="GV19" s="66"/>
       <c r="GW19" s="66"/>
       <c r="GX19" s="66"/>
@@ -12535,7 +12569,9 @@
       <c r="GT20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="GU20" s="69"/>
+      <c r="GU20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="GV20" s="69"/>
       <c r="GW20" s="69"/>
       <c r="GX20" s="69"/>
@@ -13355,7 +13391,11 @@
       </c>
       <c r="GT23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GT2)&amp;", ""month"": "&amp;MONTH(GT2)&amp;", ""day"": "&amp;DAY(GT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GT3&amp;", ""memberCount"": "&amp;GT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GT5&amp;", ""memberCount"": "&amp;GT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GT7&amp;", ""memberCount"": "&amp;GT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GT9&amp;", ""memberCount"": "&amp;GT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GT11&amp;", ""memberCount"": "&amp;GT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GT13&amp;", ""memberCount"": "&amp;GT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GT15&amp;", ""memberCount"": "&amp;GT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GT17&amp;", ""memberCount"": "&amp;GT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GT19&amp;", ""memberCount"": "&amp;GT20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 201813453, "memberCount": 197}, {"name": "Smile", "contribution": 175073835, "memberCount": 198}, {"name": "Elite", "contribution": 166470539, "memberCount": 199}, {"name": "Savages", "contribution": 156104703, "memberCount": 199}, {"name": "Spring", "contribution": 134289211, "memberCount": 195}, {"name": "Bounce", "contribution": 132690208, "memberCount": 199}, {"name": "Sunset", "contribution": 125008195, "memberCount": 195}, {"name": "Beaters", "contribution": 100825113, "memberCount": 193}, {"name": "Downtime", "contribution": 89543532, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 201813453, "memberCount": 197}, {"name": "Smile", "contribution": 175073835, "memberCount": 198}, {"name": "Elite", "contribution": 166470539, "memberCount": 199}, {"name": "Savages", "contribution": 156104703, "memberCount": 199}, {"name": "Spring", "contribution": 134289211, "memberCount": 195}, {"name": "Bounce", "contribution": 132690208, "memberCount": 199}, {"name": "Sunset", "contribution": 125008195, "memberCount": 195}, {"name": "Beaters", "contribution": 100825113, "memberCount": 193}, {"name": "Downtime", "contribution": 89543532, "memberCount": 196}]}</v>
+      </c>
+      <c r="GU23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GU2)&amp;", ""month"": "&amp;MONTH(GU2)&amp;", ""day"": "&amp;DAY(GU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GU3&amp;", ""memberCount"": "&amp;GU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GU5&amp;", ""memberCount"": "&amp;GU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GU7&amp;", ""memberCount"": "&amp;GU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GU9&amp;", ""memberCount"": "&amp;GU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GU11&amp;", ""memberCount"": "&amp;GU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GU13&amp;", ""memberCount"": "&amp;GU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GU15&amp;", ""memberCount"": "&amp;GU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GU17&amp;", ""memberCount"": "&amp;GU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GU19&amp;", ""memberCount"": "&amp;GU20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 202078210, "memberCount": 197}, {"name": "Smile", "contribution": 175324968, "memberCount": 200}, {"name": "Elite", "contribution": 166749183, "memberCount": 199}, {"name": "Savages", "contribution": 156305169, "memberCount": 199}, {"name": "Spring", "contribution": 134416657, "memberCount": 195}, {"name": "Bounce", "contribution": 132970482, "memberCount": 198}, {"name": "Sunset", "contribution": 125088671, "memberCount": 192}, {"name": "Beaters", "contribution": 100960888, "memberCount": 193}, {"name": "Downtime", "contribution": 89691241, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="GT1" activeCellId="0" sqref="GT1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GU23" activeCellId="0" sqref="GU23"/>
+      <selection pane="bottomRight" activeCell="GV23" activeCellId="0" sqref="GV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1931,7 +1931,9 @@
       <c r="GU3" s="7" t="n">
         <v>202078210</v>
       </c>
-      <c r="GV3" s="7"/>
+      <c r="GV3" s="7" t="n">
+        <v>202297666</v>
+      </c>
       <c r="GW3" s="7"/>
       <c r="GX3" s="7"/>
       <c r="GY3" s="7"/>
@@ -2556,7 +2558,9 @@
       <c r="GU4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="GV4" s="11"/>
+      <c r="GV4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GW4" s="11"/>
       <c r="GX4" s="11"/>
       <c r="GY4" s="11"/>
@@ -3183,7 +3187,9 @@
       <c r="GU5" s="17" t="n">
         <v>175324968</v>
       </c>
-      <c r="GV5" s="17"/>
+      <c r="GV5" s="17" t="n">
+        <v>175571999</v>
+      </c>
       <c r="GW5" s="17"/>
       <c r="GX5" s="17"/>
       <c r="GY5" s="17"/>
@@ -3808,7 +3814,9 @@
       <c r="GU6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GV6" s="20"/>
+      <c r="GV6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GW6" s="20"/>
       <c r="GX6" s="20"/>
       <c r="GY6" s="20"/>
@@ -4435,7 +4443,9 @@
       <c r="GU7" s="24" t="n">
         <v>166749183</v>
       </c>
-      <c r="GV7" s="24"/>
+      <c r="GV7" s="24" t="n">
+        <v>166875128</v>
+      </c>
       <c r="GW7" s="24"/>
       <c r="GX7" s="24"/>
       <c r="GY7" s="24"/>
@@ -5060,7 +5070,9 @@
       <c r="GU8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GV8" s="27"/>
+      <c r="GV8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GW8" s="27"/>
       <c r="GX8" s="27"/>
       <c r="GY8" s="27"/>
@@ -5687,7 +5699,9 @@
       <c r="GU9" s="31" t="n">
         <v>156305169</v>
       </c>
-      <c r="GV9" s="31"/>
+      <c r="GV9" s="31" t="n">
+        <v>156324513</v>
+      </c>
       <c r="GW9" s="31"/>
       <c r="GX9" s="31"/>
       <c r="GY9" s="31"/>
@@ -6312,7 +6326,9 @@
       <c r="GU10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="GV10" s="34"/>
+      <c r="GV10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GW10" s="34"/>
       <c r="GX10" s="34"/>
       <c r="GY10" s="34"/>
@@ -6939,7 +6955,9 @@
       <c r="GU11" s="38" t="n">
         <v>134416657</v>
       </c>
-      <c r="GV11" s="38"/>
+      <c r="GV11" s="38" t="n">
+        <v>134536665</v>
+      </c>
       <c r="GW11" s="38"/>
       <c r="GX11" s="38"/>
       <c r="GY11" s="38"/>
@@ -7564,7 +7582,9 @@
       <c r="GU12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="GV12" s="41"/>
+      <c r="GV12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="GW12" s="41"/>
       <c r="GX12" s="41"/>
       <c r="GY12" s="41"/>
@@ -8191,7 +8211,9 @@
       <c r="GU13" s="45" t="n">
         <v>132970482</v>
       </c>
-      <c r="GV13" s="45"/>
+      <c r="GV13" s="45" t="n">
+        <v>133204762</v>
+      </c>
       <c r="GW13" s="45"/>
       <c r="GX13" s="45"/>
       <c r="GY13" s="45"/>
@@ -8816,7 +8838,9 @@
       <c r="GU14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GV14" s="48"/>
+      <c r="GV14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GW14" s="48"/>
       <c r="GX14" s="48"/>
       <c r="GY14" s="48"/>
@@ -9443,7 +9467,9 @@
       <c r="GU15" s="52" t="n">
         <v>125088671</v>
       </c>
-      <c r="GV15" s="52"/>
+      <c r="GV15" s="52" t="n">
+        <v>125231624</v>
+      </c>
       <c r="GW15" s="52"/>
       <c r="GX15" s="52"/>
       <c r="GY15" s="52"/>
@@ -10068,7 +10094,9 @@
       <c r="GU16" s="55" t="n">
         <v>192</v>
       </c>
-      <c r="GV16" s="55"/>
+      <c r="GV16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="GW16" s="55"/>
       <c r="GX16" s="55"/>
       <c r="GY16" s="55"/>
@@ -10695,7 +10723,9 @@
       <c r="GU17" s="59" t="n">
         <v>100960888</v>
       </c>
-      <c r="GV17" s="59"/>
+      <c r="GV17" s="59" t="n">
+        <v>100847663</v>
+      </c>
       <c r="GW17" s="59"/>
       <c r="GX17" s="59"/>
       <c r="GY17" s="59"/>
@@ -11320,7 +11350,9 @@
       <c r="GU18" s="62" t="n">
         <v>193</v>
       </c>
-      <c r="GV18" s="62"/>
+      <c r="GV18" s="62" t="n">
+        <v>192</v>
+      </c>
       <c r="GW18" s="62"/>
       <c r="GX18" s="62"/>
       <c r="GY18" s="62"/>
@@ -11947,7 +11979,9 @@
       <c r="GU19" s="66" t="n">
         <v>89691241</v>
       </c>
-      <c r="GV19" s="66"/>
+      <c r="GV19" s="66" t="n">
+        <v>89829384</v>
+      </c>
       <c r="GW19" s="66"/>
       <c r="GX19" s="66"/>
       <c r="GY19" s="66"/>
@@ -12572,7 +12606,9 @@
       <c r="GU20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="GV20" s="69"/>
+      <c r="GV20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="GW20" s="69"/>
       <c r="GX20" s="69"/>
       <c r="GY20" s="69"/>
@@ -13395,7 +13431,11 @@
       </c>
       <c r="GU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GU2)&amp;", ""month"": "&amp;MONTH(GU2)&amp;", ""day"": "&amp;DAY(GU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GU3&amp;", ""memberCount"": "&amp;GU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GU5&amp;", ""memberCount"": "&amp;GU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GU7&amp;", ""memberCount"": "&amp;GU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GU9&amp;", ""memberCount"": "&amp;GU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GU11&amp;", ""memberCount"": "&amp;GU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GU13&amp;", ""memberCount"": "&amp;GU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GU15&amp;", ""memberCount"": "&amp;GU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GU17&amp;", ""memberCount"": "&amp;GU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GU19&amp;", ""memberCount"": "&amp;GU20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 202078210, "memberCount": 197}, {"name": "Smile", "contribution": 175324968, "memberCount": 200}, {"name": "Elite", "contribution": 166749183, "memberCount": 199}, {"name": "Savages", "contribution": 156305169, "memberCount": 199}, {"name": "Spring", "contribution": 134416657, "memberCount": 195}, {"name": "Bounce", "contribution": 132970482, "memberCount": 198}, {"name": "Sunset", "contribution": 125088671, "memberCount": 192}, {"name": "Beaters", "contribution": 100960888, "memberCount": 193}, {"name": "Downtime", "contribution": 89691241, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 202078210, "memberCount": 197}, {"name": "Smile", "contribution": 175324968, "memberCount": 200}, {"name": "Elite", "contribution": 166749183, "memberCount": 199}, {"name": "Savages", "contribution": 156305169, "memberCount": 199}, {"name": "Spring", "contribution": 134416657, "memberCount": 195}, {"name": "Bounce", "contribution": 132970482, "memberCount": 198}, {"name": "Sunset", "contribution": 125088671, "memberCount": 192}, {"name": "Beaters", "contribution": 100960888, "memberCount": 193}, {"name": "Downtime", "contribution": 89691241, "memberCount": 196}]}</v>
+      </c>
+      <c r="GV23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GV2)&amp;", ""month"": "&amp;MONTH(GV2)&amp;", ""day"": "&amp;DAY(GV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GV3&amp;", ""memberCount"": "&amp;GV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GV5&amp;", ""memberCount"": "&amp;GV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GV7&amp;", ""memberCount"": "&amp;GV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GV9&amp;", ""memberCount"": "&amp;GV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GV11&amp;", ""memberCount"": "&amp;GV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GV13&amp;", ""memberCount"": "&amp;GV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GV15&amp;", ""memberCount"": "&amp;GV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GV17&amp;", ""memberCount"": "&amp;GV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GV19&amp;", ""memberCount"": "&amp;GV20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 202297666, "memberCount": 198}, {"name": "Smile", "contribution": 175571999, "memberCount": 200}, {"name": "Elite", "contribution": 166875128, "memberCount": 199}, {"name": "Savages", "contribution": 156324513, "memberCount": 198}, {"name": "Spring", "contribution": 134536665, "memberCount": 195}, {"name": "Bounce", "contribution": 133204762, "memberCount": 198}, {"name": "Sunset", "contribution": 125231624, "memberCount": 197}, {"name": "Beaters", "contribution": 100847663, "memberCount": 192}, {"name": "Downtime", "contribution": 89829384, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GT1" activeCellId="0" sqref="GT1"/>
+      <selection pane="topRight" activeCell="GV1" activeCellId="0" sqref="GV1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GV23" activeCellId="0" sqref="GV23"/>
+      <selection pane="bottomRight" activeCell="GX2" activeCellId="0" sqref="GX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1934,7 +1934,9 @@
       <c r="GV3" s="7" t="n">
         <v>202297666</v>
       </c>
-      <c r="GW3" s="7"/>
+      <c r="GW3" s="7" t="n">
+        <v>202527630</v>
+      </c>
       <c r="GX3" s="7"/>
       <c r="GY3" s="7"/>
       <c r="GZ3" s="7"/>
@@ -2561,7 +2563,9 @@
       <c r="GV4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GW4" s="11"/>
+      <c r="GW4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GX4" s="11"/>
       <c r="GY4" s="11"/>
       <c r="GZ4" s="11"/>
@@ -3190,7 +3194,9 @@
       <c r="GV5" s="17" t="n">
         <v>175571999</v>
       </c>
-      <c r="GW5" s="17"/>
+      <c r="GW5" s="17" t="n">
+        <v>175761158</v>
+      </c>
       <c r="GX5" s="17"/>
       <c r="GY5" s="17"/>
       <c r="GZ5" s="17"/>
@@ -3817,7 +3823,9 @@
       <c r="GV6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GW6" s="20"/>
+      <c r="GW6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="GX6" s="20"/>
       <c r="GY6" s="20"/>
       <c r="GZ6" s="20"/>
@@ -4446,7 +4454,9 @@
       <c r="GV7" s="24" t="n">
         <v>166875128</v>
       </c>
-      <c r="GW7" s="24"/>
+      <c r="GW7" s="24" t="n">
+        <v>167075994</v>
+      </c>
       <c r="GX7" s="24"/>
       <c r="GY7" s="24"/>
       <c r="GZ7" s="24"/>
@@ -5073,7 +5083,9 @@
       <c r="GV8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GW8" s="27"/>
+      <c r="GW8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GX8" s="27"/>
       <c r="GY8" s="27"/>
       <c r="GZ8" s="27"/>
@@ -5702,7 +5714,9 @@
       <c r="GV9" s="31" t="n">
         <v>156324513</v>
       </c>
-      <c r="GW9" s="31"/>
+      <c r="GW9" s="31" t="n">
+        <v>156591899</v>
+      </c>
       <c r="GX9" s="31"/>
       <c r="GY9" s="31"/>
       <c r="GZ9" s="31"/>
@@ -6329,7 +6343,9 @@
       <c r="GV10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GW10" s="34"/>
+      <c r="GW10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GX10" s="34"/>
       <c r="GY10" s="34"/>
       <c r="GZ10" s="34"/>
@@ -6958,7 +6974,9 @@
       <c r="GV11" s="38" t="n">
         <v>134536665</v>
       </c>
-      <c r="GW11" s="38"/>
+      <c r="GW11" s="38" t="n">
+        <v>134633475</v>
+      </c>
       <c r="GX11" s="38"/>
       <c r="GY11" s="38"/>
       <c r="GZ11" s="38"/>
@@ -7585,7 +7603,9 @@
       <c r="GV12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="GW12" s="41"/>
+      <c r="GW12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="GX12" s="41"/>
       <c r="GY12" s="41"/>
       <c r="GZ12" s="41"/>
@@ -8214,7 +8234,9 @@
       <c r="GV13" s="45" t="n">
         <v>133204762</v>
       </c>
-      <c r="GW13" s="45"/>
+      <c r="GW13" s="45" t="n">
+        <v>133451952</v>
+      </c>
       <c r="GX13" s="45"/>
       <c r="GY13" s="45"/>
       <c r="GZ13" s="45"/>
@@ -8841,7 +8863,9 @@
       <c r="GV14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GW14" s="48"/>
+      <c r="GW14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GX14" s="48"/>
       <c r="GY14" s="48"/>
       <c r="GZ14" s="48"/>
@@ -9470,7 +9494,9 @@
       <c r="GV15" s="52" t="n">
         <v>125231624</v>
       </c>
-      <c r="GW15" s="52"/>
+      <c r="GW15" s="52" t="n">
+        <v>125397572</v>
+      </c>
       <c r="GX15" s="52"/>
       <c r="GY15" s="52"/>
       <c r="GZ15" s="52"/>
@@ -10097,7 +10123,9 @@
       <c r="GV16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="GW16" s="55"/>
+      <c r="GW16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="GX16" s="55"/>
       <c r="GY16" s="55"/>
       <c r="GZ16" s="55"/>
@@ -10726,7 +10754,9 @@
       <c r="GV17" s="59" t="n">
         <v>100847663</v>
       </c>
-      <c r="GW17" s="59"/>
+      <c r="GW17" s="59" t="n">
+        <v>100949518</v>
+      </c>
       <c r="GX17" s="59"/>
       <c r="GY17" s="59"/>
       <c r="GZ17" s="59"/>
@@ -11353,7 +11383,9 @@
       <c r="GV18" s="62" t="n">
         <v>192</v>
       </c>
-      <c r="GW18" s="62"/>
+      <c r="GW18" s="62" t="n">
+        <v>192</v>
+      </c>
       <c r="GX18" s="62"/>
       <c r="GY18" s="62"/>
       <c r="GZ18" s="62"/>
@@ -11982,7 +12014,9 @@
       <c r="GV19" s="66" t="n">
         <v>89829384</v>
       </c>
-      <c r="GW19" s="66"/>
+      <c r="GW19" s="66" t="n">
+        <v>89983324</v>
+      </c>
       <c r="GX19" s="66"/>
       <c r="GY19" s="66"/>
       <c r="GZ19" s="66"/>
@@ -12609,7 +12643,9 @@
       <c r="GV20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="GW20" s="69"/>
+      <c r="GW20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="GX20" s="69"/>
       <c r="GY20" s="69"/>
       <c r="GZ20" s="69"/>
@@ -13435,7 +13471,11 @@
       </c>
       <c r="GV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GV2)&amp;", ""month"": "&amp;MONTH(GV2)&amp;", ""day"": "&amp;DAY(GV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GV3&amp;", ""memberCount"": "&amp;GV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GV5&amp;", ""memberCount"": "&amp;GV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GV7&amp;", ""memberCount"": "&amp;GV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GV9&amp;", ""memberCount"": "&amp;GV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GV11&amp;", ""memberCount"": "&amp;GV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GV13&amp;", ""memberCount"": "&amp;GV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GV15&amp;", ""memberCount"": "&amp;GV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GV17&amp;", ""memberCount"": "&amp;GV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GV19&amp;", ""memberCount"": "&amp;GV20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 202297666, "memberCount": 198}, {"name": "Smile", "contribution": 175571999, "memberCount": 200}, {"name": "Elite", "contribution": 166875128, "memberCount": 199}, {"name": "Savages", "contribution": 156324513, "memberCount": 198}, {"name": "Spring", "contribution": 134536665, "memberCount": 195}, {"name": "Bounce", "contribution": 133204762, "memberCount": 198}, {"name": "Sunset", "contribution": 125231624, "memberCount": 197}, {"name": "Beaters", "contribution": 100847663, "memberCount": 192}, {"name": "Downtime", "contribution": 89829384, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 202297666, "memberCount": 198}, {"name": "Smile", "contribution": 175571999, "memberCount": 200}, {"name": "Elite", "contribution": 166875128, "memberCount": 199}, {"name": "Savages", "contribution": 156324513, "memberCount": 198}, {"name": "Spring", "contribution": 134536665, "memberCount": 195}, {"name": "Bounce", "contribution": 133204762, "memberCount": 198}, {"name": "Sunset", "contribution": 125231624, "memberCount": 197}, {"name": "Beaters", "contribution": 100847663, "memberCount": 192}, {"name": "Downtime", "contribution": 89829384, "memberCount": 196}]}</v>
+      </c>
+      <c r="GW23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GW2)&amp;", ""month"": "&amp;MONTH(GW2)&amp;", ""day"": "&amp;DAY(GW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GW3&amp;", ""memberCount"": "&amp;GW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GW5&amp;", ""memberCount"": "&amp;GW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GW7&amp;", ""memberCount"": "&amp;GW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GW9&amp;", ""memberCount"": "&amp;GW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GW11&amp;", ""memberCount"": "&amp;GW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GW13&amp;", ""memberCount"": "&amp;GW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GW15&amp;", ""memberCount"": "&amp;GW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GW17&amp;", ""memberCount"": "&amp;GW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GW19&amp;", ""memberCount"": "&amp;GW20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 202527630, "memberCount": 198}, {"name": "Smile", "contribution": 175761158, "memberCount": 200}, {"name": "Elite", "contribution": 167075994, "memberCount": 199}, {"name": "Savages", "contribution": 156591899, "memberCount": 198}, {"name": "Spring", "contribution": 134633475, "memberCount": 195}, {"name": "Bounce", "contribution": 133451952, "memberCount": 198}, {"name": "Sunset", "contribution": 125397572, "memberCount": 197}, {"name": "Beaters", "contribution": 100949518, "memberCount": 192}, {"name": "Downtime", "contribution": 89983324, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GV3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GV1" activeCellId="0" sqref="GV1"/>
+      <selection pane="topRight" activeCell="GW1" activeCellId="0" sqref="GW1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GX2" activeCellId="0" sqref="GX2"/>
+      <selection pane="bottomRight" activeCell="GY3" activeCellId="0" sqref="GY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1937,7 +1937,9 @@
       <c r="GW3" s="7" t="n">
         <v>202527630</v>
       </c>
-      <c r="GX3" s="7"/>
+      <c r="GX3" s="7" t="n">
+        <v>202684306</v>
+      </c>
       <c r="GY3" s="7"/>
       <c r="GZ3" s="7"/>
       <c r="HA3" s="7"/>
@@ -2566,7 +2568,9 @@
       <c r="GW4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GX4" s="11"/>
+      <c r="GX4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GY4" s="11"/>
       <c r="GZ4" s="11"/>
       <c r="HA4" s="11"/>
@@ -3197,7 +3201,9 @@
       <c r="GW5" s="17" t="n">
         <v>175761158</v>
       </c>
-      <c r="GX5" s="17"/>
+      <c r="GX5" s="17" t="n">
+        <v>175434015</v>
+      </c>
       <c r="GY5" s="17"/>
       <c r="GZ5" s="17"/>
       <c r="HA5" s="17"/>
@@ -3826,7 +3832,9 @@
       <c r="GW6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="GX6" s="20"/>
+      <c r="GX6" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="GY6" s="20"/>
       <c r="GZ6" s="20"/>
       <c r="HA6" s="20"/>
@@ -4457,7 +4465,9 @@
       <c r="GW7" s="24" t="n">
         <v>167075994</v>
       </c>
-      <c r="GX7" s="24"/>
+      <c r="GX7" s="24" t="n">
+        <v>167256613</v>
+      </c>
       <c r="GY7" s="24"/>
       <c r="GZ7" s="24"/>
       <c r="HA7" s="24"/>
@@ -5086,7 +5096,9 @@
       <c r="GW8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GX8" s="27"/>
+      <c r="GX8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GY8" s="27"/>
       <c r="GZ8" s="27"/>
       <c r="HA8" s="27"/>
@@ -5717,7 +5729,9 @@
       <c r="GW9" s="31" t="n">
         <v>156591899</v>
       </c>
-      <c r="GX9" s="31"/>
+      <c r="GX9" s="31" t="n">
+        <v>156764048</v>
+      </c>
       <c r="GY9" s="31"/>
       <c r="GZ9" s="31"/>
       <c r="HA9" s="31"/>
@@ -6346,7 +6360,9 @@
       <c r="GW10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GX10" s="34"/>
+      <c r="GX10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GY10" s="34"/>
       <c r="GZ10" s="34"/>
       <c r="HA10" s="34"/>
@@ -6977,7 +6993,9 @@
       <c r="GW11" s="38" t="n">
         <v>134633475</v>
       </c>
-      <c r="GX11" s="38"/>
+      <c r="GX11" s="38" t="n">
+        <v>134739665</v>
+      </c>
       <c r="GY11" s="38"/>
       <c r="GZ11" s="38"/>
       <c r="HA11" s="38"/>
@@ -7606,7 +7624,9 @@
       <c r="GW12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="GX12" s="41"/>
+      <c r="GX12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="GY12" s="41"/>
       <c r="GZ12" s="41"/>
       <c r="HA12" s="41"/>
@@ -8237,7 +8257,9 @@
       <c r="GW13" s="45" t="n">
         <v>133451952</v>
       </c>
-      <c r="GX13" s="45"/>
+      <c r="GX13" s="45" t="n">
+        <v>133774449</v>
+      </c>
       <c r="GY13" s="45"/>
       <c r="GZ13" s="45"/>
       <c r="HA13" s="45"/>
@@ -8866,7 +8888,9 @@
       <c r="GW14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GX14" s="48"/>
+      <c r="GX14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GY14" s="48"/>
       <c r="GZ14" s="48"/>
       <c r="HA14" s="48"/>
@@ -9497,7 +9521,9 @@
       <c r="GW15" s="52" t="n">
         <v>125397572</v>
       </c>
-      <c r="GX15" s="52"/>
+      <c r="GX15" s="52" t="n">
+        <v>125562479</v>
+      </c>
       <c r="GY15" s="52"/>
       <c r="GZ15" s="52"/>
       <c r="HA15" s="52"/>
@@ -10126,7 +10152,9 @@
       <c r="GW16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="GX16" s="55"/>
+      <c r="GX16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="GY16" s="55"/>
       <c r="GZ16" s="55"/>
       <c r="HA16" s="55"/>
@@ -10757,7 +10785,9 @@
       <c r="GW17" s="59" t="n">
         <v>100949518</v>
       </c>
-      <c r="GX17" s="59"/>
+      <c r="GX17" s="59" t="n">
+        <v>101062924</v>
+      </c>
       <c r="GY17" s="59"/>
       <c r="GZ17" s="59"/>
       <c r="HA17" s="59"/>
@@ -11386,7 +11416,9 @@
       <c r="GW18" s="62" t="n">
         <v>192</v>
       </c>
-      <c r="GX18" s="62"/>
+      <c r="GX18" s="62" t="n">
+        <v>192</v>
+      </c>
       <c r="GY18" s="62"/>
       <c r="GZ18" s="62"/>
       <c r="HA18" s="62"/>
@@ -12017,7 +12049,9 @@
       <c r="GW19" s="66" t="n">
         <v>89983324</v>
       </c>
-      <c r="GX19" s="66"/>
+      <c r="GX19" s="66" t="n">
+        <v>90156843</v>
+      </c>
       <c r="GY19" s="66"/>
       <c r="GZ19" s="66"/>
       <c r="HA19" s="66"/>
@@ -12646,7 +12680,9 @@
       <c r="GW20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="GX20" s="69"/>
+      <c r="GX20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="GY20" s="69"/>
       <c r="GZ20" s="69"/>
       <c r="HA20" s="69"/>
@@ -13475,7 +13511,11 @@
       </c>
       <c r="GW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GW2)&amp;", ""month"": "&amp;MONTH(GW2)&amp;", ""day"": "&amp;DAY(GW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GW3&amp;", ""memberCount"": "&amp;GW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GW5&amp;", ""memberCount"": "&amp;GW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GW7&amp;", ""memberCount"": "&amp;GW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GW9&amp;", ""memberCount"": "&amp;GW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GW11&amp;", ""memberCount"": "&amp;GW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GW13&amp;", ""memberCount"": "&amp;GW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GW15&amp;", ""memberCount"": "&amp;GW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GW17&amp;", ""memberCount"": "&amp;GW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GW19&amp;", ""memberCount"": "&amp;GW20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 202527630, "memberCount": 198}, {"name": "Smile", "contribution": 175761158, "memberCount": 200}, {"name": "Elite", "contribution": 167075994, "memberCount": 199}, {"name": "Savages", "contribution": 156591899, "memberCount": 198}, {"name": "Spring", "contribution": 134633475, "memberCount": 195}, {"name": "Bounce", "contribution": 133451952, "memberCount": 198}, {"name": "Sunset", "contribution": 125397572, "memberCount": 197}, {"name": "Beaters", "contribution": 100949518, "memberCount": 192}, {"name": "Downtime", "contribution": 89983324, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 202527630, "memberCount": 198}, {"name": "Smile", "contribution": 175761158, "memberCount": 200}, {"name": "Elite", "contribution": 167075994, "memberCount": 199}, {"name": "Savages", "contribution": 156591899, "memberCount": 198}, {"name": "Spring", "contribution": 134633475, "memberCount": 195}, {"name": "Bounce", "contribution": 133451952, "memberCount": 198}, {"name": "Sunset", "contribution": 125397572, "memberCount": 197}, {"name": "Beaters", "contribution": 100949518, "memberCount": 192}, {"name": "Downtime", "contribution": 89983324, "memberCount": 198}]}</v>
+      </c>
+      <c r="GX23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GX2)&amp;", ""month"": "&amp;MONTH(GX2)&amp;", ""day"": "&amp;DAY(GX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GX3&amp;", ""memberCount"": "&amp;GX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GX5&amp;", ""memberCount"": "&amp;GX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GX7&amp;", ""memberCount"": "&amp;GX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GX9&amp;", ""memberCount"": "&amp;GX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GX11&amp;", ""memberCount"": "&amp;GX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GX13&amp;", ""memberCount"": "&amp;GX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GX15&amp;", ""memberCount"": "&amp;GX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GX17&amp;", ""memberCount"": "&amp;GX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GX19&amp;", ""memberCount"": "&amp;GX20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 202684306, "memberCount": 198}, {"name": "Smile", "contribution": 175434015, "memberCount": 197}, {"name": "Elite", "contribution": 167256613, "memberCount": 199}, {"name": "Savages", "contribution": 156764048, "memberCount": 198}, {"name": "Spring", "contribution": 134739665, "memberCount": 196}, {"name": "Bounce", "contribution": 133774449, "memberCount": 198}, {"name": "Sunset", "contribution": 125562479, "memberCount": 197}, {"name": "Beaters", "contribution": 101062924, "memberCount": 192}, {"name": "Downtime", "contribution": 90156843, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GW1" activeCellId="0" sqref="GW1"/>
+      <selection pane="topRight" activeCell="GX1" activeCellId="0" sqref="GX1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GY3" activeCellId="0" sqref="GY3"/>
+      <selection pane="bottomRight" activeCell="GY23" activeCellId="0" sqref="GY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1940,7 +1940,9 @@
       <c r="GX3" s="7" t="n">
         <v>202684306</v>
       </c>
-      <c r="GY3" s="7"/>
+      <c r="GY3" s="7" t="n">
+        <v>202932259</v>
+      </c>
       <c r="GZ3" s="7"/>
       <c r="HA3" s="7"/>
       <c r="HB3" s="7"/>
@@ -2571,7 +2573,9 @@
       <c r="GX4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GY4" s="11"/>
+      <c r="GY4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="GZ4" s="11"/>
       <c r="HA4" s="11"/>
       <c r="HB4" s="11"/>
@@ -3204,7 +3208,9 @@
       <c r="GX5" s="17" t="n">
         <v>175434015</v>
       </c>
-      <c r="GY5" s="17"/>
+      <c r="GY5" s="17" t="n">
+        <v>175672557</v>
+      </c>
       <c r="GZ5" s="17"/>
       <c r="HA5" s="17"/>
       <c r="HB5" s="17"/>
@@ -3835,7 +3841,9 @@
       <c r="GX6" s="20" t="n">
         <v>197</v>
       </c>
-      <c r="GY6" s="20"/>
+      <c r="GY6" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="GZ6" s="20"/>
       <c r="HA6" s="20"/>
       <c r="HB6" s="20"/>
@@ -4468,7 +4476,9 @@
       <c r="GX7" s="24" t="n">
         <v>167256613</v>
       </c>
-      <c r="GY7" s="24"/>
+      <c r="GY7" s="24" t="n">
+        <v>167418764</v>
+      </c>
       <c r="GZ7" s="24"/>
       <c r="HA7" s="24"/>
       <c r="HB7" s="24"/>
@@ -5099,7 +5109,9 @@
       <c r="GX8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GY8" s="27"/>
+      <c r="GY8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="GZ8" s="27"/>
       <c r="HA8" s="27"/>
       <c r="HB8" s="27"/>
@@ -5732,7 +5744,9 @@
       <c r="GX9" s="31" t="n">
         <v>156764048</v>
       </c>
-      <c r="GY9" s="31"/>
+      <c r="GY9" s="31" t="n">
+        <v>157018728</v>
+      </c>
       <c r="GZ9" s="31"/>
       <c r="HA9" s="31"/>
       <c r="HB9" s="31"/>
@@ -6363,7 +6377,9 @@
       <c r="GX10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GY10" s="34"/>
+      <c r="GY10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="GZ10" s="34"/>
       <c r="HA10" s="34"/>
       <c r="HB10" s="34"/>
@@ -6996,7 +7012,9 @@
       <c r="GX11" s="38" t="n">
         <v>134739665</v>
       </c>
-      <c r="GY11" s="38"/>
+      <c r="GY11" s="38" t="n">
+        <v>134858480</v>
+      </c>
       <c r="GZ11" s="38"/>
       <c r="HA11" s="38"/>
       <c r="HB11" s="38"/>
@@ -7627,7 +7645,9 @@
       <c r="GX12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="GY12" s="41"/>
+      <c r="GY12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="GZ12" s="41"/>
       <c r="HA12" s="41"/>
       <c r="HB12" s="41"/>
@@ -8260,7 +8280,9 @@
       <c r="GX13" s="45" t="n">
         <v>133774449</v>
       </c>
-      <c r="GY13" s="45"/>
+      <c r="GY13" s="45" t="n">
+        <v>134024834</v>
+      </c>
       <c r="GZ13" s="45"/>
       <c r="HA13" s="45"/>
       <c r="HB13" s="45"/>
@@ -8891,7 +8913,9 @@
       <c r="GX14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GY14" s="48"/>
+      <c r="GY14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="GZ14" s="48"/>
       <c r="HA14" s="48"/>
       <c r="HB14" s="48"/>
@@ -9524,7 +9548,9 @@
       <c r="GX15" s="52" t="n">
         <v>125562479</v>
       </c>
-      <c r="GY15" s="52"/>
+      <c r="GY15" s="52" t="n">
+        <v>125447998</v>
+      </c>
       <c r="GZ15" s="52"/>
       <c r="HA15" s="52"/>
       <c r="HB15" s="52"/>
@@ -10155,7 +10181,9 @@
       <c r="GX16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="GY16" s="55"/>
+      <c r="GY16" s="55" t="n">
+        <v>198</v>
+      </c>
       <c r="GZ16" s="55"/>
       <c r="HA16" s="55"/>
       <c r="HB16" s="55"/>
@@ -10788,7 +10816,9 @@
       <c r="GX17" s="59" t="n">
         <v>101062924</v>
       </c>
-      <c r="GY17" s="59"/>
+      <c r="GY17" s="59" t="n">
+        <v>97955694</v>
+      </c>
       <c r="GZ17" s="59"/>
       <c r="HA17" s="59"/>
       <c r="HB17" s="59"/>
@@ -11419,7 +11449,9 @@
       <c r="GX18" s="62" t="n">
         <v>192</v>
       </c>
-      <c r="GY18" s="62"/>
+      <c r="GY18" s="62" t="n">
+        <v>189</v>
+      </c>
       <c r="GZ18" s="62"/>
       <c r="HA18" s="62"/>
       <c r="HB18" s="62"/>
@@ -12052,7 +12084,9 @@
       <c r="GX19" s="66" t="n">
         <v>90156843</v>
       </c>
-      <c r="GY19" s="66"/>
+      <c r="GY19" s="66" t="n">
+        <v>90061056</v>
+      </c>
       <c r="GZ19" s="66"/>
       <c r="HA19" s="66"/>
       <c r="HB19" s="66"/>
@@ -12683,7 +12717,9 @@
       <c r="GX20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="GY20" s="69"/>
+      <c r="GY20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="GZ20" s="69"/>
       <c r="HA20" s="69"/>
       <c r="HB20" s="69"/>
@@ -13515,7 +13551,11 @@
       </c>
       <c r="GX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GX2)&amp;", ""month"": "&amp;MONTH(GX2)&amp;", ""day"": "&amp;DAY(GX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GX3&amp;", ""memberCount"": "&amp;GX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GX5&amp;", ""memberCount"": "&amp;GX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GX7&amp;", ""memberCount"": "&amp;GX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GX9&amp;", ""memberCount"": "&amp;GX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GX11&amp;", ""memberCount"": "&amp;GX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GX13&amp;", ""memberCount"": "&amp;GX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GX15&amp;", ""memberCount"": "&amp;GX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GX17&amp;", ""memberCount"": "&amp;GX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GX19&amp;", ""memberCount"": "&amp;GX20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 202684306, "memberCount": 198}, {"name": "Smile", "contribution": 175434015, "memberCount": 197}, {"name": "Elite", "contribution": 167256613, "memberCount": 199}, {"name": "Savages", "contribution": 156764048, "memberCount": 198}, {"name": "Spring", "contribution": 134739665, "memberCount": 196}, {"name": "Bounce", "contribution": 133774449, "memberCount": 198}, {"name": "Sunset", "contribution": 125562479, "memberCount": 197}, {"name": "Beaters", "contribution": 101062924, "memberCount": 192}, {"name": "Downtime", "contribution": 90156843, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 202684306, "memberCount": 198}, {"name": "Smile", "contribution": 175434015, "memberCount": 197}, {"name": "Elite", "contribution": 167256613, "memberCount": 199}, {"name": "Savages", "contribution": 156764048, "memberCount": 198}, {"name": "Spring", "contribution": 134739665, "memberCount": 196}, {"name": "Bounce", "contribution": 133774449, "memberCount": 198}, {"name": "Sunset", "contribution": 125562479, "memberCount": 197}, {"name": "Beaters", "contribution": 101062924, "memberCount": 192}, {"name": "Downtime", "contribution": 90156843, "memberCount": 198}]}</v>
+      </c>
+      <c r="GY23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GY2)&amp;", ""month"": "&amp;MONTH(GY2)&amp;", ""day"": "&amp;DAY(GY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GY3&amp;", ""memberCount"": "&amp;GY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GY5&amp;", ""memberCount"": "&amp;GY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GY7&amp;", ""memberCount"": "&amp;GY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GY9&amp;", ""memberCount"": "&amp;GY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GY11&amp;", ""memberCount"": "&amp;GY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GY13&amp;", ""memberCount"": "&amp;GY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GY15&amp;", ""memberCount"": "&amp;GY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GY17&amp;", ""memberCount"": "&amp;GY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GY19&amp;", ""memberCount"": "&amp;GY20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 3, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": 202932259, "memberCount": 198}, {"name": "Smile", "contribution": 175672557, "memberCount": 197}, {"name": "Elite", "contribution": 167418764, "memberCount": 199}, {"name": "Savages", "contribution": 157018728, "memberCount": 198}, {"name": "Spring", "contribution": 134858480, "memberCount": 196}, {"name": "Bounce", "contribution": 134024834, "memberCount": 198}, {"name": "Sunset", "contribution": 125447998, "memberCount": 198}, {"name": "Beaters", "contribution": 97955694, "memberCount": 189}, {"name": "Downtime", "contribution": 90061056, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="GX1" activeCellId="0" sqref="GX1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GY23" activeCellId="0" sqref="GY23"/>
+      <selection pane="bottomRight" activeCell="GZ23" activeCellId="0" sqref="GZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1943,7 +1943,9 @@
       <c r="GY3" s="7" t="n">
         <v>202932259</v>
       </c>
-      <c r="GZ3" s="7"/>
+      <c r="GZ3" s="7" t="n">
+        <v>203115512</v>
+      </c>
       <c r="HA3" s="7"/>
       <c r="HB3" s="7"/>
       <c r="HC3" s="7"/>
@@ -2576,7 +2578,9 @@
       <c r="GY4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="GZ4" s="11"/>
+      <c r="GZ4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="HA4" s="11"/>
       <c r="HB4" s="11"/>
       <c r="HC4" s="11"/>
@@ -3211,7 +3215,9 @@
       <c r="GY5" s="17" t="n">
         <v>175672557</v>
       </c>
-      <c r="GZ5" s="17"/>
+      <c r="GZ5" s="17" t="n">
+        <v>175823949</v>
+      </c>
       <c r="HA5" s="17"/>
       <c r="HB5" s="17"/>
       <c r="HC5" s="17"/>
@@ -3844,7 +3850,9 @@
       <c r="GY6" s="20" t="n">
         <v>197</v>
       </c>
-      <c r="GZ6" s="20"/>
+      <c r="GZ6" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="HA6" s="20"/>
       <c r="HB6" s="20"/>
       <c r="HC6" s="20"/>
@@ -4479,7 +4487,9 @@
       <c r="GY7" s="24" t="n">
         <v>167418764</v>
       </c>
-      <c r="GZ7" s="24"/>
+      <c r="GZ7" s="24" t="n">
+        <v>167545724</v>
+      </c>
       <c r="HA7" s="24"/>
       <c r="HB7" s="24"/>
       <c r="HC7" s="24"/>
@@ -5112,7 +5122,9 @@
       <c r="GY8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="GZ8" s="27"/>
+      <c r="GZ8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HA8" s="27"/>
       <c r="HB8" s="27"/>
       <c r="HC8" s="27"/>
@@ -5747,7 +5759,9 @@
       <c r="GY9" s="31" t="n">
         <v>157018728</v>
       </c>
-      <c r="GZ9" s="31"/>
+      <c r="GZ9" s="31" t="n">
+        <v>157225451</v>
+      </c>
       <c r="HA9" s="31"/>
       <c r="HB9" s="31"/>
       <c r="HC9" s="31"/>
@@ -6380,7 +6394,9 @@
       <c r="GY10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="GZ10" s="34"/>
+      <c r="GZ10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="HA10" s="34"/>
       <c r="HB10" s="34"/>
       <c r="HC10" s="34"/>
@@ -7015,7 +7031,9 @@
       <c r="GY11" s="38" t="n">
         <v>134858480</v>
       </c>
-      <c r="GZ11" s="38"/>
+      <c r="GZ11" s="38" t="n">
+        <v>134923357</v>
+      </c>
       <c r="HA11" s="38"/>
       <c r="HB11" s="38"/>
       <c r="HC11" s="38"/>
@@ -7648,7 +7666,9 @@
       <c r="GY12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="GZ12" s="41"/>
+      <c r="GZ12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="HA12" s="41"/>
       <c r="HB12" s="41"/>
       <c r="HC12" s="41"/>
@@ -8283,7 +8303,9 @@
       <c r="GY13" s="45" t="n">
         <v>134024834</v>
       </c>
-      <c r="GZ13" s="45"/>
+      <c r="GZ13" s="45" t="n">
+        <v>134377987</v>
+      </c>
       <c r="HA13" s="45"/>
       <c r="HB13" s="45"/>
       <c r="HC13" s="45"/>
@@ -8916,7 +8938,9 @@
       <c r="GY14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="GZ14" s="48"/>
+      <c r="GZ14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="HA14" s="48"/>
       <c r="HB14" s="48"/>
       <c r="HC14" s="48"/>
@@ -9551,7 +9575,9 @@
       <c r="GY15" s="52" t="n">
         <v>125447998</v>
       </c>
-      <c r="GZ15" s="52"/>
+      <c r="GZ15" s="52" t="n">
+        <v>125574466</v>
+      </c>
       <c r="HA15" s="52"/>
       <c r="HB15" s="52"/>
       <c r="HC15" s="52"/>
@@ -10184,7 +10210,9 @@
       <c r="GY16" s="55" t="n">
         <v>198</v>
       </c>
-      <c r="GZ16" s="55"/>
+      <c r="GZ16" s="55" t="n">
+        <v>199</v>
+      </c>
       <c r="HA16" s="55"/>
       <c r="HB16" s="55"/>
       <c r="HC16" s="55"/>
@@ -10819,7 +10847,9 @@
       <c r="GY17" s="59" t="n">
         <v>97955694</v>
       </c>
-      <c r="GZ17" s="59"/>
+      <c r="GZ17" s="59" t="n">
+        <v>97022492</v>
+      </c>
       <c r="HA17" s="59"/>
       <c r="HB17" s="59"/>
       <c r="HC17" s="59"/>
@@ -11452,7 +11482,9 @@
       <c r="GY18" s="62" t="n">
         <v>189</v>
       </c>
-      <c r="GZ18" s="62"/>
+      <c r="GZ18" s="62" t="n">
+        <v>186</v>
+      </c>
       <c r="HA18" s="62"/>
       <c r="HB18" s="62"/>
       <c r="HC18" s="62"/>
@@ -12087,7 +12119,9 @@
       <c r="GY19" s="66" t="n">
         <v>90061056</v>
       </c>
-      <c r="GZ19" s="66"/>
+      <c r="GZ19" s="66" t="n">
+        <v>90193529</v>
+      </c>
       <c r="HA19" s="66"/>
       <c r="HB19" s="66"/>
       <c r="HC19" s="66"/>
@@ -12720,7 +12754,9 @@
       <c r="GY20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="GZ20" s="69"/>
+      <c r="GZ20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HA20" s="69"/>
       <c r="HB20" s="69"/>
       <c r="HC20" s="69"/>
@@ -13555,7 +13591,11 @@
       </c>
       <c r="GY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GY2)&amp;", ""month"": "&amp;MONTH(GY2)&amp;", ""day"": "&amp;DAY(GY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GY3&amp;", ""memberCount"": "&amp;GY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GY5&amp;", ""memberCount"": "&amp;GY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GY7&amp;", ""memberCount"": "&amp;GY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GY9&amp;", ""memberCount"": "&amp;GY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GY11&amp;", ""memberCount"": "&amp;GY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GY13&amp;", ""memberCount"": "&amp;GY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GY15&amp;", ""memberCount"": "&amp;GY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GY17&amp;", ""memberCount"": "&amp;GY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GY19&amp;", ""memberCount"": "&amp;GY20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 3, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": 202932259, "memberCount": 198}, {"name": "Smile", "contribution": 175672557, "memberCount": 197}, {"name": "Elite", "contribution": 167418764, "memberCount": 199}, {"name": "Savages", "contribution": 157018728, "memberCount": 198}, {"name": "Spring", "contribution": 134858480, "memberCount": 196}, {"name": "Bounce", "contribution": 134024834, "memberCount": 198}, {"name": "Sunset", "contribution": 125447998, "memberCount": 198}, {"name": "Beaters", "contribution": 97955694, "memberCount": 189}, {"name": "Downtime", "contribution": 90061056, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 3, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": 202932259, "memberCount": 198}, {"name": "Smile", "contribution": 175672557, "memberCount": 197}, {"name": "Elite", "contribution": 167418764, "memberCount": 199}, {"name": "Savages", "contribution": 157018728, "memberCount": 198}, {"name": "Spring", "contribution": 134858480, "memberCount": 196}, {"name": "Bounce", "contribution": 134024834, "memberCount": 198}, {"name": "Sunset", "contribution": 125447998, "memberCount": 198}, {"name": "Beaters", "contribution": 97955694, "memberCount": 189}, {"name": "Downtime", "contribution": 90061056, "memberCount": 197}]}</v>
+      </c>
+      <c r="GZ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GZ2)&amp;", ""month"": "&amp;MONTH(GZ2)&amp;", ""day"": "&amp;DAY(GZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GZ3&amp;", ""memberCount"": "&amp;GZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GZ5&amp;", ""memberCount"": "&amp;GZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GZ7&amp;", ""memberCount"": "&amp;GZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GZ9&amp;", ""memberCount"": "&amp;GZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GZ11&amp;", ""memberCount"": "&amp;GZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GZ13&amp;", ""memberCount"": "&amp;GZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GZ15&amp;", ""memberCount"": "&amp;GZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GZ17&amp;", ""memberCount"": "&amp;GZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GZ19&amp;", ""memberCount"": "&amp;GZ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 203115512, "memberCount": 198}, {"name": "Smile", "contribution": 175823949, "memberCount": 197}, {"name": "Elite", "contribution": 167545724, "memberCount": 199}, {"name": "Savages", "contribution": 157225451, "memberCount": 198}, {"name": "Spring", "contribution": 134923357, "memberCount": 196}, {"name": "Bounce", "contribution": 134377987, "memberCount": 198}, {"name": "Sunset", "contribution": 125574466, "memberCount": 199}, {"name": "Beaters", "contribution": 97022492, "memberCount": 186}, {"name": "Downtime", "contribution": 90193529, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GX1" activeCellId="0" sqref="GX1"/>
+      <selection pane="topRight" activeCell="GY1" activeCellId="0" sqref="GY1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="GZ23" activeCellId="0" sqref="GZ23"/>
+      <selection pane="bottomRight" activeCell="HA23" activeCellId="0" sqref="HA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1946,7 +1946,9 @@
       <c r="GZ3" s="7" t="n">
         <v>203115512</v>
       </c>
-      <c r="HA3" s="7"/>
+      <c r="HA3" s="7" t="n">
+        <v>203289647</v>
+      </c>
       <c r="HB3" s="7"/>
       <c r="HC3" s="7"/>
       <c r="HD3" s="7"/>
@@ -2581,7 +2583,9 @@
       <c r="GZ4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="HA4" s="11"/>
+      <c r="HA4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="HB4" s="11"/>
       <c r="HC4" s="11"/>
       <c r="HD4" s="11"/>
@@ -3218,7 +3222,9 @@
       <c r="GZ5" s="17" t="n">
         <v>175823949</v>
       </c>
-      <c r="HA5" s="17"/>
+      <c r="HA5" s="17" t="n">
+        <v>175590103</v>
+      </c>
       <c r="HB5" s="17"/>
       <c r="HC5" s="17"/>
       <c r="HD5" s="17"/>
@@ -3853,7 +3859,9 @@
       <c r="GZ6" s="20" t="n">
         <v>197</v>
       </c>
-      <c r="HA6" s="20"/>
+      <c r="HA6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="HB6" s="20"/>
       <c r="HC6" s="20"/>
       <c r="HD6" s="20"/>
@@ -4490,7 +4498,9 @@
       <c r="GZ7" s="24" t="n">
         <v>167545724</v>
       </c>
-      <c r="HA7" s="24"/>
+      <c r="HA7" s="24" t="n">
+        <v>167721793</v>
+      </c>
       <c r="HB7" s="24"/>
       <c r="HC7" s="24"/>
       <c r="HD7" s="24"/>
@@ -5125,7 +5135,9 @@
       <c r="GZ8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HA8" s="27"/>
+      <c r="HA8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HB8" s="27"/>
       <c r="HC8" s="27"/>
       <c r="HD8" s="27"/>
@@ -5762,7 +5774,9 @@
       <c r="GZ9" s="31" t="n">
         <v>157225451</v>
       </c>
-      <c r="HA9" s="31"/>
+      <c r="HA9" s="31" t="n">
+        <v>157390179</v>
+      </c>
       <c r="HB9" s="31"/>
       <c r="HC9" s="31"/>
       <c r="HD9" s="31"/>
@@ -6397,7 +6411,9 @@
       <c r="GZ10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="HA10" s="34"/>
+      <c r="HA10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="HB10" s="34"/>
       <c r="HC10" s="34"/>
       <c r="HD10" s="34"/>
@@ -7034,7 +7050,9 @@
       <c r="GZ11" s="38" t="n">
         <v>134923357</v>
       </c>
-      <c r="HA11" s="38"/>
+      <c r="HA11" s="38" t="n">
+        <v>135036759</v>
+      </c>
       <c r="HB11" s="38"/>
       <c r="HC11" s="38"/>
       <c r="HD11" s="38"/>
@@ -7669,7 +7687,9 @@
       <c r="GZ12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="HA12" s="41"/>
+      <c r="HA12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="HB12" s="41"/>
       <c r="HC12" s="41"/>
       <c r="HD12" s="41"/>
@@ -8306,7 +8326,9 @@
       <c r="GZ13" s="45" t="n">
         <v>134377987</v>
       </c>
-      <c r="HA13" s="45"/>
+      <c r="HA13" s="45" t="n">
+        <v>134529724</v>
+      </c>
       <c r="HB13" s="45"/>
       <c r="HC13" s="45"/>
       <c r="HD13" s="45"/>
@@ -8941,7 +8963,9 @@
       <c r="GZ14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="HA14" s="48"/>
+      <c r="HA14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="HB14" s="48"/>
       <c r="HC14" s="48"/>
       <c r="HD14" s="48"/>
@@ -9578,7 +9602,9 @@
       <c r="GZ15" s="52" t="n">
         <v>125574466</v>
       </c>
-      <c r="HA15" s="52"/>
+      <c r="HA15" s="52" t="n">
+        <v>125425872</v>
+      </c>
       <c r="HB15" s="52"/>
       <c r="HC15" s="52"/>
       <c r="HD15" s="52"/>
@@ -10213,7 +10239,9 @@
       <c r="GZ16" s="55" t="n">
         <v>199</v>
       </c>
-      <c r="HA16" s="55"/>
+      <c r="HA16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="HB16" s="55"/>
       <c r="HC16" s="55"/>
       <c r="HD16" s="55"/>
@@ -10850,7 +10878,9 @@
       <c r="GZ17" s="59" t="n">
         <v>97022492</v>
       </c>
-      <c r="HA17" s="59"/>
+      <c r="HA17" s="59" t="n">
+        <v>97079537</v>
+      </c>
       <c r="HB17" s="59"/>
       <c r="HC17" s="59"/>
       <c r="HD17" s="59"/>
@@ -11485,7 +11515,9 @@
       <c r="GZ18" s="62" t="n">
         <v>186</v>
       </c>
-      <c r="HA18" s="62"/>
+      <c r="HA18" s="62" t="n">
+        <v>185</v>
+      </c>
       <c r="HB18" s="62"/>
       <c r="HC18" s="62"/>
       <c r="HD18" s="62"/>
@@ -12122,7 +12154,9 @@
       <c r="GZ19" s="66" t="n">
         <v>90193529</v>
       </c>
-      <c r="HA19" s="66"/>
+      <c r="HA19" s="66" t="n">
+        <v>90335565</v>
+      </c>
       <c r="HB19" s="66"/>
       <c r="HC19" s="66"/>
       <c r="HD19" s="66"/>
@@ -12757,7 +12791,9 @@
       <c r="GZ20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HA20" s="69"/>
+      <c r="HA20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="HB20" s="69"/>
       <c r="HC20" s="69"/>
       <c r="HD20" s="69"/>
@@ -13595,7 +13631,11 @@
       </c>
       <c r="GZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(GZ2)&amp;", ""month"": "&amp;MONTH(GZ2)&amp;", ""day"": "&amp;DAY(GZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;GZ3&amp;", ""memberCount"": "&amp;GZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;GZ5&amp;", ""memberCount"": "&amp;GZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;GZ7&amp;", ""memberCount"": "&amp;GZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;GZ9&amp;", ""memberCount"": "&amp;GZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;GZ11&amp;", ""memberCount"": "&amp;GZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;GZ13&amp;", ""memberCount"": "&amp;GZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;GZ15&amp;", ""memberCount"": "&amp;GZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;GZ17&amp;", ""memberCount"": "&amp;GZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;GZ19&amp;", ""memberCount"": "&amp;GZ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 203115512, "memberCount": 198}, {"name": "Smile", "contribution": 175823949, "memberCount": 197}, {"name": "Elite", "contribution": 167545724, "memberCount": 199}, {"name": "Savages", "contribution": 157225451, "memberCount": 198}, {"name": "Spring", "contribution": 134923357, "memberCount": 196}, {"name": "Bounce", "contribution": 134377987, "memberCount": 198}, {"name": "Sunset", "contribution": 125574466, "memberCount": 199}, {"name": "Beaters", "contribution": 97022492, "memberCount": 186}, {"name": "Downtime", "contribution": 90193529, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 203115512, "memberCount": 198}, {"name": "Smile", "contribution": 175823949, "memberCount": 197}, {"name": "Elite", "contribution": 167545724, "memberCount": 199}, {"name": "Savages", "contribution": 157225451, "memberCount": 198}, {"name": "Spring", "contribution": 134923357, "memberCount": 196}, {"name": "Bounce", "contribution": 134377987, "memberCount": 198}, {"name": "Sunset", "contribution": 125574466, "memberCount": 199}, {"name": "Beaters", "contribution": 97022492, "memberCount": 186}, {"name": "Downtime", "contribution": 90193529, "memberCount": 197}]}</v>
+      </c>
+      <c r="HA23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HA2)&amp;", ""month"": "&amp;MONTH(HA2)&amp;", ""day"": "&amp;DAY(HA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HA3&amp;", ""memberCount"": "&amp;HA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HA5&amp;", ""memberCount"": "&amp;HA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HA7&amp;", ""memberCount"": "&amp;HA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HA9&amp;", ""memberCount"": "&amp;HA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HA11&amp;", ""memberCount"": "&amp;HA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HA13&amp;", ""memberCount"": "&amp;HA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HA15&amp;", ""memberCount"": "&amp;HA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HA17&amp;", ""memberCount"": "&amp;HA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HA19&amp;", ""memberCount"": "&amp;HA20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 203289647, "memberCount": 198}, {"name": "Smile", "contribution": 175590103, "memberCount": 196}, {"name": "Elite", "contribution": 167721793, "memberCount": 199}, {"name": "Savages", "contribution": 157390179, "memberCount": 198}, {"name": "Spring", "contribution": 135036759, "memberCount": 196}, {"name": "Bounce", "contribution": 134529724, "memberCount": 198}, {"name": "Sunset", "contribution": 125425872, "memberCount": 194}, {"name": "Beaters", "contribution": 97079537, "memberCount": 185}, {"name": "Downtime", "contribution": 90335565, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="GZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GY1" activeCellId="0" sqref="GY1"/>
+      <selection pane="topRight" activeCell="GZ1" activeCellId="0" sqref="GZ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HA23" activeCellId="0" sqref="HA23"/>
+      <selection pane="bottomRight" activeCell="HB23" activeCellId="0" sqref="HB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1949,7 +1949,9 @@
       <c r="HA3" s="7" t="n">
         <v>203289647</v>
       </c>
-      <c r="HB3" s="7"/>
+      <c r="HB3" s="7" t="n">
+        <v>203585859</v>
+      </c>
       <c r="HC3" s="7"/>
       <c r="HD3" s="7"/>
       <c r="HE3" s="7"/>
@@ -2586,7 +2588,9 @@
       <c r="HA4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="HB4" s="11"/>
+      <c r="HB4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HC4" s="11"/>
       <c r="HD4" s="11"/>
       <c r="HE4" s="11"/>
@@ -3225,7 +3229,9 @@
       <c r="HA5" s="17" t="n">
         <v>175590103</v>
       </c>
-      <c r="HB5" s="17"/>
+      <c r="HB5" s="17" t="n">
+        <v>175818851</v>
+      </c>
       <c r="HC5" s="17"/>
       <c r="HD5" s="17"/>
       <c r="HE5" s="17"/>
@@ -3862,7 +3868,9 @@
       <c r="HA6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="HB6" s="20"/>
+      <c r="HB6" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="HC6" s="20"/>
       <c r="HD6" s="20"/>
       <c r="HE6" s="20"/>
@@ -4501,7 +4509,9 @@
       <c r="HA7" s="24" t="n">
         <v>167721793</v>
       </c>
-      <c r="HB7" s="24"/>
+      <c r="HB7" s="24" t="n">
+        <v>167901523</v>
+      </c>
       <c r="HC7" s="24"/>
       <c r="HD7" s="24"/>
       <c r="HE7" s="24"/>
@@ -5138,7 +5148,9 @@
       <c r="HA8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HB8" s="27"/>
+      <c r="HB8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HC8" s="27"/>
       <c r="HD8" s="27"/>
       <c r="HE8" s="27"/>
@@ -5777,7 +5789,9 @@
       <c r="HA9" s="31" t="n">
         <v>157390179</v>
       </c>
-      <c r="HB9" s="31"/>
+      <c r="HB9" s="31" t="n">
+        <v>157684931</v>
+      </c>
       <c r="HC9" s="31"/>
       <c r="HD9" s="31"/>
       <c r="HE9" s="31"/>
@@ -6414,7 +6428,9 @@
       <c r="HA10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="HB10" s="34"/>
+      <c r="HB10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HC10" s="34"/>
       <c r="HD10" s="34"/>
       <c r="HE10" s="34"/>
@@ -7053,7 +7069,9 @@
       <c r="HA11" s="38" t="n">
         <v>135036759</v>
       </c>
-      <c r="HB11" s="38"/>
+      <c r="HB11" s="38" t="n">
+        <v>135190791</v>
+      </c>
       <c r="HC11" s="38"/>
       <c r="HD11" s="38"/>
       <c r="HE11" s="38"/>
@@ -7690,7 +7708,9 @@
       <c r="HA12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="HB12" s="41"/>
+      <c r="HB12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="HC12" s="41"/>
       <c r="HD12" s="41"/>
       <c r="HE12" s="41"/>
@@ -8329,7 +8349,9 @@
       <c r="HA13" s="45" t="n">
         <v>134529724</v>
       </c>
-      <c r="HB13" s="45"/>
+      <c r="HB13" s="45" t="n">
+        <v>134864241</v>
+      </c>
       <c r="HC13" s="45"/>
       <c r="HD13" s="45"/>
       <c r="HE13" s="45"/>
@@ -8966,7 +8988,9 @@
       <c r="HA14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="HB14" s="48"/>
+      <c r="HB14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="HC14" s="48"/>
       <c r="HD14" s="48"/>
       <c r="HE14" s="48"/>
@@ -9605,7 +9629,9 @@
       <c r="HA15" s="52" t="n">
         <v>125425872</v>
       </c>
-      <c r="HB15" s="52"/>
+      <c r="HB15" s="52" t="n">
+        <v>125524135</v>
+      </c>
       <c r="HC15" s="52"/>
       <c r="HD15" s="52"/>
       <c r="HE15" s="52"/>
@@ -10242,7 +10268,9 @@
       <c r="HA16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="HB16" s="55"/>
+      <c r="HB16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="HC16" s="55"/>
       <c r="HD16" s="55"/>
       <c r="HE16" s="55"/>
@@ -10881,7 +10909,9 @@
       <c r="HA17" s="59" t="n">
         <v>97079537</v>
       </c>
-      <c r="HB17" s="59"/>
+      <c r="HB17" s="59" t="n">
+        <v>97192967</v>
+      </c>
       <c r="HC17" s="59"/>
       <c r="HD17" s="59"/>
       <c r="HE17" s="59"/>
@@ -11518,7 +11548,9 @@
       <c r="HA18" s="62" t="n">
         <v>185</v>
       </c>
-      <c r="HB18" s="62"/>
+      <c r="HB18" s="62" t="n">
+        <v>185</v>
+      </c>
       <c r="HC18" s="62"/>
       <c r="HD18" s="62"/>
       <c r="HE18" s="62"/>
@@ -12157,7 +12189,9 @@
       <c r="HA19" s="66" t="n">
         <v>90335565</v>
       </c>
-      <c r="HB19" s="66"/>
+      <c r="HB19" s="66" t="n">
+        <v>90480383</v>
+      </c>
       <c r="HC19" s="66"/>
       <c r="HD19" s="66"/>
       <c r="HE19" s="66"/>
@@ -12794,7 +12828,9 @@
       <c r="HA20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="HB20" s="69"/>
+      <c r="HB20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HC20" s="69"/>
       <c r="HD20" s="69"/>
       <c r="HE20" s="69"/>
@@ -13635,7 +13671,11 @@
       </c>
       <c r="HA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HA2)&amp;", ""month"": "&amp;MONTH(HA2)&amp;", ""day"": "&amp;DAY(HA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HA3&amp;", ""memberCount"": "&amp;HA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HA5&amp;", ""memberCount"": "&amp;HA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HA7&amp;", ""memberCount"": "&amp;HA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HA9&amp;", ""memberCount"": "&amp;HA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HA11&amp;", ""memberCount"": "&amp;HA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HA13&amp;", ""memberCount"": "&amp;HA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HA15&amp;", ""memberCount"": "&amp;HA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HA17&amp;", ""memberCount"": "&amp;HA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HA19&amp;", ""memberCount"": "&amp;HA20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 203289647, "memberCount": 198}, {"name": "Smile", "contribution": 175590103, "memberCount": 196}, {"name": "Elite", "contribution": 167721793, "memberCount": 199}, {"name": "Savages", "contribution": 157390179, "memberCount": 198}, {"name": "Spring", "contribution": 135036759, "memberCount": 196}, {"name": "Bounce", "contribution": 134529724, "memberCount": 198}, {"name": "Sunset", "contribution": 125425872, "memberCount": 194}, {"name": "Beaters", "contribution": 97079537, "memberCount": 185}, {"name": "Downtime", "contribution": 90335565, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 203289647, "memberCount": 198}, {"name": "Smile", "contribution": 175590103, "memberCount": 196}, {"name": "Elite", "contribution": 167721793, "memberCount": 199}, {"name": "Savages", "contribution": 157390179, "memberCount": 198}, {"name": "Spring", "contribution": 135036759, "memberCount": 196}, {"name": "Bounce", "contribution": 134529724, "memberCount": 198}, {"name": "Sunset", "contribution": 125425872, "memberCount": 194}, {"name": "Beaters", "contribution": 97079537, "memberCount": 185}, {"name": "Downtime", "contribution": 90335565, "memberCount": 196}]}</v>
+      </c>
+      <c r="HB23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HB2)&amp;", ""month"": "&amp;MONTH(HB2)&amp;", ""day"": "&amp;DAY(HB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HB3&amp;", ""memberCount"": "&amp;HB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HB5&amp;", ""memberCount"": "&amp;HB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HB7&amp;", ""memberCount"": "&amp;HB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HB9&amp;", ""memberCount"": "&amp;HB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HB11&amp;", ""memberCount"": "&amp;HB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HB13&amp;", ""memberCount"": "&amp;HB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HB15&amp;", ""memberCount"": "&amp;HB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HB17&amp;", ""memberCount"": "&amp;HB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HB19&amp;", ""memberCount"": "&amp;HB20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 203585859, "memberCount": 199}, {"name": "Smile", "contribution": 175818851, "memberCount": 197}, {"name": "Elite", "contribution": 167901523, "memberCount": 199}, {"name": "Savages", "contribution": 157684931, "memberCount": 200}, {"name": "Spring", "contribution": 135190791, "memberCount": 196}, {"name": "Bounce", "contribution": 134864241, "memberCount": 198}, {"name": "Sunset", "contribution": 125524135, "memberCount": 194}, {"name": "Beaters", "contribution": 97192967, "memberCount": 185}, {"name": "Downtime", "contribution": 90480383, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="GZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="GZ1" activeCellId="0" sqref="GZ1"/>
+      <selection pane="topRight" activeCell="HB1" activeCellId="0" sqref="HB1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HB23" activeCellId="0" sqref="HB23"/>
+      <selection pane="bottomRight" activeCell="HD3" activeCellId="0" sqref="HD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1952,7 +1952,9 @@
       <c r="HB3" s="7" t="n">
         <v>203585859</v>
       </c>
-      <c r="HC3" s="7"/>
+      <c r="HC3" s="7" t="n">
+        <v>203784007</v>
+      </c>
       <c r="HD3" s="7"/>
       <c r="HE3" s="7"/>
       <c r="HF3" s="7"/>
@@ -2591,7 +2593,9 @@
       <c r="HB4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HC4" s="11"/>
+      <c r="HC4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HD4" s="11"/>
       <c r="HE4" s="11"/>
       <c r="HF4" s="11"/>
@@ -3232,7 +3236,9 @@
       <c r="HB5" s="17" t="n">
         <v>175818851</v>
       </c>
-      <c r="HC5" s="17"/>
+      <c r="HC5" s="17" t="n">
+        <v>175634725</v>
+      </c>
       <c r="HD5" s="17"/>
       <c r="HE5" s="17"/>
       <c r="HF5" s="17"/>
@@ -3871,7 +3877,9 @@
       <c r="HB6" s="20" t="n">
         <v>197</v>
       </c>
-      <c r="HC6" s="20"/>
+      <c r="HC6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="HD6" s="20"/>
       <c r="HE6" s="20"/>
       <c r="HF6" s="20"/>
@@ -4512,7 +4520,9 @@
       <c r="HB7" s="24" t="n">
         <v>167901523</v>
       </c>
-      <c r="HC7" s="24"/>
+      <c r="HC7" s="24" t="n">
+        <v>168123036</v>
+      </c>
       <c r="HD7" s="24"/>
       <c r="HE7" s="24"/>
       <c r="HF7" s="24"/>
@@ -5151,7 +5161,9 @@
       <c r="HB8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HC8" s="27"/>
+      <c r="HC8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HD8" s="27"/>
       <c r="HE8" s="27"/>
       <c r="HF8" s="27"/>
@@ -5792,7 +5804,9 @@
       <c r="HB9" s="31" t="n">
         <v>157684931</v>
       </c>
-      <c r="HC9" s="31"/>
+      <c r="HC9" s="31" t="n">
+        <v>157666996</v>
+      </c>
       <c r="HD9" s="31"/>
       <c r="HE9" s="31"/>
       <c r="HF9" s="31"/>
@@ -6431,7 +6445,9 @@
       <c r="HB10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HC10" s="34"/>
+      <c r="HC10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HD10" s="34"/>
       <c r="HE10" s="34"/>
       <c r="HF10" s="34"/>
@@ -7072,7 +7088,9 @@
       <c r="HB11" s="38" t="n">
         <v>135190791</v>
       </c>
-      <c r="HC11" s="38"/>
+      <c r="HC11" s="38" t="n">
+        <v>135279470</v>
+      </c>
       <c r="HD11" s="38"/>
       <c r="HE11" s="38"/>
       <c r="HF11" s="38"/>
@@ -7711,7 +7729,9 @@
       <c r="HB12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="HC12" s="41"/>
+      <c r="HC12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="HD12" s="41"/>
       <c r="HE12" s="41"/>
       <c r="HF12" s="41"/>
@@ -8352,7 +8372,9 @@
       <c r="HB13" s="45" t="n">
         <v>134864241</v>
       </c>
-      <c r="HC13" s="45"/>
+      <c r="HC13" s="45" t="n">
+        <v>135106611</v>
+      </c>
       <c r="HD13" s="45"/>
       <c r="HE13" s="45"/>
       <c r="HF13" s="45"/>
@@ -8991,7 +9013,9 @@
       <c r="HB14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="HC14" s="48"/>
+      <c r="HC14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="HD14" s="48"/>
       <c r="HE14" s="48"/>
       <c r="HF14" s="48"/>
@@ -9632,7 +9656,9 @@
       <c r="HB15" s="52" t="n">
         <v>125524135</v>
       </c>
-      <c r="HC15" s="52"/>
+      <c r="HC15" s="52" t="n">
+        <v>125598838</v>
+      </c>
       <c r="HD15" s="52"/>
       <c r="HE15" s="52"/>
       <c r="HF15" s="52"/>
@@ -10271,7 +10297,9 @@
       <c r="HB16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="HC16" s="55"/>
+      <c r="HC16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="HD16" s="55"/>
       <c r="HE16" s="55"/>
       <c r="HF16" s="55"/>
@@ -10912,7 +10940,9 @@
       <c r="HB17" s="59" t="n">
         <v>97192967</v>
       </c>
-      <c r="HC17" s="59"/>
+      <c r="HC17" s="59" t="n">
+        <v>97218850</v>
+      </c>
       <c r="HD17" s="59"/>
       <c r="HE17" s="59"/>
       <c r="HF17" s="59"/>
@@ -11551,7 +11581,9 @@
       <c r="HB18" s="62" t="n">
         <v>185</v>
       </c>
-      <c r="HC18" s="62"/>
+      <c r="HC18" s="62" t="n">
+        <v>185</v>
+      </c>
       <c r="HD18" s="62"/>
       <c r="HE18" s="62"/>
       <c r="HF18" s="62"/>
@@ -12192,7 +12224,9 @@
       <c r="HB19" s="66" t="n">
         <v>90480383</v>
       </c>
-      <c r="HC19" s="66"/>
+      <c r="HC19" s="66" t="n">
+        <v>90601531</v>
+      </c>
       <c r="HD19" s="66"/>
       <c r="HE19" s="66"/>
       <c r="HF19" s="66"/>
@@ -12831,7 +12865,9 @@
       <c r="HB20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HC20" s="69"/>
+      <c r="HC20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HD20" s="69"/>
       <c r="HE20" s="69"/>
       <c r="HF20" s="69"/>
@@ -13675,7 +13711,11 @@
       </c>
       <c r="HB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HB2)&amp;", ""month"": "&amp;MONTH(HB2)&amp;", ""day"": "&amp;DAY(HB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HB3&amp;", ""memberCount"": "&amp;HB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HB5&amp;", ""memberCount"": "&amp;HB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HB7&amp;", ""memberCount"": "&amp;HB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HB9&amp;", ""memberCount"": "&amp;HB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HB11&amp;", ""memberCount"": "&amp;HB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HB13&amp;", ""memberCount"": "&amp;HB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HB15&amp;", ""memberCount"": "&amp;HB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HB17&amp;", ""memberCount"": "&amp;HB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HB19&amp;", ""memberCount"": "&amp;HB20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 203585859, "memberCount": 199}, {"name": "Smile", "contribution": 175818851, "memberCount": 197}, {"name": "Elite", "contribution": 167901523, "memberCount": 199}, {"name": "Savages", "contribution": 157684931, "memberCount": 200}, {"name": "Spring", "contribution": 135190791, "memberCount": 196}, {"name": "Bounce", "contribution": 134864241, "memberCount": 198}, {"name": "Sunset", "contribution": 125524135, "memberCount": 194}, {"name": "Beaters", "contribution": 97192967, "memberCount": 185}, {"name": "Downtime", "contribution": 90480383, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 203585859, "memberCount": 199}, {"name": "Smile", "contribution": 175818851, "memberCount": 197}, {"name": "Elite", "contribution": 167901523, "memberCount": 199}, {"name": "Savages", "contribution": 157684931, "memberCount": 200}, {"name": "Spring", "contribution": 135190791, "memberCount": 196}, {"name": "Bounce", "contribution": 134864241, "memberCount": 198}, {"name": "Sunset", "contribution": 125524135, "memberCount": 194}, {"name": "Beaters", "contribution": 97192967, "memberCount": 185}, {"name": "Downtime", "contribution": 90480383, "memberCount": 197}]}</v>
+      </c>
+      <c r="HC23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HC2)&amp;", ""month"": "&amp;MONTH(HC2)&amp;", ""day"": "&amp;DAY(HC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HC3&amp;", ""memberCount"": "&amp;HC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HC5&amp;", ""memberCount"": "&amp;HC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HC7&amp;", ""memberCount"": "&amp;HC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HC9&amp;", ""memberCount"": "&amp;HC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HC11&amp;", ""memberCount"": "&amp;HC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HC13&amp;", ""memberCount"": "&amp;HC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HC15&amp;", ""memberCount"": "&amp;HC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HC17&amp;", ""memberCount"": "&amp;HC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HC19&amp;", ""memberCount"": "&amp;HC20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 203784007, "memberCount": 199}, {"name": "Smile", "contribution": 175634725, "memberCount": 196}, {"name": "Elite", "contribution": 168123036, "memberCount": 199}, {"name": "Savages", "contribution": 157666996, "memberCount": 199}, {"name": "Spring", "contribution": 135279470, "memberCount": 196}, {"name": "Bounce", "contribution": 135106611, "memberCount": 198}, {"name": "Sunset", "contribution": 125598838, "memberCount": 194}, {"name": "Beaters", "contribution": 97218850, "memberCount": 185}, {"name": "Downtime", "contribution": 90601531, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HB1" activeCellId="0" sqref="HB1"/>
+      <selection pane="topRight" activeCell="HC1" activeCellId="0" sqref="HC1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HD3" activeCellId="0" sqref="HD3"/>
+      <selection pane="bottomRight" activeCell="HE3" activeCellId="0" sqref="HE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1955,7 +1955,9 @@
       <c r="HC3" s="7" t="n">
         <v>203784007</v>
       </c>
-      <c r="HD3" s="7"/>
+      <c r="HD3" s="7" t="n">
+        <v>203985944</v>
+      </c>
       <c r="HE3" s="7"/>
       <c r="HF3" s="7"/>
       <c r="HG3" s="7"/>
@@ -2596,7 +2598,9 @@
       <c r="HC4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HD4" s="11"/>
+      <c r="HD4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HE4" s="11"/>
       <c r="HF4" s="11"/>
       <c r="HG4" s="11"/>
@@ -3239,7 +3243,9 @@
       <c r="HC5" s="17" t="n">
         <v>175634725</v>
       </c>
-      <c r="HD5" s="17"/>
+      <c r="HD5" s="17" t="n">
+        <v>175904011</v>
+      </c>
       <c r="HE5" s="17"/>
       <c r="HF5" s="17"/>
       <c r="HG5" s="17"/>
@@ -3880,7 +3886,9 @@
       <c r="HC6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="HD6" s="20"/>
+      <c r="HD6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="HE6" s="20"/>
       <c r="HF6" s="20"/>
       <c r="HG6" s="20"/>
@@ -4523,7 +4531,9 @@
       <c r="HC7" s="24" t="n">
         <v>168123036</v>
       </c>
-      <c r="HD7" s="24"/>
+      <c r="HD7" s="24" t="n">
+        <v>168348176</v>
+      </c>
       <c r="HE7" s="24"/>
       <c r="HF7" s="24"/>
       <c r="HG7" s="24"/>
@@ -5164,7 +5174,9 @@
       <c r="HC8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HD8" s="27"/>
+      <c r="HD8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HE8" s="27"/>
       <c r="HF8" s="27"/>
       <c r="HG8" s="27"/>
@@ -5807,7 +5819,9 @@
       <c r="HC9" s="31" t="n">
         <v>157666996</v>
       </c>
-      <c r="HD9" s="31"/>
+      <c r="HD9" s="31" t="n">
+        <v>157788435</v>
+      </c>
       <c r="HE9" s="31"/>
       <c r="HF9" s="31"/>
       <c r="HG9" s="31"/>
@@ -6448,7 +6462,9 @@
       <c r="HC10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HD10" s="34"/>
+      <c r="HD10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HE10" s="34"/>
       <c r="HF10" s="34"/>
       <c r="HG10" s="34"/>
@@ -7091,7 +7107,9 @@
       <c r="HC11" s="38" t="n">
         <v>135279470</v>
       </c>
-      <c r="HD11" s="38"/>
+      <c r="HD11" s="38" t="n">
+        <v>135426946</v>
+      </c>
       <c r="HE11" s="38"/>
       <c r="HF11" s="38"/>
       <c r="HG11" s="38"/>
@@ -7732,7 +7750,9 @@
       <c r="HC12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="HD12" s="41"/>
+      <c r="HD12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="HE12" s="41"/>
       <c r="HF12" s="41"/>
       <c r="HG12" s="41"/>
@@ -8375,7 +8395,9 @@
       <c r="HC13" s="45" t="n">
         <v>135106611</v>
       </c>
-      <c r="HD13" s="45"/>
+      <c r="HD13" s="45" t="n">
+        <v>135390622</v>
+      </c>
       <c r="HE13" s="45"/>
       <c r="HF13" s="45"/>
       <c r="HG13" s="45"/>
@@ -9016,7 +9038,9 @@
       <c r="HC14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="HD14" s="48"/>
+      <c r="HD14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="HE14" s="48"/>
       <c r="HF14" s="48"/>
       <c r="HG14" s="48"/>
@@ -9659,7 +9683,9 @@
       <c r="HC15" s="52" t="n">
         <v>125598838</v>
       </c>
-      <c r="HD15" s="52"/>
+      <c r="HD15" s="52" t="n">
+        <v>125753186</v>
+      </c>
       <c r="HE15" s="52"/>
       <c r="HF15" s="52"/>
       <c r="HG15" s="52"/>
@@ -10300,7 +10326,9 @@
       <c r="HC16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="HD16" s="55"/>
+      <c r="HD16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="HE16" s="55"/>
       <c r="HF16" s="55"/>
       <c r="HG16" s="55"/>
@@ -10943,7 +10971,9 @@
       <c r="HC17" s="59" t="n">
         <v>97218850</v>
       </c>
-      <c r="HD17" s="59"/>
+      <c r="HD17" s="59" t="n">
+        <v>97279722</v>
+      </c>
       <c r="HE17" s="59"/>
       <c r="HF17" s="59"/>
       <c r="HG17" s="59"/>
@@ -11584,7 +11614,9 @@
       <c r="HC18" s="62" t="n">
         <v>185</v>
       </c>
-      <c r="HD18" s="62"/>
+      <c r="HD18" s="62" t="n">
+        <v>184</v>
+      </c>
       <c r="HE18" s="62"/>
       <c r="HF18" s="62"/>
       <c r="HG18" s="62"/>
@@ -12227,7 +12259,9 @@
       <c r="HC19" s="66" t="n">
         <v>90601531</v>
       </c>
-      <c r="HD19" s="66"/>
+      <c r="HD19" s="66" t="n">
+        <v>90768339</v>
+      </c>
       <c r="HE19" s="66"/>
       <c r="HF19" s="66"/>
       <c r="HG19" s="66"/>
@@ -12868,7 +12902,9 @@
       <c r="HC20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HD20" s="69"/>
+      <c r="HD20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HE20" s="69"/>
       <c r="HF20" s="69"/>
       <c r="HG20" s="69"/>
@@ -13715,7 +13751,11 @@
       </c>
       <c r="HC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HC2)&amp;", ""month"": "&amp;MONTH(HC2)&amp;", ""day"": "&amp;DAY(HC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HC3&amp;", ""memberCount"": "&amp;HC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HC5&amp;", ""memberCount"": "&amp;HC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HC7&amp;", ""memberCount"": "&amp;HC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HC9&amp;", ""memberCount"": "&amp;HC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HC11&amp;", ""memberCount"": "&amp;HC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HC13&amp;", ""memberCount"": "&amp;HC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HC15&amp;", ""memberCount"": "&amp;HC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HC17&amp;", ""memberCount"": "&amp;HC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HC19&amp;", ""memberCount"": "&amp;HC20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 203784007, "memberCount": 199}, {"name": "Smile", "contribution": 175634725, "memberCount": 196}, {"name": "Elite", "contribution": 168123036, "memberCount": 199}, {"name": "Savages", "contribution": 157666996, "memberCount": 199}, {"name": "Spring", "contribution": 135279470, "memberCount": 196}, {"name": "Bounce", "contribution": 135106611, "memberCount": 198}, {"name": "Sunset", "contribution": 125598838, "memberCount": 194}, {"name": "Beaters", "contribution": 97218850, "memberCount": 185}, {"name": "Downtime", "contribution": 90601531, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 203784007, "memberCount": 199}, {"name": "Smile", "contribution": 175634725, "memberCount": 196}, {"name": "Elite", "contribution": 168123036, "memberCount": 199}, {"name": "Savages", "contribution": 157666996, "memberCount": 199}, {"name": "Spring", "contribution": 135279470, "memberCount": 196}, {"name": "Bounce", "contribution": 135106611, "memberCount": 198}, {"name": "Sunset", "contribution": 125598838, "memberCount": 194}, {"name": "Beaters", "contribution": 97218850, "memberCount": 185}, {"name": "Downtime", "contribution": 90601531, "memberCount": 197}]}</v>
+      </c>
+      <c r="HD23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HD2)&amp;", ""month"": "&amp;MONTH(HD2)&amp;", ""day"": "&amp;DAY(HD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HD3&amp;", ""memberCount"": "&amp;HD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HD5&amp;", ""memberCount"": "&amp;HD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HD7&amp;", ""memberCount"": "&amp;HD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HD9&amp;", ""memberCount"": "&amp;HD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HD11&amp;", ""memberCount"": "&amp;HD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HD13&amp;", ""memberCount"": "&amp;HD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HD15&amp;", ""memberCount"": "&amp;HD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HD17&amp;", ""memberCount"": "&amp;HD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HD19&amp;", ""memberCount"": "&amp;HD20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 203985944, "memberCount": 199}, {"name": "Smile", "contribution": 175904011, "memberCount": 196}, {"name": "Elite", "contribution": 168348176, "memberCount": 199}, {"name": "Savages", "contribution": 157788435, "memberCount": 199}, {"name": "Spring", "contribution": 135426946, "memberCount": 196}, {"name": "Bounce", "contribution": 135390622, "memberCount": 198}, {"name": "Sunset", "contribution": 125753186, "memberCount": 194}, {"name": "Beaters", "contribution": 97279722, "memberCount": 184}, {"name": "Downtime", "contribution": 90768339, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HC1" activeCellId="0" sqref="HC1"/>
+      <selection pane="topRight" activeCell="HD1" activeCellId="0" sqref="HD1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HE3" activeCellId="0" sqref="HE3"/>
+      <selection pane="bottomRight" activeCell="HF3" activeCellId="0" sqref="HF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1958,7 +1958,9 @@
       <c r="HD3" s="7" t="n">
         <v>203985944</v>
       </c>
-      <c r="HE3" s="7"/>
+      <c r="HE3" s="7" t="n">
+        <v>204190835</v>
+      </c>
       <c r="HF3" s="7"/>
       <c r="HG3" s="7"/>
       <c r="HH3" s="7"/>
@@ -2601,7 +2603,9 @@
       <c r="HD4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HE4" s="11"/>
+      <c r="HE4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HF4" s="11"/>
       <c r="HG4" s="11"/>
       <c r="HH4" s="11"/>
@@ -3246,7 +3250,9 @@
       <c r="HD5" s="17" t="n">
         <v>175904011</v>
       </c>
-      <c r="HE5" s="17"/>
+      <c r="HE5" s="17" t="n">
+        <v>176132451</v>
+      </c>
       <c r="HF5" s="17"/>
       <c r="HG5" s="17"/>
       <c r="HH5" s="17"/>
@@ -3889,7 +3895,9 @@
       <c r="HD6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="HE6" s="20"/>
+      <c r="HE6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="HF6" s="20"/>
       <c r="HG6" s="20"/>
       <c r="HH6" s="20"/>
@@ -4534,7 +4542,9 @@
       <c r="HD7" s="24" t="n">
         <v>168348176</v>
       </c>
-      <c r="HE7" s="24"/>
+      <c r="HE7" s="24" t="n">
+        <v>168550684</v>
+      </c>
       <c r="HF7" s="24"/>
       <c r="HG7" s="24"/>
       <c r="HH7" s="24"/>
@@ -5177,7 +5187,9 @@
       <c r="HD8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HE8" s="27"/>
+      <c r="HE8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HF8" s="27"/>
       <c r="HG8" s="27"/>
       <c r="HH8" s="27"/>
@@ -5822,7 +5834,9 @@
       <c r="HD9" s="31" t="n">
         <v>157788435</v>
       </c>
-      <c r="HE9" s="31"/>
+      <c r="HE9" s="31" t="n">
+        <v>157990994</v>
+      </c>
       <c r="HF9" s="31"/>
       <c r="HG9" s="31"/>
       <c r="HH9" s="31"/>
@@ -6465,7 +6479,9 @@
       <c r="HD10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HE10" s="34"/>
+      <c r="HE10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HF10" s="34"/>
       <c r="HG10" s="34"/>
       <c r="HH10" s="34"/>
@@ -7110,7 +7126,9 @@
       <c r="HD11" s="38" t="n">
         <v>135426946</v>
       </c>
-      <c r="HE11" s="38"/>
+      <c r="HE11" s="38" t="n">
+        <v>135104522</v>
+      </c>
       <c r="HF11" s="38"/>
       <c r="HG11" s="38"/>
       <c r="HH11" s="38"/>
@@ -7753,7 +7771,9 @@
       <c r="HD12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="HE12" s="41"/>
+      <c r="HE12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HF12" s="41"/>
       <c r="HG12" s="41"/>
       <c r="HH12" s="41"/>
@@ -8398,7 +8418,9 @@
       <c r="HD13" s="45" t="n">
         <v>135390622</v>
       </c>
-      <c r="HE13" s="45"/>
+      <c r="HE13" s="45" t="n">
+        <v>135654577</v>
+      </c>
       <c r="HF13" s="45"/>
       <c r="HG13" s="45"/>
       <c r="HH13" s="45"/>
@@ -9041,7 +9063,9 @@
       <c r="HD14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="HE14" s="48"/>
+      <c r="HE14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="HF14" s="48"/>
       <c r="HG14" s="48"/>
       <c r="HH14" s="48"/>
@@ -9686,7 +9710,9 @@
       <c r="HD15" s="52" t="n">
         <v>125753186</v>
       </c>
-      <c r="HE15" s="52"/>
+      <c r="HE15" s="52" t="n">
+        <v>125846718</v>
+      </c>
       <c r="HF15" s="52"/>
       <c r="HG15" s="52"/>
       <c r="HH15" s="52"/>
@@ -10329,7 +10355,9 @@
       <c r="HD16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="HE16" s="55"/>
+      <c r="HE16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="HF16" s="55"/>
       <c r="HG16" s="55"/>
       <c r="HH16" s="55"/>
@@ -10974,7 +11002,9 @@
       <c r="HD17" s="59" t="n">
         <v>97279722</v>
       </c>
-      <c r="HE17" s="59"/>
+      <c r="HE17" s="59" t="n">
+        <v>97331338</v>
+      </c>
       <c r="HF17" s="59"/>
       <c r="HG17" s="59"/>
       <c r="HH17" s="59"/>
@@ -11617,7 +11647,9 @@
       <c r="HD18" s="62" t="n">
         <v>184</v>
       </c>
-      <c r="HE18" s="62"/>
+      <c r="HE18" s="62" t="n">
+        <v>184</v>
+      </c>
       <c r="HF18" s="62"/>
       <c r="HG18" s="62"/>
       <c r="HH18" s="62"/>
@@ -12262,7 +12294,9 @@
       <c r="HD19" s="66" t="n">
         <v>90768339</v>
       </c>
-      <c r="HE19" s="66"/>
+      <c r="HE19" s="66" t="n">
+        <v>90672393</v>
+      </c>
       <c r="HF19" s="66"/>
       <c r="HG19" s="66"/>
       <c r="HH19" s="66"/>
@@ -12905,7 +12939,9 @@
       <c r="HD20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HE20" s="69"/>
+      <c r="HE20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HF20" s="69"/>
       <c r="HG20" s="69"/>
       <c r="HH20" s="69"/>
@@ -13755,7 +13791,11 @@
       </c>
       <c r="HD23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HD2)&amp;", ""month"": "&amp;MONTH(HD2)&amp;", ""day"": "&amp;DAY(HD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HD3&amp;", ""memberCount"": "&amp;HD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HD5&amp;", ""memberCount"": "&amp;HD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HD7&amp;", ""memberCount"": "&amp;HD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HD9&amp;", ""memberCount"": "&amp;HD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HD11&amp;", ""memberCount"": "&amp;HD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HD13&amp;", ""memberCount"": "&amp;HD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HD15&amp;", ""memberCount"": "&amp;HD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HD17&amp;", ""memberCount"": "&amp;HD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HD19&amp;", ""memberCount"": "&amp;HD20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 203985944, "memberCount": 199}, {"name": "Smile", "contribution": 175904011, "memberCount": 196}, {"name": "Elite", "contribution": 168348176, "memberCount": 199}, {"name": "Savages", "contribution": 157788435, "memberCount": 199}, {"name": "Spring", "contribution": 135426946, "memberCount": 196}, {"name": "Bounce", "contribution": 135390622, "memberCount": 198}, {"name": "Sunset", "contribution": 125753186, "memberCount": 194}, {"name": "Beaters", "contribution": 97279722, "memberCount": 184}, {"name": "Downtime", "contribution": 90768339, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 203985944, "memberCount": 199}, {"name": "Smile", "contribution": 175904011, "memberCount": 196}, {"name": "Elite", "contribution": 168348176, "memberCount": 199}, {"name": "Savages", "contribution": 157788435, "memberCount": 199}, {"name": "Spring", "contribution": 135426946, "memberCount": 196}, {"name": "Bounce", "contribution": 135390622, "memberCount": 198}, {"name": "Sunset", "contribution": 125753186, "memberCount": 194}, {"name": "Beaters", "contribution": 97279722, "memberCount": 184}, {"name": "Downtime", "contribution": 90768339, "memberCount": 197}]}</v>
+      </c>
+      <c r="HE23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HE2)&amp;", ""month"": "&amp;MONTH(HE2)&amp;", ""day"": "&amp;DAY(HE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HE3&amp;", ""memberCount"": "&amp;HE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HE5&amp;", ""memberCount"": "&amp;HE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HE7&amp;", ""memberCount"": "&amp;HE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HE9&amp;", ""memberCount"": "&amp;HE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HE11&amp;", ""memberCount"": "&amp;HE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HE13&amp;", ""memberCount"": "&amp;HE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HE15&amp;", ""memberCount"": "&amp;HE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HE17&amp;", ""memberCount"": "&amp;HE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HE19&amp;", ""memberCount"": "&amp;HE20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 204190835, "memberCount": 199}, {"name": "Smile", "contribution": 176132451, "memberCount": 196}, {"name": "Elite", "contribution": 168550684, "memberCount": 199}, {"name": "Savages", "contribution": 157990994, "memberCount": 199}, {"name": "Spring", "contribution": 135104522, "memberCount": 195}, {"name": "Bounce", "contribution": 135654577, "memberCount": 198}, {"name": "Sunset", "contribution": 125846718, "memberCount": 194}, {"name": "Beaters", "contribution": 97331338, "memberCount": 184}, {"name": "Downtime", "contribution": 90672393, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="HD1" activeCellId="0" sqref="HD1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HF3" activeCellId="0" sqref="HF3"/>
+      <selection pane="bottomRight" activeCell="HF23" activeCellId="0" sqref="HF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1961,7 +1961,9 @@
       <c r="HE3" s="7" t="n">
         <v>204190835</v>
       </c>
-      <c r="HF3" s="7"/>
+      <c r="HF3" s="7" t="n">
+        <v>204175966</v>
+      </c>
       <c r="HG3" s="7"/>
       <c r="HH3" s="7"/>
       <c r="HI3" s="7"/>
@@ -2606,7 +2608,9 @@
       <c r="HE4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HF4" s="11"/>
+      <c r="HF4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="HG4" s="11"/>
       <c r="HH4" s="11"/>
       <c r="HI4" s="11"/>
@@ -3253,7 +3257,9 @@
       <c r="HE5" s="17" t="n">
         <v>176132451</v>
       </c>
-      <c r="HF5" s="17"/>
+      <c r="HF5" s="17" t="n">
+        <v>176337286</v>
+      </c>
       <c r="HG5" s="17"/>
       <c r="HH5" s="17"/>
       <c r="HI5" s="17"/>
@@ -3898,7 +3904,9 @@
       <c r="HE6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="HF6" s="20"/>
+      <c r="HF6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="HG6" s="20"/>
       <c r="HH6" s="20"/>
       <c r="HI6" s="20"/>
@@ -4545,7 +4553,9 @@
       <c r="HE7" s="24" t="n">
         <v>168550684</v>
       </c>
-      <c r="HF7" s="24"/>
+      <c r="HF7" s="24" t="n">
+        <v>168723691</v>
+      </c>
       <c r="HG7" s="24"/>
       <c r="HH7" s="24"/>
       <c r="HI7" s="24"/>
@@ -5190,7 +5200,9 @@
       <c r="HE8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HF8" s="27"/>
+      <c r="HF8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HG8" s="27"/>
       <c r="HH8" s="27"/>
       <c r="HI8" s="27"/>
@@ -5837,7 +5849,9 @@
       <c r="HE9" s="31" t="n">
         <v>157990994</v>
       </c>
-      <c r="HF9" s="31"/>
+      <c r="HF9" s="31" t="n">
+        <v>158186739</v>
+      </c>
       <c r="HG9" s="31"/>
       <c r="HH9" s="31"/>
       <c r="HI9" s="31"/>
@@ -6482,7 +6496,9 @@
       <c r="HE10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HF10" s="34"/>
+      <c r="HF10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HG10" s="34"/>
       <c r="HH10" s="34"/>
       <c r="HI10" s="34"/>
@@ -7129,7 +7145,9 @@
       <c r="HE11" s="38" t="n">
         <v>135104522</v>
       </c>
-      <c r="HF11" s="38"/>
+      <c r="HF11" s="38" t="n">
+        <v>135218840</v>
+      </c>
       <c r="HG11" s="38"/>
       <c r="HH11" s="38"/>
       <c r="HI11" s="38"/>
@@ -7774,7 +7792,9 @@
       <c r="HE12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HF12" s="41"/>
+      <c r="HF12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HG12" s="41"/>
       <c r="HH12" s="41"/>
       <c r="HI12" s="41"/>
@@ -8421,7 +8441,9 @@
       <c r="HE13" s="45" t="n">
         <v>135654577</v>
       </c>
-      <c r="HF13" s="45"/>
+      <c r="HF13" s="45" t="n">
+        <v>135942963</v>
+      </c>
       <c r="HG13" s="45"/>
       <c r="HH13" s="45"/>
       <c r="HI13" s="45"/>
@@ -9066,7 +9088,9 @@
       <c r="HE14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="HF14" s="48"/>
+      <c r="HF14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="HG14" s="48"/>
       <c r="HH14" s="48"/>
       <c r="HI14" s="48"/>
@@ -9713,7 +9737,9 @@
       <c r="HE15" s="52" t="n">
         <v>125846718</v>
       </c>
-      <c r="HF15" s="52"/>
+      <c r="HF15" s="52" t="n">
+        <v>125946024</v>
+      </c>
       <c r="HG15" s="52"/>
       <c r="HH15" s="52"/>
       <c r="HI15" s="52"/>
@@ -10358,7 +10384,9 @@
       <c r="HE16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="HF16" s="55"/>
+      <c r="HF16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="HG16" s="55"/>
       <c r="HH16" s="55"/>
       <c r="HI16" s="55"/>
@@ -11005,7 +11033,9 @@
       <c r="HE17" s="59" t="n">
         <v>97331338</v>
       </c>
-      <c r="HF17" s="59"/>
+      <c r="HF17" s="59" t="n">
+        <v>97418973</v>
+      </c>
       <c r="HG17" s="59"/>
       <c r="HH17" s="59"/>
       <c r="HI17" s="59"/>
@@ -11650,7 +11680,9 @@
       <c r="HE18" s="62" t="n">
         <v>184</v>
       </c>
-      <c r="HF18" s="62"/>
+      <c r="HF18" s="62" t="n">
+        <v>184</v>
+      </c>
       <c r="HG18" s="62"/>
       <c r="HH18" s="62"/>
       <c r="HI18" s="62"/>
@@ -12297,7 +12329,9 @@
       <c r="HE19" s="66" t="n">
         <v>90672393</v>
       </c>
-      <c r="HF19" s="66"/>
+      <c r="HF19" s="66" t="n">
+        <v>90817372</v>
+      </c>
       <c r="HG19" s="66"/>
       <c r="HH19" s="66"/>
       <c r="HI19" s="66"/>
@@ -12942,7 +12976,9 @@
       <c r="HE20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HF20" s="69"/>
+      <c r="HF20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HG20" s="69"/>
       <c r="HH20" s="69"/>
       <c r="HI20" s="69"/>
@@ -13795,7 +13831,11 @@
       </c>
       <c r="HE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HE2)&amp;", ""month"": "&amp;MONTH(HE2)&amp;", ""day"": "&amp;DAY(HE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HE3&amp;", ""memberCount"": "&amp;HE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HE5&amp;", ""memberCount"": "&amp;HE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HE7&amp;", ""memberCount"": "&amp;HE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HE9&amp;", ""memberCount"": "&amp;HE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HE11&amp;", ""memberCount"": "&amp;HE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HE13&amp;", ""memberCount"": "&amp;HE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HE15&amp;", ""memberCount"": "&amp;HE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HE17&amp;", ""memberCount"": "&amp;HE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HE19&amp;", ""memberCount"": "&amp;HE20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 204190835, "memberCount": 199}, {"name": "Smile", "contribution": 176132451, "memberCount": 196}, {"name": "Elite", "contribution": 168550684, "memberCount": 199}, {"name": "Savages", "contribution": 157990994, "memberCount": 199}, {"name": "Spring", "contribution": 135104522, "memberCount": 195}, {"name": "Bounce", "contribution": 135654577, "memberCount": 198}, {"name": "Sunset", "contribution": 125846718, "memberCount": 194}, {"name": "Beaters", "contribution": 97331338, "memberCount": 184}, {"name": "Downtime", "contribution": 90672393, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 204190835, "memberCount": 199}, {"name": "Smile", "contribution": 176132451, "memberCount": 196}, {"name": "Elite", "contribution": 168550684, "memberCount": 199}, {"name": "Savages", "contribution": 157990994, "memberCount": 199}, {"name": "Spring", "contribution": 135104522, "memberCount": 195}, {"name": "Bounce", "contribution": 135654577, "memberCount": 198}, {"name": "Sunset", "contribution": 125846718, "memberCount": 194}, {"name": "Beaters", "contribution": 97331338, "memberCount": 184}, {"name": "Downtime", "contribution": 90672393, "memberCount": 197}]}</v>
+      </c>
+      <c r="HF23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HF2)&amp;", ""month"": "&amp;MONTH(HF2)&amp;", ""day"": "&amp;DAY(HF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HF3&amp;", ""memberCount"": "&amp;HF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HF5&amp;", ""memberCount"": "&amp;HF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HF7&amp;", ""memberCount"": "&amp;HF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HF9&amp;", ""memberCount"": "&amp;HF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HF11&amp;", ""memberCount"": "&amp;HF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HF13&amp;", ""memberCount"": "&amp;HF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HF15&amp;", ""memberCount"": "&amp;HF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HF17&amp;", ""memberCount"": "&amp;HF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HF19&amp;", ""memberCount"": "&amp;HF20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 204175966, "memberCount": 198}, {"name": "Smile", "contribution": 176337286, "memberCount": 196}, {"name": "Elite", "contribution": 168723691, "memberCount": 199}, {"name": "Savages", "contribution": 158186739, "memberCount": 199}, {"name": "Spring", "contribution": 135218840, "memberCount": 195}, {"name": "Bounce", "contribution": 135942963, "memberCount": 198}, {"name": "Sunset", "contribution": 125946024, "memberCount": 194}, {"name": "Beaters", "contribution": 97418973, "memberCount": 184}, {"name": "Downtime", "contribution": 90817372, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HD1" activeCellId="0" sqref="HD1"/>
+      <selection pane="topRight" activeCell="HE1" activeCellId="0" sqref="HE1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HF23" activeCellId="0" sqref="HF23"/>
+      <selection pane="bottomRight" activeCell="HG23" activeCellId="0" sqref="HG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1964,7 +1964,9 @@
       <c r="HF3" s="7" t="n">
         <v>204175966</v>
       </c>
-      <c r="HG3" s="7"/>
+      <c r="HG3" s="7" t="n">
+        <v>204390198</v>
+      </c>
       <c r="HH3" s="7"/>
       <c r="HI3" s="7"/>
       <c r="HJ3" s="7"/>
@@ -2611,7 +2613,9 @@
       <c r="HF4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="HG4" s="11"/>
+      <c r="HG4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="HH4" s="11"/>
       <c r="HI4" s="11"/>
       <c r="HJ4" s="11"/>
@@ -3260,7 +3264,9 @@
       <c r="HF5" s="17" t="n">
         <v>176337286</v>
       </c>
-      <c r="HG5" s="17"/>
+      <c r="HG5" s="17" t="n">
+        <v>176539608</v>
+      </c>
       <c r="HH5" s="17"/>
       <c r="HI5" s="17"/>
       <c r="HJ5" s="17"/>
@@ -3907,7 +3913,9 @@
       <c r="HF6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="HG6" s="20"/>
+      <c r="HG6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="HH6" s="20"/>
       <c r="HI6" s="20"/>
       <c r="HJ6" s="20"/>
@@ -4556,7 +4564,9 @@
       <c r="HF7" s="24" t="n">
         <v>168723691</v>
       </c>
-      <c r="HG7" s="24"/>
+      <c r="HG7" s="24" t="n">
+        <v>168873660</v>
+      </c>
       <c r="HH7" s="24"/>
       <c r="HI7" s="24"/>
       <c r="HJ7" s="24"/>
@@ -5203,7 +5213,9 @@
       <c r="HF8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HG8" s="27"/>
+      <c r="HG8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HH8" s="27"/>
       <c r="HI8" s="27"/>
       <c r="HJ8" s="27"/>
@@ -5852,7 +5864,9 @@
       <c r="HF9" s="31" t="n">
         <v>158186739</v>
       </c>
-      <c r="HG9" s="31"/>
+      <c r="HG9" s="31" t="n">
+        <v>158385002</v>
+      </c>
       <c r="HH9" s="31"/>
       <c r="HI9" s="31"/>
       <c r="HJ9" s="31"/>
@@ -6499,7 +6513,9 @@
       <c r="HF10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HG10" s="34"/>
+      <c r="HG10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HH10" s="34"/>
       <c r="HI10" s="34"/>
       <c r="HJ10" s="34"/>
@@ -7148,7 +7164,9 @@
       <c r="HF11" s="38" t="n">
         <v>135218840</v>
       </c>
-      <c r="HG11" s="38"/>
+      <c r="HG11" s="38" t="n">
+        <v>134154937</v>
+      </c>
       <c r="HH11" s="38"/>
       <c r="HI11" s="38"/>
       <c r="HJ11" s="38"/>
@@ -7795,7 +7813,9 @@
       <c r="HF12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HG12" s="41"/>
+      <c r="HG12" s="41" t="n">
+        <v>194</v>
+      </c>
       <c r="HH12" s="41"/>
       <c r="HI12" s="41"/>
       <c r="HJ12" s="41"/>
@@ -8444,7 +8464,9 @@
       <c r="HF13" s="45" t="n">
         <v>135942963</v>
       </c>
-      <c r="HG13" s="45"/>
+      <c r="HG13" s="45" t="n">
+        <v>136166631</v>
+      </c>
       <c r="HH13" s="45"/>
       <c r="HI13" s="45"/>
       <c r="HJ13" s="45"/>
@@ -9091,7 +9113,9 @@
       <c r="HF14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="HG14" s="48"/>
+      <c r="HG14" s="48" t="n">
+        <v>198</v>
+      </c>
       <c r="HH14" s="48"/>
       <c r="HI14" s="48"/>
       <c r="HJ14" s="48"/>
@@ -9740,7 +9764,9 @@
       <c r="HF15" s="52" t="n">
         <v>125946024</v>
       </c>
-      <c r="HG15" s="52"/>
+      <c r="HG15" s="52" t="n">
+        <v>125343189</v>
+      </c>
       <c r="HH15" s="52"/>
       <c r="HI15" s="52"/>
       <c r="HJ15" s="52"/>
@@ -10387,7 +10413,9 @@
       <c r="HF16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="HG16" s="55"/>
+      <c r="HG16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="HH16" s="55"/>
       <c r="HI16" s="55"/>
       <c r="HJ16" s="55"/>
@@ -11036,7 +11064,9 @@
       <c r="HF17" s="59" t="n">
         <v>97418973</v>
       </c>
-      <c r="HG17" s="59"/>
+      <c r="HG17" s="59" t="n">
+        <v>97475201</v>
+      </c>
       <c r="HH17" s="59"/>
       <c r="HI17" s="59"/>
       <c r="HJ17" s="59"/>
@@ -11683,7 +11713,9 @@
       <c r="HF18" s="62" t="n">
         <v>184</v>
       </c>
-      <c r="HG18" s="62"/>
+      <c r="HG18" s="62" t="n">
+        <v>184</v>
+      </c>
       <c r="HH18" s="62"/>
       <c r="HI18" s="62"/>
       <c r="HJ18" s="62"/>
@@ -12332,7 +12364,9 @@
       <c r="HF19" s="66" t="n">
         <v>90817372</v>
       </c>
-      <c r="HG19" s="66"/>
+      <c r="HG19" s="66" t="n">
+        <v>90948896</v>
+      </c>
       <c r="HH19" s="66"/>
       <c r="HI19" s="66"/>
       <c r="HJ19" s="66"/>
@@ -12979,7 +13013,9 @@
       <c r="HF20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HG20" s="69"/>
+      <c r="HG20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HH20" s="69"/>
       <c r="HI20" s="69"/>
       <c r="HJ20" s="69"/>
@@ -13835,7 +13871,11 @@
       </c>
       <c r="HF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HF2)&amp;", ""month"": "&amp;MONTH(HF2)&amp;", ""day"": "&amp;DAY(HF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HF3&amp;", ""memberCount"": "&amp;HF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HF5&amp;", ""memberCount"": "&amp;HF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HF7&amp;", ""memberCount"": "&amp;HF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HF9&amp;", ""memberCount"": "&amp;HF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HF11&amp;", ""memberCount"": "&amp;HF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HF13&amp;", ""memberCount"": "&amp;HF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HF15&amp;", ""memberCount"": "&amp;HF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HF17&amp;", ""memberCount"": "&amp;HF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HF19&amp;", ""memberCount"": "&amp;HF20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 204175966, "memberCount": 198}, {"name": "Smile", "contribution": 176337286, "memberCount": 196}, {"name": "Elite", "contribution": 168723691, "memberCount": 199}, {"name": "Savages", "contribution": 158186739, "memberCount": 199}, {"name": "Spring", "contribution": 135218840, "memberCount": 195}, {"name": "Bounce", "contribution": 135942963, "memberCount": 198}, {"name": "Sunset", "contribution": 125946024, "memberCount": 194}, {"name": "Beaters", "contribution": 97418973, "memberCount": 184}, {"name": "Downtime", "contribution": 90817372, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 204175966, "memberCount": 198}, {"name": "Smile", "contribution": 176337286, "memberCount": 196}, {"name": "Elite", "contribution": 168723691, "memberCount": 199}, {"name": "Savages", "contribution": 158186739, "memberCount": 199}, {"name": "Spring", "contribution": 135218840, "memberCount": 195}, {"name": "Bounce", "contribution": 135942963, "memberCount": 198}, {"name": "Sunset", "contribution": 125946024, "memberCount": 194}, {"name": "Beaters", "contribution": 97418973, "memberCount": 184}, {"name": "Downtime", "contribution": 90817372, "memberCount": 197}]}</v>
+      </c>
+      <c r="HG23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HG2)&amp;", ""month"": "&amp;MONTH(HG2)&amp;", ""day"": "&amp;DAY(HG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HG3&amp;", ""memberCount"": "&amp;HG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HG5&amp;", ""memberCount"": "&amp;HG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HG7&amp;", ""memberCount"": "&amp;HG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HG9&amp;", ""memberCount"": "&amp;HG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HG11&amp;", ""memberCount"": "&amp;HG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HG13&amp;", ""memberCount"": "&amp;HG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HG15&amp;", ""memberCount"": "&amp;HG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HG17&amp;", ""memberCount"": "&amp;HG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HG19&amp;", ""memberCount"": "&amp;HG20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 204390198, "memberCount": 198}, {"name": "Smile", "contribution": 176539608, "memberCount": 196}, {"name": "Elite", "contribution": 168873660, "memberCount": 199}, {"name": "Savages", "contribution": 158385002, "memberCount": 199}, {"name": "Spring", "contribution": 134154937, "memberCount": 194}, {"name": "Bounce", "contribution": 136166631, "memberCount": 198}, {"name": "Sunset", "contribution": 125343189, "memberCount": 194}, {"name": "Beaters", "contribution": 97475201, "memberCount": 184}, {"name": "Downtime", "contribution": 90948896, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HE1" activeCellId="0" sqref="HE1"/>
+      <selection pane="topRight" activeCell="HG1" activeCellId="0" sqref="HG1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HG23" activeCellId="0" sqref="HG23"/>
+      <selection pane="bottomRight" activeCell="HI3" activeCellId="0" sqref="HI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1967,7 +1967,9 @@
       <c r="HG3" s="7" t="n">
         <v>204390198</v>
       </c>
-      <c r="HH3" s="7"/>
+      <c r="HH3" s="7" t="n">
+        <v>204557821</v>
+      </c>
       <c r="HI3" s="7"/>
       <c r="HJ3" s="7"/>
       <c r="HK3" s="7"/>
@@ -2616,7 +2618,9 @@
       <c r="HG4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="HH4" s="11"/>
+      <c r="HH4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="HI4" s="11"/>
       <c r="HJ4" s="11"/>
       <c r="HK4" s="11"/>
@@ -3267,7 +3271,9 @@
       <c r="HG5" s="17" t="n">
         <v>176539608</v>
       </c>
-      <c r="HH5" s="17"/>
+      <c r="HH5" s="17" t="n">
+        <v>176717184</v>
+      </c>
       <c r="HI5" s="17"/>
       <c r="HJ5" s="17"/>
       <c r="HK5" s="17"/>
@@ -3916,7 +3922,9 @@
       <c r="HG6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="HH6" s="20"/>
+      <c r="HH6" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="HI6" s="20"/>
       <c r="HJ6" s="20"/>
       <c r="HK6" s="20"/>
@@ -4567,7 +4575,9 @@
       <c r="HG7" s="24" t="n">
         <v>168873660</v>
       </c>
-      <c r="HH7" s="24"/>
+      <c r="HH7" s="24" t="n">
+        <v>169078764</v>
+      </c>
       <c r="HI7" s="24"/>
       <c r="HJ7" s="24"/>
       <c r="HK7" s="24"/>
@@ -5216,7 +5226,9 @@
       <c r="HG8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HH8" s="27"/>
+      <c r="HH8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HI8" s="27"/>
       <c r="HJ8" s="27"/>
       <c r="HK8" s="27"/>
@@ -5867,7 +5879,9 @@
       <c r="HG9" s="31" t="n">
         <v>158385002</v>
       </c>
-      <c r="HH9" s="31"/>
+      <c r="HH9" s="31" t="n">
+        <v>158611387</v>
+      </c>
       <c r="HI9" s="31"/>
       <c r="HJ9" s="31"/>
       <c r="HK9" s="31"/>
@@ -6516,7 +6530,9 @@
       <c r="HG10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HH10" s="34"/>
+      <c r="HH10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HI10" s="34"/>
       <c r="HJ10" s="34"/>
       <c r="HK10" s="34"/>
@@ -7167,7 +7183,9 @@
       <c r="HG11" s="38" t="n">
         <v>134154937</v>
       </c>
-      <c r="HH11" s="38"/>
+      <c r="HH11" s="38" t="n">
+        <v>134270839</v>
+      </c>
       <c r="HI11" s="38"/>
       <c r="HJ11" s="38"/>
       <c r="HK11" s="38"/>
@@ -7816,7 +7834,9 @@
       <c r="HG12" s="41" t="n">
         <v>194</v>
       </c>
-      <c r="HH12" s="41"/>
+      <c r="HH12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HI12" s="41"/>
       <c r="HJ12" s="41"/>
       <c r="HK12" s="41"/>
@@ -8467,7 +8487,9 @@
       <c r="HG13" s="45" t="n">
         <v>136166631</v>
       </c>
-      <c r="HH13" s="45"/>
+      <c r="HH13" s="45" t="n">
+        <v>136432943</v>
+      </c>
       <c r="HI13" s="45"/>
       <c r="HJ13" s="45"/>
       <c r="HK13" s="45"/>
@@ -9116,7 +9138,9 @@
       <c r="HG14" s="48" t="n">
         <v>198</v>
       </c>
-      <c r="HH14" s="48"/>
+      <c r="HH14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HI14" s="48"/>
       <c r="HJ14" s="48"/>
       <c r="HK14" s="48"/>
@@ -9767,7 +9791,9 @@
       <c r="HG15" s="52" t="n">
         <v>125343189</v>
       </c>
-      <c r="HH15" s="52"/>
+      <c r="HH15" s="52" t="n">
+        <v>125439081</v>
+      </c>
       <c r="HI15" s="52"/>
       <c r="HJ15" s="52"/>
       <c r="HK15" s="52"/>
@@ -10416,7 +10442,9 @@
       <c r="HG16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="HH16" s="55"/>
+      <c r="HH16" s="55" t="n">
+        <v>195</v>
+      </c>
       <c r="HI16" s="55"/>
       <c r="HJ16" s="55"/>
       <c r="HK16" s="55"/>
@@ -11067,7 +11095,9 @@
       <c r="HG17" s="59" t="n">
         <v>97475201</v>
       </c>
-      <c r="HH17" s="59"/>
+      <c r="HH17" s="59" t="n">
+        <v>97517283</v>
+      </c>
       <c r="HI17" s="59"/>
       <c r="HJ17" s="59"/>
       <c r="HK17" s="59"/>
@@ -11716,7 +11746,9 @@
       <c r="HG18" s="62" t="n">
         <v>184</v>
       </c>
-      <c r="HH18" s="62"/>
+      <c r="HH18" s="62" t="n">
+        <v>184</v>
+      </c>
       <c r="HI18" s="62"/>
       <c r="HJ18" s="62"/>
       <c r="HK18" s="62"/>
@@ -12367,7 +12399,9 @@
       <c r="HG19" s="66" t="n">
         <v>90948896</v>
       </c>
-      <c r="HH19" s="66"/>
+      <c r="HH19" s="66" t="n">
+        <v>91115574</v>
+      </c>
       <c r="HI19" s="66"/>
       <c r="HJ19" s="66"/>
       <c r="HK19" s="66"/>
@@ -13016,7 +13050,9 @@
       <c r="HG20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HH20" s="69"/>
+      <c r="HH20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HI20" s="69"/>
       <c r="HJ20" s="69"/>
       <c r="HK20" s="69"/>
@@ -13875,7 +13911,11 @@
       </c>
       <c r="HG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HG2)&amp;", ""month"": "&amp;MONTH(HG2)&amp;", ""day"": "&amp;DAY(HG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HG3&amp;", ""memberCount"": "&amp;HG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HG5&amp;", ""memberCount"": "&amp;HG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HG7&amp;", ""memberCount"": "&amp;HG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HG9&amp;", ""memberCount"": "&amp;HG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HG11&amp;", ""memberCount"": "&amp;HG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HG13&amp;", ""memberCount"": "&amp;HG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HG15&amp;", ""memberCount"": "&amp;HG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HG17&amp;", ""memberCount"": "&amp;HG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HG19&amp;", ""memberCount"": "&amp;HG20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 204390198, "memberCount": 198}, {"name": "Smile", "contribution": 176539608, "memberCount": 196}, {"name": "Elite", "contribution": 168873660, "memberCount": 199}, {"name": "Savages", "contribution": 158385002, "memberCount": 199}, {"name": "Spring", "contribution": 134154937, "memberCount": 194}, {"name": "Bounce", "contribution": 136166631, "memberCount": 198}, {"name": "Sunset", "contribution": 125343189, "memberCount": 194}, {"name": "Beaters", "contribution": 97475201, "memberCount": 184}, {"name": "Downtime", "contribution": 90948896, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 204390198, "memberCount": 198}, {"name": "Smile", "contribution": 176539608, "memberCount": 196}, {"name": "Elite", "contribution": 168873660, "memberCount": 199}, {"name": "Savages", "contribution": 158385002, "memberCount": 199}, {"name": "Spring", "contribution": 134154937, "memberCount": 194}, {"name": "Bounce", "contribution": 136166631, "memberCount": 198}, {"name": "Sunset", "contribution": 125343189, "memberCount": 194}, {"name": "Beaters", "contribution": 97475201, "memberCount": 184}, {"name": "Downtime", "contribution": 90948896, "memberCount": 197}]}</v>
+      </c>
+      <c r="HH23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HH2)&amp;", ""month"": "&amp;MONTH(HH2)&amp;", ""day"": "&amp;DAY(HH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HH3&amp;", ""memberCount"": "&amp;HH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HH5&amp;", ""memberCount"": "&amp;HH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HH7&amp;", ""memberCount"": "&amp;HH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HH9&amp;", ""memberCount"": "&amp;HH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HH11&amp;", ""memberCount"": "&amp;HH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HH13&amp;", ""memberCount"": "&amp;HH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HH15&amp;", ""memberCount"": "&amp;HH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HH17&amp;", ""memberCount"": "&amp;HH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HH19&amp;", ""memberCount"": "&amp;HH20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 204557821, "memberCount": 198}, {"name": "Smile", "contribution": 176717184, "memberCount": 197}, {"name": "Elite", "contribution": 169078764, "memberCount": 199}, {"name": "Savages", "contribution": 158611387, "memberCount": 199}, {"name": "Spring", "contribution": 134270839, "memberCount": 195}, {"name": "Bounce", "contribution": 136432943, "memberCount": 199}, {"name": "Sunset", "contribution": 125439081, "memberCount": 195}, {"name": "Beaters", "contribution": 97517283, "memberCount": 184}, {"name": "Downtime", "contribution": 91115574, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HG1" activeCellId="0" sqref="HG1"/>
+      <selection pane="topRight" activeCell="HH1" activeCellId="0" sqref="HH1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HI3" activeCellId="0" sqref="HI3"/>
+      <selection pane="bottomRight" activeCell="HJ23" activeCellId="0" sqref="HJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1970,8 +1970,12 @@
       <c r="HH3" s="7" t="n">
         <v>204557821</v>
       </c>
-      <c r="HI3" s="7"/>
-      <c r="HJ3" s="7"/>
+      <c r="HI3" s="7" t="n">
+        <v>204739632</v>
+      </c>
+      <c r="HJ3" s="7" t="n">
+        <v>204965648</v>
+      </c>
       <c r="HK3" s="7"/>
       <c r="HL3" s="7"/>
       <c r="AMJ3" s="9"/>
@@ -2621,8 +2625,12 @@
       <c r="HH4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="HI4" s="11"/>
-      <c r="HJ4" s="11"/>
+      <c r="HI4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="HJ4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="HK4" s="11"/>
       <c r="HL4" s="11"/>
       <c r="AMJ4" s="13"/>
@@ -3274,8 +3282,12 @@
       <c r="HH5" s="17" t="n">
         <v>176717184</v>
       </c>
-      <c r="HI5" s="17"/>
-      <c r="HJ5" s="17"/>
+      <c r="HI5" s="17" t="n">
+        <v>176947673</v>
+      </c>
+      <c r="HJ5" s="17" t="n">
+        <v>177142391</v>
+      </c>
       <c r="HK5" s="17"/>
       <c r="HL5" s="17"/>
       <c r="AMJ5" s="9"/>
@@ -3925,8 +3937,12 @@
       <c r="HH6" s="20" t="n">
         <v>197</v>
       </c>
-      <c r="HI6" s="20"/>
-      <c r="HJ6" s="20"/>
+      <c r="HI6" s="20" t="n">
+        <v>197</v>
+      </c>
+      <c r="HJ6" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="HK6" s="20"/>
       <c r="HL6" s="20"/>
       <c r="AMJ6" s="13"/>
@@ -4578,8 +4594,12 @@
       <c r="HH7" s="24" t="n">
         <v>169078764</v>
       </c>
-      <c r="HI7" s="24"/>
-      <c r="HJ7" s="24"/>
+      <c r="HI7" s="24" t="n">
+        <v>169244771</v>
+      </c>
+      <c r="HJ7" s="24" t="n">
+        <v>169401734</v>
+      </c>
       <c r="HK7" s="24"/>
       <c r="HL7" s="24"/>
       <c r="AMJ7" s="9"/>
@@ -5229,8 +5249,12 @@
       <c r="HH8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HI8" s="27"/>
-      <c r="HJ8" s="27"/>
+      <c r="HI8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="HJ8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="HK8" s="27"/>
       <c r="HL8" s="27"/>
       <c r="AMJ8" s="13"/>
@@ -5882,8 +5906,12 @@
       <c r="HH9" s="31" t="n">
         <v>158611387</v>
       </c>
-      <c r="HI9" s="31"/>
-      <c r="HJ9" s="31"/>
+      <c r="HI9" s="31" t="n">
+        <v>158245692</v>
+      </c>
+      <c r="HJ9" s="31" t="n">
+        <v>158477600</v>
+      </c>
       <c r="HK9" s="31"/>
       <c r="HL9" s="31"/>
       <c r="AMJ9" s="9"/>
@@ -6533,8 +6561,12 @@
       <c r="HH10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HI10" s="34"/>
-      <c r="HJ10" s="34"/>
+      <c r="HI10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="HJ10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HK10" s="34"/>
       <c r="HL10" s="34"/>
       <c r="AMJ10" s="13"/>
@@ -7186,8 +7218,12 @@
       <c r="HH11" s="38" t="n">
         <v>134270839</v>
       </c>
-      <c r="HI11" s="38"/>
-      <c r="HJ11" s="38"/>
+      <c r="HI11" s="38" t="n">
+        <v>134404039</v>
+      </c>
+      <c r="HJ11" s="38" t="n">
+        <v>134503219</v>
+      </c>
       <c r="HK11" s="38"/>
       <c r="HL11" s="38"/>
       <c r="AMJ11" s="9"/>
@@ -7837,8 +7873,12 @@
       <c r="HH12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HI12" s="41"/>
-      <c r="HJ12" s="41"/>
+      <c r="HI12" s="41" t="n">
+        <v>195</v>
+      </c>
+      <c r="HJ12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HK12" s="41"/>
       <c r="HL12" s="41"/>
       <c r="AMJ12" s="13"/>
@@ -8490,8 +8530,12 @@
       <c r="HH13" s="45" t="n">
         <v>136432943</v>
       </c>
-      <c r="HI13" s="45"/>
-      <c r="HJ13" s="45"/>
+      <c r="HI13" s="45" t="n">
+        <v>136646915</v>
+      </c>
+      <c r="HJ13" s="45" t="n">
+        <v>136882503</v>
+      </c>
       <c r="HK13" s="45"/>
       <c r="HL13" s="45"/>
       <c r="AMJ13" s="9"/>
@@ -9141,8 +9185,12 @@
       <c r="HH14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HI14" s="48"/>
-      <c r="HJ14" s="48"/>
+      <c r="HI14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="HJ14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HK14" s="48"/>
       <c r="HL14" s="48"/>
       <c r="AMJ14" s="13"/>
@@ -9794,8 +9842,12 @@
       <c r="HH15" s="52" t="n">
         <v>125439081</v>
       </c>
-      <c r="HI15" s="52"/>
-      <c r="HJ15" s="52"/>
+      <c r="HI15" s="52" t="n">
+        <v>125571693</v>
+      </c>
+      <c r="HJ15" s="52" t="n">
+        <v>125678653</v>
+      </c>
       <c r="HK15" s="52"/>
       <c r="HL15" s="52"/>
       <c r="AMJ15" s="9"/>
@@ -10445,8 +10497,12 @@
       <c r="HH16" s="55" t="n">
         <v>195</v>
       </c>
-      <c r="HI16" s="55"/>
-      <c r="HJ16" s="55"/>
+      <c r="HI16" s="55" t="n">
+        <v>196</v>
+      </c>
+      <c r="HJ16" s="55" t="n">
+        <v>196</v>
+      </c>
       <c r="HK16" s="55"/>
       <c r="HL16" s="55"/>
       <c r="AMJ16" s="13"/>
@@ -11098,8 +11154,12 @@
       <c r="HH17" s="59" t="n">
         <v>97517283</v>
       </c>
-      <c r="HI17" s="59"/>
-      <c r="HJ17" s="59"/>
+      <c r="HI17" s="59" t="n">
+        <v>95094879</v>
+      </c>
+      <c r="HJ17" s="59" t="n">
+        <v>95123630</v>
+      </c>
       <c r="HK17" s="59"/>
       <c r="HL17" s="59"/>
       <c r="AMJ17" s="9"/>
@@ -11749,8 +11809,12 @@
       <c r="HH18" s="62" t="n">
         <v>184</v>
       </c>
-      <c r="HI18" s="62"/>
-      <c r="HJ18" s="62"/>
+      <c r="HI18" s="62" t="n">
+        <v>177</v>
+      </c>
+      <c r="HJ18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="HK18" s="62"/>
       <c r="HL18" s="62"/>
       <c r="AMJ18" s="13"/>
@@ -12402,8 +12466,12 @@
       <c r="HH19" s="66" t="n">
         <v>91115574</v>
       </c>
-      <c r="HI19" s="66"/>
-      <c r="HJ19" s="66"/>
+      <c r="HI19" s="66" t="n">
+        <v>91215495</v>
+      </c>
+      <c r="HJ19" s="66" t="n">
+        <v>91373772</v>
+      </c>
       <c r="HK19" s="66"/>
       <c r="HL19" s="66"/>
       <c r="AMJ19" s="9"/>
@@ -13053,8 +13121,12 @@
       <c r="HH20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HI20" s="69"/>
-      <c r="HJ20" s="69"/>
+      <c r="HI20" s="69" t="n">
+        <v>197</v>
+      </c>
+      <c r="HJ20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HK20" s="69"/>
       <c r="HL20" s="69"/>
       <c r="AMJ20" s="13"/>
@@ -13915,7 +13987,15 @@
       </c>
       <c r="HH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HH2)&amp;", ""month"": "&amp;MONTH(HH2)&amp;", ""day"": "&amp;DAY(HH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HH3&amp;", ""memberCount"": "&amp;HH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HH5&amp;", ""memberCount"": "&amp;HH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HH7&amp;", ""memberCount"": "&amp;HH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HH9&amp;", ""memberCount"": "&amp;HH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HH11&amp;", ""memberCount"": "&amp;HH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HH13&amp;", ""memberCount"": "&amp;HH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HH15&amp;", ""memberCount"": "&amp;HH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HH17&amp;", ""memberCount"": "&amp;HH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HH19&amp;", ""memberCount"": "&amp;HH20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 204557821, "memberCount": 198}, {"name": "Smile", "contribution": 176717184, "memberCount": 197}, {"name": "Elite", "contribution": 169078764, "memberCount": 199}, {"name": "Savages", "contribution": 158611387, "memberCount": 199}, {"name": "Spring", "contribution": 134270839, "memberCount": 195}, {"name": "Bounce", "contribution": 136432943, "memberCount": 199}, {"name": "Sunset", "contribution": 125439081, "memberCount": 195}, {"name": "Beaters", "contribution": 97517283, "memberCount": 184}, {"name": "Downtime", "contribution": 91115574, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 204557821, "memberCount": 198}, {"name": "Smile", "contribution": 176717184, "memberCount": 197}, {"name": "Elite", "contribution": 169078764, "memberCount": 199}, {"name": "Savages", "contribution": 158611387, "memberCount": 199}, {"name": "Spring", "contribution": 134270839, "memberCount": 195}, {"name": "Bounce", "contribution": 136432943, "memberCount": 199}, {"name": "Sunset", "contribution": 125439081, "memberCount": 195}, {"name": "Beaters", "contribution": 97517283, "memberCount": 184}, {"name": "Downtime", "contribution": 91115574, "memberCount": 197}]}</v>
+      </c>
+      <c r="HI23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HI2)&amp;", ""month"": "&amp;MONTH(HI2)&amp;", ""day"": "&amp;DAY(HI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HI3&amp;", ""memberCount"": "&amp;HI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HI5&amp;", ""memberCount"": "&amp;HI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HI7&amp;", ""memberCount"": "&amp;HI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HI9&amp;", ""memberCount"": "&amp;HI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HI11&amp;", ""memberCount"": "&amp;HI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HI13&amp;", ""memberCount"": "&amp;HI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HI15&amp;", ""memberCount"": "&amp;HI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HI17&amp;", ""memberCount"": "&amp;HI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HI19&amp;", ""memberCount"": "&amp;HI20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 204739632, "memberCount": 198}, {"name": "Smile", "contribution": 176947673, "memberCount": 197}, {"name": "Elite", "contribution": 169244771, "memberCount": 199}, {"name": "Savages", "contribution": 158245692, "memberCount": 200}, {"name": "Spring", "contribution": 134404039, "memberCount": 195}, {"name": "Bounce", "contribution": 136646915, "memberCount": 199}, {"name": "Sunset", "contribution": 125571693, "memberCount": 196}, {"name": "Beaters", "contribution": 95094879, "memberCount": 177}, {"name": "Downtime", "contribution": 91215495, "memberCount": 197}]}</v>
+      </c>
+      <c r="HJ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HJ2)&amp;", ""month"": "&amp;MONTH(HJ2)&amp;", ""day"": "&amp;DAY(HJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HJ3&amp;", ""memberCount"": "&amp;HJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HJ5&amp;", ""memberCount"": "&amp;HJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HJ7&amp;", ""memberCount"": "&amp;HJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HJ9&amp;", ""memberCount"": "&amp;HJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HJ11&amp;", ""memberCount"": "&amp;HJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HJ13&amp;", ""memberCount"": "&amp;HJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HJ15&amp;", ""memberCount"": "&amp;HJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HJ17&amp;", ""memberCount"": "&amp;HJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HJ19&amp;", ""memberCount"": "&amp;HJ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 204965648, "memberCount": 198}, {"name": "Smile", "contribution": 177142391, "memberCount": 197}, {"name": "Elite", "contribution": 169401734, "memberCount": 199}, {"name": "Savages", "contribution": 158477600, "memberCount": 199}, {"name": "Spring", "contribution": 134503219, "memberCount": 195}, {"name": "Bounce", "contribution": 136882503, "memberCount": 199}, {"name": "Sunset", "contribution": 125678653, "memberCount": 196}, {"name": "Beaters", "contribution": 95123630, "memberCount": 177}, {"name": "Downtime", "contribution": 91373772, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HH1" activeCellId="0" sqref="HH1"/>
+      <selection pane="topRight" activeCell="HI1" activeCellId="0" sqref="HI1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HJ23" activeCellId="0" sqref="HJ23"/>
+      <selection pane="bottomRight" activeCell="HK23" activeCellId="0" sqref="HK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1976,7 +1976,9 @@
       <c r="HJ3" s="7" t="n">
         <v>204965648</v>
       </c>
-      <c r="HK3" s="7"/>
+      <c r="HK3" s="7" t="n">
+        <v>205228437</v>
+      </c>
       <c r="HL3" s="7"/>
       <c r="AMJ3" s="9"/>
     </row>
@@ -2631,7 +2633,9 @@
       <c r="HJ4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="HK4" s="11"/>
+      <c r="HK4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="HL4" s="11"/>
       <c r="AMJ4" s="13"/>
     </row>
@@ -3288,7 +3292,9 @@
       <c r="HJ5" s="17" t="n">
         <v>177142391</v>
       </c>
-      <c r="HK5" s="17"/>
+      <c r="HK5" s="17" t="n">
+        <v>177275685</v>
+      </c>
       <c r="HL5" s="17"/>
       <c r="AMJ5" s="9"/>
     </row>
@@ -3943,7 +3949,9 @@
       <c r="HJ6" s="20" t="n">
         <v>197</v>
       </c>
-      <c r="HK6" s="20"/>
+      <c r="HK6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="HL6" s="20"/>
       <c r="AMJ6" s="13"/>
     </row>
@@ -4600,7 +4608,9 @@
       <c r="HJ7" s="24" t="n">
         <v>169401734</v>
       </c>
-      <c r="HK7" s="24"/>
+      <c r="HK7" s="24" t="n">
+        <v>169547128</v>
+      </c>
       <c r="HL7" s="24"/>
       <c r="AMJ7" s="9"/>
     </row>
@@ -5255,7 +5265,9 @@
       <c r="HJ8" s="27" t="n">
         <v>199</v>
       </c>
-      <c r="HK8" s="27"/>
+      <c r="HK8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="HL8" s="27"/>
       <c r="AMJ8" s="13"/>
     </row>
@@ -5912,7 +5924,9 @@
       <c r="HJ9" s="31" t="n">
         <v>158477600</v>
       </c>
-      <c r="HK9" s="31"/>
+      <c r="HK9" s="31" t="n">
+        <v>158612124</v>
+      </c>
       <c r="HL9" s="31"/>
       <c r="AMJ9" s="9"/>
     </row>
@@ -6567,7 +6581,9 @@
       <c r="HJ10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HK10" s="34"/>
+      <c r="HK10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="HL10" s="34"/>
       <c r="AMJ10" s="13"/>
     </row>
@@ -7224,7 +7240,9 @@
       <c r="HJ11" s="38" t="n">
         <v>134503219</v>
       </c>
-      <c r="HK11" s="38"/>
+      <c r="HK11" s="38" t="n">
+        <v>134641458</v>
+      </c>
       <c r="HL11" s="38"/>
       <c r="AMJ11" s="9"/>
     </row>
@@ -7879,7 +7897,9 @@
       <c r="HJ12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HK12" s="41"/>
+      <c r="HK12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HL12" s="41"/>
       <c r="AMJ12" s="13"/>
     </row>
@@ -8536,7 +8556,9 @@
       <c r="HJ13" s="45" t="n">
         <v>136882503</v>
       </c>
-      <c r="HK13" s="45"/>
+      <c r="HK13" s="45" t="n">
+        <v>137135830</v>
+      </c>
       <c r="HL13" s="45"/>
       <c r="AMJ13" s="9"/>
     </row>
@@ -9191,7 +9213,9 @@
       <c r="HJ14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HK14" s="48"/>
+      <c r="HK14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HL14" s="48"/>
       <c r="AMJ14" s="13"/>
     </row>
@@ -9848,7 +9872,9 @@
       <c r="HJ15" s="52" t="n">
         <v>125678653</v>
       </c>
-      <c r="HK15" s="52"/>
+      <c r="HK15" s="52" t="n">
+        <v>125770582</v>
+      </c>
       <c r="HL15" s="52"/>
       <c r="AMJ15" s="9"/>
     </row>
@@ -10503,7 +10529,9 @@
       <c r="HJ16" s="55" t="n">
         <v>196</v>
       </c>
-      <c r="HK16" s="55"/>
+      <c r="HK16" s="55" t="n">
+        <v>196</v>
+      </c>
       <c r="HL16" s="55"/>
       <c r="AMJ16" s="13"/>
     </row>
@@ -11160,7 +11188,9 @@
       <c r="HJ17" s="59" t="n">
         <v>95123630</v>
       </c>
-      <c r="HK17" s="59"/>
+      <c r="HK17" s="59" t="n">
+        <v>95072217</v>
+      </c>
       <c r="HL17" s="59"/>
       <c r="AMJ17" s="9"/>
     </row>
@@ -11815,7 +11845,9 @@
       <c r="HJ18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="HK18" s="62"/>
+      <c r="HK18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="HL18" s="62"/>
       <c r="AMJ18" s="13"/>
     </row>
@@ -12472,7 +12504,9 @@
       <c r="HJ19" s="66" t="n">
         <v>91373772</v>
       </c>
-      <c r="HK19" s="66"/>
+      <c r="HK19" s="66" t="n">
+        <v>91403301</v>
+      </c>
       <c r="HL19" s="66"/>
       <c r="AMJ19" s="9"/>
     </row>
@@ -13127,7 +13161,9 @@
       <c r="HJ20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HK20" s="69"/>
+      <c r="HK20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="HL20" s="69"/>
       <c r="AMJ20" s="13"/>
     </row>
@@ -13991,11 +14027,15 @@
       </c>
       <c r="HI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HI2)&amp;", ""month"": "&amp;MONTH(HI2)&amp;", ""day"": "&amp;DAY(HI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HI3&amp;", ""memberCount"": "&amp;HI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HI5&amp;", ""memberCount"": "&amp;HI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HI7&amp;", ""memberCount"": "&amp;HI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HI9&amp;", ""memberCount"": "&amp;HI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HI11&amp;", ""memberCount"": "&amp;HI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HI13&amp;", ""memberCount"": "&amp;HI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HI15&amp;", ""memberCount"": "&amp;HI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HI17&amp;", ""memberCount"": "&amp;HI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HI19&amp;", ""memberCount"": "&amp;HI20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 204739632, "memberCount": 198}, {"name": "Smile", "contribution": 176947673, "memberCount": 197}, {"name": "Elite", "contribution": 169244771, "memberCount": 199}, {"name": "Savages", "contribution": 158245692, "memberCount": 200}, {"name": "Spring", "contribution": 134404039, "memberCount": 195}, {"name": "Bounce", "contribution": 136646915, "memberCount": 199}, {"name": "Sunset", "contribution": 125571693, "memberCount": 196}, {"name": "Beaters", "contribution": 95094879, "memberCount": 177}, {"name": "Downtime", "contribution": 91215495, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 204739632, "memberCount": 198}, {"name": "Smile", "contribution": 176947673, "memberCount": 197}, {"name": "Elite", "contribution": 169244771, "memberCount": 199}, {"name": "Savages", "contribution": 158245692, "memberCount": 200}, {"name": "Spring", "contribution": 134404039, "memberCount": 195}, {"name": "Bounce", "contribution": 136646915, "memberCount": 199}, {"name": "Sunset", "contribution": 125571693, "memberCount": 196}, {"name": "Beaters", "contribution": 95094879, "memberCount": 177}, {"name": "Downtime", "contribution": 91215495, "memberCount": 197}]}</v>
       </c>
       <c r="HJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HJ2)&amp;", ""month"": "&amp;MONTH(HJ2)&amp;", ""day"": "&amp;DAY(HJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HJ3&amp;", ""memberCount"": "&amp;HJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HJ5&amp;", ""memberCount"": "&amp;HJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HJ7&amp;", ""memberCount"": "&amp;HJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HJ9&amp;", ""memberCount"": "&amp;HJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HJ11&amp;", ""memberCount"": "&amp;HJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HJ13&amp;", ""memberCount"": "&amp;HJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HJ15&amp;", ""memberCount"": "&amp;HJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HJ17&amp;", ""memberCount"": "&amp;HJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HJ19&amp;", ""memberCount"": "&amp;HJ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 204965648, "memberCount": 198}, {"name": "Smile", "contribution": 177142391, "memberCount": 197}, {"name": "Elite", "contribution": 169401734, "memberCount": 199}, {"name": "Savages", "contribution": 158477600, "memberCount": 199}, {"name": "Spring", "contribution": 134503219, "memberCount": 195}, {"name": "Bounce", "contribution": 136882503, "memberCount": 199}, {"name": "Sunset", "contribution": 125678653, "memberCount": 196}, {"name": "Beaters", "contribution": 95123630, "memberCount": 177}, {"name": "Downtime", "contribution": 91373772, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 204965648, "memberCount": 198}, {"name": "Smile", "contribution": 177142391, "memberCount": 197}, {"name": "Elite", "contribution": 169401734, "memberCount": 199}, {"name": "Savages", "contribution": 158477600, "memberCount": 199}, {"name": "Spring", "contribution": 134503219, "memberCount": 195}, {"name": "Bounce", "contribution": 136882503, "memberCount": 199}, {"name": "Sunset", "contribution": 125678653, "memberCount": 196}, {"name": "Beaters", "contribution": 95123630, "memberCount": 177}, {"name": "Downtime", "contribution": 91373772, "memberCount": 197}]}</v>
+      </c>
+      <c r="HK23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HK2)&amp;", ""month"": "&amp;MONTH(HK2)&amp;", ""day"": "&amp;DAY(HK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HK3&amp;", ""memberCount"": "&amp;HK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HK5&amp;", ""memberCount"": "&amp;HK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HK7&amp;", ""memberCount"": "&amp;HK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HK9&amp;", ""memberCount"": "&amp;HK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HK11&amp;", ""memberCount"": "&amp;HK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HK13&amp;", ""memberCount"": "&amp;HK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HK15&amp;", ""memberCount"": "&amp;HK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HK17&amp;", ""memberCount"": "&amp;HK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HK19&amp;", ""memberCount"": "&amp;HK20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 205228437, "memberCount": 198}, {"name": "Smile", "contribution": 177275685, "memberCount": 196}, {"name": "Elite", "contribution": 169547128, "memberCount": 198}, {"name": "Savages", "contribution": 158612124, "memberCount": 198}, {"name": "Spring", "contribution": 134641458, "memberCount": 195}, {"name": "Bounce", "contribution": 137135830, "memberCount": 199}, {"name": "Sunset", "contribution": 125770582, "memberCount": 196}, {"name": "Beaters", "contribution": 95072217, "memberCount": 176}, {"name": "Downtime", "contribution": 91403301, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HI1" activeCellId="0" sqref="HI1"/>
+      <selection pane="topRight" activeCell="HK1" activeCellId="0" sqref="HK1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HK23" activeCellId="0" sqref="HK23"/>
+      <selection pane="bottomRight" activeCell="HL23" activeCellId="0" sqref="HL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1322,6 +1322,516 @@
       <c r="HL2" s="3" t="n">
         <v>43568</v>
       </c>
+      <c r="HM2" s="3" t="n">
+        <v>43569</v>
+      </c>
+      <c r="HN2" s="3" t="n">
+        <v>43570</v>
+      </c>
+      <c r="HO2" s="3" t="n">
+        <v>43571</v>
+      </c>
+      <c r="HP2" s="3" t="n">
+        <v>43572</v>
+      </c>
+      <c r="HQ2" s="3" t="n">
+        <v>43573</v>
+      </c>
+      <c r="HR2" s="3" t="n">
+        <v>43574</v>
+      </c>
+      <c r="HS2" s="3" t="n">
+        <v>43575</v>
+      </c>
+      <c r="HT2" s="3" t="n">
+        <v>43576</v>
+      </c>
+      <c r="HU2" s="3" t="n">
+        <v>43577</v>
+      </c>
+      <c r="HV2" s="3" t="n">
+        <v>43578</v>
+      </c>
+      <c r="HW2" s="3" t="n">
+        <v>43579</v>
+      </c>
+      <c r="HX2" s="3" t="n">
+        <v>43580</v>
+      </c>
+      <c r="HY2" s="3" t="n">
+        <v>43581</v>
+      </c>
+      <c r="HZ2" s="3" t="n">
+        <v>43582</v>
+      </c>
+      <c r="IA2" s="3" t="n">
+        <v>43583</v>
+      </c>
+      <c r="IB2" s="3" t="n">
+        <v>43584</v>
+      </c>
+      <c r="IC2" s="3" t="n">
+        <v>43585</v>
+      </c>
+      <c r="ID2" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="IE2" s="3" t="n">
+        <v>43587</v>
+      </c>
+      <c r="IF2" s="3" t="n">
+        <v>43588</v>
+      </c>
+      <c r="IG2" s="3" t="n">
+        <v>43589</v>
+      </c>
+      <c r="IH2" s="3" t="n">
+        <v>43590</v>
+      </c>
+      <c r="II2" s="3" t="n">
+        <v>43591</v>
+      </c>
+      <c r="IJ2" s="3" t="n">
+        <v>43592</v>
+      </c>
+      <c r="IK2" s="3" t="n">
+        <v>43593</v>
+      </c>
+      <c r="IL2" s="3" t="n">
+        <v>43594</v>
+      </c>
+      <c r="IM2" s="3" t="n">
+        <v>43595</v>
+      </c>
+      <c r="IN2" s="3" t="n">
+        <v>43596</v>
+      </c>
+      <c r="IO2" s="3" t="n">
+        <v>43597</v>
+      </c>
+      <c r="IP2" s="3" t="n">
+        <v>43598</v>
+      </c>
+      <c r="IQ2" s="3" t="n">
+        <v>43599</v>
+      </c>
+      <c r="IR2" s="3" t="n">
+        <v>43600</v>
+      </c>
+      <c r="IS2" s="3" t="n">
+        <v>43601</v>
+      </c>
+      <c r="IT2" s="3" t="n">
+        <v>43602</v>
+      </c>
+      <c r="IU2" s="3" t="n">
+        <v>43603</v>
+      </c>
+      <c r="IV2" s="3" t="n">
+        <v>43604</v>
+      </c>
+      <c r="IW2" s="3" t="n">
+        <v>43605</v>
+      </c>
+      <c r="IX2" s="3" t="n">
+        <v>43606</v>
+      </c>
+      <c r="IY2" s="3" t="n">
+        <v>43607</v>
+      </c>
+      <c r="IZ2" s="3" t="n">
+        <v>43608</v>
+      </c>
+      <c r="JA2" s="3" t="n">
+        <v>43609</v>
+      </c>
+      <c r="JB2" s="3" t="n">
+        <v>43610</v>
+      </c>
+      <c r="JC2" s="3" t="n">
+        <v>43611</v>
+      </c>
+      <c r="JD2" s="3" t="n">
+        <v>43612</v>
+      </c>
+      <c r="JE2" s="3" t="n">
+        <v>43613</v>
+      </c>
+      <c r="JF2" s="3" t="n">
+        <v>43614</v>
+      </c>
+      <c r="JG2" s="3" t="n">
+        <v>43615</v>
+      </c>
+      <c r="JH2" s="3" t="n">
+        <v>43616</v>
+      </c>
+      <c r="JI2" s="3" t="n">
+        <v>43617</v>
+      </c>
+      <c r="JJ2" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="JK2" s="3" t="n">
+        <v>43619</v>
+      </c>
+      <c r="JL2" s="3" t="n">
+        <v>43620</v>
+      </c>
+      <c r="JM2" s="3" t="n">
+        <v>43621</v>
+      </c>
+      <c r="JN2" s="3" t="n">
+        <v>43622</v>
+      </c>
+      <c r="JO2" s="3" t="n">
+        <v>43623</v>
+      </c>
+      <c r="JP2" s="3" t="n">
+        <v>43624</v>
+      </c>
+      <c r="JQ2" s="3" t="n">
+        <v>43625</v>
+      </c>
+      <c r="JR2" s="3" t="n">
+        <v>43626</v>
+      </c>
+      <c r="JS2" s="3" t="n">
+        <v>43627</v>
+      </c>
+      <c r="JT2" s="3" t="n">
+        <v>43628</v>
+      </c>
+      <c r="JU2" s="3" t="n">
+        <v>43629</v>
+      </c>
+      <c r="JV2" s="3" t="n">
+        <v>43630</v>
+      </c>
+      <c r="JW2" s="3" t="n">
+        <v>43631</v>
+      </c>
+      <c r="JX2" s="3" t="n">
+        <v>43632</v>
+      </c>
+      <c r="JY2" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="JZ2" s="3" t="n">
+        <v>43634</v>
+      </c>
+      <c r="KA2" s="3" t="n">
+        <v>43635</v>
+      </c>
+      <c r="KB2" s="3" t="n">
+        <v>43636</v>
+      </c>
+      <c r="KC2" s="3" t="n">
+        <v>43637</v>
+      </c>
+      <c r="KD2" s="3" t="n">
+        <v>43638</v>
+      </c>
+      <c r="KE2" s="3" t="n">
+        <v>43639</v>
+      </c>
+      <c r="KF2" s="3" t="n">
+        <v>43640</v>
+      </c>
+      <c r="KG2" s="3" t="n">
+        <v>43641</v>
+      </c>
+      <c r="KH2" s="3" t="n">
+        <v>43642</v>
+      </c>
+      <c r="KI2" s="3" t="n">
+        <v>43643</v>
+      </c>
+      <c r="KJ2" s="3" t="n">
+        <v>43644</v>
+      </c>
+      <c r="KK2" s="3" t="n">
+        <v>43645</v>
+      </c>
+      <c r="KL2" s="3" t="n">
+        <v>43646</v>
+      </c>
+      <c r="KM2" s="3" t="n">
+        <v>43647</v>
+      </c>
+      <c r="KN2" s="3" t="n">
+        <v>43648</v>
+      </c>
+      <c r="KO2" s="3" t="n">
+        <v>43649</v>
+      </c>
+      <c r="KP2" s="3" t="n">
+        <v>43650</v>
+      </c>
+      <c r="KQ2" s="3" t="n">
+        <v>43651</v>
+      </c>
+      <c r="KR2" s="3" t="n">
+        <v>43652</v>
+      </c>
+      <c r="KS2" s="3" t="n">
+        <v>43653</v>
+      </c>
+      <c r="KT2" s="3" t="n">
+        <v>43654</v>
+      </c>
+      <c r="KU2" s="3" t="n">
+        <v>43655</v>
+      </c>
+      <c r="KV2" s="3" t="n">
+        <v>43656</v>
+      </c>
+      <c r="KW2" s="3" t="n">
+        <v>43657</v>
+      </c>
+      <c r="KX2" s="3" t="n">
+        <v>43658</v>
+      </c>
+      <c r="KY2" s="3" t="n">
+        <v>43659</v>
+      </c>
+      <c r="KZ2" s="3" t="n">
+        <v>43660</v>
+      </c>
+      <c r="LA2" s="3" t="n">
+        <v>43661</v>
+      </c>
+      <c r="LB2" s="3" t="n">
+        <v>43662</v>
+      </c>
+      <c r="LC2" s="3" t="n">
+        <v>43663</v>
+      </c>
+      <c r="LD2" s="3" t="n">
+        <v>43664</v>
+      </c>
+      <c r="LE2" s="3" t="n">
+        <v>43665</v>
+      </c>
+      <c r="LF2" s="3" t="n">
+        <v>43666</v>
+      </c>
+      <c r="LG2" s="3" t="n">
+        <v>43667</v>
+      </c>
+      <c r="LH2" s="3" t="n">
+        <v>43668</v>
+      </c>
+      <c r="LI2" s="3" t="n">
+        <v>43669</v>
+      </c>
+      <c r="LJ2" s="3" t="n">
+        <v>43670</v>
+      </c>
+      <c r="LK2" s="3" t="n">
+        <v>43671</v>
+      </c>
+      <c r="LL2" s="3" t="n">
+        <v>43672</v>
+      </c>
+      <c r="LM2" s="3" t="n">
+        <v>43673</v>
+      </c>
+      <c r="LN2" s="3" t="n">
+        <v>43674</v>
+      </c>
+      <c r="LO2" s="3" t="n">
+        <v>43675</v>
+      </c>
+      <c r="LP2" s="3" t="n">
+        <v>43676</v>
+      </c>
+      <c r="LQ2" s="3" t="n">
+        <v>43677</v>
+      </c>
+      <c r="LR2" s="3" t="n">
+        <v>43678</v>
+      </c>
+      <c r="LS2" s="3" t="n">
+        <v>43679</v>
+      </c>
+      <c r="LT2" s="3" t="n">
+        <v>43680</v>
+      </c>
+      <c r="LU2" s="3" t="n">
+        <v>43681</v>
+      </c>
+      <c r="LV2" s="3" t="n">
+        <v>43682</v>
+      </c>
+      <c r="LW2" s="3" t="n">
+        <v>43683</v>
+      </c>
+      <c r="LX2" s="3" t="n">
+        <v>43684</v>
+      </c>
+      <c r="LY2" s="3" t="n">
+        <v>43685</v>
+      </c>
+      <c r="LZ2" s="3" t="n">
+        <v>43686</v>
+      </c>
+      <c r="MA2" s="3" t="n">
+        <v>43687</v>
+      </c>
+      <c r="MB2" s="3" t="n">
+        <v>43688</v>
+      </c>
+      <c r="MC2" s="3" t="n">
+        <v>43689</v>
+      </c>
+      <c r="MD2" s="3" t="n">
+        <v>43690</v>
+      </c>
+      <c r="ME2" s="3" t="n">
+        <v>43691</v>
+      </c>
+      <c r="MF2" s="3" t="n">
+        <v>43692</v>
+      </c>
+      <c r="MG2" s="3" t="n">
+        <v>43693</v>
+      </c>
+      <c r="MH2" s="3" t="n">
+        <v>43694</v>
+      </c>
+      <c r="MI2" s="3" t="n">
+        <v>43695</v>
+      </c>
+      <c r="MJ2" s="3" t="n">
+        <v>43696</v>
+      </c>
+      <c r="MK2" s="3" t="n">
+        <v>43697</v>
+      </c>
+      <c r="ML2" s="3" t="n">
+        <v>43698</v>
+      </c>
+      <c r="MM2" s="3" t="n">
+        <v>43699</v>
+      </c>
+      <c r="MN2" s="3" t="n">
+        <v>43700</v>
+      </c>
+      <c r="MO2" s="3" t="n">
+        <v>43701</v>
+      </c>
+      <c r="MP2" s="3" t="n">
+        <v>43702</v>
+      </c>
+      <c r="MQ2" s="3" t="n">
+        <v>43703</v>
+      </c>
+      <c r="MR2" s="3" t="n">
+        <v>43704</v>
+      </c>
+      <c r="MS2" s="3" t="n">
+        <v>43705</v>
+      </c>
+      <c r="MT2" s="3" t="n">
+        <v>43706</v>
+      </c>
+      <c r="MU2" s="3" t="n">
+        <v>43707</v>
+      </c>
+      <c r="MV2" s="3" t="n">
+        <v>43708</v>
+      </c>
+      <c r="MW2" s="3" t="n">
+        <v>43709</v>
+      </c>
+      <c r="MX2" s="3" t="n">
+        <v>43710</v>
+      </c>
+      <c r="MY2" s="3" t="n">
+        <v>43711</v>
+      </c>
+      <c r="MZ2" s="3" t="n">
+        <v>43712</v>
+      </c>
+      <c r="NA2" s="3" t="n">
+        <v>43713</v>
+      </c>
+      <c r="NB2" s="3" t="n">
+        <v>43714</v>
+      </c>
+      <c r="NC2" s="3" t="n">
+        <v>43715</v>
+      </c>
+      <c r="ND2" s="3" t="n">
+        <v>43716</v>
+      </c>
+      <c r="NE2" s="3" t="n">
+        <v>43717</v>
+      </c>
+      <c r="NF2" s="3" t="n">
+        <v>43718</v>
+      </c>
+      <c r="NG2" s="3" t="n">
+        <v>43719</v>
+      </c>
+      <c r="NH2" s="3" t="n">
+        <v>43720</v>
+      </c>
+      <c r="NI2" s="3" t="n">
+        <v>43721</v>
+      </c>
+      <c r="NJ2" s="3" t="n">
+        <v>43722</v>
+      </c>
+      <c r="NK2" s="3" t="n">
+        <v>43723</v>
+      </c>
+      <c r="NL2" s="3" t="n">
+        <v>43724</v>
+      </c>
+      <c r="NM2" s="3" t="n">
+        <v>43725</v>
+      </c>
+      <c r="NN2" s="3" t="n">
+        <v>43726</v>
+      </c>
+      <c r="NO2" s="3" t="n">
+        <v>43727</v>
+      </c>
+      <c r="NP2" s="3" t="n">
+        <v>43728</v>
+      </c>
+      <c r="NQ2" s="3" t="n">
+        <v>43729</v>
+      </c>
+      <c r="NR2" s="3" t="n">
+        <v>43730</v>
+      </c>
+      <c r="NS2" s="3" t="n">
+        <v>43731</v>
+      </c>
+      <c r="NT2" s="3" t="n">
+        <v>43732</v>
+      </c>
+      <c r="NU2" s="3" t="n">
+        <v>43733</v>
+      </c>
+      <c r="NV2" s="3" t="n">
+        <v>43734</v>
+      </c>
+      <c r="NW2" s="3" t="n">
+        <v>43735</v>
+      </c>
+      <c r="NX2" s="3" t="n">
+        <v>43736</v>
+      </c>
+      <c r="NY2" s="3" t="n">
+        <v>43737</v>
+      </c>
+      <c r="NZ2" s="3" t="n">
+        <v>43738</v>
+      </c>
     </row>
     <row r="3" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
@@ -1979,7 +2489,179 @@
       <c r="HK3" s="7" t="n">
         <v>205228437</v>
       </c>
-      <c r="HL3" s="7"/>
+      <c r="HL3" s="7" t="n">
+        <v>205350637</v>
+      </c>
+      <c r="HM3" s="7"/>
+      <c r="HN3" s="7"/>
+      <c r="HO3" s="7"/>
+      <c r="HP3" s="7"/>
+      <c r="HQ3" s="7"/>
+      <c r="HR3" s="7"/>
+      <c r="HS3" s="7"/>
+      <c r="HT3" s="7"/>
+      <c r="HU3" s="7"/>
+      <c r="HV3" s="7"/>
+      <c r="HW3" s="7"/>
+      <c r="HX3" s="7"/>
+      <c r="HY3" s="7"/>
+      <c r="HZ3" s="7"/>
+      <c r="IA3" s="7"/>
+      <c r="IB3" s="7"/>
+      <c r="IC3" s="7"/>
+      <c r="ID3" s="7"/>
+      <c r="IE3" s="7"/>
+      <c r="IF3" s="7"/>
+      <c r="IG3" s="7"/>
+      <c r="IH3" s="7"/>
+      <c r="II3" s="7"/>
+      <c r="IJ3" s="7"/>
+      <c r="IK3" s="7"/>
+      <c r="IL3" s="7"/>
+      <c r="IM3" s="7"/>
+      <c r="IN3" s="7"/>
+      <c r="IO3" s="7"/>
+      <c r="IP3" s="7"/>
+      <c r="IQ3" s="7"/>
+      <c r="IR3" s="7"/>
+      <c r="IS3" s="7"/>
+      <c r="IT3" s="7"/>
+      <c r="IU3" s="7"/>
+      <c r="IV3" s="7"/>
+      <c r="IW3" s="7"/>
+      <c r="IX3" s="7"/>
+      <c r="IY3" s="7"/>
+      <c r="IZ3" s="7"/>
+      <c r="JA3" s="7"/>
+      <c r="JB3" s="7"/>
+      <c r="JC3" s="7"/>
+      <c r="JD3" s="7"/>
+      <c r="JE3" s="7"/>
+      <c r="JF3" s="7"/>
+      <c r="JG3" s="7"/>
+      <c r="JH3" s="7"/>
+      <c r="JI3" s="7"/>
+      <c r="JJ3" s="7"/>
+      <c r="JK3" s="7"/>
+      <c r="JL3" s="7"/>
+      <c r="JM3" s="7"/>
+      <c r="JN3" s="7"/>
+      <c r="JO3" s="7"/>
+      <c r="JP3" s="7"/>
+      <c r="JQ3" s="7"/>
+      <c r="JR3" s="7"/>
+      <c r="JS3" s="7"/>
+      <c r="JT3" s="7"/>
+      <c r="JU3" s="7"/>
+      <c r="JV3" s="7"/>
+      <c r="JW3" s="7"/>
+      <c r="JX3" s="7"/>
+      <c r="JY3" s="7"/>
+      <c r="JZ3" s="7"/>
+      <c r="KA3" s="7"/>
+      <c r="KB3" s="7"/>
+      <c r="KC3" s="7"/>
+      <c r="KD3" s="7"/>
+      <c r="KE3" s="7"/>
+      <c r="KF3" s="7"/>
+      <c r="KG3" s="7"/>
+      <c r="KH3" s="7"/>
+      <c r="KI3" s="7"/>
+      <c r="KJ3" s="7"/>
+      <c r="KK3" s="7"/>
+      <c r="KL3" s="7"/>
+      <c r="KM3" s="7"/>
+      <c r="KN3" s="7"/>
+      <c r="KO3" s="7"/>
+      <c r="KP3" s="7"/>
+      <c r="KQ3" s="7"/>
+      <c r="KR3" s="7"/>
+      <c r="KS3" s="7"/>
+      <c r="KT3" s="7"/>
+      <c r="KU3" s="7"/>
+      <c r="KV3" s="7"/>
+      <c r="KW3" s="7"/>
+      <c r="KX3" s="7"/>
+      <c r="KY3" s="7"/>
+      <c r="KZ3" s="7"/>
+      <c r="LA3" s="7"/>
+      <c r="LB3" s="7"/>
+      <c r="LC3" s="7"/>
+      <c r="LD3" s="7"/>
+      <c r="LE3" s="7"/>
+      <c r="LF3" s="7"/>
+      <c r="LG3" s="7"/>
+      <c r="LH3" s="7"/>
+      <c r="LI3" s="7"/>
+      <c r="LJ3" s="7"/>
+      <c r="LK3" s="7"/>
+      <c r="LL3" s="7"/>
+      <c r="LM3" s="7"/>
+      <c r="LN3" s="7"/>
+      <c r="LO3" s="7"/>
+      <c r="LP3" s="7"/>
+      <c r="LQ3" s="7"/>
+      <c r="LR3" s="7"/>
+      <c r="LS3" s="7"/>
+      <c r="LT3" s="7"/>
+      <c r="LU3" s="7"/>
+      <c r="LV3" s="7"/>
+      <c r="LW3" s="7"/>
+      <c r="LX3" s="7"/>
+      <c r="LY3" s="7"/>
+      <c r="LZ3" s="7"/>
+      <c r="MA3" s="7"/>
+      <c r="MB3" s="7"/>
+      <c r="MC3" s="7"/>
+      <c r="MD3" s="7"/>
+      <c r="ME3" s="7"/>
+      <c r="MF3" s="7"/>
+      <c r="MG3" s="7"/>
+      <c r="MH3" s="7"/>
+      <c r="MI3" s="7"/>
+      <c r="MJ3" s="7"/>
+      <c r="MK3" s="7"/>
+      <c r="ML3" s="7"/>
+      <c r="MM3" s="7"/>
+      <c r="MN3" s="7"/>
+      <c r="MO3" s="7"/>
+      <c r="MP3" s="7"/>
+      <c r="MQ3" s="7"/>
+      <c r="MR3" s="7"/>
+      <c r="MS3" s="7"/>
+      <c r="MT3" s="7"/>
+      <c r="MU3" s="7"/>
+      <c r="MV3" s="7"/>
+      <c r="MW3" s="7"/>
+      <c r="MX3" s="7"/>
+      <c r="MY3" s="7"/>
+      <c r="MZ3" s="7"/>
+      <c r="NA3" s="7"/>
+      <c r="NB3" s="7"/>
+      <c r="NC3" s="7"/>
+      <c r="ND3" s="7"/>
+      <c r="NE3" s="7"/>
+      <c r="NF3" s="7"/>
+      <c r="NG3" s="7"/>
+      <c r="NH3" s="7"/>
+      <c r="NI3" s="7"/>
+      <c r="NJ3" s="7"/>
+      <c r="NK3" s="7"/>
+      <c r="NL3" s="7"/>
+      <c r="NM3" s="7"/>
+      <c r="NN3" s="7"/>
+      <c r="NO3" s="7"/>
+      <c r="NP3" s="7"/>
+      <c r="NQ3" s="7"/>
+      <c r="NR3" s="7"/>
+      <c r="NS3" s="7"/>
+      <c r="NT3" s="7"/>
+      <c r="NU3" s="7"/>
+      <c r="NV3" s="7"/>
+      <c r="NW3" s="7"/>
+      <c r="NX3" s="7"/>
+      <c r="NY3" s="7"/>
+      <c r="NZ3" s="7"/>
       <c r="AMJ3" s="9"/>
     </row>
     <row r="4" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2636,7 +3318,179 @@
       <c r="HK4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="HL4" s="11"/>
+      <c r="HL4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="HM4" s="11"/>
+      <c r="HN4" s="11"/>
+      <c r="HO4" s="11"/>
+      <c r="HP4" s="11"/>
+      <c r="HQ4" s="11"/>
+      <c r="HR4" s="11"/>
+      <c r="HS4" s="11"/>
+      <c r="HT4" s="11"/>
+      <c r="HU4" s="11"/>
+      <c r="HV4" s="11"/>
+      <c r="HW4" s="11"/>
+      <c r="HX4" s="11"/>
+      <c r="HY4" s="11"/>
+      <c r="HZ4" s="11"/>
+      <c r="IA4" s="11"/>
+      <c r="IB4" s="11"/>
+      <c r="IC4" s="11"/>
+      <c r="ID4" s="11"/>
+      <c r="IE4" s="11"/>
+      <c r="IF4" s="11"/>
+      <c r="IG4" s="11"/>
+      <c r="IH4" s="11"/>
+      <c r="II4" s="11"/>
+      <c r="IJ4" s="11"/>
+      <c r="IK4" s="11"/>
+      <c r="IL4" s="11"/>
+      <c r="IM4" s="11"/>
+      <c r="IN4" s="11"/>
+      <c r="IO4" s="11"/>
+      <c r="IP4" s="11"/>
+      <c r="IQ4" s="11"/>
+      <c r="IR4" s="11"/>
+      <c r="IS4" s="11"/>
+      <c r="IT4" s="11"/>
+      <c r="IU4" s="11"/>
+      <c r="IV4" s="11"/>
+      <c r="IW4" s="11"/>
+      <c r="IX4" s="11"/>
+      <c r="IY4" s="11"/>
+      <c r="IZ4" s="11"/>
+      <c r="JA4" s="11"/>
+      <c r="JB4" s="11"/>
+      <c r="JC4" s="11"/>
+      <c r="JD4" s="11"/>
+      <c r="JE4" s="11"/>
+      <c r="JF4" s="11"/>
+      <c r="JG4" s="11"/>
+      <c r="JH4" s="11"/>
+      <c r="JI4" s="11"/>
+      <c r="JJ4" s="11"/>
+      <c r="JK4" s="11"/>
+      <c r="JL4" s="11"/>
+      <c r="JM4" s="11"/>
+      <c r="JN4" s="11"/>
+      <c r="JO4" s="11"/>
+      <c r="JP4" s="11"/>
+      <c r="JQ4" s="11"/>
+      <c r="JR4" s="11"/>
+      <c r="JS4" s="11"/>
+      <c r="JT4" s="11"/>
+      <c r="JU4" s="11"/>
+      <c r="JV4" s="11"/>
+      <c r="JW4" s="11"/>
+      <c r="JX4" s="11"/>
+      <c r="JY4" s="11"/>
+      <c r="JZ4" s="11"/>
+      <c r="KA4" s="11"/>
+      <c r="KB4" s="11"/>
+      <c r="KC4" s="11"/>
+      <c r="KD4" s="11"/>
+      <c r="KE4" s="11"/>
+      <c r="KF4" s="11"/>
+      <c r="KG4" s="11"/>
+      <c r="KH4" s="11"/>
+      <c r="KI4" s="11"/>
+      <c r="KJ4" s="11"/>
+      <c r="KK4" s="11"/>
+      <c r="KL4" s="11"/>
+      <c r="KM4" s="11"/>
+      <c r="KN4" s="11"/>
+      <c r="KO4" s="11"/>
+      <c r="KP4" s="11"/>
+      <c r="KQ4" s="11"/>
+      <c r="KR4" s="11"/>
+      <c r="KS4" s="11"/>
+      <c r="KT4" s="11"/>
+      <c r="KU4" s="11"/>
+      <c r="KV4" s="11"/>
+      <c r="KW4" s="11"/>
+      <c r="KX4" s="11"/>
+      <c r="KY4" s="11"/>
+      <c r="KZ4" s="11"/>
+      <c r="LA4" s="11"/>
+      <c r="LB4" s="11"/>
+      <c r="LC4" s="11"/>
+      <c r="LD4" s="11"/>
+      <c r="LE4" s="11"/>
+      <c r="LF4" s="11"/>
+      <c r="LG4" s="11"/>
+      <c r="LH4" s="11"/>
+      <c r="LI4" s="11"/>
+      <c r="LJ4" s="11"/>
+      <c r="LK4" s="11"/>
+      <c r="LL4" s="11"/>
+      <c r="LM4" s="11"/>
+      <c r="LN4" s="11"/>
+      <c r="LO4" s="11"/>
+      <c r="LP4" s="11"/>
+      <c r="LQ4" s="11"/>
+      <c r="LR4" s="11"/>
+      <c r="LS4" s="11"/>
+      <c r="LT4" s="11"/>
+      <c r="LU4" s="11"/>
+      <c r="LV4" s="11"/>
+      <c r="LW4" s="11"/>
+      <c r="LX4" s="11"/>
+      <c r="LY4" s="11"/>
+      <c r="LZ4" s="11"/>
+      <c r="MA4" s="11"/>
+      <c r="MB4" s="11"/>
+      <c r="MC4" s="11"/>
+      <c r="MD4" s="11"/>
+      <c r="ME4" s="11"/>
+      <c r="MF4" s="11"/>
+      <c r="MG4" s="11"/>
+      <c r="MH4" s="11"/>
+      <c r="MI4" s="11"/>
+      <c r="MJ4" s="11"/>
+      <c r="MK4" s="11"/>
+      <c r="ML4" s="11"/>
+      <c r="MM4" s="11"/>
+      <c r="MN4" s="11"/>
+      <c r="MO4" s="11"/>
+      <c r="MP4" s="11"/>
+      <c r="MQ4" s="11"/>
+      <c r="MR4" s="11"/>
+      <c r="MS4" s="11"/>
+      <c r="MT4" s="11"/>
+      <c r="MU4" s="11"/>
+      <c r="MV4" s="11"/>
+      <c r="MW4" s="11"/>
+      <c r="MX4" s="11"/>
+      <c r="MY4" s="11"/>
+      <c r="MZ4" s="11"/>
+      <c r="NA4" s="11"/>
+      <c r="NB4" s="11"/>
+      <c r="NC4" s="11"/>
+      <c r="ND4" s="11"/>
+      <c r="NE4" s="11"/>
+      <c r="NF4" s="11"/>
+      <c r="NG4" s="11"/>
+      <c r="NH4" s="11"/>
+      <c r="NI4" s="11"/>
+      <c r="NJ4" s="11"/>
+      <c r="NK4" s="11"/>
+      <c r="NL4" s="11"/>
+      <c r="NM4" s="11"/>
+      <c r="NN4" s="11"/>
+      <c r="NO4" s="11"/>
+      <c r="NP4" s="11"/>
+      <c r="NQ4" s="11"/>
+      <c r="NR4" s="11"/>
+      <c r="NS4" s="11"/>
+      <c r="NT4" s="11"/>
+      <c r="NU4" s="11"/>
+      <c r="NV4" s="11"/>
+      <c r="NW4" s="11"/>
+      <c r="NX4" s="11"/>
+      <c r="NY4" s="11"/>
+      <c r="NZ4" s="11"/>
       <c r="AMJ4" s="13"/>
     </row>
     <row r="5" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3295,7 +4149,179 @@
       <c r="HK5" s="17" t="n">
         <v>177275685</v>
       </c>
-      <c r="HL5" s="17"/>
+      <c r="HL5" s="17" t="n">
+        <v>177519249</v>
+      </c>
+      <c r="HM5" s="17"/>
+      <c r="HN5" s="17"/>
+      <c r="HO5" s="17"/>
+      <c r="HP5" s="17"/>
+      <c r="HQ5" s="17"/>
+      <c r="HR5" s="17"/>
+      <c r="HS5" s="17"/>
+      <c r="HT5" s="17"/>
+      <c r="HU5" s="17"/>
+      <c r="HV5" s="17"/>
+      <c r="HW5" s="17"/>
+      <c r="HX5" s="17"/>
+      <c r="HY5" s="17"/>
+      <c r="HZ5" s="17"/>
+      <c r="IA5" s="17"/>
+      <c r="IB5" s="17"/>
+      <c r="IC5" s="17"/>
+      <c r="ID5" s="17"/>
+      <c r="IE5" s="17"/>
+      <c r="IF5" s="17"/>
+      <c r="IG5" s="17"/>
+      <c r="IH5" s="17"/>
+      <c r="II5" s="17"/>
+      <c r="IJ5" s="17"/>
+      <c r="IK5" s="17"/>
+      <c r="IL5" s="17"/>
+      <c r="IM5" s="17"/>
+      <c r="IN5" s="17"/>
+      <c r="IO5" s="17"/>
+      <c r="IP5" s="17"/>
+      <c r="IQ5" s="17"/>
+      <c r="IR5" s="17"/>
+      <c r="IS5" s="17"/>
+      <c r="IT5" s="17"/>
+      <c r="IU5" s="17"/>
+      <c r="IV5" s="17"/>
+      <c r="IW5" s="17"/>
+      <c r="IX5" s="17"/>
+      <c r="IY5" s="17"/>
+      <c r="IZ5" s="17"/>
+      <c r="JA5" s="17"/>
+      <c r="JB5" s="17"/>
+      <c r="JC5" s="17"/>
+      <c r="JD5" s="17"/>
+      <c r="JE5" s="17"/>
+      <c r="JF5" s="17"/>
+      <c r="JG5" s="17"/>
+      <c r="JH5" s="17"/>
+      <c r="JI5" s="17"/>
+      <c r="JJ5" s="17"/>
+      <c r="JK5" s="17"/>
+      <c r="JL5" s="17"/>
+      <c r="JM5" s="17"/>
+      <c r="JN5" s="17"/>
+      <c r="JO5" s="17"/>
+      <c r="JP5" s="17"/>
+      <c r="JQ5" s="17"/>
+      <c r="JR5" s="17"/>
+      <c r="JS5" s="17"/>
+      <c r="JT5" s="17"/>
+      <c r="JU5" s="17"/>
+      <c r="JV5" s="17"/>
+      <c r="JW5" s="17"/>
+      <c r="JX5" s="17"/>
+      <c r="JY5" s="17"/>
+      <c r="JZ5" s="17"/>
+      <c r="KA5" s="17"/>
+      <c r="KB5" s="17"/>
+      <c r="KC5" s="17"/>
+      <c r="KD5" s="17"/>
+      <c r="KE5" s="17"/>
+      <c r="KF5" s="17"/>
+      <c r="KG5" s="17"/>
+      <c r="KH5" s="17"/>
+      <c r="KI5" s="17"/>
+      <c r="KJ5" s="17"/>
+      <c r="KK5" s="17"/>
+      <c r="KL5" s="17"/>
+      <c r="KM5" s="17"/>
+      <c r="KN5" s="17"/>
+      <c r="KO5" s="17"/>
+      <c r="KP5" s="17"/>
+      <c r="KQ5" s="17"/>
+      <c r="KR5" s="17"/>
+      <c r="KS5" s="17"/>
+      <c r="KT5" s="17"/>
+      <c r="KU5" s="17"/>
+      <c r="KV5" s="17"/>
+      <c r="KW5" s="17"/>
+      <c r="KX5" s="17"/>
+      <c r="KY5" s="17"/>
+      <c r="KZ5" s="17"/>
+      <c r="LA5" s="17"/>
+      <c r="LB5" s="17"/>
+      <c r="LC5" s="17"/>
+      <c r="LD5" s="17"/>
+      <c r="LE5" s="17"/>
+      <c r="LF5" s="17"/>
+      <c r="LG5" s="17"/>
+      <c r="LH5" s="17"/>
+      <c r="LI5" s="17"/>
+      <c r="LJ5" s="17"/>
+      <c r="LK5" s="17"/>
+      <c r="LL5" s="17"/>
+      <c r="LM5" s="17"/>
+      <c r="LN5" s="17"/>
+      <c r="LO5" s="17"/>
+      <c r="LP5" s="17"/>
+      <c r="LQ5" s="17"/>
+      <c r="LR5" s="17"/>
+      <c r="LS5" s="17"/>
+      <c r="LT5" s="17"/>
+      <c r="LU5" s="17"/>
+      <c r="LV5" s="17"/>
+      <c r="LW5" s="17"/>
+      <c r="LX5" s="17"/>
+      <c r="LY5" s="17"/>
+      <c r="LZ5" s="17"/>
+      <c r="MA5" s="17"/>
+      <c r="MB5" s="17"/>
+      <c r="MC5" s="17"/>
+      <c r="MD5" s="17"/>
+      <c r="ME5" s="17"/>
+      <c r="MF5" s="17"/>
+      <c r="MG5" s="17"/>
+      <c r="MH5" s="17"/>
+      <c r="MI5" s="17"/>
+      <c r="MJ5" s="17"/>
+      <c r="MK5" s="17"/>
+      <c r="ML5" s="17"/>
+      <c r="MM5" s="17"/>
+      <c r="MN5" s="17"/>
+      <c r="MO5" s="17"/>
+      <c r="MP5" s="17"/>
+      <c r="MQ5" s="17"/>
+      <c r="MR5" s="17"/>
+      <c r="MS5" s="17"/>
+      <c r="MT5" s="17"/>
+      <c r="MU5" s="17"/>
+      <c r="MV5" s="17"/>
+      <c r="MW5" s="17"/>
+      <c r="MX5" s="17"/>
+      <c r="MY5" s="17"/>
+      <c r="MZ5" s="17"/>
+      <c r="NA5" s="17"/>
+      <c r="NB5" s="17"/>
+      <c r="NC5" s="17"/>
+      <c r="ND5" s="17"/>
+      <c r="NE5" s="17"/>
+      <c r="NF5" s="17"/>
+      <c r="NG5" s="17"/>
+      <c r="NH5" s="17"/>
+      <c r="NI5" s="17"/>
+      <c r="NJ5" s="17"/>
+      <c r="NK5" s="17"/>
+      <c r="NL5" s="17"/>
+      <c r="NM5" s="17"/>
+      <c r="NN5" s="17"/>
+      <c r="NO5" s="17"/>
+      <c r="NP5" s="17"/>
+      <c r="NQ5" s="17"/>
+      <c r="NR5" s="17"/>
+      <c r="NS5" s="17"/>
+      <c r="NT5" s="17"/>
+      <c r="NU5" s="17"/>
+      <c r="NV5" s="17"/>
+      <c r="NW5" s="17"/>
+      <c r="NX5" s="17"/>
+      <c r="NY5" s="17"/>
+      <c r="NZ5" s="17"/>
       <c r="AMJ5" s="9"/>
     </row>
     <row r="6" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3952,7 +4978,179 @@
       <c r="HK6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="HL6" s="20"/>
+      <c r="HL6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="HM6" s="20"/>
+      <c r="HN6" s="20"/>
+      <c r="HO6" s="20"/>
+      <c r="HP6" s="20"/>
+      <c r="HQ6" s="20"/>
+      <c r="HR6" s="20"/>
+      <c r="HS6" s="20"/>
+      <c r="HT6" s="20"/>
+      <c r="HU6" s="20"/>
+      <c r="HV6" s="20"/>
+      <c r="HW6" s="20"/>
+      <c r="HX6" s="20"/>
+      <c r="HY6" s="20"/>
+      <c r="HZ6" s="20"/>
+      <c r="IA6" s="20"/>
+      <c r="IB6" s="20"/>
+      <c r="IC6" s="20"/>
+      <c r="ID6" s="20"/>
+      <c r="IE6" s="20"/>
+      <c r="IF6" s="20"/>
+      <c r="IG6" s="20"/>
+      <c r="IH6" s="20"/>
+      <c r="II6" s="20"/>
+      <c r="IJ6" s="20"/>
+      <c r="IK6" s="20"/>
+      <c r="IL6" s="20"/>
+      <c r="IM6" s="20"/>
+      <c r="IN6" s="20"/>
+      <c r="IO6" s="20"/>
+      <c r="IP6" s="20"/>
+      <c r="IQ6" s="20"/>
+      <c r="IR6" s="20"/>
+      <c r="IS6" s="20"/>
+      <c r="IT6" s="20"/>
+      <c r="IU6" s="20"/>
+      <c r="IV6" s="20"/>
+      <c r="IW6" s="20"/>
+      <c r="IX6" s="20"/>
+      <c r="IY6" s="20"/>
+      <c r="IZ6" s="20"/>
+      <c r="JA6" s="20"/>
+      <c r="JB6" s="20"/>
+      <c r="JC6" s="20"/>
+      <c r="JD6" s="20"/>
+      <c r="JE6" s="20"/>
+      <c r="JF6" s="20"/>
+      <c r="JG6" s="20"/>
+      <c r="JH6" s="20"/>
+      <c r="JI6" s="20"/>
+      <c r="JJ6" s="20"/>
+      <c r="JK6" s="20"/>
+      <c r="JL6" s="20"/>
+      <c r="JM6" s="20"/>
+      <c r="JN6" s="20"/>
+      <c r="JO6" s="20"/>
+      <c r="JP6" s="20"/>
+      <c r="JQ6" s="20"/>
+      <c r="JR6" s="20"/>
+      <c r="JS6" s="20"/>
+      <c r="JT6" s="20"/>
+      <c r="JU6" s="20"/>
+      <c r="JV6" s="20"/>
+      <c r="JW6" s="20"/>
+      <c r="JX6" s="20"/>
+      <c r="JY6" s="20"/>
+      <c r="JZ6" s="20"/>
+      <c r="KA6" s="20"/>
+      <c r="KB6" s="20"/>
+      <c r="KC6" s="20"/>
+      <c r="KD6" s="20"/>
+      <c r="KE6" s="20"/>
+      <c r="KF6" s="20"/>
+      <c r="KG6" s="20"/>
+      <c r="KH6" s="20"/>
+      <c r="KI6" s="20"/>
+      <c r="KJ6" s="20"/>
+      <c r="KK6" s="20"/>
+      <c r="KL6" s="20"/>
+      <c r="KM6" s="20"/>
+      <c r="KN6" s="20"/>
+      <c r="KO6" s="20"/>
+      <c r="KP6" s="20"/>
+      <c r="KQ6" s="20"/>
+      <c r="KR6" s="20"/>
+      <c r="KS6" s="20"/>
+      <c r="KT6" s="20"/>
+      <c r="KU6" s="20"/>
+      <c r="KV6" s="20"/>
+      <c r="KW6" s="20"/>
+      <c r="KX6" s="20"/>
+      <c r="KY6" s="20"/>
+      <c r="KZ6" s="20"/>
+      <c r="LA6" s="20"/>
+      <c r="LB6" s="20"/>
+      <c r="LC6" s="20"/>
+      <c r="LD6" s="20"/>
+      <c r="LE6" s="20"/>
+      <c r="LF6" s="20"/>
+      <c r="LG6" s="20"/>
+      <c r="LH6" s="20"/>
+      <c r="LI6" s="20"/>
+      <c r="LJ6" s="20"/>
+      <c r="LK6" s="20"/>
+      <c r="LL6" s="20"/>
+      <c r="LM6" s="20"/>
+      <c r="LN6" s="20"/>
+      <c r="LO6" s="20"/>
+      <c r="LP6" s="20"/>
+      <c r="LQ6" s="20"/>
+      <c r="LR6" s="20"/>
+      <c r="LS6" s="20"/>
+      <c r="LT6" s="20"/>
+      <c r="LU6" s="20"/>
+      <c r="LV6" s="20"/>
+      <c r="LW6" s="20"/>
+      <c r="LX6" s="20"/>
+      <c r="LY6" s="20"/>
+      <c r="LZ6" s="20"/>
+      <c r="MA6" s="20"/>
+      <c r="MB6" s="20"/>
+      <c r="MC6" s="20"/>
+      <c r="MD6" s="20"/>
+      <c r="ME6" s="20"/>
+      <c r="MF6" s="20"/>
+      <c r="MG6" s="20"/>
+      <c r="MH6" s="20"/>
+      <c r="MI6" s="20"/>
+      <c r="MJ6" s="20"/>
+      <c r="MK6" s="20"/>
+      <c r="ML6" s="20"/>
+      <c r="MM6" s="20"/>
+      <c r="MN6" s="20"/>
+      <c r="MO6" s="20"/>
+      <c r="MP6" s="20"/>
+      <c r="MQ6" s="20"/>
+      <c r="MR6" s="20"/>
+      <c r="MS6" s="20"/>
+      <c r="MT6" s="20"/>
+      <c r="MU6" s="20"/>
+      <c r="MV6" s="20"/>
+      <c r="MW6" s="20"/>
+      <c r="MX6" s="20"/>
+      <c r="MY6" s="20"/>
+      <c r="MZ6" s="20"/>
+      <c r="NA6" s="20"/>
+      <c r="NB6" s="20"/>
+      <c r="NC6" s="20"/>
+      <c r="ND6" s="20"/>
+      <c r="NE6" s="20"/>
+      <c r="NF6" s="20"/>
+      <c r="NG6" s="20"/>
+      <c r="NH6" s="20"/>
+      <c r="NI6" s="20"/>
+      <c r="NJ6" s="20"/>
+      <c r="NK6" s="20"/>
+      <c r="NL6" s="20"/>
+      <c r="NM6" s="20"/>
+      <c r="NN6" s="20"/>
+      <c r="NO6" s="20"/>
+      <c r="NP6" s="20"/>
+      <c r="NQ6" s="20"/>
+      <c r="NR6" s="20"/>
+      <c r="NS6" s="20"/>
+      <c r="NT6" s="20"/>
+      <c r="NU6" s="20"/>
+      <c r="NV6" s="20"/>
+      <c r="NW6" s="20"/>
+      <c r="NX6" s="20"/>
+      <c r="NY6" s="20"/>
+      <c r="NZ6" s="20"/>
       <c r="AMJ6" s="13"/>
     </row>
     <row r="7" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4611,7 +5809,179 @@
       <c r="HK7" s="24" t="n">
         <v>169547128</v>
       </c>
-      <c r="HL7" s="24"/>
+      <c r="HL7" s="24" t="n">
+        <v>169705521</v>
+      </c>
+      <c r="HM7" s="24"/>
+      <c r="HN7" s="24"/>
+      <c r="HO7" s="24"/>
+      <c r="HP7" s="24"/>
+      <c r="HQ7" s="24"/>
+      <c r="HR7" s="24"/>
+      <c r="HS7" s="24"/>
+      <c r="HT7" s="24"/>
+      <c r="HU7" s="24"/>
+      <c r="HV7" s="24"/>
+      <c r="HW7" s="24"/>
+      <c r="HX7" s="24"/>
+      <c r="HY7" s="24"/>
+      <c r="HZ7" s="24"/>
+      <c r="IA7" s="24"/>
+      <c r="IB7" s="24"/>
+      <c r="IC7" s="24"/>
+      <c r="ID7" s="24"/>
+      <c r="IE7" s="24"/>
+      <c r="IF7" s="24"/>
+      <c r="IG7" s="24"/>
+      <c r="IH7" s="24"/>
+      <c r="II7" s="24"/>
+      <c r="IJ7" s="24"/>
+      <c r="IK7" s="24"/>
+      <c r="IL7" s="24"/>
+      <c r="IM7" s="24"/>
+      <c r="IN7" s="24"/>
+      <c r="IO7" s="24"/>
+      <c r="IP7" s="24"/>
+      <c r="IQ7" s="24"/>
+      <c r="IR7" s="24"/>
+      <c r="IS7" s="24"/>
+      <c r="IT7" s="24"/>
+      <c r="IU7" s="24"/>
+      <c r="IV7" s="24"/>
+      <c r="IW7" s="24"/>
+      <c r="IX7" s="24"/>
+      <c r="IY7" s="24"/>
+      <c r="IZ7" s="24"/>
+      <c r="JA7" s="24"/>
+      <c r="JB7" s="24"/>
+      <c r="JC7" s="24"/>
+      <c r="JD7" s="24"/>
+      <c r="JE7" s="24"/>
+      <c r="JF7" s="24"/>
+      <c r="JG7" s="24"/>
+      <c r="JH7" s="24"/>
+      <c r="JI7" s="24"/>
+      <c r="JJ7" s="24"/>
+      <c r="JK7" s="24"/>
+      <c r="JL7" s="24"/>
+      <c r="JM7" s="24"/>
+      <c r="JN7" s="24"/>
+      <c r="JO7" s="24"/>
+      <c r="JP7" s="24"/>
+      <c r="JQ7" s="24"/>
+      <c r="JR7" s="24"/>
+      <c r="JS7" s="24"/>
+      <c r="JT7" s="24"/>
+      <c r="JU7" s="24"/>
+      <c r="JV7" s="24"/>
+      <c r="JW7" s="24"/>
+      <c r="JX7" s="24"/>
+      <c r="JY7" s="24"/>
+      <c r="JZ7" s="24"/>
+      <c r="KA7" s="24"/>
+      <c r="KB7" s="24"/>
+      <c r="KC7" s="24"/>
+      <c r="KD7" s="24"/>
+      <c r="KE7" s="24"/>
+      <c r="KF7" s="24"/>
+      <c r="KG7" s="24"/>
+      <c r="KH7" s="24"/>
+      <c r="KI7" s="24"/>
+      <c r="KJ7" s="24"/>
+      <c r="KK7" s="24"/>
+      <c r="KL7" s="24"/>
+      <c r="KM7" s="24"/>
+      <c r="KN7" s="24"/>
+      <c r="KO7" s="24"/>
+      <c r="KP7" s="24"/>
+      <c r="KQ7" s="24"/>
+      <c r="KR7" s="24"/>
+      <c r="KS7" s="24"/>
+      <c r="KT7" s="24"/>
+      <c r="KU7" s="24"/>
+      <c r="KV7" s="24"/>
+      <c r="KW7" s="24"/>
+      <c r="KX7" s="24"/>
+      <c r="KY7" s="24"/>
+      <c r="KZ7" s="24"/>
+      <c r="LA7" s="24"/>
+      <c r="LB7" s="24"/>
+      <c r="LC7" s="24"/>
+      <c r="LD7" s="24"/>
+      <c r="LE7" s="24"/>
+      <c r="LF7" s="24"/>
+      <c r="LG7" s="24"/>
+      <c r="LH7" s="24"/>
+      <c r="LI7" s="24"/>
+      <c r="LJ7" s="24"/>
+      <c r="LK7" s="24"/>
+      <c r="LL7" s="24"/>
+      <c r="LM7" s="24"/>
+      <c r="LN7" s="24"/>
+      <c r="LO7" s="24"/>
+      <c r="LP7" s="24"/>
+      <c r="LQ7" s="24"/>
+      <c r="LR7" s="24"/>
+      <c r="LS7" s="24"/>
+      <c r="LT7" s="24"/>
+      <c r="LU7" s="24"/>
+      <c r="LV7" s="24"/>
+      <c r="LW7" s="24"/>
+      <c r="LX7" s="24"/>
+      <c r="LY7" s="24"/>
+      <c r="LZ7" s="24"/>
+      <c r="MA7" s="24"/>
+      <c r="MB7" s="24"/>
+      <c r="MC7" s="24"/>
+      <c r="MD7" s="24"/>
+      <c r="ME7" s="24"/>
+      <c r="MF7" s="24"/>
+      <c r="MG7" s="24"/>
+      <c r="MH7" s="24"/>
+      <c r="MI7" s="24"/>
+      <c r="MJ7" s="24"/>
+      <c r="MK7" s="24"/>
+      <c r="ML7" s="24"/>
+      <c r="MM7" s="24"/>
+      <c r="MN7" s="24"/>
+      <c r="MO7" s="24"/>
+      <c r="MP7" s="24"/>
+      <c r="MQ7" s="24"/>
+      <c r="MR7" s="24"/>
+      <c r="MS7" s="24"/>
+      <c r="MT7" s="24"/>
+      <c r="MU7" s="24"/>
+      <c r="MV7" s="24"/>
+      <c r="MW7" s="24"/>
+      <c r="MX7" s="24"/>
+      <c r="MY7" s="24"/>
+      <c r="MZ7" s="24"/>
+      <c r="NA7" s="24"/>
+      <c r="NB7" s="24"/>
+      <c r="NC7" s="24"/>
+      <c r="ND7" s="24"/>
+      <c r="NE7" s="24"/>
+      <c r="NF7" s="24"/>
+      <c r="NG7" s="24"/>
+      <c r="NH7" s="24"/>
+      <c r="NI7" s="24"/>
+      <c r="NJ7" s="24"/>
+      <c r="NK7" s="24"/>
+      <c r="NL7" s="24"/>
+      <c r="NM7" s="24"/>
+      <c r="NN7" s="24"/>
+      <c r="NO7" s="24"/>
+      <c r="NP7" s="24"/>
+      <c r="NQ7" s="24"/>
+      <c r="NR7" s="24"/>
+      <c r="NS7" s="24"/>
+      <c r="NT7" s="24"/>
+      <c r="NU7" s="24"/>
+      <c r="NV7" s="24"/>
+      <c r="NW7" s="24"/>
+      <c r="NX7" s="24"/>
+      <c r="NY7" s="24"/>
+      <c r="NZ7" s="24"/>
       <c r="AMJ7" s="9"/>
     </row>
     <row r="8" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5268,7 +6638,179 @@
       <c r="HK8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HL8" s="27"/>
+      <c r="HL8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="HM8" s="27"/>
+      <c r="HN8" s="27"/>
+      <c r="HO8" s="27"/>
+      <c r="HP8" s="27"/>
+      <c r="HQ8" s="27"/>
+      <c r="HR8" s="27"/>
+      <c r="HS8" s="27"/>
+      <c r="HT8" s="27"/>
+      <c r="HU8" s="27"/>
+      <c r="HV8" s="27"/>
+      <c r="HW8" s="27"/>
+      <c r="HX8" s="27"/>
+      <c r="HY8" s="27"/>
+      <c r="HZ8" s="27"/>
+      <c r="IA8" s="27"/>
+      <c r="IB8" s="27"/>
+      <c r="IC8" s="27"/>
+      <c r="ID8" s="27"/>
+      <c r="IE8" s="27"/>
+      <c r="IF8" s="27"/>
+      <c r="IG8" s="27"/>
+      <c r="IH8" s="27"/>
+      <c r="II8" s="27"/>
+      <c r="IJ8" s="27"/>
+      <c r="IK8" s="27"/>
+      <c r="IL8" s="27"/>
+      <c r="IM8" s="27"/>
+      <c r="IN8" s="27"/>
+      <c r="IO8" s="27"/>
+      <c r="IP8" s="27"/>
+      <c r="IQ8" s="27"/>
+      <c r="IR8" s="27"/>
+      <c r="IS8" s="27"/>
+      <c r="IT8" s="27"/>
+      <c r="IU8" s="27"/>
+      <c r="IV8" s="27"/>
+      <c r="IW8" s="27"/>
+      <c r="IX8" s="27"/>
+      <c r="IY8" s="27"/>
+      <c r="IZ8" s="27"/>
+      <c r="JA8" s="27"/>
+      <c r="JB8" s="27"/>
+      <c r="JC8" s="27"/>
+      <c r="JD8" s="27"/>
+      <c r="JE8" s="27"/>
+      <c r="JF8" s="27"/>
+      <c r="JG8" s="27"/>
+      <c r="JH8" s="27"/>
+      <c r="JI8" s="27"/>
+      <c r="JJ8" s="27"/>
+      <c r="JK8" s="27"/>
+      <c r="JL8" s="27"/>
+      <c r="JM8" s="27"/>
+      <c r="JN8" s="27"/>
+      <c r="JO8" s="27"/>
+      <c r="JP8" s="27"/>
+      <c r="JQ8" s="27"/>
+      <c r="JR8" s="27"/>
+      <c r="JS8" s="27"/>
+      <c r="JT8" s="27"/>
+      <c r="JU8" s="27"/>
+      <c r="JV8" s="27"/>
+      <c r="JW8" s="27"/>
+      <c r="JX8" s="27"/>
+      <c r="JY8" s="27"/>
+      <c r="JZ8" s="27"/>
+      <c r="KA8" s="27"/>
+      <c r="KB8" s="27"/>
+      <c r="KC8" s="27"/>
+      <c r="KD8" s="27"/>
+      <c r="KE8" s="27"/>
+      <c r="KF8" s="27"/>
+      <c r="KG8" s="27"/>
+      <c r="KH8" s="27"/>
+      <c r="KI8" s="27"/>
+      <c r="KJ8" s="27"/>
+      <c r="KK8" s="27"/>
+      <c r="KL8" s="27"/>
+      <c r="KM8" s="27"/>
+      <c r="KN8" s="27"/>
+      <c r="KO8" s="27"/>
+      <c r="KP8" s="27"/>
+      <c r="KQ8" s="27"/>
+      <c r="KR8" s="27"/>
+      <c r="KS8" s="27"/>
+      <c r="KT8" s="27"/>
+      <c r="KU8" s="27"/>
+      <c r="KV8" s="27"/>
+      <c r="KW8" s="27"/>
+      <c r="KX8" s="27"/>
+      <c r="KY8" s="27"/>
+      <c r="KZ8" s="27"/>
+      <c r="LA8" s="27"/>
+      <c r="LB8" s="27"/>
+      <c r="LC8" s="27"/>
+      <c r="LD8" s="27"/>
+      <c r="LE8" s="27"/>
+      <c r="LF8" s="27"/>
+      <c r="LG8" s="27"/>
+      <c r="LH8" s="27"/>
+      <c r="LI8" s="27"/>
+      <c r="LJ8" s="27"/>
+      <c r="LK8" s="27"/>
+      <c r="LL8" s="27"/>
+      <c r="LM8" s="27"/>
+      <c r="LN8" s="27"/>
+      <c r="LO8" s="27"/>
+      <c r="LP8" s="27"/>
+      <c r="LQ8" s="27"/>
+      <c r="LR8" s="27"/>
+      <c r="LS8" s="27"/>
+      <c r="LT8" s="27"/>
+      <c r="LU8" s="27"/>
+      <c r="LV8" s="27"/>
+      <c r="LW8" s="27"/>
+      <c r="LX8" s="27"/>
+      <c r="LY8" s="27"/>
+      <c r="LZ8" s="27"/>
+      <c r="MA8" s="27"/>
+      <c r="MB8" s="27"/>
+      <c r="MC8" s="27"/>
+      <c r="MD8" s="27"/>
+      <c r="ME8" s="27"/>
+      <c r="MF8" s="27"/>
+      <c r="MG8" s="27"/>
+      <c r="MH8" s="27"/>
+      <c r="MI8" s="27"/>
+      <c r="MJ8" s="27"/>
+      <c r="MK8" s="27"/>
+      <c r="ML8" s="27"/>
+      <c r="MM8" s="27"/>
+      <c r="MN8" s="27"/>
+      <c r="MO8" s="27"/>
+      <c r="MP8" s="27"/>
+      <c r="MQ8" s="27"/>
+      <c r="MR8" s="27"/>
+      <c r="MS8" s="27"/>
+      <c r="MT8" s="27"/>
+      <c r="MU8" s="27"/>
+      <c r="MV8" s="27"/>
+      <c r="MW8" s="27"/>
+      <c r="MX8" s="27"/>
+      <c r="MY8" s="27"/>
+      <c r="MZ8" s="27"/>
+      <c r="NA8" s="27"/>
+      <c r="NB8" s="27"/>
+      <c r="NC8" s="27"/>
+      <c r="ND8" s="27"/>
+      <c r="NE8" s="27"/>
+      <c r="NF8" s="27"/>
+      <c r="NG8" s="27"/>
+      <c r="NH8" s="27"/>
+      <c r="NI8" s="27"/>
+      <c r="NJ8" s="27"/>
+      <c r="NK8" s="27"/>
+      <c r="NL8" s="27"/>
+      <c r="NM8" s="27"/>
+      <c r="NN8" s="27"/>
+      <c r="NO8" s="27"/>
+      <c r="NP8" s="27"/>
+      <c r="NQ8" s="27"/>
+      <c r="NR8" s="27"/>
+      <c r="NS8" s="27"/>
+      <c r="NT8" s="27"/>
+      <c r="NU8" s="27"/>
+      <c r="NV8" s="27"/>
+      <c r="NW8" s="27"/>
+      <c r="NX8" s="27"/>
+      <c r="NY8" s="27"/>
+      <c r="NZ8" s="27"/>
       <c r="AMJ8" s="13"/>
     </row>
     <row r="9" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5927,7 +7469,179 @@
       <c r="HK9" s="31" t="n">
         <v>158612124</v>
       </c>
-      <c r="HL9" s="31"/>
+      <c r="HL9" s="31" t="n">
+        <v>158755150</v>
+      </c>
+      <c r="HM9" s="31"/>
+      <c r="HN9" s="31"/>
+      <c r="HO9" s="31"/>
+      <c r="HP9" s="31"/>
+      <c r="HQ9" s="31"/>
+      <c r="HR9" s="31"/>
+      <c r="HS9" s="31"/>
+      <c r="HT9" s="31"/>
+      <c r="HU9" s="31"/>
+      <c r="HV9" s="31"/>
+      <c r="HW9" s="31"/>
+      <c r="HX9" s="31"/>
+      <c r="HY9" s="31"/>
+      <c r="HZ9" s="31"/>
+      <c r="IA9" s="31"/>
+      <c r="IB9" s="31"/>
+      <c r="IC9" s="31"/>
+      <c r="ID9" s="31"/>
+      <c r="IE9" s="31"/>
+      <c r="IF9" s="31"/>
+      <c r="IG9" s="31"/>
+      <c r="IH9" s="31"/>
+      <c r="II9" s="31"/>
+      <c r="IJ9" s="31"/>
+      <c r="IK9" s="31"/>
+      <c r="IL9" s="31"/>
+      <c r="IM9" s="31"/>
+      <c r="IN9" s="31"/>
+      <c r="IO9" s="31"/>
+      <c r="IP9" s="31"/>
+      <c r="IQ9" s="31"/>
+      <c r="IR9" s="31"/>
+      <c r="IS9" s="31"/>
+      <c r="IT9" s="31"/>
+      <c r="IU9" s="31"/>
+      <c r="IV9" s="31"/>
+      <c r="IW9" s="31"/>
+      <c r="IX9" s="31"/>
+      <c r="IY9" s="31"/>
+      <c r="IZ9" s="31"/>
+      <c r="JA9" s="31"/>
+      <c r="JB9" s="31"/>
+      <c r="JC9" s="31"/>
+      <c r="JD9" s="31"/>
+      <c r="JE9" s="31"/>
+      <c r="JF9" s="31"/>
+      <c r="JG9" s="31"/>
+      <c r="JH9" s="31"/>
+      <c r="JI9" s="31"/>
+      <c r="JJ9" s="31"/>
+      <c r="JK9" s="31"/>
+      <c r="JL9" s="31"/>
+      <c r="JM9" s="31"/>
+      <c r="JN9" s="31"/>
+      <c r="JO9" s="31"/>
+      <c r="JP9" s="31"/>
+      <c r="JQ9" s="31"/>
+      <c r="JR9" s="31"/>
+      <c r="JS9" s="31"/>
+      <c r="JT9" s="31"/>
+      <c r="JU9" s="31"/>
+      <c r="JV9" s="31"/>
+      <c r="JW9" s="31"/>
+      <c r="JX9" s="31"/>
+      <c r="JY9" s="31"/>
+      <c r="JZ9" s="31"/>
+      <c r="KA9" s="31"/>
+      <c r="KB9" s="31"/>
+      <c r="KC9" s="31"/>
+      <c r="KD9" s="31"/>
+      <c r="KE9" s="31"/>
+      <c r="KF9" s="31"/>
+      <c r="KG9" s="31"/>
+      <c r="KH9" s="31"/>
+      <c r="KI9" s="31"/>
+      <c r="KJ9" s="31"/>
+      <c r="KK9" s="31"/>
+      <c r="KL9" s="31"/>
+      <c r="KM9" s="31"/>
+      <c r="KN9" s="31"/>
+      <c r="KO9" s="31"/>
+      <c r="KP9" s="31"/>
+      <c r="KQ9" s="31"/>
+      <c r="KR9" s="31"/>
+      <c r="KS9" s="31"/>
+      <c r="KT9" s="31"/>
+      <c r="KU9" s="31"/>
+      <c r="KV9" s="31"/>
+      <c r="KW9" s="31"/>
+      <c r="KX9" s="31"/>
+      <c r="KY9" s="31"/>
+      <c r="KZ9" s="31"/>
+      <c r="LA9" s="31"/>
+      <c r="LB9" s="31"/>
+      <c r="LC9" s="31"/>
+      <c r="LD9" s="31"/>
+      <c r="LE9" s="31"/>
+      <c r="LF9" s="31"/>
+      <c r="LG9" s="31"/>
+      <c r="LH9" s="31"/>
+      <c r="LI9" s="31"/>
+      <c r="LJ9" s="31"/>
+      <c r="LK9" s="31"/>
+      <c r="LL9" s="31"/>
+      <c r="LM9" s="31"/>
+      <c r="LN9" s="31"/>
+      <c r="LO9" s="31"/>
+      <c r="LP9" s="31"/>
+      <c r="LQ9" s="31"/>
+      <c r="LR9" s="31"/>
+      <c r="LS9" s="31"/>
+      <c r="LT9" s="31"/>
+      <c r="LU9" s="31"/>
+      <c r="LV9" s="31"/>
+      <c r="LW9" s="31"/>
+      <c r="LX9" s="31"/>
+      <c r="LY9" s="31"/>
+      <c r="LZ9" s="31"/>
+      <c r="MA9" s="31"/>
+      <c r="MB9" s="31"/>
+      <c r="MC9" s="31"/>
+      <c r="MD9" s="31"/>
+      <c r="ME9" s="31"/>
+      <c r="MF9" s="31"/>
+      <c r="MG9" s="31"/>
+      <c r="MH9" s="31"/>
+      <c r="MI9" s="31"/>
+      <c r="MJ9" s="31"/>
+      <c r="MK9" s="31"/>
+      <c r="ML9" s="31"/>
+      <c r="MM9" s="31"/>
+      <c r="MN9" s="31"/>
+      <c r="MO9" s="31"/>
+      <c r="MP9" s="31"/>
+      <c r="MQ9" s="31"/>
+      <c r="MR9" s="31"/>
+      <c r="MS9" s="31"/>
+      <c r="MT9" s="31"/>
+      <c r="MU9" s="31"/>
+      <c r="MV9" s="31"/>
+      <c r="MW9" s="31"/>
+      <c r="MX9" s="31"/>
+      <c r="MY9" s="31"/>
+      <c r="MZ9" s="31"/>
+      <c r="NA9" s="31"/>
+      <c r="NB9" s="31"/>
+      <c r="NC9" s="31"/>
+      <c r="ND9" s="31"/>
+      <c r="NE9" s="31"/>
+      <c r="NF9" s="31"/>
+      <c r="NG9" s="31"/>
+      <c r="NH9" s="31"/>
+      <c r="NI9" s="31"/>
+      <c r="NJ9" s="31"/>
+      <c r="NK9" s="31"/>
+      <c r="NL9" s="31"/>
+      <c r="NM9" s="31"/>
+      <c r="NN9" s="31"/>
+      <c r="NO9" s="31"/>
+      <c r="NP9" s="31"/>
+      <c r="NQ9" s="31"/>
+      <c r="NR9" s="31"/>
+      <c r="NS9" s="31"/>
+      <c r="NT9" s="31"/>
+      <c r="NU9" s="31"/>
+      <c r="NV9" s="31"/>
+      <c r="NW9" s="31"/>
+      <c r="NX9" s="31"/>
+      <c r="NY9" s="31"/>
+      <c r="NZ9" s="31"/>
       <c r="AMJ9" s="9"/>
     </row>
     <row r="10" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6584,7 +8298,179 @@
       <c r="HK10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="HL10" s="34"/>
+      <c r="HL10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="HM10" s="34"/>
+      <c r="HN10" s="34"/>
+      <c r="HO10" s="34"/>
+      <c r="HP10" s="34"/>
+      <c r="HQ10" s="34"/>
+      <c r="HR10" s="34"/>
+      <c r="HS10" s="34"/>
+      <c r="HT10" s="34"/>
+      <c r="HU10" s="34"/>
+      <c r="HV10" s="34"/>
+      <c r="HW10" s="34"/>
+      <c r="HX10" s="34"/>
+      <c r="HY10" s="34"/>
+      <c r="HZ10" s="34"/>
+      <c r="IA10" s="34"/>
+      <c r="IB10" s="34"/>
+      <c r="IC10" s="34"/>
+      <c r="ID10" s="34"/>
+      <c r="IE10" s="34"/>
+      <c r="IF10" s="34"/>
+      <c r="IG10" s="34"/>
+      <c r="IH10" s="34"/>
+      <c r="II10" s="34"/>
+      <c r="IJ10" s="34"/>
+      <c r="IK10" s="34"/>
+      <c r="IL10" s="34"/>
+      <c r="IM10" s="34"/>
+      <c r="IN10" s="34"/>
+      <c r="IO10" s="34"/>
+      <c r="IP10" s="34"/>
+      <c r="IQ10" s="34"/>
+      <c r="IR10" s="34"/>
+      <c r="IS10" s="34"/>
+      <c r="IT10" s="34"/>
+      <c r="IU10" s="34"/>
+      <c r="IV10" s="34"/>
+      <c r="IW10" s="34"/>
+      <c r="IX10" s="34"/>
+      <c r="IY10" s="34"/>
+      <c r="IZ10" s="34"/>
+      <c r="JA10" s="34"/>
+      <c r="JB10" s="34"/>
+      <c r="JC10" s="34"/>
+      <c r="JD10" s="34"/>
+      <c r="JE10" s="34"/>
+      <c r="JF10" s="34"/>
+      <c r="JG10" s="34"/>
+      <c r="JH10" s="34"/>
+      <c r="JI10" s="34"/>
+      <c r="JJ10" s="34"/>
+      <c r="JK10" s="34"/>
+      <c r="JL10" s="34"/>
+      <c r="JM10" s="34"/>
+      <c r="JN10" s="34"/>
+      <c r="JO10" s="34"/>
+      <c r="JP10" s="34"/>
+      <c r="JQ10" s="34"/>
+      <c r="JR10" s="34"/>
+      <c r="JS10" s="34"/>
+      <c r="JT10" s="34"/>
+      <c r="JU10" s="34"/>
+      <c r="JV10" s="34"/>
+      <c r="JW10" s="34"/>
+      <c r="JX10" s="34"/>
+      <c r="JY10" s="34"/>
+      <c r="JZ10" s="34"/>
+      <c r="KA10" s="34"/>
+      <c r="KB10" s="34"/>
+      <c r="KC10" s="34"/>
+      <c r="KD10" s="34"/>
+      <c r="KE10" s="34"/>
+      <c r="KF10" s="34"/>
+      <c r="KG10" s="34"/>
+      <c r="KH10" s="34"/>
+      <c r="KI10" s="34"/>
+      <c r="KJ10" s="34"/>
+      <c r="KK10" s="34"/>
+      <c r="KL10" s="34"/>
+      <c r="KM10" s="34"/>
+      <c r="KN10" s="34"/>
+      <c r="KO10" s="34"/>
+      <c r="KP10" s="34"/>
+      <c r="KQ10" s="34"/>
+      <c r="KR10" s="34"/>
+      <c r="KS10" s="34"/>
+      <c r="KT10" s="34"/>
+      <c r="KU10" s="34"/>
+      <c r="KV10" s="34"/>
+      <c r="KW10" s="34"/>
+      <c r="KX10" s="34"/>
+      <c r="KY10" s="34"/>
+      <c r="KZ10" s="34"/>
+      <c r="LA10" s="34"/>
+      <c r="LB10" s="34"/>
+      <c r="LC10" s="34"/>
+      <c r="LD10" s="34"/>
+      <c r="LE10" s="34"/>
+      <c r="LF10" s="34"/>
+      <c r="LG10" s="34"/>
+      <c r="LH10" s="34"/>
+      <c r="LI10" s="34"/>
+      <c r="LJ10" s="34"/>
+      <c r="LK10" s="34"/>
+      <c r="LL10" s="34"/>
+      <c r="LM10" s="34"/>
+      <c r="LN10" s="34"/>
+      <c r="LO10" s="34"/>
+      <c r="LP10" s="34"/>
+      <c r="LQ10" s="34"/>
+      <c r="LR10" s="34"/>
+      <c r="LS10" s="34"/>
+      <c r="LT10" s="34"/>
+      <c r="LU10" s="34"/>
+      <c r="LV10" s="34"/>
+      <c r="LW10" s="34"/>
+      <c r="LX10" s="34"/>
+      <c r="LY10" s="34"/>
+      <c r="LZ10" s="34"/>
+      <c r="MA10" s="34"/>
+      <c r="MB10" s="34"/>
+      <c r="MC10" s="34"/>
+      <c r="MD10" s="34"/>
+      <c r="ME10" s="34"/>
+      <c r="MF10" s="34"/>
+      <c r="MG10" s="34"/>
+      <c r="MH10" s="34"/>
+      <c r="MI10" s="34"/>
+      <c r="MJ10" s="34"/>
+      <c r="MK10" s="34"/>
+      <c r="ML10" s="34"/>
+      <c r="MM10" s="34"/>
+      <c r="MN10" s="34"/>
+      <c r="MO10" s="34"/>
+      <c r="MP10" s="34"/>
+      <c r="MQ10" s="34"/>
+      <c r="MR10" s="34"/>
+      <c r="MS10" s="34"/>
+      <c r="MT10" s="34"/>
+      <c r="MU10" s="34"/>
+      <c r="MV10" s="34"/>
+      <c r="MW10" s="34"/>
+      <c r="MX10" s="34"/>
+      <c r="MY10" s="34"/>
+      <c r="MZ10" s="34"/>
+      <c r="NA10" s="34"/>
+      <c r="NB10" s="34"/>
+      <c r="NC10" s="34"/>
+      <c r="ND10" s="34"/>
+      <c r="NE10" s="34"/>
+      <c r="NF10" s="34"/>
+      <c r="NG10" s="34"/>
+      <c r="NH10" s="34"/>
+      <c r="NI10" s="34"/>
+      <c r="NJ10" s="34"/>
+      <c r="NK10" s="34"/>
+      <c r="NL10" s="34"/>
+      <c r="NM10" s="34"/>
+      <c r="NN10" s="34"/>
+      <c r="NO10" s="34"/>
+      <c r="NP10" s="34"/>
+      <c r="NQ10" s="34"/>
+      <c r="NR10" s="34"/>
+      <c r="NS10" s="34"/>
+      <c r="NT10" s="34"/>
+      <c r="NU10" s="34"/>
+      <c r="NV10" s="34"/>
+      <c r="NW10" s="34"/>
+      <c r="NX10" s="34"/>
+      <c r="NY10" s="34"/>
+      <c r="NZ10" s="34"/>
       <c r="AMJ10" s="13"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7243,7 +9129,179 @@
       <c r="HK11" s="38" t="n">
         <v>134641458</v>
       </c>
-      <c r="HL11" s="38"/>
+      <c r="HL11" s="38" t="n">
+        <v>134707056</v>
+      </c>
+      <c r="HM11" s="38"/>
+      <c r="HN11" s="38"/>
+      <c r="HO11" s="38"/>
+      <c r="HP11" s="38"/>
+      <c r="HQ11" s="38"/>
+      <c r="HR11" s="38"/>
+      <c r="HS11" s="38"/>
+      <c r="HT11" s="38"/>
+      <c r="HU11" s="38"/>
+      <c r="HV11" s="38"/>
+      <c r="HW11" s="38"/>
+      <c r="HX11" s="38"/>
+      <c r="HY11" s="38"/>
+      <c r="HZ11" s="38"/>
+      <c r="IA11" s="38"/>
+      <c r="IB11" s="38"/>
+      <c r="IC11" s="38"/>
+      <c r="ID11" s="38"/>
+      <c r="IE11" s="38"/>
+      <c r="IF11" s="38"/>
+      <c r="IG11" s="38"/>
+      <c r="IH11" s="38"/>
+      <c r="II11" s="38"/>
+      <c r="IJ11" s="38"/>
+      <c r="IK11" s="38"/>
+      <c r="IL11" s="38"/>
+      <c r="IM11" s="38"/>
+      <c r="IN11" s="38"/>
+      <c r="IO11" s="38"/>
+      <c r="IP11" s="38"/>
+      <c r="IQ11" s="38"/>
+      <c r="IR11" s="38"/>
+      <c r="IS11" s="38"/>
+      <c r="IT11" s="38"/>
+      <c r="IU11" s="38"/>
+      <c r="IV11" s="38"/>
+      <c r="IW11" s="38"/>
+      <c r="IX11" s="38"/>
+      <c r="IY11" s="38"/>
+      <c r="IZ11" s="38"/>
+      <c r="JA11" s="38"/>
+      <c r="JB11" s="38"/>
+      <c r="JC11" s="38"/>
+      <c r="JD11" s="38"/>
+      <c r="JE11" s="38"/>
+      <c r="JF11" s="38"/>
+      <c r="JG11" s="38"/>
+      <c r="JH11" s="38"/>
+      <c r="JI11" s="38"/>
+      <c r="JJ11" s="38"/>
+      <c r="JK11" s="38"/>
+      <c r="JL11" s="38"/>
+      <c r="JM11" s="38"/>
+      <c r="JN11" s="38"/>
+      <c r="JO11" s="38"/>
+      <c r="JP11" s="38"/>
+      <c r="JQ11" s="38"/>
+      <c r="JR11" s="38"/>
+      <c r="JS11" s="38"/>
+      <c r="JT11" s="38"/>
+      <c r="JU11" s="38"/>
+      <c r="JV11" s="38"/>
+      <c r="JW11" s="38"/>
+      <c r="JX11" s="38"/>
+      <c r="JY11" s="38"/>
+      <c r="JZ11" s="38"/>
+      <c r="KA11" s="38"/>
+      <c r="KB11" s="38"/>
+      <c r="KC11" s="38"/>
+      <c r="KD11" s="38"/>
+      <c r="KE11" s="38"/>
+      <c r="KF11" s="38"/>
+      <c r="KG11" s="38"/>
+      <c r="KH11" s="38"/>
+      <c r="KI11" s="38"/>
+      <c r="KJ11" s="38"/>
+      <c r="KK11" s="38"/>
+      <c r="KL11" s="38"/>
+      <c r="KM11" s="38"/>
+      <c r="KN11" s="38"/>
+      <c r="KO11" s="38"/>
+      <c r="KP11" s="38"/>
+      <c r="KQ11" s="38"/>
+      <c r="KR11" s="38"/>
+      <c r="KS11" s="38"/>
+      <c r="KT11" s="38"/>
+      <c r="KU11" s="38"/>
+      <c r="KV11" s="38"/>
+      <c r="KW11" s="38"/>
+      <c r="KX11" s="38"/>
+      <c r="KY11" s="38"/>
+      <c r="KZ11" s="38"/>
+      <c r="LA11" s="38"/>
+      <c r="LB11" s="38"/>
+      <c r="LC11" s="38"/>
+      <c r="LD11" s="38"/>
+      <c r="LE11" s="38"/>
+      <c r="LF11" s="38"/>
+      <c r="LG11" s="38"/>
+      <c r="LH11" s="38"/>
+      <c r="LI11" s="38"/>
+      <c r="LJ11" s="38"/>
+      <c r="LK11" s="38"/>
+      <c r="LL11" s="38"/>
+      <c r="LM11" s="38"/>
+      <c r="LN11" s="38"/>
+      <c r="LO11" s="38"/>
+      <c r="LP11" s="38"/>
+      <c r="LQ11" s="38"/>
+      <c r="LR11" s="38"/>
+      <c r="LS11" s="38"/>
+      <c r="LT11" s="38"/>
+      <c r="LU11" s="38"/>
+      <c r="LV11" s="38"/>
+      <c r="LW11" s="38"/>
+      <c r="LX11" s="38"/>
+      <c r="LY11" s="38"/>
+      <c r="LZ11" s="38"/>
+      <c r="MA11" s="38"/>
+      <c r="MB11" s="38"/>
+      <c r="MC11" s="38"/>
+      <c r="MD11" s="38"/>
+      <c r="ME11" s="38"/>
+      <c r="MF11" s="38"/>
+      <c r="MG11" s="38"/>
+      <c r="MH11" s="38"/>
+      <c r="MI11" s="38"/>
+      <c r="MJ11" s="38"/>
+      <c r="MK11" s="38"/>
+      <c r="ML11" s="38"/>
+      <c r="MM11" s="38"/>
+      <c r="MN11" s="38"/>
+      <c r="MO11" s="38"/>
+      <c r="MP11" s="38"/>
+      <c r="MQ11" s="38"/>
+      <c r="MR11" s="38"/>
+      <c r="MS11" s="38"/>
+      <c r="MT11" s="38"/>
+      <c r="MU11" s="38"/>
+      <c r="MV11" s="38"/>
+      <c r="MW11" s="38"/>
+      <c r="MX11" s="38"/>
+      <c r="MY11" s="38"/>
+      <c r="MZ11" s="38"/>
+      <c r="NA11" s="38"/>
+      <c r="NB11" s="38"/>
+      <c r="NC11" s="38"/>
+      <c r="ND11" s="38"/>
+      <c r="NE11" s="38"/>
+      <c r="NF11" s="38"/>
+      <c r="NG11" s="38"/>
+      <c r="NH11" s="38"/>
+      <c r="NI11" s="38"/>
+      <c r="NJ11" s="38"/>
+      <c r="NK11" s="38"/>
+      <c r="NL11" s="38"/>
+      <c r="NM11" s="38"/>
+      <c r="NN11" s="38"/>
+      <c r="NO11" s="38"/>
+      <c r="NP11" s="38"/>
+      <c r="NQ11" s="38"/>
+      <c r="NR11" s="38"/>
+      <c r="NS11" s="38"/>
+      <c r="NT11" s="38"/>
+      <c r="NU11" s="38"/>
+      <c r="NV11" s="38"/>
+      <c r="NW11" s="38"/>
+      <c r="NX11" s="38"/>
+      <c r="NY11" s="38"/>
+      <c r="NZ11" s="38"/>
       <c r="AMJ11" s="9"/>
     </row>
     <row r="12" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7900,7 +9958,179 @@
       <c r="HK12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HL12" s="41"/>
+      <c r="HL12" s="41" t="n">
+        <v>195</v>
+      </c>
+      <c r="HM12" s="41"/>
+      <c r="HN12" s="41"/>
+      <c r="HO12" s="41"/>
+      <c r="HP12" s="41"/>
+      <c r="HQ12" s="41"/>
+      <c r="HR12" s="41"/>
+      <c r="HS12" s="41"/>
+      <c r="HT12" s="41"/>
+      <c r="HU12" s="41"/>
+      <c r="HV12" s="41"/>
+      <c r="HW12" s="41"/>
+      <c r="HX12" s="41"/>
+      <c r="HY12" s="41"/>
+      <c r="HZ12" s="41"/>
+      <c r="IA12" s="41"/>
+      <c r="IB12" s="41"/>
+      <c r="IC12" s="41"/>
+      <c r="ID12" s="41"/>
+      <c r="IE12" s="41"/>
+      <c r="IF12" s="41"/>
+      <c r="IG12" s="41"/>
+      <c r="IH12" s="41"/>
+      <c r="II12" s="41"/>
+      <c r="IJ12" s="41"/>
+      <c r="IK12" s="41"/>
+      <c r="IL12" s="41"/>
+      <c r="IM12" s="41"/>
+      <c r="IN12" s="41"/>
+      <c r="IO12" s="41"/>
+      <c r="IP12" s="41"/>
+      <c r="IQ12" s="41"/>
+      <c r="IR12" s="41"/>
+      <c r="IS12" s="41"/>
+      <c r="IT12" s="41"/>
+      <c r="IU12" s="41"/>
+      <c r="IV12" s="41"/>
+      <c r="IW12" s="41"/>
+      <c r="IX12" s="41"/>
+      <c r="IY12" s="41"/>
+      <c r="IZ12" s="41"/>
+      <c r="JA12" s="41"/>
+      <c r="JB12" s="41"/>
+      <c r="JC12" s="41"/>
+      <c r="JD12" s="41"/>
+      <c r="JE12" s="41"/>
+      <c r="JF12" s="41"/>
+      <c r="JG12" s="41"/>
+      <c r="JH12" s="41"/>
+      <c r="JI12" s="41"/>
+      <c r="JJ12" s="41"/>
+      <c r="JK12" s="41"/>
+      <c r="JL12" s="41"/>
+      <c r="JM12" s="41"/>
+      <c r="JN12" s="41"/>
+      <c r="JO12" s="41"/>
+      <c r="JP12" s="41"/>
+      <c r="JQ12" s="41"/>
+      <c r="JR12" s="41"/>
+      <c r="JS12" s="41"/>
+      <c r="JT12" s="41"/>
+      <c r="JU12" s="41"/>
+      <c r="JV12" s="41"/>
+      <c r="JW12" s="41"/>
+      <c r="JX12" s="41"/>
+      <c r="JY12" s="41"/>
+      <c r="JZ12" s="41"/>
+      <c r="KA12" s="41"/>
+      <c r="KB12" s="41"/>
+      <c r="KC12" s="41"/>
+      <c r="KD12" s="41"/>
+      <c r="KE12" s="41"/>
+      <c r="KF12" s="41"/>
+      <c r="KG12" s="41"/>
+      <c r="KH12" s="41"/>
+      <c r="KI12" s="41"/>
+      <c r="KJ12" s="41"/>
+      <c r="KK12" s="41"/>
+      <c r="KL12" s="41"/>
+      <c r="KM12" s="41"/>
+      <c r="KN12" s="41"/>
+      <c r="KO12" s="41"/>
+      <c r="KP12" s="41"/>
+      <c r="KQ12" s="41"/>
+      <c r="KR12" s="41"/>
+      <c r="KS12" s="41"/>
+      <c r="KT12" s="41"/>
+      <c r="KU12" s="41"/>
+      <c r="KV12" s="41"/>
+      <c r="KW12" s="41"/>
+      <c r="KX12" s="41"/>
+      <c r="KY12" s="41"/>
+      <c r="KZ12" s="41"/>
+      <c r="LA12" s="41"/>
+      <c r="LB12" s="41"/>
+      <c r="LC12" s="41"/>
+      <c r="LD12" s="41"/>
+      <c r="LE12" s="41"/>
+      <c r="LF12" s="41"/>
+      <c r="LG12" s="41"/>
+      <c r="LH12" s="41"/>
+      <c r="LI12" s="41"/>
+      <c r="LJ12" s="41"/>
+      <c r="LK12" s="41"/>
+      <c r="LL12" s="41"/>
+      <c r="LM12" s="41"/>
+      <c r="LN12" s="41"/>
+      <c r="LO12" s="41"/>
+      <c r="LP12" s="41"/>
+      <c r="LQ12" s="41"/>
+      <c r="LR12" s="41"/>
+      <c r="LS12" s="41"/>
+      <c r="LT12" s="41"/>
+      <c r="LU12" s="41"/>
+      <c r="LV12" s="41"/>
+      <c r="LW12" s="41"/>
+      <c r="LX12" s="41"/>
+      <c r="LY12" s="41"/>
+      <c r="LZ12" s="41"/>
+      <c r="MA12" s="41"/>
+      <c r="MB12" s="41"/>
+      <c r="MC12" s="41"/>
+      <c r="MD12" s="41"/>
+      <c r="ME12" s="41"/>
+      <c r="MF12" s="41"/>
+      <c r="MG12" s="41"/>
+      <c r="MH12" s="41"/>
+      <c r="MI12" s="41"/>
+      <c r="MJ12" s="41"/>
+      <c r="MK12" s="41"/>
+      <c r="ML12" s="41"/>
+      <c r="MM12" s="41"/>
+      <c r="MN12" s="41"/>
+      <c r="MO12" s="41"/>
+      <c r="MP12" s="41"/>
+      <c r="MQ12" s="41"/>
+      <c r="MR12" s="41"/>
+      <c r="MS12" s="41"/>
+      <c r="MT12" s="41"/>
+      <c r="MU12" s="41"/>
+      <c r="MV12" s="41"/>
+      <c r="MW12" s="41"/>
+      <c r="MX12" s="41"/>
+      <c r="MY12" s="41"/>
+      <c r="MZ12" s="41"/>
+      <c r="NA12" s="41"/>
+      <c r="NB12" s="41"/>
+      <c r="NC12" s="41"/>
+      <c r="ND12" s="41"/>
+      <c r="NE12" s="41"/>
+      <c r="NF12" s="41"/>
+      <c r="NG12" s="41"/>
+      <c r="NH12" s="41"/>
+      <c r="NI12" s="41"/>
+      <c r="NJ12" s="41"/>
+      <c r="NK12" s="41"/>
+      <c r="NL12" s="41"/>
+      <c r="NM12" s="41"/>
+      <c r="NN12" s="41"/>
+      <c r="NO12" s="41"/>
+      <c r="NP12" s="41"/>
+      <c r="NQ12" s="41"/>
+      <c r="NR12" s="41"/>
+      <c r="NS12" s="41"/>
+      <c r="NT12" s="41"/>
+      <c r="NU12" s="41"/>
+      <c r="NV12" s="41"/>
+      <c r="NW12" s="41"/>
+      <c r="NX12" s="41"/>
+      <c r="NY12" s="41"/>
+      <c r="NZ12" s="41"/>
       <c r="AMJ12" s="13"/>
     </row>
     <row r="13" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8559,7 +10789,179 @@
       <c r="HK13" s="45" t="n">
         <v>137135830</v>
       </c>
-      <c r="HL13" s="45"/>
+      <c r="HL13" s="45" t="n">
+        <v>137339486</v>
+      </c>
+      <c r="HM13" s="45"/>
+      <c r="HN13" s="45"/>
+      <c r="HO13" s="45"/>
+      <c r="HP13" s="45"/>
+      <c r="HQ13" s="45"/>
+      <c r="HR13" s="45"/>
+      <c r="HS13" s="45"/>
+      <c r="HT13" s="45"/>
+      <c r="HU13" s="45"/>
+      <c r="HV13" s="45"/>
+      <c r="HW13" s="45"/>
+      <c r="HX13" s="45"/>
+      <c r="HY13" s="45"/>
+      <c r="HZ13" s="45"/>
+      <c r="IA13" s="45"/>
+      <c r="IB13" s="45"/>
+      <c r="IC13" s="45"/>
+      <c r="ID13" s="45"/>
+      <c r="IE13" s="45"/>
+      <c r="IF13" s="45"/>
+      <c r="IG13" s="45"/>
+      <c r="IH13" s="45"/>
+      <c r="II13" s="45"/>
+      <c r="IJ13" s="45"/>
+      <c r="IK13" s="45"/>
+      <c r="IL13" s="45"/>
+      <c r="IM13" s="45"/>
+      <c r="IN13" s="45"/>
+      <c r="IO13" s="45"/>
+      <c r="IP13" s="45"/>
+      <c r="IQ13" s="45"/>
+      <c r="IR13" s="45"/>
+      <c r="IS13" s="45"/>
+      <c r="IT13" s="45"/>
+      <c r="IU13" s="45"/>
+      <c r="IV13" s="45"/>
+      <c r="IW13" s="45"/>
+      <c r="IX13" s="45"/>
+      <c r="IY13" s="45"/>
+      <c r="IZ13" s="45"/>
+      <c r="JA13" s="45"/>
+      <c r="JB13" s="45"/>
+      <c r="JC13" s="45"/>
+      <c r="JD13" s="45"/>
+      <c r="JE13" s="45"/>
+      <c r="JF13" s="45"/>
+      <c r="JG13" s="45"/>
+      <c r="JH13" s="45"/>
+      <c r="JI13" s="45"/>
+      <c r="JJ13" s="45"/>
+      <c r="JK13" s="45"/>
+      <c r="JL13" s="45"/>
+      <c r="JM13" s="45"/>
+      <c r="JN13" s="45"/>
+      <c r="JO13" s="45"/>
+      <c r="JP13" s="45"/>
+      <c r="JQ13" s="45"/>
+      <c r="JR13" s="45"/>
+      <c r="JS13" s="45"/>
+      <c r="JT13" s="45"/>
+      <c r="JU13" s="45"/>
+      <c r="JV13" s="45"/>
+      <c r="JW13" s="45"/>
+      <c r="JX13" s="45"/>
+      <c r="JY13" s="45"/>
+      <c r="JZ13" s="45"/>
+      <c r="KA13" s="45"/>
+      <c r="KB13" s="45"/>
+      <c r="KC13" s="45"/>
+      <c r="KD13" s="45"/>
+      <c r="KE13" s="45"/>
+      <c r="KF13" s="45"/>
+      <c r="KG13" s="45"/>
+      <c r="KH13" s="45"/>
+      <c r="KI13" s="45"/>
+      <c r="KJ13" s="45"/>
+      <c r="KK13" s="45"/>
+      <c r="KL13" s="45"/>
+      <c r="KM13" s="45"/>
+      <c r="KN13" s="45"/>
+      <c r="KO13" s="45"/>
+      <c r="KP13" s="45"/>
+      <c r="KQ13" s="45"/>
+      <c r="KR13" s="45"/>
+      <c r="KS13" s="45"/>
+      <c r="KT13" s="45"/>
+      <c r="KU13" s="45"/>
+      <c r="KV13" s="45"/>
+      <c r="KW13" s="45"/>
+      <c r="KX13" s="45"/>
+      <c r="KY13" s="45"/>
+      <c r="KZ13" s="45"/>
+      <c r="LA13" s="45"/>
+      <c r="LB13" s="45"/>
+      <c r="LC13" s="45"/>
+      <c r="LD13" s="45"/>
+      <c r="LE13" s="45"/>
+      <c r="LF13" s="45"/>
+      <c r="LG13" s="45"/>
+      <c r="LH13" s="45"/>
+      <c r="LI13" s="45"/>
+      <c r="LJ13" s="45"/>
+      <c r="LK13" s="45"/>
+      <c r="LL13" s="45"/>
+      <c r="LM13" s="45"/>
+      <c r="LN13" s="45"/>
+      <c r="LO13" s="45"/>
+      <c r="LP13" s="45"/>
+      <c r="LQ13" s="45"/>
+      <c r="LR13" s="45"/>
+      <c r="LS13" s="45"/>
+      <c r="LT13" s="45"/>
+      <c r="LU13" s="45"/>
+      <c r="LV13" s="45"/>
+      <c r="LW13" s="45"/>
+      <c r="LX13" s="45"/>
+      <c r="LY13" s="45"/>
+      <c r="LZ13" s="45"/>
+      <c r="MA13" s="45"/>
+      <c r="MB13" s="45"/>
+      <c r="MC13" s="45"/>
+      <c r="MD13" s="45"/>
+      <c r="ME13" s="45"/>
+      <c r="MF13" s="45"/>
+      <c r="MG13" s="45"/>
+      <c r="MH13" s="45"/>
+      <c r="MI13" s="45"/>
+      <c r="MJ13" s="45"/>
+      <c r="MK13" s="45"/>
+      <c r="ML13" s="45"/>
+      <c r="MM13" s="45"/>
+      <c r="MN13" s="45"/>
+      <c r="MO13" s="45"/>
+      <c r="MP13" s="45"/>
+      <c r="MQ13" s="45"/>
+      <c r="MR13" s="45"/>
+      <c r="MS13" s="45"/>
+      <c r="MT13" s="45"/>
+      <c r="MU13" s="45"/>
+      <c r="MV13" s="45"/>
+      <c r="MW13" s="45"/>
+      <c r="MX13" s="45"/>
+      <c r="MY13" s="45"/>
+      <c r="MZ13" s="45"/>
+      <c r="NA13" s="45"/>
+      <c r="NB13" s="45"/>
+      <c r="NC13" s="45"/>
+      <c r="ND13" s="45"/>
+      <c r="NE13" s="45"/>
+      <c r="NF13" s="45"/>
+      <c r="NG13" s="45"/>
+      <c r="NH13" s="45"/>
+      <c r="NI13" s="45"/>
+      <c r="NJ13" s="45"/>
+      <c r="NK13" s="45"/>
+      <c r="NL13" s="45"/>
+      <c r="NM13" s="45"/>
+      <c r="NN13" s="45"/>
+      <c r="NO13" s="45"/>
+      <c r="NP13" s="45"/>
+      <c r="NQ13" s="45"/>
+      <c r="NR13" s="45"/>
+      <c r="NS13" s="45"/>
+      <c r="NT13" s="45"/>
+      <c r="NU13" s="45"/>
+      <c r="NV13" s="45"/>
+      <c r="NW13" s="45"/>
+      <c r="NX13" s="45"/>
+      <c r="NY13" s="45"/>
+      <c r="NZ13" s="45"/>
       <c r="AMJ13" s="9"/>
     </row>
     <row r="14" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9216,7 +11618,179 @@
       <c r="HK14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HL14" s="48"/>
+      <c r="HL14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="HM14" s="48"/>
+      <c r="HN14" s="48"/>
+      <c r="HO14" s="48"/>
+      <c r="HP14" s="48"/>
+      <c r="HQ14" s="48"/>
+      <c r="HR14" s="48"/>
+      <c r="HS14" s="48"/>
+      <c r="HT14" s="48"/>
+      <c r="HU14" s="48"/>
+      <c r="HV14" s="48"/>
+      <c r="HW14" s="48"/>
+      <c r="HX14" s="48"/>
+      <c r="HY14" s="48"/>
+      <c r="HZ14" s="48"/>
+      <c r="IA14" s="48"/>
+      <c r="IB14" s="48"/>
+      <c r="IC14" s="48"/>
+      <c r="ID14" s="48"/>
+      <c r="IE14" s="48"/>
+      <c r="IF14" s="48"/>
+      <c r="IG14" s="48"/>
+      <c r="IH14" s="48"/>
+      <c r="II14" s="48"/>
+      <c r="IJ14" s="48"/>
+      <c r="IK14" s="48"/>
+      <c r="IL14" s="48"/>
+      <c r="IM14" s="48"/>
+      <c r="IN14" s="48"/>
+      <c r="IO14" s="48"/>
+      <c r="IP14" s="48"/>
+      <c r="IQ14" s="48"/>
+      <c r="IR14" s="48"/>
+      <c r="IS14" s="48"/>
+      <c r="IT14" s="48"/>
+      <c r="IU14" s="48"/>
+      <c r="IV14" s="48"/>
+      <c r="IW14" s="48"/>
+      <c r="IX14" s="48"/>
+      <c r="IY14" s="48"/>
+      <c r="IZ14" s="48"/>
+      <c r="JA14" s="48"/>
+      <c r="JB14" s="48"/>
+      <c r="JC14" s="48"/>
+      <c r="JD14" s="48"/>
+      <c r="JE14" s="48"/>
+      <c r="JF14" s="48"/>
+      <c r="JG14" s="48"/>
+      <c r="JH14" s="48"/>
+      <c r="JI14" s="48"/>
+      <c r="JJ14" s="48"/>
+      <c r="JK14" s="48"/>
+      <c r="JL14" s="48"/>
+      <c r="JM14" s="48"/>
+      <c r="JN14" s="48"/>
+      <c r="JO14" s="48"/>
+      <c r="JP14" s="48"/>
+      <c r="JQ14" s="48"/>
+      <c r="JR14" s="48"/>
+      <c r="JS14" s="48"/>
+      <c r="JT14" s="48"/>
+      <c r="JU14" s="48"/>
+      <c r="JV14" s="48"/>
+      <c r="JW14" s="48"/>
+      <c r="JX14" s="48"/>
+      <c r="JY14" s="48"/>
+      <c r="JZ14" s="48"/>
+      <c r="KA14" s="48"/>
+      <c r="KB14" s="48"/>
+      <c r="KC14" s="48"/>
+      <c r="KD14" s="48"/>
+      <c r="KE14" s="48"/>
+      <c r="KF14" s="48"/>
+      <c r="KG14" s="48"/>
+      <c r="KH14" s="48"/>
+      <c r="KI14" s="48"/>
+      <c r="KJ14" s="48"/>
+      <c r="KK14" s="48"/>
+      <c r="KL14" s="48"/>
+      <c r="KM14" s="48"/>
+      <c r="KN14" s="48"/>
+      <c r="KO14" s="48"/>
+      <c r="KP14" s="48"/>
+      <c r="KQ14" s="48"/>
+      <c r="KR14" s="48"/>
+      <c r="KS14" s="48"/>
+      <c r="KT14" s="48"/>
+      <c r="KU14" s="48"/>
+      <c r="KV14" s="48"/>
+      <c r="KW14" s="48"/>
+      <c r="KX14" s="48"/>
+      <c r="KY14" s="48"/>
+      <c r="KZ14" s="48"/>
+      <c r="LA14" s="48"/>
+      <c r="LB14" s="48"/>
+      <c r="LC14" s="48"/>
+      <c r="LD14" s="48"/>
+      <c r="LE14" s="48"/>
+      <c r="LF14" s="48"/>
+      <c r="LG14" s="48"/>
+      <c r="LH14" s="48"/>
+      <c r="LI14" s="48"/>
+      <c r="LJ14" s="48"/>
+      <c r="LK14" s="48"/>
+      <c r="LL14" s="48"/>
+      <c r="LM14" s="48"/>
+      <c r="LN14" s="48"/>
+      <c r="LO14" s="48"/>
+      <c r="LP14" s="48"/>
+      <c r="LQ14" s="48"/>
+      <c r="LR14" s="48"/>
+      <c r="LS14" s="48"/>
+      <c r="LT14" s="48"/>
+      <c r="LU14" s="48"/>
+      <c r="LV14" s="48"/>
+      <c r="LW14" s="48"/>
+      <c r="LX14" s="48"/>
+      <c r="LY14" s="48"/>
+      <c r="LZ14" s="48"/>
+      <c r="MA14" s="48"/>
+      <c r="MB14" s="48"/>
+      <c r="MC14" s="48"/>
+      <c r="MD14" s="48"/>
+      <c r="ME14" s="48"/>
+      <c r="MF14" s="48"/>
+      <c r="MG14" s="48"/>
+      <c r="MH14" s="48"/>
+      <c r="MI14" s="48"/>
+      <c r="MJ14" s="48"/>
+      <c r="MK14" s="48"/>
+      <c r="ML14" s="48"/>
+      <c r="MM14" s="48"/>
+      <c r="MN14" s="48"/>
+      <c r="MO14" s="48"/>
+      <c r="MP14" s="48"/>
+      <c r="MQ14" s="48"/>
+      <c r="MR14" s="48"/>
+      <c r="MS14" s="48"/>
+      <c r="MT14" s="48"/>
+      <c r="MU14" s="48"/>
+      <c r="MV14" s="48"/>
+      <c r="MW14" s="48"/>
+      <c r="MX14" s="48"/>
+      <c r="MY14" s="48"/>
+      <c r="MZ14" s="48"/>
+      <c r="NA14" s="48"/>
+      <c r="NB14" s="48"/>
+      <c r="NC14" s="48"/>
+      <c r="ND14" s="48"/>
+      <c r="NE14" s="48"/>
+      <c r="NF14" s="48"/>
+      <c r="NG14" s="48"/>
+      <c r="NH14" s="48"/>
+      <c r="NI14" s="48"/>
+      <c r="NJ14" s="48"/>
+      <c r="NK14" s="48"/>
+      <c r="NL14" s="48"/>
+      <c r="NM14" s="48"/>
+      <c r="NN14" s="48"/>
+      <c r="NO14" s="48"/>
+      <c r="NP14" s="48"/>
+      <c r="NQ14" s="48"/>
+      <c r="NR14" s="48"/>
+      <c r="NS14" s="48"/>
+      <c r="NT14" s="48"/>
+      <c r="NU14" s="48"/>
+      <c r="NV14" s="48"/>
+      <c r="NW14" s="48"/>
+      <c r="NX14" s="48"/>
+      <c r="NY14" s="48"/>
+      <c r="NZ14" s="48"/>
       <c r="AMJ14" s="13"/>
     </row>
     <row r="15" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9875,7 +12449,179 @@
       <c r="HK15" s="52" t="n">
         <v>125770582</v>
       </c>
-      <c r="HL15" s="52"/>
+      <c r="HL15" s="52" t="n">
+        <v>125817874</v>
+      </c>
+      <c r="HM15" s="52"/>
+      <c r="HN15" s="52"/>
+      <c r="HO15" s="52"/>
+      <c r="HP15" s="52"/>
+      <c r="HQ15" s="52"/>
+      <c r="HR15" s="52"/>
+      <c r="HS15" s="52"/>
+      <c r="HT15" s="52"/>
+      <c r="HU15" s="52"/>
+      <c r="HV15" s="52"/>
+      <c r="HW15" s="52"/>
+      <c r="HX15" s="52"/>
+      <c r="HY15" s="52"/>
+      <c r="HZ15" s="52"/>
+      <c r="IA15" s="52"/>
+      <c r="IB15" s="52"/>
+      <c r="IC15" s="52"/>
+      <c r="ID15" s="52"/>
+      <c r="IE15" s="52"/>
+      <c r="IF15" s="52"/>
+      <c r="IG15" s="52"/>
+      <c r="IH15" s="52"/>
+      <c r="II15" s="52"/>
+      <c r="IJ15" s="52"/>
+      <c r="IK15" s="52"/>
+      <c r="IL15" s="52"/>
+      <c r="IM15" s="52"/>
+      <c r="IN15" s="52"/>
+      <c r="IO15" s="52"/>
+      <c r="IP15" s="52"/>
+      <c r="IQ15" s="52"/>
+      <c r="IR15" s="52"/>
+      <c r="IS15" s="52"/>
+      <c r="IT15" s="52"/>
+      <c r="IU15" s="52"/>
+      <c r="IV15" s="52"/>
+      <c r="IW15" s="52"/>
+      <c r="IX15" s="52"/>
+      <c r="IY15" s="52"/>
+      <c r="IZ15" s="52"/>
+      <c r="JA15" s="52"/>
+      <c r="JB15" s="52"/>
+      <c r="JC15" s="52"/>
+      <c r="JD15" s="52"/>
+      <c r="JE15" s="52"/>
+      <c r="JF15" s="52"/>
+      <c r="JG15" s="52"/>
+      <c r="JH15" s="52"/>
+      <c r="JI15" s="52"/>
+      <c r="JJ15" s="52"/>
+      <c r="JK15" s="52"/>
+      <c r="JL15" s="52"/>
+      <c r="JM15" s="52"/>
+      <c r="JN15" s="52"/>
+      <c r="JO15" s="52"/>
+      <c r="JP15" s="52"/>
+      <c r="JQ15" s="52"/>
+      <c r="JR15" s="52"/>
+      <c r="JS15" s="52"/>
+      <c r="JT15" s="52"/>
+      <c r="JU15" s="52"/>
+      <c r="JV15" s="52"/>
+      <c r="JW15" s="52"/>
+      <c r="JX15" s="52"/>
+      <c r="JY15" s="52"/>
+      <c r="JZ15" s="52"/>
+      <c r="KA15" s="52"/>
+      <c r="KB15" s="52"/>
+      <c r="KC15" s="52"/>
+      <c r="KD15" s="52"/>
+      <c r="KE15" s="52"/>
+      <c r="KF15" s="52"/>
+      <c r="KG15" s="52"/>
+      <c r="KH15" s="52"/>
+      <c r="KI15" s="52"/>
+      <c r="KJ15" s="52"/>
+      <c r="KK15" s="52"/>
+      <c r="KL15" s="52"/>
+      <c r="KM15" s="52"/>
+      <c r="KN15" s="52"/>
+      <c r="KO15" s="52"/>
+      <c r="KP15" s="52"/>
+      <c r="KQ15" s="52"/>
+      <c r="KR15" s="52"/>
+      <c r="KS15" s="52"/>
+      <c r="KT15" s="52"/>
+      <c r="KU15" s="52"/>
+      <c r="KV15" s="52"/>
+      <c r="KW15" s="52"/>
+      <c r="KX15" s="52"/>
+      <c r="KY15" s="52"/>
+      <c r="KZ15" s="52"/>
+      <c r="LA15" s="52"/>
+      <c r="LB15" s="52"/>
+      <c r="LC15" s="52"/>
+      <c r="LD15" s="52"/>
+      <c r="LE15" s="52"/>
+      <c r="LF15" s="52"/>
+      <c r="LG15" s="52"/>
+      <c r="LH15" s="52"/>
+      <c r="LI15" s="52"/>
+      <c r="LJ15" s="52"/>
+      <c r="LK15" s="52"/>
+      <c r="LL15" s="52"/>
+      <c r="LM15" s="52"/>
+      <c r="LN15" s="52"/>
+      <c r="LO15" s="52"/>
+      <c r="LP15" s="52"/>
+      <c r="LQ15" s="52"/>
+      <c r="LR15" s="52"/>
+      <c r="LS15" s="52"/>
+      <c r="LT15" s="52"/>
+      <c r="LU15" s="52"/>
+      <c r="LV15" s="52"/>
+      <c r="LW15" s="52"/>
+      <c r="LX15" s="52"/>
+      <c r="LY15" s="52"/>
+      <c r="LZ15" s="52"/>
+      <c r="MA15" s="52"/>
+      <c r="MB15" s="52"/>
+      <c r="MC15" s="52"/>
+      <c r="MD15" s="52"/>
+      <c r="ME15" s="52"/>
+      <c r="MF15" s="52"/>
+      <c r="MG15" s="52"/>
+      <c r="MH15" s="52"/>
+      <c r="MI15" s="52"/>
+      <c r="MJ15" s="52"/>
+      <c r="MK15" s="52"/>
+      <c r="ML15" s="52"/>
+      <c r="MM15" s="52"/>
+      <c r="MN15" s="52"/>
+      <c r="MO15" s="52"/>
+      <c r="MP15" s="52"/>
+      <c r="MQ15" s="52"/>
+      <c r="MR15" s="52"/>
+      <c r="MS15" s="52"/>
+      <c r="MT15" s="52"/>
+      <c r="MU15" s="52"/>
+      <c r="MV15" s="52"/>
+      <c r="MW15" s="52"/>
+      <c r="MX15" s="52"/>
+      <c r="MY15" s="52"/>
+      <c r="MZ15" s="52"/>
+      <c r="NA15" s="52"/>
+      <c r="NB15" s="52"/>
+      <c r="NC15" s="52"/>
+      <c r="ND15" s="52"/>
+      <c r="NE15" s="52"/>
+      <c r="NF15" s="52"/>
+      <c r="NG15" s="52"/>
+      <c r="NH15" s="52"/>
+      <c r="NI15" s="52"/>
+      <c r="NJ15" s="52"/>
+      <c r="NK15" s="52"/>
+      <c r="NL15" s="52"/>
+      <c r="NM15" s="52"/>
+      <c r="NN15" s="52"/>
+      <c r="NO15" s="52"/>
+      <c r="NP15" s="52"/>
+      <c r="NQ15" s="52"/>
+      <c r="NR15" s="52"/>
+      <c r="NS15" s="52"/>
+      <c r="NT15" s="52"/>
+      <c r="NU15" s="52"/>
+      <c r="NV15" s="52"/>
+      <c r="NW15" s="52"/>
+      <c r="NX15" s="52"/>
+      <c r="NY15" s="52"/>
+      <c r="NZ15" s="52"/>
       <c r="AMJ15" s="9"/>
     </row>
     <row r="16" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10532,7 +13278,179 @@
       <c r="HK16" s="55" t="n">
         <v>196</v>
       </c>
-      <c r="HL16" s="55"/>
+      <c r="HL16" s="55" t="n">
+        <v>196</v>
+      </c>
+      <c r="HM16" s="55"/>
+      <c r="HN16" s="55"/>
+      <c r="HO16" s="55"/>
+      <c r="HP16" s="55"/>
+      <c r="HQ16" s="55"/>
+      <c r="HR16" s="55"/>
+      <c r="HS16" s="55"/>
+      <c r="HT16" s="55"/>
+      <c r="HU16" s="55"/>
+      <c r="HV16" s="55"/>
+      <c r="HW16" s="55"/>
+      <c r="HX16" s="55"/>
+      <c r="HY16" s="55"/>
+      <c r="HZ16" s="55"/>
+      <c r="IA16" s="55"/>
+      <c r="IB16" s="55"/>
+      <c r="IC16" s="55"/>
+      <c r="ID16" s="55"/>
+      <c r="IE16" s="55"/>
+      <c r="IF16" s="55"/>
+      <c r="IG16" s="55"/>
+      <c r="IH16" s="55"/>
+      <c r="II16" s="55"/>
+      <c r="IJ16" s="55"/>
+      <c r="IK16" s="55"/>
+      <c r="IL16" s="55"/>
+      <c r="IM16" s="55"/>
+      <c r="IN16" s="55"/>
+      <c r="IO16" s="55"/>
+      <c r="IP16" s="55"/>
+      <c r="IQ16" s="55"/>
+      <c r="IR16" s="55"/>
+      <c r="IS16" s="55"/>
+      <c r="IT16" s="55"/>
+      <c r="IU16" s="55"/>
+      <c r="IV16" s="55"/>
+      <c r="IW16" s="55"/>
+      <c r="IX16" s="55"/>
+      <c r="IY16" s="55"/>
+      <c r="IZ16" s="55"/>
+      <c r="JA16" s="55"/>
+      <c r="JB16" s="55"/>
+      <c r="JC16" s="55"/>
+      <c r="JD16" s="55"/>
+      <c r="JE16" s="55"/>
+      <c r="JF16" s="55"/>
+      <c r="JG16" s="55"/>
+      <c r="JH16" s="55"/>
+      <c r="JI16" s="55"/>
+      <c r="JJ16" s="55"/>
+      <c r="JK16" s="55"/>
+      <c r="JL16" s="55"/>
+      <c r="JM16" s="55"/>
+      <c r="JN16" s="55"/>
+      <c r="JO16" s="55"/>
+      <c r="JP16" s="55"/>
+      <c r="JQ16" s="55"/>
+      <c r="JR16" s="55"/>
+      <c r="JS16" s="55"/>
+      <c r="JT16" s="55"/>
+      <c r="JU16" s="55"/>
+      <c r="JV16" s="55"/>
+      <c r="JW16" s="55"/>
+      <c r="JX16" s="55"/>
+      <c r="JY16" s="55"/>
+      <c r="JZ16" s="55"/>
+      <c r="KA16" s="55"/>
+      <c r="KB16" s="55"/>
+      <c r="KC16" s="55"/>
+      <c r="KD16" s="55"/>
+      <c r="KE16" s="55"/>
+      <c r="KF16" s="55"/>
+      <c r="KG16" s="55"/>
+      <c r="KH16" s="55"/>
+      <c r="KI16" s="55"/>
+      <c r="KJ16" s="55"/>
+      <c r="KK16" s="55"/>
+      <c r="KL16" s="55"/>
+      <c r="KM16" s="55"/>
+      <c r="KN16" s="55"/>
+      <c r="KO16" s="55"/>
+      <c r="KP16" s="55"/>
+      <c r="KQ16" s="55"/>
+      <c r="KR16" s="55"/>
+      <c r="KS16" s="55"/>
+      <c r="KT16" s="55"/>
+      <c r="KU16" s="55"/>
+      <c r="KV16" s="55"/>
+      <c r="KW16" s="55"/>
+      <c r="KX16" s="55"/>
+      <c r="KY16" s="55"/>
+      <c r="KZ16" s="55"/>
+      <c r="LA16" s="55"/>
+      <c r="LB16" s="55"/>
+      <c r="LC16" s="55"/>
+      <c r="LD16" s="55"/>
+      <c r="LE16" s="55"/>
+      <c r="LF16" s="55"/>
+      <c r="LG16" s="55"/>
+      <c r="LH16" s="55"/>
+      <c r="LI16" s="55"/>
+      <c r="LJ16" s="55"/>
+      <c r="LK16" s="55"/>
+      <c r="LL16" s="55"/>
+      <c r="LM16" s="55"/>
+      <c r="LN16" s="55"/>
+      <c r="LO16" s="55"/>
+      <c r="LP16" s="55"/>
+      <c r="LQ16" s="55"/>
+      <c r="LR16" s="55"/>
+      <c r="LS16" s="55"/>
+      <c r="LT16" s="55"/>
+      <c r="LU16" s="55"/>
+      <c r="LV16" s="55"/>
+      <c r="LW16" s="55"/>
+      <c r="LX16" s="55"/>
+      <c r="LY16" s="55"/>
+      <c r="LZ16" s="55"/>
+      <c r="MA16" s="55"/>
+      <c r="MB16" s="55"/>
+      <c r="MC16" s="55"/>
+      <c r="MD16" s="55"/>
+      <c r="ME16" s="55"/>
+      <c r="MF16" s="55"/>
+      <c r="MG16" s="55"/>
+      <c r="MH16" s="55"/>
+      <c r="MI16" s="55"/>
+      <c r="MJ16" s="55"/>
+      <c r="MK16" s="55"/>
+      <c r="ML16" s="55"/>
+      <c r="MM16" s="55"/>
+      <c r="MN16" s="55"/>
+      <c r="MO16" s="55"/>
+      <c r="MP16" s="55"/>
+      <c r="MQ16" s="55"/>
+      <c r="MR16" s="55"/>
+      <c r="MS16" s="55"/>
+      <c r="MT16" s="55"/>
+      <c r="MU16" s="55"/>
+      <c r="MV16" s="55"/>
+      <c r="MW16" s="55"/>
+      <c r="MX16" s="55"/>
+      <c r="MY16" s="55"/>
+      <c r="MZ16" s="55"/>
+      <c r="NA16" s="55"/>
+      <c r="NB16" s="55"/>
+      <c r="NC16" s="55"/>
+      <c r="ND16" s="55"/>
+      <c r="NE16" s="55"/>
+      <c r="NF16" s="55"/>
+      <c r="NG16" s="55"/>
+      <c r="NH16" s="55"/>
+      <c r="NI16" s="55"/>
+      <c r="NJ16" s="55"/>
+      <c r="NK16" s="55"/>
+      <c r="NL16" s="55"/>
+      <c r="NM16" s="55"/>
+      <c r="NN16" s="55"/>
+      <c r="NO16" s="55"/>
+      <c r="NP16" s="55"/>
+      <c r="NQ16" s="55"/>
+      <c r="NR16" s="55"/>
+      <c r="NS16" s="55"/>
+      <c r="NT16" s="55"/>
+      <c r="NU16" s="55"/>
+      <c r="NV16" s="55"/>
+      <c r="NW16" s="55"/>
+      <c r="NX16" s="55"/>
+      <c r="NY16" s="55"/>
+      <c r="NZ16" s="55"/>
       <c r="AMJ16" s="13"/>
     </row>
     <row r="17" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11191,7 +14109,179 @@
       <c r="HK17" s="59" t="n">
         <v>95072217</v>
       </c>
-      <c r="HL17" s="59"/>
+      <c r="HL17" s="59" t="n">
+        <v>94618393</v>
+      </c>
+      <c r="HM17" s="59"/>
+      <c r="HN17" s="59"/>
+      <c r="HO17" s="59"/>
+      <c r="HP17" s="59"/>
+      <c r="HQ17" s="59"/>
+      <c r="HR17" s="59"/>
+      <c r="HS17" s="59"/>
+      <c r="HT17" s="59"/>
+      <c r="HU17" s="59"/>
+      <c r="HV17" s="59"/>
+      <c r="HW17" s="59"/>
+      <c r="HX17" s="59"/>
+      <c r="HY17" s="59"/>
+      <c r="HZ17" s="59"/>
+      <c r="IA17" s="59"/>
+      <c r="IB17" s="59"/>
+      <c r="IC17" s="59"/>
+      <c r="ID17" s="59"/>
+      <c r="IE17" s="59"/>
+      <c r="IF17" s="59"/>
+      <c r="IG17" s="59"/>
+      <c r="IH17" s="59"/>
+      <c r="II17" s="59"/>
+      <c r="IJ17" s="59"/>
+      <c r="IK17" s="59"/>
+      <c r="IL17" s="59"/>
+      <c r="IM17" s="59"/>
+      <c r="IN17" s="59"/>
+      <c r="IO17" s="59"/>
+      <c r="IP17" s="59"/>
+      <c r="IQ17" s="59"/>
+      <c r="IR17" s="59"/>
+      <c r="IS17" s="59"/>
+      <c r="IT17" s="59"/>
+      <c r="IU17" s="59"/>
+      <c r="IV17" s="59"/>
+      <c r="IW17" s="59"/>
+      <c r="IX17" s="59"/>
+      <c r="IY17" s="59"/>
+      <c r="IZ17" s="59"/>
+      <c r="JA17" s="59"/>
+      <c r="JB17" s="59"/>
+      <c r="JC17" s="59"/>
+      <c r="JD17" s="59"/>
+      <c r="JE17" s="59"/>
+      <c r="JF17" s="59"/>
+      <c r="JG17" s="59"/>
+      <c r="JH17" s="59"/>
+      <c r="JI17" s="59"/>
+      <c r="JJ17" s="59"/>
+      <c r="JK17" s="59"/>
+      <c r="JL17" s="59"/>
+      <c r="JM17" s="59"/>
+      <c r="JN17" s="59"/>
+      <c r="JO17" s="59"/>
+      <c r="JP17" s="59"/>
+      <c r="JQ17" s="59"/>
+      <c r="JR17" s="59"/>
+      <c r="JS17" s="59"/>
+      <c r="JT17" s="59"/>
+      <c r="JU17" s="59"/>
+      <c r="JV17" s="59"/>
+      <c r="JW17" s="59"/>
+      <c r="JX17" s="59"/>
+      <c r="JY17" s="59"/>
+      <c r="JZ17" s="59"/>
+      <c r="KA17" s="59"/>
+      <c r="KB17" s="59"/>
+      <c r="KC17" s="59"/>
+      <c r="KD17" s="59"/>
+      <c r="KE17" s="59"/>
+      <c r="KF17" s="59"/>
+      <c r="KG17" s="59"/>
+      <c r="KH17" s="59"/>
+      <c r="KI17" s="59"/>
+      <c r="KJ17" s="59"/>
+      <c r="KK17" s="59"/>
+      <c r="KL17" s="59"/>
+      <c r="KM17" s="59"/>
+      <c r="KN17" s="59"/>
+      <c r="KO17" s="59"/>
+      <c r="KP17" s="59"/>
+      <c r="KQ17" s="59"/>
+      <c r="KR17" s="59"/>
+      <c r="KS17" s="59"/>
+      <c r="KT17" s="59"/>
+      <c r="KU17" s="59"/>
+      <c r="KV17" s="59"/>
+      <c r="KW17" s="59"/>
+      <c r="KX17" s="59"/>
+      <c r="KY17" s="59"/>
+      <c r="KZ17" s="59"/>
+      <c r="LA17" s="59"/>
+      <c r="LB17" s="59"/>
+      <c r="LC17" s="59"/>
+      <c r="LD17" s="59"/>
+      <c r="LE17" s="59"/>
+      <c r="LF17" s="59"/>
+      <c r="LG17" s="59"/>
+      <c r="LH17" s="59"/>
+      <c r="LI17" s="59"/>
+      <c r="LJ17" s="59"/>
+      <c r="LK17" s="59"/>
+      <c r="LL17" s="59"/>
+      <c r="LM17" s="59"/>
+      <c r="LN17" s="59"/>
+      <c r="LO17" s="59"/>
+      <c r="LP17" s="59"/>
+      <c r="LQ17" s="59"/>
+      <c r="LR17" s="59"/>
+      <c r="LS17" s="59"/>
+      <c r="LT17" s="59"/>
+      <c r="LU17" s="59"/>
+      <c r="LV17" s="59"/>
+      <c r="LW17" s="59"/>
+      <c r="LX17" s="59"/>
+      <c r="LY17" s="59"/>
+      <c r="LZ17" s="59"/>
+      <c r="MA17" s="59"/>
+      <c r="MB17" s="59"/>
+      <c r="MC17" s="59"/>
+      <c r="MD17" s="59"/>
+      <c r="ME17" s="59"/>
+      <c r="MF17" s="59"/>
+      <c r="MG17" s="59"/>
+      <c r="MH17" s="59"/>
+      <c r="MI17" s="59"/>
+      <c r="MJ17" s="59"/>
+      <c r="MK17" s="59"/>
+      <c r="ML17" s="59"/>
+      <c r="MM17" s="59"/>
+      <c r="MN17" s="59"/>
+      <c r="MO17" s="59"/>
+      <c r="MP17" s="59"/>
+      <c r="MQ17" s="59"/>
+      <c r="MR17" s="59"/>
+      <c r="MS17" s="59"/>
+      <c r="MT17" s="59"/>
+      <c r="MU17" s="59"/>
+      <c r="MV17" s="59"/>
+      <c r="MW17" s="59"/>
+      <c r="MX17" s="59"/>
+      <c r="MY17" s="59"/>
+      <c r="MZ17" s="59"/>
+      <c r="NA17" s="59"/>
+      <c r="NB17" s="59"/>
+      <c r="NC17" s="59"/>
+      <c r="ND17" s="59"/>
+      <c r="NE17" s="59"/>
+      <c r="NF17" s="59"/>
+      <c r="NG17" s="59"/>
+      <c r="NH17" s="59"/>
+      <c r="NI17" s="59"/>
+      <c r="NJ17" s="59"/>
+      <c r="NK17" s="59"/>
+      <c r="NL17" s="59"/>
+      <c r="NM17" s="59"/>
+      <c r="NN17" s="59"/>
+      <c r="NO17" s="59"/>
+      <c r="NP17" s="59"/>
+      <c r="NQ17" s="59"/>
+      <c r="NR17" s="59"/>
+      <c r="NS17" s="59"/>
+      <c r="NT17" s="59"/>
+      <c r="NU17" s="59"/>
+      <c r="NV17" s="59"/>
+      <c r="NW17" s="59"/>
+      <c r="NX17" s="59"/>
+      <c r="NY17" s="59"/>
+      <c r="NZ17" s="59"/>
       <c r="AMJ17" s="9"/>
     </row>
     <row r="18" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11848,7 +14938,179 @@
       <c r="HK18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="HL18" s="62"/>
+      <c r="HL18" s="62" t="n">
+        <v>177</v>
+      </c>
+      <c r="HM18" s="62"/>
+      <c r="HN18" s="62"/>
+      <c r="HO18" s="62"/>
+      <c r="HP18" s="62"/>
+      <c r="HQ18" s="62"/>
+      <c r="HR18" s="62"/>
+      <c r="HS18" s="62"/>
+      <c r="HT18" s="62"/>
+      <c r="HU18" s="62"/>
+      <c r="HV18" s="62"/>
+      <c r="HW18" s="62"/>
+      <c r="HX18" s="62"/>
+      <c r="HY18" s="62"/>
+      <c r="HZ18" s="62"/>
+      <c r="IA18" s="62"/>
+      <c r="IB18" s="62"/>
+      <c r="IC18" s="62"/>
+      <c r="ID18" s="62"/>
+      <c r="IE18" s="62"/>
+      <c r="IF18" s="62"/>
+      <c r="IG18" s="62"/>
+      <c r="IH18" s="62"/>
+      <c r="II18" s="62"/>
+      <c r="IJ18" s="62"/>
+      <c r="IK18" s="62"/>
+      <c r="IL18" s="62"/>
+      <c r="IM18" s="62"/>
+      <c r="IN18" s="62"/>
+      <c r="IO18" s="62"/>
+      <c r="IP18" s="62"/>
+      <c r="IQ18" s="62"/>
+      <c r="IR18" s="62"/>
+      <c r="IS18" s="62"/>
+      <c r="IT18" s="62"/>
+      <c r="IU18" s="62"/>
+      <c r="IV18" s="62"/>
+      <c r="IW18" s="62"/>
+      <c r="IX18" s="62"/>
+      <c r="IY18" s="62"/>
+      <c r="IZ18" s="62"/>
+      <c r="JA18" s="62"/>
+      <c r="JB18" s="62"/>
+      <c r="JC18" s="62"/>
+      <c r="JD18" s="62"/>
+      <c r="JE18" s="62"/>
+      <c r="JF18" s="62"/>
+      <c r="JG18" s="62"/>
+      <c r="JH18" s="62"/>
+      <c r="JI18" s="62"/>
+      <c r="JJ18" s="62"/>
+      <c r="JK18" s="62"/>
+      <c r="JL18" s="62"/>
+      <c r="JM18" s="62"/>
+      <c r="JN18" s="62"/>
+      <c r="JO18" s="62"/>
+      <c r="JP18" s="62"/>
+      <c r="JQ18" s="62"/>
+      <c r="JR18" s="62"/>
+      <c r="JS18" s="62"/>
+      <c r="JT18" s="62"/>
+      <c r="JU18" s="62"/>
+      <c r="JV18" s="62"/>
+      <c r="JW18" s="62"/>
+      <c r="JX18" s="62"/>
+      <c r="JY18" s="62"/>
+      <c r="JZ18" s="62"/>
+      <c r="KA18" s="62"/>
+      <c r="KB18" s="62"/>
+      <c r="KC18" s="62"/>
+      <c r="KD18" s="62"/>
+      <c r="KE18" s="62"/>
+      <c r="KF18" s="62"/>
+      <c r="KG18" s="62"/>
+      <c r="KH18" s="62"/>
+      <c r="KI18" s="62"/>
+      <c r="KJ18" s="62"/>
+      <c r="KK18" s="62"/>
+      <c r="KL18" s="62"/>
+      <c r="KM18" s="62"/>
+      <c r="KN18" s="62"/>
+      <c r="KO18" s="62"/>
+      <c r="KP18" s="62"/>
+      <c r="KQ18" s="62"/>
+      <c r="KR18" s="62"/>
+      <c r="KS18" s="62"/>
+      <c r="KT18" s="62"/>
+      <c r="KU18" s="62"/>
+      <c r="KV18" s="62"/>
+      <c r="KW18" s="62"/>
+      <c r="KX18" s="62"/>
+      <c r="KY18" s="62"/>
+      <c r="KZ18" s="62"/>
+      <c r="LA18" s="62"/>
+      <c r="LB18" s="62"/>
+      <c r="LC18" s="62"/>
+      <c r="LD18" s="62"/>
+      <c r="LE18" s="62"/>
+      <c r="LF18" s="62"/>
+      <c r="LG18" s="62"/>
+      <c r="LH18" s="62"/>
+      <c r="LI18" s="62"/>
+      <c r="LJ18" s="62"/>
+      <c r="LK18" s="62"/>
+      <c r="LL18" s="62"/>
+      <c r="LM18" s="62"/>
+      <c r="LN18" s="62"/>
+      <c r="LO18" s="62"/>
+      <c r="LP18" s="62"/>
+      <c r="LQ18" s="62"/>
+      <c r="LR18" s="62"/>
+      <c r="LS18" s="62"/>
+      <c r="LT18" s="62"/>
+      <c r="LU18" s="62"/>
+      <c r="LV18" s="62"/>
+      <c r="LW18" s="62"/>
+      <c r="LX18" s="62"/>
+      <c r="LY18" s="62"/>
+      <c r="LZ18" s="62"/>
+      <c r="MA18" s="62"/>
+      <c r="MB18" s="62"/>
+      <c r="MC18" s="62"/>
+      <c r="MD18" s="62"/>
+      <c r="ME18" s="62"/>
+      <c r="MF18" s="62"/>
+      <c r="MG18" s="62"/>
+      <c r="MH18" s="62"/>
+      <c r="MI18" s="62"/>
+      <c r="MJ18" s="62"/>
+      <c r="MK18" s="62"/>
+      <c r="ML18" s="62"/>
+      <c r="MM18" s="62"/>
+      <c r="MN18" s="62"/>
+      <c r="MO18" s="62"/>
+      <c r="MP18" s="62"/>
+      <c r="MQ18" s="62"/>
+      <c r="MR18" s="62"/>
+      <c r="MS18" s="62"/>
+      <c r="MT18" s="62"/>
+      <c r="MU18" s="62"/>
+      <c r="MV18" s="62"/>
+      <c r="MW18" s="62"/>
+      <c r="MX18" s="62"/>
+      <c r="MY18" s="62"/>
+      <c r="MZ18" s="62"/>
+      <c r="NA18" s="62"/>
+      <c r="NB18" s="62"/>
+      <c r="NC18" s="62"/>
+      <c r="ND18" s="62"/>
+      <c r="NE18" s="62"/>
+      <c r="NF18" s="62"/>
+      <c r="NG18" s="62"/>
+      <c r="NH18" s="62"/>
+      <c r="NI18" s="62"/>
+      <c r="NJ18" s="62"/>
+      <c r="NK18" s="62"/>
+      <c r="NL18" s="62"/>
+      <c r="NM18" s="62"/>
+      <c r="NN18" s="62"/>
+      <c r="NO18" s="62"/>
+      <c r="NP18" s="62"/>
+      <c r="NQ18" s="62"/>
+      <c r="NR18" s="62"/>
+      <c r="NS18" s="62"/>
+      <c r="NT18" s="62"/>
+      <c r="NU18" s="62"/>
+      <c r="NV18" s="62"/>
+      <c r="NW18" s="62"/>
+      <c r="NX18" s="62"/>
+      <c r="NY18" s="62"/>
+      <c r="NZ18" s="62"/>
       <c r="AMJ18" s="13"/>
     </row>
     <row r="19" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12507,7 +15769,179 @@
       <c r="HK19" s="66" t="n">
         <v>91403301</v>
       </c>
-      <c r="HL19" s="66"/>
+      <c r="HL19" s="66" t="n">
+        <v>91317155</v>
+      </c>
+      <c r="HM19" s="66"/>
+      <c r="HN19" s="66"/>
+      <c r="HO19" s="66"/>
+      <c r="HP19" s="66"/>
+      <c r="HQ19" s="66"/>
+      <c r="HR19" s="66"/>
+      <c r="HS19" s="66"/>
+      <c r="HT19" s="66"/>
+      <c r="HU19" s="66"/>
+      <c r="HV19" s="66"/>
+      <c r="HW19" s="66"/>
+      <c r="HX19" s="66"/>
+      <c r="HY19" s="66"/>
+      <c r="HZ19" s="66"/>
+      <c r="IA19" s="66"/>
+      <c r="IB19" s="66"/>
+      <c r="IC19" s="66"/>
+      <c r="ID19" s="66"/>
+      <c r="IE19" s="66"/>
+      <c r="IF19" s="66"/>
+      <c r="IG19" s="66"/>
+      <c r="IH19" s="66"/>
+      <c r="II19" s="66"/>
+      <c r="IJ19" s="66"/>
+      <c r="IK19" s="66"/>
+      <c r="IL19" s="66"/>
+      <c r="IM19" s="66"/>
+      <c r="IN19" s="66"/>
+      <c r="IO19" s="66"/>
+      <c r="IP19" s="66"/>
+      <c r="IQ19" s="66"/>
+      <c r="IR19" s="66"/>
+      <c r="IS19" s="66"/>
+      <c r="IT19" s="66"/>
+      <c r="IU19" s="66"/>
+      <c r="IV19" s="66"/>
+      <c r="IW19" s="66"/>
+      <c r="IX19" s="66"/>
+      <c r="IY19" s="66"/>
+      <c r="IZ19" s="66"/>
+      <c r="JA19" s="66"/>
+      <c r="JB19" s="66"/>
+      <c r="JC19" s="66"/>
+      <c r="JD19" s="66"/>
+      <c r="JE19" s="66"/>
+      <c r="JF19" s="66"/>
+      <c r="JG19" s="66"/>
+      <c r="JH19" s="66"/>
+      <c r="JI19" s="66"/>
+      <c r="JJ19" s="66"/>
+      <c r="JK19" s="66"/>
+      <c r="JL19" s="66"/>
+      <c r="JM19" s="66"/>
+      <c r="JN19" s="66"/>
+      <c r="JO19" s="66"/>
+      <c r="JP19" s="66"/>
+      <c r="JQ19" s="66"/>
+      <c r="JR19" s="66"/>
+      <c r="JS19" s="66"/>
+      <c r="JT19" s="66"/>
+      <c r="JU19" s="66"/>
+      <c r="JV19" s="66"/>
+      <c r="JW19" s="66"/>
+      <c r="JX19" s="66"/>
+      <c r="JY19" s="66"/>
+      <c r="JZ19" s="66"/>
+      <c r="KA19" s="66"/>
+      <c r="KB19" s="66"/>
+      <c r="KC19" s="66"/>
+      <c r="KD19" s="66"/>
+      <c r="KE19" s="66"/>
+      <c r="KF19" s="66"/>
+      <c r="KG19" s="66"/>
+      <c r="KH19" s="66"/>
+      <c r="KI19" s="66"/>
+      <c r="KJ19" s="66"/>
+      <c r="KK19" s="66"/>
+      <c r="KL19" s="66"/>
+      <c r="KM19" s="66"/>
+      <c r="KN19" s="66"/>
+      <c r="KO19" s="66"/>
+      <c r="KP19" s="66"/>
+      <c r="KQ19" s="66"/>
+      <c r="KR19" s="66"/>
+      <c r="KS19" s="66"/>
+      <c r="KT19" s="66"/>
+      <c r="KU19" s="66"/>
+      <c r="KV19" s="66"/>
+      <c r="KW19" s="66"/>
+      <c r="KX19" s="66"/>
+      <c r="KY19" s="66"/>
+      <c r="KZ19" s="66"/>
+      <c r="LA19" s="66"/>
+      <c r="LB19" s="66"/>
+      <c r="LC19" s="66"/>
+      <c r="LD19" s="66"/>
+      <c r="LE19" s="66"/>
+      <c r="LF19" s="66"/>
+      <c r="LG19" s="66"/>
+      <c r="LH19" s="66"/>
+      <c r="LI19" s="66"/>
+      <c r="LJ19" s="66"/>
+      <c r="LK19" s="66"/>
+      <c r="LL19" s="66"/>
+      <c r="LM19" s="66"/>
+      <c r="LN19" s="66"/>
+      <c r="LO19" s="66"/>
+      <c r="LP19" s="66"/>
+      <c r="LQ19" s="66"/>
+      <c r="LR19" s="66"/>
+      <c r="LS19" s="66"/>
+      <c r="LT19" s="66"/>
+      <c r="LU19" s="66"/>
+      <c r="LV19" s="66"/>
+      <c r="LW19" s="66"/>
+      <c r="LX19" s="66"/>
+      <c r="LY19" s="66"/>
+      <c r="LZ19" s="66"/>
+      <c r="MA19" s="66"/>
+      <c r="MB19" s="66"/>
+      <c r="MC19" s="66"/>
+      <c r="MD19" s="66"/>
+      <c r="ME19" s="66"/>
+      <c r="MF19" s="66"/>
+      <c r="MG19" s="66"/>
+      <c r="MH19" s="66"/>
+      <c r="MI19" s="66"/>
+      <c r="MJ19" s="66"/>
+      <c r="MK19" s="66"/>
+      <c r="ML19" s="66"/>
+      <c r="MM19" s="66"/>
+      <c r="MN19" s="66"/>
+      <c r="MO19" s="66"/>
+      <c r="MP19" s="66"/>
+      <c r="MQ19" s="66"/>
+      <c r="MR19" s="66"/>
+      <c r="MS19" s="66"/>
+      <c r="MT19" s="66"/>
+      <c r="MU19" s="66"/>
+      <c r="MV19" s="66"/>
+      <c r="MW19" s="66"/>
+      <c r="MX19" s="66"/>
+      <c r="MY19" s="66"/>
+      <c r="MZ19" s="66"/>
+      <c r="NA19" s="66"/>
+      <c r="NB19" s="66"/>
+      <c r="NC19" s="66"/>
+      <c r="ND19" s="66"/>
+      <c r="NE19" s="66"/>
+      <c r="NF19" s="66"/>
+      <c r="NG19" s="66"/>
+      <c r="NH19" s="66"/>
+      <c r="NI19" s="66"/>
+      <c r="NJ19" s="66"/>
+      <c r="NK19" s="66"/>
+      <c r="NL19" s="66"/>
+      <c r="NM19" s="66"/>
+      <c r="NN19" s="66"/>
+      <c r="NO19" s="66"/>
+      <c r="NP19" s="66"/>
+      <c r="NQ19" s="66"/>
+      <c r="NR19" s="66"/>
+      <c r="NS19" s="66"/>
+      <c r="NT19" s="66"/>
+      <c r="NU19" s="66"/>
+      <c r="NV19" s="66"/>
+      <c r="NW19" s="66"/>
+      <c r="NX19" s="66"/>
+      <c r="NY19" s="66"/>
+      <c r="NZ19" s="66"/>
       <c r="AMJ19" s="9"/>
     </row>
     <row r="20" s="12" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13164,7 +16598,179 @@
       <c r="HK20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="HL20" s="69"/>
+      <c r="HL20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="HM20" s="69"/>
+      <c r="HN20" s="69"/>
+      <c r="HO20" s="69"/>
+      <c r="HP20" s="69"/>
+      <c r="HQ20" s="69"/>
+      <c r="HR20" s="69"/>
+      <c r="HS20" s="69"/>
+      <c r="HT20" s="69"/>
+      <c r="HU20" s="69"/>
+      <c r="HV20" s="69"/>
+      <c r="HW20" s="69"/>
+      <c r="HX20" s="69"/>
+      <c r="HY20" s="69"/>
+      <c r="HZ20" s="69"/>
+      <c r="IA20" s="69"/>
+      <c r="IB20" s="69"/>
+      <c r="IC20" s="69"/>
+      <c r="ID20" s="69"/>
+      <c r="IE20" s="69"/>
+      <c r="IF20" s="69"/>
+      <c r="IG20" s="69"/>
+      <c r="IH20" s="69"/>
+      <c r="II20" s="69"/>
+      <c r="IJ20" s="69"/>
+      <c r="IK20" s="69"/>
+      <c r="IL20" s="69"/>
+      <c r="IM20" s="69"/>
+      <c r="IN20" s="69"/>
+      <c r="IO20" s="69"/>
+      <c r="IP20" s="69"/>
+      <c r="IQ20" s="69"/>
+      <c r="IR20" s="69"/>
+      <c r="IS20" s="69"/>
+      <c r="IT20" s="69"/>
+      <c r="IU20" s="69"/>
+      <c r="IV20" s="69"/>
+      <c r="IW20" s="69"/>
+      <c r="IX20" s="69"/>
+      <c r="IY20" s="69"/>
+      <c r="IZ20" s="69"/>
+      <c r="JA20" s="69"/>
+      <c r="JB20" s="69"/>
+      <c r="JC20" s="69"/>
+      <c r="JD20" s="69"/>
+      <c r="JE20" s="69"/>
+      <c r="JF20" s="69"/>
+      <c r="JG20" s="69"/>
+      <c r="JH20" s="69"/>
+      <c r="JI20" s="69"/>
+      <c r="JJ20" s="69"/>
+      <c r="JK20" s="69"/>
+      <c r="JL20" s="69"/>
+      <c r="JM20" s="69"/>
+      <c r="JN20" s="69"/>
+      <c r="JO20" s="69"/>
+      <c r="JP20" s="69"/>
+      <c r="JQ20" s="69"/>
+      <c r="JR20" s="69"/>
+      <c r="JS20" s="69"/>
+      <c r="JT20" s="69"/>
+      <c r="JU20" s="69"/>
+      <c r="JV20" s="69"/>
+      <c r="JW20" s="69"/>
+      <c r="JX20" s="69"/>
+      <c r="JY20" s="69"/>
+      <c r="JZ20" s="69"/>
+      <c r="KA20" s="69"/>
+      <c r="KB20" s="69"/>
+      <c r="KC20" s="69"/>
+      <c r="KD20" s="69"/>
+      <c r="KE20" s="69"/>
+      <c r="KF20" s="69"/>
+      <c r="KG20" s="69"/>
+      <c r="KH20" s="69"/>
+      <c r="KI20" s="69"/>
+      <c r="KJ20" s="69"/>
+      <c r="KK20" s="69"/>
+      <c r="KL20" s="69"/>
+      <c r="KM20" s="69"/>
+      <c r="KN20" s="69"/>
+      <c r="KO20" s="69"/>
+      <c r="KP20" s="69"/>
+      <c r="KQ20" s="69"/>
+      <c r="KR20" s="69"/>
+      <c r="KS20" s="69"/>
+      <c r="KT20" s="69"/>
+      <c r="KU20" s="69"/>
+      <c r="KV20" s="69"/>
+      <c r="KW20" s="69"/>
+      <c r="KX20" s="69"/>
+      <c r="KY20" s="69"/>
+      <c r="KZ20" s="69"/>
+      <c r="LA20" s="69"/>
+      <c r="LB20" s="69"/>
+      <c r="LC20" s="69"/>
+      <c r="LD20" s="69"/>
+      <c r="LE20" s="69"/>
+      <c r="LF20" s="69"/>
+      <c r="LG20" s="69"/>
+      <c r="LH20" s="69"/>
+      <c r="LI20" s="69"/>
+      <c r="LJ20" s="69"/>
+      <c r="LK20" s="69"/>
+      <c r="LL20" s="69"/>
+      <c r="LM20" s="69"/>
+      <c r="LN20" s="69"/>
+      <c r="LO20" s="69"/>
+      <c r="LP20" s="69"/>
+      <c r="LQ20" s="69"/>
+      <c r="LR20" s="69"/>
+      <c r="LS20" s="69"/>
+      <c r="LT20" s="69"/>
+      <c r="LU20" s="69"/>
+      <c r="LV20" s="69"/>
+      <c r="LW20" s="69"/>
+      <c r="LX20" s="69"/>
+      <c r="LY20" s="69"/>
+      <c r="LZ20" s="69"/>
+      <c r="MA20" s="69"/>
+      <c r="MB20" s="69"/>
+      <c r="MC20" s="69"/>
+      <c r="MD20" s="69"/>
+      <c r="ME20" s="69"/>
+      <c r="MF20" s="69"/>
+      <c r="MG20" s="69"/>
+      <c r="MH20" s="69"/>
+      <c r="MI20" s="69"/>
+      <c r="MJ20" s="69"/>
+      <c r="MK20" s="69"/>
+      <c r="ML20" s="69"/>
+      <c r="MM20" s="69"/>
+      <c r="MN20" s="69"/>
+      <c r="MO20" s="69"/>
+      <c r="MP20" s="69"/>
+      <c r="MQ20" s="69"/>
+      <c r="MR20" s="69"/>
+      <c r="MS20" s="69"/>
+      <c r="MT20" s="69"/>
+      <c r="MU20" s="69"/>
+      <c r="MV20" s="69"/>
+      <c r="MW20" s="69"/>
+      <c r="MX20" s="69"/>
+      <c r="MY20" s="69"/>
+      <c r="MZ20" s="69"/>
+      <c r="NA20" s="69"/>
+      <c r="NB20" s="69"/>
+      <c r="NC20" s="69"/>
+      <c r="ND20" s="69"/>
+      <c r="NE20" s="69"/>
+      <c r="NF20" s="69"/>
+      <c r="NG20" s="69"/>
+      <c r="NH20" s="69"/>
+      <c r="NI20" s="69"/>
+      <c r="NJ20" s="69"/>
+      <c r="NK20" s="69"/>
+      <c r="NL20" s="69"/>
+      <c r="NM20" s="69"/>
+      <c r="NN20" s="69"/>
+      <c r="NO20" s="69"/>
+      <c r="NP20" s="69"/>
+      <c r="NQ20" s="69"/>
+      <c r="NR20" s="69"/>
+      <c r="NS20" s="69"/>
+      <c r="NT20" s="69"/>
+      <c r="NU20" s="69"/>
+      <c r="NV20" s="69"/>
+      <c r="NW20" s="69"/>
+      <c r="NX20" s="69"/>
+      <c r="NY20" s="69"/>
+      <c r="NZ20" s="69"/>
       <c r="AMJ20" s="13"/>
     </row>
     <row r="23" s="71" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14035,7 +17641,11 @@
       </c>
       <c r="HK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HK2)&amp;", ""month"": "&amp;MONTH(HK2)&amp;", ""day"": "&amp;DAY(HK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HK3&amp;", ""memberCount"": "&amp;HK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HK5&amp;", ""memberCount"": "&amp;HK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HK7&amp;", ""memberCount"": "&amp;HK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HK9&amp;", ""memberCount"": "&amp;HK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HK11&amp;", ""memberCount"": "&amp;HK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HK13&amp;", ""memberCount"": "&amp;HK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HK15&amp;", ""memberCount"": "&amp;HK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HK17&amp;", ""memberCount"": "&amp;HK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HK19&amp;", ""memberCount"": "&amp;HK20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 205228437, "memberCount": 198}, {"name": "Smile", "contribution": 177275685, "memberCount": 196}, {"name": "Elite", "contribution": 169547128, "memberCount": 198}, {"name": "Savages", "contribution": 158612124, "memberCount": 198}, {"name": "Spring", "contribution": 134641458, "memberCount": 195}, {"name": "Bounce", "contribution": 137135830, "memberCount": 199}, {"name": "Sunset", "contribution": 125770582, "memberCount": 196}, {"name": "Beaters", "contribution": 95072217, "memberCount": 176}, {"name": "Downtime", "contribution": 91403301, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 205228437, "memberCount": 198}, {"name": "Smile", "contribution": 177275685, "memberCount": 196}, {"name": "Elite", "contribution": 169547128, "memberCount": 198}, {"name": "Savages", "contribution": 158612124, "memberCount": 198}, {"name": "Spring", "contribution": 134641458, "memberCount": 195}, {"name": "Bounce", "contribution": 137135830, "memberCount": 199}, {"name": "Sunset", "contribution": 125770582, "memberCount": 196}, {"name": "Beaters", "contribution": 95072217, "memberCount": 176}, {"name": "Downtime", "contribution": 91403301, "memberCount": 196}]}</v>
+      </c>
+      <c r="HL23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HL2)&amp;", ""month"": "&amp;MONTH(HL2)&amp;", ""day"": "&amp;DAY(HL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HL3&amp;", ""memberCount"": "&amp;HL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HL5&amp;", ""memberCount"": "&amp;HL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HL7&amp;", ""memberCount"": "&amp;HL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HL9&amp;", ""memberCount"": "&amp;HL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HL11&amp;", ""memberCount"": "&amp;HL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HL13&amp;", ""memberCount"": "&amp;HL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HL15&amp;", ""memberCount"": "&amp;HL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HL17&amp;", ""memberCount"": "&amp;HL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HL19&amp;", ""memberCount"": "&amp;HL20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 205350637, "memberCount": 199}, {"name": "Smile", "contribution": 177519249, "memberCount": 198}, {"name": "Elite", "contribution": 169705521, "memberCount": 198}, {"name": "Savages", "contribution": 158755150, "memberCount": 200}, {"name": "Spring", "contribution": 134707056, "memberCount": 195}, {"name": "Bounce", "contribution": 137339486, "memberCount": 199}, {"name": "Sunset", "contribution": 125817874, "memberCount": 196}, {"name": "Beaters", "contribution": 94618393, "memberCount": 177}, {"name": "Downtime", "contribution": 91317155, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="HK1" activeCellId="0" sqref="HK1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HL23" activeCellId="0" sqref="HL23"/>
+      <selection pane="bottomRight" activeCell="HM23" activeCellId="0" sqref="HM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2492,7 +2492,9 @@
       <c r="HL3" s="7" t="n">
         <v>205350637</v>
       </c>
-      <c r="HM3" s="7"/>
+      <c r="HM3" s="7" t="n">
+        <v>205592791</v>
+      </c>
       <c r="HN3" s="7"/>
       <c r="HO3" s="7"/>
       <c r="HP3" s="7"/>
@@ -3321,7 +3323,9 @@
       <c r="HL4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HM4" s="11"/>
+      <c r="HM4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HN4" s="11"/>
       <c r="HO4" s="11"/>
       <c r="HP4" s="11"/>
@@ -4152,7 +4156,9 @@
       <c r="HL5" s="17" t="n">
         <v>177519249</v>
       </c>
-      <c r="HM5" s="17"/>
+      <c r="HM5" s="17" t="n">
+        <v>177760095</v>
+      </c>
       <c r="HN5" s="17"/>
       <c r="HO5" s="17"/>
       <c r="HP5" s="17"/>
@@ -4981,7 +4987,9 @@
       <c r="HL6" s="20" t="n">
         <v>198</v>
       </c>
-      <c r="HM6" s="20"/>
+      <c r="HM6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="HN6" s="20"/>
       <c r="HO6" s="20"/>
       <c r="HP6" s="20"/>
@@ -5812,7 +5820,9 @@
       <c r="HL7" s="24" t="n">
         <v>169705521</v>
       </c>
-      <c r="HM7" s="24"/>
+      <c r="HM7" s="24" t="n">
+        <v>169932373</v>
+      </c>
       <c r="HN7" s="24"/>
       <c r="HO7" s="24"/>
       <c r="HP7" s="24"/>
@@ -6641,7 +6651,9 @@
       <c r="HL8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HM8" s="27"/>
+      <c r="HM8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="HN8" s="27"/>
       <c r="HO8" s="27"/>
       <c r="HP8" s="27"/>
@@ -7472,7 +7484,9 @@
       <c r="HL9" s="31" t="n">
         <v>158755150</v>
       </c>
-      <c r="HM9" s="31"/>
+      <c r="HM9" s="31" t="n">
+        <v>159057528</v>
+      </c>
       <c r="HN9" s="31"/>
       <c r="HO9" s="31"/>
       <c r="HP9" s="31"/>
@@ -8301,7 +8315,9 @@
       <c r="HL10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HM10" s="34"/>
+      <c r="HM10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HN10" s="34"/>
       <c r="HO10" s="34"/>
       <c r="HP10" s="34"/>
@@ -9132,7 +9148,9 @@
       <c r="HL11" s="38" t="n">
         <v>134707056</v>
       </c>
-      <c r="HM11" s="38"/>
+      <c r="HM11" s="38" t="n">
+        <v>134806246</v>
+      </c>
       <c r="HN11" s="38"/>
       <c r="HO11" s="38"/>
       <c r="HP11" s="38"/>
@@ -9961,7 +9979,9 @@
       <c r="HL12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HM12" s="41"/>
+      <c r="HM12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HN12" s="41"/>
       <c r="HO12" s="41"/>
       <c r="HP12" s="41"/>
@@ -10792,7 +10812,9 @@
       <c r="HL13" s="45" t="n">
         <v>137339486</v>
       </c>
-      <c r="HM13" s="45"/>
+      <c r="HM13" s="45" t="n">
+        <v>137609828</v>
+      </c>
       <c r="HN13" s="45"/>
       <c r="HO13" s="45"/>
       <c r="HP13" s="45"/>
@@ -11621,7 +11643,9 @@
       <c r="HL14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HM14" s="48"/>
+      <c r="HM14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HN14" s="48"/>
       <c r="HO14" s="48"/>
       <c r="HP14" s="48"/>
@@ -12452,7 +12476,9 @@
       <c r="HL15" s="52" t="n">
         <v>125817874</v>
       </c>
-      <c r="HM15" s="52"/>
+      <c r="HM15" s="52" t="n">
+        <v>125885009</v>
+      </c>
       <c r="HN15" s="52"/>
       <c r="HO15" s="52"/>
       <c r="HP15" s="52"/>
@@ -13281,7 +13307,9 @@
       <c r="HL16" s="55" t="n">
         <v>196</v>
       </c>
-      <c r="HM16" s="55"/>
+      <c r="HM16" s="55" t="n">
+        <v>196</v>
+      </c>
       <c r="HN16" s="55"/>
       <c r="HO16" s="55"/>
       <c r="HP16" s="55"/>
@@ -14112,7 +14140,9 @@
       <c r="HL17" s="59" t="n">
         <v>94618393</v>
       </c>
-      <c r="HM17" s="59"/>
+      <c r="HM17" s="59" t="n">
+        <v>94669809</v>
+      </c>
       <c r="HN17" s="59"/>
       <c r="HO17" s="59"/>
       <c r="HP17" s="59"/>
@@ -14941,7 +14971,9 @@
       <c r="HL18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="HM18" s="62"/>
+      <c r="HM18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="HN18" s="62"/>
       <c r="HO18" s="62"/>
       <c r="HP18" s="62"/>
@@ -15772,7 +15804,9 @@
       <c r="HL19" s="66" t="n">
         <v>91317155</v>
       </c>
-      <c r="HM19" s="66"/>
+      <c r="HM19" s="66" t="n">
+        <v>91439933</v>
+      </c>
       <c r="HN19" s="66"/>
       <c r="HO19" s="66"/>
       <c r="HP19" s="66"/>
@@ -16601,7 +16635,9 @@
       <c r="HL20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="HM20" s="69"/>
+      <c r="HM20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="HN20" s="69"/>
       <c r="HO20" s="69"/>
       <c r="HP20" s="69"/>
@@ -17645,7 +17681,11 @@
       </c>
       <c r="HL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HL2)&amp;", ""month"": "&amp;MONTH(HL2)&amp;", ""day"": "&amp;DAY(HL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HL3&amp;", ""memberCount"": "&amp;HL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HL5&amp;", ""memberCount"": "&amp;HL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HL7&amp;", ""memberCount"": "&amp;HL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HL9&amp;", ""memberCount"": "&amp;HL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HL11&amp;", ""memberCount"": "&amp;HL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HL13&amp;", ""memberCount"": "&amp;HL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HL15&amp;", ""memberCount"": "&amp;HL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HL17&amp;", ""memberCount"": "&amp;HL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HL19&amp;", ""memberCount"": "&amp;HL20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 205350637, "memberCount": 199}, {"name": "Smile", "contribution": 177519249, "memberCount": 198}, {"name": "Elite", "contribution": 169705521, "memberCount": 198}, {"name": "Savages", "contribution": 158755150, "memberCount": 200}, {"name": "Spring", "contribution": 134707056, "memberCount": 195}, {"name": "Bounce", "contribution": 137339486, "memberCount": 199}, {"name": "Sunset", "contribution": 125817874, "memberCount": 196}, {"name": "Beaters", "contribution": 94618393, "memberCount": 177}, {"name": "Downtime", "contribution": 91317155, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 205350637, "memberCount": 199}, {"name": "Smile", "contribution": 177519249, "memberCount": 198}, {"name": "Elite", "contribution": 169705521, "memberCount": 198}, {"name": "Savages", "contribution": 158755150, "memberCount": 200}, {"name": "Spring", "contribution": 134707056, "memberCount": 195}, {"name": "Bounce", "contribution": 137339486, "memberCount": 199}, {"name": "Sunset", "contribution": 125817874, "memberCount": 196}, {"name": "Beaters", "contribution": 94618393, "memberCount": 177}, {"name": "Downtime", "contribution": 91317155, "memberCount": 196}]}</v>
+      </c>
+      <c r="HM23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HM2)&amp;", ""month"": "&amp;MONTH(HM2)&amp;", ""day"": "&amp;DAY(HM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HM3&amp;", ""memberCount"": "&amp;HM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HM5&amp;", ""memberCount"": "&amp;HM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HM7&amp;", ""memberCount"": "&amp;HM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HM9&amp;", ""memberCount"": "&amp;HM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HM11&amp;", ""memberCount"": "&amp;HM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HM13&amp;", ""memberCount"": "&amp;HM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HM15&amp;", ""memberCount"": "&amp;HM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HM17&amp;", ""memberCount"": "&amp;HM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HM19&amp;", ""memberCount"": "&amp;HM20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 205592791, "memberCount": 199}, {"name": "Smile", "contribution": 177760095, "memberCount": 199}, {"name": "Elite", "contribution": 169932373, "memberCount": 198}, {"name": "Savages", "contribution": 159057528, "memberCount": 199}, {"name": "Spring", "contribution": 134806246, "memberCount": 195}, {"name": "Bounce", "contribution": 137609828, "memberCount": 199}, {"name": "Sunset", "contribution": 125885009, "memberCount": 196}, {"name": "Beaters", "contribution": 94669809, "memberCount": 177}, {"name": "Downtime", "contribution": 91439933, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HK1" activeCellId="0" sqref="HK1"/>
+      <selection pane="topRight" activeCell="HM1" activeCellId="0" sqref="HM1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HM23" activeCellId="0" sqref="HM23"/>
+      <selection pane="bottomRight" activeCell="HO3" activeCellId="0" sqref="HO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2495,7 +2495,9 @@
       <c r="HM3" s="7" t="n">
         <v>205592791</v>
       </c>
-      <c r="HN3" s="7"/>
+      <c r="HN3" s="7" t="n">
+        <v>205799396</v>
+      </c>
       <c r="HO3" s="7"/>
       <c r="HP3" s="7"/>
       <c r="HQ3" s="7"/>
@@ -3326,7 +3328,9 @@
       <c r="HM4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HN4" s="11"/>
+      <c r="HN4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HO4" s="11"/>
       <c r="HP4" s="11"/>
       <c r="HQ4" s="11"/>
@@ -4159,7 +4163,9 @@
       <c r="HM5" s="17" t="n">
         <v>177760095</v>
       </c>
-      <c r="HN5" s="17"/>
+      <c r="HN5" s="17" t="n">
+        <v>177925916</v>
+      </c>
       <c r="HO5" s="17"/>
       <c r="HP5" s="17"/>
       <c r="HQ5" s="17"/>
@@ -4990,7 +4996,9 @@
       <c r="HM6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="HN6" s="20"/>
+      <c r="HN6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="HO6" s="20"/>
       <c r="HP6" s="20"/>
       <c r="HQ6" s="20"/>
@@ -5823,7 +5831,9 @@
       <c r="HM7" s="24" t="n">
         <v>169932373</v>
       </c>
-      <c r="HN7" s="24"/>
+      <c r="HN7" s="24" t="n">
+        <v>169966825</v>
+      </c>
       <c r="HO7" s="24"/>
       <c r="HP7" s="24"/>
       <c r="HQ7" s="24"/>
@@ -6654,7 +6664,9 @@
       <c r="HM8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HN8" s="27"/>
+      <c r="HN8" s="27" t="n">
+        <v>197</v>
+      </c>
       <c r="HO8" s="27"/>
       <c r="HP8" s="27"/>
       <c r="HQ8" s="27"/>
@@ -7487,7 +7499,9 @@
       <c r="HM9" s="31" t="n">
         <v>159057528</v>
       </c>
-      <c r="HN9" s="31"/>
+      <c r="HN9" s="31" t="n">
+        <v>159280964</v>
+      </c>
       <c r="HO9" s="31"/>
       <c r="HP9" s="31"/>
       <c r="HQ9" s="31"/>
@@ -8318,7 +8332,9 @@
       <c r="HM10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HN10" s="34"/>
+      <c r="HN10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HO10" s="34"/>
       <c r="HP10" s="34"/>
       <c r="HQ10" s="34"/>
@@ -9151,7 +9167,9 @@
       <c r="HM11" s="38" t="n">
         <v>134806246</v>
       </c>
-      <c r="HN11" s="38"/>
+      <c r="HN11" s="38" t="n">
+        <v>134911458</v>
+      </c>
       <c r="HO11" s="38"/>
       <c r="HP11" s="38"/>
       <c r="HQ11" s="38"/>
@@ -9982,7 +10000,9 @@
       <c r="HM12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HN12" s="41"/>
+      <c r="HN12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HO12" s="41"/>
       <c r="HP12" s="41"/>
       <c r="HQ12" s="41"/>
@@ -10815,7 +10835,9 @@
       <c r="HM13" s="45" t="n">
         <v>137609828</v>
       </c>
-      <c r="HN13" s="45"/>
+      <c r="HN13" s="45" t="n">
+        <v>137926981</v>
+      </c>
       <c r="HO13" s="45"/>
       <c r="HP13" s="45"/>
       <c r="HQ13" s="45"/>
@@ -11646,7 +11668,9 @@
       <c r="HM14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HN14" s="48"/>
+      <c r="HN14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HO14" s="48"/>
       <c r="HP14" s="48"/>
       <c r="HQ14" s="48"/>
@@ -12479,7 +12503,9 @@
       <c r="HM15" s="52" t="n">
         <v>125885009</v>
       </c>
-      <c r="HN15" s="52"/>
+      <c r="HN15" s="52" t="n">
+        <v>125975180</v>
+      </c>
       <c r="HO15" s="52"/>
       <c r="HP15" s="52"/>
       <c r="HQ15" s="52"/>
@@ -13310,7 +13336,9 @@
       <c r="HM16" s="55" t="n">
         <v>196</v>
       </c>
-      <c r="HN16" s="55"/>
+      <c r="HN16" s="55" t="n">
+        <v>198</v>
+      </c>
       <c r="HO16" s="55"/>
       <c r="HP16" s="55"/>
       <c r="HQ16" s="55"/>
@@ -14143,7 +14171,9 @@
       <c r="HM17" s="59" t="n">
         <v>94669809</v>
       </c>
-      <c r="HN17" s="59"/>
+      <c r="HN17" s="59" t="n">
+        <v>94692892</v>
+      </c>
       <c r="HO17" s="59"/>
       <c r="HP17" s="59"/>
       <c r="HQ17" s="59"/>
@@ -14974,7 +15004,9 @@
       <c r="HM18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="HN18" s="62"/>
+      <c r="HN18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="HO18" s="62"/>
       <c r="HP18" s="62"/>
       <c r="HQ18" s="62"/>
@@ -15807,7 +15839,9 @@
       <c r="HM19" s="66" t="n">
         <v>91439933</v>
       </c>
-      <c r="HN19" s="66"/>
+      <c r="HN19" s="66" t="n">
+        <v>91589804</v>
+      </c>
       <c r="HO19" s="66"/>
       <c r="HP19" s="66"/>
       <c r="HQ19" s="66"/>
@@ -16638,7 +16672,9 @@
       <c r="HM20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="HN20" s="69"/>
+      <c r="HN20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="HO20" s="69"/>
       <c r="HP20" s="69"/>
       <c r="HQ20" s="69"/>
@@ -17685,7 +17721,11 @@
       </c>
       <c r="HM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HM2)&amp;", ""month"": "&amp;MONTH(HM2)&amp;", ""day"": "&amp;DAY(HM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HM3&amp;", ""memberCount"": "&amp;HM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HM5&amp;", ""memberCount"": "&amp;HM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HM7&amp;", ""memberCount"": "&amp;HM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HM9&amp;", ""memberCount"": "&amp;HM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HM11&amp;", ""memberCount"": "&amp;HM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HM13&amp;", ""memberCount"": "&amp;HM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HM15&amp;", ""memberCount"": "&amp;HM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HM17&amp;", ""memberCount"": "&amp;HM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HM19&amp;", ""memberCount"": "&amp;HM20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 205592791, "memberCount": 199}, {"name": "Smile", "contribution": 177760095, "memberCount": 199}, {"name": "Elite", "contribution": 169932373, "memberCount": 198}, {"name": "Savages", "contribution": 159057528, "memberCount": 199}, {"name": "Spring", "contribution": 134806246, "memberCount": 195}, {"name": "Bounce", "contribution": 137609828, "memberCount": 199}, {"name": "Sunset", "contribution": 125885009, "memberCount": 196}, {"name": "Beaters", "contribution": 94669809, "memberCount": 177}, {"name": "Downtime", "contribution": 91439933, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 205592791, "memberCount": 199}, {"name": "Smile", "contribution": 177760095, "memberCount": 199}, {"name": "Elite", "contribution": 169932373, "memberCount": 198}, {"name": "Savages", "contribution": 159057528, "memberCount": 199}, {"name": "Spring", "contribution": 134806246, "memberCount": 195}, {"name": "Bounce", "contribution": 137609828, "memberCount": 199}, {"name": "Sunset", "contribution": 125885009, "memberCount": 196}, {"name": "Beaters", "contribution": 94669809, "memberCount": 177}, {"name": "Downtime", "contribution": 91439933, "memberCount": 196}]}</v>
+      </c>
+      <c r="HN23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HN2)&amp;", ""month"": "&amp;MONTH(HN2)&amp;", ""day"": "&amp;DAY(HN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HN3&amp;", ""memberCount"": "&amp;HN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HN5&amp;", ""memberCount"": "&amp;HN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HN7&amp;", ""memberCount"": "&amp;HN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HN9&amp;", ""memberCount"": "&amp;HN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HN11&amp;", ""memberCount"": "&amp;HN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HN13&amp;", ""memberCount"": "&amp;HN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HN15&amp;", ""memberCount"": "&amp;HN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HN17&amp;", ""memberCount"": "&amp;HN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HN19&amp;", ""memberCount"": "&amp;HN20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 205799396, "memberCount": 199}, {"name": "Smile", "contribution": 177925916, "memberCount": 199}, {"name": "Elite", "contribution": 169966825, "memberCount": 197}, {"name": "Savages", "contribution": 159280964, "memberCount": 199}, {"name": "Spring", "contribution": 134911458, "memberCount": 195}, {"name": "Bounce", "contribution": 137926981, "memberCount": 199}, {"name": "Sunset", "contribution": 125975180, "memberCount": 198}, {"name": "Beaters", "contribution": 94692892, "memberCount": 177}, {"name": "Downtime", "contribution": 91589804, "memberCount": 195}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="HM1" activeCellId="0" sqref="HM1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HO3" activeCellId="0" sqref="HO3"/>
+      <selection pane="bottomRight" activeCell="HO23" activeCellId="0" sqref="HO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2498,7 +2498,9 @@
       <c r="HN3" s="7" t="n">
         <v>205799396</v>
       </c>
-      <c r="HO3" s="7"/>
+      <c r="HO3" s="7" t="n">
+        <v>205936121</v>
+      </c>
       <c r="HP3" s="7"/>
       <c r="HQ3" s="7"/>
       <c r="HR3" s="7"/>
@@ -3331,7 +3333,9 @@
       <c r="HN4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HO4" s="11"/>
+      <c r="HO4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HP4" s="11"/>
       <c r="HQ4" s="11"/>
       <c r="HR4" s="11"/>
@@ -4166,7 +4170,9 @@
       <c r="HN5" s="17" t="n">
         <v>177925916</v>
       </c>
-      <c r="HO5" s="17"/>
+      <c r="HO5" s="17" t="n">
+        <v>178103857</v>
+      </c>
       <c r="HP5" s="17"/>
       <c r="HQ5" s="17"/>
       <c r="HR5" s="17"/>
@@ -4999,7 +5005,9 @@
       <c r="HN6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="HO6" s="20"/>
+      <c r="HO6" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="HP6" s="20"/>
       <c r="HQ6" s="20"/>
       <c r="HR6" s="20"/>
@@ -5834,7 +5842,9 @@
       <c r="HN7" s="24" t="n">
         <v>169966825</v>
       </c>
-      <c r="HO7" s="24"/>
+      <c r="HO7" s="24" t="n">
+        <v>170198998</v>
+      </c>
       <c r="HP7" s="24"/>
       <c r="HQ7" s="24"/>
       <c r="HR7" s="24"/>
@@ -6667,7 +6677,9 @@
       <c r="HN8" s="27" t="n">
         <v>197</v>
       </c>
-      <c r="HO8" s="27"/>
+      <c r="HO8" s="27" t="n">
+        <v>197</v>
+      </c>
       <c r="HP8" s="27"/>
       <c r="HQ8" s="27"/>
       <c r="HR8" s="27"/>
@@ -7502,7 +7514,9 @@
       <c r="HN9" s="31" t="n">
         <v>159280964</v>
       </c>
-      <c r="HO9" s="31"/>
+      <c r="HO9" s="31" t="n">
+        <v>159492120</v>
+      </c>
       <c r="HP9" s="31"/>
       <c r="HQ9" s="31"/>
       <c r="HR9" s="31"/>
@@ -8335,7 +8349,9 @@
       <c r="HN10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HO10" s="34"/>
+      <c r="HO10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="HP10" s="34"/>
       <c r="HQ10" s="34"/>
       <c r="HR10" s="34"/>
@@ -9170,7 +9186,9 @@
       <c r="HN11" s="38" t="n">
         <v>134911458</v>
       </c>
-      <c r="HO11" s="38"/>
+      <c r="HO11" s="38" t="n">
+        <v>135038421</v>
+      </c>
       <c r="HP11" s="38"/>
       <c r="HQ11" s="38"/>
       <c r="HR11" s="38"/>
@@ -10003,7 +10021,9 @@
       <c r="HN12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HO12" s="41"/>
+      <c r="HO12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HP12" s="41"/>
       <c r="HQ12" s="41"/>
       <c r="HR12" s="41"/>
@@ -10838,7 +10858,9 @@
       <c r="HN13" s="45" t="n">
         <v>137926981</v>
       </c>
-      <c r="HO13" s="45"/>
+      <c r="HO13" s="45" t="n">
+        <v>138237186</v>
+      </c>
       <c r="HP13" s="45"/>
       <c r="HQ13" s="45"/>
       <c r="HR13" s="45"/>
@@ -11671,7 +11693,9 @@
       <c r="HN14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HO14" s="48"/>
+      <c r="HO14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HP14" s="48"/>
       <c r="HQ14" s="48"/>
       <c r="HR14" s="48"/>
@@ -12506,7 +12530,9 @@
       <c r="HN15" s="52" t="n">
         <v>125975180</v>
       </c>
-      <c r="HO15" s="52"/>
+      <c r="HO15" s="52" t="n">
+        <v>125874150</v>
+      </c>
       <c r="HP15" s="52"/>
       <c r="HQ15" s="52"/>
       <c r="HR15" s="52"/>
@@ -13339,7 +13365,9 @@
       <c r="HN16" s="55" t="n">
         <v>198</v>
       </c>
-      <c r="HO16" s="55"/>
+      <c r="HO16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="HP16" s="55"/>
       <c r="HQ16" s="55"/>
       <c r="HR16" s="55"/>
@@ -14174,7 +14202,9 @@
       <c r="HN17" s="59" t="n">
         <v>94692892</v>
       </c>
-      <c r="HO17" s="59"/>
+      <c r="HO17" s="59" t="n">
+        <v>94695735</v>
+      </c>
       <c r="HP17" s="59"/>
       <c r="HQ17" s="59"/>
       <c r="HR17" s="59"/>
@@ -15007,7 +15037,9 @@
       <c r="HN18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="HO18" s="62"/>
+      <c r="HO18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="HP18" s="62"/>
       <c r="HQ18" s="62"/>
       <c r="HR18" s="62"/>
@@ -15842,7 +15874,9 @@
       <c r="HN19" s="66" t="n">
         <v>91589804</v>
       </c>
-      <c r="HO19" s="66"/>
+      <c r="HO19" s="66" t="n">
+        <v>91692883</v>
+      </c>
       <c r="HP19" s="66"/>
       <c r="HQ19" s="66"/>
       <c r="HR19" s="66"/>
@@ -16675,7 +16709,9 @@
       <c r="HN20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="HO20" s="69"/>
+      <c r="HO20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="HP20" s="69"/>
       <c r="HQ20" s="69"/>
       <c r="HR20" s="69"/>
@@ -17725,7 +17761,11 @@
       </c>
       <c r="HN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HN2)&amp;", ""month"": "&amp;MONTH(HN2)&amp;", ""day"": "&amp;DAY(HN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HN3&amp;", ""memberCount"": "&amp;HN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HN5&amp;", ""memberCount"": "&amp;HN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HN7&amp;", ""memberCount"": "&amp;HN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HN9&amp;", ""memberCount"": "&amp;HN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HN11&amp;", ""memberCount"": "&amp;HN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HN13&amp;", ""memberCount"": "&amp;HN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HN15&amp;", ""memberCount"": "&amp;HN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HN17&amp;", ""memberCount"": "&amp;HN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HN19&amp;", ""memberCount"": "&amp;HN20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 205799396, "memberCount": 199}, {"name": "Smile", "contribution": 177925916, "memberCount": 199}, {"name": "Elite", "contribution": 169966825, "memberCount": 197}, {"name": "Savages", "contribution": 159280964, "memberCount": 199}, {"name": "Spring", "contribution": 134911458, "memberCount": 195}, {"name": "Bounce", "contribution": 137926981, "memberCount": 199}, {"name": "Sunset", "contribution": 125975180, "memberCount": 198}, {"name": "Beaters", "contribution": 94692892, "memberCount": 177}, {"name": "Downtime", "contribution": 91589804, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 205799396, "memberCount": 199}, {"name": "Smile", "contribution": 177925916, "memberCount": 199}, {"name": "Elite", "contribution": 169966825, "memberCount": 197}, {"name": "Savages", "contribution": 159280964, "memberCount": 199}, {"name": "Spring", "contribution": 134911458, "memberCount": 195}, {"name": "Bounce", "contribution": 137926981, "memberCount": 199}, {"name": "Sunset", "contribution": 125975180, "memberCount": 198}, {"name": "Beaters", "contribution": 94692892, "memberCount": 177}, {"name": "Downtime", "contribution": 91589804, "memberCount": 195}]}</v>
+      </c>
+      <c r="HO23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HO2)&amp;", ""month"": "&amp;MONTH(HO2)&amp;", ""day"": "&amp;DAY(HO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HO3&amp;", ""memberCount"": "&amp;HO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HO5&amp;", ""memberCount"": "&amp;HO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HO7&amp;", ""memberCount"": "&amp;HO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HO9&amp;", ""memberCount"": "&amp;HO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HO11&amp;", ""memberCount"": "&amp;HO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HO13&amp;", ""memberCount"": "&amp;HO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HO15&amp;", ""memberCount"": "&amp;HO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HO17&amp;", ""memberCount"": "&amp;HO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HO19&amp;", ""memberCount"": "&amp;HO20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 205936121, "memberCount": 199}, {"name": "Smile", "contribution": 178103857, "memberCount": 197}, {"name": "Elite", "contribution": 170198998, "memberCount": 197}, {"name": "Savages", "contribution": 159492120, "memberCount": 199}, {"name": "Spring", "contribution": 135038421, "memberCount": 195}, {"name": "Bounce", "contribution": 138237186, "memberCount": 199}, {"name": "Sunset", "contribution": 125874150, "memberCount": 197}, {"name": "Beaters", "contribution": 94695735, "memberCount": 176}, {"name": "Downtime", "contribution": 91692883, "memberCount": 195}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HM1" activeCellId="0" sqref="HM1"/>
+      <selection pane="topRight" activeCell="HH1" activeCellId="0" sqref="HH1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HO23" activeCellId="0" sqref="HO23"/>
+      <selection pane="bottomRight" activeCell="HP23" activeCellId="0" sqref="HP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2501,7 +2501,9 @@
       <c r="HO3" s="7" t="n">
         <v>205936121</v>
       </c>
-      <c r="HP3" s="7"/>
+      <c r="HP3" s="7" t="n">
+        <v>206174791</v>
+      </c>
       <c r="HQ3" s="7"/>
       <c r="HR3" s="7"/>
       <c r="HS3" s="7"/>
@@ -3336,7 +3338,9 @@
       <c r="HO4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HP4" s="11"/>
+      <c r="HP4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HQ4" s="11"/>
       <c r="HR4" s="11"/>
       <c r="HS4" s="11"/>
@@ -4173,7 +4177,9 @@
       <c r="HO5" s="17" t="n">
         <v>178103857</v>
       </c>
-      <c r="HP5" s="17"/>
+      <c r="HP5" s="17" t="n">
+        <v>178326646</v>
+      </c>
       <c r="HQ5" s="17"/>
       <c r="HR5" s="17"/>
       <c r="HS5" s="17"/>
@@ -5008,7 +5014,9 @@
       <c r="HO6" s="20" t="n">
         <v>197</v>
       </c>
-      <c r="HP6" s="20"/>
+      <c r="HP6" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="HQ6" s="20"/>
       <c r="HR6" s="20"/>
       <c r="HS6" s="20"/>
@@ -5845,7 +5853,9 @@
       <c r="HO7" s="24" t="n">
         <v>170198998</v>
       </c>
-      <c r="HP7" s="24"/>
+      <c r="HP7" s="24" t="n">
+        <v>170365987</v>
+      </c>
       <c r="HQ7" s="24"/>
       <c r="HR7" s="24"/>
       <c r="HS7" s="24"/>
@@ -6680,7 +6690,9 @@
       <c r="HO8" s="27" t="n">
         <v>197</v>
       </c>
-      <c r="HP8" s="27"/>
+      <c r="HP8" s="27" t="n">
+        <v>197</v>
+      </c>
       <c r="HQ8" s="27"/>
       <c r="HR8" s="27"/>
       <c r="HS8" s="27"/>
@@ -7517,7 +7529,9 @@
       <c r="HO9" s="31" t="n">
         <v>159492120</v>
       </c>
-      <c r="HP9" s="31"/>
+      <c r="HP9" s="31" t="n">
+        <v>159712811</v>
+      </c>
       <c r="HQ9" s="31"/>
       <c r="HR9" s="31"/>
       <c r="HS9" s="31"/>
@@ -8352,7 +8366,9 @@
       <c r="HO10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="HP10" s="34"/>
+      <c r="HP10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HQ10" s="34"/>
       <c r="HR10" s="34"/>
       <c r="HS10" s="34"/>
@@ -9189,7 +9205,9 @@
       <c r="HO11" s="38" t="n">
         <v>135038421</v>
       </c>
-      <c r="HP11" s="38"/>
+      <c r="HP11" s="38" t="n">
+        <v>135169254</v>
+      </c>
       <c r="HQ11" s="38"/>
       <c r="HR11" s="38"/>
       <c r="HS11" s="38"/>
@@ -10024,7 +10042,9 @@
       <c r="HO12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HP12" s="41"/>
+      <c r="HP12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HQ12" s="41"/>
       <c r="HR12" s="41"/>
       <c r="HS12" s="41"/>
@@ -10861,7 +10881,9 @@
       <c r="HO13" s="45" t="n">
         <v>138237186</v>
       </c>
-      <c r="HP13" s="45"/>
+      <c r="HP13" s="45" t="n">
+        <v>138487304</v>
+      </c>
       <c r="HQ13" s="45"/>
       <c r="HR13" s="45"/>
       <c r="HS13" s="45"/>
@@ -11696,7 +11718,9 @@
       <c r="HO14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HP14" s="48"/>
+      <c r="HP14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HQ14" s="48"/>
       <c r="HR14" s="48"/>
       <c r="HS14" s="48"/>
@@ -12533,7 +12557,9 @@
       <c r="HO15" s="52" t="n">
         <v>125874150</v>
       </c>
-      <c r="HP15" s="52"/>
+      <c r="HP15" s="52" t="n">
+        <v>125964484</v>
+      </c>
       <c r="HQ15" s="52"/>
       <c r="HR15" s="52"/>
       <c r="HS15" s="52"/>
@@ -13368,7 +13394,9 @@
       <c r="HO16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="HP16" s="55"/>
+      <c r="HP16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="HQ16" s="55"/>
       <c r="HR16" s="55"/>
       <c r="HS16" s="55"/>
@@ -14205,7 +14233,9 @@
       <c r="HO17" s="59" t="n">
         <v>94695735</v>
       </c>
-      <c r="HP17" s="59"/>
+      <c r="HP17" s="59" t="n">
+        <v>94728450</v>
+      </c>
       <c r="HQ17" s="59"/>
       <c r="HR17" s="59"/>
       <c r="HS17" s="59"/>
@@ -15040,7 +15070,9 @@
       <c r="HO18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="HP18" s="62"/>
+      <c r="HP18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="HQ18" s="62"/>
       <c r="HR18" s="62"/>
       <c r="HS18" s="62"/>
@@ -15877,7 +15909,9 @@
       <c r="HO19" s="66" t="n">
         <v>91692883</v>
       </c>
-      <c r="HP19" s="66"/>
+      <c r="HP19" s="66" t="n">
+        <v>91803078</v>
+      </c>
       <c r="HQ19" s="66"/>
       <c r="HR19" s="66"/>
       <c r="HS19" s="66"/>
@@ -16712,7 +16746,9 @@
       <c r="HO20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="HP20" s="69"/>
+      <c r="HP20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="HQ20" s="69"/>
       <c r="HR20" s="69"/>
       <c r="HS20" s="69"/>
@@ -17765,7 +17801,11 @@
       </c>
       <c r="HO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HO2)&amp;", ""month"": "&amp;MONTH(HO2)&amp;", ""day"": "&amp;DAY(HO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HO3&amp;", ""memberCount"": "&amp;HO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HO5&amp;", ""memberCount"": "&amp;HO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HO7&amp;", ""memberCount"": "&amp;HO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HO9&amp;", ""memberCount"": "&amp;HO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HO11&amp;", ""memberCount"": "&amp;HO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HO13&amp;", ""memberCount"": "&amp;HO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HO15&amp;", ""memberCount"": "&amp;HO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HO17&amp;", ""memberCount"": "&amp;HO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HO19&amp;", ""memberCount"": "&amp;HO20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 205936121, "memberCount": 199}, {"name": "Smile", "contribution": 178103857, "memberCount": 197}, {"name": "Elite", "contribution": 170198998, "memberCount": 197}, {"name": "Savages", "contribution": 159492120, "memberCount": 199}, {"name": "Spring", "contribution": 135038421, "memberCount": 195}, {"name": "Bounce", "contribution": 138237186, "memberCount": 199}, {"name": "Sunset", "contribution": 125874150, "memberCount": 197}, {"name": "Beaters", "contribution": 94695735, "memberCount": 176}, {"name": "Downtime", "contribution": 91692883, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 205936121, "memberCount": 199}, {"name": "Smile", "contribution": 178103857, "memberCount": 197}, {"name": "Elite", "contribution": 170198998, "memberCount": 197}, {"name": "Savages", "contribution": 159492120, "memberCount": 199}, {"name": "Spring", "contribution": 135038421, "memberCount": 195}, {"name": "Bounce", "contribution": 138237186, "memberCount": 199}, {"name": "Sunset", "contribution": 125874150, "memberCount": 197}, {"name": "Beaters", "contribution": 94695735, "memberCount": 176}, {"name": "Downtime", "contribution": 91692883, "memberCount": 195}]}</v>
+      </c>
+      <c r="HP23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HP2)&amp;", ""month"": "&amp;MONTH(HP2)&amp;", ""day"": "&amp;DAY(HP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HP3&amp;", ""memberCount"": "&amp;HP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HP5&amp;", ""memberCount"": "&amp;HP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HP7&amp;", ""memberCount"": "&amp;HP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HP9&amp;", ""memberCount"": "&amp;HP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HP11&amp;", ""memberCount"": "&amp;HP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HP13&amp;", ""memberCount"": "&amp;HP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HP15&amp;", ""memberCount"": "&amp;HP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HP17&amp;", ""memberCount"": "&amp;HP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HP19&amp;", ""memberCount"": "&amp;HP20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 206174791, "memberCount": 199}, {"name": "Smile", "contribution": 178326646, "memberCount": 197}, {"name": "Elite", "contribution": 170365987, "memberCount": 197}, {"name": "Savages", "contribution": 159712811, "memberCount": 200}, {"name": "Spring", "contribution": 135169254, "memberCount": 195}, {"name": "Bounce", "contribution": 138487304, "memberCount": 199}, {"name": "Sunset", "contribution": 125964484, "memberCount": 197}, {"name": "Beaters", "contribution": 94728450, "memberCount": 176}, {"name": "Downtime", "contribution": 91803078, "memberCount": 195}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HH1" activeCellId="0" sqref="HH1"/>
+      <selection pane="topRight" activeCell="HO1" activeCellId="0" sqref="HO1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HP23" activeCellId="0" sqref="HP23"/>
+      <selection pane="bottomRight" activeCell="HQ23" activeCellId="0" sqref="HQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2504,7 +2504,9 @@
       <c r="HP3" s="7" t="n">
         <v>206174791</v>
       </c>
-      <c r="HQ3" s="7"/>
+      <c r="HQ3" s="7" t="n">
+        <v>206391676</v>
+      </c>
       <c r="HR3" s="7"/>
       <c r="HS3" s="7"/>
       <c r="HT3" s="7"/>
@@ -3341,7 +3343,9 @@
       <c r="HP4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HQ4" s="11"/>
+      <c r="HQ4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HR4" s="11"/>
       <c r="HS4" s="11"/>
       <c r="HT4" s="11"/>
@@ -4180,7 +4184,9 @@
       <c r="HP5" s="17" t="n">
         <v>178326646</v>
       </c>
-      <c r="HQ5" s="17"/>
+      <c r="HQ5" s="17" t="n">
+        <v>178533863</v>
+      </c>
       <c r="HR5" s="17"/>
       <c r="HS5" s="17"/>
       <c r="HT5" s="17"/>
@@ -5017,7 +5023,9 @@
       <c r="HP6" s="20" t="n">
         <v>197</v>
       </c>
-      <c r="HQ6" s="20"/>
+      <c r="HQ6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="HR6" s="20"/>
       <c r="HS6" s="20"/>
       <c r="HT6" s="20"/>
@@ -5856,7 +5864,9 @@
       <c r="HP7" s="24" t="n">
         <v>170365987</v>
       </c>
-      <c r="HQ7" s="24"/>
+      <c r="HQ7" s="24" t="n">
+        <v>170544299</v>
+      </c>
       <c r="HR7" s="24"/>
       <c r="HS7" s="24"/>
       <c r="HT7" s="24"/>
@@ -6693,7 +6703,9 @@
       <c r="HP8" s="27" t="n">
         <v>197</v>
       </c>
-      <c r="HQ8" s="27"/>
+      <c r="HQ8" s="27" t="n">
+        <v>197</v>
+      </c>
       <c r="HR8" s="27"/>
       <c r="HS8" s="27"/>
       <c r="HT8" s="27"/>
@@ -7532,7 +7544,9 @@
       <c r="HP9" s="31" t="n">
         <v>159712811</v>
       </c>
-      <c r="HQ9" s="31"/>
+      <c r="HQ9" s="31" t="n">
+        <v>159955815</v>
+      </c>
       <c r="HR9" s="31"/>
       <c r="HS9" s="31"/>
       <c r="HT9" s="31"/>
@@ -8369,7 +8383,9 @@
       <c r="HP10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HQ10" s="34"/>
+      <c r="HQ10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HR10" s="34"/>
       <c r="HS10" s="34"/>
       <c r="HT10" s="34"/>
@@ -9208,7 +9224,9 @@
       <c r="HP11" s="38" t="n">
         <v>135169254</v>
       </c>
-      <c r="HQ11" s="38"/>
+      <c r="HQ11" s="38" t="n">
+        <v>135268550</v>
+      </c>
       <c r="HR11" s="38"/>
       <c r="HS11" s="38"/>
       <c r="HT11" s="38"/>
@@ -10045,7 +10063,9 @@
       <c r="HP12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HQ12" s="41"/>
+      <c r="HQ12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HR12" s="41"/>
       <c r="HS12" s="41"/>
       <c r="HT12" s="41"/>
@@ -10884,7 +10904,9 @@
       <c r="HP13" s="45" t="n">
         <v>138487304</v>
       </c>
-      <c r="HQ13" s="45"/>
+      <c r="HQ13" s="45" t="n">
+        <v>138780108</v>
+      </c>
       <c r="HR13" s="45"/>
       <c r="HS13" s="45"/>
       <c r="HT13" s="45"/>
@@ -11721,7 +11743,9 @@
       <c r="HP14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HQ14" s="48"/>
+      <c r="HQ14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HR14" s="48"/>
       <c r="HS14" s="48"/>
       <c r="HT14" s="48"/>
@@ -12560,7 +12584,9 @@
       <c r="HP15" s="52" t="n">
         <v>125964484</v>
       </c>
-      <c r="HQ15" s="52"/>
+      <c r="HQ15" s="52" t="n">
+        <v>125772541</v>
+      </c>
       <c r="HR15" s="52"/>
       <c r="HS15" s="52"/>
       <c r="HT15" s="52"/>
@@ -13397,7 +13423,9 @@
       <c r="HP16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="HQ16" s="55"/>
+      <c r="HQ16" s="55" t="n">
+        <v>191</v>
+      </c>
       <c r="HR16" s="55"/>
       <c r="HS16" s="55"/>
       <c r="HT16" s="55"/>
@@ -14236,7 +14264,9 @@
       <c r="HP17" s="59" t="n">
         <v>94728450</v>
       </c>
-      <c r="HQ17" s="59"/>
+      <c r="HQ17" s="59" t="n">
+        <v>94743361</v>
+      </c>
       <c r="HR17" s="59"/>
       <c r="HS17" s="59"/>
       <c r="HT17" s="59"/>
@@ -15073,7 +15103,9 @@
       <c r="HP18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="HQ18" s="62"/>
+      <c r="HQ18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="HR18" s="62"/>
       <c r="HS18" s="62"/>
       <c r="HT18" s="62"/>
@@ -15912,7 +15944,9 @@
       <c r="HP19" s="66" t="n">
         <v>91803078</v>
       </c>
-      <c r="HQ19" s="66"/>
+      <c r="HQ19" s="66" t="n">
+        <v>91887645</v>
+      </c>
       <c r="HR19" s="66"/>
       <c r="HS19" s="66"/>
       <c r="HT19" s="66"/>
@@ -16749,7 +16783,9 @@
       <c r="HP20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="HQ20" s="69"/>
+      <c r="HQ20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="HR20" s="69"/>
       <c r="HS20" s="69"/>
       <c r="HT20" s="69"/>
@@ -17805,7 +17841,11 @@
       </c>
       <c r="HP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HP2)&amp;", ""month"": "&amp;MONTH(HP2)&amp;", ""day"": "&amp;DAY(HP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HP3&amp;", ""memberCount"": "&amp;HP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HP5&amp;", ""memberCount"": "&amp;HP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HP7&amp;", ""memberCount"": "&amp;HP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HP9&amp;", ""memberCount"": "&amp;HP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HP11&amp;", ""memberCount"": "&amp;HP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HP13&amp;", ""memberCount"": "&amp;HP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HP15&amp;", ""memberCount"": "&amp;HP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HP17&amp;", ""memberCount"": "&amp;HP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HP19&amp;", ""memberCount"": "&amp;HP20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 206174791, "memberCount": 199}, {"name": "Smile", "contribution": 178326646, "memberCount": 197}, {"name": "Elite", "contribution": 170365987, "memberCount": 197}, {"name": "Savages", "contribution": 159712811, "memberCount": 200}, {"name": "Spring", "contribution": 135169254, "memberCount": 195}, {"name": "Bounce", "contribution": 138487304, "memberCount": 199}, {"name": "Sunset", "contribution": 125964484, "memberCount": 197}, {"name": "Beaters", "contribution": 94728450, "memberCount": 176}, {"name": "Downtime", "contribution": 91803078, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 206174791, "memberCount": 199}, {"name": "Smile", "contribution": 178326646, "memberCount": 197}, {"name": "Elite", "contribution": 170365987, "memberCount": 197}, {"name": "Savages", "contribution": 159712811, "memberCount": 200}, {"name": "Spring", "contribution": 135169254, "memberCount": 195}, {"name": "Bounce", "contribution": 138487304, "memberCount": 199}, {"name": "Sunset", "contribution": 125964484, "memberCount": 197}, {"name": "Beaters", "contribution": 94728450, "memberCount": 176}, {"name": "Downtime", "contribution": 91803078, "memberCount": 195}]}</v>
+      </c>
+      <c r="HQ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HQ2)&amp;", ""month"": "&amp;MONTH(HQ2)&amp;", ""day"": "&amp;DAY(HQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HQ3&amp;", ""memberCount"": "&amp;HQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HQ5&amp;", ""memberCount"": "&amp;HQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HQ7&amp;", ""memberCount"": "&amp;HQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HQ9&amp;", ""memberCount"": "&amp;HQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HQ11&amp;", ""memberCount"": "&amp;HQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HQ13&amp;", ""memberCount"": "&amp;HQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HQ15&amp;", ""memberCount"": "&amp;HQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HQ17&amp;", ""memberCount"": "&amp;HQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HQ19&amp;", ""memberCount"": "&amp;HQ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 206391676, "memberCount": 199}, {"name": "Smile", "contribution": 178533863, "memberCount": 199}, {"name": "Elite", "contribution": 170544299, "memberCount": 197}, {"name": "Savages", "contribution": 159955815, "memberCount": 200}, {"name": "Spring", "contribution": 135268550, "memberCount": 195}, {"name": "Bounce", "contribution": 138780108, "memberCount": 199}, {"name": "Sunset", "contribution": 125772541, "memberCount": 191}, {"name": "Beaters", "contribution": 94743361, "memberCount": 176}, {"name": "Downtime", "contribution": 91887645, "memberCount": 195}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HO1" activeCellId="0" sqref="HO1"/>
+      <selection pane="topRight" activeCell="HQ1" activeCellId="0" sqref="HQ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HQ23" activeCellId="0" sqref="HQ23"/>
+      <selection pane="bottomRight" activeCell="HR23" activeCellId="0" sqref="HR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2507,7 +2507,9 @@
       <c r="HQ3" s="7" t="n">
         <v>206391676</v>
       </c>
-      <c r="HR3" s="7"/>
+      <c r="HR3" s="7" t="n">
+        <v>206550324</v>
+      </c>
       <c r="HS3" s="7"/>
       <c r="HT3" s="7"/>
       <c r="HU3" s="7"/>
@@ -3346,7 +3348,9 @@
       <c r="HQ4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HR4" s="11"/>
+      <c r="HR4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HS4" s="11"/>
       <c r="HT4" s="11"/>
       <c r="HU4" s="11"/>
@@ -4187,7 +4191,9 @@
       <c r="HQ5" s="17" t="n">
         <v>178533863</v>
       </c>
-      <c r="HR5" s="17"/>
+      <c r="HR5" s="17" t="n">
+        <v>178759796</v>
+      </c>
       <c r="HS5" s="17"/>
       <c r="HT5" s="17"/>
       <c r="HU5" s="17"/>
@@ -5026,7 +5032,9 @@
       <c r="HQ6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="HR6" s="20"/>
+      <c r="HR6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="HS6" s="20"/>
       <c r="HT6" s="20"/>
       <c r="HU6" s="20"/>
@@ -5867,7 +5875,9 @@
       <c r="HQ7" s="24" t="n">
         <v>170544299</v>
       </c>
-      <c r="HR7" s="24"/>
+      <c r="HR7" s="24" t="n">
+        <v>170820843</v>
+      </c>
       <c r="HS7" s="24"/>
       <c r="HT7" s="24"/>
       <c r="HU7" s="24"/>
@@ -6706,7 +6716,9 @@
       <c r="HQ8" s="27" t="n">
         <v>197</v>
       </c>
-      <c r="HR8" s="27"/>
+      <c r="HR8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="HS8" s="27"/>
       <c r="HT8" s="27"/>
       <c r="HU8" s="27"/>
@@ -7547,7 +7559,9 @@
       <c r="HQ9" s="31" t="n">
         <v>159955815</v>
       </c>
-      <c r="HR9" s="31"/>
+      <c r="HR9" s="31" t="n">
+        <v>160172110</v>
+      </c>
       <c r="HS9" s="31"/>
       <c r="HT9" s="31"/>
       <c r="HU9" s="31"/>
@@ -8386,7 +8400,9 @@
       <c r="HQ10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HR10" s="34"/>
+      <c r="HR10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HS10" s="34"/>
       <c r="HT10" s="34"/>
       <c r="HU10" s="34"/>
@@ -9227,7 +9243,9 @@
       <c r="HQ11" s="38" t="n">
         <v>135268550</v>
       </c>
-      <c r="HR11" s="38"/>
+      <c r="HR11" s="38" t="n">
+        <v>135410100</v>
+      </c>
       <c r="HS11" s="38"/>
       <c r="HT11" s="38"/>
       <c r="HU11" s="38"/>
@@ -10066,7 +10084,9 @@
       <c r="HQ12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HR12" s="41"/>
+      <c r="HR12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HS12" s="41"/>
       <c r="HT12" s="41"/>
       <c r="HU12" s="41"/>
@@ -10907,7 +10927,9 @@
       <c r="HQ13" s="45" t="n">
         <v>138780108</v>
       </c>
-      <c r="HR13" s="45"/>
+      <c r="HR13" s="45" t="n">
+        <v>139048459</v>
+      </c>
       <c r="HS13" s="45"/>
       <c r="HT13" s="45"/>
       <c r="HU13" s="45"/>
@@ -11746,7 +11768,9 @@
       <c r="HQ14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HR14" s="48"/>
+      <c r="HR14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HS14" s="48"/>
       <c r="HT14" s="48"/>
       <c r="HU14" s="48"/>
@@ -12587,7 +12611,9 @@
       <c r="HQ15" s="52" t="n">
         <v>125772541</v>
       </c>
-      <c r="HR15" s="52"/>
+      <c r="HR15" s="52" t="n">
+        <v>125873455</v>
+      </c>
       <c r="HS15" s="52"/>
       <c r="HT15" s="52"/>
       <c r="HU15" s="52"/>
@@ -13426,7 +13452,9 @@
       <c r="HQ16" s="55" t="n">
         <v>191</v>
       </c>
-      <c r="HR16" s="55"/>
+      <c r="HR16" s="55" t="n">
+        <v>191</v>
+      </c>
       <c r="HS16" s="55"/>
       <c r="HT16" s="55"/>
       <c r="HU16" s="55"/>
@@ -14267,7 +14295,9 @@
       <c r="HQ17" s="59" t="n">
         <v>94743361</v>
       </c>
-      <c r="HR17" s="59"/>
+      <c r="HR17" s="59" t="n">
+        <v>94792414</v>
+      </c>
       <c r="HS17" s="59"/>
       <c r="HT17" s="59"/>
       <c r="HU17" s="59"/>
@@ -15106,7 +15136,9 @@
       <c r="HQ18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="HR18" s="62"/>
+      <c r="HR18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="HS18" s="62"/>
       <c r="HT18" s="62"/>
       <c r="HU18" s="62"/>
@@ -15947,7 +15979,9 @@
       <c r="HQ19" s="66" t="n">
         <v>91887645</v>
       </c>
-      <c r="HR19" s="66"/>
+      <c r="HR19" s="66" t="n">
+        <v>92009289</v>
+      </c>
       <c r="HS19" s="66"/>
       <c r="HT19" s="66"/>
       <c r="HU19" s="66"/>
@@ -16786,7 +16820,9 @@
       <c r="HQ20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="HR20" s="69"/>
+      <c r="HR20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="HS20" s="69"/>
       <c r="HT20" s="69"/>
       <c r="HU20" s="69"/>
@@ -17845,7 +17881,11 @@
       </c>
       <c r="HQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HQ2)&amp;", ""month"": "&amp;MONTH(HQ2)&amp;", ""day"": "&amp;DAY(HQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HQ3&amp;", ""memberCount"": "&amp;HQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HQ5&amp;", ""memberCount"": "&amp;HQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HQ7&amp;", ""memberCount"": "&amp;HQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HQ9&amp;", ""memberCount"": "&amp;HQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HQ11&amp;", ""memberCount"": "&amp;HQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HQ13&amp;", ""memberCount"": "&amp;HQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HQ15&amp;", ""memberCount"": "&amp;HQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HQ17&amp;", ""memberCount"": "&amp;HQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HQ19&amp;", ""memberCount"": "&amp;HQ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 206391676, "memberCount": 199}, {"name": "Smile", "contribution": 178533863, "memberCount": 199}, {"name": "Elite", "contribution": 170544299, "memberCount": 197}, {"name": "Savages", "contribution": 159955815, "memberCount": 200}, {"name": "Spring", "contribution": 135268550, "memberCount": 195}, {"name": "Bounce", "contribution": 138780108, "memberCount": 199}, {"name": "Sunset", "contribution": 125772541, "memberCount": 191}, {"name": "Beaters", "contribution": 94743361, "memberCount": 176}, {"name": "Downtime", "contribution": 91887645, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 206391676, "memberCount": 199}, {"name": "Smile", "contribution": 178533863, "memberCount": 199}, {"name": "Elite", "contribution": 170544299, "memberCount": 197}, {"name": "Savages", "contribution": 159955815, "memberCount": 200}, {"name": "Spring", "contribution": 135268550, "memberCount": 195}, {"name": "Bounce", "contribution": 138780108, "memberCount": 199}, {"name": "Sunset", "contribution": 125772541, "memberCount": 191}, {"name": "Beaters", "contribution": 94743361, "memberCount": 176}, {"name": "Downtime", "contribution": 91887645, "memberCount": 195}]}</v>
+      </c>
+      <c r="HR23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HR2)&amp;", ""month"": "&amp;MONTH(HR2)&amp;", ""day"": "&amp;DAY(HR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HR3&amp;", ""memberCount"": "&amp;HR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HR5&amp;", ""memberCount"": "&amp;HR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HR7&amp;", ""memberCount"": "&amp;HR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HR9&amp;", ""memberCount"": "&amp;HR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HR11&amp;", ""memberCount"": "&amp;HR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HR13&amp;", ""memberCount"": "&amp;HR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HR15&amp;", ""memberCount"": "&amp;HR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HR17&amp;", ""memberCount"": "&amp;HR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HR19&amp;", ""memberCount"": "&amp;HR20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 206550324, "memberCount": 199}, {"name": "Smile", "contribution": 178759796, "memberCount": 200}, {"name": "Elite", "contribution": 170820843, "memberCount": 198}, {"name": "Savages", "contribution": 160172110, "memberCount": 200}, {"name": "Spring", "contribution": 135410100, "memberCount": 195}, {"name": "Bounce", "contribution": 139048459, "memberCount": 199}, {"name": "Sunset", "contribution": 125873455, "memberCount": 191}, {"name": "Beaters", "contribution": 94792414, "memberCount": 176}, {"name": "Downtime", "contribution": 92009289, "memberCount": 195}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HQ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HQ1" activeCellId="0" sqref="HQ1"/>
+      <selection pane="topRight" activeCell="HR1" activeCellId="0" sqref="HR1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HR23" activeCellId="0" sqref="HR23"/>
+      <selection pane="bottomRight" activeCell="HS23" activeCellId="0" sqref="HS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2510,7 +2510,9 @@
       <c r="HR3" s="7" t="n">
         <v>206550324</v>
       </c>
-      <c r="HS3" s="7"/>
+      <c r="HS3" s="7" t="n">
+        <v>206791081</v>
+      </c>
       <c r="HT3" s="7"/>
       <c r="HU3" s="7"/>
       <c r="HV3" s="7"/>
@@ -3351,7 +3353,9 @@
       <c r="HR4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HS4" s="11"/>
+      <c r="HS4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HT4" s="11"/>
       <c r="HU4" s="11"/>
       <c r="HV4" s="11"/>
@@ -4194,7 +4198,9 @@
       <c r="HR5" s="17" t="n">
         <v>178759796</v>
       </c>
-      <c r="HS5" s="17"/>
+      <c r="HS5" s="17" t="n">
+        <v>179015035</v>
+      </c>
       <c r="HT5" s="17"/>
       <c r="HU5" s="17"/>
       <c r="HV5" s="17"/>
@@ -5035,7 +5041,9 @@
       <c r="HR6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="HS6" s="20"/>
+      <c r="HS6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="HT6" s="20"/>
       <c r="HU6" s="20"/>
       <c r="HV6" s="20"/>
@@ -5878,7 +5886,9 @@
       <c r="HR7" s="24" t="n">
         <v>170820843</v>
       </c>
-      <c r="HS7" s="24"/>
+      <c r="HS7" s="24" t="n">
+        <v>171049943</v>
+      </c>
       <c r="HT7" s="24"/>
       <c r="HU7" s="24"/>
       <c r="HV7" s="24"/>
@@ -6719,7 +6729,9 @@
       <c r="HR8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HS8" s="27"/>
+      <c r="HS8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="HT8" s="27"/>
       <c r="HU8" s="27"/>
       <c r="HV8" s="27"/>
@@ -7562,7 +7574,9 @@
       <c r="HR9" s="31" t="n">
         <v>160172110</v>
       </c>
-      <c r="HS9" s="31"/>
+      <c r="HS9" s="31" t="n">
+        <v>160414091</v>
+      </c>
       <c r="HT9" s="31"/>
       <c r="HU9" s="31"/>
       <c r="HV9" s="31"/>
@@ -8403,7 +8417,9 @@
       <c r="HR10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HS10" s="34"/>
+      <c r="HS10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HT10" s="34"/>
       <c r="HU10" s="34"/>
       <c r="HV10" s="34"/>
@@ -9246,7 +9262,9 @@
       <c r="HR11" s="38" t="n">
         <v>135410100</v>
       </c>
-      <c r="HS11" s="38"/>
+      <c r="HS11" s="38" t="n">
+        <v>135538585</v>
+      </c>
       <c r="HT11" s="38"/>
       <c r="HU11" s="38"/>
       <c r="HV11" s="38"/>
@@ -10087,7 +10105,9 @@
       <c r="HR12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HS12" s="41"/>
+      <c r="HS12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HT12" s="41"/>
       <c r="HU12" s="41"/>
       <c r="HV12" s="41"/>
@@ -10930,7 +10950,9 @@
       <c r="HR13" s="45" t="n">
         <v>139048459</v>
       </c>
-      <c r="HS13" s="45"/>
+      <c r="HS13" s="45" t="n">
+        <v>139348006</v>
+      </c>
       <c r="HT13" s="45"/>
       <c r="HU13" s="45"/>
       <c r="HV13" s="45"/>
@@ -11771,7 +11793,9 @@
       <c r="HR14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HS14" s="48"/>
+      <c r="HS14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HT14" s="48"/>
       <c r="HU14" s="48"/>
       <c r="HV14" s="48"/>
@@ -12614,7 +12638,9 @@
       <c r="HR15" s="52" t="n">
         <v>125873455</v>
       </c>
-      <c r="HS15" s="52"/>
+      <c r="HS15" s="52" t="n">
+        <v>125949373</v>
+      </c>
       <c r="HT15" s="52"/>
       <c r="HU15" s="52"/>
       <c r="HV15" s="52"/>
@@ -13455,7 +13481,9 @@
       <c r="HR16" s="55" t="n">
         <v>191</v>
       </c>
-      <c r="HS16" s="55"/>
+      <c r="HS16" s="55" t="n">
+        <v>191</v>
+      </c>
       <c r="HT16" s="55"/>
       <c r="HU16" s="55"/>
       <c r="HV16" s="55"/>
@@ -14298,7 +14326,9 @@
       <c r="HR17" s="59" t="n">
         <v>94792414</v>
       </c>
-      <c r="HS17" s="59"/>
+      <c r="HS17" s="59" t="n">
+        <v>94827810</v>
+      </c>
       <c r="HT17" s="59"/>
       <c r="HU17" s="59"/>
       <c r="HV17" s="59"/>
@@ -15139,7 +15169,9 @@
       <c r="HR18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="HS18" s="62"/>
+      <c r="HS18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="HT18" s="62"/>
       <c r="HU18" s="62"/>
       <c r="HV18" s="62"/>
@@ -15982,7 +16014,9 @@
       <c r="HR19" s="66" t="n">
         <v>92009289</v>
       </c>
-      <c r="HS19" s="66"/>
+      <c r="HS19" s="66" t="n">
+        <v>92135911</v>
+      </c>
       <c r="HT19" s="66"/>
       <c r="HU19" s="66"/>
       <c r="HV19" s="66"/>
@@ -16823,7 +16857,9 @@
       <c r="HR20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="HS20" s="69"/>
+      <c r="HS20" s="69" t="n">
+        <v>195</v>
+      </c>
       <c r="HT20" s="69"/>
       <c r="HU20" s="69"/>
       <c r="HV20" s="69"/>
@@ -17885,7 +17921,11 @@
       </c>
       <c r="HR23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HR2)&amp;", ""month"": "&amp;MONTH(HR2)&amp;", ""day"": "&amp;DAY(HR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HR3&amp;", ""memberCount"": "&amp;HR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HR5&amp;", ""memberCount"": "&amp;HR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HR7&amp;", ""memberCount"": "&amp;HR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HR9&amp;", ""memberCount"": "&amp;HR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HR11&amp;", ""memberCount"": "&amp;HR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HR13&amp;", ""memberCount"": "&amp;HR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HR15&amp;", ""memberCount"": "&amp;HR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HR17&amp;", ""memberCount"": "&amp;HR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HR19&amp;", ""memberCount"": "&amp;HR20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 206550324, "memberCount": 199}, {"name": "Smile", "contribution": 178759796, "memberCount": 200}, {"name": "Elite", "contribution": 170820843, "memberCount": 198}, {"name": "Savages", "contribution": 160172110, "memberCount": 200}, {"name": "Spring", "contribution": 135410100, "memberCount": 195}, {"name": "Bounce", "contribution": 139048459, "memberCount": 199}, {"name": "Sunset", "contribution": 125873455, "memberCount": 191}, {"name": "Beaters", "contribution": 94792414, "memberCount": 176}, {"name": "Downtime", "contribution": 92009289, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 206550324, "memberCount": 199}, {"name": "Smile", "contribution": 178759796, "memberCount": 200}, {"name": "Elite", "contribution": 170820843, "memberCount": 198}, {"name": "Savages", "contribution": 160172110, "memberCount": 200}, {"name": "Spring", "contribution": 135410100, "memberCount": 195}, {"name": "Bounce", "contribution": 139048459, "memberCount": 199}, {"name": "Sunset", "contribution": 125873455, "memberCount": 191}, {"name": "Beaters", "contribution": 94792414, "memberCount": 176}, {"name": "Downtime", "contribution": 92009289, "memberCount": 195}]}</v>
+      </c>
+      <c r="HS23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HS2)&amp;", ""month"": "&amp;MONTH(HS2)&amp;", ""day"": "&amp;DAY(HS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HS3&amp;", ""memberCount"": "&amp;HS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HS5&amp;", ""memberCount"": "&amp;HS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HS7&amp;", ""memberCount"": "&amp;HS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HS9&amp;", ""memberCount"": "&amp;HS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HS11&amp;", ""memberCount"": "&amp;HS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HS13&amp;", ""memberCount"": "&amp;HS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HS15&amp;", ""memberCount"": "&amp;HS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HS17&amp;", ""memberCount"": "&amp;HS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HS19&amp;", ""memberCount"": "&amp;HS20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 206791081, "memberCount": 199}, {"name": "Smile", "contribution": 179015035, "memberCount": 200}, {"name": "Elite", "contribution": 171049943, "memberCount": 198}, {"name": "Savages", "contribution": 160414091, "memberCount": 200}, {"name": "Spring", "contribution": 135538585, "memberCount": 195}, {"name": "Bounce", "contribution": 139348006, "memberCount": 199}, {"name": "Sunset", "contribution": 125949373, "memberCount": 191}, {"name": "Beaters", "contribution": 94827810, "memberCount": 176}, {"name": "Downtime", "contribution": 92135911, "memberCount": 195}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HS3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HR1" activeCellId="0" sqref="HR1"/>
+      <selection pane="topRight" activeCell="HS1" activeCellId="0" sqref="HS1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HS23" activeCellId="0" sqref="HS23"/>
+      <selection pane="bottomRight" activeCell="HT23" activeCellId="0" sqref="HT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2513,7 +2513,9 @@
       <c r="HS3" s="7" t="n">
         <v>206791081</v>
       </c>
-      <c r="HT3" s="7"/>
+      <c r="HT3" s="7" t="n">
+        <v>206977129</v>
+      </c>
       <c r="HU3" s="7"/>
       <c r="HV3" s="7"/>
       <c r="HW3" s="7"/>
@@ -3356,7 +3358,9 @@
       <c r="HS4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HT4" s="11"/>
+      <c r="HT4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HU4" s="11"/>
       <c r="HV4" s="11"/>
       <c r="HW4" s="11"/>
@@ -4201,7 +4205,9 @@
       <c r="HS5" s="17" t="n">
         <v>179015035</v>
       </c>
-      <c r="HT5" s="17"/>
+      <c r="HT5" s="17" t="n">
+        <v>179258920</v>
+      </c>
       <c r="HU5" s="17"/>
       <c r="HV5" s="17"/>
       <c r="HW5" s="17"/>
@@ -5044,7 +5050,9 @@
       <c r="HS6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="HT6" s="20"/>
+      <c r="HT6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="HU6" s="20"/>
       <c r="HV6" s="20"/>
       <c r="HW6" s="20"/>
@@ -5889,7 +5897,9 @@
       <c r="HS7" s="24" t="n">
         <v>171049943</v>
       </c>
-      <c r="HT7" s="24"/>
+      <c r="HT7" s="24" t="n">
+        <v>171279345</v>
+      </c>
       <c r="HU7" s="24"/>
       <c r="HV7" s="24"/>
       <c r="HW7" s="24"/>
@@ -6732,7 +6742,9 @@
       <c r="HS8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HT8" s="27"/>
+      <c r="HT8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="HU8" s="27"/>
       <c r="HV8" s="27"/>
       <c r="HW8" s="27"/>
@@ -7577,7 +7589,9 @@
       <c r="HS9" s="31" t="n">
         <v>160414091</v>
       </c>
-      <c r="HT9" s="31"/>
+      <c r="HT9" s="31" t="n">
+        <v>160696402</v>
+      </c>
       <c r="HU9" s="31"/>
       <c r="HV9" s="31"/>
       <c r="HW9" s="31"/>
@@ -8420,7 +8434,9 @@
       <c r="HS10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HT10" s="34"/>
+      <c r="HT10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HU10" s="34"/>
       <c r="HV10" s="34"/>
       <c r="HW10" s="34"/>
@@ -9265,7 +9281,9 @@
       <c r="HS11" s="38" t="n">
         <v>135538585</v>
       </c>
-      <c r="HT11" s="38"/>
+      <c r="HT11" s="38" t="n">
+        <v>135700670</v>
+      </c>
       <c r="HU11" s="38"/>
       <c r="HV11" s="38"/>
       <c r="HW11" s="38"/>
@@ -10108,7 +10126,9 @@
       <c r="HS12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HT12" s="41"/>
+      <c r="HT12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HU12" s="41"/>
       <c r="HV12" s="41"/>
       <c r="HW12" s="41"/>
@@ -10953,7 +10973,9 @@
       <c r="HS13" s="45" t="n">
         <v>139348006</v>
       </c>
-      <c r="HT13" s="45"/>
+      <c r="HT13" s="45" t="n">
+        <v>139667506</v>
+      </c>
       <c r="HU13" s="45"/>
       <c r="HV13" s="45"/>
       <c r="HW13" s="45"/>
@@ -11796,7 +11818,9 @@
       <c r="HS14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HT14" s="48"/>
+      <c r="HT14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HU14" s="48"/>
       <c r="HV14" s="48"/>
       <c r="HW14" s="48"/>
@@ -12641,7 +12665,9 @@
       <c r="HS15" s="52" t="n">
         <v>125949373</v>
       </c>
-      <c r="HT15" s="52"/>
+      <c r="HT15" s="52" t="n">
+        <v>126044979</v>
+      </c>
       <c r="HU15" s="52"/>
       <c r="HV15" s="52"/>
       <c r="HW15" s="52"/>
@@ -13484,7 +13510,9 @@
       <c r="HS16" s="55" t="n">
         <v>191</v>
       </c>
-      <c r="HT16" s="55"/>
+      <c r="HT16" s="55" t="n">
+        <v>192</v>
+      </c>
       <c r="HU16" s="55"/>
       <c r="HV16" s="55"/>
       <c r="HW16" s="55"/>
@@ -14329,7 +14357,9 @@
       <c r="HS17" s="59" t="n">
         <v>94827810</v>
       </c>
-      <c r="HT17" s="59"/>
+      <c r="HT17" s="59" t="n">
+        <v>94853604</v>
+      </c>
       <c r="HU17" s="59"/>
       <c r="HV17" s="59"/>
       <c r="HW17" s="59"/>
@@ -15172,7 +15202,9 @@
       <c r="HS18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="HT18" s="62"/>
+      <c r="HT18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="HU18" s="62"/>
       <c r="HV18" s="62"/>
       <c r="HW18" s="62"/>
@@ -16017,7 +16049,9 @@
       <c r="HS19" s="66" t="n">
         <v>92135911</v>
       </c>
-      <c r="HT19" s="66"/>
+      <c r="HT19" s="66" t="n">
+        <v>92273990</v>
+      </c>
       <c r="HU19" s="66"/>
       <c r="HV19" s="66"/>
       <c r="HW19" s="66"/>
@@ -16860,7 +16894,9 @@
       <c r="HS20" s="69" t="n">
         <v>195</v>
       </c>
-      <c r="HT20" s="69"/>
+      <c r="HT20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="HU20" s="69"/>
       <c r="HV20" s="69"/>
       <c r="HW20" s="69"/>
@@ -17925,7 +17961,11 @@
       </c>
       <c r="HS23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HS2)&amp;", ""month"": "&amp;MONTH(HS2)&amp;", ""day"": "&amp;DAY(HS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HS3&amp;", ""memberCount"": "&amp;HS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HS5&amp;", ""memberCount"": "&amp;HS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HS7&amp;", ""memberCount"": "&amp;HS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HS9&amp;", ""memberCount"": "&amp;HS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HS11&amp;", ""memberCount"": "&amp;HS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HS13&amp;", ""memberCount"": "&amp;HS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HS15&amp;", ""memberCount"": "&amp;HS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HS17&amp;", ""memberCount"": "&amp;HS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HS19&amp;", ""memberCount"": "&amp;HS20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 206791081, "memberCount": 199}, {"name": "Smile", "contribution": 179015035, "memberCount": 200}, {"name": "Elite", "contribution": 171049943, "memberCount": 198}, {"name": "Savages", "contribution": 160414091, "memberCount": 200}, {"name": "Spring", "contribution": 135538585, "memberCount": 195}, {"name": "Bounce", "contribution": 139348006, "memberCount": 199}, {"name": "Sunset", "contribution": 125949373, "memberCount": 191}, {"name": "Beaters", "contribution": 94827810, "memberCount": 176}, {"name": "Downtime", "contribution": 92135911, "memberCount": 195}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 206791081, "memberCount": 199}, {"name": "Smile", "contribution": 179015035, "memberCount": 200}, {"name": "Elite", "contribution": 171049943, "memberCount": 198}, {"name": "Savages", "contribution": 160414091, "memberCount": 200}, {"name": "Spring", "contribution": 135538585, "memberCount": 195}, {"name": "Bounce", "contribution": 139348006, "memberCount": 199}, {"name": "Sunset", "contribution": 125949373, "memberCount": 191}, {"name": "Beaters", "contribution": 94827810, "memberCount": 176}, {"name": "Downtime", "contribution": 92135911, "memberCount": 195}]}</v>
+      </c>
+      <c r="HT23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HT2)&amp;", ""month"": "&amp;MONTH(HT2)&amp;", ""day"": "&amp;DAY(HT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HT3&amp;", ""memberCount"": "&amp;HT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HT5&amp;", ""memberCount"": "&amp;HT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HT7&amp;", ""memberCount"": "&amp;HT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HT9&amp;", ""memberCount"": "&amp;HT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HT11&amp;", ""memberCount"": "&amp;HT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HT13&amp;", ""memberCount"": "&amp;HT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HT15&amp;", ""memberCount"": "&amp;HT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HT17&amp;", ""memberCount"": "&amp;HT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HT19&amp;", ""memberCount"": "&amp;HT20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 206977129, "memberCount": 199}, {"name": "Smile", "contribution": 179258920, "memberCount": 200}, {"name": "Elite", "contribution": 171279345, "memberCount": 198}, {"name": "Savages", "contribution": 160696402, "memberCount": 200}, {"name": "Spring", "contribution": 135700670, "memberCount": 195}, {"name": "Bounce", "contribution": 139667506, "memberCount": 199}, {"name": "Sunset", "contribution": 126044979, "memberCount": 192}, {"name": "Beaters", "contribution": 94853604, "memberCount": 176}, {"name": "Downtime", "contribution": 92273990, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HS3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HS1" activeCellId="0" sqref="HS1"/>
+      <selection pane="topRight" activeCell="HL1" activeCellId="0" sqref="HL1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HT23" activeCellId="0" sqref="HT23"/>
+      <selection pane="bottomRight" activeCell="HU23" activeCellId="0" sqref="HU23:HW23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2516,9 +2516,15 @@
       <c r="HT3" s="7" t="n">
         <v>206977129</v>
       </c>
-      <c r="HU3" s="7"/>
-      <c r="HV3" s="7"/>
-      <c r="HW3" s="7"/>
+      <c r="HU3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW3" s="7" t="n">
+        <v>207553208</v>
+      </c>
       <c r="HX3" s="7"/>
       <c r="HY3" s="7"/>
       <c r="HZ3" s="7"/>
@@ -3361,9 +3367,15 @@
       <c r="HT4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HU4" s="11"/>
-      <c r="HV4" s="11"/>
-      <c r="HW4" s="11"/>
+      <c r="HU4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HX4" s="11"/>
       <c r="HY4" s="11"/>
       <c r="HZ4" s="11"/>
@@ -4208,9 +4220,15 @@
       <c r="HT5" s="17" t="n">
         <v>179258920</v>
       </c>
-      <c r="HU5" s="17"/>
-      <c r="HV5" s="17"/>
-      <c r="HW5" s="17"/>
+      <c r="HU5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW5" s="17" t="n">
+        <v>179823217</v>
+      </c>
       <c r="HX5" s="17"/>
       <c r="HY5" s="17"/>
       <c r="HZ5" s="17"/>
@@ -5053,9 +5071,15 @@
       <c r="HT6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="HU6" s="20"/>
-      <c r="HV6" s="20"/>
-      <c r="HW6" s="20"/>
+      <c r="HU6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="HX6" s="20"/>
       <c r="HY6" s="20"/>
       <c r="HZ6" s="20"/>
@@ -5900,9 +5924,15 @@
       <c r="HT7" s="24" t="n">
         <v>171279345</v>
       </c>
-      <c r="HU7" s="24"/>
-      <c r="HV7" s="24"/>
-      <c r="HW7" s="24"/>
+      <c r="HU7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW7" s="24" t="n">
+        <v>171915170</v>
+      </c>
       <c r="HX7" s="24"/>
       <c r="HY7" s="24"/>
       <c r="HZ7" s="24"/>
@@ -6745,9 +6775,15 @@
       <c r="HT8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HU8" s="27"/>
-      <c r="HV8" s="27"/>
-      <c r="HW8" s="27"/>
+      <c r="HU8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="HX8" s="27"/>
       <c r="HY8" s="27"/>
       <c r="HZ8" s="27"/>
@@ -7592,9 +7628,15 @@
       <c r="HT9" s="31" t="n">
         <v>160696402</v>
       </c>
-      <c r="HU9" s="31"/>
-      <c r="HV9" s="31"/>
-      <c r="HW9" s="31"/>
+      <c r="HU9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW9" s="31" t="n">
+        <v>161165616</v>
+      </c>
       <c r="HX9" s="31"/>
       <c r="HY9" s="31"/>
       <c r="HZ9" s="31"/>
@@ -8437,9 +8479,15 @@
       <c r="HT10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HU10" s="34"/>
-      <c r="HV10" s="34"/>
-      <c r="HW10" s="34"/>
+      <c r="HU10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HX10" s="34"/>
       <c r="HY10" s="34"/>
       <c r="HZ10" s="34"/>
@@ -9284,9 +9332,15 @@
       <c r="HT11" s="38" t="n">
         <v>135700670</v>
       </c>
-      <c r="HU11" s="38"/>
-      <c r="HV11" s="38"/>
-      <c r="HW11" s="38"/>
+      <c r="HU11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW11" s="38" t="n">
+        <v>136015801</v>
+      </c>
       <c r="HX11" s="38"/>
       <c r="HY11" s="38"/>
       <c r="HZ11" s="38"/>
@@ -10129,9 +10183,15 @@
       <c r="HT12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HU12" s="41"/>
-      <c r="HV12" s="41"/>
-      <c r="HW12" s="41"/>
+      <c r="HU12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HX12" s="41"/>
       <c r="HY12" s="41"/>
       <c r="HZ12" s="41"/>
@@ -10976,9 +11036,15 @@
       <c r="HT13" s="45" t="n">
         <v>139667506</v>
       </c>
-      <c r="HU13" s="45"/>
-      <c r="HV13" s="45"/>
-      <c r="HW13" s="45"/>
+      <c r="HU13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW13" s="45" t="n">
+        <v>140464030</v>
+      </c>
       <c r="HX13" s="45"/>
       <c r="HY13" s="45"/>
       <c r="HZ13" s="45"/>
@@ -11821,9 +11887,15 @@
       <c r="HT14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HU14" s="48"/>
-      <c r="HV14" s="48"/>
-      <c r="HW14" s="48"/>
+      <c r="HU14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HX14" s="48"/>
       <c r="HY14" s="48"/>
       <c r="HZ14" s="48"/>
@@ -12668,9 +12740,15 @@
       <c r="HT15" s="52" t="n">
         <v>126044979</v>
       </c>
-      <c r="HU15" s="52"/>
-      <c r="HV15" s="52"/>
-      <c r="HW15" s="52"/>
+      <c r="HU15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW15" s="52" t="n">
+        <v>126390351</v>
+      </c>
       <c r="HX15" s="52"/>
       <c r="HY15" s="52"/>
       <c r="HZ15" s="52"/>
@@ -13513,9 +13591,15 @@
       <c r="HT16" s="55" t="n">
         <v>192</v>
       </c>
-      <c r="HU16" s="55"/>
-      <c r="HV16" s="55"/>
-      <c r="HW16" s="55"/>
+      <c r="HU16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW16" s="55" t="n">
+        <v>192</v>
+      </c>
       <c r="HX16" s="55"/>
       <c r="HY16" s="55"/>
       <c r="HZ16" s="55"/>
@@ -14360,9 +14444,15 @@
       <c r="HT17" s="59" t="n">
         <v>94853604</v>
       </c>
-      <c r="HU17" s="59"/>
-      <c r="HV17" s="59"/>
-      <c r="HW17" s="59"/>
+      <c r="HU17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW17" s="59" t="n">
+        <v>95033291</v>
+      </c>
       <c r="HX17" s="59"/>
       <c r="HY17" s="59"/>
       <c r="HZ17" s="59"/>
@@ -15205,9 +15295,15 @@
       <c r="HT18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="HU18" s="62"/>
-      <c r="HV18" s="62"/>
-      <c r="HW18" s="62"/>
+      <c r="HU18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="HX18" s="62"/>
       <c r="HY18" s="62"/>
       <c r="HZ18" s="62"/>
@@ -16052,9 +16148,15 @@
       <c r="HT19" s="66" t="n">
         <v>92273990</v>
       </c>
-      <c r="HU19" s="66"/>
-      <c r="HV19" s="66"/>
-      <c r="HW19" s="66"/>
+      <c r="HU19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW19" s="66" t="n">
+        <v>92298112</v>
+      </c>
       <c r="HX19" s="66"/>
       <c r="HY19" s="66"/>
       <c r="HZ19" s="66"/>
@@ -16897,9 +16999,15 @@
       <c r="HT20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="HU20" s="69"/>
-      <c r="HV20" s="69"/>
-      <c r="HW20" s="69"/>
+      <c r="HU20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="HW20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HX20" s="69"/>
       <c r="HY20" s="69"/>
       <c r="HZ20" s="69"/>
@@ -17965,7 +18073,19 @@
       </c>
       <c r="HT23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HT2)&amp;", ""month"": "&amp;MONTH(HT2)&amp;", ""day"": "&amp;DAY(HT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HT3&amp;", ""memberCount"": "&amp;HT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HT5&amp;", ""memberCount"": "&amp;HT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HT7&amp;", ""memberCount"": "&amp;HT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HT9&amp;", ""memberCount"": "&amp;HT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HT11&amp;", ""memberCount"": "&amp;HT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HT13&amp;", ""memberCount"": "&amp;HT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HT15&amp;", ""memberCount"": "&amp;HT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HT17&amp;", ""memberCount"": "&amp;HT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HT19&amp;", ""memberCount"": "&amp;HT20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 206977129, "memberCount": 199}, {"name": "Smile", "contribution": 179258920, "memberCount": 200}, {"name": "Elite", "contribution": 171279345, "memberCount": 198}, {"name": "Savages", "contribution": 160696402, "memberCount": 200}, {"name": "Spring", "contribution": 135700670, "memberCount": 195}, {"name": "Bounce", "contribution": 139667506, "memberCount": 199}, {"name": "Sunset", "contribution": 126044979, "memberCount": 192}, {"name": "Beaters", "contribution": 94853604, "memberCount": 176}, {"name": "Downtime", "contribution": 92273990, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 206977129, "memberCount": 199}, {"name": "Smile", "contribution": 179258920, "memberCount": 200}, {"name": "Elite", "contribution": 171279345, "memberCount": 198}, {"name": "Savages", "contribution": 160696402, "memberCount": 200}, {"name": "Spring", "contribution": 135700670, "memberCount": 195}, {"name": "Bounce", "contribution": 139667506, "memberCount": 199}, {"name": "Sunset", "contribution": 126044979, "memberCount": 192}, {"name": "Beaters", "contribution": 94853604, "memberCount": 176}, {"name": "Downtime", "contribution": 92273990, "memberCount": 196}]}</v>
+      </c>
+      <c r="HU23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HU2)&amp;", ""month"": "&amp;MONTH(HU2)&amp;", ""day"": "&amp;DAY(HU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HU3&amp;", ""memberCount"": "&amp;HU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HU5&amp;", ""memberCount"": "&amp;HU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HU7&amp;", ""memberCount"": "&amp;HU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HU9&amp;", ""memberCount"": "&amp;HU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HU11&amp;", ""memberCount"": "&amp;HU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HU13&amp;", ""memberCount"": "&amp;HU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HU15&amp;", ""memberCount"": "&amp;HU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HU17&amp;", ""memberCount"": "&amp;HU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HU19&amp;", ""memberCount"": "&amp;HU20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="HV23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HV2)&amp;", ""month"": "&amp;MONTH(HV2)&amp;", ""day"": "&amp;DAY(HV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HV3&amp;", ""memberCount"": "&amp;HV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HV5&amp;", ""memberCount"": "&amp;HV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HV7&amp;", ""memberCount"": "&amp;HV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HV9&amp;", ""memberCount"": "&amp;HV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HV11&amp;", ""memberCount"": "&amp;HV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HV13&amp;", ""memberCount"": "&amp;HV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HV15&amp;", ""memberCount"": "&amp;HV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HV17&amp;", ""memberCount"": "&amp;HV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HV19&amp;", ""memberCount"": "&amp;HV20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="HW23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HW2)&amp;", ""month"": "&amp;MONTH(HW2)&amp;", ""day"": "&amp;DAY(HW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HW3&amp;", ""memberCount"": "&amp;HW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HW5&amp;", ""memberCount"": "&amp;HW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HW7&amp;", ""memberCount"": "&amp;HW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HW9&amp;", ""memberCount"": "&amp;HW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HW11&amp;", ""memberCount"": "&amp;HW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HW13&amp;", ""memberCount"": "&amp;HW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HW15&amp;", ""memberCount"": "&amp;HW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HW17&amp;", ""memberCount"": "&amp;HW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HW19&amp;", ""memberCount"": "&amp;HW20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 207553208, "memberCount": 199}, {"name": "Smile", "contribution": 179823217, "memberCount": 200}, {"name": "Elite", "contribution": 171915170, "memberCount": 198}, {"name": "Savages", "contribution": 161165616, "memberCount": 200}, {"name": "Spring", "contribution": 136015801, "memberCount": 195}, {"name": "Bounce", "contribution": 140464030, "memberCount": 199}, {"name": "Sunset", "contribution": 126390351, "memberCount": 192}, {"name": "Beaters", "contribution": 95033291, "memberCount": 176}, {"name": "Downtime", "contribution": 92298112, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HL1" activeCellId="0" sqref="HL1"/>
+      <selection pane="topRight" activeCell="HW1" activeCellId="0" sqref="HW1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HU23" activeCellId="0" sqref="HU23:HW23"/>
+      <selection pane="bottomRight" activeCell="HX23" activeCellId="0" sqref="HX23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2525,7 +2525,9 @@
       <c r="HW3" s="7" t="n">
         <v>207553208</v>
       </c>
-      <c r="HX3" s="7"/>
+      <c r="HX3" s="7" t="n">
+        <v>207719544</v>
+      </c>
       <c r="HY3" s="7"/>
       <c r="HZ3" s="7"/>
       <c r="IA3" s="7"/>
@@ -3376,7 +3378,9 @@
       <c r="HW4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HX4" s="11"/>
+      <c r="HX4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HY4" s="11"/>
       <c r="HZ4" s="11"/>
       <c r="IA4" s="11"/>
@@ -4229,7 +4233,9 @@
       <c r="HW5" s="17" t="n">
         <v>179823217</v>
       </c>
-      <c r="HX5" s="17"/>
+      <c r="HX5" s="17" t="n">
+        <v>179689035</v>
+      </c>
       <c r="HY5" s="17"/>
       <c r="HZ5" s="17"/>
       <c r="IA5" s="17"/>
@@ -5080,7 +5086,9 @@
       <c r="HW6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="HX6" s="20"/>
+      <c r="HX6" s="20" t="n">
+        <v>195</v>
+      </c>
       <c r="HY6" s="20"/>
       <c r="HZ6" s="20"/>
       <c r="IA6" s="20"/>
@@ -5933,7 +5941,9 @@
       <c r="HW7" s="24" t="n">
         <v>171915170</v>
       </c>
-      <c r="HX7" s="24"/>
+      <c r="HX7" s="24" t="n">
+        <v>172085534</v>
+      </c>
       <c r="HY7" s="24"/>
       <c r="HZ7" s="24"/>
       <c r="IA7" s="24"/>
@@ -6784,7 +6794,9 @@
       <c r="HW8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HX8" s="27"/>
+      <c r="HX8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="HY8" s="27"/>
       <c r="HZ8" s="27"/>
       <c r="IA8" s="27"/>
@@ -7637,7 +7649,9 @@
       <c r="HW9" s="31" t="n">
         <v>161165616</v>
       </c>
-      <c r="HX9" s="31"/>
+      <c r="HX9" s="31" t="n">
+        <v>161358256</v>
+      </c>
       <c r="HY9" s="31"/>
       <c r="HZ9" s="31"/>
       <c r="IA9" s="31"/>
@@ -8488,7 +8502,9 @@
       <c r="HW10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HX10" s="34"/>
+      <c r="HX10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HY10" s="34"/>
       <c r="HZ10" s="34"/>
       <c r="IA10" s="34"/>
@@ -9341,7 +9357,9 @@
       <c r="HW11" s="38" t="n">
         <v>136015801</v>
       </c>
-      <c r="HX11" s="38"/>
+      <c r="HX11" s="38" t="n">
+        <v>136134086</v>
+      </c>
       <c r="HY11" s="38"/>
       <c r="HZ11" s="38"/>
       <c r="IA11" s="38"/>
@@ -10192,7 +10210,9 @@
       <c r="HW12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HX12" s="41"/>
+      <c r="HX12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HY12" s="41"/>
       <c r="HZ12" s="41"/>
       <c r="IA12" s="41"/>
@@ -11045,7 +11065,9 @@
       <c r="HW13" s="45" t="n">
         <v>140464030</v>
       </c>
-      <c r="HX13" s="45"/>
+      <c r="HX13" s="45" t="n">
+        <v>140731270</v>
+      </c>
       <c r="HY13" s="45"/>
       <c r="HZ13" s="45"/>
       <c r="IA13" s="45"/>
@@ -11896,7 +11918,9 @@
       <c r="HW14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HX14" s="48"/>
+      <c r="HX14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HY14" s="48"/>
       <c r="HZ14" s="48"/>
       <c r="IA14" s="48"/>
@@ -12749,7 +12773,9 @@
       <c r="HW15" s="52" t="n">
         <v>126390351</v>
       </c>
-      <c r="HX15" s="52"/>
+      <c r="HX15" s="52" t="n">
+        <v>126509150</v>
+      </c>
       <c r="HY15" s="52"/>
       <c r="HZ15" s="52"/>
       <c r="IA15" s="52"/>
@@ -13600,7 +13626,9 @@
       <c r="HW16" s="55" t="n">
         <v>192</v>
       </c>
-      <c r="HX16" s="55"/>
+      <c r="HX16" s="55" t="n">
+        <v>192</v>
+      </c>
       <c r="HY16" s="55"/>
       <c r="HZ16" s="55"/>
       <c r="IA16" s="55"/>
@@ -14453,7 +14481,9 @@
       <c r="HW17" s="59" t="n">
         <v>95033291</v>
       </c>
-      <c r="HX17" s="59"/>
+      <c r="HX17" s="59" t="n">
+        <v>95057289</v>
+      </c>
       <c r="HY17" s="59"/>
       <c r="HZ17" s="59"/>
       <c r="IA17" s="59"/>
@@ -15304,7 +15334,9 @@
       <c r="HW18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="HX18" s="62"/>
+      <c r="HX18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="HY18" s="62"/>
       <c r="HZ18" s="62"/>
       <c r="IA18" s="62"/>
@@ -16157,7 +16189,9 @@
       <c r="HW19" s="66" t="n">
         <v>92298112</v>
       </c>
-      <c r="HX19" s="66"/>
+      <c r="HX19" s="66" t="n">
+        <v>92412967</v>
+      </c>
       <c r="HY19" s="66"/>
       <c r="HZ19" s="66"/>
       <c r="IA19" s="66"/>
@@ -17008,7 +17042,9 @@
       <c r="HW20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HX20" s="69"/>
+      <c r="HX20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="HY20" s="69"/>
       <c r="HZ20" s="69"/>
       <c r="IA20" s="69"/>
@@ -18077,15 +18113,19 @@
       </c>
       <c r="HU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HU2)&amp;", ""month"": "&amp;MONTH(HU2)&amp;", ""day"": "&amp;DAY(HU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HU3&amp;", ""memberCount"": "&amp;HU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HU5&amp;", ""memberCount"": "&amp;HU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HU7&amp;", ""memberCount"": "&amp;HU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HU9&amp;", ""memberCount"": "&amp;HU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HU11&amp;", ""memberCount"": "&amp;HU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HU13&amp;", ""memberCount"": "&amp;HU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HU15&amp;", ""memberCount"": "&amp;HU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HU17&amp;", ""memberCount"": "&amp;HU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HU19&amp;", ""memberCount"": "&amp;HU20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="HV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HV2)&amp;", ""month"": "&amp;MONTH(HV2)&amp;", ""day"": "&amp;DAY(HV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HV3&amp;", ""memberCount"": "&amp;HV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HV5&amp;", ""memberCount"": "&amp;HV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HV7&amp;", ""memberCount"": "&amp;HV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HV9&amp;", ""memberCount"": "&amp;HV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HV11&amp;", ""memberCount"": "&amp;HV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HV13&amp;", ""memberCount"": "&amp;HV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HV15&amp;", ""memberCount"": "&amp;HV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HV17&amp;", ""memberCount"": "&amp;HV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HV19&amp;", ""memberCount"": "&amp;HV20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="HW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HW2)&amp;", ""month"": "&amp;MONTH(HW2)&amp;", ""day"": "&amp;DAY(HW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HW3&amp;", ""memberCount"": "&amp;HW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HW5&amp;", ""memberCount"": "&amp;HW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HW7&amp;", ""memberCount"": "&amp;HW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HW9&amp;", ""memberCount"": "&amp;HW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HW11&amp;", ""memberCount"": "&amp;HW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HW13&amp;", ""memberCount"": "&amp;HW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HW15&amp;", ""memberCount"": "&amp;HW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HW17&amp;", ""memberCount"": "&amp;HW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HW19&amp;", ""memberCount"": "&amp;HW20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 207553208, "memberCount": 199}, {"name": "Smile", "contribution": 179823217, "memberCount": 200}, {"name": "Elite", "contribution": 171915170, "memberCount": 198}, {"name": "Savages", "contribution": 161165616, "memberCount": 200}, {"name": "Spring", "contribution": 136015801, "memberCount": 195}, {"name": "Bounce", "contribution": 140464030, "memberCount": 199}, {"name": "Sunset", "contribution": 126390351, "memberCount": 192}, {"name": "Beaters", "contribution": 95033291, "memberCount": 176}, {"name": "Downtime", "contribution": 92298112, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 207553208, "memberCount": 199}, {"name": "Smile", "contribution": 179823217, "memberCount": 200}, {"name": "Elite", "contribution": 171915170, "memberCount": 198}, {"name": "Savages", "contribution": 161165616, "memberCount": 200}, {"name": "Spring", "contribution": 136015801, "memberCount": 195}, {"name": "Bounce", "contribution": 140464030, "memberCount": 199}, {"name": "Sunset", "contribution": 126390351, "memberCount": 192}, {"name": "Beaters", "contribution": 95033291, "memberCount": 176}, {"name": "Downtime", "contribution": 92298112, "memberCount": 197}]}</v>
+      </c>
+      <c r="HX23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HX2)&amp;", ""month"": "&amp;MONTH(HX2)&amp;", ""day"": "&amp;DAY(HX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HX3&amp;", ""memberCount"": "&amp;HX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HX5&amp;", ""memberCount"": "&amp;HX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HX7&amp;", ""memberCount"": "&amp;HX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HX9&amp;", ""memberCount"": "&amp;HX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HX11&amp;", ""memberCount"": "&amp;HX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HX13&amp;", ""memberCount"": "&amp;HX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HX15&amp;", ""memberCount"": "&amp;HX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HX17&amp;", ""memberCount"": "&amp;HX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HX19&amp;", ""memberCount"": "&amp;HX20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 207719544, "memberCount": 199}, {"name": "Smile", "contribution": 179689035, "memberCount": 195}, {"name": "Elite", "contribution": 172085534, "memberCount": 198}, {"name": "Savages", "contribution": 161358256, "memberCount": 200}, {"name": "Spring", "contribution": 136134086, "memberCount": 195}, {"name": "Bounce", "contribution": 140731270, "memberCount": 199}, {"name": "Sunset", "contribution": 126509150, "memberCount": 192}, {"name": "Beaters", "contribution": 95057289, "memberCount": 177}, {"name": "Downtime", "contribution": 92412967, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HW1" activeCellId="0" sqref="HW1"/>
+      <selection pane="topRight" activeCell="HX1" activeCellId="0" sqref="HX1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HX23" activeCellId="0" sqref="HX23"/>
+      <selection pane="bottomRight" activeCell="HY23" activeCellId="0" sqref="HY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2528,7 +2528,9 @@
       <c r="HX3" s="7" t="n">
         <v>207719544</v>
       </c>
-      <c r="HY3" s="7"/>
+      <c r="HY3" s="7" t="n">
+        <v>207929291</v>
+      </c>
       <c r="HZ3" s="7"/>
       <c r="IA3" s="7"/>
       <c r="IB3" s="7"/>
@@ -3381,7 +3383,9 @@
       <c r="HX4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HY4" s="11"/>
+      <c r="HY4" s="11" t="n">
+        <v>199</v>
+      </c>
       <c r="HZ4" s="11"/>
       <c r="IA4" s="11"/>
       <c r="IB4" s="11"/>
@@ -4236,7 +4240,9 @@
       <c r="HX5" s="17" t="n">
         <v>179689035</v>
       </c>
-      <c r="HY5" s="17"/>
+      <c r="HY5" s="17" t="n">
+        <v>179890382</v>
+      </c>
       <c r="HZ5" s="17"/>
       <c r="IA5" s="17"/>
       <c r="IB5" s="17"/>
@@ -5089,7 +5095,9 @@
       <c r="HX6" s="20" t="n">
         <v>195</v>
       </c>
-      <c r="HY6" s="20"/>
+      <c r="HY6" s="20" t="n">
+        <v>195</v>
+      </c>
       <c r="HZ6" s="20"/>
       <c r="IA6" s="20"/>
       <c r="IB6" s="20"/>
@@ -5944,7 +5952,9 @@
       <c r="HX7" s="24" t="n">
         <v>172085534</v>
       </c>
-      <c r="HY7" s="24"/>
+      <c r="HY7" s="24" t="n">
+        <v>172316551</v>
+      </c>
       <c r="HZ7" s="24"/>
       <c r="IA7" s="24"/>
       <c r="IB7" s="24"/>
@@ -6797,7 +6807,9 @@
       <c r="HX8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HY8" s="27"/>
+      <c r="HY8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="HZ8" s="27"/>
       <c r="IA8" s="27"/>
       <c r="IB8" s="27"/>
@@ -7652,7 +7664,9 @@
       <c r="HX9" s="31" t="n">
         <v>161358256</v>
       </c>
-      <c r="HY9" s="31"/>
+      <c r="HY9" s="31" t="n">
+        <v>161549657</v>
+      </c>
       <c r="HZ9" s="31"/>
       <c r="IA9" s="31"/>
       <c r="IB9" s="31"/>
@@ -8505,7 +8519,9 @@
       <c r="HX10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HY10" s="34"/>
+      <c r="HY10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="HZ10" s="34"/>
       <c r="IA10" s="34"/>
       <c r="IB10" s="34"/>
@@ -9360,7 +9376,9 @@
       <c r="HX11" s="38" t="n">
         <v>136134086</v>
       </c>
-      <c r="HY11" s="38"/>
+      <c r="HY11" s="38" t="n">
+        <v>136281035</v>
+      </c>
       <c r="HZ11" s="38"/>
       <c r="IA11" s="38"/>
       <c r="IB11" s="38"/>
@@ -10213,7 +10231,9 @@
       <c r="HX12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HY12" s="41"/>
+      <c r="HY12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="HZ12" s="41"/>
       <c r="IA12" s="41"/>
       <c r="IB12" s="41"/>
@@ -11068,7 +11088,9 @@
       <c r="HX13" s="45" t="n">
         <v>140731270</v>
       </c>
-      <c r="HY13" s="45"/>
+      <c r="HY13" s="45" t="n">
+        <v>140983016</v>
+      </c>
       <c r="HZ13" s="45"/>
       <c r="IA13" s="45"/>
       <c r="IB13" s="45"/>
@@ -11921,7 +11943,9 @@
       <c r="HX14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HY14" s="48"/>
+      <c r="HY14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="HZ14" s="48"/>
       <c r="IA14" s="48"/>
       <c r="IB14" s="48"/>
@@ -12776,7 +12800,9 @@
       <c r="HX15" s="52" t="n">
         <v>126509150</v>
       </c>
-      <c r="HY15" s="52"/>
+      <c r="HY15" s="52" t="n">
+        <v>126656910</v>
+      </c>
       <c r="HZ15" s="52"/>
       <c r="IA15" s="52"/>
       <c r="IB15" s="52"/>
@@ -13629,7 +13655,9 @@
       <c r="HX16" s="55" t="n">
         <v>192</v>
       </c>
-      <c r="HY16" s="55"/>
+      <c r="HY16" s="55" t="n">
+        <v>193</v>
+      </c>
       <c r="HZ16" s="55"/>
       <c r="IA16" s="55"/>
       <c r="IB16" s="55"/>
@@ -14484,7 +14512,9 @@
       <c r="HX17" s="59" t="n">
         <v>95057289</v>
       </c>
-      <c r="HY17" s="59"/>
+      <c r="HY17" s="59" t="n">
+        <v>95116150</v>
+      </c>
       <c r="HZ17" s="59"/>
       <c r="IA17" s="59"/>
       <c r="IB17" s="59"/>
@@ -15337,7 +15367,9 @@
       <c r="HX18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="HY18" s="62"/>
+      <c r="HY18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="HZ18" s="62"/>
       <c r="IA18" s="62"/>
       <c r="IB18" s="62"/>
@@ -16192,7 +16224,9 @@
       <c r="HX19" s="66" t="n">
         <v>92412967</v>
       </c>
-      <c r="HY19" s="66"/>
+      <c r="HY19" s="66" t="n">
+        <v>91975046</v>
+      </c>
       <c r="HZ19" s="66"/>
       <c r="IA19" s="66"/>
       <c r="IB19" s="66"/>
@@ -17045,7 +17079,9 @@
       <c r="HX20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="HY20" s="69"/>
+      <c r="HY20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="HZ20" s="69"/>
       <c r="IA20" s="69"/>
       <c r="IB20" s="69"/>
@@ -18125,7 +18161,11 @@
       </c>
       <c r="HX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HX2)&amp;", ""month"": "&amp;MONTH(HX2)&amp;", ""day"": "&amp;DAY(HX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HX3&amp;", ""memberCount"": "&amp;HX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HX5&amp;", ""memberCount"": "&amp;HX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HX7&amp;", ""memberCount"": "&amp;HX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HX9&amp;", ""memberCount"": "&amp;HX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HX11&amp;", ""memberCount"": "&amp;HX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HX13&amp;", ""memberCount"": "&amp;HX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HX15&amp;", ""memberCount"": "&amp;HX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HX17&amp;", ""memberCount"": "&amp;HX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HX19&amp;", ""memberCount"": "&amp;HX20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 207719544, "memberCount": 199}, {"name": "Smile", "contribution": 179689035, "memberCount": 195}, {"name": "Elite", "contribution": 172085534, "memberCount": 198}, {"name": "Savages", "contribution": 161358256, "memberCount": 200}, {"name": "Spring", "contribution": 136134086, "memberCount": 195}, {"name": "Bounce", "contribution": 140731270, "memberCount": 199}, {"name": "Sunset", "contribution": 126509150, "memberCount": 192}, {"name": "Beaters", "contribution": 95057289, "memberCount": 177}, {"name": "Downtime", "contribution": 92412967, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 207719544, "memberCount": 199}, {"name": "Smile", "contribution": 179689035, "memberCount": 195}, {"name": "Elite", "contribution": 172085534, "memberCount": 198}, {"name": "Savages", "contribution": 161358256, "memberCount": 200}, {"name": "Spring", "contribution": 136134086, "memberCount": 195}, {"name": "Bounce", "contribution": 140731270, "memberCount": 199}, {"name": "Sunset", "contribution": 126509150, "memberCount": 192}, {"name": "Beaters", "contribution": 95057289, "memberCount": 177}, {"name": "Downtime", "contribution": 92412967, "memberCount": 198}]}</v>
+      </c>
+      <c r="HY23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HY2)&amp;", ""month"": "&amp;MONTH(HY2)&amp;", ""day"": "&amp;DAY(HY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HY3&amp;", ""memberCount"": "&amp;HY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HY5&amp;", ""memberCount"": "&amp;HY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HY7&amp;", ""memberCount"": "&amp;HY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HY9&amp;", ""memberCount"": "&amp;HY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HY11&amp;", ""memberCount"": "&amp;HY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HY13&amp;", ""memberCount"": "&amp;HY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HY15&amp;", ""memberCount"": "&amp;HY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HY17&amp;", ""memberCount"": "&amp;HY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HY19&amp;", ""memberCount"": "&amp;HY20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 207929291, "memberCount": 199}, {"name": "Smile", "contribution": 179890382, "memberCount": 195}, {"name": "Elite", "contribution": 172316551, "memberCount": 198}, {"name": "Savages", "contribution": 161549657, "memberCount": 200}, {"name": "Spring", "contribution": 136281035, "memberCount": 195}, {"name": "Bounce", "contribution": 140983016, "memberCount": 199}, {"name": "Sunset", "contribution": 126656910, "memberCount": 193}, {"name": "Beaters", "contribution": 95116150, "memberCount": 177}, {"name": "Downtime", "contribution": 91975046, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HX1" activeCellId="0" sqref="HX1"/>
+      <selection pane="topRight" activeCell="HY1" activeCellId="0" sqref="HY1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HY23" activeCellId="0" sqref="HY23"/>
+      <selection pane="bottomRight" activeCell="HZ23" activeCellId="0" sqref="HZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2531,7 +2531,9 @@
       <c r="HY3" s="7" t="n">
         <v>207929291</v>
       </c>
-      <c r="HZ3" s="7"/>
+      <c r="HZ3" s="7" t="n">
+        <v>208054260</v>
+      </c>
       <c r="IA3" s="7"/>
       <c r="IB3" s="7"/>
       <c r="IC3" s="7"/>
@@ -3386,7 +3388,9 @@
       <c r="HY4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="HZ4" s="11"/>
+      <c r="HZ4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="IA4" s="11"/>
       <c r="IB4" s="11"/>
       <c r="IC4" s="11"/>
@@ -4243,7 +4247,9 @@
       <c r="HY5" s="17" t="n">
         <v>179890382</v>
       </c>
-      <c r="HZ5" s="17"/>
+      <c r="HZ5" s="17" t="n">
+        <v>180107762</v>
+      </c>
       <c r="IA5" s="17"/>
       <c r="IB5" s="17"/>
       <c r="IC5" s="17"/>
@@ -5098,7 +5104,9 @@
       <c r="HY6" s="20" t="n">
         <v>195</v>
       </c>
-      <c r="HZ6" s="20"/>
+      <c r="HZ6" s="20" t="n">
+        <v>195</v>
+      </c>
       <c r="IA6" s="20"/>
       <c r="IB6" s="20"/>
       <c r="IC6" s="20"/>
@@ -5955,7 +5963,9 @@
       <c r="HY7" s="24" t="n">
         <v>172316551</v>
       </c>
-      <c r="HZ7" s="24"/>
+      <c r="HZ7" s="24" t="n">
+        <v>172549719</v>
+      </c>
       <c r="IA7" s="24"/>
       <c r="IB7" s="24"/>
       <c r="IC7" s="24"/>
@@ -6810,7 +6820,9 @@
       <c r="HY8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="HZ8" s="27"/>
+      <c r="HZ8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IA8" s="27"/>
       <c r="IB8" s="27"/>
       <c r="IC8" s="27"/>
@@ -7667,7 +7679,9 @@
       <c r="HY9" s="31" t="n">
         <v>161549657</v>
       </c>
-      <c r="HZ9" s="31"/>
+      <c r="HZ9" s="31" t="n">
+        <v>161811370</v>
+      </c>
       <c r="IA9" s="31"/>
       <c r="IB9" s="31"/>
       <c r="IC9" s="31"/>
@@ -8522,7 +8536,9 @@
       <c r="HY10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="HZ10" s="34"/>
+      <c r="HZ10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="IA10" s="34"/>
       <c r="IB10" s="34"/>
       <c r="IC10" s="34"/>
@@ -9379,7 +9395,9 @@
       <c r="HY11" s="38" t="n">
         <v>136281035</v>
       </c>
-      <c r="HZ11" s="38"/>
+      <c r="HZ11" s="38" t="n">
+        <v>136395809</v>
+      </c>
       <c r="IA11" s="38"/>
       <c r="IB11" s="38"/>
       <c r="IC11" s="38"/>
@@ -10234,7 +10252,9 @@
       <c r="HY12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="HZ12" s="41"/>
+      <c r="HZ12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="IA12" s="41"/>
       <c r="IB12" s="41"/>
       <c r="IC12" s="41"/>
@@ -11091,7 +11111,9 @@
       <c r="HY13" s="45" t="n">
         <v>140983016</v>
       </c>
-      <c r="HZ13" s="45"/>
+      <c r="HZ13" s="45" t="n">
+        <v>141207663</v>
+      </c>
       <c r="IA13" s="45"/>
       <c r="IB13" s="45"/>
       <c r="IC13" s="45"/>
@@ -11946,7 +11968,9 @@
       <c r="HY14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="HZ14" s="48"/>
+      <c r="HZ14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IA14" s="48"/>
       <c r="IB14" s="48"/>
       <c r="IC14" s="48"/>
@@ -12803,7 +12827,9 @@
       <c r="HY15" s="52" t="n">
         <v>126656910</v>
       </c>
-      <c r="HZ15" s="52"/>
+      <c r="HZ15" s="52" t="n">
+        <v>126757986</v>
+      </c>
       <c r="IA15" s="52"/>
       <c r="IB15" s="52"/>
       <c r="IC15" s="52"/>
@@ -13658,7 +13684,9 @@
       <c r="HY16" s="55" t="n">
         <v>193</v>
       </c>
-      <c r="HZ16" s="55"/>
+      <c r="HZ16" s="55" t="n">
+        <v>195</v>
+      </c>
       <c r="IA16" s="55"/>
       <c r="IB16" s="55"/>
       <c r="IC16" s="55"/>
@@ -14515,7 +14543,9 @@
       <c r="HY17" s="59" t="n">
         <v>95116150</v>
       </c>
-      <c r="HZ17" s="59"/>
+      <c r="HZ17" s="59" t="n">
+        <v>95190439</v>
+      </c>
       <c r="IA17" s="59"/>
       <c r="IB17" s="59"/>
       <c r="IC17" s="59"/>
@@ -15370,7 +15400,9 @@
       <c r="HY18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="HZ18" s="62"/>
+      <c r="HZ18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IA18" s="62"/>
       <c r="IB18" s="62"/>
       <c r="IC18" s="62"/>
@@ -16227,7 +16259,9 @@
       <c r="HY19" s="66" t="n">
         <v>91975046</v>
       </c>
-      <c r="HZ19" s="66"/>
+      <c r="HZ19" s="66" t="n">
+        <v>91537353</v>
+      </c>
       <c r="IA19" s="66"/>
       <c r="IB19" s="66"/>
       <c r="IC19" s="66"/>
@@ -17082,7 +17116,9 @@
       <c r="HY20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="HZ20" s="69"/>
+      <c r="HZ20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="IA20" s="69"/>
       <c r="IB20" s="69"/>
       <c r="IC20" s="69"/>
@@ -18165,7 +18201,11 @@
       </c>
       <c r="HY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HY2)&amp;", ""month"": "&amp;MONTH(HY2)&amp;", ""day"": "&amp;DAY(HY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HY3&amp;", ""memberCount"": "&amp;HY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HY5&amp;", ""memberCount"": "&amp;HY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HY7&amp;", ""memberCount"": "&amp;HY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HY9&amp;", ""memberCount"": "&amp;HY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HY11&amp;", ""memberCount"": "&amp;HY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HY13&amp;", ""memberCount"": "&amp;HY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HY15&amp;", ""memberCount"": "&amp;HY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HY17&amp;", ""memberCount"": "&amp;HY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HY19&amp;", ""memberCount"": "&amp;HY20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 207929291, "memberCount": 199}, {"name": "Smile", "contribution": 179890382, "memberCount": 195}, {"name": "Elite", "contribution": 172316551, "memberCount": 198}, {"name": "Savages", "contribution": 161549657, "memberCount": 200}, {"name": "Spring", "contribution": 136281035, "memberCount": 195}, {"name": "Bounce", "contribution": 140983016, "memberCount": 199}, {"name": "Sunset", "contribution": 126656910, "memberCount": 193}, {"name": "Beaters", "contribution": 95116150, "memberCount": 177}, {"name": "Downtime", "contribution": 91975046, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 207929291, "memberCount": 199}, {"name": "Smile", "contribution": 179890382, "memberCount": 195}, {"name": "Elite", "contribution": 172316551, "memberCount": 198}, {"name": "Savages", "contribution": 161549657, "memberCount": 200}, {"name": "Spring", "contribution": 136281035, "memberCount": 195}, {"name": "Bounce", "contribution": 140983016, "memberCount": 199}, {"name": "Sunset", "contribution": 126656910, "memberCount": 193}, {"name": "Beaters", "contribution": 95116150, "memberCount": 177}, {"name": "Downtime", "contribution": 91975046, "memberCount": 197}]}</v>
+      </c>
+      <c r="HZ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HZ2)&amp;", ""month"": "&amp;MONTH(HZ2)&amp;", ""day"": "&amp;DAY(HZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HZ3&amp;", ""memberCount"": "&amp;HZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HZ5&amp;", ""memberCount"": "&amp;HZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HZ7&amp;", ""memberCount"": "&amp;HZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HZ9&amp;", ""memberCount"": "&amp;HZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HZ11&amp;", ""memberCount"": "&amp;HZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HZ13&amp;", ""memberCount"": "&amp;HZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HZ15&amp;", ""memberCount"": "&amp;HZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HZ17&amp;", ""memberCount"": "&amp;HZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HZ19&amp;", ""memberCount"": "&amp;HZ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 208054260, "memberCount": 198}, {"name": "Smile", "contribution": 180107762, "memberCount": 195}, {"name": "Elite", "contribution": 172549719, "memberCount": 198}, {"name": "Savages", "contribution": 161811370, "memberCount": 199}, {"name": "Spring", "contribution": 136395809, "memberCount": 195}, {"name": "Bounce", "contribution": 141207663, "memberCount": 199}, {"name": "Sunset", "contribution": 126757986, "memberCount": 195}, {"name": "Beaters", "contribution": 95190439, "memberCount": 177}, {"name": "Downtime", "contribution": 91537353, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -656,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="HY1" activeCellId="0" sqref="HY1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HZ23" activeCellId="0" sqref="HZ23"/>
+      <selection pane="bottomRight" activeCell="IA23" activeCellId="0" sqref="IA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2534,7 +2534,9 @@
       <c r="HZ3" s="7" t="n">
         <v>208054260</v>
       </c>
-      <c r="IA3" s="7"/>
+      <c r="IA3" s="7" t="n">
+        <v>208348724</v>
+      </c>
       <c r="IB3" s="7"/>
       <c r="IC3" s="7"/>
       <c r="ID3" s="7"/>
@@ -3391,7 +3393,9 @@
       <c r="HZ4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="IA4" s="11"/>
+      <c r="IA4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="IB4" s="11"/>
       <c r="IC4" s="11"/>
       <c r="ID4" s="11"/>
@@ -4250,7 +4254,9 @@
       <c r="HZ5" s="17" t="n">
         <v>180107762</v>
       </c>
-      <c r="IA5" s="17"/>
+      <c r="IA5" s="17" t="n">
+        <v>180392582</v>
+      </c>
       <c r="IB5" s="17"/>
       <c r="IC5" s="17"/>
       <c r="ID5" s="17"/>
@@ -5107,7 +5113,9 @@
       <c r="HZ6" s="20" t="n">
         <v>195</v>
       </c>
-      <c r="IA6" s="20"/>
+      <c r="IA6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="IB6" s="20"/>
       <c r="IC6" s="20"/>
       <c r="ID6" s="20"/>
@@ -5966,7 +5974,9 @@
       <c r="HZ7" s="24" t="n">
         <v>172549719</v>
       </c>
-      <c r="IA7" s="24"/>
+      <c r="IA7" s="24" t="n">
+        <v>172757840</v>
+      </c>
       <c r="IB7" s="24"/>
       <c r="IC7" s="24"/>
       <c r="ID7" s="24"/>
@@ -6823,7 +6833,9 @@
       <c r="HZ8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IA8" s="27"/>
+      <c r="IA8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IB8" s="27"/>
       <c r="IC8" s="27"/>
       <c r="ID8" s="27"/>
@@ -7682,7 +7694,9 @@
       <c r="HZ9" s="31" t="n">
         <v>161811370</v>
       </c>
-      <c r="IA9" s="31"/>
+      <c r="IA9" s="31" t="n">
+        <v>162012385</v>
+      </c>
       <c r="IB9" s="31"/>
       <c r="IC9" s="31"/>
       <c r="ID9" s="31"/>
@@ -8539,7 +8553,9 @@
       <c r="HZ10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="IA10" s="34"/>
+      <c r="IA10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="IB10" s="34"/>
       <c r="IC10" s="34"/>
       <c r="ID10" s="34"/>
@@ -9398,7 +9414,9 @@
       <c r="HZ11" s="38" t="n">
         <v>136395809</v>
       </c>
-      <c r="IA11" s="38"/>
+      <c r="IA11" s="38" t="n">
+        <v>136518764</v>
+      </c>
       <c r="IB11" s="38"/>
       <c r="IC11" s="38"/>
       <c r="ID11" s="38"/>
@@ -10255,7 +10273,9 @@
       <c r="HZ12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="IA12" s="41"/>
+      <c r="IA12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="IB12" s="41"/>
       <c r="IC12" s="41"/>
       <c r="ID12" s="41"/>
@@ -11114,7 +11134,9 @@
       <c r="HZ13" s="45" t="n">
         <v>141207663</v>
       </c>
-      <c r="IA13" s="45"/>
+      <c r="IA13" s="45" t="n">
+        <v>141595896</v>
+      </c>
       <c r="IB13" s="45"/>
       <c r="IC13" s="45"/>
       <c r="ID13" s="45"/>
@@ -11971,7 +11993,9 @@
       <c r="HZ14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IA14" s="48"/>
+      <c r="IA14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IB14" s="48"/>
       <c r="IC14" s="48"/>
       <c r="ID14" s="48"/>
@@ -12830,7 +12854,9 @@
       <c r="HZ15" s="52" t="n">
         <v>126757986</v>
       </c>
-      <c r="IA15" s="52"/>
+      <c r="IA15" s="52" t="n">
+        <v>126854047</v>
+      </c>
       <c r="IB15" s="52"/>
       <c r="IC15" s="52"/>
       <c r="ID15" s="52"/>
@@ -13687,7 +13713,9 @@
       <c r="HZ16" s="55" t="n">
         <v>195</v>
       </c>
-      <c r="IA16" s="55"/>
+      <c r="IA16" s="55" t="n">
+        <v>195</v>
+      </c>
       <c r="IB16" s="55"/>
       <c r="IC16" s="55"/>
       <c r="ID16" s="55"/>
@@ -14546,7 +14574,9 @@
       <c r="HZ17" s="59" t="n">
         <v>95190439</v>
       </c>
-      <c r="IA17" s="59"/>
+      <c r="IA17" s="59" t="n">
+        <v>95228503</v>
+      </c>
       <c r="IB17" s="59"/>
       <c r="IC17" s="59"/>
       <c r="ID17" s="59"/>
@@ -15403,7 +15433,9 @@
       <c r="HZ18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IA18" s="62"/>
+      <c r="IA18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IB18" s="62"/>
       <c r="IC18" s="62"/>
       <c r="ID18" s="62"/>
@@ -16262,7 +16294,9 @@
       <c r="HZ19" s="66" t="n">
         <v>91537353</v>
       </c>
-      <c r="IA19" s="66"/>
+      <c r="IA19" s="66" t="n">
+        <v>91722613</v>
+      </c>
       <c r="IB19" s="66"/>
       <c r="IC19" s="66"/>
       <c r="ID19" s="66"/>
@@ -17119,7 +17153,9 @@
       <c r="HZ20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="IA20" s="69"/>
+      <c r="IA20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="IB20" s="69"/>
       <c r="IC20" s="69"/>
       <c r="ID20" s="69"/>
@@ -18205,7 +18241,11 @@
       </c>
       <c r="HZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(HZ2)&amp;", ""month"": "&amp;MONTH(HZ2)&amp;", ""day"": "&amp;DAY(HZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;HZ3&amp;", ""memberCount"": "&amp;HZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;HZ5&amp;", ""memberCount"": "&amp;HZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;HZ7&amp;", ""memberCount"": "&amp;HZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;HZ9&amp;", ""memberCount"": "&amp;HZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;HZ11&amp;", ""memberCount"": "&amp;HZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;HZ13&amp;", ""memberCount"": "&amp;HZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;HZ15&amp;", ""memberCount"": "&amp;HZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;HZ17&amp;", ""memberCount"": "&amp;HZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;HZ19&amp;", ""memberCount"": "&amp;HZ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 208054260, "memberCount": 198}, {"name": "Smile", "contribution": 180107762, "memberCount": 195}, {"name": "Elite", "contribution": 172549719, "memberCount": 198}, {"name": "Savages", "contribution": 161811370, "memberCount": 199}, {"name": "Spring", "contribution": 136395809, "memberCount": 195}, {"name": "Bounce", "contribution": 141207663, "memberCount": 199}, {"name": "Sunset", "contribution": 126757986, "memberCount": 195}, {"name": "Beaters", "contribution": 95190439, "memberCount": 177}, {"name": "Downtime", "contribution": 91537353, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 208054260, "memberCount": 198}, {"name": "Smile", "contribution": 180107762, "memberCount": 195}, {"name": "Elite", "contribution": 172549719, "memberCount": 198}, {"name": "Savages", "contribution": 161811370, "memberCount": 199}, {"name": "Spring", "contribution": 136395809, "memberCount": 195}, {"name": "Bounce", "contribution": 141207663, "memberCount": 199}, {"name": "Sunset", "contribution": 126757986, "memberCount": 195}, {"name": "Beaters", "contribution": 95190439, "memberCount": 177}, {"name": "Downtime", "contribution": 91537353, "memberCount": 198}]}</v>
+      </c>
+      <c r="IA23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IA2)&amp;", ""month"": "&amp;MONTH(IA2)&amp;", ""day"": "&amp;DAY(IA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IA3&amp;", ""memberCount"": "&amp;IA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IA5&amp;", ""memberCount"": "&amp;IA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IA7&amp;", ""memberCount"": "&amp;IA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IA9&amp;", ""memberCount"": "&amp;IA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IA11&amp;", ""memberCount"": "&amp;IA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IA13&amp;", ""memberCount"": "&amp;IA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IA15&amp;", ""memberCount"": "&amp;IA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IA17&amp;", ""memberCount"": "&amp;IA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IA19&amp;", ""memberCount"": "&amp;IA20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 208348724, "memberCount": 198}, {"name": "Smile", "contribution": 180392582, "memberCount": 196}, {"name": "Elite", "contribution": 172757840, "memberCount": 198}, {"name": "Savages", "contribution": 162012385, "memberCount": 199}, {"name": "Spring", "contribution": 136518764, "memberCount": 196}, {"name": "Bounce", "contribution": 141595896, "memberCount": 199}, {"name": "Sunset", "contribution": 126854047, "memberCount": 195}, {"name": "Beaters", "contribution": 95228503, "memberCount": 177}, {"name": "Downtime", "contribution": 91722613, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="HZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HY1" activeCellId="0" sqref="HY1"/>
+      <selection pane="topRight" activeCell="HZ1" activeCellId="0" sqref="HZ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IA23" activeCellId="0" sqref="IA23"/>
+      <selection pane="bottomRight" activeCell="IB23" activeCellId="0" sqref="IB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2537,7 +2537,9 @@
       <c r="IA3" s="7" t="n">
         <v>208348724</v>
       </c>
-      <c r="IB3" s="7"/>
+      <c r="IB3" s="7" t="n">
+        <v>208499740</v>
+      </c>
       <c r="IC3" s="7"/>
       <c r="ID3" s="7"/>
       <c r="IE3" s="7"/>
@@ -3396,7 +3398,9 @@
       <c r="IA4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="IB4" s="11"/>
+      <c r="IB4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="IC4" s="11"/>
       <c r="ID4" s="11"/>
       <c r="IE4" s="11"/>
@@ -4257,7 +4261,9 @@
       <c r="IA5" s="17" t="n">
         <v>180392582</v>
       </c>
-      <c r="IB5" s="17"/>
+      <c r="IB5" s="17" t="n">
+        <v>180553324</v>
+      </c>
       <c r="IC5" s="17"/>
       <c r="ID5" s="17"/>
       <c r="IE5" s="17"/>
@@ -5116,7 +5122,9 @@
       <c r="IA6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="IB6" s="20"/>
+      <c r="IB6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="IC6" s="20"/>
       <c r="ID6" s="20"/>
       <c r="IE6" s="20"/>
@@ -5977,7 +5985,9 @@
       <c r="IA7" s="24" t="n">
         <v>172757840</v>
       </c>
-      <c r="IB7" s="24"/>
+      <c r="IB7" s="24" t="n">
+        <v>172907555</v>
+      </c>
       <c r="IC7" s="24"/>
       <c r="ID7" s="24"/>
       <c r="IE7" s="24"/>
@@ -6836,7 +6846,9 @@
       <c r="IA8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IB8" s="27"/>
+      <c r="IB8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IC8" s="27"/>
       <c r="ID8" s="27"/>
       <c r="IE8" s="27"/>
@@ -7697,7 +7709,9 @@
       <c r="IA9" s="31" t="n">
         <v>162012385</v>
       </c>
-      <c r="IB9" s="31"/>
+      <c r="IB9" s="31" t="n">
+        <v>162235745</v>
+      </c>
       <c r="IC9" s="31"/>
       <c r="ID9" s="31"/>
       <c r="IE9" s="31"/>
@@ -8556,7 +8570,9 @@
       <c r="IA10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="IB10" s="34"/>
+      <c r="IB10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="IC10" s="34"/>
       <c r="ID10" s="34"/>
       <c r="IE10" s="34"/>
@@ -9417,7 +9433,9 @@
       <c r="IA11" s="38" t="n">
         <v>136518764</v>
       </c>
-      <c r="IB11" s="38"/>
+      <c r="IB11" s="38" t="n">
+        <v>136615379</v>
+      </c>
       <c r="IC11" s="38"/>
       <c r="ID11" s="38"/>
       <c r="IE11" s="38"/>
@@ -10276,7 +10294,9 @@
       <c r="IA12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="IB12" s="41"/>
+      <c r="IB12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="IC12" s="41"/>
       <c r="ID12" s="41"/>
       <c r="IE12" s="41"/>
@@ -11137,7 +11157,9 @@
       <c r="IA13" s="45" t="n">
         <v>141595896</v>
       </c>
-      <c r="IB13" s="45"/>
+      <c r="IB13" s="45" t="n">
+        <v>141796652</v>
+      </c>
       <c r="IC13" s="45"/>
       <c r="ID13" s="45"/>
       <c r="IE13" s="45"/>
@@ -11996,7 +12018,9 @@
       <c r="IA14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IB14" s="48"/>
+      <c r="IB14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IC14" s="48"/>
       <c r="ID14" s="48"/>
       <c r="IE14" s="48"/>
@@ -12857,7 +12881,9 @@
       <c r="IA15" s="52" t="n">
         <v>126854047</v>
       </c>
-      <c r="IB15" s="52"/>
+      <c r="IB15" s="52" t="n">
+        <v>126960877</v>
+      </c>
       <c r="IC15" s="52"/>
       <c r="ID15" s="52"/>
       <c r="IE15" s="52"/>
@@ -13716,7 +13742,9 @@
       <c r="IA16" s="55" t="n">
         <v>195</v>
       </c>
-      <c r="IB16" s="55"/>
+      <c r="IB16" s="55" t="n">
+        <v>195</v>
+      </c>
       <c r="IC16" s="55"/>
       <c r="ID16" s="55"/>
       <c r="IE16" s="55"/>
@@ -14577,7 +14605,9 @@
       <c r="IA17" s="59" t="n">
         <v>95228503</v>
       </c>
-      <c r="IB17" s="59"/>
+      <c r="IB17" s="59" t="n">
+        <v>95252364</v>
+      </c>
       <c r="IC17" s="59"/>
       <c r="ID17" s="59"/>
       <c r="IE17" s="59"/>
@@ -15436,7 +15466,9 @@
       <c r="IA18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IB18" s="62"/>
+      <c r="IB18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IC18" s="62"/>
       <c r="ID18" s="62"/>
       <c r="IE18" s="62"/>
@@ -16297,7 +16329,9 @@
       <c r="IA19" s="66" t="n">
         <v>91722613</v>
       </c>
-      <c r="IB19" s="66"/>
+      <c r="IB19" s="66" t="n">
+        <v>91895854</v>
+      </c>
       <c r="IC19" s="66"/>
       <c r="ID19" s="66"/>
       <c r="IE19" s="66"/>
@@ -17156,7 +17190,9 @@
       <c r="IA20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="IB20" s="69"/>
+      <c r="IB20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="IC20" s="69"/>
       <c r="ID20" s="69"/>
       <c r="IE20" s="69"/>
@@ -18245,7 +18281,11 @@
       </c>
       <c r="IA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IA2)&amp;", ""month"": "&amp;MONTH(IA2)&amp;", ""day"": "&amp;DAY(IA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IA3&amp;", ""memberCount"": "&amp;IA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IA5&amp;", ""memberCount"": "&amp;IA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IA7&amp;", ""memberCount"": "&amp;IA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IA9&amp;", ""memberCount"": "&amp;IA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IA11&amp;", ""memberCount"": "&amp;IA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IA13&amp;", ""memberCount"": "&amp;IA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IA15&amp;", ""memberCount"": "&amp;IA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IA17&amp;", ""memberCount"": "&amp;IA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IA19&amp;", ""memberCount"": "&amp;IA20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 208348724, "memberCount": 198}, {"name": "Smile", "contribution": 180392582, "memberCount": 196}, {"name": "Elite", "contribution": 172757840, "memberCount": 198}, {"name": "Savages", "contribution": 162012385, "memberCount": 199}, {"name": "Spring", "contribution": 136518764, "memberCount": 196}, {"name": "Bounce", "contribution": 141595896, "memberCount": 199}, {"name": "Sunset", "contribution": 126854047, "memberCount": 195}, {"name": "Beaters", "contribution": 95228503, "memberCount": 177}, {"name": "Downtime", "contribution": 91722613, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 208348724, "memberCount": 198}, {"name": "Smile", "contribution": 180392582, "memberCount": 196}, {"name": "Elite", "contribution": 172757840, "memberCount": 198}, {"name": "Savages", "contribution": 162012385, "memberCount": 199}, {"name": "Spring", "contribution": 136518764, "memberCount": 196}, {"name": "Bounce", "contribution": 141595896, "memberCount": 199}, {"name": "Sunset", "contribution": 126854047, "memberCount": 195}, {"name": "Beaters", "contribution": 95228503, "memberCount": 177}, {"name": "Downtime", "contribution": 91722613, "memberCount": 200}]}</v>
+      </c>
+      <c r="IB23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IB2)&amp;", ""month"": "&amp;MONTH(IB2)&amp;", ""day"": "&amp;DAY(IB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IB3&amp;", ""memberCount"": "&amp;IB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IB5&amp;", ""memberCount"": "&amp;IB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IB7&amp;", ""memberCount"": "&amp;IB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IB9&amp;", ""memberCount"": "&amp;IB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IB11&amp;", ""memberCount"": "&amp;IB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IB13&amp;", ""memberCount"": "&amp;IB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IB15&amp;", ""memberCount"": "&amp;IB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IB17&amp;", ""memberCount"": "&amp;IB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IB19&amp;", ""memberCount"": "&amp;IB20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 208499740, "memberCount": 198}, {"name": "Smile", "contribution": 180553324, "memberCount": 196}, {"name": "Elite", "contribution": 172907555, "memberCount": 198}, {"name": "Savages", "contribution": 162235745, "memberCount": 199}, {"name": "Spring", "contribution": 136615379, "memberCount": 196}, {"name": "Bounce", "contribution": 141796652, "memberCount": 199}, {"name": "Sunset", "contribution": 126960877, "memberCount": 195}, {"name": "Beaters", "contribution": 95252364, "memberCount": 177}, {"name": "Downtime", "contribution": 91895854, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="HZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="HZ1" activeCellId="0" sqref="HZ1"/>
+      <selection pane="topRight" activeCell="IA1" activeCellId="0" sqref="IA1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IB23" activeCellId="0" sqref="IB23"/>
+      <selection pane="bottomRight" activeCell="IC23" activeCellId="0" sqref="IC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2540,7 +2540,9 @@
       <c r="IB3" s="7" t="n">
         <v>208499740</v>
       </c>
-      <c r="IC3" s="7"/>
+      <c r="IC3" s="7" t="n">
+        <v>208680155</v>
+      </c>
       <c r="ID3" s="7"/>
       <c r="IE3" s="7"/>
       <c r="IF3" s="7"/>
@@ -3401,7 +3403,9 @@
       <c r="IB4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="IC4" s="11"/>
+      <c r="IC4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="ID4" s="11"/>
       <c r="IE4" s="11"/>
       <c r="IF4" s="11"/>
@@ -4264,7 +4268,9 @@
       <c r="IB5" s="17" t="n">
         <v>180553324</v>
       </c>
-      <c r="IC5" s="17"/>
+      <c r="IC5" s="17" t="n">
+        <v>180790777</v>
+      </c>
       <c r="ID5" s="17"/>
       <c r="IE5" s="17"/>
       <c r="IF5" s="17"/>
@@ -5125,7 +5131,9 @@
       <c r="IB6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="IC6" s="20"/>
+      <c r="IC6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="ID6" s="20"/>
       <c r="IE6" s="20"/>
       <c r="IF6" s="20"/>
@@ -5988,7 +5996,9 @@
       <c r="IB7" s="24" t="n">
         <v>172907555</v>
       </c>
-      <c r="IC7" s="24"/>
+      <c r="IC7" s="24" t="n">
+        <v>173101156</v>
+      </c>
       <c r="ID7" s="24"/>
       <c r="IE7" s="24"/>
       <c r="IF7" s="24"/>
@@ -6849,7 +6859,9 @@
       <c r="IB8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IC8" s="27"/>
+      <c r="IC8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="ID8" s="27"/>
       <c r="IE8" s="27"/>
       <c r="IF8" s="27"/>
@@ -7712,7 +7724,9 @@
       <c r="IB9" s="31" t="n">
         <v>162235745</v>
       </c>
-      <c r="IC9" s="31"/>
+      <c r="IC9" s="31" t="n">
+        <v>162470219</v>
+      </c>
       <c r="ID9" s="31"/>
       <c r="IE9" s="31"/>
       <c r="IF9" s="31"/>
@@ -8573,7 +8587,9 @@
       <c r="IB10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="IC10" s="34"/>
+      <c r="IC10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="ID10" s="34"/>
       <c r="IE10" s="34"/>
       <c r="IF10" s="34"/>
@@ -9436,7 +9452,9 @@
       <c r="IB11" s="38" t="n">
         <v>136615379</v>
       </c>
-      <c r="IC11" s="38"/>
+      <c r="IC11" s="38" t="n">
+        <v>136743751</v>
+      </c>
       <c r="ID11" s="38"/>
       <c r="IE11" s="38"/>
       <c r="IF11" s="38"/>
@@ -10297,7 +10315,9 @@
       <c r="IB12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="IC12" s="41"/>
+      <c r="IC12" s="41" t="n">
+        <v>197</v>
+      </c>
       <c r="ID12" s="41"/>
       <c r="IE12" s="41"/>
       <c r="IF12" s="41"/>
@@ -11160,7 +11180,9 @@
       <c r="IB13" s="45" t="n">
         <v>141796652</v>
       </c>
-      <c r="IC13" s="45"/>
+      <c r="IC13" s="45" t="n">
+        <v>142069116</v>
+      </c>
       <c r="ID13" s="45"/>
       <c r="IE13" s="45"/>
       <c r="IF13" s="45"/>
@@ -12021,7 +12043,9 @@
       <c r="IB14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IC14" s="48"/>
+      <c r="IC14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="ID14" s="48"/>
       <c r="IE14" s="48"/>
       <c r="IF14" s="48"/>
@@ -12884,7 +12908,9 @@
       <c r="IB15" s="52" t="n">
         <v>126960877</v>
       </c>
-      <c r="IC15" s="52"/>
+      <c r="IC15" s="52" t="n">
+        <v>127020808</v>
+      </c>
       <c r="ID15" s="52"/>
       <c r="IE15" s="52"/>
       <c r="IF15" s="52"/>
@@ -13745,7 +13771,9 @@
       <c r="IB16" s="55" t="n">
         <v>195</v>
       </c>
-      <c r="IC16" s="55"/>
+      <c r="IC16" s="55" t="n">
+        <v>194</v>
+      </c>
       <c r="ID16" s="55"/>
       <c r="IE16" s="55"/>
       <c r="IF16" s="55"/>
@@ -14608,7 +14636,9 @@
       <c r="IB17" s="59" t="n">
         <v>95252364</v>
       </c>
-      <c r="IC17" s="59"/>
+      <c r="IC17" s="59" t="n">
+        <v>95274024</v>
+      </c>
       <c r="ID17" s="59"/>
       <c r="IE17" s="59"/>
       <c r="IF17" s="59"/>
@@ -15469,7 +15499,9 @@
       <c r="IB18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IC18" s="62"/>
+      <c r="IC18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="ID18" s="62"/>
       <c r="IE18" s="62"/>
       <c r="IF18" s="62"/>
@@ -16332,7 +16364,9 @@
       <c r="IB19" s="66" t="n">
         <v>91895854</v>
       </c>
-      <c r="IC19" s="66"/>
+      <c r="IC19" s="66" t="n">
+        <v>92038731</v>
+      </c>
       <c r="ID19" s="66"/>
       <c r="IE19" s="66"/>
       <c r="IF19" s="66"/>
@@ -17193,7 +17227,9 @@
       <c r="IB20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="IC20" s="69"/>
+      <c r="IC20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="ID20" s="69"/>
       <c r="IE20" s="69"/>
       <c r="IF20" s="69"/>
@@ -18285,7 +18321,11 @@
       </c>
       <c r="IB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IB2)&amp;", ""month"": "&amp;MONTH(IB2)&amp;", ""day"": "&amp;DAY(IB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IB3&amp;", ""memberCount"": "&amp;IB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IB5&amp;", ""memberCount"": "&amp;IB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IB7&amp;", ""memberCount"": "&amp;IB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IB9&amp;", ""memberCount"": "&amp;IB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IB11&amp;", ""memberCount"": "&amp;IB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IB13&amp;", ""memberCount"": "&amp;IB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IB15&amp;", ""memberCount"": "&amp;IB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IB17&amp;", ""memberCount"": "&amp;IB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IB19&amp;", ""memberCount"": "&amp;IB20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 208499740, "memberCount": 198}, {"name": "Smile", "contribution": 180553324, "memberCount": 196}, {"name": "Elite", "contribution": 172907555, "memberCount": 198}, {"name": "Savages", "contribution": 162235745, "memberCount": 199}, {"name": "Spring", "contribution": 136615379, "memberCount": 196}, {"name": "Bounce", "contribution": 141796652, "memberCount": 199}, {"name": "Sunset", "contribution": 126960877, "memberCount": 195}, {"name": "Beaters", "contribution": 95252364, "memberCount": 177}, {"name": "Downtime", "contribution": 91895854, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 208499740, "memberCount": 198}, {"name": "Smile", "contribution": 180553324, "memberCount": 196}, {"name": "Elite", "contribution": 172907555, "memberCount": 198}, {"name": "Savages", "contribution": 162235745, "memberCount": 199}, {"name": "Spring", "contribution": 136615379, "memberCount": 196}, {"name": "Bounce", "contribution": 141796652, "memberCount": 199}, {"name": "Sunset", "contribution": 126960877, "memberCount": 195}, {"name": "Beaters", "contribution": 95252364, "memberCount": 177}, {"name": "Downtime", "contribution": 91895854, "memberCount": 200}]}</v>
+      </c>
+      <c r="IC23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IC2)&amp;", ""month"": "&amp;MONTH(IC2)&amp;", ""day"": "&amp;DAY(IC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IC3&amp;", ""memberCount"": "&amp;IC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IC5&amp;", ""memberCount"": "&amp;IC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IC7&amp;", ""memberCount"": "&amp;IC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IC9&amp;", ""memberCount"": "&amp;IC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IC11&amp;", ""memberCount"": "&amp;IC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IC13&amp;", ""memberCount"": "&amp;IC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IC15&amp;", ""memberCount"": "&amp;IC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IC17&amp;", ""memberCount"": "&amp;IC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IC19&amp;", ""memberCount"": "&amp;IC20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 4, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 208680155, "memberCount": 198}, {"name": "Smile", "contribution": 180790777, "memberCount": 196}, {"name": "Elite", "contribution": 173101156, "memberCount": 198}, {"name": "Savages", "contribution": 162470219, "memberCount": 199}, {"name": "Spring", "contribution": 136743751, "memberCount": 197}, {"name": "Bounce", "contribution": 142069116, "memberCount": 199}, {"name": "Sunset", "contribution": 127020808, "memberCount": 194}, {"name": "Beaters", "contribution": 95274024, "memberCount": 177}, {"name": "Downtime", "contribution": 92038731, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IA1" activeCellId="0" sqref="IA1"/>
+      <selection pane="topRight" activeCell="IB1" activeCellId="0" sqref="IB1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IC23" activeCellId="0" sqref="IC23"/>
+      <selection pane="bottomRight" activeCell="ID23" activeCellId="0" sqref="ID23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2543,7 +2543,9 @@
       <c r="IC3" s="7" t="n">
         <v>208680155</v>
       </c>
-      <c r="ID3" s="7"/>
+      <c r="ID3" s="7" t="n">
+        <v>208862517</v>
+      </c>
       <c r="IE3" s="7"/>
       <c r="IF3" s="7"/>
       <c r="IG3" s="7"/>
@@ -3406,7 +3408,9 @@
       <c r="IC4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="ID4" s="11"/>
+      <c r="ID4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="IE4" s="11"/>
       <c r="IF4" s="11"/>
       <c r="IG4" s="11"/>
@@ -4271,7 +4275,9 @@
       <c r="IC5" s="17" t="n">
         <v>180790777</v>
       </c>
-      <c r="ID5" s="17"/>
+      <c r="ID5" s="17" t="n">
+        <v>181037239</v>
+      </c>
       <c r="IE5" s="17"/>
       <c r="IF5" s="17"/>
       <c r="IG5" s="17"/>
@@ -5134,7 +5140,9 @@
       <c r="IC6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="ID6" s="20"/>
+      <c r="ID6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="IE6" s="20"/>
       <c r="IF6" s="20"/>
       <c r="IG6" s="20"/>
@@ -5999,7 +6007,9 @@
       <c r="IC7" s="24" t="n">
         <v>173101156</v>
       </c>
-      <c r="ID7" s="24"/>
+      <c r="ID7" s="24" t="n">
+        <v>173299157</v>
+      </c>
       <c r="IE7" s="24"/>
       <c r="IF7" s="24"/>
       <c r="IG7" s="24"/>
@@ -6862,7 +6872,9 @@
       <c r="IC8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="ID8" s="27"/>
+      <c r="ID8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IE8" s="27"/>
       <c r="IF8" s="27"/>
       <c r="IG8" s="27"/>
@@ -7727,7 +7739,9 @@
       <c r="IC9" s="31" t="n">
         <v>162470219</v>
       </c>
-      <c r="ID9" s="31"/>
+      <c r="ID9" s="31" t="n">
+        <v>162627642</v>
+      </c>
       <c r="IE9" s="31"/>
       <c r="IF9" s="31"/>
       <c r="IG9" s="31"/>
@@ -8590,7 +8604,9 @@
       <c r="IC10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="ID10" s="34"/>
+      <c r="ID10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="IE10" s="34"/>
       <c r="IF10" s="34"/>
       <c r="IG10" s="34"/>
@@ -9455,7 +9471,9 @@
       <c r="IC11" s="38" t="n">
         <v>136743751</v>
       </c>
-      <c r="ID11" s="38"/>
+      <c r="ID11" s="38" t="n">
+        <v>136833402</v>
+      </c>
       <c r="IE11" s="38"/>
       <c r="IF11" s="38"/>
       <c r="IG11" s="38"/>
@@ -10318,7 +10336,9 @@
       <c r="IC12" s="41" t="n">
         <v>197</v>
       </c>
-      <c r="ID12" s="41"/>
+      <c r="ID12" s="41" t="n">
+        <v>197</v>
+      </c>
       <c r="IE12" s="41"/>
       <c r="IF12" s="41"/>
       <c r="IG12" s="41"/>
@@ -11183,7 +11203,9 @@
       <c r="IC13" s="45" t="n">
         <v>142069116</v>
       </c>
-      <c r="ID13" s="45"/>
+      <c r="ID13" s="45" t="n">
+        <v>142306632</v>
+      </c>
       <c r="IE13" s="45"/>
       <c r="IF13" s="45"/>
       <c r="IG13" s="45"/>
@@ -12046,7 +12068,9 @@
       <c r="IC14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="ID14" s="48"/>
+      <c r="ID14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IE14" s="48"/>
       <c r="IF14" s="48"/>
       <c r="IG14" s="48"/>
@@ -12911,7 +12935,9 @@
       <c r="IC15" s="52" t="n">
         <v>127020808</v>
       </c>
-      <c r="ID15" s="52"/>
+      <c r="ID15" s="52" t="n">
+        <v>126579480</v>
+      </c>
       <c r="IE15" s="52"/>
       <c r="IF15" s="52"/>
       <c r="IG15" s="52"/>
@@ -13774,7 +13800,9 @@
       <c r="IC16" s="55" t="n">
         <v>194</v>
       </c>
-      <c r="ID16" s="55"/>
+      <c r="ID16" s="55" t="n">
+        <v>193</v>
+      </c>
       <c r="IE16" s="55"/>
       <c r="IF16" s="55"/>
       <c r="IG16" s="55"/>
@@ -14639,7 +14667,9 @@
       <c r="IC17" s="59" t="n">
         <v>95274024</v>
       </c>
-      <c r="ID17" s="59"/>
+      <c r="ID17" s="59" t="n">
+        <v>95318186</v>
+      </c>
       <c r="IE17" s="59"/>
       <c r="IF17" s="59"/>
       <c r="IG17" s="59"/>
@@ -15502,7 +15532,9 @@
       <c r="IC18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="ID18" s="62"/>
+      <c r="ID18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IE18" s="62"/>
       <c r="IF18" s="62"/>
       <c r="IG18" s="62"/>
@@ -16367,7 +16399,9 @@
       <c r="IC19" s="66" t="n">
         <v>92038731</v>
       </c>
-      <c r="ID19" s="66"/>
+      <c r="ID19" s="66" t="n">
+        <v>92219814</v>
+      </c>
       <c r="IE19" s="66"/>
       <c r="IF19" s="66"/>
       <c r="IG19" s="66"/>
@@ -17230,7 +17264,9 @@
       <c r="IC20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="ID20" s="69"/>
+      <c r="ID20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="IE20" s="69"/>
       <c r="IF20" s="69"/>
       <c r="IG20" s="69"/>
@@ -18325,7 +18361,11 @@
       </c>
       <c r="IC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IC2)&amp;", ""month"": "&amp;MONTH(IC2)&amp;", ""day"": "&amp;DAY(IC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IC3&amp;", ""memberCount"": "&amp;IC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IC5&amp;", ""memberCount"": "&amp;IC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IC7&amp;", ""memberCount"": "&amp;IC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IC9&amp;", ""memberCount"": "&amp;IC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IC11&amp;", ""memberCount"": "&amp;IC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IC13&amp;", ""memberCount"": "&amp;IC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IC15&amp;", ""memberCount"": "&amp;IC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IC17&amp;", ""memberCount"": "&amp;IC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IC19&amp;", ""memberCount"": "&amp;IC20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 4, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 208680155, "memberCount": 198}, {"name": "Smile", "contribution": 180790777, "memberCount": 196}, {"name": "Elite", "contribution": 173101156, "memberCount": 198}, {"name": "Savages", "contribution": 162470219, "memberCount": 199}, {"name": "Spring", "contribution": 136743751, "memberCount": 197}, {"name": "Bounce", "contribution": 142069116, "memberCount": 199}, {"name": "Sunset", "contribution": 127020808, "memberCount": 194}, {"name": "Beaters", "contribution": 95274024, "memberCount": 177}, {"name": "Downtime", "contribution": 92038731, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 4, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 208680155, "memberCount": 198}, {"name": "Smile", "contribution": 180790777, "memberCount": 196}, {"name": "Elite", "contribution": 173101156, "memberCount": 198}, {"name": "Savages", "contribution": 162470219, "memberCount": 199}, {"name": "Spring", "contribution": 136743751, "memberCount": 197}, {"name": "Bounce", "contribution": 142069116, "memberCount": 199}, {"name": "Sunset", "contribution": 127020808, "memberCount": 194}, {"name": "Beaters", "contribution": 95274024, "memberCount": 177}, {"name": "Downtime", "contribution": 92038731, "memberCount": 200}]}</v>
+      </c>
+      <c r="ID23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ID2)&amp;", ""month"": "&amp;MONTH(ID2)&amp;", ""day"": "&amp;DAY(ID2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ID3&amp;", ""memberCount"": "&amp;ID4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ID5&amp;", ""memberCount"": "&amp;ID6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ID7&amp;", ""memberCount"": "&amp;ID8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ID9&amp;", ""memberCount"": "&amp;ID10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ID11&amp;", ""memberCount"": "&amp;ID12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ID13&amp;", ""memberCount"": "&amp;ID14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ID15&amp;", ""memberCount"": "&amp;ID16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ID17&amp;", ""memberCount"": "&amp;ID18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ID19&amp;", ""memberCount"": "&amp;ID20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 208862517, "memberCount": 198}, {"name": "Smile", "contribution": 181037239, "memberCount": 196}, {"name": "Elite", "contribution": 173299157, "memberCount": 198}, {"name": "Savages", "contribution": 162627642, "memberCount": 198}, {"name": "Spring", "contribution": 136833402, "memberCount": 197}, {"name": "Bounce", "contribution": 142306632, "memberCount": 199}, {"name": "Sunset", "contribution": 126579480, "memberCount": 193}, {"name": "Beaters", "contribution": 95318186, "memberCount": 177}, {"name": "Downtime", "contribution": 92219814, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IB1" activeCellId="0" sqref="IB1"/>
+      <selection pane="topRight" activeCell="IC1" activeCellId="0" sqref="IC1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="ID23" activeCellId="0" sqref="ID23"/>
+      <selection pane="bottomRight" activeCell="IE23" activeCellId="0" sqref="IE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2546,7 +2546,9 @@
       <c r="ID3" s="7" t="n">
         <v>208862517</v>
       </c>
-      <c r="IE3" s="7"/>
+      <c r="IE3" s="7" t="n">
+        <v>209053132</v>
+      </c>
       <c r="IF3" s="7"/>
       <c r="IG3" s="7"/>
       <c r="IH3" s="7"/>
@@ -3411,7 +3413,9 @@
       <c r="ID4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="IE4" s="11"/>
+      <c r="IE4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="IF4" s="11"/>
       <c r="IG4" s="11"/>
       <c r="IH4" s="11"/>
@@ -4278,7 +4282,9 @@
       <c r="ID5" s="17" t="n">
         <v>181037239</v>
       </c>
-      <c r="IE5" s="17"/>
+      <c r="IE5" s="17" t="n">
+        <v>181231453</v>
+      </c>
       <c r="IF5" s="17"/>
       <c r="IG5" s="17"/>
       <c r="IH5" s="17"/>
@@ -5143,7 +5149,9 @@
       <c r="ID6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="IE6" s="20"/>
+      <c r="IE6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="IF6" s="20"/>
       <c r="IG6" s="20"/>
       <c r="IH6" s="20"/>
@@ -6010,7 +6018,9 @@
       <c r="ID7" s="24" t="n">
         <v>173299157</v>
       </c>
-      <c r="IE7" s="24"/>
+      <c r="IE7" s="24" t="n">
+        <v>173487222</v>
+      </c>
       <c r="IF7" s="24"/>
       <c r="IG7" s="24"/>
       <c r="IH7" s="24"/>
@@ -6875,7 +6885,9 @@
       <c r="ID8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IE8" s="27"/>
+      <c r="IE8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IF8" s="27"/>
       <c r="IG8" s="27"/>
       <c r="IH8" s="27"/>
@@ -7742,7 +7754,9 @@
       <c r="ID9" s="31" t="n">
         <v>162627642</v>
       </c>
-      <c r="IE9" s="31"/>
+      <c r="IE9" s="31" t="n">
+        <v>162819373</v>
+      </c>
       <c r="IF9" s="31"/>
       <c r="IG9" s="31"/>
       <c r="IH9" s="31"/>
@@ -8607,7 +8621,9 @@
       <c r="ID10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="IE10" s="34"/>
+      <c r="IE10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="IF10" s="34"/>
       <c r="IG10" s="34"/>
       <c r="IH10" s="34"/>
@@ -9474,7 +9490,9 @@
       <c r="ID11" s="38" t="n">
         <v>136833402</v>
       </c>
-      <c r="IE11" s="38"/>
+      <c r="IE11" s="38" t="n">
+        <v>136907590</v>
+      </c>
       <c r="IF11" s="38"/>
       <c r="IG11" s="38"/>
       <c r="IH11" s="38"/>
@@ -10339,7 +10357,9 @@
       <c r="ID12" s="41" t="n">
         <v>197</v>
       </c>
-      <c r="IE12" s="41"/>
+      <c r="IE12" s="41" t="n">
+        <v>197</v>
+      </c>
       <c r="IF12" s="41"/>
       <c r="IG12" s="41"/>
       <c r="IH12" s="41"/>
@@ -11206,7 +11226,9 @@
       <c r="ID13" s="45" t="n">
         <v>142306632</v>
       </c>
-      <c r="IE13" s="45"/>
+      <c r="IE13" s="45" t="n">
+        <v>142567802</v>
+      </c>
       <c r="IF13" s="45"/>
       <c r="IG13" s="45"/>
       <c r="IH13" s="45"/>
@@ -12071,7 +12093,9 @@
       <c r="ID14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IE14" s="48"/>
+      <c r="IE14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IF14" s="48"/>
       <c r="IG14" s="48"/>
       <c r="IH14" s="48"/>
@@ -12938,7 +12962,9 @@
       <c r="ID15" s="52" t="n">
         <v>126579480</v>
       </c>
-      <c r="IE15" s="52"/>
+      <c r="IE15" s="52" t="n">
+        <v>126651889</v>
+      </c>
       <c r="IF15" s="52"/>
       <c r="IG15" s="52"/>
       <c r="IH15" s="52"/>
@@ -13803,7 +13829,9 @@
       <c r="ID16" s="55" t="n">
         <v>193</v>
       </c>
-      <c r="IE16" s="55"/>
+      <c r="IE16" s="55" t="n">
+        <v>193</v>
+      </c>
       <c r="IF16" s="55"/>
       <c r="IG16" s="55"/>
       <c r="IH16" s="55"/>
@@ -14670,7 +14698,9 @@
       <c r="ID17" s="59" t="n">
         <v>95318186</v>
       </c>
-      <c r="IE17" s="59"/>
+      <c r="IE17" s="59" t="n">
+        <v>95368492</v>
+      </c>
       <c r="IF17" s="59"/>
       <c r="IG17" s="59"/>
       <c r="IH17" s="59"/>
@@ -15535,7 +15565,9 @@
       <c r="ID18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IE18" s="62"/>
+      <c r="IE18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IF18" s="62"/>
       <c r="IG18" s="62"/>
       <c r="IH18" s="62"/>
@@ -16402,7 +16434,9 @@
       <c r="ID19" s="66" t="n">
         <v>92219814</v>
       </c>
-      <c r="IE19" s="66"/>
+      <c r="IE19" s="66" t="n">
+        <v>92374456</v>
+      </c>
       <c r="IF19" s="66"/>
       <c r="IG19" s="66"/>
       <c r="IH19" s="66"/>
@@ -17267,7 +17301,9 @@
       <c r="ID20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="IE20" s="69"/>
+      <c r="IE20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="IF20" s="69"/>
       <c r="IG20" s="69"/>
       <c r="IH20" s="69"/>
@@ -18365,7 +18401,11 @@
       </c>
       <c r="ID23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ID2)&amp;", ""month"": "&amp;MONTH(ID2)&amp;", ""day"": "&amp;DAY(ID2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ID3&amp;", ""memberCount"": "&amp;ID4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ID5&amp;", ""memberCount"": "&amp;ID6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ID7&amp;", ""memberCount"": "&amp;ID8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ID9&amp;", ""memberCount"": "&amp;ID10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ID11&amp;", ""memberCount"": "&amp;ID12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ID13&amp;", ""memberCount"": "&amp;ID14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ID15&amp;", ""memberCount"": "&amp;ID16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ID17&amp;", ""memberCount"": "&amp;ID18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ID19&amp;", ""memberCount"": "&amp;ID20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 208862517, "memberCount": 198}, {"name": "Smile", "contribution": 181037239, "memberCount": 196}, {"name": "Elite", "contribution": 173299157, "memberCount": 198}, {"name": "Savages", "contribution": 162627642, "memberCount": 198}, {"name": "Spring", "contribution": 136833402, "memberCount": 197}, {"name": "Bounce", "contribution": 142306632, "memberCount": 199}, {"name": "Sunset", "contribution": 126579480, "memberCount": 193}, {"name": "Beaters", "contribution": 95318186, "memberCount": 177}, {"name": "Downtime", "contribution": 92219814, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 208862517, "memberCount": 198}, {"name": "Smile", "contribution": 181037239, "memberCount": 196}, {"name": "Elite", "contribution": 173299157, "memberCount": 198}, {"name": "Savages", "contribution": 162627642, "memberCount": 198}, {"name": "Spring", "contribution": 136833402, "memberCount": 197}, {"name": "Bounce", "contribution": 142306632, "memberCount": 199}, {"name": "Sunset", "contribution": 126579480, "memberCount": 193}, {"name": "Beaters", "contribution": 95318186, "memberCount": 177}, {"name": "Downtime", "contribution": 92219814, "memberCount": 200}]}</v>
+      </c>
+      <c r="IE23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IE2)&amp;", ""month"": "&amp;MONTH(IE2)&amp;", ""day"": "&amp;DAY(IE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IE3&amp;", ""memberCount"": "&amp;IE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IE5&amp;", ""memberCount"": "&amp;IE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IE7&amp;", ""memberCount"": "&amp;IE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IE9&amp;", ""memberCount"": "&amp;IE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IE11&amp;", ""memberCount"": "&amp;IE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IE13&amp;", ""memberCount"": "&amp;IE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IE15&amp;", ""memberCount"": "&amp;IE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IE17&amp;", ""memberCount"": "&amp;IE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IE19&amp;", ""memberCount"": "&amp;IE20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 209053132, "memberCount": 198}, {"name": "Smile", "contribution": 181231453, "memberCount": 196}, {"name": "Elite", "contribution": 173487222, "memberCount": 198}, {"name": "Savages", "contribution": 162819373, "memberCount": 198}, {"name": "Spring", "contribution": 136907590, "memberCount": 197}, {"name": "Bounce", "contribution": 142567802, "memberCount": 199}, {"name": "Sunset", "contribution": 126651889, "memberCount": 193}, {"name": "Beaters", "contribution": 95368492, "memberCount": 177}, {"name": "Downtime", "contribution": 92374456, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IC1" activeCellId="0" sqref="IC1"/>
+      <selection pane="topRight" activeCell="IE1" activeCellId="0" sqref="IE1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IE23" activeCellId="0" sqref="IE23"/>
+      <selection pane="bottomRight" activeCell="IF23" activeCellId="0" sqref="IF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2549,8 +2549,12 @@
       <c r="IE3" s="7" t="n">
         <v>209053132</v>
       </c>
-      <c r="IF3" s="7"/>
-      <c r="IG3" s="7"/>
+      <c r="IF3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG3" s="7" t="n">
+        <v>209385134</v>
+      </c>
       <c r="IH3" s="7"/>
       <c r="II3" s="7"/>
       <c r="IJ3" s="7"/>
@@ -3416,8 +3420,12 @@
       <c r="IE4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="IF4" s="11"/>
-      <c r="IG4" s="11"/>
+      <c r="IF4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="IH4" s="11"/>
       <c r="II4" s="11"/>
       <c r="IJ4" s="11"/>
@@ -4285,8 +4293,12 @@
       <c r="IE5" s="17" t="n">
         <v>181231453</v>
       </c>
-      <c r="IF5" s="17"/>
-      <c r="IG5" s="17"/>
+      <c r="IF5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG5" s="17" t="n">
+        <v>181612694</v>
+      </c>
       <c r="IH5" s="17"/>
       <c r="II5" s="17"/>
       <c r="IJ5" s="17"/>
@@ -5152,8 +5164,12 @@
       <c r="IE6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="IF6" s="20"/>
-      <c r="IG6" s="20"/>
+      <c r="IF6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="IH6" s="20"/>
       <c r="II6" s="20"/>
       <c r="IJ6" s="20"/>
@@ -6021,8 +6037,12 @@
       <c r="IE7" s="24" t="n">
         <v>173487222</v>
       </c>
-      <c r="IF7" s="24"/>
-      <c r="IG7" s="24"/>
+      <c r="IF7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG7" s="24" t="n">
+        <v>173876165</v>
+      </c>
       <c r="IH7" s="24"/>
       <c r="II7" s="24"/>
       <c r="IJ7" s="24"/>
@@ -6888,8 +6908,12 @@
       <c r="IE8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IF8" s="27"/>
-      <c r="IG8" s="27"/>
+      <c r="IF8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IH8" s="27"/>
       <c r="II8" s="27"/>
       <c r="IJ8" s="27"/>
@@ -7757,8 +7781,12 @@
       <c r="IE9" s="31" t="n">
         <v>162819373</v>
       </c>
-      <c r="IF9" s="31"/>
-      <c r="IG9" s="31"/>
+      <c r="IF9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG9" s="31" t="n">
+        <v>163229154</v>
+      </c>
       <c r="IH9" s="31"/>
       <c r="II9" s="31"/>
       <c r="IJ9" s="31"/>
@@ -8624,8 +8652,12 @@
       <c r="IE10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="IF10" s="34"/>
-      <c r="IG10" s="34"/>
+      <c r="IF10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="IH10" s="34"/>
       <c r="II10" s="34"/>
       <c r="IJ10" s="34"/>
@@ -9493,8 +9525,12 @@
       <c r="IE11" s="38" t="n">
         <v>136907590</v>
       </c>
-      <c r="IF11" s="38"/>
-      <c r="IG11" s="38"/>
+      <c r="IF11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG11" s="38" t="n">
+        <v>137131583</v>
+      </c>
       <c r="IH11" s="38"/>
       <c r="II11" s="38"/>
       <c r="IJ11" s="38"/>
@@ -10360,8 +10396,12 @@
       <c r="IE12" s="41" t="n">
         <v>197</v>
       </c>
-      <c r="IF12" s="41"/>
-      <c r="IG12" s="41"/>
+      <c r="IF12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG12" s="41" t="n">
+        <v>197</v>
+      </c>
       <c r="IH12" s="41"/>
       <c r="II12" s="41"/>
       <c r="IJ12" s="41"/>
@@ -11229,8 +11269,12 @@
       <c r="IE13" s="45" t="n">
         <v>142567802</v>
       </c>
-      <c r="IF13" s="45"/>
-      <c r="IG13" s="45"/>
+      <c r="IF13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG13" s="45" t="n">
+        <v>143022279</v>
+      </c>
       <c r="IH13" s="45"/>
       <c r="II13" s="45"/>
       <c r="IJ13" s="45"/>
@@ -12096,8 +12140,12 @@
       <c r="IE14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IF14" s="48"/>
-      <c r="IG14" s="48"/>
+      <c r="IF14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IH14" s="48"/>
       <c r="II14" s="48"/>
       <c r="IJ14" s="48"/>
@@ -12965,8 +13013,12 @@
       <c r="IE15" s="52" t="n">
         <v>126651889</v>
       </c>
-      <c r="IF15" s="52"/>
-      <c r="IG15" s="52"/>
+      <c r="IF15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG15" s="52" t="n">
+        <v>126877858</v>
+      </c>
       <c r="IH15" s="52"/>
       <c r="II15" s="52"/>
       <c r="IJ15" s="52"/>
@@ -13832,8 +13884,12 @@
       <c r="IE16" s="55" t="n">
         <v>193</v>
       </c>
-      <c r="IF16" s="55"/>
-      <c r="IG16" s="55"/>
+      <c r="IF16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG16" s="55" t="n">
+        <v>195</v>
+      </c>
       <c r="IH16" s="55"/>
       <c r="II16" s="55"/>
       <c r="IJ16" s="55"/>
@@ -14701,8 +14757,12 @@
       <c r="IE17" s="59" t="n">
         <v>95368492</v>
       </c>
-      <c r="IF17" s="59"/>
-      <c r="IG17" s="59"/>
+      <c r="IF17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG17" s="59" t="n">
+        <v>95440463</v>
+      </c>
       <c r="IH17" s="59"/>
       <c r="II17" s="59"/>
       <c r="IJ17" s="59"/>
@@ -15568,8 +15628,12 @@
       <c r="IE18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IF18" s="62"/>
-      <c r="IG18" s="62"/>
+      <c r="IF18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IH18" s="62"/>
       <c r="II18" s="62"/>
       <c r="IJ18" s="62"/>
@@ -16437,8 +16501,12 @@
       <c r="IE19" s="66" t="n">
         <v>92374456</v>
       </c>
-      <c r="IF19" s="66"/>
-      <c r="IG19" s="66"/>
+      <c r="IF19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG19" s="66" t="n">
+        <v>91579881</v>
+      </c>
       <c r="IH19" s="66"/>
       <c r="II19" s="66"/>
       <c r="IJ19" s="66"/>
@@ -17304,8 +17372,12 @@
       <c r="IE20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="IF20" s="69"/>
-      <c r="IG20" s="69"/>
+      <c r="IF20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IG20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="IH20" s="69"/>
       <c r="II20" s="69"/>
       <c r="IJ20" s="69"/>
@@ -18405,7 +18477,15 @@
       </c>
       <c r="IE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IE2)&amp;", ""month"": "&amp;MONTH(IE2)&amp;", ""day"": "&amp;DAY(IE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IE3&amp;", ""memberCount"": "&amp;IE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IE5&amp;", ""memberCount"": "&amp;IE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IE7&amp;", ""memberCount"": "&amp;IE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IE9&amp;", ""memberCount"": "&amp;IE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IE11&amp;", ""memberCount"": "&amp;IE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IE13&amp;", ""memberCount"": "&amp;IE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IE15&amp;", ""memberCount"": "&amp;IE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IE17&amp;", ""memberCount"": "&amp;IE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IE19&amp;", ""memberCount"": "&amp;IE20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 209053132, "memberCount": 198}, {"name": "Smile", "contribution": 181231453, "memberCount": 196}, {"name": "Elite", "contribution": 173487222, "memberCount": 198}, {"name": "Savages", "contribution": 162819373, "memberCount": 198}, {"name": "Spring", "contribution": 136907590, "memberCount": 197}, {"name": "Bounce", "contribution": 142567802, "memberCount": 199}, {"name": "Sunset", "contribution": 126651889, "memberCount": 193}, {"name": "Beaters", "contribution": 95368492, "memberCount": 177}, {"name": "Downtime", "contribution": 92374456, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 209053132, "memberCount": 198}, {"name": "Smile", "contribution": 181231453, "memberCount": 196}, {"name": "Elite", "contribution": 173487222, "memberCount": 198}, {"name": "Savages", "contribution": 162819373, "memberCount": 198}, {"name": "Spring", "contribution": 136907590, "memberCount": 197}, {"name": "Bounce", "contribution": 142567802, "memberCount": 199}, {"name": "Sunset", "contribution": 126651889, "memberCount": 193}, {"name": "Beaters", "contribution": 95368492, "memberCount": 177}, {"name": "Downtime", "contribution": 92374456, "memberCount": 200}]}</v>
+      </c>
+      <c r="IF23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IF2)&amp;", ""month"": "&amp;MONTH(IF2)&amp;", ""day"": "&amp;DAY(IF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IF3&amp;", ""memberCount"": "&amp;IF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IF5&amp;", ""memberCount"": "&amp;IF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IF7&amp;", ""memberCount"": "&amp;IF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IF9&amp;", ""memberCount"": "&amp;IF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IF11&amp;", ""memberCount"": "&amp;IF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IF13&amp;", ""memberCount"": "&amp;IF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IF15&amp;", ""memberCount"": "&amp;IF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IF17&amp;", ""memberCount"": "&amp;IF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IF19&amp;", ""memberCount"": "&amp;IF20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IG23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IG2)&amp;", ""month"": "&amp;MONTH(IG2)&amp;", ""day"": "&amp;DAY(IG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IG3&amp;", ""memberCount"": "&amp;IG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IG5&amp;", ""memberCount"": "&amp;IG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IG7&amp;", ""memberCount"": "&amp;IG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IG9&amp;", ""memberCount"": "&amp;IG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IG11&amp;", ""memberCount"": "&amp;IG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IG13&amp;", ""memberCount"": "&amp;IG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IG15&amp;", ""memberCount"": "&amp;IG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IG17&amp;", ""memberCount"": "&amp;IG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IG19&amp;", ""memberCount"": "&amp;IG20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 209385134, "memberCount": 198}, {"name": "Smile", "contribution": 181612694, "memberCount": 196}, {"name": "Elite", "contribution": 173876165, "memberCount": 198}, {"name": "Savages", "contribution": 163229154, "memberCount": 200}, {"name": "Spring", "contribution": 137131583, "memberCount": 197}, {"name": "Bounce", "contribution": 143022279, "memberCount": 199}, {"name": "Sunset", "contribution": 126877858, "memberCount": 195}, {"name": "Beaters", "contribution": 95440463, "memberCount": 177}, {"name": "Downtime", "contribution": 91579881, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IE1" activeCellId="0" sqref="IE1"/>
+      <selection pane="topRight" activeCell="IF1" activeCellId="0" sqref="IF1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IF23" activeCellId="0" sqref="IF23"/>
+      <selection pane="bottomRight" activeCell="IH23" activeCellId="0" sqref="IH23:IJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2555,9 +2555,15 @@
       <c r="IG3" s="7" t="n">
         <v>209385134</v>
       </c>
-      <c r="IH3" s="7"/>
-      <c r="II3" s="7"/>
-      <c r="IJ3" s="7"/>
+      <c r="IH3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="II3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ3" s="7" t="n">
+        <v>209685827</v>
+      </c>
       <c r="IK3" s="7"/>
       <c r="IL3" s="7"/>
       <c r="IM3" s="7"/>
@@ -3426,9 +3432,15 @@
       <c r="IG4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="IH4" s="11"/>
-      <c r="II4" s="11"/>
-      <c r="IJ4" s="11"/>
+      <c r="IH4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="II4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="IK4" s="11"/>
       <c r="IL4" s="11"/>
       <c r="IM4" s="11"/>
@@ -4299,9 +4311,15 @@
       <c r="IG5" s="17" t="n">
         <v>181612694</v>
       </c>
-      <c r="IH5" s="17"/>
-      <c r="II5" s="17"/>
-      <c r="IJ5" s="17"/>
+      <c r="IH5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="II5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ5" s="17" t="n">
+        <v>182243994</v>
+      </c>
       <c r="IK5" s="17"/>
       <c r="IL5" s="17"/>
       <c r="IM5" s="17"/>
@@ -5170,9 +5188,15 @@
       <c r="IG6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="IH6" s="20"/>
-      <c r="II6" s="20"/>
-      <c r="IJ6" s="20"/>
+      <c r="IH6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="II6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="IK6" s="20"/>
       <c r="IL6" s="20"/>
       <c r="IM6" s="20"/>
@@ -6043,9 +6067,15 @@
       <c r="IG7" s="24" t="n">
         <v>173876165</v>
       </c>
-      <c r="IH7" s="24"/>
-      <c r="II7" s="24"/>
-      <c r="IJ7" s="24"/>
+      <c r="IH7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="II7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ7" s="24" t="n">
+        <v>174346392</v>
+      </c>
       <c r="IK7" s="24"/>
       <c r="IL7" s="24"/>
       <c r="IM7" s="24"/>
@@ -6914,9 +6944,15 @@
       <c r="IG8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IH8" s="27"/>
-      <c r="II8" s="27"/>
-      <c r="IJ8" s="27"/>
+      <c r="IH8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="II8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IK8" s="27"/>
       <c r="IL8" s="27"/>
       <c r="IM8" s="27"/>
@@ -7787,9 +7823,15 @@
       <c r="IG9" s="31" t="n">
         <v>163229154</v>
       </c>
-      <c r="IH9" s="31"/>
-      <c r="II9" s="31"/>
-      <c r="IJ9" s="31"/>
+      <c r="IH9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="II9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ9" s="31" t="n">
+        <v>163847350</v>
+      </c>
       <c r="IK9" s="31"/>
       <c r="IL9" s="31"/>
       <c r="IM9" s="31"/>
@@ -8658,9 +8700,15 @@
       <c r="IG10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="IH10" s="34"/>
-      <c r="II10" s="34"/>
-      <c r="IJ10" s="34"/>
+      <c r="IH10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="II10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="IK10" s="34"/>
       <c r="IL10" s="34"/>
       <c r="IM10" s="34"/>
@@ -9531,9 +9579,15 @@
       <c r="IG11" s="38" t="n">
         <v>137131583</v>
       </c>
-      <c r="IH11" s="38"/>
-      <c r="II11" s="38"/>
-      <c r="IJ11" s="38"/>
+      <c r="IH11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="II11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ11" s="38" t="n">
+        <v>137127281</v>
+      </c>
       <c r="IK11" s="38"/>
       <c r="IL11" s="38"/>
       <c r="IM11" s="38"/>
@@ -10402,9 +10456,15 @@
       <c r="IG12" s="41" t="n">
         <v>197</v>
       </c>
-      <c r="IH12" s="41"/>
-      <c r="II12" s="41"/>
-      <c r="IJ12" s="41"/>
+      <c r="IH12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="II12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="IK12" s="41"/>
       <c r="IL12" s="41"/>
       <c r="IM12" s="41"/>
@@ -11275,9 +11335,15 @@
       <c r="IG13" s="45" t="n">
         <v>143022279</v>
       </c>
-      <c r="IH13" s="45"/>
-      <c r="II13" s="45"/>
-      <c r="IJ13" s="45"/>
+      <c r="IH13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="II13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ13" s="45" t="n">
+        <v>143795621</v>
+      </c>
       <c r="IK13" s="45"/>
       <c r="IL13" s="45"/>
       <c r="IM13" s="45"/>
@@ -12146,9 +12212,15 @@
       <c r="IG14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IH14" s="48"/>
-      <c r="II14" s="48"/>
-      <c r="IJ14" s="48"/>
+      <c r="IH14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="II14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IK14" s="48"/>
       <c r="IL14" s="48"/>
       <c r="IM14" s="48"/>
@@ -13019,9 +13091,15 @@
       <c r="IG15" s="52" t="n">
         <v>126877858</v>
       </c>
-      <c r="IH15" s="52"/>
-      <c r="II15" s="52"/>
-      <c r="IJ15" s="52"/>
+      <c r="IH15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="II15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ15" s="52" t="n">
+        <v>127132456</v>
+      </c>
       <c r="IK15" s="52"/>
       <c r="IL15" s="52"/>
       <c r="IM15" s="52"/>
@@ -13890,9 +13968,15 @@
       <c r="IG16" s="55" t="n">
         <v>195</v>
       </c>
-      <c r="IH16" s="55"/>
-      <c r="II16" s="55"/>
-      <c r="IJ16" s="55"/>
+      <c r="IH16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="II16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ16" s="55" t="n">
+        <v>193</v>
+      </c>
       <c r="IK16" s="55"/>
       <c r="IL16" s="55"/>
       <c r="IM16" s="55"/>
@@ -14763,9 +14847,15 @@
       <c r="IG17" s="59" t="n">
         <v>95440463</v>
       </c>
-      <c r="IH17" s="59"/>
-      <c r="II17" s="59"/>
-      <c r="IJ17" s="59"/>
+      <c r="IH17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="II17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ17" s="59" t="n">
+        <v>95518312</v>
+      </c>
       <c r="IK17" s="59"/>
       <c r="IL17" s="59"/>
       <c r="IM17" s="59"/>
@@ -15634,9 +15724,15 @@
       <c r="IG18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IH18" s="62"/>
-      <c r="II18" s="62"/>
-      <c r="IJ18" s="62"/>
+      <c r="IH18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="II18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IK18" s="62"/>
       <c r="IL18" s="62"/>
       <c r="IM18" s="62"/>
@@ -16507,9 +16603,15 @@
       <c r="IG19" s="66" t="n">
         <v>91579881</v>
       </c>
-      <c r="IH19" s="66"/>
-      <c r="II19" s="66"/>
-      <c r="IJ19" s="66"/>
+      <c r="IH19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="II19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ19" s="66" t="n">
+        <v>92067067</v>
+      </c>
       <c r="IK19" s="66"/>
       <c r="IL19" s="66"/>
       <c r="IM19" s="66"/>
@@ -17378,9 +17480,15 @@
       <c r="IG20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="IH20" s="69"/>
-      <c r="II20" s="69"/>
-      <c r="IJ20" s="69"/>
+      <c r="IH20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="II20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IJ20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="IK20" s="69"/>
       <c r="IL20" s="69"/>
       <c r="IM20" s="69"/>
@@ -18481,11 +18589,23 @@
       </c>
       <c r="IF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IF2)&amp;", ""month"": "&amp;MONTH(IF2)&amp;", ""day"": "&amp;DAY(IF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IF3&amp;", ""memberCount"": "&amp;IF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IF5&amp;", ""memberCount"": "&amp;IF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IF7&amp;", ""memberCount"": "&amp;IF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IF9&amp;", ""memberCount"": "&amp;IF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IF11&amp;", ""memberCount"": "&amp;IF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IF13&amp;", ""memberCount"": "&amp;IF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IF15&amp;", ""memberCount"": "&amp;IF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IF17&amp;", ""memberCount"": "&amp;IF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IF19&amp;", ""memberCount"": "&amp;IF20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IG2)&amp;", ""month"": "&amp;MONTH(IG2)&amp;", ""day"": "&amp;DAY(IG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IG3&amp;", ""memberCount"": "&amp;IG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IG5&amp;", ""memberCount"": "&amp;IG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IG7&amp;", ""memberCount"": "&amp;IG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IG9&amp;", ""memberCount"": "&amp;IG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IG11&amp;", ""memberCount"": "&amp;IG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IG13&amp;", ""memberCount"": "&amp;IG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IG15&amp;", ""memberCount"": "&amp;IG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IG17&amp;", ""memberCount"": "&amp;IG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IG19&amp;", ""memberCount"": "&amp;IG20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 209385134, "memberCount": 198}, {"name": "Smile", "contribution": 181612694, "memberCount": 196}, {"name": "Elite", "contribution": 173876165, "memberCount": 198}, {"name": "Savages", "contribution": 163229154, "memberCount": 200}, {"name": "Spring", "contribution": 137131583, "memberCount": 197}, {"name": "Bounce", "contribution": 143022279, "memberCount": 199}, {"name": "Sunset", "contribution": 126877858, "memberCount": 195}, {"name": "Beaters", "contribution": 95440463, "memberCount": 177}, {"name": "Downtime", "contribution": 91579881, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 209385134, "memberCount": 198}, {"name": "Smile", "contribution": 181612694, "memberCount": 196}, {"name": "Elite", "contribution": 173876165, "memberCount": 198}, {"name": "Savages", "contribution": 163229154, "memberCount": 200}, {"name": "Spring", "contribution": 137131583, "memberCount": 197}, {"name": "Bounce", "contribution": 143022279, "memberCount": 199}, {"name": "Sunset", "contribution": 126877858, "memberCount": 195}, {"name": "Beaters", "contribution": 95440463, "memberCount": 177}, {"name": "Downtime", "contribution": 91579881, "memberCount": 198}]}</v>
+      </c>
+      <c r="IH23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IH2)&amp;", ""month"": "&amp;MONTH(IH2)&amp;", ""day"": "&amp;DAY(IH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IH3&amp;", ""memberCount"": "&amp;IH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IH5&amp;", ""memberCount"": "&amp;IH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IH7&amp;", ""memberCount"": "&amp;IH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IH9&amp;", ""memberCount"": "&amp;IH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IH11&amp;", ""memberCount"": "&amp;IH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IH13&amp;", ""memberCount"": "&amp;IH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IH15&amp;", ""memberCount"": "&amp;IH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IH17&amp;", ""memberCount"": "&amp;IH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IH19&amp;", ""memberCount"": "&amp;IH20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="II23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(II2)&amp;", ""month"": "&amp;MONTH(II2)&amp;", ""day"": "&amp;DAY(II2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;II3&amp;", ""memberCount"": "&amp;II4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;II5&amp;", ""memberCount"": "&amp;II6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;II7&amp;", ""memberCount"": "&amp;II8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;II9&amp;", ""memberCount"": "&amp;II10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;II11&amp;", ""memberCount"": "&amp;II12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;II13&amp;", ""memberCount"": "&amp;II14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;II15&amp;", ""memberCount"": "&amp;II16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;II17&amp;", ""memberCount"": "&amp;II18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;II19&amp;", ""memberCount"": "&amp;II20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IJ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IJ2)&amp;", ""month"": "&amp;MONTH(IJ2)&amp;", ""day"": "&amp;DAY(IJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IJ3&amp;", ""memberCount"": "&amp;IJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IJ5&amp;", ""memberCount"": "&amp;IJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IJ7&amp;", ""memberCount"": "&amp;IJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IJ9&amp;", ""memberCount"": "&amp;IJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IJ11&amp;", ""memberCount"": "&amp;IJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IJ13&amp;", ""memberCount"": "&amp;IJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IJ15&amp;", ""memberCount"": "&amp;IJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IJ17&amp;", ""memberCount"": "&amp;IJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IJ19&amp;", ""memberCount"": "&amp;IJ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 209685827, "memberCount": 197}, {"name": "Smile", "contribution": 182243994, "memberCount": 196}, {"name": "Elite", "contribution": 174346392, "memberCount": 198}, {"name": "Savages", "contribution": 163847350, "memberCount": 199}, {"name": "Spring", "contribution": 137127281, "memberCount": 195}, {"name": "Bounce", "contribution": 143795621, "memberCount": 199}, {"name": "Sunset", "contribution": 127132456, "memberCount": 193}, {"name": "Beaters", "contribution": 95518312, "memberCount": 177}, {"name": "Downtime", "contribution": 92067067, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IF1" activeCellId="0" sqref="IF1"/>
+      <selection pane="topRight" activeCell="IJ1" activeCellId="0" sqref="IJ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IH23" activeCellId="0" sqref="IH23:IJ23"/>
+      <selection pane="bottomRight" activeCell="IK23" activeCellId="0" sqref="IK23:IL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2564,8 +2564,12 @@
       <c r="IJ3" s="7" t="n">
         <v>209685827</v>
       </c>
-      <c r="IK3" s="7"/>
-      <c r="IL3" s="7"/>
+      <c r="IK3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL3" s="7" t="n">
+        <v>210084910</v>
+      </c>
       <c r="IM3" s="7"/>
       <c r="IN3" s="7"/>
       <c r="IO3" s="7"/>
@@ -3441,8 +3445,12 @@
       <c r="IJ4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="IK4" s="11"/>
-      <c r="IL4" s="11"/>
+      <c r="IK4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="IM4" s="11"/>
       <c r="IN4" s="11"/>
       <c r="IO4" s="11"/>
@@ -4320,8 +4328,12 @@
       <c r="IJ5" s="17" t="n">
         <v>182243994</v>
       </c>
-      <c r="IK5" s="17"/>
-      <c r="IL5" s="17"/>
+      <c r="IK5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL5" s="17" t="n">
+        <v>182705550</v>
+      </c>
       <c r="IM5" s="17"/>
       <c r="IN5" s="17"/>
       <c r="IO5" s="17"/>
@@ -5197,8 +5209,12 @@
       <c r="IJ6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="IK6" s="20"/>
-      <c r="IL6" s="20"/>
+      <c r="IK6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="IM6" s="20"/>
       <c r="IN6" s="20"/>
       <c r="IO6" s="20"/>
@@ -6076,8 +6092,12 @@
       <c r="IJ7" s="24" t="n">
         <v>174346392</v>
       </c>
-      <c r="IK7" s="24"/>
-      <c r="IL7" s="24"/>
+      <c r="IK7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL7" s="24" t="n">
+        <v>174686658</v>
+      </c>
       <c r="IM7" s="24"/>
       <c r="IN7" s="24"/>
       <c r="IO7" s="24"/>
@@ -6953,8 +6973,12 @@
       <c r="IJ8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IK8" s="27"/>
-      <c r="IL8" s="27"/>
+      <c r="IK8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IM8" s="27"/>
       <c r="IN8" s="27"/>
       <c r="IO8" s="27"/>
@@ -7832,8 +7856,12 @@
       <c r="IJ9" s="31" t="n">
         <v>163847350</v>
       </c>
-      <c r="IK9" s="31"/>
-      <c r="IL9" s="31"/>
+      <c r="IK9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL9" s="31" t="n">
+        <v>164140116</v>
+      </c>
       <c r="IM9" s="31"/>
       <c r="IN9" s="31"/>
       <c r="IO9" s="31"/>
@@ -8709,8 +8737,12 @@
       <c r="IJ10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="IK10" s="34"/>
-      <c r="IL10" s="34"/>
+      <c r="IK10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="IM10" s="34"/>
       <c r="IN10" s="34"/>
       <c r="IO10" s="34"/>
@@ -9588,8 +9620,12 @@
       <c r="IJ11" s="38" t="n">
         <v>137127281</v>
       </c>
-      <c r="IK11" s="38"/>
-      <c r="IL11" s="38"/>
+      <c r="IK11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL11" s="38" t="n">
+        <v>137361782</v>
+      </c>
       <c r="IM11" s="38"/>
       <c r="IN11" s="38"/>
       <c r="IO11" s="38"/>
@@ -10465,8 +10501,12 @@
       <c r="IJ12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="IK12" s="41"/>
-      <c r="IL12" s="41"/>
+      <c r="IK12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL12" s="41" t="n">
+        <v>195</v>
+      </c>
       <c r="IM12" s="41"/>
       <c r="IN12" s="41"/>
       <c r="IO12" s="41"/>
@@ -11344,8 +11384,12 @@
       <c r="IJ13" s="45" t="n">
         <v>143795621</v>
       </c>
-      <c r="IK13" s="45"/>
-      <c r="IL13" s="45"/>
+      <c r="IK13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL13" s="45" t="n">
+        <v>144250864</v>
+      </c>
       <c r="IM13" s="45"/>
       <c r="IN13" s="45"/>
       <c r="IO13" s="45"/>
@@ -12221,8 +12265,12 @@
       <c r="IJ14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IK14" s="48"/>
-      <c r="IL14" s="48"/>
+      <c r="IK14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IM14" s="48"/>
       <c r="IN14" s="48"/>
       <c r="IO14" s="48"/>
@@ -13100,8 +13148,12 @@
       <c r="IJ15" s="52" t="n">
         <v>127132456</v>
       </c>
-      <c r="IK15" s="52"/>
-      <c r="IL15" s="52"/>
+      <c r="IK15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL15" s="52" t="n">
+        <v>127157504</v>
+      </c>
       <c r="IM15" s="52"/>
       <c r="IN15" s="52"/>
       <c r="IO15" s="52"/>
@@ -13977,8 +14029,12 @@
       <c r="IJ16" s="55" t="n">
         <v>193</v>
       </c>
-      <c r="IK16" s="55"/>
-      <c r="IL16" s="55"/>
+      <c r="IK16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL16" s="55" t="n">
+        <v>193</v>
+      </c>
       <c r="IM16" s="55"/>
       <c r="IN16" s="55"/>
       <c r="IO16" s="55"/>
@@ -14856,8 +14912,12 @@
       <c r="IJ17" s="59" t="n">
         <v>95518312</v>
       </c>
-      <c r="IK17" s="59"/>
-      <c r="IL17" s="59"/>
+      <c r="IK17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL17" s="59" t="n">
+        <v>95601735</v>
+      </c>
       <c r="IM17" s="59"/>
       <c r="IN17" s="59"/>
       <c r="IO17" s="59"/>
@@ -15733,8 +15793,12 @@
       <c r="IJ18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IK18" s="62"/>
-      <c r="IL18" s="62"/>
+      <c r="IK18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IM18" s="62"/>
       <c r="IN18" s="62"/>
       <c r="IO18" s="62"/>
@@ -16612,8 +16676,12 @@
       <c r="IJ19" s="66" t="n">
         <v>92067067</v>
       </c>
-      <c r="IK19" s="66"/>
-      <c r="IL19" s="66"/>
+      <c r="IK19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL19" s="66" t="n">
+        <v>92425520</v>
+      </c>
       <c r="IM19" s="66"/>
       <c r="IN19" s="66"/>
       <c r="IO19" s="66"/>
@@ -17489,8 +17557,12 @@
       <c r="IJ20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="IK20" s="69"/>
-      <c r="IL20" s="69"/>
+      <c r="IK20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IL20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="IM20" s="69"/>
       <c r="IN20" s="69"/>
       <c r="IO20" s="69"/>
@@ -18597,15 +18669,23 @@
       </c>
       <c r="IH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IH2)&amp;", ""month"": "&amp;MONTH(IH2)&amp;", ""day"": "&amp;DAY(IH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IH3&amp;", ""memberCount"": "&amp;IH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IH5&amp;", ""memberCount"": "&amp;IH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IH7&amp;", ""memberCount"": "&amp;IH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IH9&amp;", ""memberCount"": "&amp;IH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IH11&amp;", ""memberCount"": "&amp;IH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IH13&amp;", ""memberCount"": "&amp;IH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IH15&amp;", ""memberCount"": "&amp;IH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IH17&amp;", ""memberCount"": "&amp;IH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IH19&amp;", ""memberCount"": "&amp;IH20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="II23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(II2)&amp;", ""month"": "&amp;MONTH(II2)&amp;", ""day"": "&amp;DAY(II2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;II3&amp;", ""memberCount"": "&amp;II4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;II5&amp;", ""memberCount"": "&amp;II6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;II7&amp;", ""memberCount"": "&amp;II8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;II9&amp;", ""memberCount"": "&amp;II10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;II11&amp;", ""memberCount"": "&amp;II12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;II13&amp;", ""memberCount"": "&amp;II14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;II15&amp;", ""memberCount"": "&amp;II16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;II17&amp;", ""memberCount"": "&amp;II18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;II19&amp;", ""memberCount"": "&amp;II20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IJ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IJ2)&amp;", ""month"": "&amp;MONTH(IJ2)&amp;", ""day"": "&amp;DAY(IJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IJ3&amp;", ""memberCount"": "&amp;IJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IJ5&amp;", ""memberCount"": "&amp;IJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IJ7&amp;", ""memberCount"": "&amp;IJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IJ9&amp;", ""memberCount"": "&amp;IJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IJ11&amp;", ""memberCount"": "&amp;IJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IJ13&amp;", ""memberCount"": "&amp;IJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IJ15&amp;", ""memberCount"": "&amp;IJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IJ17&amp;", ""memberCount"": "&amp;IJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IJ19&amp;", ""memberCount"": "&amp;IJ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 209685827, "memberCount": 197}, {"name": "Smile", "contribution": 182243994, "memberCount": 196}, {"name": "Elite", "contribution": 174346392, "memberCount": 198}, {"name": "Savages", "contribution": 163847350, "memberCount": 199}, {"name": "Spring", "contribution": 137127281, "memberCount": 195}, {"name": "Bounce", "contribution": 143795621, "memberCount": 199}, {"name": "Sunset", "contribution": 127132456, "memberCount": 193}, {"name": "Beaters", "contribution": 95518312, "memberCount": 177}, {"name": "Downtime", "contribution": 92067067, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 209685827, "memberCount": 197}, {"name": "Smile", "contribution": 182243994, "memberCount": 196}, {"name": "Elite", "contribution": 174346392, "memberCount": 198}, {"name": "Savages", "contribution": 163847350, "memberCount": 199}, {"name": "Spring", "contribution": 137127281, "memberCount": 195}, {"name": "Bounce", "contribution": 143795621, "memberCount": 199}, {"name": "Sunset", "contribution": 127132456, "memberCount": 193}, {"name": "Beaters", "contribution": 95518312, "memberCount": 177}, {"name": "Downtime", "contribution": 92067067, "memberCount": 199}]}</v>
+      </c>
+      <c r="IK23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IK2)&amp;", ""month"": "&amp;MONTH(IK2)&amp;", ""day"": "&amp;DAY(IK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IK3&amp;", ""memberCount"": "&amp;IK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IK5&amp;", ""memberCount"": "&amp;IK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IK7&amp;", ""memberCount"": "&amp;IK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IK9&amp;", ""memberCount"": "&amp;IK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IK11&amp;", ""memberCount"": "&amp;IK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IK13&amp;", ""memberCount"": "&amp;IK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IK15&amp;", ""memberCount"": "&amp;IK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IK17&amp;", ""memberCount"": "&amp;IK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IK19&amp;", ""memberCount"": "&amp;IK20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IL23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IL2)&amp;", ""month"": "&amp;MONTH(IL2)&amp;", ""day"": "&amp;DAY(IL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IL3&amp;", ""memberCount"": "&amp;IL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IL5&amp;", ""memberCount"": "&amp;IL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IL7&amp;", ""memberCount"": "&amp;IL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IL9&amp;", ""memberCount"": "&amp;IL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IL11&amp;", ""memberCount"": "&amp;IL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IL13&amp;", ""memberCount"": "&amp;IL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IL15&amp;", ""memberCount"": "&amp;IL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IL17&amp;", ""memberCount"": "&amp;IL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IL19&amp;", ""memberCount"": "&amp;IL20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 210084910, "memberCount": 197}, {"name": "Smile", "contribution": 182705550, "memberCount": 196}, {"name": "Elite", "contribution": 174686658, "memberCount": 198}, {"name": "Savages", "contribution": 164140116, "memberCount": 199}, {"name": "Spring", "contribution": 137361782, "memberCount": 195}, {"name": "Bounce", "contribution": 144250864, "memberCount": 199}, {"name": "Sunset", "contribution": 127157504, "memberCount": 193}, {"name": "Beaters", "contribution": 95601735, "memberCount": 177}, {"name": "Downtime", "contribution": 92425520, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IJ1" activeCellId="0" sqref="IJ1"/>
+      <selection pane="topRight" activeCell="IK1" activeCellId="0" sqref="IK1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IK23" activeCellId="0" sqref="IK23:IL23"/>
+      <selection pane="bottomRight" activeCell="IM23" activeCellId="0" sqref="IM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2570,7 +2570,9 @@
       <c r="IL3" s="7" t="n">
         <v>210084910</v>
       </c>
-      <c r="IM3" s="7"/>
+      <c r="IM3" s="7" t="n">
+        <v>210305722</v>
+      </c>
       <c r="IN3" s="7"/>
       <c r="IO3" s="7"/>
       <c r="IP3" s="7"/>
@@ -3451,7 +3453,9 @@
       <c r="IL4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="IM4" s="11"/>
+      <c r="IM4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="IN4" s="11"/>
       <c r="IO4" s="11"/>
       <c r="IP4" s="11"/>
@@ -4334,7 +4338,9 @@
       <c r="IL5" s="17" t="n">
         <v>182705550</v>
       </c>
-      <c r="IM5" s="17"/>
+      <c r="IM5" s="17" t="n">
+        <v>182873788</v>
+      </c>
       <c r="IN5" s="17"/>
       <c r="IO5" s="17"/>
       <c r="IP5" s="17"/>
@@ -5215,7 +5221,9 @@
       <c r="IL6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="IM6" s="20"/>
+      <c r="IM6" s="20" t="n">
+        <v>196</v>
+      </c>
       <c r="IN6" s="20"/>
       <c r="IO6" s="20"/>
       <c r="IP6" s="20"/>
@@ -6098,7 +6106,9 @@
       <c r="IL7" s="24" t="n">
         <v>174686658</v>
       </c>
-      <c r="IM7" s="24"/>
+      <c r="IM7" s="24" t="n">
+        <v>174820148</v>
+      </c>
       <c r="IN7" s="24"/>
       <c r="IO7" s="24"/>
       <c r="IP7" s="24"/>
@@ -6979,7 +6989,9 @@
       <c r="IL8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IM8" s="27"/>
+      <c r="IM8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IN8" s="27"/>
       <c r="IO8" s="27"/>
       <c r="IP8" s="27"/>
@@ -7862,7 +7874,9 @@
       <c r="IL9" s="31" t="n">
         <v>164140116</v>
       </c>
-      <c r="IM9" s="31"/>
+      <c r="IM9" s="31" t="n">
+        <v>164165038</v>
+      </c>
       <c r="IN9" s="31"/>
       <c r="IO9" s="31"/>
       <c r="IP9" s="31"/>
@@ -8743,7 +8757,9 @@
       <c r="IL10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="IM10" s="34"/>
+      <c r="IM10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="IN10" s="34"/>
       <c r="IO10" s="34"/>
       <c r="IP10" s="34"/>
@@ -9626,7 +9642,9 @@
       <c r="IL11" s="38" t="n">
         <v>137361782</v>
       </c>
-      <c r="IM11" s="38"/>
+      <c r="IM11" s="38" t="n">
+        <v>137495462</v>
+      </c>
       <c r="IN11" s="38"/>
       <c r="IO11" s="38"/>
       <c r="IP11" s="38"/>
@@ -10507,7 +10525,9 @@
       <c r="IL12" s="41" t="n">
         <v>195</v>
       </c>
-      <c r="IM12" s="41"/>
+      <c r="IM12" s="41" t="n">
+        <v>196</v>
+      </c>
       <c r="IN12" s="41"/>
       <c r="IO12" s="41"/>
       <c r="IP12" s="41"/>
@@ -11390,7 +11410,9 @@
       <c r="IL13" s="45" t="n">
         <v>144250864</v>
       </c>
-      <c r="IM13" s="45"/>
+      <c r="IM13" s="45" t="n">
+        <v>144528806</v>
+      </c>
       <c r="IN13" s="45"/>
       <c r="IO13" s="45"/>
       <c r="IP13" s="45"/>
@@ -12271,7 +12293,9 @@
       <c r="IL14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IM14" s="48"/>
+      <c r="IM14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IN14" s="48"/>
       <c r="IO14" s="48"/>
       <c r="IP14" s="48"/>
@@ -13154,7 +13178,9 @@
       <c r="IL15" s="52" t="n">
         <v>127157504</v>
       </c>
-      <c r="IM15" s="52"/>
+      <c r="IM15" s="52" t="n">
+        <v>127215500</v>
+      </c>
       <c r="IN15" s="52"/>
       <c r="IO15" s="52"/>
       <c r="IP15" s="52"/>
@@ -14035,7 +14061,9 @@
       <c r="IL16" s="55" t="n">
         <v>193</v>
       </c>
-      <c r="IM16" s="55"/>
+      <c r="IM16" s="55" t="n">
+        <v>192</v>
+      </c>
       <c r="IN16" s="55"/>
       <c r="IO16" s="55"/>
       <c r="IP16" s="55"/>
@@ -14918,7 +14946,9 @@
       <c r="IL17" s="59" t="n">
         <v>95601735</v>
       </c>
-      <c r="IM17" s="59"/>
+      <c r="IM17" s="59" t="n">
+        <v>95638130</v>
+      </c>
       <c r="IN17" s="59"/>
       <c r="IO17" s="59"/>
       <c r="IP17" s="59"/>
@@ -15799,7 +15829,9 @@
       <c r="IL18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IM18" s="62"/>
+      <c r="IM18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IN18" s="62"/>
       <c r="IO18" s="62"/>
       <c r="IP18" s="62"/>
@@ -16682,7 +16714,9 @@
       <c r="IL19" s="66" t="n">
         <v>92425520</v>
       </c>
-      <c r="IM19" s="66"/>
+      <c r="IM19" s="66" t="n">
+        <v>92365844</v>
+      </c>
       <c r="IN19" s="66"/>
       <c r="IO19" s="66"/>
       <c r="IP19" s="66"/>
@@ -17563,7 +17597,9 @@
       <c r="IL20" s="69" t="n">
         <v>200</v>
       </c>
-      <c r="IM20" s="69"/>
+      <c r="IM20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="IN20" s="69"/>
       <c r="IO20" s="69"/>
       <c r="IP20" s="69"/>
@@ -18681,11 +18717,15 @@
       </c>
       <c r="IK23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IK2)&amp;", ""month"": "&amp;MONTH(IK2)&amp;", ""day"": "&amp;DAY(IK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IK3&amp;", ""memberCount"": "&amp;IK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IK5&amp;", ""memberCount"": "&amp;IK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IK7&amp;", ""memberCount"": "&amp;IK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IK9&amp;", ""memberCount"": "&amp;IK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IK11&amp;", ""memberCount"": "&amp;IK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IK13&amp;", ""memberCount"": "&amp;IK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IK15&amp;", ""memberCount"": "&amp;IK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IK17&amp;", ""memberCount"": "&amp;IK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IK19&amp;", ""memberCount"": "&amp;IK20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IL23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IL2)&amp;", ""month"": "&amp;MONTH(IL2)&amp;", ""day"": "&amp;DAY(IL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IL3&amp;", ""memberCount"": "&amp;IL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IL5&amp;", ""memberCount"": "&amp;IL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IL7&amp;", ""memberCount"": "&amp;IL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IL9&amp;", ""memberCount"": "&amp;IL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IL11&amp;", ""memberCount"": "&amp;IL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IL13&amp;", ""memberCount"": "&amp;IL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IL15&amp;", ""memberCount"": "&amp;IL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IL17&amp;", ""memberCount"": "&amp;IL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IL19&amp;", ""memberCount"": "&amp;IL20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 210084910, "memberCount": 197}, {"name": "Smile", "contribution": 182705550, "memberCount": 196}, {"name": "Elite", "contribution": 174686658, "memberCount": 198}, {"name": "Savages", "contribution": 164140116, "memberCount": 199}, {"name": "Spring", "contribution": 137361782, "memberCount": 195}, {"name": "Bounce", "contribution": 144250864, "memberCount": 199}, {"name": "Sunset", "contribution": 127157504, "memberCount": 193}, {"name": "Beaters", "contribution": 95601735, "memberCount": 177}, {"name": "Downtime", "contribution": 92425520, "memberCount": 200}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 210084910, "memberCount": 197}, {"name": "Smile", "contribution": 182705550, "memberCount": 196}, {"name": "Elite", "contribution": 174686658, "memberCount": 198}, {"name": "Savages", "contribution": 164140116, "memberCount": 199}, {"name": "Spring", "contribution": 137361782, "memberCount": 195}, {"name": "Bounce", "contribution": 144250864, "memberCount": 199}, {"name": "Sunset", "contribution": 127157504, "memberCount": 193}, {"name": "Beaters", "contribution": 95601735, "memberCount": 177}, {"name": "Downtime", "contribution": 92425520, "memberCount": 200}]}</v>
+      </c>
+      <c r="IM23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IM2)&amp;", ""month"": "&amp;MONTH(IM2)&amp;", ""day"": "&amp;DAY(IM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IM3&amp;", ""memberCount"": "&amp;IM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IM5&amp;", ""memberCount"": "&amp;IM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IM7&amp;", ""memberCount"": "&amp;IM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IM9&amp;", ""memberCount"": "&amp;IM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IM11&amp;", ""memberCount"": "&amp;IM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IM13&amp;", ""memberCount"": "&amp;IM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IM15&amp;", ""memberCount"": "&amp;IM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IM17&amp;", ""memberCount"": "&amp;IM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IM19&amp;", ""memberCount"": "&amp;IM20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 210305722, "memberCount": 197}, {"name": "Smile", "contribution": 182873788, "memberCount": 196}, {"name": "Elite", "contribution": 174820148, "memberCount": 198}, {"name": "Savages", "contribution": 164165038, "memberCount": 199}, {"name": "Spring", "contribution": 137495462, "memberCount": 196}, {"name": "Bounce", "contribution": 144528806, "memberCount": 199}, {"name": "Sunset", "contribution": 127215500, "memberCount": 192}, {"name": "Beaters", "contribution": 95638130, "memberCount": 177}, {"name": "Downtime", "contribution": 92365844, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IK1" activeCellId="0" sqref="IK1"/>
+      <selection pane="topRight" activeCell="IJ1" activeCellId="0" sqref="IJ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IM23" activeCellId="0" sqref="IM23"/>
+      <selection pane="bottomRight" activeCell="IN23" activeCellId="0" sqref="IN23:IP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2573,9 +2573,15 @@
       <c r="IM3" s="7" t="n">
         <v>210305722</v>
       </c>
-      <c r="IN3" s="7"/>
-      <c r="IO3" s="7"/>
-      <c r="IP3" s="7"/>
+      <c r="IN3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP3" s="7" t="n">
+        <v>210822379</v>
+      </c>
       <c r="IQ3" s="7"/>
       <c r="IR3" s="7"/>
       <c r="IS3" s="7"/>
@@ -3456,9 +3462,15 @@
       <c r="IM4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="IN4" s="11"/>
-      <c r="IO4" s="11"/>
-      <c r="IP4" s="11"/>
+      <c r="IN4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="IQ4" s="11"/>
       <c r="IR4" s="11"/>
       <c r="IS4" s="11"/>
@@ -4341,9 +4353,15 @@
       <c r="IM5" s="17" t="n">
         <v>182873788</v>
       </c>
-      <c r="IN5" s="17"/>
-      <c r="IO5" s="17"/>
-      <c r="IP5" s="17"/>
+      <c r="IN5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP5" s="17" t="n">
+        <v>183573793</v>
+      </c>
       <c r="IQ5" s="17"/>
       <c r="IR5" s="17"/>
       <c r="IS5" s="17"/>
@@ -5224,9 +5242,15 @@
       <c r="IM6" s="20" t="n">
         <v>196</v>
       </c>
-      <c r="IN6" s="20"/>
-      <c r="IO6" s="20"/>
-      <c r="IP6" s="20"/>
+      <c r="IN6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP6" s="20" t="n">
+        <v>198</v>
+      </c>
       <c r="IQ6" s="20"/>
       <c r="IR6" s="20"/>
       <c r="IS6" s="20"/>
@@ -6109,9 +6133,15 @@
       <c r="IM7" s="24" t="n">
         <v>174820148</v>
       </c>
-      <c r="IN7" s="24"/>
-      <c r="IO7" s="24"/>
-      <c r="IP7" s="24"/>
+      <c r="IN7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP7" s="24" t="n">
+        <v>175164432</v>
+      </c>
       <c r="IQ7" s="24"/>
       <c r="IR7" s="24"/>
       <c r="IS7" s="24"/>
@@ -6992,9 +7022,15 @@
       <c r="IM8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IN8" s="27"/>
-      <c r="IO8" s="27"/>
-      <c r="IP8" s="27"/>
+      <c r="IN8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IQ8" s="27"/>
       <c r="IR8" s="27"/>
       <c r="IS8" s="27"/>
@@ -7877,9 +7913,15 @@
       <c r="IM9" s="31" t="n">
         <v>164165038</v>
       </c>
-      <c r="IN9" s="31"/>
-      <c r="IO9" s="31"/>
-      <c r="IP9" s="31"/>
+      <c r="IN9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP9" s="31" t="n">
+        <v>175164452</v>
+      </c>
       <c r="IQ9" s="31"/>
       <c r="IR9" s="31"/>
       <c r="IS9" s="31"/>
@@ -8760,9 +8802,15 @@
       <c r="IM10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="IN10" s="34"/>
-      <c r="IO10" s="34"/>
-      <c r="IP10" s="34"/>
+      <c r="IN10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="IQ10" s="34"/>
       <c r="IR10" s="34"/>
       <c r="IS10" s="34"/>
@@ -9645,9 +9693,15 @@
       <c r="IM11" s="38" t="n">
         <v>137495462</v>
       </c>
-      <c r="IN11" s="38"/>
-      <c r="IO11" s="38"/>
-      <c r="IP11" s="38"/>
+      <c r="IN11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP11" s="38" t="n">
+        <v>137778639</v>
+      </c>
       <c r="IQ11" s="38"/>
       <c r="IR11" s="38"/>
       <c r="IS11" s="38"/>
@@ -10528,9 +10582,15 @@
       <c r="IM12" s="41" t="n">
         <v>196</v>
       </c>
-      <c r="IN12" s="41"/>
-      <c r="IO12" s="41"/>
-      <c r="IP12" s="41"/>
+      <c r="IN12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP12" s="41" t="n">
+        <v>197</v>
+      </c>
       <c r="IQ12" s="41"/>
       <c r="IR12" s="41"/>
       <c r="IS12" s="41"/>
@@ -11413,9 +11473,15 @@
       <c r="IM13" s="45" t="n">
         <v>144528806</v>
       </c>
-      <c r="IN13" s="45"/>
-      <c r="IO13" s="45"/>
-      <c r="IP13" s="45"/>
+      <c r="IN13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP13" s="45" t="n">
+        <v>145072927</v>
+      </c>
       <c r="IQ13" s="45"/>
       <c r="IR13" s="45"/>
       <c r="IS13" s="45"/>
@@ -12296,9 +12362,15 @@
       <c r="IM14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IN14" s="48"/>
-      <c r="IO14" s="48"/>
-      <c r="IP14" s="48"/>
+      <c r="IN14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IQ14" s="48"/>
       <c r="IR14" s="48"/>
       <c r="IS14" s="48"/>
@@ -13181,9 +13253,15 @@
       <c r="IM15" s="52" t="n">
         <v>127215500</v>
       </c>
-      <c r="IN15" s="52"/>
-      <c r="IO15" s="52"/>
-      <c r="IP15" s="52"/>
+      <c r="IN15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP15" s="52" t="n">
+        <v>127285307</v>
+      </c>
       <c r="IQ15" s="52"/>
       <c r="IR15" s="52"/>
       <c r="IS15" s="52"/>
@@ -14064,9 +14142,15 @@
       <c r="IM16" s="55" t="n">
         <v>192</v>
       </c>
-      <c r="IN16" s="55"/>
-      <c r="IO16" s="55"/>
-      <c r="IP16" s="55"/>
+      <c r="IN16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP16" s="55" t="n">
+        <v>196</v>
+      </c>
       <c r="IQ16" s="55"/>
       <c r="IR16" s="55"/>
       <c r="IS16" s="55"/>
@@ -14949,9 +15033,15 @@
       <c r="IM17" s="59" t="n">
         <v>95638130</v>
       </c>
-      <c r="IN17" s="59"/>
-      <c r="IO17" s="59"/>
-      <c r="IP17" s="59"/>
+      <c r="IN17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP17" s="59" t="n">
+        <v>95679430</v>
+      </c>
       <c r="IQ17" s="59"/>
       <c r="IR17" s="59"/>
       <c r="IS17" s="59"/>
@@ -15832,9 +15922,15 @@
       <c r="IM18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IN18" s="62"/>
-      <c r="IO18" s="62"/>
-      <c r="IP18" s="62"/>
+      <c r="IN18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP18" s="62" t="n">
+        <v>176</v>
+      </c>
       <c r="IQ18" s="62"/>
       <c r="IR18" s="62"/>
       <c r="IS18" s="62"/>
@@ -16717,9 +16813,15 @@
       <c r="IM19" s="66" t="n">
         <v>92365844</v>
       </c>
-      <c r="IN19" s="66"/>
-      <c r="IO19" s="66"/>
-      <c r="IP19" s="66"/>
+      <c r="IN19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP19" s="66" t="n">
+        <v>92325137</v>
+      </c>
       <c r="IQ19" s="66"/>
       <c r="IR19" s="66"/>
       <c r="IS19" s="66"/>
@@ -17600,9 +17702,15 @@
       <c r="IM20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="IN20" s="69"/>
-      <c r="IO20" s="69"/>
-      <c r="IP20" s="69"/>
+      <c r="IN20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IO20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IP20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="IQ20" s="69"/>
       <c r="IR20" s="69"/>
       <c r="IS20" s="69"/>
@@ -18725,7 +18833,19 @@
       </c>
       <c r="IM23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IM2)&amp;", ""month"": "&amp;MONTH(IM2)&amp;", ""day"": "&amp;DAY(IM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IM3&amp;", ""memberCount"": "&amp;IM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IM5&amp;", ""memberCount"": "&amp;IM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IM7&amp;", ""memberCount"": "&amp;IM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IM9&amp;", ""memberCount"": "&amp;IM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IM11&amp;", ""memberCount"": "&amp;IM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IM13&amp;", ""memberCount"": "&amp;IM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IM15&amp;", ""memberCount"": "&amp;IM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IM17&amp;", ""memberCount"": "&amp;IM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IM19&amp;", ""memberCount"": "&amp;IM20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 210305722, "memberCount": 197}, {"name": "Smile", "contribution": 182873788, "memberCount": 196}, {"name": "Elite", "contribution": 174820148, "memberCount": 198}, {"name": "Savages", "contribution": 164165038, "memberCount": 199}, {"name": "Spring", "contribution": 137495462, "memberCount": 196}, {"name": "Bounce", "contribution": 144528806, "memberCount": 199}, {"name": "Sunset", "contribution": 127215500, "memberCount": 192}, {"name": "Beaters", "contribution": 95638130, "memberCount": 177}, {"name": "Downtime", "contribution": 92365844, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 210305722, "memberCount": 197}, {"name": "Smile", "contribution": 182873788, "memberCount": 196}, {"name": "Elite", "contribution": 174820148, "memberCount": 198}, {"name": "Savages", "contribution": 164165038, "memberCount": 199}, {"name": "Spring", "contribution": 137495462, "memberCount": 196}, {"name": "Bounce", "contribution": 144528806, "memberCount": 199}, {"name": "Sunset", "contribution": 127215500, "memberCount": 192}, {"name": "Beaters", "contribution": 95638130, "memberCount": 177}, {"name": "Downtime", "contribution": 92365844, "memberCount": 199}]}</v>
+      </c>
+      <c r="IN23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IN2)&amp;", ""month"": "&amp;MONTH(IN2)&amp;", ""day"": "&amp;DAY(IN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IN3&amp;", ""memberCount"": "&amp;IN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IN5&amp;", ""memberCount"": "&amp;IN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IN7&amp;", ""memberCount"": "&amp;IN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IN9&amp;", ""memberCount"": "&amp;IN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IN11&amp;", ""memberCount"": "&amp;IN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IN13&amp;", ""memberCount"": "&amp;IN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IN15&amp;", ""memberCount"": "&amp;IN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IN17&amp;", ""memberCount"": "&amp;IN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IN19&amp;", ""memberCount"": "&amp;IN20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IO23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IO2)&amp;", ""month"": "&amp;MONTH(IO2)&amp;", ""day"": "&amp;DAY(IO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IO3&amp;", ""memberCount"": "&amp;IO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IO5&amp;", ""memberCount"": "&amp;IO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IO7&amp;", ""memberCount"": "&amp;IO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IO9&amp;", ""memberCount"": "&amp;IO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IO11&amp;", ""memberCount"": "&amp;IO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IO13&amp;", ""memberCount"": "&amp;IO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IO15&amp;", ""memberCount"": "&amp;IO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IO17&amp;", ""memberCount"": "&amp;IO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IO19&amp;", ""memberCount"": "&amp;IO20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IP23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IP2)&amp;", ""month"": "&amp;MONTH(IP2)&amp;", ""day"": "&amp;DAY(IP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IP3&amp;", ""memberCount"": "&amp;IP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IP5&amp;", ""memberCount"": "&amp;IP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IP7&amp;", ""memberCount"": "&amp;IP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IP9&amp;", ""memberCount"": "&amp;IP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IP11&amp;", ""memberCount"": "&amp;IP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IP13&amp;", ""memberCount"": "&amp;IP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IP15&amp;", ""memberCount"": "&amp;IP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IP17&amp;", ""memberCount"": "&amp;IP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IP19&amp;", ""memberCount"": "&amp;IP20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 210822379, "memberCount": 198}, {"name": "Smile", "contribution": 183573793, "memberCount": 198}, {"name": "Elite", "contribution": 175164432, "memberCount": 198}, {"name": "Savages", "contribution": 175164452, "memberCount": 198}, {"name": "Spring", "contribution": 137778639, "memberCount": 197}, {"name": "Bounce", "contribution": 145072927, "memberCount": 199}, {"name": "Sunset", "contribution": 127285307, "memberCount": 196}, {"name": "Beaters", "contribution": 95679430, "memberCount": 176}, {"name": "Downtime", "contribution": 92325137, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IJ1" activeCellId="0" sqref="IJ1"/>
+      <selection pane="topRight" activeCell="IO1" activeCellId="0" sqref="IO1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IN23" activeCellId="0" sqref="IN23:IP23"/>
+      <selection pane="bottomRight" activeCell="IP23" activeCellId="0" sqref="IP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7920,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="IP9" s="31" t="n">
-        <v>175164452</v>
+        <v>164719310</v>
       </c>
       <c r="IQ9" s="31"/>
       <c r="IR9" s="31"/>
@@ -8809,7 +8809,7 @@
         <v>2</v>
       </c>
       <c r="IP10" s="34" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="IQ10" s="34"/>
       <c r="IR10" s="34"/>
@@ -18837,15 +18837,15 @@
       </c>
       <c r="IN23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IN2)&amp;", ""month"": "&amp;MONTH(IN2)&amp;", ""day"": "&amp;DAY(IN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IN3&amp;", ""memberCount"": "&amp;IN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IN5&amp;", ""memberCount"": "&amp;IN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IN7&amp;", ""memberCount"": "&amp;IN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IN9&amp;", ""memberCount"": "&amp;IN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IN11&amp;", ""memberCount"": "&amp;IN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IN13&amp;", ""memberCount"": "&amp;IN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IN15&amp;", ""memberCount"": "&amp;IN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IN17&amp;", ""memberCount"": "&amp;IN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IN19&amp;", ""memberCount"": "&amp;IN20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IO23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IO2)&amp;", ""month"": "&amp;MONTH(IO2)&amp;", ""day"": "&amp;DAY(IO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IO3&amp;", ""memberCount"": "&amp;IO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IO5&amp;", ""memberCount"": "&amp;IO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IO7&amp;", ""memberCount"": "&amp;IO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IO9&amp;", ""memberCount"": "&amp;IO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IO11&amp;", ""memberCount"": "&amp;IO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IO13&amp;", ""memberCount"": "&amp;IO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IO15&amp;", ""memberCount"": "&amp;IO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IO17&amp;", ""memberCount"": "&amp;IO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IO19&amp;", ""memberCount"": "&amp;IO20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IP2)&amp;", ""month"": "&amp;MONTH(IP2)&amp;", ""day"": "&amp;DAY(IP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IP3&amp;", ""memberCount"": "&amp;IP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IP5&amp;", ""memberCount"": "&amp;IP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IP7&amp;", ""memberCount"": "&amp;IP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IP9&amp;", ""memberCount"": "&amp;IP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IP11&amp;", ""memberCount"": "&amp;IP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IP13&amp;", ""memberCount"": "&amp;IP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IP15&amp;", ""memberCount"": "&amp;IP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IP17&amp;", ""memberCount"": "&amp;IP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IP19&amp;", ""memberCount"": "&amp;IP20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 210822379, "memberCount": 198}, {"name": "Smile", "contribution": 183573793, "memberCount": 198}, {"name": "Elite", "contribution": 175164432, "memberCount": 198}, {"name": "Savages", "contribution": 175164452, "memberCount": 198}, {"name": "Spring", "contribution": 137778639, "memberCount": 197}, {"name": "Bounce", "contribution": 145072927, "memberCount": 199}, {"name": "Sunset", "contribution": 127285307, "memberCount": 196}, {"name": "Beaters", "contribution": 95679430, "memberCount": 176}, {"name": "Downtime", "contribution": 92325137, "memberCount": 197}]}</v>
+        <v>    , {"year": 2019, "month": 5, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 210822379, "memberCount": 198}, {"name": "Smile", "contribution": 183573793, "memberCount": 198}, {"name": "Elite", "contribution": 175164432, "memberCount": 198}, {"name": "Savages", "contribution": 164719310, "memberCount": 199}, {"name": "Spring", "contribution": 137778639, "memberCount": 197}, {"name": "Bounce", "contribution": 145072927, "memberCount": 199}, {"name": "Sunset", "contribution": 127285307, "memberCount": 196}, {"name": "Beaters", "contribution": 95679430, "memberCount": 176}, {"name": "Downtime", "contribution": 92325137, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IO1" activeCellId="0" sqref="IO1"/>
+      <selection pane="topRight" activeCell="IP1" activeCellId="0" sqref="IP1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IP23" activeCellId="0" sqref="IP23"/>
+      <selection pane="bottomRight" activeCell="IQ23" activeCellId="0" sqref="IQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,7 +2582,9 @@
       <c r="IP3" s="7" t="n">
         <v>210822379</v>
       </c>
-      <c r="IQ3" s="7"/>
+      <c r="IQ3" s="7" t="n">
+        <v>210989110</v>
+      </c>
       <c r="IR3" s="7"/>
       <c r="IS3" s="7"/>
       <c r="IT3" s="7"/>
@@ -3471,7 +3473,9 @@
       <c r="IP4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="IQ4" s="11"/>
+      <c r="IQ4" s="11" t="n">
+        <v>198</v>
+      </c>
       <c r="IR4" s="11"/>
       <c r="IS4" s="11"/>
       <c r="IT4" s="11"/>
@@ -4362,7 +4366,9 @@
       <c r="IP5" s="17" t="n">
         <v>183573793</v>
       </c>
-      <c r="IQ5" s="17"/>
+      <c r="IQ5" s="17" t="n">
+        <v>183783444</v>
+      </c>
       <c r="IR5" s="17"/>
       <c r="IS5" s="17"/>
       <c r="IT5" s="17"/>
@@ -5251,7 +5257,9 @@
       <c r="IP6" s="20" t="n">
         <v>198</v>
       </c>
-      <c r="IQ6" s="20"/>
+      <c r="IQ6" s="20" t="n">
+        <v>198</v>
+      </c>
       <c r="IR6" s="20"/>
       <c r="IS6" s="20"/>
       <c r="IT6" s="20"/>
@@ -6142,7 +6150,9 @@
       <c r="IP7" s="24" t="n">
         <v>175164432</v>
       </c>
-      <c r="IQ7" s="24"/>
+      <c r="IQ7" s="24" t="n">
+        <v>175066592</v>
+      </c>
       <c r="IR7" s="24"/>
       <c r="IS7" s="24"/>
       <c r="IT7" s="24"/>
@@ -7031,7 +7041,9 @@
       <c r="IP8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IQ8" s="27"/>
+      <c r="IQ8" s="27" t="n">
+        <v>197</v>
+      </c>
       <c r="IR8" s="27"/>
       <c r="IS8" s="27"/>
       <c r="IT8" s="27"/>
@@ -7922,7 +7934,9 @@
       <c r="IP9" s="31" t="n">
         <v>164719310</v>
       </c>
-      <c r="IQ9" s="31"/>
+      <c r="IQ9" s="31" t="n">
+        <v>164903060</v>
+      </c>
       <c r="IR9" s="31"/>
       <c r="IS9" s="31"/>
       <c r="IT9" s="31"/>
@@ -8811,7 +8825,9 @@
       <c r="IP10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="IQ10" s="34"/>
+      <c r="IQ10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="IR10" s="34"/>
       <c r="IS10" s="34"/>
       <c r="IT10" s="34"/>
@@ -9702,7 +9718,9 @@
       <c r="IP11" s="38" t="n">
         <v>137778639</v>
       </c>
-      <c r="IQ11" s="38"/>
+      <c r="IQ11" s="38" t="n">
+        <v>137893016</v>
+      </c>
       <c r="IR11" s="38"/>
       <c r="IS11" s="38"/>
       <c r="IT11" s="38"/>
@@ -10591,7 +10609,9 @@
       <c r="IP12" s="41" t="n">
         <v>197</v>
       </c>
-      <c r="IQ12" s="41"/>
+      <c r="IQ12" s="41" t="n">
+        <v>197</v>
+      </c>
       <c r="IR12" s="41"/>
       <c r="IS12" s="41"/>
       <c r="IT12" s="41"/>
@@ -11482,7 +11502,9 @@
       <c r="IP13" s="45" t="n">
         <v>145072927</v>
       </c>
-      <c r="IQ13" s="45"/>
+      <c r="IQ13" s="45" t="n">
+        <v>144365994</v>
+      </c>
       <c r="IR13" s="45"/>
       <c r="IS13" s="45"/>
       <c r="IT13" s="45"/>
@@ -12371,7 +12393,9 @@
       <c r="IP14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IQ14" s="48"/>
+      <c r="IQ14" s="48" t="n">
+        <v>197</v>
+      </c>
       <c r="IR14" s="48"/>
       <c r="IS14" s="48"/>
       <c r="IT14" s="48"/>
@@ -13262,7 +13286,9 @@
       <c r="IP15" s="52" t="n">
         <v>127285307</v>
       </c>
-      <c r="IQ15" s="52"/>
+      <c r="IQ15" s="52" t="n">
+        <v>127378914</v>
+      </c>
       <c r="IR15" s="52"/>
       <c r="IS15" s="52"/>
       <c r="IT15" s="52"/>
@@ -14151,7 +14177,9 @@
       <c r="IP16" s="55" t="n">
         <v>196</v>
       </c>
-      <c r="IQ16" s="55"/>
+      <c r="IQ16" s="55" t="n">
+        <v>197</v>
+      </c>
       <c r="IR16" s="55"/>
       <c r="IS16" s="55"/>
       <c r="IT16" s="55"/>
@@ -15042,7 +15070,9 @@
       <c r="IP17" s="59" t="n">
         <v>95679430</v>
       </c>
-      <c r="IQ17" s="59"/>
+      <c r="IQ17" s="59" t="n">
+        <v>95782584</v>
+      </c>
       <c r="IR17" s="59"/>
       <c r="IS17" s="59"/>
       <c r="IT17" s="59"/>
@@ -15931,7 +15961,9 @@
       <c r="IP18" s="62" t="n">
         <v>176</v>
       </c>
-      <c r="IQ18" s="62"/>
+      <c r="IQ18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IR18" s="62"/>
       <c r="IS18" s="62"/>
       <c r="IT18" s="62"/>
@@ -16822,7 +16854,9 @@
       <c r="IP19" s="66" t="n">
         <v>92325137</v>
       </c>
-      <c r="IQ19" s="66"/>
+      <c r="IQ19" s="66" t="n">
+        <v>92526722</v>
+      </c>
       <c r="IR19" s="66"/>
       <c r="IS19" s="66"/>
       <c r="IT19" s="66"/>
@@ -17711,7 +17745,9 @@
       <c r="IP20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="IQ20" s="69"/>
+      <c r="IQ20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="IR20" s="69"/>
       <c r="IS20" s="69"/>
       <c r="IT20" s="69"/>
@@ -18845,7 +18881,11 @@
       </c>
       <c r="IP23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IP2)&amp;", ""month"": "&amp;MONTH(IP2)&amp;", ""day"": "&amp;DAY(IP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IP3&amp;", ""memberCount"": "&amp;IP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IP5&amp;", ""memberCount"": "&amp;IP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IP7&amp;", ""memberCount"": "&amp;IP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IP9&amp;", ""memberCount"": "&amp;IP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IP11&amp;", ""memberCount"": "&amp;IP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IP13&amp;", ""memberCount"": "&amp;IP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IP15&amp;", ""memberCount"": "&amp;IP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IP17&amp;", ""memberCount"": "&amp;IP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IP19&amp;", ""memberCount"": "&amp;IP20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 210822379, "memberCount": 198}, {"name": "Smile", "contribution": 183573793, "memberCount": 198}, {"name": "Elite", "contribution": 175164432, "memberCount": 198}, {"name": "Savages", "contribution": 164719310, "memberCount": 199}, {"name": "Spring", "contribution": 137778639, "memberCount": 197}, {"name": "Bounce", "contribution": 145072927, "memberCount": 199}, {"name": "Sunset", "contribution": 127285307, "memberCount": 196}, {"name": "Beaters", "contribution": 95679430, "memberCount": 176}, {"name": "Downtime", "contribution": 92325137, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 210822379, "memberCount": 198}, {"name": "Smile", "contribution": 183573793, "memberCount": 198}, {"name": "Elite", "contribution": 175164432, "memberCount": 198}, {"name": "Savages", "contribution": 164719310, "memberCount": 199}, {"name": "Spring", "contribution": 137778639, "memberCount": 197}, {"name": "Bounce", "contribution": 145072927, "memberCount": 199}, {"name": "Sunset", "contribution": 127285307, "memberCount": 196}, {"name": "Beaters", "contribution": 95679430, "memberCount": 176}, {"name": "Downtime", "contribution": 92325137, "memberCount": 197}]}</v>
+      </c>
+      <c r="IQ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IQ2)&amp;", ""month"": "&amp;MONTH(IQ2)&amp;", ""day"": "&amp;DAY(IQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IQ3&amp;", ""memberCount"": "&amp;IQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IQ5&amp;", ""memberCount"": "&amp;IQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IQ7&amp;", ""memberCount"": "&amp;IQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IQ9&amp;", ""memberCount"": "&amp;IQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IQ11&amp;", ""memberCount"": "&amp;IQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IQ13&amp;", ""memberCount"": "&amp;IQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IQ15&amp;", ""memberCount"": "&amp;IQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IQ17&amp;", ""memberCount"": "&amp;IQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IQ19&amp;", ""memberCount"": "&amp;IQ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 210989110, "memberCount": 198}, {"name": "Smile", "contribution": 183783444, "memberCount": 198}, {"name": "Elite", "contribution": 175066592, "memberCount": 197}, {"name": "Savages", "contribution": 164903060, "memberCount": 199}, {"name": "Spring", "contribution": 137893016, "memberCount": 197}, {"name": "Bounce", "contribution": 144365994, "memberCount": 197}, {"name": "Sunset", "contribution": 127378914, "memberCount": 197}, {"name": "Beaters", "contribution": 95782584, "memberCount": 177}, {"name": "Downtime", "contribution": 92526722, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="II3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IP1" activeCellId="0" sqref="IP1"/>
+      <selection pane="topRight" activeCell="II1" activeCellId="0" sqref="II1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IQ23" activeCellId="0" sqref="IQ23"/>
+      <selection pane="bottomRight" activeCell="IR23" activeCellId="0" sqref="IR23:IV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2585,11 +2585,21 @@
       <c r="IQ3" s="7" t="n">
         <v>210989110</v>
       </c>
-      <c r="IR3" s="7"/>
-      <c r="IS3" s="7"/>
-      <c r="IT3" s="7"/>
-      <c r="IU3" s="7"/>
-      <c r="IV3" s="7"/>
+      <c r="IR3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV3" s="7" t="n">
+        <v>210928623</v>
+      </c>
       <c r="IW3" s="7"/>
       <c r="IX3" s="7"/>
       <c r="IY3" s="7"/>
@@ -3476,11 +3486,21 @@
       <c r="IQ4" s="11" t="n">
         <v>198</v>
       </c>
-      <c r="IR4" s="11"/>
-      <c r="IS4" s="11"/>
-      <c r="IT4" s="11"/>
-      <c r="IU4" s="11"/>
-      <c r="IV4" s="11"/>
+      <c r="IR4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV4" s="11" t="n">
+        <v>195</v>
+      </c>
       <c r="IW4" s="11"/>
       <c r="IX4" s="11"/>
       <c r="IY4" s="11"/>
@@ -4369,11 +4389,21 @@
       <c r="IQ5" s="17" t="n">
         <v>183783444</v>
       </c>
-      <c r="IR5" s="17"/>
-      <c r="IS5" s="17"/>
-      <c r="IT5" s="17"/>
-      <c r="IU5" s="17"/>
-      <c r="IV5" s="17"/>
+      <c r="IR5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV5" s="17" t="n">
+        <v>184749545</v>
+      </c>
       <c r="IW5" s="17"/>
       <c r="IX5" s="17"/>
       <c r="IY5" s="17"/>
@@ -5260,11 +5290,21 @@
       <c r="IQ6" s="20" t="n">
         <v>198</v>
       </c>
-      <c r="IR6" s="20"/>
-      <c r="IS6" s="20"/>
-      <c r="IT6" s="20"/>
-      <c r="IU6" s="20"/>
-      <c r="IV6" s="20"/>
+      <c r="IR6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV6" s="20" t="n">
+        <v>199</v>
+      </c>
       <c r="IW6" s="20"/>
       <c r="IX6" s="20"/>
       <c r="IY6" s="20"/>
@@ -6153,11 +6193,21 @@
       <c r="IQ7" s="24" t="n">
         <v>175066592</v>
       </c>
-      <c r="IR7" s="24"/>
-      <c r="IS7" s="24"/>
-      <c r="IT7" s="24"/>
-      <c r="IU7" s="24"/>
-      <c r="IV7" s="24"/>
+      <c r="IR7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV7" s="24" t="n">
+        <v>175930610</v>
+      </c>
       <c r="IW7" s="24"/>
       <c r="IX7" s="24"/>
       <c r="IY7" s="24"/>
@@ -7044,11 +7094,21 @@
       <c r="IQ8" s="27" t="n">
         <v>197</v>
       </c>
-      <c r="IR8" s="27"/>
-      <c r="IS8" s="27"/>
-      <c r="IT8" s="27"/>
-      <c r="IU8" s="27"/>
-      <c r="IV8" s="27"/>
+      <c r="IR8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="IW8" s="27"/>
       <c r="IX8" s="27"/>
       <c r="IY8" s="27"/>
@@ -7937,11 +7997,21 @@
       <c r="IQ9" s="31" t="n">
         <v>164903060</v>
       </c>
-      <c r="IR9" s="31"/>
-      <c r="IS9" s="31"/>
-      <c r="IT9" s="31"/>
-      <c r="IU9" s="31"/>
-      <c r="IV9" s="31"/>
+      <c r="IR9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV9" s="31" t="n">
+        <v>165730643</v>
+      </c>
       <c r="IW9" s="31"/>
       <c r="IX9" s="31"/>
       <c r="IY9" s="31"/>
@@ -8828,11 +8898,21 @@
       <c r="IQ10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="IR10" s="34"/>
-      <c r="IS10" s="34"/>
-      <c r="IT10" s="34"/>
-      <c r="IU10" s="34"/>
-      <c r="IV10" s="34"/>
+      <c r="IR10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV10" s="34" t="n">
+        <v>198</v>
+      </c>
       <c r="IW10" s="34"/>
       <c r="IX10" s="34"/>
       <c r="IY10" s="34"/>
@@ -9721,11 +9801,21 @@
       <c r="IQ11" s="38" t="n">
         <v>137893016</v>
       </c>
-      <c r="IR11" s="38"/>
-      <c r="IS11" s="38"/>
-      <c r="IT11" s="38"/>
-      <c r="IU11" s="38"/>
-      <c r="IV11" s="38"/>
+      <c r="IR11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV11" s="38" t="n">
+        <v>138507350</v>
+      </c>
       <c r="IW11" s="38"/>
       <c r="IX11" s="38"/>
       <c r="IY11" s="38"/>
@@ -10612,11 +10702,21 @@
       <c r="IQ12" s="41" t="n">
         <v>197</v>
       </c>
-      <c r="IR12" s="41"/>
-      <c r="IS12" s="41"/>
-      <c r="IT12" s="41"/>
-      <c r="IU12" s="41"/>
-      <c r="IV12" s="41"/>
+      <c r="IR12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV12" s="41" t="n">
+        <v>198</v>
+      </c>
       <c r="IW12" s="41"/>
       <c r="IX12" s="41"/>
       <c r="IY12" s="41"/>
@@ -11505,11 +11605,21 @@
       <c r="IQ13" s="45" t="n">
         <v>144365994</v>
       </c>
-      <c r="IR13" s="45"/>
-      <c r="IS13" s="45"/>
-      <c r="IT13" s="45"/>
-      <c r="IU13" s="45"/>
-      <c r="IV13" s="45"/>
+      <c r="IR13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV13" s="45" t="n">
+        <v>145564833</v>
+      </c>
       <c r="IW13" s="45"/>
       <c r="IX13" s="45"/>
       <c r="IY13" s="45"/>
@@ -12396,11 +12506,21 @@
       <c r="IQ14" s="48" t="n">
         <v>197</v>
       </c>
-      <c r="IR14" s="48"/>
-      <c r="IS14" s="48"/>
-      <c r="IT14" s="48"/>
-      <c r="IU14" s="48"/>
-      <c r="IV14" s="48"/>
+      <c r="IR14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="IW14" s="48"/>
       <c r="IX14" s="48"/>
       <c r="IY14" s="48"/>
@@ -13289,11 +13409,21 @@
       <c r="IQ15" s="52" t="n">
         <v>127378914</v>
       </c>
-      <c r="IR15" s="52"/>
-      <c r="IS15" s="52"/>
-      <c r="IT15" s="52"/>
-      <c r="IU15" s="52"/>
-      <c r="IV15" s="52"/>
+      <c r="IR15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV15" s="52" t="n">
+        <v>127576121</v>
+      </c>
       <c r="IW15" s="52"/>
       <c r="IX15" s="52"/>
       <c r="IY15" s="52"/>
@@ -14180,11 +14310,21 @@
       <c r="IQ16" s="55" t="n">
         <v>197</v>
       </c>
-      <c r="IR16" s="55"/>
-      <c r="IS16" s="55"/>
-      <c r="IT16" s="55"/>
-      <c r="IU16" s="55"/>
-      <c r="IV16" s="55"/>
+      <c r="IR16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV16" s="55" t="n">
+        <v>193</v>
+      </c>
       <c r="IW16" s="55"/>
       <c r="IX16" s="55"/>
       <c r="IY16" s="55"/>
@@ -15073,11 +15213,21 @@
       <c r="IQ17" s="59" t="n">
         <v>95782584</v>
       </c>
-      <c r="IR17" s="59"/>
-      <c r="IS17" s="59"/>
-      <c r="IT17" s="59"/>
-      <c r="IU17" s="59"/>
-      <c r="IV17" s="59"/>
+      <c r="IR17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV17" s="59" t="n">
+        <v>95616720</v>
+      </c>
       <c r="IW17" s="59"/>
       <c r="IX17" s="59"/>
       <c r="IY17" s="59"/>
@@ -15964,11 +16114,21 @@
       <c r="IQ18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IR18" s="62"/>
-      <c r="IS18" s="62"/>
-      <c r="IT18" s="62"/>
-      <c r="IU18" s="62"/>
-      <c r="IV18" s="62"/>
+      <c r="IR18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV18" s="62" t="n">
+        <v>177</v>
+      </c>
       <c r="IW18" s="62"/>
       <c r="IX18" s="62"/>
       <c r="IY18" s="62"/>
@@ -16857,11 +17017,21 @@
       <c r="IQ19" s="66" t="n">
         <v>92526722</v>
       </c>
-      <c r="IR19" s="66"/>
-      <c r="IS19" s="66"/>
-      <c r="IT19" s="66"/>
-      <c r="IU19" s="66"/>
-      <c r="IV19" s="66"/>
+      <c r="IR19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV19" s="66" t="n">
+        <v>93010743</v>
+      </c>
       <c r="IW19" s="66"/>
       <c r="IX19" s="66"/>
       <c r="IY19" s="66"/>
@@ -17748,11 +17918,21 @@
       <c r="IQ20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="IR20" s="69"/>
-      <c r="IS20" s="69"/>
-      <c r="IT20" s="69"/>
-      <c r="IU20" s="69"/>
-      <c r="IV20" s="69"/>
+      <c r="IR20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IS20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IT20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IU20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV20" s="69" t="n">
+        <v>197</v>
+      </c>
       <c r="IW20" s="69"/>
       <c r="IX20" s="69"/>
       <c r="IY20" s="69"/>
@@ -18885,7 +19065,27 @@
       </c>
       <c r="IQ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IQ2)&amp;", ""month"": "&amp;MONTH(IQ2)&amp;", ""day"": "&amp;DAY(IQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IQ3&amp;", ""memberCount"": "&amp;IQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IQ5&amp;", ""memberCount"": "&amp;IQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IQ7&amp;", ""memberCount"": "&amp;IQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IQ9&amp;", ""memberCount"": "&amp;IQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IQ11&amp;", ""memberCount"": "&amp;IQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IQ13&amp;", ""memberCount"": "&amp;IQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IQ15&amp;", ""memberCount"": "&amp;IQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IQ17&amp;", ""memberCount"": "&amp;IQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IQ19&amp;", ""memberCount"": "&amp;IQ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 210989110, "memberCount": 198}, {"name": "Smile", "contribution": 183783444, "memberCount": 198}, {"name": "Elite", "contribution": 175066592, "memberCount": 197}, {"name": "Savages", "contribution": 164903060, "memberCount": 199}, {"name": "Spring", "contribution": 137893016, "memberCount": 197}, {"name": "Bounce", "contribution": 144365994, "memberCount": 197}, {"name": "Sunset", "contribution": 127378914, "memberCount": 197}, {"name": "Beaters", "contribution": 95782584, "memberCount": 177}, {"name": "Downtime", "contribution": 92526722, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 210989110, "memberCount": 198}, {"name": "Smile", "contribution": 183783444, "memberCount": 198}, {"name": "Elite", "contribution": 175066592, "memberCount": 197}, {"name": "Savages", "contribution": 164903060, "memberCount": 199}, {"name": "Spring", "contribution": 137893016, "memberCount": 197}, {"name": "Bounce", "contribution": 144365994, "memberCount": 197}, {"name": "Sunset", "contribution": 127378914, "memberCount": 197}, {"name": "Beaters", "contribution": 95782584, "memberCount": 177}, {"name": "Downtime", "contribution": 92526722, "memberCount": 197}]}</v>
+      </c>
+      <c r="IR23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IR2)&amp;", ""month"": "&amp;MONTH(IR2)&amp;", ""day"": "&amp;DAY(IR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IR3&amp;", ""memberCount"": "&amp;IR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IR5&amp;", ""memberCount"": "&amp;IR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IR7&amp;", ""memberCount"": "&amp;IR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IR9&amp;", ""memberCount"": "&amp;IR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IR11&amp;", ""memberCount"": "&amp;IR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IR13&amp;", ""memberCount"": "&amp;IR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IR15&amp;", ""memberCount"": "&amp;IR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IR17&amp;", ""memberCount"": "&amp;IR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IR19&amp;", ""memberCount"": "&amp;IR20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IS23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IS2)&amp;", ""month"": "&amp;MONTH(IS2)&amp;", ""day"": "&amp;DAY(IS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IS3&amp;", ""memberCount"": "&amp;IS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IS5&amp;", ""memberCount"": "&amp;IS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IS7&amp;", ""memberCount"": "&amp;IS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IS9&amp;", ""memberCount"": "&amp;IS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IS11&amp;", ""memberCount"": "&amp;IS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IS13&amp;", ""memberCount"": "&amp;IS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IS15&amp;", ""memberCount"": "&amp;IS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IS17&amp;", ""memberCount"": "&amp;IS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IS19&amp;", ""memberCount"": "&amp;IS20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IT23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IT2)&amp;", ""month"": "&amp;MONTH(IT2)&amp;", ""day"": "&amp;DAY(IT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IT3&amp;", ""memberCount"": "&amp;IT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IT5&amp;", ""memberCount"": "&amp;IT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IT7&amp;", ""memberCount"": "&amp;IT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IT9&amp;", ""memberCount"": "&amp;IT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IT11&amp;", ""memberCount"": "&amp;IT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IT13&amp;", ""memberCount"": "&amp;IT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IT15&amp;", ""memberCount"": "&amp;IT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IT17&amp;", ""memberCount"": "&amp;IT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IT19&amp;", ""memberCount"": "&amp;IT20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IU23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IU2)&amp;", ""month"": "&amp;MONTH(IU2)&amp;", ""day"": "&amp;DAY(IU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IU3&amp;", ""memberCount"": "&amp;IU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IU5&amp;", ""memberCount"": "&amp;IU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IU7&amp;", ""memberCount"": "&amp;IU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IU9&amp;", ""memberCount"": "&amp;IU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IU11&amp;", ""memberCount"": "&amp;IU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IU13&amp;", ""memberCount"": "&amp;IU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IU15&amp;", ""memberCount"": "&amp;IU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IU17&amp;", ""memberCount"": "&amp;IU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IU19&amp;", ""memberCount"": "&amp;IU20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IV23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IV2)&amp;", ""month"": "&amp;MONTH(IV2)&amp;", ""day"": "&amp;DAY(IV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IV3&amp;", ""memberCount"": "&amp;IV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IV5&amp;", ""memberCount"": "&amp;IV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IV7&amp;", ""memberCount"": "&amp;IV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IV9&amp;", ""memberCount"": "&amp;IV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IV11&amp;", ""memberCount"": "&amp;IV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IV13&amp;", ""memberCount"": "&amp;IV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IV15&amp;", ""memberCount"": "&amp;IV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IV17&amp;", ""memberCount"": "&amp;IV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IV19&amp;", ""memberCount"": "&amp;IV20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 210928623, "memberCount": 195}, {"name": "Smile", "contribution": 184749545, "memberCount": 199}, {"name": "Elite", "contribution": 175930610, "memberCount": 198}, {"name": "Savages", "contribution": 165730643, "memberCount": 198}, {"name": "Spring", "contribution": 138507350, "memberCount": 198}, {"name": "Bounce", "contribution": 145564833, "memberCount": 199}, {"name": "Sunset", "contribution": 127576121, "memberCount": 193}, {"name": "Beaters", "contribution": 95616720, "memberCount": 177}, {"name": "Downtime", "contribution": 93010743, "memberCount": 197}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="II3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="IN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="II1" activeCellId="0" sqref="II1"/>
+      <selection pane="topRight" activeCell="IN1" activeCellId="0" sqref="IN1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IR23" activeCellId="0" sqref="IR23:IV23"/>
+      <selection pane="bottomRight" activeCell="IW23" activeCellId="0" sqref="IW23:JB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2600,12 +2600,24 @@
       <c r="IV3" s="7" t="n">
         <v>210928623</v>
       </c>
-      <c r="IW3" s="7"/>
-      <c r="IX3" s="7"/>
-      <c r="IY3" s="7"/>
-      <c r="IZ3" s="7"/>
-      <c r="JA3" s="7"/>
-      <c r="JB3" s="7"/>
+      <c r="IW3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB3" s="7" t="n">
+        <v>212028650</v>
+      </c>
       <c r="JC3" s="7"/>
       <c r="JD3" s="7"/>
       <c r="JE3" s="7"/>
@@ -3501,12 +3513,24 @@
       <c r="IV4" s="11" t="n">
         <v>195</v>
       </c>
-      <c r="IW4" s="11"/>
-      <c r="IX4" s="11"/>
-      <c r="IY4" s="11"/>
-      <c r="IZ4" s="11"/>
-      <c r="JA4" s="11"/>
-      <c r="JB4" s="11"/>
+      <c r="IW4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="JC4" s="11"/>
       <c r="JD4" s="11"/>
       <c r="JE4" s="11"/>
@@ -4404,12 +4428,24 @@
       <c r="IV5" s="17" t="n">
         <v>184749545</v>
       </c>
-      <c r="IW5" s="17"/>
-      <c r="IX5" s="17"/>
-      <c r="IY5" s="17"/>
-      <c r="IZ5" s="17"/>
-      <c r="JA5" s="17"/>
-      <c r="JB5" s="17"/>
+      <c r="IW5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB5" s="17" t="n">
+        <v>185525065</v>
+      </c>
       <c r="JC5" s="17"/>
       <c r="JD5" s="17"/>
       <c r="JE5" s="17"/>
@@ -5305,12 +5341,24 @@
       <c r="IV6" s="20" t="n">
         <v>199</v>
       </c>
-      <c r="IW6" s="20"/>
-      <c r="IX6" s="20"/>
-      <c r="IY6" s="20"/>
-      <c r="IZ6" s="20"/>
-      <c r="JA6" s="20"/>
-      <c r="JB6" s="20"/>
+      <c r="IW6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="JC6" s="20"/>
       <c r="JD6" s="20"/>
       <c r="JE6" s="20"/>
@@ -6208,12 +6256,24 @@
       <c r="IV7" s="24" t="n">
         <v>175930610</v>
       </c>
-      <c r="IW7" s="24"/>
-      <c r="IX7" s="24"/>
-      <c r="IY7" s="24"/>
-      <c r="IZ7" s="24"/>
-      <c r="JA7" s="24"/>
-      <c r="JB7" s="24"/>
+      <c r="IW7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB7" s="24" t="n">
+        <v>177062341</v>
+      </c>
       <c r="JC7" s="24"/>
       <c r="JD7" s="24"/>
       <c r="JE7" s="24"/>
@@ -7109,12 +7169,24 @@
       <c r="IV8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="IW8" s="27"/>
-      <c r="IX8" s="27"/>
-      <c r="IY8" s="27"/>
-      <c r="IZ8" s="27"/>
-      <c r="JA8" s="27"/>
-      <c r="JB8" s="27"/>
+      <c r="IW8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="JC8" s="27"/>
       <c r="JD8" s="27"/>
       <c r="JE8" s="27"/>
@@ -8012,12 +8084,24 @@
       <c r="IV9" s="31" t="n">
         <v>165730643</v>
       </c>
-      <c r="IW9" s="31"/>
-      <c r="IX9" s="31"/>
-      <c r="IY9" s="31"/>
-      <c r="IZ9" s="31"/>
-      <c r="JA9" s="31"/>
-      <c r="JB9" s="31"/>
+      <c r="IW9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB9" s="31" t="n">
+        <v>166957269</v>
+      </c>
       <c r="JC9" s="31"/>
       <c r="JD9" s="31"/>
       <c r="JE9" s="31"/>
@@ -8913,12 +8997,24 @@
       <c r="IV10" s="34" t="n">
         <v>198</v>
       </c>
-      <c r="IW10" s="34"/>
-      <c r="IX10" s="34"/>
-      <c r="IY10" s="34"/>
-      <c r="IZ10" s="34"/>
-      <c r="JA10" s="34"/>
-      <c r="JB10" s="34"/>
+      <c r="IW10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="JC10" s="34"/>
       <c r="JD10" s="34"/>
       <c r="JE10" s="34"/>
@@ -9816,12 +9912,24 @@
       <c r="IV11" s="38" t="n">
         <v>138507350</v>
       </c>
-      <c r="IW11" s="38"/>
-      <c r="IX11" s="38"/>
-      <c r="IY11" s="38"/>
-      <c r="IZ11" s="38"/>
-      <c r="JA11" s="38"/>
-      <c r="JB11" s="38"/>
+      <c r="IW11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB11" s="38" t="n">
+        <v>139334871</v>
+      </c>
       <c r="JC11" s="38"/>
       <c r="JD11" s="38"/>
       <c r="JE11" s="38"/>
@@ -10717,12 +10825,24 @@
       <c r="IV12" s="41" t="n">
         <v>198</v>
       </c>
-      <c r="IW12" s="41"/>
-      <c r="IX12" s="41"/>
-      <c r="IY12" s="41"/>
-      <c r="IZ12" s="41"/>
-      <c r="JA12" s="41"/>
-      <c r="JB12" s="41"/>
+      <c r="IW12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB12" s="41" t="n">
+        <v>199</v>
+      </c>
       <c r="JC12" s="41"/>
       <c r="JD12" s="41"/>
       <c r="JE12" s="41"/>
@@ -11620,12 +11740,24 @@
       <c r="IV13" s="45" t="n">
         <v>145564833</v>
       </c>
-      <c r="IW13" s="45"/>
-      <c r="IX13" s="45"/>
-      <c r="IY13" s="45"/>
-      <c r="IZ13" s="45"/>
-      <c r="JA13" s="45"/>
-      <c r="JB13" s="45"/>
+      <c r="IW13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB13" s="45" t="n">
+        <v>147081916</v>
+      </c>
       <c r="JC13" s="45"/>
       <c r="JD13" s="45"/>
       <c r="JE13" s="45"/>
@@ -12521,12 +12653,24 @@
       <c r="IV14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="IW14" s="48"/>
-      <c r="IX14" s="48"/>
-      <c r="IY14" s="48"/>
-      <c r="IZ14" s="48"/>
-      <c r="JA14" s="48"/>
-      <c r="JB14" s="48"/>
+      <c r="IW14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="JC14" s="48"/>
       <c r="JD14" s="48"/>
       <c r="JE14" s="48"/>
@@ -13424,12 +13568,24 @@
       <c r="IV15" s="52" t="n">
         <v>127576121</v>
       </c>
-      <c r="IW15" s="52"/>
-      <c r="IX15" s="52"/>
-      <c r="IY15" s="52"/>
-      <c r="IZ15" s="52"/>
-      <c r="JA15" s="52"/>
-      <c r="JB15" s="52"/>
+      <c r="IW15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB15" s="52" t="n">
+        <v>127327554</v>
+      </c>
       <c r="JC15" s="52"/>
       <c r="JD15" s="52"/>
       <c r="JE15" s="52"/>
@@ -14325,12 +14481,24 @@
       <c r="IV16" s="55" t="n">
         <v>193</v>
       </c>
-      <c r="IW16" s="55"/>
-      <c r="IX16" s="55"/>
-      <c r="IY16" s="55"/>
-      <c r="IZ16" s="55"/>
-      <c r="JA16" s="55"/>
-      <c r="JB16" s="55"/>
+      <c r="IW16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB16" s="55" t="n">
+        <v>189</v>
+      </c>
       <c r="JC16" s="55"/>
       <c r="JD16" s="55"/>
       <c r="JE16" s="55"/>
@@ -15228,12 +15396,24 @@
       <c r="IV17" s="59" t="n">
         <v>95616720</v>
       </c>
-      <c r="IW17" s="59"/>
-      <c r="IX17" s="59"/>
-      <c r="IY17" s="59"/>
-      <c r="IZ17" s="59"/>
-      <c r="JA17" s="59"/>
-      <c r="JB17" s="59"/>
+      <c r="IW17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB17" s="59" t="n">
+        <v>95898541</v>
+      </c>
       <c r="JC17" s="59"/>
       <c r="JD17" s="59"/>
       <c r="JE17" s="59"/>
@@ -16129,12 +16309,24 @@
       <c r="IV18" s="62" t="n">
         <v>177</v>
       </c>
-      <c r="IW18" s="62"/>
-      <c r="IX18" s="62"/>
-      <c r="IY18" s="62"/>
-      <c r="IZ18" s="62"/>
-      <c r="JA18" s="62"/>
-      <c r="JB18" s="62"/>
+      <c r="IW18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB18" s="62" t="n">
+        <v>178</v>
+      </c>
       <c r="JC18" s="62"/>
       <c r="JD18" s="62"/>
       <c r="JE18" s="62"/>
@@ -17032,12 +17224,24 @@
       <c r="IV19" s="66" t="n">
         <v>93010743</v>
       </c>
-      <c r="IW19" s="66"/>
-      <c r="IX19" s="66"/>
-      <c r="IY19" s="66"/>
-      <c r="IZ19" s="66"/>
-      <c r="JA19" s="66"/>
-      <c r="JB19" s="66"/>
+      <c r="IW19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB19" s="66" t="n">
+        <v>93448849</v>
+      </c>
       <c r="JC19" s="66"/>
       <c r="JD19" s="66"/>
       <c r="JE19" s="66"/>
@@ -17933,12 +18137,24 @@
       <c r="IV20" s="69" t="n">
         <v>197</v>
       </c>
-      <c r="IW20" s="69"/>
-      <c r="IX20" s="69"/>
-      <c r="IY20" s="69"/>
-      <c r="IZ20" s="69"/>
-      <c r="JA20" s="69"/>
-      <c r="JB20" s="69"/>
+      <c r="IW20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IX20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IY20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="IZ20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JA20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JB20" s="69" t="n">
+        <v>196</v>
+      </c>
       <c r="JC20" s="69"/>
       <c r="JD20" s="69"/>
       <c r="JE20" s="69"/>
@@ -19069,23 +19285,47 @@
       </c>
       <c r="IR23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IR2)&amp;", ""month"": "&amp;MONTH(IR2)&amp;", ""day"": "&amp;DAY(IR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IR3&amp;", ""memberCount"": "&amp;IR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IR5&amp;", ""memberCount"": "&amp;IR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IR7&amp;", ""memberCount"": "&amp;IR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IR9&amp;", ""memberCount"": "&amp;IR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IR11&amp;", ""memberCount"": "&amp;IR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IR13&amp;", ""memberCount"": "&amp;IR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IR15&amp;", ""memberCount"": "&amp;IR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IR17&amp;", ""memberCount"": "&amp;IR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IR19&amp;", ""memberCount"": "&amp;IR20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IS23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IS2)&amp;", ""month"": "&amp;MONTH(IS2)&amp;", ""day"": "&amp;DAY(IS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IS3&amp;", ""memberCount"": "&amp;IS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IS5&amp;", ""memberCount"": "&amp;IS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IS7&amp;", ""memberCount"": "&amp;IS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IS9&amp;", ""memberCount"": "&amp;IS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IS11&amp;", ""memberCount"": "&amp;IS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IS13&amp;", ""memberCount"": "&amp;IS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IS15&amp;", ""memberCount"": "&amp;IS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IS17&amp;", ""memberCount"": "&amp;IS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IS19&amp;", ""memberCount"": "&amp;IS20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IT23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IT2)&amp;", ""month"": "&amp;MONTH(IT2)&amp;", ""day"": "&amp;DAY(IT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IT3&amp;", ""memberCount"": "&amp;IT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IT5&amp;", ""memberCount"": "&amp;IT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IT7&amp;", ""memberCount"": "&amp;IT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IT9&amp;", ""memberCount"": "&amp;IT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IT11&amp;", ""memberCount"": "&amp;IT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IT13&amp;", ""memberCount"": "&amp;IT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IT15&amp;", ""memberCount"": "&amp;IT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IT17&amp;", ""memberCount"": "&amp;IT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IT19&amp;", ""memberCount"": "&amp;IT20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IU23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IU2)&amp;", ""month"": "&amp;MONTH(IU2)&amp;", ""day"": "&amp;DAY(IU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IU3&amp;", ""memberCount"": "&amp;IU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IU5&amp;", ""memberCount"": "&amp;IU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IU7&amp;", ""memberCount"": "&amp;IU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IU9&amp;", ""memberCount"": "&amp;IU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IU11&amp;", ""memberCount"": "&amp;IU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IU13&amp;", ""memberCount"": "&amp;IU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IU15&amp;", ""memberCount"": "&amp;IU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IU17&amp;", ""memberCount"": "&amp;IU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IU19&amp;", ""memberCount"": "&amp;IU20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IV23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IV2)&amp;", ""month"": "&amp;MONTH(IV2)&amp;", ""day"": "&amp;DAY(IV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IV3&amp;", ""memberCount"": "&amp;IV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IV5&amp;", ""memberCount"": "&amp;IV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IV7&amp;", ""memberCount"": "&amp;IV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IV9&amp;", ""memberCount"": "&amp;IV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IV11&amp;", ""memberCount"": "&amp;IV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IV13&amp;", ""memberCount"": "&amp;IV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IV15&amp;", ""memberCount"": "&amp;IV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IV17&amp;", ""memberCount"": "&amp;IV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IV19&amp;", ""memberCount"": "&amp;IV20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 210928623, "memberCount": 195}, {"name": "Smile", "contribution": 184749545, "memberCount": 199}, {"name": "Elite", "contribution": 175930610, "memberCount": 198}, {"name": "Savages", "contribution": 165730643, "memberCount": 198}, {"name": "Spring", "contribution": 138507350, "memberCount": 198}, {"name": "Bounce", "contribution": 145564833, "memberCount": 199}, {"name": "Sunset", "contribution": 127576121, "memberCount": 193}, {"name": "Beaters", "contribution": 95616720, "memberCount": 177}, {"name": "Downtime", "contribution": 93010743, "memberCount": 197}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 210928623, "memberCount": 195}, {"name": "Smile", "contribution": 184749545, "memberCount": 199}, {"name": "Elite", "contribution": 175930610, "memberCount": 198}, {"name": "Savages", "contribution": 165730643, "memberCount": 198}, {"name": "Spring", "contribution": 138507350, "memberCount": 198}, {"name": "Bounce", "contribution": 145564833, "memberCount": 199}, {"name": "Sunset", "contribution": 127576121, "memberCount": 193}, {"name": "Beaters", "contribution": 95616720, "memberCount": 177}, {"name": "Downtime", "contribution": 93010743, "memberCount": 197}]}</v>
+      </c>
+      <c r="IW23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IW2)&amp;", ""month"": "&amp;MONTH(IW2)&amp;", ""day"": "&amp;DAY(IW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IW3&amp;", ""memberCount"": "&amp;IW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IW5&amp;", ""memberCount"": "&amp;IW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IW7&amp;", ""memberCount"": "&amp;IW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IW9&amp;", ""memberCount"": "&amp;IW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IW11&amp;", ""memberCount"": "&amp;IW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IW13&amp;", ""memberCount"": "&amp;IW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IW15&amp;", ""memberCount"": "&amp;IW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IW17&amp;", ""memberCount"": "&amp;IW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IW19&amp;", ""memberCount"": "&amp;IW20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IX23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IX2)&amp;", ""month"": "&amp;MONTH(IX2)&amp;", ""day"": "&amp;DAY(IX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IX3&amp;", ""memberCount"": "&amp;IX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IX5&amp;", ""memberCount"": "&amp;IX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IX7&amp;", ""memberCount"": "&amp;IX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IX9&amp;", ""memberCount"": "&amp;IX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IX11&amp;", ""memberCount"": "&amp;IX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IX13&amp;", ""memberCount"": "&amp;IX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IX15&amp;", ""memberCount"": "&amp;IX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IX17&amp;", ""memberCount"": "&amp;IX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IX19&amp;", ""memberCount"": "&amp;IX20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IY23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IY2)&amp;", ""month"": "&amp;MONTH(IY2)&amp;", ""day"": "&amp;DAY(IY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IY3&amp;", ""memberCount"": "&amp;IY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IY5&amp;", ""memberCount"": "&amp;IY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IY7&amp;", ""memberCount"": "&amp;IY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IY9&amp;", ""memberCount"": "&amp;IY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IY11&amp;", ""memberCount"": "&amp;IY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IY13&amp;", ""memberCount"": "&amp;IY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IY15&amp;", ""memberCount"": "&amp;IY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IY17&amp;", ""memberCount"": "&amp;IY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IY19&amp;", ""memberCount"": "&amp;IY20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="IZ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IZ2)&amp;", ""month"": "&amp;MONTH(IZ2)&amp;", ""day"": "&amp;DAY(IZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IZ3&amp;", ""memberCount"": "&amp;IZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IZ5&amp;", ""memberCount"": "&amp;IZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IZ7&amp;", ""memberCount"": "&amp;IZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IZ9&amp;", ""memberCount"": "&amp;IZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IZ11&amp;", ""memberCount"": "&amp;IZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IZ13&amp;", ""memberCount"": "&amp;IZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IZ15&amp;", ""memberCount"": "&amp;IZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IZ17&amp;", ""memberCount"": "&amp;IZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IZ19&amp;", ""memberCount"": "&amp;IZ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JA23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JA2)&amp;", ""month"": "&amp;MONTH(JA2)&amp;", ""day"": "&amp;DAY(JA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JA3&amp;", ""memberCount"": "&amp;JA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JA5&amp;", ""memberCount"": "&amp;JA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JA7&amp;", ""memberCount"": "&amp;JA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JA9&amp;", ""memberCount"": "&amp;JA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JA11&amp;", ""memberCount"": "&amp;JA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JA13&amp;", ""memberCount"": "&amp;JA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JA15&amp;", ""memberCount"": "&amp;JA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JA17&amp;", ""memberCount"": "&amp;JA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JA19&amp;", ""memberCount"": "&amp;JA20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JB23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JB2)&amp;", ""month"": "&amp;MONTH(JB2)&amp;", ""day"": "&amp;DAY(JB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JB3&amp;", ""memberCount"": "&amp;JB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JB5&amp;", ""memberCount"": "&amp;JB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JB7&amp;", ""memberCount"": "&amp;JB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JB9&amp;", ""memberCount"": "&amp;JB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JB11&amp;", ""memberCount"": "&amp;JB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JB13&amp;", ""memberCount"": "&amp;JB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JB15&amp;", ""memberCount"": "&amp;JB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JB17&amp;", ""memberCount"": "&amp;JB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JB19&amp;", ""memberCount"": "&amp;JB20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 212028650, "memberCount": 197}, {"name": "Smile", "contribution": 185525065, "memberCount": 200}, {"name": "Elite", "contribution": 177062341, "memberCount": 198}, {"name": "Savages", "contribution": 166957269, "memberCount": 199}, {"name": "Spring", "contribution": 139334871, "memberCount": 199}, {"name": "Bounce", "contribution": 147081916, "memberCount": 199}, {"name": "Sunset", "contribution": 127327554, "memberCount": 189}, {"name": "Beaters", "contribution": 95898541, "memberCount": 178}, {"name": "Downtime", "contribution": 93448849, "memberCount": 196}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="IN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="JA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="IN1" activeCellId="0" sqref="IN1"/>
+      <selection pane="topRight" activeCell="JA1" activeCellId="0" sqref="JA1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IW23" activeCellId="0" sqref="IW23:JB23"/>
+      <selection pane="bottomRight" activeCell="JC23" activeCellId="0" sqref="JC23:JD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2618,8 +2618,12 @@
       <c r="JB3" s="7" t="n">
         <v>212028650</v>
       </c>
-      <c r="JC3" s="7"/>
-      <c r="JD3" s="7"/>
+      <c r="JC3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD3" s="7" t="n">
+        <v>212422363</v>
+      </c>
       <c r="JE3" s="7"/>
       <c r="JF3" s="7"/>
       <c r="JG3" s="7"/>
@@ -3531,8 +3535,12 @@
       <c r="JB4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="JC4" s="11"/>
-      <c r="JD4" s="11"/>
+      <c r="JC4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="JE4" s="11"/>
       <c r="JF4" s="11"/>
       <c r="JG4" s="11"/>
@@ -4446,8 +4454,12 @@
       <c r="JB5" s="17" t="n">
         <v>185525065</v>
       </c>
-      <c r="JC5" s="17"/>
-      <c r="JD5" s="17"/>
+      <c r="JC5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD5" s="17" t="n">
+        <v>185996588</v>
+      </c>
       <c r="JE5" s="17"/>
       <c r="JF5" s="17"/>
       <c r="JG5" s="17"/>
@@ -5359,8 +5371,12 @@
       <c r="JB6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="JC6" s="20"/>
-      <c r="JD6" s="20"/>
+      <c r="JC6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="JE6" s="20"/>
       <c r="JF6" s="20"/>
       <c r="JG6" s="20"/>
@@ -6274,8 +6290,12 @@
       <c r="JB7" s="24" t="n">
         <v>177062341</v>
       </c>
-      <c r="JC7" s="24"/>
-      <c r="JD7" s="24"/>
+      <c r="JC7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD7" s="24" t="n">
+        <v>177402461</v>
+      </c>
       <c r="JE7" s="24"/>
       <c r="JF7" s="24"/>
       <c r="JG7" s="24"/>
@@ -7187,8 +7207,12 @@
       <c r="JB8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="JC8" s="27"/>
-      <c r="JD8" s="27"/>
+      <c r="JC8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="JE8" s="27"/>
       <c r="JF8" s="27"/>
       <c r="JG8" s="27"/>
@@ -8102,8 +8126,12 @@
       <c r="JB9" s="31" t="n">
         <v>166957269</v>
       </c>
-      <c r="JC9" s="31"/>
-      <c r="JD9" s="31"/>
+      <c r="JC9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD9" s="31" t="n">
+        <v>167364423</v>
+      </c>
       <c r="JE9" s="31"/>
       <c r="JF9" s="31"/>
       <c r="JG9" s="31"/>
@@ -9015,8 +9043,12 @@
       <c r="JB10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="JC10" s="34"/>
-      <c r="JD10" s="34"/>
+      <c r="JC10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="JE10" s="34"/>
       <c r="JF10" s="34"/>
       <c r="JG10" s="34"/>
@@ -9930,8 +9962,12 @@
       <c r="JB11" s="38" t="n">
         <v>139334871</v>
       </c>
-      <c r="JC11" s="38"/>
-      <c r="JD11" s="38"/>
+      <c r="JC11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD11" s="38" t="n">
+        <v>139627720</v>
+      </c>
       <c r="JE11" s="38"/>
       <c r="JF11" s="38"/>
       <c r="JG11" s="38"/>
@@ -10843,8 +10879,12 @@
       <c r="JB12" s="41" t="n">
         <v>199</v>
       </c>
-      <c r="JC12" s="41"/>
-      <c r="JD12" s="41"/>
+      <c r="JC12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD12" s="41" t="n">
+        <v>199</v>
+      </c>
       <c r="JE12" s="41"/>
       <c r="JF12" s="41"/>
       <c r="JG12" s="41"/>
@@ -11758,8 +11798,12 @@
       <c r="JB13" s="45" t="n">
         <v>147081916</v>
       </c>
-      <c r="JC13" s="45"/>
-      <c r="JD13" s="45"/>
+      <c r="JC13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD13" s="45" t="n">
+        <v>147601964</v>
+      </c>
       <c r="JE13" s="45"/>
       <c r="JF13" s="45"/>
       <c r="JG13" s="45"/>
@@ -12671,8 +12715,12 @@
       <c r="JB14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="JC14" s="48"/>
-      <c r="JD14" s="48"/>
+      <c r="JC14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="JE14" s="48"/>
       <c r="JF14" s="48"/>
       <c r="JG14" s="48"/>
@@ -13586,8 +13634,12 @@
       <c r="JB15" s="52" t="n">
         <v>127327554</v>
       </c>
-      <c r="JC15" s="52"/>
-      <c r="JD15" s="52"/>
+      <c r="JC15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD15" s="52" t="n">
+        <v>127426411</v>
+      </c>
       <c r="JE15" s="52"/>
       <c r="JF15" s="52"/>
       <c r="JG15" s="52"/>
@@ -14499,8 +14551,12 @@
       <c r="JB16" s="55" t="n">
         <v>189</v>
       </c>
-      <c r="JC16" s="55"/>
-      <c r="JD16" s="55"/>
+      <c r="JC16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD16" s="55" t="n">
+        <v>188</v>
+      </c>
       <c r="JE16" s="55"/>
       <c r="JF16" s="55"/>
       <c r="JG16" s="55"/>
@@ -15414,8 +15470,12 @@
       <c r="JB17" s="59" t="n">
         <v>95898541</v>
       </c>
-      <c r="JC17" s="59"/>
-      <c r="JD17" s="59"/>
+      <c r="JC17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD17" s="59" t="n">
+        <v>96104907</v>
+      </c>
       <c r="JE17" s="59"/>
       <c r="JF17" s="59"/>
       <c r="JG17" s="59"/>
@@ -16327,8 +16387,12 @@
       <c r="JB18" s="62" t="n">
         <v>178</v>
       </c>
-      <c r="JC18" s="62"/>
-      <c r="JD18" s="62"/>
+      <c r="JC18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD18" s="62" t="n">
+        <v>182</v>
+      </c>
       <c r="JE18" s="62"/>
       <c r="JF18" s="62"/>
       <c r="JG18" s="62"/>
@@ -17242,8 +17306,12 @@
       <c r="JB19" s="66" t="n">
         <v>93448849</v>
       </c>
-      <c r="JC19" s="66"/>
-      <c r="JD19" s="66"/>
+      <c r="JC19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD19" s="66" t="n">
+        <v>93769856</v>
+      </c>
       <c r="JE19" s="66"/>
       <c r="JF19" s="66"/>
       <c r="JG19" s="66"/>
@@ -18155,8 +18223,12 @@
       <c r="JB20" s="69" t="n">
         <v>196</v>
       </c>
-      <c r="JC20" s="69"/>
-      <c r="JD20" s="69"/>
+      <c r="JC20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JD20" s="69" t="n">
+        <v>199</v>
+      </c>
       <c r="JE20" s="69"/>
       <c r="JF20" s="69"/>
       <c r="JG20" s="69"/>
@@ -19305,27 +19377,35 @@
       </c>
       <c r="IW23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IW2)&amp;", ""month"": "&amp;MONTH(IW2)&amp;", ""day"": "&amp;DAY(IW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IW3&amp;", ""memberCount"": "&amp;IW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IW5&amp;", ""memberCount"": "&amp;IW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IW7&amp;", ""memberCount"": "&amp;IW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IW9&amp;", ""memberCount"": "&amp;IW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IW11&amp;", ""memberCount"": "&amp;IW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IW13&amp;", ""memberCount"": "&amp;IW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IW15&amp;", ""memberCount"": "&amp;IW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IW17&amp;", ""memberCount"": "&amp;IW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IW19&amp;", ""memberCount"": "&amp;IW20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IX23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IX2)&amp;", ""month"": "&amp;MONTH(IX2)&amp;", ""day"": "&amp;DAY(IX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IX3&amp;", ""memberCount"": "&amp;IX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IX5&amp;", ""memberCount"": "&amp;IX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IX7&amp;", ""memberCount"": "&amp;IX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IX9&amp;", ""memberCount"": "&amp;IX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IX11&amp;", ""memberCount"": "&amp;IX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IX13&amp;", ""memberCount"": "&amp;IX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IX15&amp;", ""memberCount"": "&amp;IX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IX17&amp;", ""memberCount"": "&amp;IX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IX19&amp;", ""memberCount"": "&amp;IX20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IY23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IY2)&amp;", ""month"": "&amp;MONTH(IY2)&amp;", ""day"": "&amp;DAY(IY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IY3&amp;", ""memberCount"": "&amp;IY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IY5&amp;", ""memberCount"": "&amp;IY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IY7&amp;", ""memberCount"": "&amp;IY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IY9&amp;", ""memberCount"": "&amp;IY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IY11&amp;", ""memberCount"": "&amp;IY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IY13&amp;", ""memberCount"": "&amp;IY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IY15&amp;", ""memberCount"": "&amp;IY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IY17&amp;", ""memberCount"": "&amp;IY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IY19&amp;", ""memberCount"": "&amp;IY20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="IZ23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(IZ2)&amp;", ""month"": "&amp;MONTH(IZ2)&amp;", ""day"": "&amp;DAY(IZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;IZ3&amp;", ""memberCount"": "&amp;IZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;IZ5&amp;", ""memberCount"": "&amp;IZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;IZ7&amp;", ""memberCount"": "&amp;IZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;IZ9&amp;", ""memberCount"": "&amp;IZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;IZ11&amp;", ""memberCount"": "&amp;IZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;IZ13&amp;", ""memberCount"": "&amp;IZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;IZ15&amp;", ""memberCount"": "&amp;IZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;IZ17&amp;", ""memberCount"": "&amp;IZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;IZ19&amp;", ""memberCount"": "&amp;IZ20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="JA23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JA2)&amp;", ""month"": "&amp;MONTH(JA2)&amp;", ""day"": "&amp;DAY(JA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JA3&amp;", ""memberCount"": "&amp;JA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JA5&amp;", ""memberCount"": "&amp;JA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JA7&amp;", ""memberCount"": "&amp;JA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JA9&amp;", ""memberCount"": "&amp;JA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JA11&amp;", ""memberCount"": "&amp;JA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JA13&amp;", ""memberCount"": "&amp;JA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JA15&amp;", ""memberCount"": "&amp;JA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JA17&amp;", ""memberCount"": "&amp;JA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JA19&amp;", ""memberCount"": "&amp;JA20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="JB23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JB2)&amp;", ""month"": "&amp;MONTH(JB2)&amp;", ""day"": "&amp;DAY(JB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JB3&amp;", ""memberCount"": "&amp;JB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JB5&amp;", ""memberCount"": "&amp;JB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JB7&amp;", ""memberCount"": "&amp;JB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JB9&amp;", ""memberCount"": "&amp;JB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JB11&amp;", ""memberCount"": "&amp;JB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JB13&amp;", ""memberCount"": "&amp;JB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JB15&amp;", ""memberCount"": "&amp;JB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JB17&amp;", ""memberCount"": "&amp;JB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JB19&amp;", ""memberCount"": "&amp;JB20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 212028650, "memberCount": 197}, {"name": "Smile", "contribution": 185525065, "memberCount": 200}, {"name": "Elite", "contribution": 177062341, "memberCount": 198}, {"name": "Savages", "contribution": 166957269, "memberCount": 199}, {"name": "Spring", "contribution": 139334871, "memberCount": 199}, {"name": "Bounce", "contribution": 147081916, "memberCount": 199}, {"name": "Sunset", "contribution": 127327554, "memberCount": 189}, {"name": "Beaters", "contribution": 95898541, "memberCount": 178}, {"name": "Downtime", "contribution": 93448849, "memberCount": 196}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 212028650, "memberCount": 197}, {"name": "Smile", "contribution": 185525065, "memberCount": 200}, {"name": "Elite", "contribution": 177062341, "memberCount": 198}, {"name": "Savages", "contribution": 166957269, "memberCount": 199}, {"name": "Spring", "contribution": 139334871, "memberCount": 199}, {"name": "Bounce", "contribution": 147081916, "memberCount": 199}, {"name": "Sunset", "contribution": 127327554, "memberCount": 189}, {"name": "Beaters", "contribution": 95898541, "memberCount": 178}, {"name": "Downtime", "contribution": 93448849, "memberCount": 196}]}</v>
+      </c>
+      <c r="JC23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JC2)&amp;", ""month"": "&amp;MONTH(JC2)&amp;", ""day"": "&amp;DAY(JC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JC3&amp;", ""memberCount"": "&amp;JC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JC5&amp;", ""memberCount"": "&amp;JC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JC7&amp;", ""memberCount"": "&amp;JC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JC9&amp;", ""memberCount"": "&amp;JC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JC11&amp;", ""memberCount"": "&amp;JC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JC13&amp;", ""memberCount"": "&amp;JC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JC15&amp;", ""memberCount"": "&amp;JC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JC17&amp;", ""memberCount"": "&amp;JC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JC19&amp;", ""memberCount"": "&amp;JC20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JD23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JD2)&amp;", ""month"": "&amp;MONTH(JD2)&amp;", ""day"": "&amp;DAY(JD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JD3&amp;", ""memberCount"": "&amp;JD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JD5&amp;", ""memberCount"": "&amp;JD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JD7&amp;", ""memberCount"": "&amp;JD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JD9&amp;", ""memberCount"": "&amp;JD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JD11&amp;", ""memberCount"": "&amp;JD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JD13&amp;", ""memberCount"": "&amp;JD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JD15&amp;", ""memberCount"": "&amp;JD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JD17&amp;", ""memberCount"": "&amp;JD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JD19&amp;", ""memberCount"": "&amp;JD20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 212422363, "memberCount": 197}, {"name": "Smile", "contribution": 185996588, "memberCount": 200}, {"name": "Elite", "contribution": 177402461, "memberCount": 198}, {"name": "Savages", "contribution": 167364423, "memberCount": 199}, {"name": "Spring", "contribution": 139627720, "memberCount": 199}, {"name": "Bounce", "contribution": 147601964, "memberCount": 199}, {"name": "Sunset", "contribution": 127426411, "memberCount": 188}, {"name": "Beaters", "contribution": 96104907, "memberCount": 182}, {"name": "Downtime", "contribution": 93769856, "memberCount": 199}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="JA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="JD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="JA1" activeCellId="0" sqref="JA1"/>
+      <selection pane="topRight" activeCell="JD1" activeCellId="0" sqref="JD1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="JC23" activeCellId="0" sqref="JC23:JD23"/>
+      <selection pane="bottomRight" activeCell="JE23" activeCellId="0" sqref="JE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2624,7 +2624,9 @@
       <c r="JD3" s="7" t="n">
         <v>212422363</v>
       </c>
-      <c r="JE3" s="7"/>
+      <c r="JE3" s="7" t="n">
+        <v>212582496</v>
+      </c>
       <c r="JF3" s="7"/>
       <c r="JG3" s="7"/>
       <c r="JH3" s="7"/>
@@ -3541,7 +3543,9 @@
       <c r="JD4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="JE4" s="11"/>
+      <c r="JE4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="JF4" s="11"/>
       <c r="JG4" s="11"/>
       <c r="JH4" s="11"/>
@@ -4460,7 +4464,9 @@
       <c r="JD5" s="17" t="n">
         <v>185996588</v>
       </c>
-      <c r="JE5" s="17"/>
+      <c r="JE5" s="17" t="n">
+        <v>186214005</v>
+      </c>
       <c r="JF5" s="17"/>
       <c r="JG5" s="17"/>
       <c r="JH5" s="17"/>
@@ -5377,7 +5383,9 @@
       <c r="JD6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="JE6" s="20"/>
+      <c r="JE6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="JF6" s="20"/>
       <c r="JG6" s="20"/>
       <c r="JH6" s="20"/>
@@ -6296,7 +6304,9 @@
       <c r="JD7" s="24" t="n">
         <v>177402461</v>
       </c>
-      <c r="JE7" s="24"/>
+      <c r="JE7" s="24" t="n">
+        <v>177575322</v>
+      </c>
       <c r="JF7" s="24"/>
       <c r="JG7" s="24"/>
       <c r="JH7" s="24"/>
@@ -7213,7 +7223,9 @@
       <c r="JD8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="JE8" s="27"/>
+      <c r="JE8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="JF8" s="27"/>
       <c r="JG8" s="27"/>
       <c r="JH8" s="27"/>
@@ -8132,7 +8144,9 @@
       <c r="JD9" s="31" t="n">
         <v>167364423</v>
       </c>
-      <c r="JE9" s="31"/>
+      <c r="JE9" s="31" t="n">
+        <v>167562012</v>
+      </c>
       <c r="JF9" s="31"/>
       <c r="JG9" s="31"/>
       <c r="JH9" s="31"/>
@@ -9049,7 +9063,9 @@
       <c r="JD10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="JE10" s="34"/>
+      <c r="JE10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="JF10" s="34"/>
       <c r="JG10" s="34"/>
       <c r="JH10" s="34"/>
@@ -9968,7 +9984,9 @@
       <c r="JD11" s="38" t="n">
         <v>139627720</v>
       </c>
-      <c r="JE11" s="38"/>
+      <c r="JE11" s="38" t="n">
+        <v>139743776</v>
+      </c>
       <c r="JF11" s="38"/>
       <c r="JG11" s="38"/>
       <c r="JH11" s="38"/>
@@ -10885,7 +10903,9 @@
       <c r="JD12" s="41" t="n">
         <v>199</v>
       </c>
-      <c r="JE12" s="41"/>
+      <c r="JE12" s="41" t="n">
+        <v>199</v>
+      </c>
       <c r="JF12" s="41"/>
       <c r="JG12" s="41"/>
       <c r="JH12" s="41"/>
@@ -11804,7 +11824,9 @@
       <c r="JD13" s="45" t="n">
         <v>147601964</v>
       </c>
-      <c r="JE13" s="45"/>
+      <c r="JE13" s="45" t="n">
+        <v>147835986</v>
+      </c>
       <c r="JF13" s="45"/>
       <c r="JG13" s="45"/>
       <c r="JH13" s="45"/>
@@ -12721,7 +12743,9 @@
       <c r="JD14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="JE14" s="48"/>
+      <c r="JE14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="JF14" s="48"/>
       <c r="JG14" s="48"/>
       <c r="JH14" s="48"/>
@@ -13640,7 +13664,9 @@
       <c r="JD15" s="52" t="n">
         <v>127426411</v>
       </c>
-      <c r="JE15" s="52"/>
+      <c r="JE15" s="52" t="n">
+        <v>127528967</v>
+      </c>
       <c r="JF15" s="52"/>
       <c r="JG15" s="52"/>
       <c r="JH15" s="52"/>
@@ -14557,7 +14583,9 @@
       <c r="JD16" s="55" t="n">
         <v>188</v>
       </c>
-      <c r="JE16" s="55"/>
+      <c r="JE16" s="55" t="n">
+        <v>189</v>
+      </c>
       <c r="JF16" s="55"/>
       <c r="JG16" s="55"/>
       <c r="JH16" s="55"/>
@@ -15476,7 +15504,9 @@
       <c r="JD17" s="59" t="n">
         <v>96104907</v>
       </c>
-      <c r="JE17" s="59"/>
+      <c r="JE17" s="59" t="n">
+        <v>96182669</v>
+      </c>
       <c r="JF17" s="59"/>
       <c r="JG17" s="59"/>
       <c r="JH17" s="59"/>
@@ -16393,7 +16423,9 @@
       <c r="JD18" s="62" t="n">
         <v>182</v>
       </c>
-      <c r="JE18" s="62"/>
+      <c r="JE18" s="62" t="n">
+        <v>182</v>
+      </c>
       <c r="JF18" s="62"/>
       <c r="JG18" s="62"/>
       <c r="JH18" s="62"/>
@@ -17312,7 +17344,9 @@
       <c r="JD19" s="66" t="n">
         <v>93769856</v>
       </c>
-      <c r="JE19" s="66"/>
+      <c r="JE19" s="66" t="n">
+        <v>93731430</v>
+      </c>
       <c r="JF19" s="66"/>
       <c r="JG19" s="66"/>
       <c r="JH19" s="66"/>
@@ -18229,7 +18263,9 @@
       <c r="JD20" s="69" t="n">
         <v>199</v>
       </c>
-      <c r="JE20" s="69"/>
+      <c r="JE20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="JF20" s="69"/>
       <c r="JG20" s="69"/>
       <c r="JH20" s="69"/>
@@ -19401,11 +19437,15 @@
       </c>
       <c r="JC23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JC2)&amp;", ""month"": "&amp;MONTH(JC2)&amp;", ""day"": "&amp;DAY(JC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JC3&amp;", ""memberCount"": "&amp;JC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JC5&amp;", ""memberCount"": "&amp;JC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JC7&amp;", ""memberCount"": "&amp;JC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JC9&amp;", ""memberCount"": "&amp;JC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JC11&amp;", ""memberCount"": "&amp;JC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JC13&amp;", ""memberCount"": "&amp;JC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JC15&amp;", ""memberCount"": "&amp;JC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JC17&amp;", ""memberCount"": "&amp;JC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JC19&amp;", ""memberCount"": "&amp;JC20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="JD23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JD2)&amp;", ""month"": "&amp;MONTH(JD2)&amp;", ""day"": "&amp;DAY(JD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JD3&amp;", ""memberCount"": "&amp;JD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JD5&amp;", ""memberCount"": "&amp;JD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JD7&amp;", ""memberCount"": "&amp;JD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JD9&amp;", ""memberCount"": "&amp;JD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JD11&amp;", ""memberCount"": "&amp;JD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JD13&amp;", ""memberCount"": "&amp;JD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JD15&amp;", ""memberCount"": "&amp;JD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JD17&amp;", ""memberCount"": "&amp;JD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JD19&amp;", ""memberCount"": "&amp;JD20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 212422363, "memberCount": 197}, {"name": "Smile", "contribution": 185996588, "memberCount": 200}, {"name": "Elite", "contribution": 177402461, "memberCount": 198}, {"name": "Savages", "contribution": 167364423, "memberCount": 199}, {"name": "Spring", "contribution": 139627720, "memberCount": 199}, {"name": "Bounce", "contribution": 147601964, "memberCount": 199}, {"name": "Sunset", "contribution": 127426411, "memberCount": 188}, {"name": "Beaters", "contribution": 96104907, "memberCount": 182}, {"name": "Downtime", "contribution": 93769856, "memberCount": 199}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 212422363, "memberCount": 197}, {"name": "Smile", "contribution": 185996588, "memberCount": 200}, {"name": "Elite", "contribution": 177402461, "memberCount": 198}, {"name": "Savages", "contribution": 167364423, "memberCount": 199}, {"name": "Spring", "contribution": 139627720, "memberCount": 199}, {"name": "Bounce", "contribution": 147601964, "memberCount": 199}, {"name": "Sunset", "contribution": 127426411, "memberCount": 188}, {"name": "Beaters", "contribution": 96104907, "memberCount": 182}, {"name": "Downtime", "contribution": 93769856, "memberCount": 199}]}</v>
+      </c>
+      <c r="JE23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JE2)&amp;", ""month"": "&amp;MONTH(JE2)&amp;", ""day"": "&amp;DAY(JE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JE3&amp;", ""memberCount"": "&amp;JE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JE5&amp;", ""memberCount"": "&amp;JE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JE7&amp;", ""memberCount"": "&amp;JE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JE9&amp;", ""memberCount"": "&amp;JE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JE11&amp;", ""memberCount"": "&amp;JE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JE13&amp;", ""memberCount"": "&amp;JE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JE15&amp;", ""memberCount"": "&amp;JE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JE17&amp;", ""memberCount"": "&amp;JE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JE19&amp;", ""memberCount"": "&amp;JE20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 212582496, "memberCount": 197}, {"name": "Smile", "contribution": 186214005, "memberCount": 200}, {"name": "Elite", "contribution": 177575322, "memberCount": 198}, {"name": "Savages", "contribution": 167562012, "memberCount": 199}, {"name": "Spring", "contribution": 139743776, "memberCount": 199}, {"name": "Bounce", "contribution": 147835986, "memberCount": 199}, {"name": "Sunset", "contribution": 127528967, "memberCount": 189}, {"name": "Beaters", "contribution": 96182669, "memberCount": 182}, {"name": "Downtime", "contribution": 93731430, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="JD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="JE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="JD1" activeCellId="0" sqref="JD1"/>
+      <selection pane="topRight" activeCell="JE1" activeCellId="0" sqref="JE1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="JE23" activeCellId="0" sqref="JE23"/>
+      <selection pane="bottomRight" activeCell="JF23" activeCellId="0" sqref="JF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2627,7 +2627,9 @@
       <c r="JE3" s="7" t="n">
         <v>212582496</v>
       </c>
-      <c r="JF3" s="7"/>
+      <c r="JF3" s="7" t="n">
+        <v>212787368</v>
+      </c>
       <c r="JG3" s="7"/>
       <c r="JH3" s="7"/>
       <c r="JI3" s="7"/>
@@ -3546,7 +3548,9 @@
       <c r="JE4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="JF4" s="11"/>
+      <c r="JF4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="JG4" s="11"/>
       <c r="JH4" s="11"/>
       <c r="JI4" s="11"/>
@@ -4467,7 +4471,9 @@
       <c r="JE5" s="17" t="n">
         <v>186214005</v>
       </c>
-      <c r="JF5" s="17"/>
+      <c r="JF5" s="17" t="n">
+        <v>186296036</v>
+      </c>
       <c r="JG5" s="17"/>
       <c r="JH5" s="17"/>
       <c r="JI5" s="17"/>
@@ -5386,7 +5392,9 @@
       <c r="JE6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="JF6" s="20"/>
+      <c r="JF6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="JG6" s="20"/>
       <c r="JH6" s="20"/>
       <c r="JI6" s="20"/>
@@ -6307,7 +6315,9 @@
       <c r="JE7" s="24" t="n">
         <v>177575322</v>
       </c>
-      <c r="JF7" s="24"/>
+      <c r="JF7" s="24" t="n">
+        <v>177769253</v>
+      </c>
       <c r="JG7" s="24"/>
       <c r="JH7" s="24"/>
       <c r="JI7" s="24"/>
@@ -7226,7 +7236,9 @@
       <c r="JE8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="JF8" s="27"/>
+      <c r="JF8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="JG8" s="27"/>
       <c r="JH8" s="27"/>
       <c r="JI8" s="27"/>
@@ -8147,7 +8159,9 @@
       <c r="JE9" s="31" t="n">
         <v>167562012</v>
       </c>
-      <c r="JF9" s="31"/>
+      <c r="JF9" s="31" t="n">
+        <v>167832744</v>
+      </c>
       <c r="JG9" s="31"/>
       <c r="JH9" s="31"/>
       <c r="JI9" s="31"/>
@@ -9066,7 +9080,9 @@
       <c r="JE10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="JF10" s="34"/>
+      <c r="JF10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="JG10" s="34"/>
       <c r="JH10" s="34"/>
       <c r="JI10" s="34"/>
@@ -9987,7 +10003,9 @@
       <c r="JE11" s="38" t="n">
         <v>139743776</v>
       </c>
-      <c r="JF11" s="38"/>
+      <c r="JF11" s="38" t="n">
+        <v>139765357</v>
+      </c>
       <c r="JG11" s="38"/>
       <c r="JH11" s="38"/>
       <c r="JI11" s="38"/>
@@ -10906,7 +10924,9 @@
       <c r="JE12" s="41" t="n">
         <v>199</v>
       </c>
-      <c r="JF12" s="41"/>
+      <c r="JF12" s="41" t="n">
+        <v>198</v>
+      </c>
       <c r="JG12" s="41"/>
       <c r="JH12" s="41"/>
       <c r="JI12" s="41"/>
@@ -11827,7 +11847,9 @@
       <c r="JE13" s="45" t="n">
         <v>147835986</v>
       </c>
-      <c r="JF13" s="45"/>
+      <c r="JF13" s="45" t="n">
+        <v>148112096</v>
+      </c>
       <c r="JG13" s="45"/>
       <c r="JH13" s="45"/>
       <c r="JI13" s="45"/>
@@ -12746,7 +12768,9 @@
       <c r="JE14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="JF14" s="48"/>
+      <c r="JF14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="JG14" s="48"/>
       <c r="JH14" s="48"/>
       <c r="JI14" s="48"/>
@@ -13667,7 +13691,9 @@
       <c r="JE15" s="52" t="n">
         <v>127528967</v>
       </c>
-      <c r="JF15" s="52"/>
+      <c r="JF15" s="52" t="n">
+        <v>127658016</v>
+      </c>
       <c r="JG15" s="52"/>
       <c r="JH15" s="52"/>
       <c r="JI15" s="52"/>
@@ -14586,7 +14612,9 @@
       <c r="JE16" s="55" t="n">
         <v>189</v>
       </c>
-      <c r="JF16" s="55"/>
+      <c r="JF16" s="55" t="n">
+        <v>190</v>
+      </c>
       <c r="JG16" s="55"/>
       <c r="JH16" s="55"/>
       <c r="JI16" s="55"/>
@@ -15507,7 +15535,9 @@
       <c r="JE17" s="59" t="n">
         <v>96182669</v>
       </c>
-      <c r="JF17" s="59"/>
+      <c r="JF17" s="59" t="n">
+        <v>96244085</v>
+      </c>
       <c r="JG17" s="59"/>
       <c r="JH17" s="59"/>
       <c r="JI17" s="59"/>
@@ -16426,7 +16456,9 @@
       <c r="JE18" s="62" t="n">
         <v>182</v>
       </c>
-      <c r="JF18" s="62"/>
+      <c r="JF18" s="62" t="n">
+        <v>182</v>
+      </c>
       <c r="JG18" s="62"/>
       <c r="JH18" s="62"/>
       <c r="JI18" s="62"/>
@@ -17347,7 +17379,9 @@
       <c r="JE19" s="66" t="n">
         <v>93731430</v>
       </c>
-      <c r="JF19" s="66"/>
+      <c r="JF19" s="66" t="n">
+        <v>93958666</v>
+      </c>
       <c r="JG19" s="66"/>
       <c r="JH19" s="66"/>
       <c r="JI19" s="66"/>
@@ -18266,7 +18300,9 @@
       <c r="JE20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="JF20" s="69"/>
+      <c r="JF20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="JG20" s="69"/>
       <c r="JH20" s="69"/>
       <c r="JI20" s="69"/>
@@ -19445,7 +19481,11 @@
       </c>
       <c r="JE23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JE2)&amp;", ""month"": "&amp;MONTH(JE2)&amp;", ""day"": "&amp;DAY(JE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JE3&amp;", ""memberCount"": "&amp;JE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JE5&amp;", ""memberCount"": "&amp;JE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JE7&amp;", ""memberCount"": "&amp;JE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JE9&amp;", ""memberCount"": "&amp;JE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JE11&amp;", ""memberCount"": "&amp;JE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JE13&amp;", ""memberCount"": "&amp;JE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JE15&amp;", ""memberCount"": "&amp;JE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JE17&amp;", ""memberCount"": "&amp;JE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JE19&amp;", ""memberCount"": "&amp;JE20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 212582496, "memberCount": 197}, {"name": "Smile", "contribution": 186214005, "memberCount": 200}, {"name": "Elite", "contribution": 177575322, "memberCount": 198}, {"name": "Savages", "contribution": 167562012, "memberCount": 199}, {"name": "Spring", "contribution": 139743776, "memberCount": 199}, {"name": "Bounce", "contribution": 147835986, "memberCount": 199}, {"name": "Sunset", "contribution": 127528967, "memberCount": 189}, {"name": "Beaters", "contribution": 96182669, "memberCount": 182}, {"name": "Downtime", "contribution": 93731430, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 212582496, "memberCount": 197}, {"name": "Smile", "contribution": 186214005, "memberCount": 200}, {"name": "Elite", "contribution": 177575322, "memberCount": 198}, {"name": "Savages", "contribution": 167562012, "memberCount": 199}, {"name": "Spring", "contribution": 139743776, "memberCount": 199}, {"name": "Bounce", "contribution": 147835986, "memberCount": 199}, {"name": "Sunset", "contribution": 127528967, "memberCount": 189}, {"name": "Beaters", "contribution": 96182669, "memberCount": 182}, {"name": "Downtime", "contribution": 93731430, "memberCount": 198}]}</v>
+      </c>
+      <c r="JF23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JF2)&amp;", ""month"": "&amp;MONTH(JF2)&amp;", ""day"": "&amp;DAY(JF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JF3&amp;", ""memberCount"": "&amp;JF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JF5&amp;", ""memberCount"": "&amp;JF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JF7&amp;", ""memberCount"": "&amp;JF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JF9&amp;", ""memberCount"": "&amp;JF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JF11&amp;", ""memberCount"": "&amp;JF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JF13&amp;", ""memberCount"": "&amp;JF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JF15&amp;", ""memberCount"": "&amp;JF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JF17&amp;", ""memberCount"": "&amp;JF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JF19&amp;", ""memberCount"": "&amp;JF20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 212787368, "memberCount": 197}, {"name": "Smile", "contribution": 186296036, "memberCount": 200}, {"name": "Elite", "contribution": 177769253, "memberCount": 198}, {"name": "Savages", "contribution": 167832744, "memberCount": 199}, {"name": "Spring", "contribution": 139765357, "memberCount": 198}, {"name": "Bounce", "contribution": 148112096, "memberCount": 199}, {"name": "Sunset", "contribution": 127658016, "memberCount": 190}, {"name": "Beaters", "contribution": 96244085, "memberCount": 182}, {"name": "Downtime", "contribution": 93958666, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="JE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="JF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="JE1" activeCellId="0" sqref="JE1"/>
+      <selection pane="topRight" activeCell="JF1" activeCellId="0" sqref="JF1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="JF23" activeCellId="0" sqref="JF23"/>
+      <selection pane="bottomRight" activeCell="JG23" activeCellId="0" sqref="JG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2630,7 +2630,9 @@
       <c r="JF3" s="7" t="n">
         <v>212787368</v>
       </c>
-      <c r="JG3" s="7"/>
+      <c r="JG3" s="7" t="n">
+        <v>212998621</v>
+      </c>
       <c r="JH3" s="7"/>
       <c r="JI3" s="7"/>
       <c r="JJ3" s="7"/>
@@ -3551,7 +3553,9 @@
       <c r="JF4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="JG4" s="11"/>
+      <c r="JG4" s="11" t="n">
+        <v>197</v>
+      </c>
       <c r="JH4" s="11"/>
       <c r="JI4" s="11"/>
       <c r="JJ4" s="11"/>
@@ -4474,7 +4478,9 @@
       <c r="JF5" s="17" t="n">
         <v>186296036</v>
       </c>
-      <c r="JG5" s="17"/>
+      <c r="JG5" s="17" t="n">
+        <v>186476242</v>
+      </c>
       <c r="JH5" s="17"/>
       <c r="JI5" s="17"/>
       <c r="JJ5" s="17"/>
@@ -5395,7 +5401,9 @@
       <c r="JF6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="JG6" s="20"/>
+      <c r="JG6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="JH6" s="20"/>
       <c r="JI6" s="20"/>
       <c r="JJ6" s="20"/>
@@ -6318,7 +6326,9 @@
       <c r="JF7" s="24" t="n">
         <v>177769253</v>
       </c>
-      <c r="JG7" s="24"/>
+      <c r="JG7" s="24" t="n">
+        <v>177920206</v>
+      </c>
       <c r="JH7" s="24"/>
       <c r="JI7" s="24"/>
       <c r="JJ7" s="24"/>
@@ -7239,7 +7249,9 @@
       <c r="JF8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="JG8" s="27"/>
+      <c r="JG8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="JH8" s="27"/>
       <c r="JI8" s="27"/>
       <c r="JJ8" s="27"/>
@@ -8162,7 +8174,9 @@
       <c r="JF9" s="31" t="n">
         <v>167832744</v>
       </c>
-      <c r="JG9" s="31"/>
+      <c r="JG9" s="31" t="n">
+        <v>168043255</v>
+      </c>
       <c r="JH9" s="31"/>
       <c r="JI9" s="31"/>
       <c r="JJ9" s="31"/>
@@ -9083,7 +9097,9 @@
       <c r="JF10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="JG10" s="34"/>
+      <c r="JG10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="JH10" s="34"/>
       <c r="JI10" s="34"/>
       <c r="JJ10" s="34"/>
@@ -10006,7 +10022,9 @@
       <c r="JF11" s="38" t="n">
         <v>139765357</v>
       </c>
-      <c r="JG11" s="38"/>
+      <c r="JG11" s="38" t="n">
+        <v>139486587</v>
+      </c>
       <c r="JH11" s="38"/>
       <c r="JI11" s="38"/>
       <c r="JJ11" s="38"/>
@@ -10927,7 +10945,9 @@
       <c r="JF12" s="41" t="n">
         <v>198</v>
       </c>
-      <c r="JG12" s="41"/>
+      <c r="JG12" s="41" t="n">
+        <v>197</v>
+      </c>
       <c r="JH12" s="41"/>
       <c r="JI12" s="41"/>
       <c r="JJ12" s="41"/>
@@ -11850,7 +11870,9 @@
       <c r="JF13" s="45" t="n">
         <v>148112096</v>
       </c>
-      <c r="JG13" s="45"/>
+      <c r="JG13" s="45" t="n">
+        <v>148296410</v>
+      </c>
       <c r="JH13" s="45"/>
       <c r="JI13" s="45"/>
       <c r="JJ13" s="45"/>
@@ -12771,7 +12793,9 @@
       <c r="JF14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="JG14" s="48"/>
+      <c r="JG14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="JH14" s="48"/>
       <c r="JI14" s="48"/>
       <c r="JJ14" s="48"/>
@@ -13694,7 +13718,9 @@
       <c r="JF15" s="52" t="n">
         <v>127658016</v>
       </c>
-      <c r="JG15" s="52"/>
+      <c r="JG15" s="52" t="n">
+        <v>127803847</v>
+      </c>
       <c r="JH15" s="52"/>
       <c r="JI15" s="52"/>
       <c r="JJ15" s="52"/>
@@ -14615,7 +14641,9 @@
       <c r="JF16" s="55" t="n">
         <v>190</v>
       </c>
-      <c r="JG16" s="55"/>
+      <c r="JG16" s="55" t="n">
+        <v>190</v>
+      </c>
       <c r="JH16" s="55"/>
       <c r="JI16" s="55"/>
       <c r="JJ16" s="55"/>
@@ -15538,7 +15566,9 @@
       <c r="JF17" s="59" t="n">
         <v>96244085</v>
       </c>
-      <c r="JG17" s="59"/>
+      <c r="JG17" s="59" t="n">
+        <v>96337721</v>
+      </c>
       <c r="JH17" s="59"/>
       <c r="JI17" s="59"/>
       <c r="JJ17" s="59"/>
@@ -16459,7 +16489,9 @@
       <c r="JF18" s="62" t="n">
         <v>182</v>
       </c>
-      <c r="JG18" s="62"/>
+      <c r="JG18" s="62" t="n">
+        <v>182</v>
+      </c>
       <c r="JH18" s="62"/>
       <c r="JI18" s="62"/>
       <c r="JJ18" s="62"/>
@@ -17382,7 +17414,9 @@
       <c r="JF19" s="66" t="n">
         <v>93958666</v>
       </c>
-      <c r="JG19" s="66"/>
+      <c r="JG19" s="66" t="n">
+        <v>94109509</v>
+      </c>
       <c r="JH19" s="66"/>
       <c r="JI19" s="66"/>
       <c r="JJ19" s="66"/>
@@ -18303,7 +18337,9 @@
       <c r="JF20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="JG20" s="69"/>
+      <c r="JG20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="JH20" s="69"/>
       <c r="JI20" s="69"/>
       <c r="JJ20" s="69"/>
@@ -19485,7 +19521,11 @@
       </c>
       <c r="JF23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JF2)&amp;", ""month"": "&amp;MONTH(JF2)&amp;", ""day"": "&amp;DAY(JF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JF3&amp;", ""memberCount"": "&amp;JF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JF5&amp;", ""memberCount"": "&amp;JF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JF7&amp;", ""memberCount"": "&amp;JF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JF9&amp;", ""memberCount"": "&amp;JF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JF11&amp;", ""memberCount"": "&amp;JF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JF13&amp;", ""memberCount"": "&amp;JF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JF15&amp;", ""memberCount"": "&amp;JF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JF17&amp;", ""memberCount"": "&amp;JF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JF19&amp;", ""memberCount"": "&amp;JF20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 212787368, "memberCount": 197}, {"name": "Smile", "contribution": 186296036, "memberCount": 200}, {"name": "Elite", "contribution": 177769253, "memberCount": 198}, {"name": "Savages", "contribution": 167832744, "memberCount": 199}, {"name": "Spring", "contribution": 139765357, "memberCount": 198}, {"name": "Bounce", "contribution": 148112096, "memberCount": 199}, {"name": "Sunset", "contribution": 127658016, "memberCount": 190}, {"name": "Beaters", "contribution": 96244085, "memberCount": 182}, {"name": "Downtime", "contribution": 93958666, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 212787368, "memberCount": 197}, {"name": "Smile", "contribution": 186296036, "memberCount": 200}, {"name": "Elite", "contribution": 177769253, "memberCount": 198}, {"name": "Savages", "contribution": 167832744, "memberCount": 199}, {"name": "Spring", "contribution": 139765357, "memberCount": 198}, {"name": "Bounce", "contribution": 148112096, "memberCount": 199}, {"name": "Sunset", "contribution": 127658016, "memberCount": 190}, {"name": "Beaters", "contribution": 96244085, "memberCount": 182}, {"name": "Downtime", "contribution": 93958666, "memberCount": 198}]}</v>
+      </c>
+      <c r="JG23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JG2)&amp;", ""month"": "&amp;MONTH(JG2)&amp;", ""day"": "&amp;DAY(JG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JG3&amp;", ""memberCount"": "&amp;JG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JG5&amp;", ""memberCount"": "&amp;JG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JG7&amp;", ""memberCount"": "&amp;JG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JG9&amp;", ""memberCount"": "&amp;JG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JG11&amp;", ""memberCount"": "&amp;JG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JG13&amp;", ""memberCount"": "&amp;JG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JG15&amp;", ""memberCount"": "&amp;JG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JG17&amp;", ""memberCount"": "&amp;JG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JG19&amp;", ""memberCount"": "&amp;JG20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 212998621, "memberCount": 197}, {"name": "Smile", "contribution": 186476242, "memberCount": 200}, {"name": "Elite", "contribution": 177920206, "memberCount": 198}, {"name": "Savages", "contribution": 168043255, "memberCount": 200}, {"name": "Spring", "contribution": 139486587, "memberCount": 197}, {"name": "Bounce", "contribution": 148296410, "memberCount": 199}, {"name": "Sunset", "contribution": 127803847, "memberCount": 190}, {"name": "Beaters", "contribution": 96337721, "memberCount": 182}, {"name": "Downtime", "contribution": 94109509, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="JF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="JE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="JF1" activeCellId="0" sqref="JF1"/>
+      <selection pane="topRight" activeCell="JE1" activeCellId="0" sqref="JE1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="JG23" activeCellId="0" sqref="JG23"/>
+      <selection pane="bottomRight" activeCell="JH23" activeCellId="0" sqref="JH23:JI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2633,8 +2633,12 @@
       <c r="JG3" s="7" t="n">
         <v>212998621</v>
       </c>
-      <c r="JH3" s="7"/>
-      <c r="JI3" s="7"/>
+      <c r="JH3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI3" s="7" t="n">
+        <v>213198037</v>
+      </c>
       <c r="JJ3" s="7"/>
       <c r="JK3" s="7"/>
       <c r="JL3" s="7"/>
@@ -3556,8 +3560,12 @@
       <c r="JG4" s="11" t="n">
         <v>197</v>
       </c>
-      <c r="JH4" s="11"/>
-      <c r="JI4" s="11"/>
+      <c r="JH4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="JJ4" s="11"/>
       <c r="JK4" s="11"/>
       <c r="JL4" s="11"/>
@@ -4481,8 +4489,12 @@
       <c r="JG5" s="17" t="n">
         <v>186476242</v>
       </c>
-      <c r="JH5" s="17"/>
-      <c r="JI5" s="17"/>
+      <c r="JH5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI5" s="17" t="n">
+        <v>186882412</v>
+      </c>
       <c r="JJ5" s="17"/>
       <c r="JK5" s="17"/>
       <c r="JL5" s="17"/>
@@ -5404,8 +5416,12 @@
       <c r="JG6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="JH6" s="20"/>
-      <c r="JI6" s="20"/>
+      <c r="JH6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="JJ6" s="20"/>
       <c r="JK6" s="20"/>
       <c r="JL6" s="20"/>
@@ -6329,8 +6345,12 @@
       <c r="JG7" s="24" t="n">
         <v>177920206</v>
       </c>
-      <c r="JH7" s="24"/>
-      <c r="JI7" s="24"/>
+      <c r="JH7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI7" s="24" t="n">
+        <v>178300969</v>
+      </c>
       <c r="JJ7" s="24"/>
       <c r="JK7" s="24"/>
       <c r="JL7" s="24"/>
@@ -7252,8 +7272,12 @@
       <c r="JG8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="JH8" s="27"/>
-      <c r="JI8" s="27"/>
+      <c r="JH8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI8" s="27" t="n">
+        <v>198</v>
+      </c>
       <c r="JJ8" s="27"/>
       <c r="JK8" s="27"/>
       <c r="JL8" s="27"/>
@@ -8177,8 +8201,12 @@
       <c r="JG9" s="31" t="n">
         <v>168043255</v>
       </c>
-      <c r="JH9" s="31"/>
-      <c r="JI9" s="31"/>
+      <c r="JH9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI9" s="31" t="n">
+        <v>168424118</v>
+      </c>
       <c r="JJ9" s="31"/>
       <c r="JK9" s="31"/>
       <c r="JL9" s="31"/>
@@ -9100,8 +9128,12 @@
       <c r="JG10" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="JH10" s="34"/>
-      <c r="JI10" s="34"/>
+      <c r="JH10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="JJ10" s="34"/>
       <c r="JK10" s="34"/>
       <c r="JL10" s="34"/>
@@ -10025,8 +10057,12 @@
       <c r="JG11" s="38" t="n">
         <v>139486587</v>
       </c>
-      <c r="JH11" s="38"/>
-      <c r="JI11" s="38"/>
+      <c r="JH11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI11" s="38" t="n">
+        <v>139732710</v>
+      </c>
       <c r="JJ11" s="38"/>
       <c r="JK11" s="38"/>
       <c r="JL11" s="38"/>
@@ -10948,8 +10984,12 @@
       <c r="JG12" s="41" t="n">
         <v>197</v>
       </c>
-      <c r="JH12" s="41"/>
-      <c r="JI12" s="41"/>
+      <c r="JH12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI12" s="41" t="n">
+        <v>198</v>
+      </c>
       <c r="JJ12" s="41"/>
       <c r="JK12" s="41"/>
       <c r="JL12" s="41"/>
@@ -11873,8 +11913,12 @@
       <c r="JG13" s="45" t="n">
         <v>148296410</v>
       </c>
-      <c r="JH13" s="45"/>
-      <c r="JI13" s="45"/>
+      <c r="JH13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI13" s="45" t="n">
+        <v>148687667</v>
+      </c>
       <c r="JJ13" s="45"/>
       <c r="JK13" s="45"/>
       <c r="JL13" s="45"/>
@@ -12796,8 +12840,12 @@
       <c r="JG14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="JH14" s="48"/>
-      <c r="JI14" s="48"/>
+      <c r="JH14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="JJ14" s="48"/>
       <c r="JK14" s="48"/>
       <c r="JL14" s="48"/>
@@ -13721,8 +13769,12 @@
       <c r="JG15" s="52" t="n">
         <v>127803847</v>
       </c>
-      <c r="JH15" s="52"/>
-      <c r="JI15" s="52"/>
+      <c r="JH15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI15" s="52" t="n">
+        <v>128020200</v>
+      </c>
       <c r="JJ15" s="52"/>
       <c r="JK15" s="52"/>
       <c r="JL15" s="52"/>
@@ -14644,8 +14696,12 @@
       <c r="JG16" s="55" t="n">
         <v>190</v>
       </c>
-      <c r="JH16" s="55"/>
-      <c r="JI16" s="55"/>
+      <c r="JH16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI16" s="55" t="n">
+        <v>192</v>
+      </c>
       <c r="JJ16" s="55"/>
       <c r="JK16" s="55"/>
       <c r="JL16" s="55"/>
@@ -15569,8 +15625,12 @@
       <c r="JG17" s="59" t="n">
         <v>96337721</v>
       </c>
-      <c r="JH17" s="59"/>
-      <c r="JI17" s="59"/>
+      <c r="JH17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI17" s="59" t="n">
+        <v>95998630</v>
+      </c>
       <c r="JJ17" s="59"/>
       <c r="JK17" s="59"/>
       <c r="JL17" s="59"/>
@@ -16492,8 +16552,12 @@
       <c r="JG18" s="62" t="n">
         <v>182</v>
       </c>
-      <c r="JH18" s="62"/>
-      <c r="JI18" s="62"/>
+      <c r="JH18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI18" s="62" t="n">
+        <v>181</v>
+      </c>
       <c r="JJ18" s="62"/>
       <c r="JK18" s="62"/>
       <c r="JL18" s="62"/>
@@ -17417,8 +17481,12 @@
       <c r="JG19" s="66" t="n">
         <v>94109509</v>
       </c>
-      <c r="JH19" s="66"/>
-      <c r="JI19" s="66"/>
+      <c r="JH19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI19" s="66" t="n">
+        <v>94432838</v>
+      </c>
       <c r="JJ19" s="66"/>
       <c r="JK19" s="66"/>
       <c r="JL19" s="66"/>
@@ -18340,8 +18408,12 @@
       <c r="JG20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="JH20" s="69"/>
-      <c r="JI20" s="69"/>
+      <c r="JH20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JI20" s="69" t="n">
+        <v>198</v>
+      </c>
       <c r="JJ20" s="69"/>
       <c r="JK20" s="69"/>
       <c r="JL20" s="69"/>
@@ -19525,7 +19597,15 @@
       </c>
       <c r="JG23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JG2)&amp;", ""month"": "&amp;MONTH(JG2)&amp;", ""day"": "&amp;DAY(JG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JG3&amp;", ""memberCount"": "&amp;JG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JG5&amp;", ""memberCount"": "&amp;JG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JG7&amp;", ""memberCount"": "&amp;JG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JG9&amp;", ""memberCount"": "&amp;JG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JG11&amp;", ""memberCount"": "&amp;JG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JG13&amp;", ""memberCount"": "&amp;JG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JG15&amp;", ""memberCount"": "&amp;JG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JG17&amp;", ""memberCount"": "&amp;JG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JG19&amp;", ""memberCount"": "&amp;JG20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 212998621, "memberCount": 197}, {"name": "Smile", "contribution": 186476242, "memberCount": 200}, {"name": "Elite", "contribution": 177920206, "memberCount": 198}, {"name": "Savages", "contribution": 168043255, "memberCount": 200}, {"name": "Spring", "contribution": 139486587, "memberCount": 197}, {"name": "Bounce", "contribution": 148296410, "memberCount": 199}, {"name": "Sunset", "contribution": 127803847, "memberCount": 190}, {"name": "Beaters", "contribution": 96337721, "memberCount": 182}, {"name": "Downtime", "contribution": 94109509, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 212998621, "memberCount": 197}, {"name": "Smile", "contribution": 186476242, "memberCount": 200}, {"name": "Elite", "contribution": 177920206, "memberCount": 198}, {"name": "Savages", "contribution": 168043255, "memberCount": 200}, {"name": "Spring", "contribution": 139486587, "memberCount": 197}, {"name": "Bounce", "contribution": 148296410, "memberCount": 199}, {"name": "Sunset", "contribution": 127803847, "memberCount": 190}, {"name": "Beaters", "contribution": 96337721, "memberCount": 182}, {"name": "Downtime", "contribution": 94109509, "memberCount": 198}]}</v>
+      </c>
+      <c r="JH23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JH2)&amp;", ""month"": "&amp;MONTH(JH2)&amp;", ""day"": "&amp;DAY(JH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JH3&amp;", ""memberCount"": "&amp;JH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JH5&amp;", ""memberCount"": "&amp;JH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JH7&amp;", ""memberCount"": "&amp;JH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JH9&amp;", ""memberCount"": "&amp;JH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JH11&amp;", ""memberCount"": "&amp;JH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JH13&amp;", ""memberCount"": "&amp;JH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JH15&amp;", ""memberCount"": "&amp;JH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JH17&amp;", ""memberCount"": "&amp;JH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JH19&amp;", ""memberCount"": "&amp;JH20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 5, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JI23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JI2)&amp;", ""month"": "&amp;MONTH(JI2)&amp;", ""day"": "&amp;DAY(JI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JI3&amp;", ""memberCount"": "&amp;JI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JI5&amp;", ""memberCount"": "&amp;JI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JI7&amp;", ""memberCount"": "&amp;JI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JI9&amp;", ""memberCount"": "&amp;JI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JI11&amp;", ""memberCount"": "&amp;JI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JI13&amp;", ""memberCount"": "&amp;JI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JI15&amp;", ""memberCount"": "&amp;JI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JI17&amp;", ""memberCount"": "&amp;JI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JI19&amp;", ""memberCount"": "&amp;JI20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 213198037, "memberCount": 196}, {"name": "Smile", "contribution": 186882412, "memberCount": 200}, {"name": "Elite", "contribution": 178300969, "memberCount": 198}, {"name": "Savages", "contribution": 168424118, "memberCount": 199}, {"name": "Spring", "contribution": 139732710, "memberCount": 198}, {"name": "Bounce", "contribution": 148687667, "memberCount": 199}, {"name": "Sunset", "contribution": 128020200, "memberCount": 192}, {"name": "Beaters", "contribution": 95998630, "memberCount": 181}, {"name": "Downtime", "contribution": 94432838, "memberCount": 198}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="13">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -652,11 +652,11 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="JE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="LL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="JE1" activeCellId="0" sqref="JE1"/>
+      <selection pane="topRight" activeCell="LL1" activeCellId="0" sqref="LL1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="JH23" activeCellId="0" sqref="JH23:JI23"/>
+      <selection pane="bottomRight" activeCell="LQ23" activeCellId="0" sqref="LQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2639,66 +2639,186 @@
       <c r="JI3" s="7" t="n">
         <v>213198037</v>
       </c>
-      <c r="JJ3" s="7"/>
-      <c r="JK3" s="7"/>
-      <c r="JL3" s="7"/>
-      <c r="JM3" s="7"/>
-      <c r="JN3" s="7"/>
-      <c r="JO3" s="7"/>
-      <c r="JP3" s="7"/>
-      <c r="JQ3" s="7"/>
-      <c r="JR3" s="7"/>
-      <c r="JS3" s="7"/>
-      <c r="JT3" s="7"/>
-      <c r="JU3" s="7"/>
-      <c r="JV3" s="7"/>
-      <c r="JW3" s="7"/>
-      <c r="JX3" s="7"/>
-      <c r="JY3" s="7"/>
-      <c r="JZ3" s="7"/>
-      <c r="KA3" s="7"/>
-      <c r="KB3" s="7"/>
-      <c r="KC3" s="7"/>
-      <c r="KD3" s="7"/>
-      <c r="KE3" s="7"/>
-      <c r="KF3" s="7"/>
-      <c r="KG3" s="7"/>
-      <c r="KH3" s="7"/>
-      <c r="KI3" s="7"/>
-      <c r="KJ3" s="7"/>
-      <c r="KK3" s="7"/>
-      <c r="KL3" s="7"/>
-      <c r="KM3" s="7"/>
-      <c r="KN3" s="7"/>
-      <c r="KO3" s="7"/>
-      <c r="KP3" s="7"/>
-      <c r="KQ3" s="7"/>
-      <c r="KR3" s="7"/>
-      <c r="KS3" s="7"/>
-      <c r="KT3" s="7"/>
-      <c r="KU3" s="7"/>
-      <c r="KV3" s="7"/>
-      <c r="KW3" s="7"/>
-      <c r="KX3" s="7"/>
-      <c r="KY3" s="7"/>
-      <c r="KZ3" s="7"/>
-      <c r="LA3" s="7"/>
-      <c r="LB3" s="7"/>
-      <c r="LC3" s="7"/>
-      <c r="LD3" s="7"/>
-      <c r="LE3" s="7"/>
-      <c r="LF3" s="7"/>
-      <c r="LG3" s="7"/>
-      <c r="LH3" s="7"/>
-      <c r="LI3" s="7"/>
-      <c r="LJ3" s="7"/>
-      <c r="LK3" s="7"/>
-      <c r="LL3" s="7"/>
-      <c r="LM3" s="7"/>
-      <c r="LN3" s="7"/>
-      <c r="LO3" s="7"/>
-      <c r="LP3" s="7"/>
-      <c r="LQ3" s="7"/>
+      <c r="JJ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP3" s="7" t="n">
+        <v>211558943</v>
+      </c>
+      <c r="JQ3" s="7" t="n">
+        <v>211747039</v>
+      </c>
+      <c r="JR3" s="7" t="n">
+        <v>211878246</v>
+      </c>
+      <c r="JS3" s="7" t="n">
+        <v>212040162</v>
+      </c>
+      <c r="JT3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV3" s="7" t="n">
+        <v>211843931</v>
+      </c>
+      <c r="JW3" s="7" t="n">
+        <v>212059924</v>
+      </c>
+      <c r="JX3" s="7" t="n">
+        <v>212286188</v>
+      </c>
+      <c r="JY3" s="7" t="n">
+        <v>212496142</v>
+      </c>
+      <c r="JZ3" s="7" t="n">
+        <v>212741674</v>
+      </c>
+      <c r="KA3" s="7" t="n">
+        <v>212912971</v>
+      </c>
+      <c r="KB3" s="7" t="n">
+        <v>213151842</v>
+      </c>
+      <c r="KC3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD3" s="7" t="n">
+        <v>213422842</v>
+      </c>
+      <c r="KE3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF3" s="7" t="n">
+        <v>213830491</v>
+      </c>
+      <c r="KG3" s="7" t="n">
+        <v>213998086</v>
+      </c>
+      <c r="KH3" s="7" t="n">
+        <v>214211994</v>
+      </c>
+      <c r="KI3" s="7" t="n">
+        <v>214407364</v>
+      </c>
+      <c r="KJ3" s="7" t="n">
+        <v>214665940</v>
+      </c>
+      <c r="KK3" s="7" t="n">
+        <v>214859683</v>
+      </c>
+      <c r="KL3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM3" s="7" t="n">
+        <v>215121201</v>
+      </c>
+      <c r="KN3" s="7" t="n">
+        <v>215323987</v>
+      </c>
+      <c r="KO3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP3" s="7" t="n">
+        <v>215783107</v>
+      </c>
+      <c r="KQ3" s="7" t="n">
+        <v>215993077</v>
+      </c>
+      <c r="KR3" s="7" t="n">
+        <v>216201946</v>
+      </c>
+      <c r="KS3" s="7" t="n">
+        <v>216364865</v>
+      </c>
+      <c r="KT3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU3" s="7" t="n">
+        <v>216789051</v>
+      </c>
+      <c r="KV3" s="7" t="n">
+        <v>217000560</v>
+      </c>
+      <c r="KW3" s="7" t="n">
+        <v>217194068</v>
+      </c>
+      <c r="KX3" s="7" t="n">
+        <v>217378959</v>
+      </c>
+      <c r="KY3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA3" s="7" t="n">
+        <v>217990250</v>
+      </c>
+      <c r="LB3" s="7" t="n">
+        <v>218234255</v>
+      </c>
+      <c r="LC3" s="7" t="n">
+        <v>218430815</v>
+      </c>
+      <c r="LD3" s="7" t="n">
+        <v>218654576</v>
+      </c>
+      <c r="LE3" s="7" t="n">
+        <v>218858387</v>
+      </c>
+      <c r="LF3" s="7" t="n">
+        <v>219052608</v>
+      </c>
+      <c r="LG3" s="7" t="n">
+        <v>219255474</v>
+      </c>
+      <c r="LH3" s="7" t="n">
+        <v>219414545</v>
+      </c>
+      <c r="LI3" s="7" t="n">
+        <v>219586516</v>
+      </c>
+      <c r="LJ3" s="7" t="n">
+        <v>219664737</v>
+      </c>
+      <c r="LK3" s="7" t="n">
+        <v>219849054</v>
+      </c>
+      <c r="LL3" s="7" t="n">
+        <v>219800481</v>
+      </c>
+      <c r="LM3" s="7" t="n">
+        <v>219981200</v>
+      </c>
+      <c r="LN3" s="7" t="n">
+        <v>220163525</v>
+      </c>
+      <c r="LO3" s="7" t="n">
+        <v>220332760</v>
+      </c>
+      <c r="LP3" s="7" t="n">
+        <v>220512980</v>
+      </c>
+      <c r="LQ3" s="7" t="n">
+        <v>220722215</v>
+      </c>
       <c r="LR3" s="7"/>
       <c r="LS3" s="7"/>
       <c r="LT3" s="7"/>
@@ -3566,66 +3686,186 @@
       <c r="JI4" s="11" t="n">
         <v>196</v>
       </c>
-      <c r="JJ4" s="11"/>
-      <c r="JK4" s="11"/>
-      <c r="JL4" s="11"/>
-      <c r="JM4" s="11"/>
-      <c r="JN4" s="11"/>
-      <c r="JO4" s="11"/>
-      <c r="JP4" s="11"/>
-      <c r="JQ4" s="11"/>
-      <c r="JR4" s="11"/>
-      <c r="JS4" s="11"/>
-      <c r="JT4" s="11"/>
-      <c r="JU4" s="11"/>
-      <c r="JV4" s="11"/>
-      <c r="JW4" s="11"/>
-      <c r="JX4" s="11"/>
-      <c r="JY4" s="11"/>
-      <c r="JZ4" s="11"/>
-      <c r="KA4" s="11"/>
-      <c r="KB4" s="11"/>
-      <c r="KC4" s="11"/>
-      <c r="KD4" s="11"/>
-      <c r="KE4" s="11"/>
-      <c r="KF4" s="11"/>
-      <c r="KG4" s="11"/>
-      <c r="KH4" s="11"/>
-      <c r="KI4" s="11"/>
-      <c r="KJ4" s="11"/>
-      <c r="KK4" s="11"/>
-      <c r="KL4" s="11"/>
-      <c r="KM4" s="11"/>
-      <c r="KN4" s="11"/>
-      <c r="KO4" s="11"/>
-      <c r="KP4" s="11"/>
-      <c r="KQ4" s="11"/>
-      <c r="KR4" s="11"/>
-      <c r="KS4" s="11"/>
-      <c r="KT4" s="11"/>
-      <c r="KU4" s="11"/>
-      <c r="KV4" s="11"/>
-      <c r="KW4" s="11"/>
-      <c r="KX4" s="11"/>
-      <c r="KY4" s="11"/>
-      <c r="KZ4" s="11"/>
-      <c r="LA4" s="11"/>
-      <c r="LB4" s="11"/>
-      <c r="LC4" s="11"/>
-      <c r="LD4" s="11"/>
-      <c r="LE4" s="11"/>
-      <c r="LF4" s="11"/>
-      <c r="LG4" s="11"/>
-      <c r="LH4" s="11"/>
-      <c r="LI4" s="11"/>
-      <c r="LJ4" s="11"/>
-      <c r="LK4" s="11"/>
-      <c r="LL4" s="11"/>
-      <c r="LM4" s="11"/>
-      <c r="LN4" s="11"/>
-      <c r="LO4" s="11"/>
-      <c r="LP4" s="11"/>
-      <c r="LQ4" s="11"/>
+      <c r="JJ4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP4" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="JQ4" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="JR4" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="JS4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="JT4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="JW4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="JX4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="JY4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="JZ4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KA4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KB4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KC4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="KE4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="KG4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="KH4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="KI4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="KJ4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KK4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="KL4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="KN4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="KO4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP4" s="11" t="n">
+        <v>198</v>
+      </c>
+      <c r="KQ4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KR4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KS4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KT4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KV4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KW4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="KX4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="KY4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LB4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LC4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LD4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LE4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LF4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LG4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LH4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LI4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LJ4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LK4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LL4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="LM4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LN4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LO4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LP4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="LQ4" s="11" t="n">
+        <v>200</v>
+      </c>
       <c r="LR4" s="11"/>
       <c r="LS4" s="11"/>
       <c r="LT4" s="11"/>
@@ -4495,66 +4735,186 @@
       <c r="JI5" s="17" t="n">
         <v>186882412</v>
       </c>
-      <c r="JJ5" s="17"/>
-      <c r="JK5" s="17"/>
-      <c r="JL5" s="17"/>
-      <c r="JM5" s="17"/>
-      <c r="JN5" s="17"/>
-      <c r="JO5" s="17"/>
-      <c r="JP5" s="17"/>
-      <c r="JQ5" s="17"/>
-      <c r="JR5" s="17"/>
-      <c r="JS5" s="17"/>
-      <c r="JT5" s="17"/>
-      <c r="JU5" s="17"/>
-      <c r="JV5" s="17"/>
-      <c r="JW5" s="17"/>
-      <c r="JX5" s="17"/>
-      <c r="JY5" s="17"/>
-      <c r="JZ5" s="17"/>
-      <c r="KA5" s="17"/>
-      <c r="KB5" s="17"/>
-      <c r="KC5" s="17"/>
-      <c r="KD5" s="17"/>
-      <c r="KE5" s="17"/>
-      <c r="KF5" s="17"/>
-      <c r="KG5" s="17"/>
-      <c r="KH5" s="17"/>
-      <c r="KI5" s="17"/>
-      <c r="KJ5" s="17"/>
-      <c r="KK5" s="17"/>
-      <c r="KL5" s="17"/>
-      <c r="KM5" s="17"/>
-      <c r="KN5" s="17"/>
-      <c r="KO5" s="17"/>
-      <c r="KP5" s="17"/>
-      <c r="KQ5" s="17"/>
-      <c r="KR5" s="17"/>
-      <c r="KS5" s="17"/>
-      <c r="KT5" s="17"/>
-      <c r="KU5" s="17"/>
-      <c r="KV5" s="17"/>
-      <c r="KW5" s="17"/>
-      <c r="KX5" s="17"/>
-      <c r="KY5" s="17"/>
-      <c r="KZ5" s="17"/>
-      <c r="LA5" s="17"/>
-      <c r="LB5" s="17"/>
-      <c r="LC5" s="17"/>
-      <c r="LD5" s="17"/>
-      <c r="LE5" s="17"/>
-      <c r="LF5" s="17"/>
-      <c r="LG5" s="17"/>
-      <c r="LH5" s="17"/>
-      <c r="LI5" s="17"/>
-      <c r="LJ5" s="17"/>
-      <c r="LK5" s="17"/>
-      <c r="LL5" s="17"/>
-      <c r="LM5" s="17"/>
-      <c r="LN5" s="17"/>
-      <c r="LO5" s="17"/>
-      <c r="LP5" s="17"/>
-      <c r="LQ5" s="17"/>
+      <c r="JJ5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP5" s="17" t="n">
+        <v>188279515</v>
+      </c>
+      <c r="JQ5" s="17" t="n">
+        <v>188491030</v>
+      </c>
+      <c r="JR5" s="17" t="n">
+        <v>188681780</v>
+      </c>
+      <c r="JS5" s="17" t="n">
+        <v>188981200</v>
+      </c>
+      <c r="JT5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV5" s="17" t="n">
+        <v>189578510</v>
+      </c>
+      <c r="JW5" s="17" t="n">
+        <v>189853162</v>
+      </c>
+      <c r="JX5" s="17" t="n">
+        <v>189914727</v>
+      </c>
+      <c r="JY5" s="17" t="n">
+        <v>190195838</v>
+      </c>
+      <c r="JZ5" s="17" t="n">
+        <v>190456000</v>
+      </c>
+      <c r="KA5" s="17" t="n">
+        <v>190718540</v>
+      </c>
+      <c r="KB5" s="17" t="n">
+        <v>190989478</v>
+      </c>
+      <c r="KC5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD5" s="17" t="n">
+        <v>191509208</v>
+      </c>
+      <c r="KE5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF5" s="17" t="n">
+        <v>191993327</v>
+      </c>
+      <c r="KG5" s="17" t="n">
+        <v>192223232</v>
+      </c>
+      <c r="KH5" s="17" t="n">
+        <v>192301553</v>
+      </c>
+      <c r="KI5" s="17" t="n">
+        <v>192534398</v>
+      </c>
+      <c r="KJ5" s="17" t="n">
+        <v>192743931</v>
+      </c>
+      <c r="KK5" s="17" t="n">
+        <v>193002032</v>
+      </c>
+      <c r="KL5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM5" s="17" t="n">
+        <v>193430946</v>
+      </c>
+      <c r="KN5" s="17" t="n">
+        <v>193655504</v>
+      </c>
+      <c r="KO5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP5" s="17" t="n">
+        <v>193604490</v>
+      </c>
+      <c r="KQ5" s="17" t="n">
+        <v>193860243</v>
+      </c>
+      <c r="KR5" s="17" t="n">
+        <v>194134705</v>
+      </c>
+      <c r="KS5" s="17" t="n">
+        <v>194390972</v>
+      </c>
+      <c r="KT5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU5" s="17" t="n">
+        <v>194905635</v>
+      </c>
+      <c r="KV5" s="17" t="n">
+        <v>195144214</v>
+      </c>
+      <c r="KW5" s="17" t="n">
+        <v>195423088</v>
+      </c>
+      <c r="KX5" s="17" t="n">
+        <v>195697400</v>
+      </c>
+      <c r="KY5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA5" s="17" t="n">
+        <v>196522779</v>
+      </c>
+      <c r="LB5" s="17" t="n">
+        <v>196835154</v>
+      </c>
+      <c r="LC5" s="17" t="n">
+        <v>197099351</v>
+      </c>
+      <c r="LD5" s="17" t="n">
+        <v>197343219</v>
+      </c>
+      <c r="LE5" s="17" t="n">
+        <v>197617999</v>
+      </c>
+      <c r="LF5" s="17" t="n">
+        <v>197880615</v>
+      </c>
+      <c r="LG5" s="17" t="n">
+        <v>198147299</v>
+      </c>
+      <c r="LH5" s="17" t="n">
+        <v>198415850</v>
+      </c>
+      <c r="LI5" s="17" t="n">
+        <v>198686264</v>
+      </c>
+      <c r="LJ5" s="17" t="n">
+        <v>198903207</v>
+      </c>
+      <c r="LK5" s="17" t="n">
+        <v>199172460</v>
+      </c>
+      <c r="LL5" s="17" t="n">
+        <v>199420897</v>
+      </c>
+      <c r="LM5" s="17" t="n">
+        <v>199672439</v>
+      </c>
+      <c r="LN5" s="17" t="n">
+        <v>199923406</v>
+      </c>
+      <c r="LO5" s="17" t="n">
+        <v>200164968</v>
+      </c>
+      <c r="LP5" s="17" t="n">
+        <v>200411769</v>
+      </c>
+      <c r="LQ5" s="17" t="n">
+        <v>200641391</v>
+      </c>
       <c r="LR5" s="17"/>
       <c r="LS5" s="17"/>
       <c r="LT5" s="17"/>
@@ -5422,66 +5782,186 @@
       <c r="JI6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="JJ6" s="20"/>
-      <c r="JK6" s="20"/>
-      <c r="JL6" s="20"/>
-      <c r="JM6" s="20"/>
-      <c r="JN6" s="20"/>
-      <c r="JO6" s="20"/>
-      <c r="JP6" s="20"/>
-      <c r="JQ6" s="20"/>
-      <c r="JR6" s="20"/>
-      <c r="JS6" s="20"/>
-      <c r="JT6" s="20"/>
-      <c r="JU6" s="20"/>
-      <c r="JV6" s="20"/>
-      <c r="JW6" s="20"/>
-      <c r="JX6" s="20"/>
-      <c r="JY6" s="20"/>
-      <c r="JZ6" s="20"/>
-      <c r="KA6" s="20"/>
-      <c r="KB6" s="20"/>
-      <c r="KC6" s="20"/>
-      <c r="KD6" s="20"/>
-      <c r="KE6" s="20"/>
-      <c r="KF6" s="20"/>
-      <c r="KG6" s="20"/>
-      <c r="KH6" s="20"/>
-      <c r="KI6" s="20"/>
-      <c r="KJ6" s="20"/>
-      <c r="KK6" s="20"/>
-      <c r="KL6" s="20"/>
-      <c r="KM6" s="20"/>
-      <c r="KN6" s="20"/>
-      <c r="KO6" s="20"/>
-      <c r="KP6" s="20"/>
-      <c r="KQ6" s="20"/>
-      <c r="KR6" s="20"/>
-      <c r="KS6" s="20"/>
-      <c r="KT6" s="20"/>
-      <c r="KU6" s="20"/>
-      <c r="KV6" s="20"/>
-      <c r="KW6" s="20"/>
-      <c r="KX6" s="20"/>
-      <c r="KY6" s="20"/>
-      <c r="KZ6" s="20"/>
-      <c r="LA6" s="20"/>
-      <c r="LB6" s="20"/>
-      <c r="LC6" s="20"/>
-      <c r="LD6" s="20"/>
-      <c r="LE6" s="20"/>
-      <c r="LF6" s="20"/>
-      <c r="LG6" s="20"/>
-      <c r="LH6" s="20"/>
-      <c r="LI6" s="20"/>
-      <c r="LJ6" s="20"/>
-      <c r="LK6" s="20"/>
-      <c r="LL6" s="20"/>
-      <c r="LM6" s="20"/>
-      <c r="LN6" s="20"/>
-      <c r="LO6" s="20"/>
-      <c r="LP6" s="20"/>
-      <c r="LQ6" s="20"/>
+      <c r="JJ6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="JQ6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="JR6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="JS6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="JT6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="JW6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="JX6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="JY6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="JZ6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="KA6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KB6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KC6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="KE6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="KG6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="KH6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KI6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KJ6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KK6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="KL6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="KN6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="KO6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="KQ6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="KR6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="KS6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KT6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="KV6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KW6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KX6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="KY6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="LB6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LC6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LD6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LE6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LF6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LG6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LH6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LI6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LJ6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LK6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LL6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LM6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="LN6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="LO6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="LP6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="LQ6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="LR6" s="20"/>
       <c r="LS6" s="20"/>
       <c r="LT6" s="20"/>
@@ -6351,66 +6831,186 @@
       <c r="JI7" s="24" t="n">
         <v>178300969</v>
       </c>
-      <c r="JJ7" s="24"/>
-      <c r="JK7" s="24"/>
-      <c r="JL7" s="24"/>
-      <c r="JM7" s="24"/>
-      <c r="JN7" s="24"/>
-      <c r="JO7" s="24"/>
-      <c r="JP7" s="24"/>
-      <c r="JQ7" s="24"/>
-      <c r="JR7" s="24"/>
-      <c r="JS7" s="24"/>
-      <c r="JT7" s="24"/>
-      <c r="JU7" s="24"/>
-      <c r="JV7" s="24"/>
-      <c r="JW7" s="24"/>
-      <c r="JX7" s="24"/>
-      <c r="JY7" s="24"/>
-      <c r="JZ7" s="24"/>
-      <c r="KA7" s="24"/>
-      <c r="KB7" s="24"/>
-      <c r="KC7" s="24"/>
-      <c r="KD7" s="24"/>
-      <c r="KE7" s="24"/>
-      <c r="KF7" s="24"/>
-      <c r="KG7" s="24"/>
-      <c r="KH7" s="24"/>
-      <c r="KI7" s="24"/>
-      <c r="KJ7" s="24"/>
-      <c r="KK7" s="24"/>
-      <c r="KL7" s="24"/>
-      <c r="KM7" s="24"/>
-      <c r="KN7" s="24"/>
-      <c r="KO7" s="24"/>
-      <c r="KP7" s="24"/>
-      <c r="KQ7" s="24"/>
-      <c r="KR7" s="24"/>
-      <c r="KS7" s="24"/>
-      <c r="KT7" s="24"/>
-      <c r="KU7" s="24"/>
-      <c r="KV7" s="24"/>
-      <c r="KW7" s="24"/>
-      <c r="KX7" s="24"/>
-      <c r="KY7" s="24"/>
-      <c r="KZ7" s="24"/>
-      <c r="LA7" s="24"/>
-      <c r="LB7" s="24"/>
-      <c r="LC7" s="24"/>
-      <c r="LD7" s="24"/>
-      <c r="LE7" s="24"/>
-      <c r="LF7" s="24"/>
-      <c r="LG7" s="24"/>
-      <c r="LH7" s="24"/>
-      <c r="LI7" s="24"/>
-      <c r="LJ7" s="24"/>
-      <c r="LK7" s="24"/>
-      <c r="LL7" s="24"/>
-      <c r="LM7" s="24"/>
-      <c r="LN7" s="24"/>
-      <c r="LO7" s="24"/>
-      <c r="LP7" s="24"/>
-      <c r="LQ7" s="24"/>
+      <c r="JJ7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP7" s="24" t="n">
+        <v>179507881</v>
+      </c>
+      <c r="JQ7" s="24" t="n">
+        <v>179706351</v>
+      </c>
+      <c r="JR7" s="24" t="n">
+        <v>179855408</v>
+      </c>
+      <c r="JS7" s="24" t="n">
+        <v>179992682</v>
+      </c>
+      <c r="JT7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV7" s="24" t="n">
+        <v>180437359</v>
+      </c>
+      <c r="JW7" s="24" t="n">
+        <v>180591152</v>
+      </c>
+      <c r="JX7" s="24" t="n">
+        <v>180724370</v>
+      </c>
+      <c r="JY7" s="24" t="n">
+        <v>180867137</v>
+      </c>
+      <c r="JZ7" s="24" t="n">
+        <v>181031424</v>
+      </c>
+      <c r="KA7" s="24" t="n">
+        <v>181179298</v>
+      </c>
+      <c r="KB7" s="24" t="n">
+        <v>181344026</v>
+      </c>
+      <c r="KC7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD7" s="24" t="n">
+        <v>181648171</v>
+      </c>
+      <c r="KE7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF7" s="24" t="n">
+        <v>181925421</v>
+      </c>
+      <c r="KG7" s="24" t="n">
+        <v>182067767</v>
+      </c>
+      <c r="KH7" s="24" t="n">
+        <v>182232963</v>
+      </c>
+      <c r="KI7" s="24" t="n">
+        <v>182364672</v>
+      </c>
+      <c r="KJ7" s="24" t="n">
+        <v>182506484</v>
+      </c>
+      <c r="KK7" s="24" t="n">
+        <v>182649146</v>
+      </c>
+      <c r="KL7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM7" s="24" t="n">
+        <v>182930341</v>
+      </c>
+      <c r="KN7" s="24" t="n">
+        <v>183069115</v>
+      </c>
+      <c r="KO7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP7" s="24" t="n">
+        <v>183364791</v>
+      </c>
+      <c r="KQ7" s="24" t="n">
+        <v>183489960</v>
+      </c>
+      <c r="KR7" s="24" t="n">
+        <v>183652922</v>
+      </c>
+      <c r="KS7" s="24" t="n">
+        <v>183808379</v>
+      </c>
+      <c r="KT7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU7" s="24" t="n">
+        <v>184043151</v>
+      </c>
+      <c r="KV7" s="24" t="n">
+        <v>183060267</v>
+      </c>
+      <c r="KW7" s="24" t="n">
+        <v>183205658</v>
+      </c>
+      <c r="KX7" s="24" t="n">
+        <v>183360895</v>
+      </c>
+      <c r="KY7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA7" s="24" t="n">
+        <v>183659393</v>
+      </c>
+      <c r="LB7" s="24" t="n">
+        <v>183808810</v>
+      </c>
+      <c r="LC7" s="24" t="n">
+        <v>183799341</v>
+      </c>
+      <c r="LD7" s="24" t="n">
+        <v>183535777</v>
+      </c>
+      <c r="LE7" s="24" t="n">
+        <v>183697242</v>
+      </c>
+      <c r="LF7" s="24" t="n">
+        <v>183823233</v>
+      </c>
+      <c r="LG7" s="24" t="n">
+        <v>183946332</v>
+      </c>
+      <c r="LH7" s="24" t="n">
+        <v>184093787</v>
+      </c>
+      <c r="LI7" s="24" t="n">
+        <v>184223784</v>
+      </c>
+      <c r="LJ7" s="24" t="n">
+        <v>184350161</v>
+      </c>
+      <c r="LK7" s="24" t="n">
+        <v>184483235</v>
+      </c>
+      <c r="LL7" s="24" t="n">
+        <v>184648972</v>
+      </c>
+      <c r="LM7" s="24" t="n">
+        <v>184792230</v>
+      </c>
+      <c r="LN7" s="24" t="n">
+        <v>184929867</v>
+      </c>
+      <c r="LO7" s="24" t="n">
+        <v>185033001</v>
+      </c>
+      <c r="LP7" s="24" t="n">
+        <v>185158142</v>
+      </c>
+      <c r="LQ7" s="24" t="n">
+        <v>185362598</v>
+      </c>
       <c r="LR7" s="24"/>
       <c r="LS7" s="24"/>
       <c r="LT7" s="24"/>
@@ -7278,66 +7878,186 @@
       <c r="JI8" s="27" t="n">
         <v>198</v>
       </c>
-      <c r="JJ8" s="27"/>
-      <c r="JK8" s="27"/>
-      <c r="JL8" s="27"/>
-      <c r="JM8" s="27"/>
-      <c r="JN8" s="27"/>
-      <c r="JO8" s="27"/>
-      <c r="JP8" s="27"/>
-      <c r="JQ8" s="27"/>
-      <c r="JR8" s="27"/>
-      <c r="JS8" s="27"/>
-      <c r="JT8" s="27"/>
-      <c r="JU8" s="27"/>
-      <c r="JV8" s="27"/>
-      <c r="JW8" s="27"/>
-      <c r="JX8" s="27"/>
-      <c r="JY8" s="27"/>
-      <c r="JZ8" s="27"/>
-      <c r="KA8" s="27"/>
-      <c r="KB8" s="27"/>
-      <c r="KC8" s="27"/>
-      <c r="KD8" s="27"/>
-      <c r="KE8" s="27"/>
-      <c r="KF8" s="27"/>
-      <c r="KG8" s="27"/>
-      <c r="KH8" s="27"/>
-      <c r="KI8" s="27"/>
-      <c r="KJ8" s="27"/>
-      <c r="KK8" s="27"/>
-      <c r="KL8" s="27"/>
-      <c r="KM8" s="27"/>
-      <c r="KN8" s="27"/>
-      <c r="KO8" s="27"/>
-      <c r="KP8" s="27"/>
-      <c r="KQ8" s="27"/>
-      <c r="KR8" s="27"/>
-      <c r="KS8" s="27"/>
-      <c r="KT8" s="27"/>
-      <c r="KU8" s="27"/>
-      <c r="KV8" s="27"/>
-      <c r="KW8" s="27"/>
-      <c r="KX8" s="27"/>
-      <c r="KY8" s="27"/>
-      <c r="KZ8" s="27"/>
-      <c r="LA8" s="27"/>
-      <c r="LB8" s="27"/>
-      <c r="LC8" s="27"/>
-      <c r="LD8" s="27"/>
-      <c r="LE8" s="27"/>
-      <c r="LF8" s="27"/>
-      <c r="LG8" s="27"/>
-      <c r="LH8" s="27"/>
-      <c r="LI8" s="27"/>
-      <c r="LJ8" s="27"/>
-      <c r="LK8" s="27"/>
-      <c r="LL8" s="27"/>
-      <c r="LM8" s="27"/>
-      <c r="LN8" s="27"/>
-      <c r="LO8" s="27"/>
-      <c r="LP8" s="27"/>
-      <c r="LQ8" s="27"/>
+      <c r="JJ8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="JQ8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="JR8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="JS8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="JT8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="JW8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="JX8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="JY8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="JZ8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="KA8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="KB8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="KC8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="KE8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="KG8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="KH8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="KI8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="KJ8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="KK8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="KL8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="KN8" s="27" t="n">
+        <v>200</v>
+      </c>
+      <c r="KO8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP8" s="27" t="n">
+        <v>200</v>
+      </c>
+      <c r="KQ8" s="27" t="n">
+        <v>200</v>
+      </c>
+      <c r="KR8" s="27" t="n">
+        <v>200</v>
+      </c>
+      <c r="KS8" s="27" t="n">
+        <v>200</v>
+      </c>
+      <c r="KT8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU8" s="27" t="n">
+        <v>200</v>
+      </c>
+      <c r="KV8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="KW8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="KX8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="KY8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LB8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LC8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LD8" s="27" t="n">
+        <v>198</v>
+      </c>
+      <c r="LE8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LF8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LG8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LH8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LI8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LJ8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LK8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LL8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LM8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LN8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LO8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LP8" s="27" t="n">
+        <v>199</v>
+      </c>
+      <c r="LQ8" s="27" t="n">
+        <v>199</v>
+      </c>
       <c r="LR8" s="27"/>
       <c r="LS8" s="27"/>
       <c r="LT8" s="27"/>
@@ -8207,66 +8927,186 @@
       <c r="JI9" s="31" t="n">
         <v>168424118</v>
       </c>
-      <c r="JJ9" s="31"/>
-      <c r="JK9" s="31"/>
-      <c r="JL9" s="31"/>
-      <c r="JM9" s="31"/>
-      <c r="JN9" s="31"/>
-      <c r="JO9" s="31"/>
-      <c r="JP9" s="31"/>
-      <c r="JQ9" s="31"/>
-      <c r="JR9" s="31"/>
-      <c r="JS9" s="31"/>
-      <c r="JT9" s="31"/>
-      <c r="JU9" s="31"/>
-      <c r="JV9" s="31"/>
-      <c r="JW9" s="31"/>
-      <c r="JX9" s="31"/>
-      <c r="JY9" s="31"/>
-      <c r="JZ9" s="31"/>
-      <c r="KA9" s="31"/>
-      <c r="KB9" s="31"/>
-      <c r="KC9" s="31"/>
-      <c r="KD9" s="31"/>
-      <c r="KE9" s="31"/>
-      <c r="KF9" s="31"/>
-      <c r="KG9" s="31"/>
-      <c r="KH9" s="31"/>
-      <c r="KI9" s="31"/>
-      <c r="KJ9" s="31"/>
-      <c r="KK9" s="31"/>
-      <c r="KL9" s="31"/>
-      <c r="KM9" s="31"/>
-      <c r="KN9" s="31"/>
-      <c r="KO9" s="31"/>
-      <c r="KP9" s="31"/>
-      <c r="KQ9" s="31"/>
-      <c r="KR9" s="31"/>
-      <c r="KS9" s="31"/>
-      <c r="KT9" s="31"/>
-      <c r="KU9" s="31"/>
-      <c r="KV9" s="31"/>
-      <c r="KW9" s="31"/>
-      <c r="KX9" s="31"/>
-      <c r="KY9" s="31"/>
-      <c r="KZ9" s="31"/>
-      <c r="LA9" s="31"/>
-      <c r="LB9" s="31"/>
-      <c r="LC9" s="31"/>
-      <c r="LD9" s="31"/>
-      <c r="LE9" s="31"/>
-      <c r="LF9" s="31"/>
-      <c r="LG9" s="31"/>
-      <c r="LH9" s="31"/>
-      <c r="LI9" s="31"/>
-      <c r="LJ9" s="31"/>
-      <c r="LK9" s="31"/>
-      <c r="LL9" s="31"/>
-      <c r="LM9" s="31"/>
-      <c r="LN9" s="31"/>
-      <c r="LO9" s="31"/>
-      <c r="LP9" s="31"/>
-      <c r="LQ9" s="31"/>
+      <c r="JJ9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP9" s="31" t="n">
+        <v>169220468</v>
+      </c>
+      <c r="JQ9" s="31" t="n">
+        <v>169443052</v>
+      </c>
+      <c r="JR9" s="31" t="n">
+        <v>169626786</v>
+      </c>
+      <c r="JS9" s="31" t="n">
+        <v>169972435</v>
+      </c>
+      <c r="JT9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV9" s="31" t="n">
+        <v>170473273</v>
+      </c>
+      <c r="JW9" s="31" t="n">
+        <v>170703459</v>
+      </c>
+      <c r="JX9" s="31" t="n">
+        <v>170724751</v>
+      </c>
+      <c r="JY9" s="31" t="n">
+        <v>170854310</v>
+      </c>
+      <c r="JZ9" s="31" t="n">
+        <v>171099707</v>
+      </c>
+      <c r="KA9" s="31" t="n">
+        <v>171343322</v>
+      </c>
+      <c r="KB9" s="31" t="n">
+        <v>171540091</v>
+      </c>
+      <c r="KC9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD9" s="31" t="n">
+        <v>172013506</v>
+      </c>
+      <c r="KE9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF9" s="31" t="n">
+        <v>172531782</v>
+      </c>
+      <c r="KG9" s="31" t="n">
+        <v>172641438</v>
+      </c>
+      <c r="KH9" s="31" t="n">
+        <v>172777541</v>
+      </c>
+      <c r="KI9" s="31" t="n">
+        <v>172992849</v>
+      </c>
+      <c r="KJ9" s="31" t="n">
+        <v>172966115</v>
+      </c>
+      <c r="KK9" s="31" t="n">
+        <v>173177622</v>
+      </c>
+      <c r="KL9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM9" s="31" t="n">
+        <v>173596898</v>
+      </c>
+      <c r="KN9" s="31" t="n">
+        <v>173835553</v>
+      </c>
+      <c r="KO9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP9" s="31" t="n">
+        <v>174242458</v>
+      </c>
+      <c r="KQ9" s="31" t="n">
+        <v>174426937</v>
+      </c>
+      <c r="KR9" s="31" t="n">
+        <v>174620053</v>
+      </c>
+      <c r="KS9" s="31" t="n">
+        <v>174788696</v>
+      </c>
+      <c r="KT9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU9" s="31" t="n">
+        <v>175223876</v>
+      </c>
+      <c r="KV9" s="31" t="n">
+        <v>175416282</v>
+      </c>
+      <c r="KW9" s="31" t="n">
+        <v>175601970</v>
+      </c>
+      <c r="KX9" s="31" t="n">
+        <v>175804710</v>
+      </c>
+      <c r="KY9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA9" s="31" t="n">
+        <v>176308148</v>
+      </c>
+      <c r="LB9" s="31" t="n">
+        <v>176508148</v>
+      </c>
+      <c r="LC9" s="31" t="n">
+        <v>176682327</v>
+      </c>
+      <c r="LD9" s="31" t="n">
+        <v>176863037</v>
+      </c>
+      <c r="LE9" s="31" t="n">
+        <v>177045789</v>
+      </c>
+      <c r="LF9" s="31" t="n">
+        <v>177227907</v>
+      </c>
+      <c r="LG9" s="31" t="n">
+        <v>177407451</v>
+      </c>
+      <c r="LH9" s="31" t="n">
+        <v>176923738</v>
+      </c>
+      <c r="LI9" s="31" t="n">
+        <v>177109401</v>
+      </c>
+      <c r="LJ9" s="31" t="n">
+        <v>177273230</v>
+      </c>
+      <c r="LK9" s="31" t="n">
+        <v>177461804</v>
+      </c>
+      <c r="LL9" s="31" t="n">
+        <v>177646822</v>
+      </c>
+      <c r="LM9" s="31" t="n">
+        <v>177832472</v>
+      </c>
+      <c r="LN9" s="31" t="n">
+        <v>178004168</v>
+      </c>
+      <c r="LO9" s="31" t="n">
+        <v>178113875</v>
+      </c>
+      <c r="LP9" s="31" t="n">
+        <v>178289217</v>
+      </c>
+      <c r="LQ9" s="31" t="n">
+        <v>178414364</v>
+      </c>
       <c r="LR9" s="31"/>
       <c r="LS9" s="31"/>
       <c r="LT9" s="31"/>
@@ -9134,66 +9974,186 @@
       <c r="JI10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="JJ10" s="34"/>
-      <c r="JK10" s="34"/>
-      <c r="JL10" s="34"/>
-      <c r="JM10" s="34"/>
-      <c r="JN10" s="34"/>
-      <c r="JO10" s="34"/>
-      <c r="JP10" s="34"/>
-      <c r="JQ10" s="34"/>
-      <c r="JR10" s="34"/>
-      <c r="JS10" s="34"/>
-      <c r="JT10" s="34"/>
-      <c r="JU10" s="34"/>
-      <c r="JV10" s="34"/>
-      <c r="JW10" s="34"/>
-      <c r="JX10" s="34"/>
-      <c r="JY10" s="34"/>
-      <c r="JZ10" s="34"/>
-      <c r="KA10" s="34"/>
-      <c r="KB10" s="34"/>
-      <c r="KC10" s="34"/>
-      <c r="KD10" s="34"/>
-      <c r="KE10" s="34"/>
-      <c r="KF10" s="34"/>
-      <c r="KG10" s="34"/>
-      <c r="KH10" s="34"/>
-      <c r="KI10" s="34"/>
-      <c r="KJ10" s="34"/>
-      <c r="KK10" s="34"/>
-      <c r="KL10" s="34"/>
-      <c r="KM10" s="34"/>
-      <c r="KN10" s="34"/>
-      <c r="KO10" s="34"/>
-      <c r="KP10" s="34"/>
-      <c r="KQ10" s="34"/>
-      <c r="KR10" s="34"/>
-      <c r="KS10" s="34"/>
-      <c r="KT10" s="34"/>
-      <c r="KU10" s="34"/>
-      <c r="KV10" s="34"/>
-      <c r="KW10" s="34"/>
-      <c r="KX10" s="34"/>
-      <c r="KY10" s="34"/>
-      <c r="KZ10" s="34"/>
-      <c r="LA10" s="34"/>
-      <c r="LB10" s="34"/>
-      <c r="LC10" s="34"/>
-      <c r="LD10" s="34"/>
-      <c r="LE10" s="34"/>
-      <c r="LF10" s="34"/>
-      <c r="LG10" s="34"/>
-      <c r="LH10" s="34"/>
-      <c r="LI10" s="34"/>
-      <c r="LJ10" s="34"/>
-      <c r="LK10" s="34"/>
-      <c r="LL10" s="34"/>
-      <c r="LM10" s="34"/>
-      <c r="LN10" s="34"/>
-      <c r="LO10" s="34"/>
-      <c r="LP10" s="34"/>
-      <c r="LQ10" s="34"/>
+      <c r="JJ10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="JQ10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="JR10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="JS10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="JT10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="JW10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="JX10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="JY10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="JZ10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KA10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KB10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KC10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KE10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KG10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KH10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KI10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KJ10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KK10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KL10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KN10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KO10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KQ10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KR10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="KS10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KT10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KV10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KW10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KX10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="KY10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="LB10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="LC10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="LD10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="LE10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="LF10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="LG10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="LH10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="LI10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="LJ10" s="34" t="n">
+        <v>198</v>
+      </c>
+      <c r="LK10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="LL10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="LM10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="LN10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="LO10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="LP10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="LQ10" s="34" t="n">
+        <v>199</v>
+      </c>
       <c r="LR10" s="34"/>
       <c r="LS10" s="34"/>
       <c r="LT10" s="34"/>
@@ -10063,66 +11023,186 @@
       <c r="JI11" s="38" t="n">
         <v>139732710</v>
       </c>
-      <c r="JJ11" s="38"/>
-      <c r="JK11" s="38"/>
-      <c r="JL11" s="38"/>
-      <c r="JM11" s="38"/>
-      <c r="JN11" s="38"/>
-      <c r="JO11" s="38"/>
-      <c r="JP11" s="38"/>
-      <c r="JQ11" s="38"/>
-      <c r="JR11" s="38"/>
-      <c r="JS11" s="38"/>
-      <c r="JT11" s="38"/>
-      <c r="JU11" s="38"/>
-      <c r="JV11" s="38"/>
-      <c r="JW11" s="38"/>
-      <c r="JX11" s="38"/>
-      <c r="JY11" s="38"/>
-      <c r="JZ11" s="38"/>
-      <c r="KA11" s="38"/>
-      <c r="KB11" s="38"/>
-      <c r="KC11" s="38"/>
-      <c r="KD11" s="38"/>
-      <c r="KE11" s="38"/>
-      <c r="KF11" s="38"/>
-      <c r="KG11" s="38"/>
-      <c r="KH11" s="38"/>
-      <c r="KI11" s="38"/>
-      <c r="KJ11" s="38"/>
-      <c r="KK11" s="38"/>
-      <c r="KL11" s="38"/>
-      <c r="KM11" s="38"/>
-      <c r="KN11" s="38"/>
-      <c r="KO11" s="38"/>
-      <c r="KP11" s="38"/>
-      <c r="KQ11" s="38"/>
-      <c r="KR11" s="38"/>
-      <c r="KS11" s="38"/>
-      <c r="KT11" s="38"/>
-      <c r="KU11" s="38"/>
-      <c r="KV11" s="38"/>
-      <c r="KW11" s="38"/>
-      <c r="KX11" s="38"/>
-      <c r="KY11" s="38"/>
-      <c r="KZ11" s="38"/>
-      <c r="LA11" s="38"/>
-      <c r="LB11" s="38"/>
-      <c r="LC11" s="38"/>
-      <c r="LD11" s="38"/>
-      <c r="LE11" s="38"/>
-      <c r="LF11" s="38"/>
-      <c r="LG11" s="38"/>
-      <c r="LH11" s="38"/>
-      <c r="LI11" s="38"/>
-      <c r="LJ11" s="38"/>
-      <c r="LK11" s="38"/>
-      <c r="LL11" s="38"/>
-      <c r="LM11" s="38"/>
-      <c r="LN11" s="38"/>
-      <c r="LO11" s="38"/>
-      <c r="LP11" s="38"/>
-      <c r="LQ11" s="38"/>
+      <c r="JJ11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP11" s="38" t="n">
+        <v>140123323</v>
+      </c>
+      <c r="JQ11" s="38" t="n">
+        <v>140280730</v>
+      </c>
+      <c r="JR11" s="38" t="n">
+        <v>139066403</v>
+      </c>
+      <c r="JS11" s="38" t="n">
+        <v>139180733</v>
+      </c>
+      <c r="JT11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV11" s="38" t="n">
+        <v>139470991</v>
+      </c>
+      <c r="JW11" s="38" t="n">
+        <v>139612679</v>
+      </c>
+      <c r="JX11" s="38" t="n">
+        <v>139737375</v>
+      </c>
+      <c r="JY11" s="38" t="n">
+        <v>139837338</v>
+      </c>
+      <c r="JZ11" s="38" t="n">
+        <v>139961223</v>
+      </c>
+      <c r="KA11" s="38" t="n">
+        <v>140109088</v>
+      </c>
+      <c r="KB11" s="38" t="n">
+        <v>140238493</v>
+      </c>
+      <c r="KC11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD11" s="38" t="n">
+        <v>140518593</v>
+      </c>
+      <c r="KE11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF11" s="38" t="n">
+        <v>140724499</v>
+      </c>
+      <c r="KG11" s="38" t="n">
+        <v>140867561</v>
+      </c>
+      <c r="KH11" s="38" t="n">
+        <v>140973441</v>
+      </c>
+      <c r="KI11" s="38" t="n">
+        <v>141101408</v>
+      </c>
+      <c r="KJ11" s="38" t="n">
+        <v>141223083</v>
+      </c>
+      <c r="KK11" s="38" t="n">
+        <v>141328436</v>
+      </c>
+      <c r="KL11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM11" s="38" t="n">
+        <v>141604404</v>
+      </c>
+      <c r="KN11" s="38" t="n">
+        <v>141735096</v>
+      </c>
+      <c r="KO11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP11" s="38" t="n">
+        <v>141732519</v>
+      </c>
+      <c r="KQ11" s="38" t="n">
+        <v>141844826</v>
+      </c>
+      <c r="KR11" s="38" t="n">
+        <v>142027188</v>
+      </c>
+      <c r="KS11" s="38" t="n">
+        <v>142074165</v>
+      </c>
+      <c r="KT11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU11" s="38" t="n">
+        <v>142328199</v>
+      </c>
+      <c r="KV11" s="38" t="n">
+        <v>142438018</v>
+      </c>
+      <c r="KW11" s="38" t="n">
+        <v>142582907</v>
+      </c>
+      <c r="KX11" s="38" t="n">
+        <v>142730532</v>
+      </c>
+      <c r="KY11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA11" s="38" t="n">
+        <v>142960587</v>
+      </c>
+      <c r="LB11" s="38" t="n">
+        <v>143076715</v>
+      </c>
+      <c r="LC11" s="38" t="n">
+        <v>143210347</v>
+      </c>
+      <c r="LD11" s="38" t="n">
+        <v>143364799</v>
+      </c>
+      <c r="LE11" s="38" t="n">
+        <v>143466786</v>
+      </c>
+      <c r="LF11" s="38" t="n">
+        <v>143563287</v>
+      </c>
+      <c r="LG11" s="38" t="n">
+        <v>143681250</v>
+      </c>
+      <c r="LH11" s="38" t="n">
+        <v>143752123</v>
+      </c>
+      <c r="LI11" s="38" t="n">
+        <v>143904426</v>
+      </c>
+      <c r="LJ11" s="38" t="n">
+        <v>143999136</v>
+      </c>
+      <c r="LK11" s="38" t="n">
+        <v>144140964</v>
+      </c>
+      <c r="LL11" s="38" t="n">
+        <v>144222809</v>
+      </c>
+      <c r="LM11" s="38" t="n">
+        <v>144322674</v>
+      </c>
+      <c r="LN11" s="38" t="n">
+        <v>144435441</v>
+      </c>
+      <c r="LO11" s="38" t="n">
+        <v>144521469</v>
+      </c>
+      <c r="LP11" s="38" t="n">
+        <v>144615164</v>
+      </c>
+      <c r="LQ11" s="38" t="n">
+        <v>144699620</v>
+      </c>
       <c r="LR11" s="38"/>
       <c r="LS11" s="38"/>
       <c r="LT11" s="38"/>
@@ -10990,66 +12070,186 @@
       <c r="JI12" s="41" t="n">
         <v>198</v>
       </c>
-      <c r="JJ12" s="41"/>
-      <c r="JK12" s="41"/>
-      <c r="JL12" s="41"/>
-      <c r="JM12" s="41"/>
-      <c r="JN12" s="41"/>
-      <c r="JO12" s="41"/>
-      <c r="JP12" s="41"/>
-      <c r="JQ12" s="41"/>
-      <c r="JR12" s="41"/>
-      <c r="JS12" s="41"/>
-      <c r="JT12" s="41"/>
-      <c r="JU12" s="41"/>
-      <c r="JV12" s="41"/>
-      <c r="JW12" s="41"/>
-      <c r="JX12" s="41"/>
-      <c r="JY12" s="41"/>
-      <c r="JZ12" s="41"/>
-      <c r="KA12" s="41"/>
-      <c r="KB12" s="41"/>
-      <c r="KC12" s="41"/>
-      <c r="KD12" s="41"/>
-      <c r="KE12" s="41"/>
-      <c r="KF12" s="41"/>
-      <c r="KG12" s="41"/>
-      <c r="KH12" s="41"/>
-      <c r="KI12" s="41"/>
-      <c r="KJ12" s="41"/>
-      <c r="KK12" s="41"/>
-      <c r="KL12" s="41"/>
-      <c r="KM12" s="41"/>
-      <c r="KN12" s="41"/>
-      <c r="KO12" s="41"/>
-      <c r="KP12" s="41"/>
-      <c r="KQ12" s="41"/>
-      <c r="KR12" s="41"/>
-      <c r="KS12" s="41"/>
-      <c r="KT12" s="41"/>
-      <c r="KU12" s="41"/>
-      <c r="KV12" s="41"/>
-      <c r="KW12" s="41"/>
-      <c r="KX12" s="41"/>
-      <c r="KY12" s="41"/>
-      <c r="KZ12" s="41"/>
-      <c r="LA12" s="41"/>
-      <c r="LB12" s="41"/>
-      <c r="LC12" s="41"/>
-      <c r="LD12" s="41"/>
-      <c r="LE12" s="41"/>
-      <c r="LF12" s="41"/>
-      <c r="LG12" s="41"/>
-      <c r="LH12" s="41"/>
-      <c r="LI12" s="41"/>
-      <c r="LJ12" s="41"/>
-      <c r="LK12" s="41"/>
-      <c r="LL12" s="41"/>
-      <c r="LM12" s="41"/>
-      <c r="LN12" s="41"/>
-      <c r="LO12" s="41"/>
-      <c r="LP12" s="41"/>
-      <c r="LQ12" s="41"/>
+      <c r="JJ12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP12" s="41" t="n">
+        <v>200</v>
+      </c>
+      <c r="JQ12" s="41" t="n">
+        <v>200</v>
+      </c>
+      <c r="JR12" s="41" t="n">
+        <v>194</v>
+      </c>
+      <c r="JS12" s="41" t="n">
+        <v>194</v>
+      </c>
+      <c r="JT12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="JW12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="JX12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="JY12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="JZ12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="KA12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="KB12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="KC12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="KE12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="KG12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="KH12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="KI12" s="41" t="n">
+        <v>193</v>
+      </c>
+      <c r="KJ12" s="41" t="n">
+        <v>195</v>
+      </c>
+      <c r="KK12" s="41" t="n">
+        <v>195</v>
+      </c>
+      <c r="KL12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM12" s="41" t="n">
+        <v>196</v>
+      </c>
+      <c r="KN12" s="41" t="n">
+        <v>196</v>
+      </c>
+      <c r="KO12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP12" s="41" t="n">
+        <v>196</v>
+      </c>
+      <c r="KQ12" s="41" t="n">
+        <v>196</v>
+      </c>
+      <c r="KR12" s="41" t="n">
+        <v>196</v>
+      </c>
+      <c r="KS12" s="41" t="n">
+        <v>197</v>
+      </c>
+      <c r="KT12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU12" s="41" t="n">
+        <v>197</v>
+      </c>
+      <c r="KV12" s="41" t="n">
+        <v>197</v>
+      </c>
+      <c r="KW12" s="41" t="n">
+        <v>197</v>
+      </c>
+      <c r="KX12" s="41" t="n">
+        <v>197</v>
+      </c>
+      <c r="KY12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA12" s="41" t="n">
+        <v>197</v>
+      </c>
+      <c r="LB12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LC12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LD12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LE12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LF12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LG12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LH12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LI12" s="41" t="n">
+        <v>109</v>
+      </c>
+      <c r="LJ12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LK12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LL12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LM12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LN12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LO12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LP12" s="41" t="n">
+        <v>198</v>
+      </c>
+      <c r="LQ12" s="41" t="n">
+        <v>198</v>
+      </c>
       <c r="LR12" s="41"/>
       <c r="LS12" s="41"/>
       <c r="LT12" s="41"/>
@@ -11919,66 +13119,186 @@
       <c r="JI13" s="45" t="n">
         <v>148687667</v>
       </c>
-      <c r="JJ13" s="45"/>
-      <c r="JK13" s="45"/>
-      <c r="JL13" s="45"/>
-      <c r="JM13" s="45"/>
-      <c r="JN13" s="45"/>
-      <c r="JO13" s="45"/>
-      <c r="JP13" s="45"/>
-      <c r="JQ13" s="45"/>
-      <c r="JR13" s="45"/>
-      <c r="JS13" s="45"/>
-      <c r="JT13" s="45"/>
-      <c r="JU13" s="45"/>
-      <c r="JV13" s="45"/>
-      <c r="JW13" s="45"/>
-      <c r="JX13" s="45"/>
-      <c r="JY13" s="45"/>
-      <c r="JZ13" s="45"/>
-      <c r="KA13" s="45"/>
-      <c r="KB13" s="45"/>
-      <c r="KC13" s="45"/>
-      <c r="KD13" s="45"/>
-      <c r="KE13" s="45"/>
-      <c r="KF13" s="45"/>
-      <c r="KG13" s="45"/>
-      <c r="KH13" s="45"/>
-      <c r="KI13" s="45"/>
-      <c r="KJ13" s="45"/>
-      <c r="KK13" s="45"/>
-      <c r="KL13" s="45"/>
-      <c r="KM13" s="45"/>
-      <c r="KN13" s="45"/>
-      <c r="KO13" s="45"/>
-      <c r="KP13" s="45"/>
-      <c r="KQ13" s="45"/>
-      <c r="KR13" s="45"/>
-      <c r="KS13" s="45"/>
-      <c r="KT13" s="45"/>
-      <c r="KU13" s="45"/>
-      <c r="KV13" s="45"/>
-      <c r="KW13" s="45"/>
-      <c r="KX13" s="45"/>
-      <c r="KY13" s="45"/>
-      <c r="KZ13" s="45"/>
-      <c r="LA13" s="45"/>
-      <c r="LB13" s="45"/>
-      <c r="LC13" s="45"/>
-      <c r="LD13" s="45"/>
-      <c r="LE13" s="45"/>
-      <c r="LF13" s="45"/>
-      <c r="LG13" s="45"/>
-      <c r="LH13" s="45"/>
-      <c r="LI13" s="45"/>
-      <c r="LJ13" s="45"/>
-      <c r="LK13" s="45"/>
-      <c r="LL13" s="45"/>
-      <c r="LM13" s="45"/>
-      <c r="LN13" s="45"/>
-      <c r="LO13" s="45"/>
-      <c r="LP13" s="45"/>
-      <c r="LQ13" s="45"/>
+      <c r="JJ13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP13" s="45" t="n">
+        <v>150199141</v>
+      </c>
+      <c r="JQ13" s="45" t="n">
+        <v>150435493</v>
+      </c>
+      <c r="JR13" s="45" t="n">
+        <v>150661774</v>
+      </c>
+      <c r="JS13" s="45" t="n">
+        <v>150944533</v>
+      </c>
+      <c r="JT13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV13" s="45" t="n">
+        <v>151654396</v>
+      </c>
+      <c r="JW13" s="45" t="n">
+        <v>151883904</v>
+      </c>
+      <c r="JX13" s="45" t="n">
+        <v>152121491</v>
+      </c>
+      <c r="JY13" s="45" t="n">
+        <v>152372380</v>
+      </c>
+      <c r="JZ13" s="45" t="n">
+        <v>152602260</v>
+      </c>
+      <c r="KA13" s="45" t="n">
+        <v>152883701</v>
+      </c>
+      <c r="KB13" s="45" t="n">
+        <v>153137789</v>
+      </c>
+      <c r="KC13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD13" s="45" t="n">
+        <v>153584881</v>
+      </c>
+      <c r="KE13" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF13" s="45" t="n">
+        <v>154068019</v>
+      </c>
+      <c r="KG13" s="45" t="n">
+        <v>154312786</v>
+      </c>
+      <c r="KH13" s="45" t="n">
+        <v>154476643</v>
+      </c>
+      <c r="KI13" s="45" t="n">
+        <v>154658443</v>
+      </c>
+      <c r="KJ13" s="45" t="n">
+        <v>154946846</v>
+      </c>
+      <c r="KK13" s="45" t="n">
+        <v>155033032</v>
+      </c>
+      <c r="KL13" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM13" s="45" t="n">
+        <v>155628942</v>
+      </c>
+      <c r="KN13" s="45" t="n">
+        <v>155899509</v>
+      </c>
+      <c r="KO13" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP13" s="45" t="n">
+        <v>156382695</v>
+      </c>
+      <c r="KQ13" s="45" t="n">
+        <v>156660054</v>
+      </c>
+      <c r="KR13" s="45" t="n">
+        <v>156984396</v>
+      </c>
+      <c r="KS13" s="45" t="n">
+        <v>157064807</v>
+      </c>
+      <c r="KT13" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU13" s="45" t="n">
+        <v>157625054</v>
+      </c>
+      <c r="KV13" s="45" t="n">
+        <v>157914515</v>
+      </c>
+      <c r="KW13" s="45" t="n">
+        <v>158190611</v>
+      </c>
+      <c r="KX13" s="45" t="n">
+        <v>158423700</v>
+      </c>
+      <c r="KY13" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ13" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA13" s="45" t="n">
+        <v>159305805</v>
+      </c>
+      <c r="LB13" s="45" t="n">
+        <v>159573453</v>
+      </c>
+      <c r="LC13" s="45" t="n">
+        <v>159872841</v>
+      </c>
+      <c r="LD13" s="45" t="n">
+        <v>160148098</v>
+      </c>
+      <c r="LE13" s="45" t="n">
+        <v>160444186</v>
+      </c>
+      <c r="LF13" s="45" t="n">
+        <v>160748504</v>
+      </c>
+      <c r="LG13" s="45" t="n">
+        <v>161032174</v>
+      </c>
+      <c r="LH13" s="45" t="n">
+        <v>161307512</v>
+      </c>
+      <c r="LI13" s="45" t="n">
+        <v>161476296</v>
+      </c>
+      <c r="LJ13" s="45" t="n">
+        <v>161735443</v>
+      </c>
+      <c r="LK13" s="45" t="n">
+        <v>162007795</v>
+      </c>
+      <c r="LL13" s="45" t="n">
+        <v>162061356</v>
+      </c>
+      <c r="LM13" s="45" t="n">
+        <v>162369718</v>
+      </c>
+      <c r="LN13" s="45" t="n">
+        <v>162668437</v>
+      </c>
+      <c r="LO13" s="45" t="n">
+        <v>162951475</v>
+      </c>
+      <c r="LP13" s="45" t="n">
+        <v>163223218</v>
+      </c>
+      <c r="LQ13" s="45" t="n">
+        <v>163528449</v>
+      </c>
       <c r="LR13" s="45"/>
       <c r="LS13" s="45"/>
       <c r="LT13" s="45"/>
@@ -12846,66 +14166,186 @@
       <c r="JI14" s="48" t="n">
         <v>199</v>
       </c>
-      <c r="JJ14" s="48"/>
-      <c r="JK14" s="48"/>
-      <c r="JL14" s="48"/>
-      <c r="JM14" s="48"/>
-      <c r="JN14" s="48"/>
-      <c r="JO14" s="48"/>
-      <c r="JP14" s="48"/>
-      <c r="JQ14" s="48"/>
-      <c r="JR14" s="48"/>
-      <c r="JS14" s="48"/>
-      <c r="JT14" s="48"/>
-      <c r="JU14" s="48"/>
-      <c r="JV14" s="48"/>
-      <c r="JW14" s="48"/>
-      <c r="JX14" s="48"/>
-      <c r="JY14" s="48"/>
-      <c r="JZ14" s="48"/>
-      <c r="KA14" s="48"/>
-      <c r="KB14" s="48"/>
-      <c r="KC14" s="48"/>
-      <c r="KD14" s="48"/>
-      <c r="KE14" s="48"/>
-      <c r="KF14" s="48"/>
-      <c r="KG14" s="48"/>
-      <c r="KH14" s="48"/>
-      <c r="KI14" s="48"/>
-      <c r="KJ14" s="48"/>
-      <c r="KK14" s="48"/>
-      <c r="KL14" s="48"/>
-      <c r="KM14" s="48"/>
-      <c r="KN14" s="48"/>
-      <c r="KO14" s="48"/>
-      <c r="KP14" s="48"/>
-      <c r="KQ14" s="48"/>
-      <c r="KR14" s="48"/>
-      <c r="KS14" s="48"/>
-      <c r="KT14" s="48"/>
-      <c r="KU14" s="48"/>
-      <c r="KV14" s="48"/>
-      <c r="KW14" s="48"/>
-      <c r="KX14" s="48"/>
-      <c r="KY14" s="48"/>
-      <c r="KZ14" s="48"/>
-      <c r="LA14" s="48"/>
-      <c r="LB14" s="48"/>
-      <c r="LC14" s="48"/>
-      <c r="LD14" s="48"/>
-      <c r="LE14" s="48"/>
-      <c r="LF14" s="48"/>
-      <c r="LG14" s="48"/>
-      <c r="LH14" s="48"/>
-      <c r="LI14" s="48"/>
-      <c r="LJ14" s="48"/>
-      <c r="LK14" s="48"/>
-      <c r="LL14" s="48"/>
-      <c r="LM14" s="48"/>
-      <c r="LN14" s="48"/>
-      <c r="LO14" s="48"/>
-      <c r="LP14" s="48"/>
-      <c r="LQ14" s="48"/>
+      <c r="JJ14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="JQ14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="JR14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="JS14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="JT14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="JW14" s="48" t="n">
+        <v>198</v>
+      </c>
+      <c r="JX14" s="48" t="n">
+        <v>198</v>
+      </c>
+      <c r="JY14" s="48" t="n">
+        <v>198</v>
+      </c>
+      <c r="JZ14" s="48" t="n">
+        <v>198</v>
+      </c>
+      <c r="KA14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KB14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KC14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KE14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KG14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KH14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KI14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KJ14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KK14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KL14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KN14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KO14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KQ14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KR14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KS14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KT14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KV14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KW14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="KX14" s="48" t="n">
+        <v>198</v>
+      </c>
+      <c r="KY14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LB14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LC14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LD14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LE14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LF14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LG14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LH14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LI14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LJ14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LK14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LL14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LM14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LN14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LO14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LP14" s="48" t="n">
+        <v>199</v>
+      </c>
+      <c r="LQ14" s="48" t="n">
+        <v>199</v>
+      </c>
       <c r="LR14" s="48"/>
       <c r="LS14" s="48"/>
       <c r="LT14" s="48"/>
@@ -13775,66 +15215,186 @@
       <c r="JI15" s="52" t="n">
         <v>128020200</v>
       </c>
-      <c r="JJ15" s="52"/>
-      <c r="JK15" s="52"/>
-      <c r="JL15" s="52"/>
-      <c r="JM15" s="52"/>
-      <c r="JN15" s="52"/>
-      <c r="JO15" s="52"/>
-      <c r="JP15" s="52"/>
-      <c r="JQ15" s="52"/>
-      <c r="JR15" s="52"/>
-      <c r="JS15" s="52"/>
-      <c r="JT15" s="52"/>
-      <c r="JU15" s="52"/>
-      <c r="JV15" s="52"/>
-      <c r="JW15" s="52"/>
-      <c r="JX15" s="52"/>
-      <c r="JY15" s="52"/>
-      <c r="JZ15" s="52"/>
-      <c r="KA15" s="52"/>
-      <c r="KB15" s="52"/>
-      <c r="KC15" s="52"/>
-      <c r="KD15" s="52"/>
-      <c r="KE15" s="52"/>
-      <c r="KF15" s="52"/>
-      <c r="KG15" s="52"/>
-      <c r="KH15" s="52"/>
-      <c r="KI15" s="52"/>
-      <c r="KJ15" s="52"/>
-      <c r="KK15" s="52"/>
-      <c r="KL15" s="52"/>
-      <c r="KM15" s="52"/>
-      <c r="KN15" s="52"/>
-      <c r="KO15" s="52"/>
-      <c r="KP15" s="52"/>
-      <c r="KQ15" s="52"/>
-      <c r="KR15" s="52"/>
-      <c r="KS15" s="52"/>
-      <c r="KT15" s="52"/>
-      <c r="KU15" s="52"/>
-      <c r="KV15" s="52"/>
-      <c r="KW15" s="52"/>
-      <c r="KX15" s="52"/>
-      <c r="KY15" s="52"/>
-      <c r="KZ15" s="52"/>
-      <c r="LA15" s="52"/>
-      <c r="LB15" s="52"/>
-      <c r="LC15" s="52"/>
-      <c r="LD15" s="52"/>
-      <c r="LE15" s="52"/>
-      <c r="LF15" s="52"/>
-      <c r="LG15" s="52"/>
-      <c r="LH15" s="52"/>
-      <c r="LI15" s="52"/>
-      <c r="LJ15" s="52"/>
-      <c r="LK15" s="52"/>
-      <c r="LL15" s="52"/>
-      <c r="LM15" s="52"/>
-      <c r="LN15" s="52"/>
-      <c r="LO15" s="52"/>
-      <c r="LP15" s="52"/>
-      <c r="LQ15" s="52"/>
+      <c r="JJ15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP15" s="52" t="n">
+        <v>128635800</v>
+      </c>
+      <c r="JQ15" s="52" t="n">
+        <v>128685071</v>
+      </c>
+      <c r="JR15" s="52" t="n">
+        <v>128780308</v>
+      </c>
+      <c r="JS15" s="52" t="n">
+        <v>128916651</v>
+      </c>
+      <c r="JT15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV15" s="52" t="n">
+        <v>129175189</v>
+      </c>
+      <c r="JW15" s="52" t="n">
+        <v>129253479</v>
+      </c>
+      <c r="JX15" s="52" t="n">
+        <v>129250662</v>
+      </c>
+      <c r="JY15" s="52" t="n">
+        <v>129297348</v>
+      </c>
+      <c r="JZ15" s="52" t="n">
+        <v>129402132</v>
+      </c>
+      <c r="KA15" s="52" t="n">
+        <v>129526218</v>
+      </c>
+      <c r="KB15" s="52" t="n">
+        <v>129627867</v>
+      </c>
+      <c r="KC15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD15" s="52" t="n">
+        <v>129829969</v>
+      </c>
+      <c r="KE15" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF15" s="52" t="n">
+        <v>129960404</v>
+      </c>
+      <c r="KG15" s="52" t="n">
+        <v>130061988</v>
+      </c>
+      <c r="KH15" s="52" t="n">
+        <v>130134180</v>
+      </c>
+      <c r="KI15" s="52" t="n">
+        <v>130277047</v>
+      </c>
+      <c r="KJ15" s="52" t="n">
+        <v>130398161</v>
+      </c>
+      <c r="KK15" s="52" t="n">
+        <v>130533575</v>
+      </c>
+      <c r="KL15" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM15" s="52" t="n">
+        <v>130771450</v>
+      </c>
+      <c r="KN15" s="52" t="n">
+        <v>130107270</v>
+      </c>
+      <c r="KO15" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP15" s="52" t="n">
+        <v>130429717</v>
+      </c>
+      <c r="KQ15" s="52" t="n">
+        <v>130534087</v>
+      </c>
+      <c r="KR15" s="52" t="n">
+        <v>130644076</v>
+      </c>
+      <c r="KS15" s="52" t="n">
+        <v>130775758</v>
+      </c>
+      <c r="KT15" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU15" s="52" t="n">
+        <v>131059428</v>
+      </c>
+      <c r="KV15" s="52" t="n">
+        <v>131198907</v>
+      </c>
+      <c r="KW15" s="52" t="n">
+        <v>131340205</v>
+      </c>
+      <c r="KX15" s="52" t="n">
+        <v>131111758</v>
+      </c>
+      <c r="KY15" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ15" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA15" s="52" t="n">
+        <v>131600776</v>
+      </c>
+      <c r="LB15" s="52" t="n">
+        <v>131767659</v>
+      </c>
+      <c r="LC15" s="52" t="n">
+        <v>131894746</v>
+      </c>
+      <c r="LD15" s="52" t="n">
+        <v>132068050</v>
+      </c>
+      <c r="LE15" s="52" t="n">
+        <v>132230749</v>
+      </c>
+      <c r="LF15" s="52" t="n">
+        <v>132320809</v>
+      </c>
+      <c r="LG15" s="52" t="n">
+        <v>131552520</v>
+      </c>
+      <c r="LH15" s="52" t="n">
+        <v>131716817</v>
+      </c>
+      <c r="LI15" s="52" t="n">
+        <v>131875211</v>
+      </c>
+      <c r="LJ15" s="52" t="n">
+        <v>131951152</v>
+      </c>
+      <c r="LK15" s="52" t="n">
+        <v>132110849</v>
+      </c>
+      <c r="LL15" s="52" t="n">
+        <v>132233902</v>
+      </c>
+      <c r="LM15" s="52" t="n">
+        <v>132370451</v>
+      </c>
+      <c r="LN15" s="52" t="n">
+        <v>132507721</v>
+      </c>
+      <c r="LO15" s="52" t="n">
+        <v>132611787</v>
+      </c>
+      <c r="LP15" s="52" t="n">
+        <v>132721249</v>
+      </c>
+      <c r="LQ15" s="52" t="n">
+        <v>132861180</v>
+      </c>
       <c r="LR15" s="52"/>
       <c r="LS15" s="52"/>
       <c r="LT15" s="52"/>
@@ -14702,66 +16262,186 @@
       <c r="JI16" s="55" t="n">
         <v>192</v>
       </c>
-      <c r="JJ16" s="55"/>
-      <c r="JK16" s="55"/>
-      <c r="JL16" s="55"/>
-      <c r="JM16" s="55"/>
-      <c r="JN16" s="55"/>
-      <c r="JO16" s="55"/>
-      <c r="JP16" s="55"/>
-      <c r="JQ16" s="55"/>
-      <c r="JR16" s="55"/>
-      <c r="JS16" s="55"/>
-      <c r="JT16" s="55"/>
-      <c r="JU16" s="55"/>
-      <c r="JV16" s="55"/>
-      <c r="JW16" s="55"/>
-      <c r="JX16" s="55"/>
-      <c r="JY16" s="55"/>
-      <c r="JZ16" s="55"/>
-      <c r="KA16" s="55"/>
-      <c r="KB16" s="55"/>
-      <c r="KC16" s="55"/>
-      <c r="KD16" s="55"/>
-      <c r="KE16" s="55"/>
-      <c r="KF16" s="55"/>
-      <c r="KG16" s="55"/>
-      <c r="KH16" s="55"/>
-      <c r="KI16" s="55"/>
-      <c r="KJ16" s="55"/>
-      <c r="KK16" s="55"/>
-      <c r="KL16" s="55"/>
-      <c r="KM16" s="55"/>
-      <c r="KN16" s="55"/>
-      <c r="KO16" s="55"/>
-      <c r="KP16" s="55"/>
-      <c r="KQ16" s="55"/>
-      <c r="KR16" s="55"/>
-      <c r="KS16" s="55"/>
-      <c r="KT16" s="55"/>
-      <c r="KU16" s="55"/>
-      <c r="KV16" s="55"/>
-      <c r="KW16" s="55"/>
-      <c r="KX16" s="55"/>
-      <c r="KY16" s="55"/>
-      <c r="KZ16" s="55"/>
-      <c r="LA16" s="55"/>
-      <c r="LB16" s="55"/>
-      <c r="LC16" s="55"/>
-      <c r="LD16" s="55"/>
-      <c r="LE16" s="55"/>
-      <c r="LF16" s="55"/>
-      <c r="LG16" s="55"/>
-      <c r="LH16" s="55"/>
-      <c r="LI16" s="55"/>
-      <c r="LJ16" s="55"/>
-      <c r="LK16" s="55"/>
-      <c r="LL16" s="55"/>
-      <c r="LM16" s="55"/>
-      <c r="LN16" s="55"/>
-      <c r="LO16" s="55"/>
-      <c r="LP16" s="55"/>
-      <c r="LQ16" s="55"/>
+      <c r="JJ16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP16" s="55" t="n">
+        <v>194</v>
+      </c>
+      <c r="JQ16" s="55" t="n">
+        <v>196</v>
+      </c>
+      <c r="JR16" s="55" t="n">
+        <v>197</v>
+      </c>
+      <c r="JS16" s="55" t="n">
+        <v>197</v>
+      </c>
+      <c r="JT16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV16" s="55" t="n">
+        <v>199</v>
+      </c>
+      <c r="JW16" s="55" t="n">
+        <v>198</v>
+      </c>
+      <c r="JX16" s="55" t="n">
+        <v>199</v>
+      </c>
+      <c r="JY16" s="55" t="n">
+        <v>199</v>
+      </c>
+      <c r="JZ16" s="55" t="n">
+        <v>194</v>
+      </c>
+      <c r="KA16" s="55" t="n">
+        <v>194</v>
+      </c>
+      <c r="KB16" s="55" t="n">
+        <v>195</v>
+      </c>
+      <c r="KC16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD16" s="55" t="n">
+        <v>197</v>
+      </c>
+      <c r="KE16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF16" s="55" t="n">
+        <v>198</v>
+      </c>
+      <c r="KG16" s="55" t="n">
+        <v>199</v>
+      </c>
+      <c r="KH16" s="55" t="n">
+        <v>200</v>
+      </c>
+      <c r="KI16" s="55" t="n">
+        <v>200</v>
+      </c>
+      <c r="KJ16" s="55" t="n">
+        <v>200</v>
+      </c>
+      <c r="KK16" s="55" t="n">
+        <v>199</v>
+      </c>
+      <c r="KL16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM16" s="55" t="n">
+        <v>199</v>
+      </c>
+      <c r="KN16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="KO16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP16" s="55" t="n">
+        <v>188</v>
+      </c>
+      <c r="KQ16" s="55" t="n">
+        <v>188</v>
+      </c>
+      <c r="KR16" s="55" t="n">
+        <v>188</v>
+      </c>
+      <c r="KS16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="KT16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU16" s="55" t="n">
+        <v>192</v>
+      </c>
+      <c r="KV16" s="55" t="n">
+        <v>192</v>
+      </c>
+      <c r="KW16" s="55" t="n">
+        <v>193</v>
+      </c>
+      <c r="KX16" s="55" t="n">
+        <v>194</v>
+      </c>
+      <c r="KY16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA16" s="55" t="n">
+        <v>193</v>
+      </c>
+      <c r="LB16" s="55" t="n">
+        <v>193</v>
+      </c>
+      <c r="LC16" s="55" t="n">
+        <v>193</v>
+      </c>
+      <c r="LD16" s="55" t="n">
+        <v>193</v>
+      </c>
+      <c r="LE16" s="55" t="n">
+        <v>198</v>
+      </c>
+      <c r="LF16" s="55" t="n">
+        <v>198</v>
+      </c>
+      <c r="LG16" s="55" t="n">
+        <v>188</v>
+      </c>
+      <c r="LH16" s="55" t="n">
+        <v>188</v>
+      </c>
+      <c r="LI16" s="55" t="n">
+        <v>188</v>
+      </c>
+      <c r="LJ16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="LK16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="LL16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="LM16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="LN16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="LO16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="LP16" s="55" t="n">
+        <v>191</v>
+      </c>
+      <c r="LQ16" s="55" t="n">
+        <v>191</v>
+      </c>
       <c r="LR16" s="55"/>
       <c r="LS16" s="55"/>
       <c r="LT16" s="55"/>
@@ -15631,66 +17311,186 @@
       <c r="JI17" s="59" t="n">
         <v>95998630</v>
       </c>
-      <c r="JJ17" s="59"/>
-      <c r="JK17" s="59"/>
-      <c r="JL17" s="59"/>
-      <c r="JM17" s="59"/>
-      <c r="JN17" s="59"/>
-      <c r="JO17" s="59"/>
-      <c r="JP17" s="59"/>
-      <c r="JQ17" s="59"/>
-      <c r="JR17" s="59"/>
-      <c r="JS17" s="59"/>
-      <c r="JT17" s="59"/>
-      <c r="JU17" s="59"/>
-      <c r="JV17" s="59"/>
-      <c r="JW17" s="59"/>
-      <c r="JX17" s="59"/>
-      <c r="JY17" s="59"/>
-      <c r="JZ17" s="59"/>
-      <c r="KA17" s="59"/>
-      <c r="KB17" s="59"/>
-      <c r="KC17" s="59"/>
-      <c r="KD17" s="59"/>
-      <c r="KE17" s="59"/>
-      <c r="KF17" s="59"/>
-      <c r="KG17" s="59"/>
-      <c r="KH17" s="59"/>
-      <c r="KI17" s="59"/>
-      <c r="KJ17" s="59"/>
-      <c r="KK17" s="59"/>
-      <c r="KL17" s="59"/>
-      <c r="KM17" s="59"/>
-      <c r="KN17" s="59"/>
-      <c r="KO17" s="59"/>
-      <c r="KP17" s="59"/>
-      <c r="KQ17" s="59"/>
-      <c r="KR17" s="59"/>
-      <c r="KS17" s="59"/>
-      <c r="KT17" s="59"/>
-      <c r="KU17" s="59"/>
-      <c r="KV17" s="59"/>
-      <c r="KW17" s="59"/>
-      <c r="KX17" s="59"/>
-      <c r="KY17" s="59"/>
-      <c r="KZ17" s="59"/>
-      <c r="LA17" s="59"/>
-      <c r="LB17" s="59"/>
-      <c r="LC17" s="59"/>
-      <c r="LD17" s="59"/>
-      <c r="LE17" s="59"/>
-      <c r="LF17" s="59"/>
-      <c r="LG17" s="59"/>
-      <c r="LH17" s="59"/>
-      <c r="LI17" s="59"/>
-      <c r="LJ17" s="59"/>
-      <c r="LK17" s="59"/>
-      <c r="LL17" s="59"/>
-      <c r="LM17" s="59"/>
-      <c r="LN17" s="59"/>
-      <c r="LO17" s="59"/>
-      <c r="LP17" s="59"/>
-      <c r="LQ17" s="59"/>
+      <c r="JJ17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP17" s="59" t="n">
+        <v>96348648</v>
+      </c>
+      <c r="JQ17" s="59" t="n">
+        <v>96416925</v>
+      </c>
+      <c r="JR17" s="59" t="n">
+        <v>96439668</v>
+      </c>
+      <c r="JS17" s="59" t="n">
+        <v>96469003</v>
+      </c>
+      <c r="JT17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV17" s="59" t="n">
+        <v>96620738</v>
+      </c>
+      <c r="JW17" s="59" t="n">
+        <v>96679691</v>
+      </c>
+      <c r="JX17" s="59" t="n">
+        <v>96729882</v>
+      </c>
+      <c r="JY17" s="59" t="n">
+        <v>96321162</v>
+      </c>
+      <c r="JZ17" s="59" t="n">
+        <v>96400115</v>
+      </c>
+      <c r="KA17" s="59" t="n">
+        <v>96472492</v>
+      </c>
+      <c r="KB17" s="59" t="n">
+        <v>96535997</v>
+      </c>
+      <c r="KC17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD17" s="59" t="n">
+        <v>96710316</v>
+      </c>
+      <c r="KE17" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF17" s="59" t="n">
+        <v>96916601</v>
+      </c>
+      <c r="KG17" s="59" t="n">
+        <v>97007465</v>
+      </c>
+      <c r="KH17" s="59" t="n">
+        <v>97146424</v>
+      </c>
+      <c r="KI17" s="59" t="n">
+        <v>97252300</v>
+      </c>
+      <c r="KJ17" s="59" t="n">
+        <v>97418938</v>
+      </c>
+      <c r="KK17" s="59" t="n">
+        <v>97566301</v>
+      </c>
+      <c r="KL17" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM17" s="59" t="n">
+        <v>97794053</v>
+      </c>
+      <c r="KN17" s="59" t="n">
+        <v>97916866</v>
+      </c>
+      <c r="KO17" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP17" s="59" t="n">
+        <v>98184968</v>
+      </c>
+      <c r="KQ17" s="59" t="n">
+        <v>98308894</v>
+      </c>
+      <c r="KR17" s="59" t="n">
+        <v>98422607</v>
+      </c>
+      <c r="KS17" s="59" t="n">
+        <v>98543354</v>
+      </c>
+      <c r="KT17" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU17" s="59" t="n">
+        <v>98652178</v>
+      </c>
+      <c r="KV17" s="59" t="n">
+        <v>98750397</v>
+      </c>
+      <c r="KW17" s="59" t="n">
+        <v>98873627</v>
+      </c>
+      <c r="KX17" s="59" t="n">
+        <v>98958157</v>
+      </c>
+      <c r="KY17" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ17" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA17" s="59" t="n">
+        <v>99245074</v>
+      </c>
+      <c r="LB17" s="59" t="n">
+        <v>99330862</v>
+      </c>
+      <c r="LC17" s="59" t="n">
+        <v>99438082</v>
+      </c>
+      <c r="LD17" s="59" t="n">
+        <v>99524787</v>
+      </c>
+      <c r="LE17" s="59" t="n">
+        <v>99601766</v>
+      </c>
+      <c r="LF17" s="59" t="n">
+        <v>99691885</v>
+      </c>
+      <c r="LG17" s="59" t="n">
+        <v>99789112</v>
+      </c>
+      <c r="LH17" s="59" t="n">
+        <v>99903965</v>
+      </c>
+      <c r="LI17" s="59" t="n">
+        <v>100062834</v>
+      </c>
+      <c r="LJ17" s="59" t="n">
+        <v>100166497</v>
+      </c>
+      <c r="LK17" s="59" t="n">
+        <v>100310581</v>
+      </c>
+      <c r="LL17" s="59" t="n">
+        <v>100431045</v>
+      </c>
+      <c r="LM17" s="59" t="n">
+        <v>100575449</v>
+      </c>
+      <c r="LN17" s="59" t="n">
+        <v>100710365</v>
+      </c>
+      <c r="LO17" s="59" t="n">
+        <v>100844697</v>
+      </c>
+      <c r="LP17" s="59" t="n">
+        <v>100958145</v>
+      </c>
+      <c r="LQ17" s="59" t="n">
+        <v>101089372</v>
+      </c>
       <c r="LR17" s="59"/>
       <c r="LS17" s="59"/>
       <c r="LT17" s="59"/>
@@ -16558,66 +18358,186 @@
       <c r="JI18" s="62" t="n">
         <v>181</v>
       </c>
-      <c r="JJ18" s="62"/>
-      <c r="JK18" s="62"/>
-      <c r="JL18" s="62"/>
-      <c r="JM18" s="62"/>
-      <c r="JN18" s="62"/>
-      <c r="JO18" s="62"/>
-      <c r="JP18" s="62"/>
-      <c r="JQ18" s="62"/>
-      <c r="JR18" s="62"/>
-      <c r="JS18" s="62"/>
-      <c r="JT18" s="62"/>
-      <c r="JU18" s="62"/>
-      <c r="JV18" s="62"/>
-      <c r="JW18" s="62"/>
-      <c r="JX18" s="62"/>
-      <c r="JY18" s="62"/>
-      <c r="JZ18" s="62"/>
-      <c r="KA18" s="62"/>
-      <c r="KB18" s="62"/>
-      <c r="KC18" s="62"/>
-      <c r="KD18" s="62"/>
-      <c r="KE18" s="62"/>
-      <c r="KF18" s="62"/>
-      <c r="KG18" s="62"/>
-      <c r="KH18" s="62"/>
-      <c r="KI18" s="62"/>
-      <c r="KJ18" s="62"/>
-      <c r="KK18" s="62"/>
-      <c r="KL18" s="62"/>
-      <c r="KM18" s="62"/>
-      <c r="KN18" s="62"/>
-      <c r="KO18" s="62"/>
-      <c r="KP18" s="62"/>
-      <c r="KQ18" s="62"/>
-      <c r="KR18" s="62"/>
-      <c r="KS18" s="62"/>
-      <c r="KT18" s="62"/>
-      <c r="KU18" s="62"/>
-      <c r="KV18" s="62"/>
-      <c r="KW18" s="62"/>
-      <c r="KX18" s="62"/>
-      <c r="KY18" s="62"/>
-      <c r="KZ18" s="62"/>
-      <c r="LA18" s="62"/>
-      <c r="LB18" s="62"/>
-      <c r="LC18" s="62"/>
-      <c r="LD18" s="62"/>
-      <c r="LE18" s="62"/>
-      <c r="LF18" s="62"/>
-      <c r="LG18" s="62"/>
-      <c r="LH18" s="62"/>
-      <c r="LI18" s="62"/>
-      <c r="LJ18" s="62"/>
-      <c r="LK18" s="62"/>
-      <c r="LL18" s="62"/>
-      <c r="LM18" s="62"/>
-      <c r="LN18" s="62"/>
-      <c r="LO18" s="62"/>
-      <c r="LP18" s="62"/>
-      <c r="LQ18" s="62"/>
+      <c r="JJ18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP18" s="62" t="n">
+        <v>182</v>
+      </c>
+      <c r="JQ18" s="62" t="n">
+        <v>182</v>
+      </c>
+      <c r="JR18" s="62" t="n">
+        <v>182</v>
+      </c>
+      <c r="JS18" s="62" t="n">
+        <v>182</v>
+      </c>
+      <c r="JT18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV18" s="62" t="n">
+        <v>183</v>
+      </c>
+      <c r="JW18" s="62" t="n">
+        <v>182</v>
+      </c>
+      <c r="JX18" s="62" t="n">
+        <v>184</v>
+      </c>
+      <c r="JY18" s="62" t="n">
+        <v>183</v>
+      </c>
+      <c r="JZ18" s="62" t="n">
+        <v>183</v>
+      </c>
+      <c r="KA18" s="62" t="n">
+        <v>183</v>
+      </c>
+      <c r="KB18" s="62" t="n">
+        <v>183</v>
+      </c>
+      <c r="KC18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD18" s="62" t="n">
+        <v>186</v>
+      </c>
+      <c r="KE18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF18" s="62" t="n">
+        <v>190</v>
+      </c>
+      <c r="KG18" s="62" t="n">
+        <v>191</v>
+      </c>
+      <c r="KH18" s="62" t="n">
+        <v>196</v>
+      </c>
+      <c r="KI18" s="62" t="n">
+        <v>196</v>
+      </c>
+      <c r="KJ18" s="62" t="n">
+        <v>196</v>
+      </c>
+      <c r="KK18" s="62" t="n">
+        <v>196</v>
+      </c>
+      <c r="KL18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM18" s="62" t="n">
+        <v>197</v>
+      </c>
+      <c r="KN18" s="62" t="n">
+        <v>197</v>
+      </c>
+      <c r="KO18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP18" s="62" t="n">
+        <v>197</v>
+      </c>
+      <c r="KQ18" s="62" t="n">
+        <v>197</v>
+      </c>
+      <c r="KR18" s="62" t="n">
+        <v>197</v>
+      </c>
+      <c r="KS18" s="62" t="n">
+        <v>197</v>
+      </c>
+      <c r="KT18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU18" s="62" t="n">
+        <v>196</v>
+      </c>
+      <c r="KV18" s="62" t="n">
+        <v>196</v>
+      </c>
+      <c r="KW18" s="62" t="n">
+        <v>197</v>
+      </c>
+      <c r="KX18" s="62" t="n">
+        <v>197</v>
+      </c>
+      <c r="KY18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LB18" s="62" t="n">
+        <v>200</v>
+      </c>
+      <c r="LC18" s="62" t="n">
+        <v>200</v>
+      </c>
+      <c r="LD18" s="62" t="n">
+        <v>200</v>
+      </c>
+      <c r="LE18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LF18" s="62" t="n">
+        <v>200</v>
+      </c>
+      <c r="LG18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LH18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LI18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LJ18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LK18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LL18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LM18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="LN18" s="62" t="n">
+        <v>200</v>
+      </c>
+      <c r="LO18" s="62" t="n">
+        <v>200</v>
+      </c>
+      <c r="LP18" s="62" t="n">
+        <v>200</v>
+      </c>
+      <c r="LQ18" s="62" t="n">
+        <v>200</v>
+      </c>
       <c r="LR18" s="62"/>
       <c r="LS18" s="62"/>
       <c r="LT18" s="62"/>
@@ -17487,66 +19407,186 @@
       <c r="JI19" s="66" t="n">
         <v>94432838</v>
       </c>
-      <c r="JJ19" s="66"/>
-      <c r="JK19" s="66"/>
-      <c r="JL19" s="66"/>
-      <c r="JM19" s="66"/>
-      <c r="JN19" s="66"/>
-      <c r="JO19" s="66"/>
-      <c r="JP19" s="66"/>
-      <c r="JQ19" s="66"/>
-      <c r="JR19" s="66"/>
-      <c r="JS19" s="66"/>
-      <c r="JT19" s="66"/>
-      <c r="JU19" s="66"/>
-      <c r="JV19" s="66"/>
-      <c r="JW19" s="66"/>
-      <c r="JX19" s="66"/>
-      <c r="JY19" s="66"/>
-      <c r="JZ19" s="66"/>
-      <c r="KA19" s="66"/>
-      <c r="KB19" s="66"/>
-      <c r="KC19" s="66"/>
-      <c r="KD19" s="66"/>
-      <c r="KE19" s="66"/>
-      <c r="KF19" s="66"/>
-      <c r="KG19" s="66"/>
-      <c r="KH19" s="66"/>
-      <c r="KI19" s="66"/>
-      <c r="KJ19" s="66"/>
-      <c r="KK19" s="66"/>
-      <c r="KL19" s="66"/>
-      <c r="KM19" s="66"/>
-      <c r="KN19" s="66"/>
-      <c r="KO19" s="66"/>
-      <c r="KP19" s="66"/>
-      <c r="KQ19" s="66"/>
-      <c r="KR19" s="66"/>
-      <c r="KS19" s="66"/>
-      <c r="KT19" s="66"/>
-      <c r="KU19" s="66"/>
-      <c r="KV19" s="66"/>
-      <c r="KW19" s="66"/>
-      <c r="KX19" s="66"/>
-      <c r="KY19" s="66"/>
-      <c r="KZ19" s="66"/>
-      <c r="LA19" s="66"/>
-      <c r="LB19" s="66"/>
-      <c r="LC19" s="66"/>
-      <c r="LD19" s="66"/>
-      <c r="LE19" s="66"/>
-      <c r="LF19" s="66"/>
-      <c r="LG19" s="66"/>
-      <c r="LH19" s="66"/>
-      <c r="LI19" s="66"/>
-      <c r="LJ19" s="66"/>
-      <c r="LK19" s="66"/>
-      <c r="LL19" s="66"/>
-      <c r="LM19" s="66"/>
-      <c r="LN19" s="66"/>
-      <c r="LO19" s="66"/>
-      <c r="LP19" s="66"/>
-      <c r="LQ19" s="66"/>
+      <c r="JJ19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP19" s="66" t="n">
+        <v>95450312</v>
+      </c>
+      <c r="JQ19" s="66" t="n">
+        <v>95628643</v>
+      </c>
+      <c r="JR19" s="66" t="n">
+        <v>95731004</v>
+      </c>
+      <c r="JS19" s="66" t="n">
+        <v>95837496</v>
+      </c>
+      <c r="JT19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV19" s="66" t="n">
+        <v>96172046</v>
+      </c>
+      <c r="JW19" s="66" t="n">
+        <v>96345771</v>
+      </c>
+      <c r="JX19" s="66" t="n">
+        <v>96003774</v>
+      </c>
+      <c r="JY19" s="66" t="n">
+        <v>96063456</v>
+      </c>
+      <c r="JZ19" s="66" t="n">
+        <v>96223897</v>
+      </c>
+      <c r="KA19" s="66" t="n">
+        <v>96407429</v>
+      </c>
+      <c r="KB19" s="66" t="n">
+        <v>96099043</v>
+      </c>
+      <c r="KC19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD19" s="66" t="n">
+        <v>96465013</v>
+      </c>
+      <c r="KE19" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF19" s="66" t="n">
+        <v>96779400</v>
+      </c>
+      <c r="KG19" s="66" t="n">
+        <v>96411497</v>
+      </c>
+      <c r="KH19" s="66" t="n">
+        <v>96611127</v>
+      </c>
+      <c r="KI19" s="66" t="n">
+        <v>96626440</v>
+      </c>
+      <c r="KJ19" s="66" t="n">
+        <v>96818387</v>
+      </c>
+      <c r="KK19" s="66" t="n">
+        <v>97025440</v>
+      </c>
+      <c r="KL19" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM19" s="66" t="n">
+        <v>97427040</v>
+      </c>
+      <c r="KN19" s="66" t="n">
+        <v>97559036</v>
+      </c>
+      <c r="KO19" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP19" s="66" t="n">
+        <v>97242331</v>
+      </c>
+      <c r="KQ19" s="66" t="n">
+        <v>97454153</v>
+      </c>
+      <c r="KR19" s="66" t="n">
+        <v>97594827</v>
+      </c>
+      <c r="KS19" s="66" t="n">
+        <v>97760906</v>
+      </c>
+      <c r="KT19" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU19" s="66" t="n">
+        <v>98091125</v>
+      </c>
+      <c r="KV19" s="66" t="n">
+        <v>98276251</v>
+      </c>
+      <c r="KW19" s="66" t="n">
+        <v>98455644</v>
+      </c>
+      <c r="KX19" s="66" t="n">
+        <v>98615712</v>
+      </c>
+      <c r="KY19" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ19" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA19" s="66" t="n">
+        <v>98943068</v>
+      </c>
+      <c r="LB19" s="66" t="n">
+        <v>99110638</v>
+      </c>
+      <c r="LC19" s="66" t="n">
+        <v>99304526</v>
+      </c>
+      <c r="LD19" s="66" t="n">
+        <v>99483015</v>
+      </c>
+      <c r="LE19" s="66" t="n">
+        <v>99599646</v>
+      </c>
+      <c r="LF19" s="66" t="n">
+        <v>99598216</v>
+      </c>
+      <c r="LG19" s="66" t="n">
+        <v>99822271</v>
+      </c>
+      <c r="LH19" s="66" t="n">
+        <v>100000961</v>
+      </c>
+      <c r="LI19" s="66" t="n">
+        <v>100172967</v>
+      </c>
+      <c r="LJ19" s="66" t="n">
+        <v>100310758</v>
+      </c>
+      <c r="LK19" s="66" t="n">
+        <v>100499714</v>
+      </c>
+      <c r="LL19" s="66" t="n">
+        <v>100666814</v>
+      </c>
+      <c r="LM19" s="66" t="n">
+        <v>100833455</v>
+      </c>
+      <c r="LN19" s="66" t="n">
+        <v>100999603</v>
+      </c>
+      <c r="LO19" s="66" t="n">
+        <v>101176247</v>
+      </c>
+      <c r="LP19" s="66" t="n">
+        <v>101300464</v>
+      </c>
+      <c r="LQ19" s="66" t="n">
+        <v>101456457</v>
+      </c>
       <c r="LR19" s="66"/>
       <c r="LS19" s="66"/>
       <c r="LT19" s="66"/>
@@ -18414,66 +20454,186 @@
       <c r="JI20" s="69" t="n">
         <v>198</v>
       </c>
-      <c r="JJ20" s="69"/>
-      <c r="JK20" s="69"/>
-      <c r="JL20" s="69"/>
-      <c r="JM20" s="69"/>
-      <c r="JN20" s="69"/>
-      <c r="JO20" s="69"/>
-      <c r="JP20" s="69"/>
-      <c r="JQ20" s="69"/>
-      <c r="JR20" s="69"/>
-      <c r="JS20" s="69"/>
-      <c r="JT20" s="69"/>
-      <c r="JU20" s="69"/>
-      <c r="JV20" s="69"/>
-      <c r="JW20" s="69"/>
-      <c r="JX20" s="69"/>
-      <c r="JY20" s="69"/>
-      <c r="JZ20" s="69"/>
-      <c r="KA20" s="69"/>
-      <c r="KB20" s="69"/>
-      <c r="KC20" s="69"/>
-      <c r="KD20" s="69"/>
-      <c r="KE20" s="69"/>
-      <c r="KF20" s="69"/>
-      <c r="KG20" s="69"/>
-      <c r="KH20" s="69"/>
-      <c r="KI20" s="69"/>
-      <c r="KJ20" s="69"/>
-      <c r="KK20" s="69"/>
-      <c r="KL20" s="69"/>
-      <c r="KM20" s="69"/>
-      <c r="KN20" s="69"/>
-      <c r="KO20" s="69"/>
-      <c r="KP20" s="69"/>
-      <c r="KQ20" s="69"/>
-      <c r="KR20" s="69"/>
-      <c r="KS20" s="69"/>
-      <c r="KT20" s="69"/>
-      <c r="KU20" s="69"/>
-      <c r="KV20" s="69"/>
-      <c r="KW20" s="69"/>
-      <c r="KX20" s="69"/>
-      <c r="KY20" s="69"/>
-      <c r="KZ20" s="69"/>
-      <c r="LA20" s="69"/>
-      <c r="LB20" s="69"/>
-      <c r="LC20" s="69"/>
-      <c r="LD20" s="69"/>
-      <c r="LE20" s="69"/>
-      <c r="LF20" s="69"/>
-      <c r="LG20" s="69"/>
-      <c r="LH20" s="69"/>
-      <c r="LI20" s="69"/>
-      <c r="LJ20" s="69"/>
-      <c r="LK20" s="69"/>
-      <c r="LL20" s="69"/>
-      <c r="LM20" s="69"/>
-      <c r="LN20" s="69"/>
-      <c r="LO20" s="69"/>
-      <c r="LP20" s="69"/>
-      <c r="LQ20" s="69"/>
+      <c r="JJ20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JK20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JL20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JM20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JO20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JP20" s="69" t="n">
+        <v>198</v>
+      </c>
+      <c r="JQ20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="JR20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="JS20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="JT20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JU20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="JV20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="JW20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="JX20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="JY20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="JZ20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="KA20" s="69" t="n">
+        <v>198</v>
+      </c>
+      <c r="KB20" s="69" t="n">
+        <v>198</v>
+      </c>
+      <c r="KC20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="KD20" s="69" t="n">
+        <v>200</v>
+      </c>
+      <c r="KE20" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF20" s="69" t="n">
+        <v>200</v>
+      </c>
+      <c r="KG20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="KH20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="KI20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="KJ20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="KK20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="KL20" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM20" s="69" t="n">
+        <v>200</v>
+      </c>
+      <c r="KN20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="KO20" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="KQ20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="KR20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="KS20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="KT20" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU20" s="69" t="n">
+        <v>197</v>
+      </c>
+      <c r="KV20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="KW20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="KX20" s="69" t="n">
+        <v>199</v>
+      </c>
+      <c r="KY20" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ20" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="LB20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="LC20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="LD20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="LE20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="LF20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="LG20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="LH20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="LI20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="LJ20" s="69" t="n">
+        <v>196</v>
+      </c>
+      <c r="LK20" s="69" t="n">
+        <v>197</v>
+      </c>
+      <c r="LL20" s="69" t="n">
+        <v>198</v>
+      </c>
+      <c r="LM20" s="69" t="n">
+        <v>198</v>
+      </c>
+      <c r="LN20" s="69" t="n">
+        <v>197</v>
+      </c>
+      <c r="LO20" s="69" t="n">
+        <v>197</v>
+      </c>
+      <c r="LP20" s="69" t="n">
+        <v>197</v>
+      </c>
+      <c r="LQ20" s="69" t="n">
+        <v>200</v>
+      </c>
       <c r="LR20" s="69"/>
       <c r="LS20" s="69"/>
       <c r="LT20" s="69"/>
@@ -19601,11 +21761,251 @@
       </c>
       <c r="JH23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JH2)&amp;", ""month"": "&amp;MONTH(JH2)&amp;", ""day"": "&amp;DAY(JH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JH3&amp;", ""memberCount"": "&amp;JH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JH5&amp;", ""memberCount"": "&amp;JH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JH7&amp;", ""memberCount"": "&amp;JH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JH9&amp;", ""memberCount"": "&amp;JH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JH11&amp;", ""memberCount"": "&amp;JH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JH13&amp;", ""memberCount"": "&amp;JH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JH15&amp;", ""memberCount"": "&amp;JH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JH17&amp;", ""memberCount"": "&amp;JH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JH19&amp;", ""memberCount"": "&amp;JH20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 5, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+        <v>, {"year": 2019, "month": 5, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
       </c>
       <c r="JI23" s="71" t="str">
         <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JI2)&amp;", ""month"": "&amp;MONTH(JI2)&amp;", ""day"": "&amp;DAY(JI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JI3&amp;", ""memberCount"": "&amp;JI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JI5&amp;", ""memberCount"": "&amp;JI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JI7&amp;", ""memberCount"": "&amp;JI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JI9&amp;", ""memberCount"": "&amp;JI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JI11&amp;", ""memberCount"": "&amp;JI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JI13&amp;", ""memberCount"": "&amp;JI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JI15&amp;", ""memberCount"": "&amp;JI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JI17&amp;", ""memberCount"": "&amp;JI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JI19&amp;", ""memberCount"": "&amp;JI20&amp;"}"&amp;"]}"</f>
-        <v>    , {"year": 2019, "month": 6, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 213198037, "memberCount": 196}, {"name": "Smile", "contribution": 186882412, "memberCount": 200}, {"name": "Elite", "contribution": 178300969, "memberCount": 198}, {"name": "Savages", "contribution": 168424118, "memberCount": 199}, {"name": "Spring", "contribution": 139732710, "memberCount": 198}, {"name": "Bounce", "contribution": 148687667, "memberCount": 199}, {"name": "Sunset", "contribution": 128020200, "memberCount": 192}, {"name": "Beaters", "contribution": 95998630, "memberCount": 181}, {"name": "Downtime", "contribution": 94432838, "memberCount": 198}]}</v>
+        <v>, {"year": 2019, "month": 6, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 213198037, "memberCount": 196}, {"name": "Smile", "contribution": 186882412, "memberCount": 200}, {"name": "Elite", "contribution": 178300969, "memberCount": 198}, {"name": "Savages", "contribution": 168424118, "memberCount": 199}, {"name": "Spring", "contribution": 139732710, "memberCount": 198}, {"name": "Bounce", "contribution": 148687667, "memberCount": 199}, {"name": "Sunset", "contribution": 128020200, "memberCount": 192}, {"name": "Beaters", "contribution": 95998630, "memberCount": 181}, {"name": "Downtime", "contribution": 94432838, "memberCount": 198}]}</v>
+      </c>
+      <c r="JJ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JJ2)&amp;", ""month"": "&amp;MONTH(JJ2)&amp;", ""day"": "&amp;DAY(JJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JJ3&amp;", ""memberCount"": "&amp;JJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JJ5&amp;", ""memberCount"": "&amp;JJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JJ7&amp;", ""memberCount"": "&amp;JJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JJ9&amp;", ""memberCount"": "&amp;JJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JJ11&amp;", ""memberCount"": "&amp;JJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JJ13&amp;", ""memberCount"": "&amp;JJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JJ15&amp;", ""memberCount"": "&amp;JJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JJ17&amp;", ""memberCount"": "&amp;JJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JJ19&amp;", ""memberCount"": "&amp;JJ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JK23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JK2)&amp;", ""month"": "&amp;MONTH(JK2)&amp;", ""day"": "&amp;DAY(JK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JK3&amp;", ""memberCount"": "&amp;JK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JK5&amp;", ""memberCount"": "&amp;JK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JK7&amp;", ""memberCount"": "&amp;JK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JK9&amp;", ""memberCount"": "&amp;JK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JK11&amp;", ""memberCount"": "&amp;JK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JK13&amp;", ""memberCount"": "&amp;JK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JK15&amp;", ""memberCount"": "&amp;JK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JK17&amp;", ""memberCount"": "&amp;JK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JK19&amp;", ""memberCount"": "&amp;JK20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JL23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JL2)&amp;", ""month"": "&amp;MONTH(JL2)&amp;", ""day"": "&amp;DAY(JL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JL3&amp;", ""memberCount"": "&amp;JL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JL5&amp;", ""memberCount"": "&amp;JL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JL7&amp;", ""memberCount"": "&amp;JL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JL9&amp;", ""memberCount"": "&amp;JL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JL11&amp;", ""memberCount"": "&amp;JL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JL13&amp;", ""memberCount"": "&amp;JL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JL15&amp;", ""memberCount"": "&amp;JL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JL17&amp;", ""memberCount"": "&amp;JL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JL19&amp;", ""memberCount"": "&amp;JL20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JM23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JM2)&amp;", ""month"": "&amp;MONTH(JM2)&amp;", ""day"": "&amp;DAY(JM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JM3&amp;", ""memberCount"": "&amp;JM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JM5&amp;", ""memberCount"": "&amp;JM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JM7&amp;", ""memberCount"": "&amp;JM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JM9&amp;", ""memberCount"": "&amp;JM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JM11&amp;", ""memberCount"": "&amp;JM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JM13&amp;", ""memberCount"": "&amp;JM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JM15&amp;", ""memberCount"": "&amp;JM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JM17&amp;", ""memberCount"": "&amp;JM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JM19&amp;", ""memberCount"": "&amp;JM20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JN23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JN2)&amp;", ""month"": "&amp;MONTH(JN2)&amp;", ""day"": "&amp;DAY(JN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JN3&amp;", ""memberCount"": "&amp;JN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JN5&amp;", ""memberCount"": "&amp;JN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JN7&amp;", ""memberCount"": "&amp;JN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JN9&amp;", ""memberCount"": "&amp;JN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JN11&amp;", ""memberCount"": "&amp;JN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JN13&amp;", ""memberCount"": "&amp;JN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JN15&amp;", ""memberCount"": "&amp;JN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JN17&amp;", ""memberCount"": "&amp;JN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JN19&amp;", ""memberCount"": "&amp;JN20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JO23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JO2)&amp;", ""month"": "&amp;MONTH(JO2)&amp;", ""day"": "&amp;DAY(JO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JO3&amp;", ""memberCount"": "&amp;JO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JO5&amp;", ""memberCount"": "&amp;JO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JO7&amp;", ""memberCount"": "&amp;JO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JO9&amp;", ""memberCount"": "&amp;JO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JO11&amp;", ""memberCount"": "&amp;JO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JO13&amp;", ""memberCount"": "&amp;JO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JO15&amp;", ""memberCount"": "&amp;JO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JO17&amp;", ""memberCount"": "&amp;JO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JO19&amp;", ""memberCount"": "&amp;JO20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JP23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JP2)&amp;", ""month"": "&amp;MONTH(JP2)&amp;", ""day"": "&amp;DAY(JP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JP3&amp;", ""memberCount"": "&amp;JP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JP5&amp;", ""memberCount"": "&amp;JP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JP7&amp;", ""memberCount"": "&amp;JP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JP9&amp;", ""memberCount"": "&amp;JP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JP11&amp;", ""memberCount"": "&amp;JP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JP13&amp;", ""memberCount"": "&amp;JP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JP15&amp;", ""memberCount"": "&amp;JP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JP17&amp;", ""memberCount"": "&amp;JP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JP19&amp;", ""memberCount"": "&amp;JP20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 211558943, "memberCount": 195}, {"name": "Smile", "contribution": 188279515, "memberCount": 200}, {"name": "Elite", "contribution": 179507881, "memberCount": 198}, {"name": "Savages", "contribution": 169220468, "memberCount": 199}, {"name": "Spring", "contribution": 140123323, "memberCount": 200}, {"name": "Bounce", "contribution": 150199141, "memberCount": 199}, {"name": "Sunset", "contribution": 128635800, "memberCount": 194}, {"name": "Beaters", "contribution": 96348648, "memberCount": 182}, {"name": "Downtime", "contribution": 95450312, "memberCount": 198}]}</v>
+      </c>
+      <c r="JQ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JQ2)&amp;", ""month"": "&amp;MONTH(JQ2)&amp;", ""day"": "&amp;DAY(JQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JQ3&amp;", ""memberCount"": "&amp;JQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JQ5&amp;", ""memberCount"": "&amp;JQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JQ7&amp;", ""memberCount"": "&amp;JQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JQ9&amp;", ""memberCount"": "&amp;JQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JQ11&amp;", ""memberCount"": "&amp;JQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JQ13&amp;", ""memberCount"": "&amp;JQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JQ15&amp;", ""memberCount"": "&amp;JQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JQ17&amp;", ""memberCount"": "&amp;JQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JQ19&amp;", ""memberCount"": "&amp;JQ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 211747039, "memberCount": 195}, {"name": "Smile", "contribution": 188491030, "memberCount": 200}, {"name": "Elite", "contribution": 179706351, "memberCount": 198}, {"name": "Savages", "contribution": 169443052, "memberCount": 199}, {"name": "Spring", "contribution": 140280730, "memberCount": 200}, {"name": "Bounce", "contribution": 150435493, "memberCount": 199}, {"name": "Sunset", "contribution": 128685071, "memberCount": 196}, {"name": "Beaters", "contribution": 96416925, "memberCount": 182}, {"name": "Downtime", "contribution": 95628643, "memberCount": 199}]}</v>
+      </c>
+      <c r="JR23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JR2)&amp;", ""month"": "&amp;MONTH(JR2)&amp;", ""day"": "&amp;DAY(JR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JR3&amp;", ""memberCount"": "&amp;JR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JR5&amp;", ""memberCount"": "&amp;JR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JR7&amp;", ""memberCount"": "&amp;JR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JR9&amp;", ""memberCount"": "&amp;JR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JR11&amp;", ""memberCount"": "&amp;JR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JR13&amp;", ""memberCount"": "&amp;JR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JR15&amp;", ""memberCount"": "&amp;JR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JR17&amp;", ""memberCount"": "&amp;JR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JR19&amp;", ""memberCount"": "&amp;JR20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 211878246, "memberCount": 195}, {"name": "Smile", "contribution": 188681780, "memberCount": 200}, {"name": "Elite", "contribution": 179855408, "memberCount": 198}, {"name": "Savages", "contribution": 169626786, "memberCount": 200}, {"name": "Spring", "contribution": 139066403, "memberCount": 194}, {"name": "Bounce", "contribution": 150661774, "memberCount": 199}, {"name": "Sunset", "contribution": 128780308, "memberCount": 197}, {"name": "Beaters", "contribution": 96439668, "memberCount": 182}, {"name": "Downtime", "contribution": 95731004, "memberCount": 199}]}</v>
+      </c>
+      <c r="JS23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JS2)&amp;", ""month"": "&amp;MONTH(JS2)&amp;", ""day"": "&amp;DAY(JS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JS3&amp;", ""memberCount"": "&amp;JS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JS5&amp;", ""memberCount"": "&amp;JS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JS7&amp;", ""memberCount"": "&amp;JS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JS9&amp;", ""memberCount"": "&amp;JS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JS11&amp;", ""memberCount"": "&amp;JS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JS13&amp;", ""memberCount"": "&amp;JS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JS15&amp;", ""memberCount"": "&amp;JS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JS17&amp;", ""memberCount"": "&amp;JS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JS19&amp;", ""memberCount"": "&amp;JS20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 212040162, "memberCount": 196}, {"name": "Smile", "contribution": 188981200, "memberCount": 200}, {"name": "Elite", "contribution": 179992682, "memberCount": 198}, {"name": "Savages", "contribution": 169972435, "memberCount": 199}, {"name": "Spring", "contribution": 139180733, "memberCount": 194}, {"name": "Bounce", "contribution": 150944533, "memberCount": 199}, {"name": "Sunset", "contribution": 128916651, "memberCount": 197}, {"name": "Beaters", "contribution": 96469003, "memberCount": 182}, {"name": "Downtime", "contribution": 95837496, "memberCount": 199}]}</v>
+      </c>
+      <c r="JT23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JT2)&amp;", ""month"": "&amp;MONTH(JT2)&amp;", ""day"": "&amp;DAY(JT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JT3&amp;", ""memberCount"": "&amp;JT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JT5&amp;", ""memberCount"": "&amp;JT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JT7&amp;", ""memberCount"": "&amp;JT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JT9&amp;", ""memberCount"": "&amp;JT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JT11&amp;", ""memberCount"": "&amp;JT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JT13&amp;", ""memberCount"": "&amp;JT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JT15&amp;", ""memberCount"": "&amp;JT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JT17&amp;", ""memberCount"": "&amp;JT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JT19&amp;", ""memberCount"": "&amp;JT20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JU23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JU2)&amp;", ""month"": "&amp;MONTH(JU2)&amp;", ""day"": "&amp;DAY(JU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JU3&amp;", ""memberCount"": "&amp;JU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JU5&amp;", ""memberCount"": "&amp;JU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JU7&amp;", ""memberCount"": "&amp;JU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JU9&amp;", ""memberCount"": "&amp;JU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JU11&amp;", ""memberCount"": "&amp;JU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JU13&amp;", ""memberCount"": "&amp;JU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JU15&amp;", ""memberCount"": "&amp;JU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JU17&amp;", ""memberCount"": "&amp;JU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JU19&amp;", ""memberCount"": "&amp;JU20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="JV23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JV2)&amp;", ""month"": "&amp;MONTH(JV2)&amp;", ""day"": "&amp;DAY(JV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JV3&amp;", ""memberCount"": "&amp;JV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JV5&amp;", ""memberCount"": "&amp;JV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JV7&amp;", ""memberCount"": "&amp;JV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JV9&amp;", ""memberCount"": "&amp;JV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JV11&amp;", ""memberCount"": "&amp;JV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JV13&amp;", ""memberCount"": "&amp;JV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JV15&amp;", ""memberCount"": "&amp;JV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JV17&amp;", ""memberCount"": "&amp;JV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JV19&amp;", ""memberCount"": "&amp;JV20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 211843931, "memberCount": 199}, {"name": "Smile", "contribution": 189578510, "memberCount": 200}, {"name": "Elite", "contribution": 180437359, "memberCount": 198}, {"name": "Savages", "contribution": 170473273, "memberCount": 199}, {"name": "Spring", "contribution": 139470991, "memberCount": 193}, {"name": "Bounce", "contribution": 151654396, "memberCount": 199}, {"name": "Sunset", "contribution": 129175189, "memberCount": 199}, {"name": "Beaters", "contribution": 96620738, "memberCount": 183}, {"name": "Downtime", "contribution": 96172046, "memberCount": 199}]}</v>
+      </c>
+      <c r="JW23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JW2)&amp;", ""month"": "&amp;MONTH(JW2)&amp;", ""day"": "&amp;DAY(JW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JW3&amp;", ""memberCount"": "&amp;JW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JW5&amp;", ""memberCount"": "&amp;JW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JW7&amp;", ""memberCount"": "&amp;JW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JW9&amp;", ""memberCount"": "&amp;JW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JW11&amp;", ""memberCount"": "&amp;JW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JW13&amp;", ""memberCount"": "&amp;JW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JW15&amp;", ""memberCount"": "&amp;JW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JW17&amp;", ""memberCount"": "&amp;JW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JW19&amp;", ""memberCount"": "&amp;JW20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 212059924, "memberCount": 199}, {"name": "Smile", "contribution": 189853162, "memberCount": 200}, {"name": "Elite", "contribution": 180591152, "memberCount": 198}, {"name": "Savages", "contribution": 170703459, "memberCount": 200}, {"name": "Spring", "contribution": 139612679, "memberCount": 193}, {"name": "Bounce", "contribution": 151883904, "memberCount": 198}, {"name": "Sunset", "contribution": 129253479, "memberCount": 198}, {"name": "Beaters", "contribution": 96679691, "memberCount": 182}, {"name": "Downtime", "contribution": 96345771, "memberCount": 199}]}</v>
+      </c>
+      <c r="JX23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JX2)&amp;", ""month"": "&amp;MONTH(JX2)&amp;", ""day"": "&amp;DAY(JX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JX3&amp;", ""memberCount"": "&amp;JX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JX5&amp;", ""memberCount"": "&amp;JX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JX7&amp;", ""memberCount"": "&amp;JX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JX9&amp;", ""memberCount"": "&amp;JX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JX11&amp;", ""memberCount"": "&amp;JX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JX13&amp;", ""memberCount"": "&amp;JX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JX15&amp;", ""memberCount"": "&amp;JX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JX17&amp;", ""memberCount"": "&amp;JX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JX19&amp;", ""memberCount"": "&amp;JX20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 212286188, "memberCount": 199}, {"name": "Smile", "contribution": 189914727, "memberCount": 200}, {"name": "Elite", "contribution": 180724370, "memberCount": 198}, {"name": "Savages", "contribution": 170724751, "memberCount": 199}, {"name": "Spring", "contribution": 139737375, "memberCount": 193}, {"name": "Bounce", "contribution": 152121491, "memberCount": 198}, {"name": "Sunset", "contribution": 129250662, "memberCount": 199}, {"name": "Beaters", "contribution": 96729882, "memberCount": 184}, {"name": "Downtime", "contribution": 96003774, "memberCount": 196}]}</v>
+      </c>
+      <c r="JY23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JY2)&amp;", ""month"": "&amp;MONTH(JY2)&amp;", ""day"": "&amp;DAY(JY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JY3&amp;", ""memberCount"": "&amp;JY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JY5&amp;", ""memberCount"": "&amp;JY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JY7&amp;", ""memberCount"": "&amp;JY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JY9&amp;", ""memberCount"": "&amp;JY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JY11&amp;", ""memberCount"": "&amp;JY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JY13&amp;", ""memberCount"": "&amp;JY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JY15&amp;", ""memberCount"": "&amp;JY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JY17&amp;", ""memberCount"": "&amp;JY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JY19&amp;", ""memberCount"": "&amp;JY20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 212496142, "memberCount": 199}, {"name": "Smile", "contribution": 190195838, "memberCount": 200}, {"name": "Elite", "contribution": 180867137, "memberCount": 198}, {"name": "Savages", "contribution": 170854310, "memberCount": 199}, {"name": "Spring", "contribution": 139837338, "memberCount": 193}, {"name": "Bounce", "contribution": 152372380, "memberCount": 198}, {"name": "Sunset", "contribution": 129297348, "memberCount": 199}, {"name": "Beaters", "contribution": 96321162, "memberCount": 183}, {"name": "Downtime", "contribution": 96063456, "memberCount": 196}]}</v>
+      </c>
+      <c r="JZ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(JZ2)&amp;", ""month"": "&amp;MONTH(JZ2)&amp;", ""day"": "&amp;DAY(JZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;JZ3&amp;", ""memberCount"": "&amp;JZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;JZ5&amp;", ""memberCount"": "&amp;JZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;JZ7&amp;", ""memberCount"": "&amp;JZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;JZ9&amp;", ""memberCount"": "&amp;JZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;JZ11&amp;", ""memberCount"": "&amp;JZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;JZ13&amp;", ""memberCount"": "&amp;JZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;JZ15&amp;", ""memberCount"": "&amp;JZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;JZ17&amp;", ""memberCount"": "&amp;JZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;JZ19&amp;", ""memberCount"": "&amp;JZ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 212741674, "memberCount": 199}, {"name": "Smile", "contribution": 190456000, "memberCount": 200}, {"name": "Elite", "contribution": 181031424, "memberCount": 198}, {"name": "Savages", "contribution": 171099707, "memberCount": 199}, {"name": "Spring", "contribution": 139961223, "memberCount": 193}, {"name": "Bounce", "contribution": 152602260, "memberCount": 198}, {"name": "Sunset", "contribution": 129402132, "memberCount": 194}, {"name": "Beaters", "contribution": 96400115, "memberCount": 183}, {"name": "Downtime", "contribution": 96223897, "memberCount": 196}]}</v>
+      </c>
+      <c r="KA23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KA2)&amp;", ""month"": "&amp;MONTH(KA2)&amp;", ""day"": "&amp;DAY(KA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KA3&amp;", ""memberCount"": "&amp;KA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KA5&amp;", ""memberCount"": "&amp;KA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KA7&amp;", ""memberCount"": "&amp;KA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KA9&amp;", ""memberCount"": "&amp;KA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KA11&amp;", ""memberCount"": "&amp;KA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KA13&amp;", ""memberCount"": "&amp;KA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KA15&amp;", ""memberCount"": "&amp;KA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KA17&amp;", ""memberCount"": "&amp;KA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KA19&amp;", ""memberCount"": "&amp;KA20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 212912971, "memberCount": 199}, {"name": "Smile", "contribution": 190718540, "memberCount": 199}, {"name": "Elite", "contribution": 181179298, "memberCount": 198}, {"name": "Savages", "contribution": 171343322, "memberCount": 199}, {"name": "Spring", "contribution": 140109088, "memberCount": 193}, {"name": "Bounce", "contribution": 152883701, "memberCount": 199}, {"name": "Sunset", "contribution": 129526218, "memberCount": 194}, {"name": "Beaters", "contribution": 96472492, "memberCount": 183}, {"name": "Downtime", "contribution": 96407429, "memberCount": 198}]}</v>
+      </c>
+      <c r="KB23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KB2)&amp;", ""month"": "&amp;MONTH(KB2)&amp;", ""day"": "&amp;DAY(KB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KB3&amp;", ""memberCount"": "&amp;KB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KB5&amp;", ""memberCount"": "&amp;KB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KB7&amp;", ""memberCount"": "&amp;KB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KB9&amp;", ""memberCount"": "&amp;KB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KB11&amp;", ""memberCount"": "&amp;KB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KB13&amp;", ""memberCount"": "&amp;KB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KB15&amp;", ""memberCount"": "&amp;KB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KB17&amp;", ""memberCount"": "&amp;KB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KB19&amp;", ""memberCount"": "&amp;KB20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 213151842, "memberCount": 199}, {"name": "Smile", "contribution": 190989478, "memberCount": 199}, {"name": "Elite", "contribution": 181344026, "memberCount": 198}, {"name": "Savages", "contribution": 171540091, "memberCount": 199}, {"name": "Spring", "contribution": 140238493, "memberCount": 193}, {"name": "Bounce", "contribution": 153137789, "memberCount": 199}, {"name": "Sunset", "contribution": 129627867, "memberCount": 195}, {"name": "Beaters", "contribution": 96535997, "memberCount": 183}, {"name": "Downtime", "contribution": 96099043, "memberCount": 198}]}</v>
+      </c>
+      <c r="KC23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KC2)&amp;", ""month"": "&amp;MONTH(KC2)&amp;", ""day"": "&amp;DAY(KC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KC3&amp;", ""memberCount"": "&amp;KC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KC5&amp;", ""memberCount"": "&amp;KC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KC7&amp;", ""memberCount"": "&amp;KC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KC9&amp;", ""memberCount"": "&amp;KC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KC11&amp;", ""memberCount"": "&amp;KC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KC13&amp;", ""memberCount"": "&amp;KC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KC15&amp;", ""memberCount"": "&amp;KC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KC17&amp;", ""memberCount"": "&amp;KC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KC19&amp;", ""memberCount"": "&amp;KC20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="KD23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KD2)&amp;", ""month"": "&amp;MONTH(KD2)&amp;", ""day"": "&amp;DAY(KD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KD3&amp;", ""memberCount"": "&amp;KD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KD5&amp;", ""memberCount"": "&amp;KD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KD7&amp;", ""memberCount"": "&amp;KD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KD9&amp;", ""memberCount"": "&amp;KD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KD11&amp;", ""memberCount"": "&amp;KD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KD13&amp;", ""memberCount"": "&amp;KD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KD15&amp;", ""memberCount"": "&amp;KD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KD17&amp;", ""memberCount"": "&amp;KD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KD19&amp;", ""memberCount"": "&amp;KD20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 213422842, "memberCount": 198}, {"name": "Smile", "contribution": 191509208, "memberCount": 200}, {"name": "Elite", "contribution": 181648171, "memberCount": 198}, {"name": "Savages", "contribution": 172013506, "memberCount": 199}, {"name": "Spring", "contribution": 140518593, "memberCount": 193}, {"name": "Bounce", "contribution": 153584881, "memberCount": 199}, {"name": "Sunset", "contribution": 129829969, "memberCount": 197}, {"name": "Beaters", "contribution": 96710316, "memberCount": 186}, {"name": "Downtime", "contribution": 96465013, "memberCount": 200}]}</v>
+      </c>
+      <c r="KE23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KE2)&amp;", ""month"": "&amp;MONTH(KE2)&amp;", ""day"": "&amp;DAY(KE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KE3&amp;", ""memberCount"": "&amp;KE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KE5&amp;", ""memberCount"": "&amp;KE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KE7&amp;", ""memberCount"": "&amp;KE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KE9&amp;", ""memberCount"": "&amp;KE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KE11&amp;", ""memberCount"": "&amp;KE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KE13&amp;", ""memberCount"": "&amp;KE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KE15&amp;", ""memberCount"": "&amp;KE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KE17&amp;", ""memberCount"": "&amp;KE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KE19&amp;", ""memberCount"": "&amp;KE20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="KF23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KF2)&amp;", ""month"": "&amp;MONTH(KF2)&amp;", ""day"": "&amp;DAY(KF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KF3&amp;", ""memberCount"": "&amp;KF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KF5&amp;", ""memberCount"": "&amp;KF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KF7&amp;", ""memberCount"": "&amp;KF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KF9&amp;", ""memberCount"": "&amp;KF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KF11&amp;", ""memberCount"": "&amp;KF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KF13&amp;", ""memberCount"": "&amp;KF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KF15&amp;", ""memberCount"": "&amp;KF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KF17&amp;", ""memberCount"": "&amp;KF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KF19&amp;", ""memberCount"": "&amp;KF20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 213830491, "memberCount": 198}, {"name": "Smile", "contribution": 191993327, "memberCount": 200}, {"name": "Elite", "contribution": 181925421, "memberCount": 198}, {"name": "Savages", "contribution": 172531782, "memberCount": 199}, {"name": "Spring", "contribution": 140724499, "memberCount": 193}, {"name": "Bounce", "contribution": 154068019, "memberCount": 199}, {"name": "Sunset", "contribution": 129960404, "memberCount": 198}, {"name": "Beaters", "contribution": 96916601, "memberCount": 190}, {"name": "Downtime", "contribution": 96779400, "memberCount": 200}]}</v>
+      </c>
+      <c r="KG23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KG2)&amp;", ""month"": "&amp;MONTH(KG2)&amp;", ""day"": "&amp;DAY(KG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KG3&amp;", ""memberCount"": "&amp;KG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KG5&amp;", ""memberCount"": "&amp;KG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KG7&amp;", ""memberCount"": "&amp;KG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KG9&amp;", ""memberCount"": "&amp;KG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KG11&amp;", ""memberCount"": "&amp;KG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KG13&amp;", ""memberCount"": "&amp;KG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KG15&amp;", ""memberCount"": "&amp;KG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KG17&amp;", ""memberCount"": "&amp;KG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KG19&amp;", ""memberCount"": "&amp;KG20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 213998086, "memberCount": 198}, {"name": "Smile", "contribution": 192223232, "memberCount": 200}, {"name": "Elite", "contribution": 182067767, "memberCount": 198}, {"name": "Savages", "contribution": 172641438, "memberCount": 199}, {"name": "Spring", "contribution": 140867561, "memberCount": 193}, {"name": "Bounce", "contribution": 154312786, "memberCount": 199}, {"name": "Sunset", "contribution": 130061988, "memberCount": 199}, {"name": "Beaters", "contribution": 97007465, "memberCount": 191}, {"name": "Downtime", "contribution": 96411497, "memberCount": 195}]}</v>
+      </c>
+      <c r="KH23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KH2)&amp;", ""month"": "&amp;MONTH(KH2)&amp;", ""day"": "&amp;DAY(KH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KH3&amp;", ""memberCount"": "&amp;KH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KH5&amp;", ""memberCount"": "&amp;KH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KH7&amp;", ""memberCount"": "&amp;KH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KH9&amp;", ""memberCount"": "&amp;KH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KH11&amp;", ""memberCount"": "&amp;KH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KH13&amp;", ""memberCount"": "&amp;KH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KH15&amp;", ""memberCount"": "&amp;KH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KH17&amp;", ""memberCount"": "&amp;KH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KH19&amp;", ""memberCount"": "&amp;KH20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 214211994, "memberCount": 198}, {"name": "Smile", "contribution": 192301553, "memberCount": 199}, {"name": "Elite", "contribution": 182232963, "memberCount": 198}, {"name": "Savages", "contribution": 172777541, "memberCount": 198}, {"name": "Spring", "contribution": 140973441, "memberCount": 193}, {"name": "Bounce", "contribution": 154476643, "memberCount": 199}, {"name": "Sunset", "contribution": 130134180, "memberCount": 200}, {"name": "Beaters", "contribution": 97146424, "memberCount": 196}, {"name": "Downtime", "contribution": 96611127, "memberCount": 199}]}</v>
+      </c>
+      <c r="KI23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KI2)&amp;", ""month"": "&amp;MONTH(KI2)&amp;", ""day"": "&amp;DAY(KI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KI3&amp;", ""memberCount"": "&amp;KI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KI5&amp;", ""memberCount"": "&amp;KI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KI7&amp;", ""memberCount"": "&amp;KI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KI9&amp;", ""memberCount"": "&amp;KI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KI11&amp;", ""memberCount"": "&amp;KI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KI13&amp;", ""memberCount"": "&amp;KI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KI15&amp;", ""memberCount"": "&amp;KI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KI17&amp;", ""memberCount"": "&amp;KI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KI19&amp;", ""memberCount"": "&amp;KI20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 214407364, "memberCount": 198}, {"name": "Smile", "contribution": 192534398, "memberCount": 199}, {"name": "Elite", "contribution": 182364672, "memberCount": 198}, {"name": "Savages", "contribution": 172992849, "memberCount": 198}, {"name": "Spring", "contribution": 141101408, "memberCount": 193}, {"name": "Bounce", "contribution": 154658443, "memberCount": 199}, {"name": "Sunset", "contribution": 130277047, "memberCount": 200}, {"name": "Beaters", "contribution": 97252300, "memberCount": 196}, {"name": "Downtime", "contribution": 96626440, "memberCount": 199}]}</v>
+      </c>
+      <c r="KJ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KJ2)&amp;", ""month"": "&amp;MONTH(KJ2)&amp;", ""day"": "&amp;DAY(KJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KJ3&amp;", ""memberCount"": "&amp;KJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KJ5&amp;", ""memberCount"": "&amp;KJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KJ7&amp;", ""memberCount"": "&amp;KJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KJ9&amp;", ""memberCount"": "&amp;KJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KJ11&amp;", ""memberCount"": "&amp;KJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KJ13&amp;", ""memberCount"": "&amp;KJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KJ15&amp;", ""memberCount"": "&amp;KJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KJ17&amp;", ""memberCount"": "&amp;KJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KJ19&amp;", ""memberCount"": "&amp;KJ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 214665940, "memberCount": 199}, {"name": "Smile", "contribution": 192743931, "memberCount": 199}, {"name": "Elite", "contribution": 182506484, "memberCount": 199}, {"name": "Savages", "contribution": 172966115, "memberCount": 198}, {"name": "Spring", "contribution": 141223083, "memberCount": 195}, {"name": "Bounce", "contribution": 154946846, "memberCount": 199}, {"name": "Sunset", "contribution": 130398161, "memberCount": 200}, {"name": "Beaters", "contribution": 97418938, "memberCount": 196}, {"name": "Downtime", "contribution": 96818387, "memberCount": 199}]}</v>
+      </c>
+      <c r="KK23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KK2)&amp;", ""month"": "&amp;MONTH(KK2)&amp;", ""day"": "&amp;DAY(KK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KK3&amp;", ""memberCount"": "&amp;KK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KK5&amp;", ""memberCount"": "&amp;KK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KK7&amp;", ""memberCount"": "&amp;KK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KK9&amp;", ""memberCount"": "&amp;KK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KK11&amp;", ""memberCount"": "&amp;KK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KK13&amp;", ""memberCount"": "&amp;KK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KK15&amp;", ""memberCount"": "&amp;KK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KK17&amp;", ""memberCount"": "&amp;KK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KK19&amp;", ""memberCount"": "&amp;KK20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 214859683, "memberCount": 200}, {"name": "Smile", "contribution": 193002032, "memberCount": 200}, {"name": "Elite", "contribution": 182649146, "memberCount": 199}, {"name": "Savages", "contribution": 173177622, "memberCount": 198}, {"name": "Spring", "contribution": 141328436, "memberCount": 195}, {"name": "Bounce", "contribution": 155033032, "memberCount": 199}, {"name": "Sunset", "contribution": 130533575, "memberCount": 199}, {"name": "Beaters", "contribution": 97566301, "memberCount": 196}, {"name": "Downtime", "contribution": 97025440, "memberCount": 199}]}</v>
+      </c>
+      <c r="KL23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KL2)&amp;", ""month"": "&amp;MONTH(KL2)&amp;", ""day"": "&amp;DAY(KL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KL3&amp;", ""memberCount"": "&amp;KL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KL5&amp;", ""memberCount"": "&amp;KL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KL7&amp;", ""memberCount"": "&amp;KL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KL9&amp;", ""memberCount"": "&amp;KL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KL11&amp;", ""memberCount"": "&amp;KL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KL13&amp;", ""memberCount"": "&amp;KL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KL15&amp;", ""memberCount"": "&amp;KL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KL17&amp;", ""memberCount"": "&amp;KL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KL19&amp;", ""memberCount"": "&amp;KL20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 6, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="KM23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KM2)&amp;", ""month"": "&amp;MONTH(KM2)&amp;", ""day"": "&amp;DAY(KM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KM3&amp;", ""memberCount"": "&amp;KM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KM5&amp;", ""memberCount"": "&amp;KM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KM7&amp;", ""memberCount"": "&amp;KM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KM9&amp;", ""memberCount"": "&amp;KM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KM11&amp;", ""memberCount"": "&amp;KM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KM13&amp;", ""memberCount"": "&amp;KM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KM15&amp;", ""memberCount"": "&amp;KM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KM17&amp;", ""memberCount"": "&amp;KM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KM19&amp;", ""memberCount"": "&amp;KM20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 215121201, "memberCount": 198}, {"name": "Smile", "contribution": 193430946, "memberCount": 200}, {"name": "Elite", "contribution": 182930341, "memberCount": 199}, {"name": "Savages", "contribution": 173596898, "memberCount": 198}, {"name": "Spring", "contribution": 141604404, "memberCount": 196}, {"name": "Bounce", "contribution": 155628942, "memberCount": 199}, {"name": "Sunset", "contribution": 130771450, "memberCount": 199}, {"name": "Beaters", "contribution": 97794053, "memberCount": 197}, {"name": "Downtime", "contribution": 97427040, "memberCount": 200}]}</v>
+      </c>
+      <c r="KN23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KN2)&amp;", ""month"": "&amp;MONTH(KN2)&amp;", ""day"": "&amp;DAY(KN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KN3&amp;", ""memberCount"": "&amp;KN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KN5&amp;", ""memberCount"": "&amp;KN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KN7&amp;", ""memberCount"": "&amp;KN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KN9&amp;", ""memberCount"": "&amp;KN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KN11&amp;", ""memberCount"": "&amp;KN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KN13&amp;", ""memberCount"": "&amp;KN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KN15&amp;", ""memberCount"": "&amp;KN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KN17&amp;", ""memberCount"": "&amp;KN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KN19&amp;", ""memberCount"": "&amp;KN20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 215323987, "memberCount": 198}, {"name": "Smile", "contribution": 193655504, "memberCount": 200}, {"name": "Elite", "contribution": 183069115, "memberCount": 200}, {"name": "Savages", "contribution": 173835553, "memberCount": 198}, {"name": "Spring", "contribution": 141735096, "memberCount": 196}, {"name": "Bounce", "contribution": 155899509, "memberCount": 199}, {"name": "Sunset", "contribution": 130107270, "memberCount": 187}, {"name": "Beaters", "contribution": 97916866, "memberCount": 197}, {"name": "Downtime", "contribution": 97559036, "memberCount": 199}]}</v>
+      </c>
+      <c r="KO23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KO2)&amp;", ""month"": "&amp;MONTH(KO2)&amp;", ""day"": "&amp;DAY(KO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KO3&amp;", ""memberCount"": "&amp;KO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KO5&amp;", ""memberCount"": "&amp;KO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KO7&amp;", ""memberCount"": "&amp;KO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KO9&amp;", ""memberCount"": "&amp;KO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KO11&amp;", ""memberCount"": "&amp;KO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KO13&amp;", ""memberCount"": "&amp;KO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KO15&amp;", ""memberCount"": "&amp;KO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KO17&amp;", ""memberCount"": "&amp;KO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KO19&amp;", ""memberCount"": "&amp;KO20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="KP23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KP2)&amp;", ""month"": "&amp;MONTH(KP2)&amp;", ""day"": "&amp;DAY(KP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KP3&amp;", ""memberCount"": "&amp;KP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KP5&amp;", ""memberCount"": "&amp;KP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KP7&amp;", ""memberCount"": "&amp;KP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KP9&amp;", ""memberCount"": "&amp;KP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KP11&amp;", ""memberCount"": "&amp;KP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KP13&amp;", ""memberCount"": "&amp;KP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KP15&amp;", ""memberCount"": "&amp;KP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KP17&amp;", ""memberCount"": "&amp;KP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KP19&amp;", ""memberCount"": "&amp;KP20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 215783107, "memberCount": 198}, {"name": "Smile", "contribution": 193604490, "memberCount": 198}, {"name": "Elite", "contribution": 183364791, "memberCount": 200}, {"name": "Savages", "contribution": 174242458, "memberCount": 199}, {"name": "Spring", "contribution": 141732519, "memberCount": 196}, {"name": "Bounce", "contribution": 156382695, "memberCount": 199}, {"name": "Sunset", "contribution": 130429717, "memberCount": 188}, {"name": "Beaters", "contribution": 98184968, "memberCount": 197}, {"name": "Downtime", "contribution": 97242331, "memberCount": 195}]}</v>
+      </c>
+      <c r="KQ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KQ2)&amp;", ""month"": "&amp;MONTH(KQ2)&amp;", ""day"": "&amp;DAY(KQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KQ3&amp;", ""memberCount"": "&amp;KQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KQ5&amp;", ""memberCount"": "&amp;KQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KQ7&amp;", ""memberCount"": "&amp;KQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KQ9&amp;", ""memberCount"": "&amp;KQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KQ11&amp;", ""memberCount"": "&amp;KQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KQ13&amp;", ""memberCount"": "&amp;KQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KQ15&amp;", ""memberCount"": "&amp;KQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KQ17&amp;", ""memberCount"": "&amp;KQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KQ19&amp;", ""memberCount"": "&amp;KQ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 215993077, "memberCount": 199}, {"name": "Smile", "contribution": 193860243, "memberCount": 198}, {"name": "Elite", "contribution": 183489960, "memberCount": 200}, {"name": "Savages", "contribution": 174426937, "memberCount": 199}, {"name": "Spring", "contribution": 141844826, "memberCount": 196}, {"name": "Bounce", "contribution": 156660054, "memberCount": 199}, {"name": "Sunset", "contribution": 130534087, "memberCount": 188}, {"name": "Beaters", "contribution": 98308894, "memberCount": 197}, {"name": "Downtime", "contribution": 97454153, "memberCount": 195}]}</v>
+      </c>
+      <c r="KR23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KR2)&amp;", ""month"": "&amp;MONTH(KR2)&amp;", ""day"": "&amp;DAY(KR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KR3&amp;", ""memberCount"": "&amp;KR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KR5&amp;", ""memberCount"": "&amp;KR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KR7&amp;", ""memberCount"": "&amp;KR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KR9&amp;", ""memberCount"": "&amp;KR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KR11&amp;", ""memberCount"": "&amp;KR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KR13&amp;", ""memberCount"": "&amp;KR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KR15&amp;", ""memberCount"": "&amp;KR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KR17&amp;", ""memberCount"": "&amp;KR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KR19&amp;", ""memberCount"": "&amp;KR20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 216201946, "memberCount": 199}, {"name": "Smile", "contribution": 194134705, "memberCount": 198}, {"name": "Elite", "contribution": 183652922, "memberCount": 200}, {"name": "Savages", "contribution": 174620053, "memberCount": 199}, {"name": "Spring", "contribution": 142027188, "memberCount": 196}, {"name": "Bounce", "contribution": 156984396, "memberCount": 199}, {"name": "Sunset", "contribution": 130644076, "memberCount": 188}, {"name": "Beaters", "contribution": 98422607, "memberCount": 197}, {"name": "Downtime", "contribution": 97594827, "memberCount": 195}]}</v>
+      </c>
+      <c r="KS23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KS2)&amp;", ""month"": "&amp;MONTH(KS2)&amp;", ""day"": "&amp;DAY(KS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KS3&amp;", ""memberCount"": "&amp;KS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KS5&amp;", ""memberCount"": "&amp;KS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KS7&amp;", ""memberCount"": "&amp;KS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KS9&amp;", ""memberCount"": "&amp;KS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KS11&amp;", ""memberCount"": "&amp;KS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KS13&amp;", ""memberCount"": "&amp;KS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KS15&amp;", ""memberCount"": "&amp;KS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KS17&amp;", ""memberCount"": "&amp;KS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KS19&amp;", ""memberCount"": "&amp;KS20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 216364865, "memberCount": 199}, {"name": "Smile", "contribution": 194390972, "memberCount": 199}, {"name": "Elite", "contribution": 183808379, "memberCount": 200}, {"name": "Savages", "contribution": 174788696, "memberCount": 198}, {"name": "Spring", "contribution": 142074165, "memberCount": 197}, {"name": "Bounce", "contribution": 157064807, "memberCount": 199}, {"name": "Sunset", "contribution": 130775758, "memberCount": 189}, {"name": "Beaters", "contribution": 98543354, "memberCount": 197}, {"name": "Downtime", "contribution": 97760906, "memberCount": 196}]}</v>
+      </c>
+      <c r="KT23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KT2)&amp;", ""month"": "&amp;MONTH(KT2)&amp;", ""day"": "&amp;DAY(KT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KT3&amp;", ""memberCount"": "&amp;KT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KT5&amp;", ""memberCount"": "&amp;KT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KT7&amp;", ""memberCount"": "&amp;KT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KT9&amp;", ""memberCount"": "&amp;KT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KT11&amp;", ""memberCount"": "&amp;KT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KT13&amp;", ""memberCount"": "&amp;KT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KT15&amp;", ""memberCount"": "&amp;KT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KT17&amp;", ""memberCount"": "&amp;KT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KT19&amp;", ""memberCount"": "&amp;KT20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="KU23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KU2)&amp;", ""month"": "&amp;MONTH(KU2)&amp;", ""day"": "&amp;DAY(KU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KU3&amp;", ""memberCount"": "&amp;KU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KU5&amp;", ""memberCount"": "&amp;KU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KU7&amp;", ""memberCount"": "&amp;KU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KU9&amp;", ""memberCount"": "&amp;KU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KU11&amp;", ""memberCount"": "&amp;KU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KU13&amp;", ""memberCount"": "&amp;KU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KU15&amp;", ""memberCount"": "&amp;KU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KU17&amp;", ""memberCount"": "&amp;KU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KU19&amp;", ""memberCount"": "&amp;KU20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 216789051, "memberCount": 199}, {"name": "Smile", "contribution": 194905635, "memberCount": 200}, {"name": "Elite", "contribution": 184043151, "memberCount": 200}, {"name": "Savages", "contribution": 175223876, "memberCount": 198}, {"name": "Spring", "contribution": 142328199, "memberCount": 197}, {"name": "Bounce", "contribution": 157625054, "memberCount": 199}, {"name": "Sunset", "contribution": 131059428, "memberCount": 192}, {"name": "Beaters", "contribution": 98652178, "memberCount": 196}, {"name": "Downtime", "contribution": 98091125, "memberCount": 197}]}</v>
+      </c>
+      <c r="KV23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KV2)&amp;", ""month"": "&amp;MONTH(KV2)&amp;", ""day"": "&amp;DAY(KV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KV3&amp;", ""memberCount"": "&amp;KV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KV5&amp;", ""memberCount"": "&amp;KV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KV7&amp;", ""memberCount"": "&amp;KV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KV9&amp;", ""memberCount"": "&amp;KV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KV11&amp;", ""memberCount"": "&amp;KV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KV13&amp;", ""memberCount"": "&amp;KV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KV15&amp;", ""memberCount"": "&amp;KV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KV17&amp;", ""memberCount"": "&amp;KV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KV19&amp;", ""memberCount"": "&amp;KV20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 217000560, "memberCount": 199}, {"name": "Smile", "contribution": 195144214, "memberCount": 199}, {"name": "Elite", "contribution": 183060267, "memberCount": 199}, {"name": "Savages", "contribution": 175416282, "memberCount": 198}, {"name": "Spring", "contribution": 142438018, "memberCount": 197}, {"name": "Bounce", "contribution": 157914515, "memberCount": 199}, {"name": "Sunset", "contribution": 131198907, "memberCount": 192}, {"name": "Beaters", "contribution": 98750397, "memberCount": 196}, {"name": "Downtime", "contribution": 98276251, "memberCount": 199}]}</v>
+      </c>
+      <c r="KW23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KW2)&amp;", ""month"": "&amp;MONTH(KW2)&amp;", ""day"": "&amp;DAY(KW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KW3&amp;", ""memberCount"": "&amp;KW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KW5&amp;", ""memberCount"": "&amp;KW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KW7&amp;", ""memberCount"": "&amp;KW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KW9&amp;", ""memberCount"": "&amp;KW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KW11&amp;", ""memberCount"": "&amp;KW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KW13&amp;", ""memberCount"": "&amp;KW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KW15&amp;", ""memberCount"": "&amp;KW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KW17&amp;", ""memberCount"": "&amp;KW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KW19&amp;", ""memberCount"": "&amp;KW20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 217194068, "memberCount": 199}, {"name": "Smile", "contribution": 195423088, "memberCount": 199}, {"name": "Elite", "contribution": 183205658, "memberCount": 199}, {"name": "Savages", "contribution": 175601970, "memberCount": 198}, {"name": "Spring", "contribution": 142582907, "memberCount": 197}, {"name": "Bounce", "contribution": 158190611, "memberCount": 199}, {"name": "Sunset", "contribution": 131340205, "memberCount": 193}, {"name": "Beaters", "contribution": 98873627, "memberCount": 197}, {"name": "Downtime", "contribution": 98455644, "memberCount": 199}]}</v>
+      </c>
+      <c r="KX23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KX2)&amp;", ""month"": "&amp;MONTH(KX2)&amp;", ""day"": "&amp;DAY(KX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KX3&amp;", ""memberCount"": "&amp;KX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KX5&amp;", ""memberCount"": "&amp;KX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KX7&amp;", ""memberCount"": "&amp;KX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KX9&amp;", ""memberCount"": "&amp;KX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KX11&amp;", ""memberCount"": "&amp;KX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KX13&amp;", ""memberCount"": "&amp;KX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KX15&amp;", ""memberCount"": "&amp;KX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KX17&amp;", ""memberCount"": "&amp;KX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KX19&amp;", ""memberCount"": "&amp;KX20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 217378959, "memberCount": 200}, {"name": "Smile", "contribution": 195697400, "memberCount": 199}, {"name": "Elite", "contribution": 183360895, "memberCount": 199}, {"name": "Savages", "contribution": 175804710, "memberCount": 198}, {"name": "Spring", "contribution": 142730532, "memberCount": 197}, {"name": "Bounce", "contribution": 158423700, "memberCount": 198}, {"name": "Sunset", "contribution": 131111758, "memberCount": 194}, {"name": "Beaters", "contribution": 98958157, "memberCount": 197}, {"name": "Downtime", "contribution": 98615712, "memberCount": 199}]}</v>
+      </c>
+      <c r="KY23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KY2)&amp;", ""month"": "&amp;MONTH(KY2)&amp;", ""day"": "&amp;DAY(KY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KY3&amp;", ""memberCount"": "&amp;KY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KY5&amp;", ""memberCount"": "&amp;KY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KY7&amp;", ""memberCount"": "&amp;KY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KY9&amp;", ""memberCount"": "&amp;KY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KY11&amp;", ""memberCount"": "&amp;KY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KY13&amp;", ""memberCount"": "&amp;KY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KY15&amp;", ""memberCount"": "&amp;KY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KY17&amp;", ""memberCount"": "&amp;KY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KY19&amp;", ""memberCount"": "&amp;KY20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="KZ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(KZ2)&amp;", ""month"": "&amp;MONTH(KZ2)&amp;", ""day"": "&amp;DAY(KZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;KZ3&amp;", ""memberCount"": "&amp;KZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;KZ5&amp;", ""memberCount"": "&amp;KZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;KZ7&amp;", ""memberCount"": "&amp;KZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;KZ9&amp;", ""memberCount"": "&amp;KZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;KZ11&amp;", ""memberCount"": "&amp;KZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;KZ13&amp;", ""memberCount"": "&amp;KZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;KZ15&amp;", ""memberCount"": "&amp;KZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;KZ17&amp;", ""memberCount"": "&amp;KZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;KZ19&amp;", ""memberCount"": "&amp;KZ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}]}</v>
+      </c>
+      <c r="LA23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LA2)&amp;", ""month"": "&amp;MONTH(LA2)&amp;", ""day"": "&amp;DAY(LA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LA3&amp;", ""memberCount"": "&amp;LA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LA5&amp;", ""memberCount"": "&amp;LA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LA7&amp;", ""memberCount"": "&amp;LA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LA9&amp;", ""memberCount"": "&amp;LA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LA11&amp;", ""memberCount"": "&amp;LA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LA13&amp;", ""memberCount"": "&amp;LA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LA15&amp;", ""memberCount"": "&amp;LA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LA17&amp;", ""memberCount"": "&amp;LA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LA19&amp;", ""memberCount"": "&amp;LA20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 217990250, "memberCount": 200}, {"name": "Smile", "contribution": 196522779, "memberCount": 198}, {"name": "Elite", "contribution": 183659393, "memberCount": 199}, {"name": "Savages", "contribution": 176308148, "memberCount": 198}, {"name": "Spring", "contribution": 142960587, "memberCount": 197}, {"name": "Bounce", "contribution": 159305805, "memberCount": 199}, {"name": "Sunset", "contribution": 131600776, "memberCount": 193}, {"name": "Beaters", "contribution": 99245074, "memberCount": 199}, {"name": "Downtime", "contribution": 98943068, "memberCount": 196}]}</v>
+      </c>
+      <c r="LB23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LB2)&amp;", ""month"": "&amp;MONTH(LB2)&amp;", ""day"": "&amp;DAY(LB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LB3&amp;", ""memberCount"": "&amp;LB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LB5&amp;", ""memberCount"": "&amp;LB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LB7&amp;", ""memberCount"": "&amp;LB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LB9&amp;", ""memberCount"": "&amp;LB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LB11&amp;", ""memberCount"": "&amp;LB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LB13&amp;", ""memberCount"": "&amp;LB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LB15&amp;", ""memberCount"": "&amp;LB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LB17&amp;", ""memberCount"": "&amp;LB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LB19&amp;", ""memberCount"": "&amp;LB20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 218234255, "memberCount": 200}, {"name": "Smile", "contribution": 196835154, "memberCount": 199}, {"name": "Elite", "contribution": 183808810, "memberCount": 199}, {"name": "Savages", "contribution": 176508148, "memberCount": 198}, {"name": "Spring", "contribution": 143076715, "memberCount": 198}, {"name": "Bounce", "contribution": 159573453, "memberCount": 199}, {"name": "Sunset", "contribution": 131767659, "memberCount": 193}, {"name": "Beaters", "contribution": 99330862, "memberCount": 200}, {"name": "Downtime", "contribution": 99110638, "memberCount": 196}]}</v>
+      </c>
+      <c r="LC23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LC2)&amp;", ""month"": "&amp;MONTH(LC2)&amp;", ""day"": "&amp;DAY(LC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LC3&amp;", ""memberCount"": "&amp;LC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LC5&amp;", ""memberCount"": "&amp;LC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LC7&amp;", ""memberCount"": "&amp;LC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LC9&amp;", ""memberCount"": "&amp;LC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LC11&amp;", ""memberCount"": "&amp;LC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LC13&amp;", ""memberCount"": "&amp;LC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LC15&amp;", ""memberCount"": "&amp;LC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LC17&amp;", ""memberCount"": "&amp;LC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LC19&amp;", ""memberCount"": "&amp;LC20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 218430815, "memberCount": 200}, {"name": "Smile", "contribution": 197099351, "memberCount": 199}, {"name": "Elite", "contribution": 183799341, "memberCount": 199}, {"name": "Savages", "contribution": 176682327, "memberCount": 198}, {"name": "Spring", "contribution": 143210347, "memberCount": 198}, {"name": "Bounce", "contribution": 159872841, "memberCount": 199}, {"name": "Sunset", "contribution": 131894746, "memberCount": 193}, {"name": "Beaters", "contribution": 99438082, "memberCount": 200}, {"name": "Downtime", "contribution": 99304526, "memberCount": 196}]}</v>
+      </c>
+      <c r="LD23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LD2)&amp;", ""month"": "&amp;MONTH(LD2)&amp;", ""day"": "&amp;DAY(LD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LD3&amp;", ""memberCount"": "&amp;LD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LD5&amp;", ""memberCount"": "&amp;LD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LD7&amp;", ""memberCount"": "&amp;LD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LD9&amp;", ""memberCount"": "&amp;LD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LD11&amp;", ""memberCount"": "&amp;LD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LD13&amp;", ""memberCount"": "&amp;LD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LD15&amp;", ""memberCount"": "&amp;LD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LD17&amp;", ""memberCount"": "&amp;LD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LD19&amp;", ""memberCount"": "&amp;LD20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 218654576, "memberCount": 200}, {"name": "Smile", "contribution": 197343219, "memberCount": 199}, {"name": "Elite", "contribution": 183535777, "memberCount": 198}, {"name": "Savages", "contribution": 176863037, "memberCount": 198}, {"name": "Spring", "contribution": 143364799, "memberCount": 198}, {"name": "Bounce", "contribution": 160148098, "memberCount": 199}, {"name": "Sunset", "contribution": 132068050, "memberCount": 193}, {"name": "Beaters", "contribution": 99524787, "memberCount": 200}, {"name": "Downtime", "contribution": 99483015, "memberCount": 196}]}</v>
+      </c>
+      <c r="LE23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LE2)&amp;", ""month"": "&amp;MONTH(LE2)&amp;", ""day"": "&amp;DAY(LE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LE3&amp;", ""memberCount"": "&amp;LE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LE5&amp;", ""memberCount"": "&amp;LE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LE7&amp;", ""memberCount"": "&amp;LE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LE9&amp;", ""memberCount"": "&amp;LE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LE11&amp;", ""memberCount"": "&amp;LE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LE13&amp;", ""memberCount"": "&amp;LE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LE15&amp;", ""memberCount"": "&amp;LE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LE17&amp;", ""memberCount"": "&amp;LE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LE19&amp;", ""memberCount"": "&amp;LE20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 218858387, "memberCount": 200}, {"name": "Smile", "contribution": 197617999, "memberCount": 199}, {"name": "Elite", "contribution": 183697242, "memberCount": 199}, {"name": "Savages", "contribution": 177045789, "memberCount": 198}, {"name": "Spring", "contribution": 143466786, "memberCount": 198}, {"name": "Bounce", "contribution": 160444186, "memberCount": 199}, {"name": "Sunset", "contribution": 132230749, "memberCount": 198}, {"name": "Beaters", "contribution": 99601766, "memberCount": 199}, {"name": "Downtime", "contribution": 99599646, "memberCount": 195}]}</v>
+      </c>
+      <c r="LF23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LF2)&amp;", ""month"": "&amp;MONTH(LF2)&amp;", ""day"": "&amp;DAY(LF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LF3&amp;", ""memberCount"": "&amp;LF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LF5&amp;", ""memberCount"": "&amp;LF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LF7&amp;", ""memberCount"": "&amp;LF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LF9&amp;", ""memberCount"": "&amp;LF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LF11&amp;", ""memberCount"": "&amp;LF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LF13&amp;", ""memberCount"": "&amp;LF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LF15&amp;", ""memberCount"": "&amp;LF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LF17&amp;", ""memberCount"": "&amp;LF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LF19&amp;", ""memberCount"": "&amp;LF20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 219052608, "memberCount": 200}, {"name": "Smile", "contribution": 197880615, "memberCount": 199}, {"name": "Elite", "contribution": 183823233, "memberCount": 199}, {"name": "Savages", "contribution": 177227907, "memberCount": 199}, {"name": "Spring", "contribution": 143563287, "memberCount": 198}, {"name": "Bounce", "contribution": 160748504, "memberCount": 199}, {"name": "Sunset", "contribution": 132320809, "memberCount": 198}, {"name": "Beaters", "contribution": 99691885, "memberCount": 200}, {"name": "Downtime", "contribution": 99598216, "memberCount": 195}]}</v>
+      </c>
+      <c r="LG23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LG2)&amp;", ""month"": "&amp;MONTH(LG2)&amp;", ""day"": "&amp;DAY(LG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LG3&amp;", ""memberCount"": "&amp;LG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LG5&amp;", ""memberCount"": "&amp;LG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LG7&amp;", ""memberCount"": "&amp;LG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LG9&amp;", ""memberCount"": "&amp;LG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LG11&amp;", ""memberCount"": "&amp;LG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LG13&amp;", ""memberCount"": "&amp;LG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LG15&amp;", ""memberCount"": "&amp;LG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LG17&amp;", ""memberCount"": "&amp;LG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LG19&amp;", ""memberCount"": "&amp;LG20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 219255474, "memberCount": 200}, {"name": "Smile", "contribution": 198147299, "memberCount": 199}, {"name": "Elite", "contribution": 183946332, "memberCount": 199}, {"name": "Savages", "contribution": 177407451, "memberCount": 199}, {"name": "Spring", "contribution": 143681250, "memberCount": 198}, {"name": "Bounce", "contribution": 161032174, "memberCount": 199}, {"name": "Sunset", "contribution": 131552520, "memberCount": 188}, {"name": "Beaters", "contribution": 99789112, "memberCount": 199}, {"name": "Downtime", "contribution": 99822271, "memberCount": 196}]}</v>
+      </c>
+      <c r="LH23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LH2)&amp;", ""month"": "&amp;MONTH(LH2)&amp;", ""day"": "&amp;DAY(LH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LH3&amp;", ""memberCount"": "&amp;LH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LH5&amp;", ""memberCount"": "&amp;LH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LH7&amp;", ""memberCount"": "&amp;LH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LH9&amp;", ""memberCount"": "&amp;LH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LH11&amp;", ""memberCount"": "&amp;LH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LH13&amp;", ""memberCount"": "&amp;LH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LH15&amp;", ""memberCount"": "&amp;LH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LH17&amp;", ""memberCount"": "&amp;LH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LH19&amp;", ""memberCount"": "&amp;LH20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 219414545, "memberCount": 200}, {"name": "Smile", "contribution": 198415850, "memberCount": 199}, {"name": "Elite", "contribution": 184093787, "memberCount": 199}, {"name": "Savages", "contribution": 176923738, "memberCount": 198}, {"name": "Spring", "contribution": 143752123, "memberCount": 198}, {"name": "Bounce", "contribution": 161307512, "memberCount": 199}, {"name": "Sunset", "contribution": 131716817, "memberCount": 188}, {"name": "Beaters", "contribution": 99903965, "memberCount": 199}, {"name": "Downtime", "contribution": 100000961, "memberCount": 196}]}</v>
+      </c>
+      <c r="LI23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LI2)&amp;", ""month"": "&amp;MONTH(LI2)&amp;", ""day"": "&amp;DAY(LI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LI3&amp;", ""memberCount"": "&amp;LI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LI5&amp;", ""memberCount"": "&amp;LI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LI7&amp;", ""memberCount"": "&amp;LI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LI9&amp;", ""memberCount"": "&amp;LI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LI11&amp;", ""memberCount"": "&amp;LI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LI13&amp;", ""memberCount"": "&amp;LI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LI15&amp;", ""memberCount"": "&amp;LI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LI17&amp;", ""memberCount"": "&amp;LI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LI19&amp;", ""memberCount"": "&amp;LI20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 219586516, "memberCount": 200}, {"name": "Smile", "contribution": 198686264, "memberCount": 199}, {"name": "Elite", "contribution": 184223784, "memberCount": 199}, {"name": "Savages", "contribution": 177109401, "memberCount": 198}, {"name": "Spring", "contribution": 143904426, "memberCount": 109}, {"name": "Bounce", "contribution": 161476296, "memberCount": 199}, {"name": "Sunset", "contribution": 131875211, "memberCount": 188}, {"name": "Beaters", "contribution": 100062834, "memberCount": 199}, {"name": "Downtime", "contribution": 100172967, "memberCount": 196}]}</v>
+      </c>
+      <c r="LJ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LJ2)&amp;", ""month"": "&amp;MONTH(LJ2)&amp;", ""day"": "&amp;DAY(LJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LJ3&amp;", ""memberCount"": "&amp;LJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LJ5&amp;", ""memberCount"": "&amp;LJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LJ7&amp;", ""memberCount"": "&amp;LJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LJ9&amp;", ""memberCount"": "&amp;LJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LJ11&amp;", ""memberCount"": "&amp;LJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LJ13&amp;", ""memberCount"": "&amp;LJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LJ15&amp;", ""memberCount"": "&amp;LJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LJ17&amp;", ""memberCount"": "&amp;LJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LJ19&amp;", ""memberCount"": "&amp;LJ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 219664737, "memberCount": 200}, {"name": "Smile", "contribution": 198903207, "memberCount": 199}, {"name": "Elite", "contribution": 184350161, "memberCount": 199}, {"name": "Savages", "contribution": 177273230, "memberCount": 198}, {"name": "Spring", "contribution": 143999136, "memberCount": 198}, {"name": "Bounce", "contribution": 161735443, "memberCount": 199}, {"name": "Sunset", "contribution": 131951152, "memberCount": 187}, {"name": "Beaters", "contribution": 100166497, "memberCount": 199}, {"name": "Downtime", "contribution": 100310758, "memberCount": 196}]}</v>
+      </c>
+      <c r="LK23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LK2)&amp;", ""month"": "&amp;MONTH(LK2)&amp;", ""day"": "&amp;DAY(LK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LK3&amp;", ""memberCount"": "&amp;LK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LK5&amp;", ""memberCount"": "&amp;LK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LK7&amp;", ""memberCount"": "&amp;LK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LK9&amp;", ""memberCount"": "&amp;LK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LK11&amp;", ""memberCount"": "&amp;LK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LK13&amp;", ""memberCount"": "&amp;LK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LK15&amp;", ""memberCount"": "&amp;LK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LK17&amp;", ""memberCount"": "&amp;LK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LK19&amp;", ""memberCount"": "&amp;LK20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 219849054, "memberCount": 200}, {"name": "Smile", "contribution": 199172460, "memberCount": 199}, {"name": "Elite", "contribution": 184483235, "memberCount": 199}, {"name": "Savages", "contribution": 177461804, "memberCount": 199}, {"name": "Spring", "contribution": 144140964, "memberCount": 198}, {"name": "Bounce", "contribution": 162007795, "memberCount": 199}, {"name": "Sunset", "contribution": 132110849, "memberCount": 189}, {"name": "Beaters", "contribution": 100310581, "memberCount": 199}, {"name": "Downtime", "contribution": 100499714, "memberCount": 197}]}</v>
+      </c>
+      <c r="LL23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LL2)&amp;", ""month"": "&amp;MONTH(LL2)&amp;", ""day"": "&amp;DAY(LL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LL3&amp;", ""memberCount"": "&amp;LL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LL5&amp;", ""memberCount"": "&amp;LL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LL7&amp;", ""memberCount"": "&amp;LL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LL9&amp;", ""memberCount"": "&amp;LL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LL11&amp;", ""memberCount"": "&amp;LL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LL13&amp;", ""memberCount"": "&amp;LL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LL15&amp;", ""memberCount"": "&amp;LL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LL17&amp;", ""memberCount"": "&amp;LL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LL19&amp;", ""memberCount"": "&amp;LL20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 219800481, "memberCount": 199}, {"name": "Smile", "contribution": 199420897, "memberCount": 199}, {"name": "Elite", "contribution": 184648972, "memberCount": 199}, {"name": "Savages", "contribution": 177646822, "memberCount": 199}, {"name": "Spring", "contribution": 144222809, "memberCount": 198}, {"name": "Bounce", "contribution": 162061356, "memberCount": 199}, {"name": "Sunset", "contribution": 132233902, "memberCount": 189}, {"name": "Beaters", "contribution": 100431045, "memberCount": 199}, {"name": "Downtime", "contribution": 100666814, "memberCount": 198}]}</v>
+      </c>
+      <c r="LM23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LM2)&amp;", ""month"": "&amp;MONTH(LM2)&amp;", ""day"": "&amp;DAY(LM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LM3&amp;", ""memberCount"": "&amp;LM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LM5&amp;", ""memberCount"": "&amp;LM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LM7&amp;", ""memberCount"": "&amp;LM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LM9&amp;", ""memberCount"": "&amp;LM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LM11&amp;", ""memberCount"": "&amp;LM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LM13&amp;", ""memberCount"": "&amp;LM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LM15&amp;", ""memberCount"": "&amp;LM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LM17&amp;", ""memberCount"": "&amp;LM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LM19&amp;", ""memberCount"": "&amp;LM20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 219981200, "memberCount": 200}, {"name": "Smile", "contribution": 199672439, "memberCount": 199}, {"name": "Elite", "contribution": 184792230, "memberCount": 199}, {"name": "Savages", "contribution": 177832472, "memberCount": 199}, {"name": "Spring", "contribution": 144322674, "memberCount": 198}, {"name": "Bounce", "contribution": 162369718, "memberCount": 199}, {"name": "Sunset", "contribution": 132370451, "memberCount": 189}, {"name": "Beaters", "contribution": 100575449, "memberCount": 199}, {"name": "Downtime", "contribution": 100833455, "memberCount": 198}]}</v>
+      </c>
+      <c r="LN23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LN2)&amp;", ""month"": "&amp;MONTH(LN2)&amp;", ""day"": "&amp;DAY(LN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LN3&amp;", ""memberCount"": "&amp;LN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LN5&amp;", ""memberCount"": "&amp;LN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LN7&amp;", ""memberCount"": "&amp;LN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LN9&amp;", ""memberCount"": "&amp;LN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LN11&amp;", ""memberCount"": "&amp;LN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LN13&amp;", ""memberCount"": "&amp;LN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LN15&amp;", ""memberCount"": "&amp;LN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LN17&amp;", ""memberCount"": "&amp;LN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LN19&amp;", ""memberCount"": "&amp;LN20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 220163525, "memberCount": 200}, {"name": "Smile", "contribution": 199923406, "memberCount": 200}, {"name": "Elite", "contribution": 184929867, "memberCount": 199}, {"name": "Savages", "contribution": 178004168, "memberCount": 199}, {"name": "Spring", "contribution": 144435441, "memberCount": 198}, {"name": "Bounce", "contribution": 162668437, "memberCount": 199}, {"name": "Sunset", "contribution": 132507721, "memberCount": 189}, {"name": "Beaters", "contribution": 100710365, "memberCount": 200}, {"name": "Downtime", "contribution": 100999603, "memberCount": 197}]}</v>
+      </c>
+      <c r="LO23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LO2)&amp;", ""month"": "&amp;MONTH(LO2)&amp;", ""day"": "&amp;DAY(LO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LO3&amp;", ""memberCount"": "&amp;LO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LO5&amp;", ""memberCount"": "&amp;LO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LO7&amp;", ""memberCount"": "&amp;LO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LO9&amp;", ""memberCount"": "&amp;LO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LO11&amp;", ""memberCount"": "&amp;LO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LO13&amp;", ""memberCount"": "&amp;LO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LO15&amp;", ""memberCount"": "&amp;LO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LO17&amp;", ""memberCount"": "&amp;LO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LO19&amp;", ""memberCount"": "&amp;LO20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 220332760, "memberCount": 200}, {"name": "Smile", "contribution": 200164968, "memberCount": 200}, {"name": "Elite", "contribution": 185033001, "memberCount": 199}, {"name": "Savages", "contribution": 178113875, "memberCount": 199}, {"name": "Spring", "contribution": 144521469, "memberCount": 198}, {"name": "Bounce", "contribution": 162951475, "memberCount": 199}, {"name": "Sunset", "contribution": 132611787, "memberCount": 189}, {"name": "Beaters", "contribution": 100844697, "memberCount": 200}, {"name": "Downtime", "contribution": 101176247, "memberCount": 197}]}</v>
+      </c>
+      <c r="LP23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LP2)&amp;", ""month"": "&amp;MONTH(LP2)&amp;", ""day"": "&amp;DAY(LP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LP3&amp;", ""memberCount"": "&amp;LP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LP5&amp;", ""memberCount"": "&amp;LP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LP7&amp;", ""memberCount"": "&amp;LP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LP9&amp;", ""memberCount"": "&amp;LP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LP11&amp;", ""memberCount"": "&amp;LP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LP13&amp;", ""memberCount"": "&amp;LP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LP15&amp;", ""memberCount"": "&amp;LP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LP17&amp;", ""memberCount"": "&amp;LP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LP19&amp;", ""memberCount"": "&amp;LP20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 220512980, "memberCount": 200}, {"name": "Smile", "contribution": 200411769, "memberCount": 200}, {"name": "Elite", "contribution": 185158142, "memberCount": 199}, {"name": "Savages", "contribution": 178289217, "memberCount": 199}, {"name": "Spring", "contribution": 144615164, "memberCount": 198}, {"name": "Bounce", "contribution": 163223218, "memberCount": 199}, {"name": "Sunset", "contribution": 132721249, "memberCount": 191}, {"name": "Beaters", "contribution": 100958145, "memberCount": 200}, {"name": "Downtime", "contribution": 101300464, "memberCount": 197}]}</v>
+      </c>
+      <c r="LQ23" s="71" t="str">
+        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(LQ2)&amp;", ""month"": "&amp;MONTH(LQ2)&amp;", ""day"": "&amp;DAY(LQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;LQ3&amp;", ""memberCount"": "&amp;LQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;LQ5&amp;", ""memberCount"": "&amp;LQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;LQ7&amp;", ""memberCount"": "&amp;LQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;LQ9&amp;", ""memberCount"": "&amp;LQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;LQ11&amp;", ""memberCount"": "&amp;LQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;LQ13&amp;", ""memberCount"": "&amp;LQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;LQ15&amp;", ""memberCount"": "&amp;LQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;LQ17&amp;", ""memberCount"": "&amp;LQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;LQ19&amp;", ""memberCount"": "&amp;LQ20&amp;"}"&amp;"]}"</f>
+        <v>    , {"year": 2019, "month": 7, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": 220722215, "memberCount": 200}, {"name": "Smile", "contribution": 200641391, "memberCount": 200}, {"name": "Elite", "contribution": 185362598, "memberCount": 199}, {"name": "Savages", "contribution": 178414364, "memberCount": 199}, {"name": "Spring", "contribution": 144699620, "memberCount": 198}, {"name": "Bounce", "contribution": 163528449, "memberCount": 199}, {"name": "Sunset", "contribution": 132861180, "memberCount": 191}, {"name": "Beaters", "contribution": 101089372, "memberCount": 200}, {"name": "Downtime", "contribution": 101456457, "memberCount": 200}]}</v>
       </c>
     </row>
   </sheetData>

--- a/data/MapleStory Guild Contribution Record.xlsx
+++ b/data/MapleStory Guild Contribution Record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4278" uniqueCount="15">
   <si>
     <t xml:space="preserve">Eternal</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Beaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tama</t>
   </si>
   <si>
     <t xml:space="preserve">JSON Day Entries</t>
@@ -103,7 +106,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,7 +158,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF685"/>
-        <bgColor rgb="FFFFE5CA"/>
+        <bgColor rgb="FFFFFBCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -174,6 +177,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE4E5"/>
         <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFBCC"/>
+        <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
   </fills>
@@ -292,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -601,16 +610,40 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -625,7 +658,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFE5CA"/>
       <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -642,7 +675,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFE5CA"/>
+      <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -692,25 +725,25 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="NM3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="NM1" activeCellId="0" sqref="NM1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="NU9" activeCellId="0" sqref="NU9"/>
+      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="513" min="4" style="0" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="514" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="513" min="4" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="514" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="n">
@@ -3398,36 +3431,96 @@
       <c r="NU3" s="7" t="n">
         <v>229200823</v>
       </c>
-      <c r="NV3" s="7"/>
-      <c r="NW3" s="7"/>
-      <c r="NX3" s="7"/>
-      <c r="NY3" s="7"/>
-      <c r="NZ3" s="7"/>
-      <c r="OA3" s="7"/>
-      <c r="OB3" s="7"/>
-      <c r="OC3" s="7"/>
-      <c r="OD3" s="7"/>
-      <c r="OE3" s="7"/>
-      <c r="OF3" s="7"/>
-      <c r="OG3" s="7"/>
-      <c r="OH3" s="7"/>
-      <c r="OI3" s="7"/>
-      <c r="OJ3" s="7"/>
-      <c r="OK3" s="7"/>
-      <c r="OL3" s="7"/>
-      <c r="OM3" s="7"/>
-      <c r="ON3" s="7"/>
-      <c r="OO3" s="7"/>
-      <c r="OP3" s="7"/>
-      <c r="OQ3" s="7"/>
-      <c r="OR3" s="7"/>
-      <c r="OS3" s="7"/>
-      <c r="OT3" s="7"/>
-      <c r="OU3" s="7"/>
-      <c r="OV3" s="7"/>
-      <c r="OW3" s="7"/>
-      <c r="OX3" s="7"/>
-      <c r="OY3" s="7"/>
+      <c r="NV3" s="7" t="n">
+        <v>229364055</v>
+      </c>
+      <c r="NW3" s="7" t="n">
+        <v>229534807</v>
+      </c>
+      <c r="NX3" s="7" t="n">
+        <v>229704287</v>
+      </c>
+      <c r="NY3" s="7" t="n">
+        <v>229838503</v>
+      </c>
+      <c r="NZ3" s="7" t="n">
+        <v>229980159</v>
+      </c>
+      <c r="OA3" s="7" t="n">
+        <v>230148544</v>
+      </c>
+      <c r="OB3" s="7" t="n">
+        <v>230326649</v>
+      </c>
+      <c r="OC3" s="7" t="n">
+        <v>230406797</v>
+      </c>
+      <c r="OD3" s="7" t="n">
+        <v>230571705</v>
+      </c>
+      <c r="OE3" s="7" t="n">
+        <v>230240268</v>
+      </c>
+      <c r="OF3" s="7" t="n">
+        <v>230404455</v>
+      </c>
+      <c r="OG3" s="7" t="n">
+        <v>230540700</v>
+      </c>
+      <c r="OH3" s="7" t="n">
+        <v>230679035</v>
+      </c>
+      <c r="OI3" s="7" t="n">
+        <v>230846975</v>
+      </c>
+      <c r="OJ3" s="7" t="n">
+        <v>231000480</v>
+      </c>
+      <c r="OK3" s="7" t="n">
+        <v>231169268</v>
+      </c>
+      <c r="OL3" s="7" t="n">
+        <v>231327914</v>
+      </c>
+      <c r="OM3" s="7" t="n">
+        <v>231505548</v>
+      </c>
+      <c r="ON3" s="7" t="n">
+        <v>231624946</v>
+      </c>
+      <c r="OO3" s="7" t="n">
+        <v>231746387</v>
+      </c>
+      <c r="OP3" s="7" t="n">
+        <v>231905710</v>
+      </c>
+      <c r="OQ3" s="7" t="n">
+        <v>232050681</v>
+      </c>
+      <c r="OR3" s="7" t="n">
+        <v>232186404</v>
+      </c>
+      <c r="OS3" s="7" t="n">
+        <v>232338767</v>
+      </c>
+      <c r="OT3" s="7" t="n">
+        <v>232483030</v>
+      </c>
+      <c r="OU3" s="7" t="n">
+        <v>232608995</v>
+      </c>
+      <c r="OV3" s="7" t="n">
+        <v>232730110</v>
+      </c>
+      <c r="OW3" s="7" t="n">
+        <v>232899113</v>
+      </c>
+      <c r="OX3" s="7" t="n">
+        <v>233016008</v>
+      </c>
+      <c r="OY3" s="7" t="n">
+        <v>233188672</v>
+      </c>
       <c r="OZ3" s="7"/>
       <c r="PA3" s="7"/>
       <c r="PB3" s="7"/>
@@ -4680,36 +4773,96 @@
       <c r="NU4" s="11" t="n">
         <v>199</v>
       </c>
-      <c r="NV4" s="11"/>
-      <c r="NW4" s="11"/>
-      <c r="NX4" s="11"/>
-      <c r="NY4" s="11"/>
-      <c r="NZ4" s="11"/>
-      <c r="OA4" s="11"/>
-      <c r="OB4" s="11"/>
-      <c r="OC4" s="11"/>
-      <c r="OD4" s="11"/>
-      <c r="OE4" s="11"/>
-      <c r="OF4" s="11"/>
-      <c r="OG4" s="11"/>
-      <c r="OH4" s="11"/>
-      <c r="OI4" s="11"/>
-      <c r="OJ4" s="11"/>
-      <c r="OK4" s="11"/>
-      <c r="OL4" s="11"/>
-      <c r="OM4" s="11"/>
-      <c r="ON4" s="11"/>
-      <c r="OO4" s="11"/>
-      <c r="OP4" s="11"/>
-      <c r="OQ4" s="11"/>
-      <c r="OR4" s="11"/>
-      <c r="OS4" s="11"/>
-      <c r="OT4" s="11"/>
-      <c r="OU4" s="11"/>
-      <c r="OV4" s="11"/>
-      <c r="OW4" s="11"/>
-      <c r="OX4" s="11"/>
-      <c r="OY4" s="11"/>
+      <c r="NV4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="NW4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="NX4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="NY4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="NZ4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="OA4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="OB4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="OC4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="OD4" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="OE4" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="OF4" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="OG4" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="OH4" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="OI4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OJ4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OK4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OL4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OM4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="ON4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OO4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OP4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OQ4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OR4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OS4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OT4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OU4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OV4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OW4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OX4" s="11" t="n">
+        <v>196</v>
+      </c>
+      <c r="OY4" s="11" t="n">
+        <v>196</v>
+      </c>
       <c r="OZ4" s="11"/>
       <c r="PA4" s="11"/>
       <c r="PB4" s="11"/>
@@ -5964,36 +6117,96 @@
       <c r="NU5" s="17" t="n">
         <v>212197649</v>
       </c>
-      <c r="NV5" s="17"/>
-      <c r="NW5" s="17"/>
-      <c r="NX5" s="17"/>
-      <c r="NY5" s="17"/>
-      <c r="NZ5" s="17"/>
-      <c r="OA5" s="17"/>
-      <c r="OB5" s="17"/>
-      <c r="OC5" s="17"/>
-      <c r="OD5" s="17"/>
-      <c r="OE5" s="17"/>
-      <c r="OF5" s="17"/>
-      <c r="OG5" s="17"/>
-      <c r="OH5" s="17"/>
-      <c r="OI5" s="17"/>
-      <c r="OJ5" s="17"/>
-      <c r="OK5" s="17"/>
-      <c r="OL5" s="17"/>
-      <c r="OM5" s="17"/>
-      <c r="ON5" s="17"/>
-      <c r="OO5" s="17"/>
-      <c r="OP5" s="17"/>
-      <c r="OQ5" s="17"/>
-      <c r="OR5" s="17"/>
-      <c r="OS5" s="17"/>
-      <c r="OT5" s="17"/>
-      <c r="OU5" s="17"/>
-      <c r="OV5" s="17"/>
-      <c r="OW5" s="17"/>
-      <c r="OX5" s="17"/>
-      <c r="OY5" s="17"/>
+      <c r="NV5" s="17" t="n">
+        <v>212416293</v>
+      </c>
+      <c r="NW5" s="17" t="n">
+        <v>212633012</v>
+      </c>
+      <c r="NX5" s="17" t="n">
+        <v>212865046</v>
+      </c>
+      <c r="NY5" s="17" t="n">
+        <v>212998087</v>
+      </c>
+      <c r="NZ5" s="17" t="n">
+        <v>213222001</v>
+      </c>
+      <c r="OA5" s="17" t="n">
+        <v>213418732</v>
+      </c>
+      <c r="OB5" s="17" t="n">
+        <v>213674785</v>
+      </c>
+      <c r="OC5" s="17" t="n">
+        <v>213775941</v>
+      </c>
+      <c r="OD5" s="17" t="n">
+        <v>212758971</v>
+      </c>
+      <c r="OE5" s="17" t="n">
+        <v>212971083</v>
+      </c>
+      <c r="OF5" s="17" t="n">
+        <v>213181792</v>
+      </c>
+      <c r="OG5" s="17" t="n">
+        <v>213385724</v>
+      </c>
+      <c r="OH5" s="17" t="n">
+        <v>213583095</v>
+      </c>
+      <c r="OI5" s="17" t="n">
+        <v>213768961</v>
+      </c>
+      <c r="OJ5" s="17" t="n">
+        <v>213981021</v>
+      </c>
+      <c r="OK5" s="17" t="n">
+        <v>213644481</v>
+      </c>
+      <c r="OL5" s="17" t="n">
+        <v>213868898</v>
+      </c>
+      <c r="OM5" s="17" t="n">
+        <v>214096984</v>
+      </c>
+      <c r="ON5" s="17" t="n">
+        <v>214290792</v>
+      </c>
+      <c r="OO5" s="17" t="n">
+        <v>214560270</v>
+      </c>
+      <c r="OP5" s="17" t="n">
+        <v>214788079</v>
+      </c>
+      <c r="OQ5" s="17" t="n">
+        <v>215015839</v>
+      </c>
+      <c r="OR5" s="17" t="n">
+        <v>215229208</v>
+      </c>
+      <c r="OS5" s="17" t="n">
+        <v>215456868</v>
+      </c>
+      <c r="OT5" s="17" t="n">
+        <v>215678492</v>
+      </c>
+      <c r="OU5" s="17" t="n">
+        <v>215879931</v>
+      </c>
+      <c r="OV5" s="17" t="n">
+        <v>216107548</v>
+      </c>
+      <c r="OW5" s="17" t="n">
+        <v>216387124</v>
+      </c>
+      <c r="OX5" s="17" t="n">
+        <v>216655262</v>
+      </c>
+      <c r="OY5" s="17" t="n">
+        <v>216867007</v>
+      </c>
       <c r="OZ5" s="17"/>
       <c r="PA5" s="17"/>
       <c r="PB5" s="17"/>
@@ -7246,36 +7459,96 @@
       <c r="NU6" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="NV6" s="20"/>
-      <c r="NW6" s="20"/>
-      <c r="NX6" s="20"/>
-      <c r="NY6" s="20"/>
-      <c r="NZ6" s="20"/>
-      <c r="OA6" s="20"/>
-      <c r="OB6" s="20"/>
-      <c r="OC6" s="20"/>
-      <c r="OD6" s="20"/>
-      <c r="OE6" s="20"/>
-      <c r="OF6" s="20"/>
-      <c r="OG6" s="20"/>
-      <c r="OH6" s="20"/>
-      <c r="OI6" s="20"/>
-      <c r="OJ6" s="20"/>
-      <c r="OK6" s="20"/>
-      <c r="OL6" s="20"/>
-      <c r="OM6" s="20"/>
-      <c r="ON6" s="20"/>
-      <c r="OO6" s="20"/>
-      <c r="OP6" s="20"/>
-      <c r="OQ6" s="20"/>
-      <c r="OR6" s="20"/>
-      <c r="OS6" s="20"/>
-      <c r="OT6" s="20"/>
-      <c r="OU6" s="20"/>
-      <c r="OV6" s="20"/>
-      <c r="OW6" s="20"/>
-      <c r="OX6" s="20"/>
-      <c r="OY6" s="20"/>
+      <c r="NV6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="NW6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="NX6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="NY6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="NZ6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="OA6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="OB6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="OC6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="OD6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="OE6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="OF6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="OG6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="OH6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="OI6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="OJ6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="OK6" s="20" t="n">
+        <v>193</v>
+      </c>
+      <c r="OL6" s="20" t="n">
+        <v>193</v>
+      </c>
+      <c r="OM6" s="20" t="n">
+        <v>196</v>
+      </c>
+      <c r="ON6" s="20" t="n">
+        <v>198</v>
+      </c>
+      <c r="OO6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="OP6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="OQ6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="OR6" s="20" t="n">
+        <v>199</v>
+      </c>
+      <c r="OS6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="OT6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="OU6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="OV6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="OW6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="OX6" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="OY6" s="20" t="n">
+        <v>200</v>
+      </c>
       <c r="OZ6" s="20"/>
       <c r="PA6" s="20"/>
       <c r="PB6" s="20"/>
@@ -8530,36 +8803,96 @@
       <c r="NU7" s="24" t="n">
         <v>192897075</v>
       </c>
-      <c r="NV7" s="24"/>
-      <c r="NW7" s="24"/>
-      <c r="NX7" s="24"/>
-      <c r="NY7" s="24"/>
-      <c r="NZ7" s="24"/>
-      <c r="OA7" s="24"/>
-      <c r="OB7" s="24"/>
-      <c r="OC7" s="24"/>
-      <c r="OD7" s="24"/>
-      <c r="OE7" s="24"/>
-      <c r="OF7" s="24"/>
-      <c r="OG7" s="24"/>
-      <c r="OH7" s="24"/>
-      <c r="OI7" s="24"/>
-      <c r="OJ7" s="24"/>
-      <c r="OK7" s="24"/>
-      <c r="OL7" s="24"/>
-      <c r="OM7" s="24"/>
-      <c r="ON7" s="24"/>
-      <c r="OO7" s="24"/>
-      <c r="OP7" s="24"/>
-      <c r="OQ7" s="24"/>
-      <c r="OR7" s="24"/>
-      <c r="OS7" s="24"/>
-      <c r="OT7" s="24"/>
-      <c r="OU7" s="24"/>
-      <c r="OV7" s="24"/>
-      <c r="OW7" s="24"/>
-      <c r="OX7" s="24"/>
-      <c r="OY7" s="24"/>
+      <c r="NV7" s="24" t="n">
+        <v>193086401</v>
+      </c>
+      <c r="NW7" s="24" t="n">
+        <v>193216650</v>
+      </c>
+      <c r="NX7" s="24" t="n">
+        <v>193353158</v>
+      </c>
+      <c r="NY7" s="24" t="n">
+        <v>193502758</v>
+      </c>
+      <c r="NZ7" s="24" t="n">
+        <v>193639181</v>
+      </c>
+      <c r="OA7" s="24" t="n">
+        <v>193771884</v>
+      </c>
+      <c r="OB7" s="24" t="n">
+        <v>193935751</v>
+      </c>
+      <c r="OC7" s="24" t="n">
+        <v>194079182</v>
+      </c>
+      <c r="OD7" s="24" t="n">
+        <v>194225562</v>
+      </c>
+      <c r="OE7" s="24" t="n">
+        <v>194385517</v>
+      </c>
+      <c r="OF7" s="24" t="n">
+        <v>194535764</v>
+      </c>
+      <c r="OG7" s="24" t="n">
+        <v>194701804</v>
+      </c>
+      <c r="OH7" s="24" t="n">
+        <v>194861471</v>
+      </c>
+      <c r="OI7" s="24" t="n">
+        <v>195010062</v>
+      </c>
+      <c r="OJ7" s="24" t="n">
+        <v>195173211</v>
+      </c>
+      <c r="OK7" s="24" t="n">
+        <v>195295575</v>
+      </c>
+      <c r="OL7" s="24" t="n">
+        <v>195407918</v>
+      </c>
+      <c r="OM7" s="24" t="n">
+        <v>195585084</v>
+      </c>
+      <c r="ON7" s="24" t="n">
+        <v>195714704</v>
+      </c>
+      <c r="OO7" s="24" t="n">
+        <v>195865313</v>
+      </c>
+      <c r="OP7" s="24" t="n">
+        <v>195990156</v>
+      </c>
+      <c r="OQ7" s="24" t="n">
+        <v>196182667</v>
+      </c>
+      <c r="OR7" s="24" t="n">
+        <v>196316305</v>
+      </c>
+      <c r="OS7" s="24" t="n">
+        <v>196462694</v>
+      </c>
+      <c r="OT7" s="24" t="n">
+        <v>196620715</v>
+      </c>
+      <c r="OU7" s="24" t="n">
+        <v>196736684</v>
+      </c>
+      <c r="OV7" s="24" t="n">
+        <v>196881830</v>
+      </c>
+      <c r="OW7" s="24" t="n">
+        <v>197046655</v>
+      </c>
+      <c r="OX7" s="24" t="n">
+        <v>197219692</v>
+      </c>
+      <c r="OY7" s="24" t="n">
+        <v>197389288</v>
+      </c>
       <c r="OZ7" s="24"/>
       <c r="PA7" s="24"/>
       <c r="PB7" s="24"/>
@@ -9812,36 +10145,96 @@
       <c r="NU8" s="27" t="n">
         <v>196</v>
       </c>
-      <c r="NV8" s="27"/>
-      <c r="NW8" s="27"/>
-      <c r="NX8" s="27"/>
-      <c r="NY8" s="27"/>
-      <c r="NZ8" s="27"/>
-      <c r="OA8" s="27"/>
-      <c r="OB8" s="27"/>
-      <c r="OC8" s="27"/>
-      <c r="OD8" s="27"/>
-      <c r="OE8" s="27"/>
-      <c r="OF8" s="27"/>
-      <c r="OG8" s="27"/>
-      <c r="OH8" s="27"/>
-      <c r="OI8" s="27"/>
-      <c r="OJ8" s="27"/>
-      <c r="OK8" s="27"/>
-      <c r="OL8" s="27"/>
-      <c r="OM8" s="27"/>
-      <c r="ON8" s="27"/>
-      <c r="OO8" s="27"/>
-      <c r="OP8" s="27"/>
-      <c r="OQ8" s="27"/>
-      <c r="OR8" s="27"/>
-      <c r="OS8" s="27"/>
-      <c r="OT8" s="27"/>
-      <c r="OU8" s="27"/>
-      <c r="OV8" s="27"/>
-      <c r="OW8" s="27"/>
-      <c r="OX8" s="27"/>
-      <c r="OY8" s="27"/>
+      <c r="NV8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="NW8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="NX8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="NY8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="NZ8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OA8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OB8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OC8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OD8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OE8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OF8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OG8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OH8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OI8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OJ8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OK8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OL8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OM8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="ON8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OO8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OP8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OQ8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OR8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OS8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OT8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OU8" s="27" t="n">
+        <v>196</v>
+      </c>
+      <c r="OV8" s="27" t="n">
+        <v>197</v>
+      </c>
+      <c r="OW8" s="27" t="n">
+        <v>197</v>
+      </c>
+      <c r="OX8" s="27" t="n">
+        <v>197</v>
+      </c>
+      <c r="OY8" s="27" t="n">
+        <v>197</v>
+      </c>
       <c r="OZ8" s="27"/>
       <c r="PA8" s="27"/>
       <c r="PB8" s="27"/>
@@ -11096,36 +11489,96 @@
       <c r="NU9" s="31" t="n">
         <v>185139287</v>
       </c>
-      <c r="NV9" s="31"/>
-      <c r="NW9" s="31"/>
-      <c r="NX9" s="31"/>
-      <c r="NY9" s="31"/>
-      <c r="NZ9" s="31"/>
-      <c r="OA9" s="31"/>
-      <c r="OB9" s="31"/>
-      <c r="OC9" s="31"/>
-      <c r="OD9" s="31"/>
-      <c r="OE9" s="31"/>
-      <c r="OF9" s="31"/>
-      <c r="OG9" s="31"/>
-      <c r="OH9" s="31"/>
-      <c r="OI9" s="31"/>
-      <c r="OJ9" s="31"/>
-      <c r="OK9" s="31"/>
-      <c r="OL9" s="31"/>
-      <c r="OM9" s="31"/>
-      <c r="ON9" s="31"/>
-      <c r="OO9" s="31"/>
-      <c r="OP9" s="31"/>
-      <c r="OQ9" s="31"/>
-      <c r="OR9" s="31"/>
-      <c r="OS9" s="31"/>
-      <c r="OT9" s="31"/>
-      <c r="OU9" s="31"/>
-      <c r="OV9" s="31"/>
-      <c r="OW9" s="31"/>
-      <c r="OX9" s="31"/>
-      <c r="OY9" s="31"/>
+      <c r="NV9" s="31" t="n">
+        <v>185428971</v>
+      </c>
+      <c r="NW9" s="31" t="n">
+        <v>185725071</v>
+      </c>
+      <c r="NX9" s="31" t="n">
+        <v>186064776</v>
+      </c>
+      <c r="NY9" s="31" t="n">
+        <v>186358322</v>
+      </c>
+      <c r="NZ9" s="31" t="n">
+        <v>186661340</v>
+      </c>
+      <c r="OA9" s="31" t="n">
+        <v>186957130</v>
+      </c>
+      <c r="OB9" s="31" t="n">
+        <v>187369592</v>
+      </c>
+      <c r="OC9" s="31" t="n">
+        <v>187520953</v>
+      </c>
+      <c r="OD9" s="31" t="n">
+        <v>187814299</v>
+      </c>
+      <c r="OE9" s="31" t="n">
+        <v>188110443</v>
+      </c>
+      <c r="OF9" s="31" t="n">
+        <v>188466114</v>
+      </c>
+      <c r="OG9" s="31" t="n">
+        <v>188769279</v>
+      </c>
+      <c r="OH9" s="31" t="n">
+        <v>189094416</v>
+      </c>
+      <c r="OI9" s="31" t="n">
+        <v>189420878</v>
+      </c>
+      <c r="OJ9" s="31" t="n">
+        <v>189784787</v>
+      </c>
+      <c r="OK9" s="31" t="n">
+        <v>190132579</v>
+      </c>
+      <c r="OL9" s="31" t="n">
+        <v>190441395</v>
+      </c>
+      <c r="OM9" s="31" t="n">
+        <v>190746582</v>
+      </c>
+      <c r="ON9" s="31" t="n">
+        <v>190563738</v>
+      </c>
+      <c r="OO9" s="31" t="n">
+        <v>190978290</v>
+      </c>
+      <c r="OP9" s="31" t="n">
+        <v>191319979</v>
+      </c>
+      <c r="OQ9" s="31" t="n">
+        <v>191646146</v>
+      </c>
+      <c r="OR9" s="31" t="n">
+        <v>192013790</v>
+      </c>
+      <c r="OS9" s="31" t="n">
+        <v>192376971</v>
+      </c>
+      <c r="OT9" s="31" t="n">
+        <v>192743264</v>
+      </c>
+      <c r="OU9" s="31" t="n">
+        <v>193115262</v>
+      </c>
+      <c r="OV9" s="31" t="n">
+        <v>193463999</v>
+      </c>
+      <c r="OW9" s="31" t="n">
+        <v>193841628</v>
+      </c>
+      <c r="OX9" s="31" t="n">
+        <v>194150802</v>
+      </c>
+      <c r="OY9" s="31" t="n">
+        <v>194500644</v>
+      </c>
       <c r="OZ9" s="31"/>
       <c r="PA9" s="31"/>
       <c r="PB9" s="31"/>
@@ -12378,36 +12831,96 @@
       <c r="NU10" s="34" t="n">
         <v>199</v>
       </c>
-      <c r="NV10" s="34"/>
-      <c r="NW10" s="34"/>
-      <c r="NX10" s="34"/>
-      <c r="NY10" s="34"/>
-      <c r="NZ10" s="34"/>
-      <c r="OA10" s="34"/>
-      <c r="OB10" s="34"/>
-      <c r="OC10" s="34"/>
-      <c r="OD10" s="34"/>
-      <c r="OE10" s="34"/>
-      <c r="OF10" s="34"/>
-      <c r="OG10" s="34"/>
-      <c r="OH10" s="34"/>
-      <c r="OI10" s="34"/>
-      <c r="OJ10" s="34"/>
-      <c r="OK10" s="34"/>
-      <c r="OL10" s="34"/>
-      <c r="OM10" s="34"/>
-      <c r="ON10" s="34"/>
-      <c r="OO10" s="34"/>
-      <c r="OP10" s="34"/>
-      <c r="OQ10" s="34"/>
-      <c r="OR10" s="34"/>
-      <c r="OS10" s="34"/>
-      <c r="OT10" s="34"/>
-      <c r="OU10" s="34"/>
-      <c r="OV10" s="34"/>
-      <c r="OW10" s="34"/>
-      <c r="OX10" s="34"/>
-      <c r="OY10" s="34"/>
+      <c r="NV10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="NW10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="NX10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="NY10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="NZ10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OA10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OB10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OC10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OD10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OE10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OF10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OG10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OH10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OI10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OJ10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OK10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OL10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OM10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="ON10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OO10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OP10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OQ10" s="34" t="n">
+        <v>199</v>
+      </c>
+      <c r="OR10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OS10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OT10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OU10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OV10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OW10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OX10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="OY10" s="34" t="n">
+        <v>200</v>
+      </c>
       <c r="OZ10" s="34"/>
       <c r="PA10" s="34"/>
       <c r="PB10" s="34"/>
@@ -13662,36 +14175,96 @@
       <c r="NU11" s="38" t="n">
         <v>177298358</v>
       </c>
-      <c r="NV11" s="38"/>
-      <c r="NW11" s="38"/>
-      <c r="NX11" s="38"/>
-      <c r="NY11" s="38"/>
-      <c r="NZ11" s="38"/>
-      <c r="OA11" s="38"/>
-      <c r="OB11" s="38"/>
-      <c r="OC11" s="38"/>
-      <c r="OD11" s="38"/>
-      <c r="OE11" s="38"/>
-      <c r="OF11" s="38"/>
-      <c r="OG11" s="38"/>
-      <c r="OH11" s="38"/>
-      <c r="OI11" s="38"/>
-      <c r="OJ11" s="38"/>
-      <c r="OK11" s="38"/>
-      <c r="OL11" s="38"/>
-      <c r="OM11" s="38"/>
-      <c r="ON11" s="38"/>
-      <c r="OO11" s="38"/>
-      <c r="OP11" s="38"/>
-      <c r="OQ11" s="38"/>
-      <c r="OR11" s="38"/>
-      <c r="OS11" s="38"/>
-      <c r="OT11" s="38"/>
-      <c r="OU11" s="38"/>
-      <c r="OV11" s="38"/>
-      <c r="OW11" s="38"/>
-      <c r="OX11" s="38"/>
-      <c r="OY11" s="38"/>
+      <c r="NV11" s="38" t="n">
+        <v>177580315</v>
+      </c>
+      <c r="NW11" s="38" t="n">
+        <v>177806662</v>
+      </c>
+      <c r="NX11" s="38" t="n">
+        <v>178058739</v>
+      </c>
+      <c r="NY11" s="38" t="n">
+        <v>178358629</v>
+      </c>
+      <c r="NZ11" s="38" t="n">
+        <v>178606078</v>
+      </c>
+      <c r="OA11" s="38" t="n">
+        <v>178832530</v>
+      </c>
+      <c r="OB11" s="38" t="n">
+        <v>179130446</v>
+      </c>
+      <c r="OC11" s="38" t="n">
+        <v>179354091</v>
+      </c>
+      <c r="OD11" s="38" t="n">
+        <v>179605894</v>
+      </c>
+      <c r="OE11" s="38" t="n">
+        <v>179860907</v>
+      </c>
+      <c r="OF11" s="38" t="n">
+        <v>180164751</v>
+      </c>
+      <c r="OG11" s="38" t="n">
+        <v>180437867</v>
+      </c>
+      <c r="OH11" s="38" t="n">
+        <v>180744171</v>
+      </c>
+      <c r="OI11" s="38" t="n">
+        <v>181007973</v>
+      </c>
+      <c r="OJ11" s="38" t="n">
+        <v>181261549</v>
+      </c>
+      <c r="OK11" s="38" t="n">
+        <v>181567470</v>
+      </c>
+      <c r="OL11" s="38" t="n">
+        <v>181874503</v>
+      </c>
+      <c r="OM11" s="38" t="n">
+        <v>182174603</v>
+      </c>
+      <c r="ON11" s="38" t="n">
+        <v>182411043</v>
+      </c>
+      <c r="OO11" s="38" t="n">
+        <v>182652815</v>
+      </c>
+      <c r="OP11" s="38" t="n">
+        <v>182863182</v>
+      </c>
+      <c r="OQ11" s="38" t="n">
+        <v>183104902</v>
+      </c>
+      <c r="OR11" s="38" t="n">
+        <v>183385560</v>
+      </c>
+      <c r="OS11" s="38" t="n">
+        <v>183658617</v>
+      </c>
+      <c r="OT11" s="38" t="n">
+        <v>183909228</v>
+      </c>
+      <c r="OU11" s="38" t="n">
+        <v>184235821</v>
+      </c>
+      <c r="OV11" s="38" t="n">
+        <v>184530820</v>
+      </c>
+      <c r="OW11" s="38" t="n">
+        <v>184887866</v>
+      </c>
+      <c r="OX11" s="38" t="n">
+        <v>185190288</v>
+      </c>
+      <c r="OY11" s="38" t="n">
+        <v>185474653</v>
+      </c>
       <c r="OZ11" s="38"/>
       <c r="PA11" s="38"/>
       <c r="PB11" s="38"/>
@@ -14944,36 +15517,96 @@
       <c r="NU12" s="41" t="n">
         <v>199</v>
       </c>
-      <c r="NV12" s="41"/>
-      <c r="NW12" s="41"/>
-      <c r="NX12" s="41"/>
-      <c r="NY12" s="41"/>
-      <c r="NZ12" s="41"/>
-      <c r="OA12" s="41"/>
-      <c r="OB12" s="41"/>
-      <c r="OC12" s="41"/>
-      <c r="OD12" s="41"/>
-      <c r="OE12" s="41"/>
-      <c r="OF12" s="41"/>
-      <c r="OG12" s="41"/>
-      <c r="OH12" s="41"/>
-      <c r="OI12" s="41"/>
-      <c r="OJ12" s="41"/>
-      <c r="OK12" s="41"/>
-      <c r="OL12" s="41"/>
-      <c r="OM12" s="41"/>
-      <c r="ON12" s="41"/>
-      <c r="OO12" s="41"/>
-      <c r="OP12" s="41"/>
-      <c r="OQ12" s="41"/>
-      <c r="OR12" s="41"/>
-      <c r="OS12" s="41"/>
-      <c r="OT12" s="41"/>
-      <c r="OU12" s="41"/>
-      <c r="OV12" s="41"/>
-      <c r="OW12" s="41"/>
-      <c r="OX12" s="41"/>
-      <c r="OY12" s="41"/>
+      <c r="NV12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="NW12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="NX12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="NY12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="NZ12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OA12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OB12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OC12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OD12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OE12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OF12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OG12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OH12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OI12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OJ12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OK12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OL12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OM12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="ON12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OO12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OP12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OQ12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OR12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OS12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OT12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OU12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OV12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OW12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OX12" s="41" t="n">
+        <v>199</v>
+      </c>
+      <c r="OY12" s="41" t="n">
+        <v>199</v>
+      </c>
       <c r="OZ12" s="41"/>
       <c r="PA12" s="41"/>
       <c r="PB12" s="41"/>
@@ -16228,36 +16861,96 @@
       <c r="NU13" s="45" t="n">
         <v>146121437</v>
       </c>
-      <c r="NV13" s="45"/>
-      <c r="NW13" s="45"/>
-      <c r="NX13" s="45"/>
-      <c r="NY13" s="45"/>
-      <c r="NZ13" s="45"/>
-      <c r="OA13" s="45"/>
-      <c r="OB13" s="45"/>
-      <c r="OC13" s="45"/>
-      <c r="OD13" s="45"/>
-      <c r="OE13" s="45"/>
-      <c r="OF13" s="45"/>
-      <c r="OG13" s="45"/>
-      <c r="OH13" s="45"/>
-      <c r="OI13" s="45"/>
-      <c r="OJ13" s="45"/>
-      <c r="OK13" s="45"/>
-      <c r="OL13" s="45"/>
-      <c r="OM13" s="45"/>
-      <c r="ON13" s="45"/>
-      <c r="OO13" s="45"/>
-      <c r="OP13" s="45"/>
-      <c r="OQ13" s="45"/>
-      <c r="OR13" s="45"/>
-      <c r="OS13" s="45"/>
-      <c r="OT13" s="45"/>
-      <c r="OU13" s="45"/>
-      <c r="OV13" s="45"/>
-      <c r="OW13" s="45"/>
-      <c r="OX13" s="45"/>
-      <c r="OY13" s="45"/>
+      <c r="NV13" s="45" t="n">
+        <v>146195200</v>
+      </c>
+      <c r="NW13" s="45" t="n">
+        <v>146282302</v>
+      </c>
+      <c r="NX13" s="45" t="n">
+        <v>146352885</v>
+      </c>
+      <c r="NY13" s="45" t="n">
+        <v>146447956</v>
+      </c>
+      <c r="NZ13" s="45" t="n">
+        <v>146509344</v>
+      </c>
+      <c r="OA13" s="45" t="n">
+        <v>146596685</v>
+      </c>
+      <c r="OB13" s="45" t="n">
+        <v>146683986</v>
+      </c>
+      <c r="OC13" s="45" t="n">
+        <v>146800379</v>
+      </c>
+      <c r="OD13" s="45" t="n">
+        <v>146863061</v>
+      </c>
+      <c r="OE13" s="45" t="n">
+        <v>146941637</v>
+      </c>
+      <c r="OF13" s="45" t="n">
+        <v>147002759</v>
+      </c>
+      <c r="OG13" s="45" t="n">
+        <v>147091530</v>
+      </c>
+      <c r="OH13" s="45" t="n">
+        <v>147147423</v>
+      </c>
+      <c r="OI13" s="45" t="n">
+        <v>147218914</v>
+      </c>
+      <c r="OJ13" s="45" t="n">
+        <v>147295509</v>
+      </c>
+      <c r="OK13" s="45" t="n">
+        <v>147360384</v>
+      </c>
+      <c r="OL13" s="45" t="n">
+        <v>147456341</v>
+      </c>
+      <c r="OM13" s="45" t="n">
+        <v>147527218</v>
+      </c>
+      <c r="ON13" s="45" t="n">
+        <v>147604110</v>
+      </c>
+      <c r="OO13" s="45" t="n">
+        <v>147680607</v>
+      </c>
+      <c r="OP13" s="45" t="n">
+        <v>147732564</v>
+      </c>
+      <c r="OQ13" s="45" t="n">
+        <v>147803065</v>
+      </c>
+      <c r="OR13" s="45" t="n">
+        <v>147872104</v>
+      </c>
+      <c r="OS13" s="45" t="n">
+        <v>147980428</v>
+      </c>
+      <c r="OT13" s="45" t="n">
+        <v>148051519</v>
+      </c>
+      <c r="OU13" s="45" t="n">
+        <v>148132755</v>
+      </c>
+      <c r="OV13" s="45" t="n">
+        <v>148187770</v>
+      </c>
+      <c r="OW13" s="45" t="n">
+        <v>148243724</v>
+      </c>
+      <c r="OX13" s="45" t="n">
+        <v>148214910</v>
+      </c>
+      <c r="OY13" s="45" t="n">
+        <v>148277620</v>
+      </c>
       <c r="OZ13" s="45"/>
       <c r="PA13" s="45"/>
       <c r="PB13" s="45"/>
@@ -17510,36 +18203,96 @@
       <c r="NU14" s="48" t="n">
         <v>191</v>
       </c>
-      <c r="NV14" s="48"/>
-      <c r="NW14" s="48"/>
-      <c r="NX14" s="48"/>
-      <c r="NY14" s="48"/>
-      <c r="NZ14" s="48"/>
-      <c r="OA14" s="48"/>
-      <c r="OB14" s="48"/>
-      <c r="OC14" s="48"/>
-      <c r="OD14" s="48"/>
-      <c r="OE14" s="48"/>
-      <c r="OF14" s="48"/>
-      <c r="OG14" s="48"/>
-      <c r="OH14" s="48"/>
-      <c r="OI14" s="48"/>
-      <c r="OJ14" s="48"/>
-      <c r="OK14" s="48"/>
-      <c r="OL14" s="48"/>
-      <c r="OM14" s="48"/>
-      <c r="ON14" s="48"/>
-      <c r="OO14" s="48"/>
-      <c r="OP14" s="48"/>
-      <c r="OQ14" s="48"/>
-      <c r="OR14" s="48"/>
-      <c r="OS14" s="48"/>
-      <c r="OT14" s="48"/>
-      <c r="OU14" s="48"/>
-      <c r="OV14" s="48"/>
-      <c r="OW14" s="48"/>
-      <c r="OX14" s="48"/>
-      <c r="OY14" s="48"/>
+      <c r="NV14" s="48" t="n">
+        <v>191</v>
+      </c>
+      <c r="NW14" s="48" t="n">
+        <v>191</v>
+      </c>
+      <c r="NX14" s="48" t="n">
+        <v>192</v>
+      </c>
+      <c r="NY14" s="48" t="n">
+        <v>192</v>
+      </c>
+      <c r="NZ14" s="48" t="n">
+        <v>192</v>
+      </c>
+      <c r="OA14" s="48" t="n">
+        <v>192</v>
+      </c>
+      <c r="OB14" s="48" t="n">
+        <v>192</v>
+      </c>
+      <c r="OC14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OD14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OE14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OF14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OG14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OH14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OI14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OJ14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OK14" s="48" t="n">
+        <v>194</v>
+      </c>
+      <c r="OL14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OM14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="ON14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OO14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OP14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OQ14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OR14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OS14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OT14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OU14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OV14" s="48" t="n">
+        <v>195</v>
+      </c>
+      <c r="OW14" s="48" t="n">
+        <v>194</v>
+      </c>
+      <c r="OX14" s="48" t="n">
+        <v>193</v>
+      </c>
+      <c r="OY14" s="48" t="n">
+        <v>193</v>
+      </c>
       <c r="OZ14" s="48"/>
       <c r="PA14" s="48"/>
       <c r="PB14" s="48"/>
@@ -18794,36 +19547,96 @@
       <c r="NU15" s="52" t="n">
         <v>131129304</v>
       </c>
-      <c r="NV15" s="52"/>
-      <c r="NW15" s="52"/>
-      <c r="NX15" s="52"/>
-      <c r="NY15" s="52"/>
-      <c r="NZ15" s="52"/>
-      <c r="OA15" s="52"/>
-      <c r="OB15" s="52"/>
-      <c r="OC15" s="52"/>
-      <c r="OD15" s="52"/>
-      <c r="OE15" s="52"/>
-      <c r="OF15" s="52"/>
-      <c r="OG15" s="52"/>
-      <c r="OH15" s="52"/>
-      <c r="OI15" s="52"/>
-      <c r="OJ15" s="52"/>
-      <c r="OK15" s="52"/>
-      <c r="OL15" s="52"/>
-      <c r="OM15" s="52"/>
-      <c r="ON15" s="52"/>
-      <c r="OO15" s="52"/>
-      <c r="OP15" s="52"/>
-      <c r="OQ15" s="52"/>
-      <c r="OR15" s="52"/>
-      <c r="OS15" s="52"/>
-      <c r="OT15" s="52"/>
-      <c r="OU15" s="52"/>
-      <c r="OV15" s="52"/>
-      <c r="OW15" s="52"/>
-      <c r="OX15" s="52"/>
-      <c r="OY15" s="52"/>
+      <c r="NV15" s="52" t="n">
+        <v>131190835</v>
+      </c>
+      <c r="NW15" s="52" t="n">
+        <v>131270308</v>
+      </c>
+      <c r="NX15" s="52" t="n">
+        <v>131351243</v>
+      </c>
+      <c r="NY15" s="52" t="n">
+        <v>131440366</v>
+      </c>
+      <c r="NZ15" s="52" t="n">
+        <v>131383677</v>
+      </c>
+      <c r="OA15" s="52" t="n">
+        <v>131457863</v>
+      </c>
+      <c r="OB15" s="52" t="n">
+        <v>131543163</v>
+      </c>
+      <c r="OC15" s="52" t="n">
+        <v>131595932</v>
+      </c>
+      <c r="OD15" s="52" t="n">
+        <v>131667723</v>
+      </c>
+      <c r="OE15" s="52" t="n">
+        <v>131741098</v>
+      </c>
+      <c r="OF15" s="52" t="n">
+        <v>131813920</v>
+      </c>
+      <c r="OG15" s="52" t="n">
+        <v>131869882</v>
+      </c>
+      <c r="OH15" s="52" t="n">
+        <v>131923804</v>
+      </c>
+      <c r="OI15" s="52" t="n">
+        <v>131986759</v>
+      </c>
+      <c r="OJ15" s="52" t="n">
+        <v>132024655</v>
+      </c>
+      <c r="OK15" s="52" t="n">
+        <v>132077274</v>
+      </c>
+      <c r="OL15" s="52" t="n">
+        <v>132137577</v>
+      </c>
+      <c r="OM15" s="52" t="n">
+        <v>132211225</v>
+      </c>
+      <c r="ON15" s="52" t="n">
+        <v>132251583</v>
+      </c>
+      <c r="OO15" s="52" t="n">
+        <v>132292224</v>
+      </c>
+      <c r="OP15" s="52" t="n">
+        <v>132346610</v>
+      </c>
+      <c r="OQ15" s="52" t="n">
+        <v>132441507</v>
+      </c>
+      <c r="OR15" s="52" t="n">
+        <v>132487089</v>
+      </c>
+      <c r="OS15" s="52" t="n">
+        <v>132510768</v>
+      </c>
+      <c r="OT15" s="52" t="n">
+        <v>132562578</v>
+      </c>
+      <c r="OU15" s="52" t="n">
+        <v>132597014</v>
+      </c>
+      <c r="OV15" s="52" t="n">
+        <v>132639193</v>
+      </c>
+      <c r="OW15" s="52" t="n">
+        <v>132707365</v>
+      </c>
+      <c r="OX15" s="52" t="n">
+        <v>132777391</v>
+      </c>
+      <c r="OY15" s="52" t="n">
+        <v>132824890</v>
+      </c>
       <c r="OZ15" s="52"/>
       <c r="PA15" s="52"/>
       <c r="PB15" s="52"/>
@@ -20076,36 +20889,96 @@
       <c r="NU16" s="55" t="n">
         <v>189</v>
       </c>
-      <c r="NV16" s="55"/>
-      <c r="NW16" s="55"/>
-      <c r="NX16" s="55"/>
-      <c r="NY16" s="55"/>
-      <c r="NZ16" s="55"/>
-      <c r="OA16" s="55"/>
-      <c r="OB16" s="55"/>
-      <c r="OC16" s="55"/>
-      <c r="OD16" s="55"/>
-      <c r="OE16" s="55"/>
-      <c r="OF16" s="55"/>
-      <c r="OG16" s="55"/>
-      <c r="OH16" s="55"/>
-      <c r="OI16" s="55"/>
-      <c r="OJ16" s="55"/>
-      <c r="OK16" s="55"/>
-      <c r="OL16" s="55"/>
-      <c r="OM16" s="55"/>
-      <c r="ON16" s="55"/>
-      <c r="OO16" s="55"/>
-      <c r="OP16" s="55"/>
-      <c r="OQ16" s="55"/>
-      <c r="OR16" s="55"/>
-      <c r="OS16" s="55"/>
-      <c r="OT16" s="55"/>
-      <c r="OU16" s="55"/>
-      <c r="OV16" s="55"/>
-      <c r="OW16" s="55"/>
-      <c r="OX16" s="55"/>
-      <c r="OY16" s="55"/>
+      <c r="NV16" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="NW16" s="55" t="n">
+        <v>191</v>
+      </c>
+      <c r="NX16" s="55" t="n">
+        <v>191</v>
+      </c>
+      <c r="NY16" s="55" t="n">
+        <v>190</v>
+      </c>
+      <c r="NZ16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OA16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OB16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OC16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OD16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OE16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OF16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OG16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OH16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OI16" s="55" t="n">
+        <v>188</v>
+      </c>
+      <c r="OJ16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OK16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OL16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OM16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="ON16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OO16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OP16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OQ16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OR16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OS16" s="55" t="n">
+        <v>186</v>
+      </c>
+      <c r="OT16" s="55" t="n">
+        <v>186</v>
+      </c>
+      <c r="OU16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OV16" s="55" t="n">
+        <v>187</v>
+      </c>
+      <c r="OW16" s="55" t="n">
+        <v>188</v>
+      </c>
+      <c r="OX16" s="55" t="n">
+        <v>189</v>
+      </c>
+      <c r="OY16" s="55" t="n">
+        <v>189</v>
+      </c>
       <c r="OZ16" s="55"/>
       <c r="PA16" s="55"/>
       <c r="PB16" s="55"/>
@@ -21360,36 +22233,96 @@
       <c r="NU17" s="59" t="n">
         <v>108109558</v>
       </c>
-      <c r="NV17" s="59"/>
-      <c r="NW17" s="59"/>
-      <c r="NX17" s="59"/>
-      <c r="NY17" s="59"/>
-      <c r="NZ17" s="59"/>
-      <c r="OA17" s="59"/>
-      <c r="OB17" s="59"/>
-      <c r="OC17" s="59"/>
-      <c r="OD17" s="59"/>
-      <c r="OE17" s="59"/>
-      <c r="OF17" s="59"/>
-      <c r="OG17" s="59"/>
-      <c r="OH17" s="59"/>
-      <c r="OI17" s="59"/>
-      <c r="OJ17" s="59"/>
-      <c r="OK17" s="59"/>
-      <c r="OL17" s="59"/>
-      <c r="OM17" s="59"/>
-      <c r="ON17" s="59"/>
-      <c r="OO17" s="59"/>
-      <c r="OP17" s="59"/>
-      <c r="OQ17" s="59"/>
-      <c r="OR17" s="59"/>
-      <c r="OS17" s="59"/>
-      <c r="OT17" s="59"/>
-      <c r="OU17" s="59"/>
-      <c r="OV17" s="59"/>
-      <c r="OW17" s="59"/>
-      <c r="OX17" s="59"/>
-      <c r="OY17" s="59"/>
+      <c r="NV17" s="59" t="n">
+        <v>108210771</v>
+      </c>
+      <c r="NW17" s="59" t="n">
+        <v>108290257</v>
+      </c>
+      <c r="NX17" s="59" t="n">
+        <v>108377701</v>
+      </c>
+      <c r="NY17" s="59" t="n">
+        <v>108469428</v>
+      </c>
+      <c r="NZ17" s="59" t="n">
+        <v>108529575</v>
+      </c>
+      <c r="OA17" s="59" t="n">
+        <v>108420166</v>
+      </c>
+      <c r="OB17" s="59" t="n">
+        <v>108495216</v>
+      </c>
+      <c r="OC17" s="59" t="n">
+        <v>108582440</v>
+      </c>
+      <c r="OD17" s="59" t="n">
+        <v>108657348</v>
+      </c>
+      <c r="OE17" s="59" t="n">
+        <v>108772443</v>
+      </c>
+      <c r="OF17" s="59" t="n">
+        <v>108868628</v>
+      </c>
+      <c r="OG17" s="59" t="n">
+        <v>108946244</v>
+      </c>
+      <c r="OH17" s="59" t="n">
+        <v>108958673</v>
+      </c>
+      <c r="OI17" s="59" t="n">
+        <v>109027173</v>
+      </c>
+      <c r="OJ17" s="59" t="n">
+        <v>109112145</v>
+      </c>
+      <c r="OK17" s="59" t="n">
+        <v>109211466</v>
+      </c>
+      <c r="OL17" s="59" t="n">
+        <v>109322479</v>
+      </c>
+      <c r="OM17" s="59" t="n">
+        <v>109447920</v>
+      </c>
+      <c r="ON17" s="59" t="n">
+        <v>109547111</v>
+      </c>
+      <c r="OO17" s="59" t="n">
+        <v>109622285</v>
+      </c>
+      <c r="OP17" s="59" t="n">
+        <v>109703084</v>
+      </c>
+      <c r="OQ17" s="59" t="n">
+        <v>109781588</v>
+      </c>
+      <c r="OR17" s="59" t="n">
+        <v>109909167</v>
+      </c>
+      <c r="OS17" s="59" t="n">
+        <v>109998485</v>
+      </c>
+      <c r="OT17" s="59" t="n">
+        <v>110082920</v>
+      </c>
+      <c r="OU17" s="59" t="n">
+        <v>110159566</v>
+      </c>
+      <c r="OV17" s="59" t="n">
+        <v>110239985</v>
+      </c>
+      <c r="OW17" s="59" t="n">
+        <v>110369324</v>
+      </c>
+      <c r="OX17" s="59" t="n">
+        <v>110484674</v>
+      </c>
+      <c r="OY17" s="59" t="n">
+        <v>110566049</v>
+      </c>
       <c r="OZ17" s="59"/>
       <c r="PA17" s="59"/>
       <c r="PB17" s="59"/>
@@ -22642,36 +23575,96 @@
       <c r="NU18" s="62" t="n">
         <v>199</v>
       </c>
-      <c r="NV18" s="62"/>
-      <c r="NW18" s="62"/>
-      <c r="NX18" s="62"/>
-      <c r="NY18" s="62"/>
-      <c r="NZ18" s="62"/>
-      <c r="OA18" s="62"/>
-      <c r="OB18" s="62"/>
-      <c r="OC18" s="62"/>
-      <c r="OD18" s="62"/>
-      <c r="OE18" s="62"/>
-      <c r="OF18" s="62"/>
-      <c r="OG18" s="62"/>
-      <c r="OH18" s="62"/>
-      <c r="OI18" s="62"/>
-      <c r="OJ18" s="62"/>
-      <c r="OK18" s="62"/>
-      <c r="OL18" s="62"/>
-      <c r="OM18" s="62"/>
-      <c r="ON18" s="62"/>
-      <c r="OO18" s="62"/>
-      <c r="OP18" s="62"/>
-      <c r="OQ18" s="62"/>
-      <c r="OR18" s="62"/>
-      <c r="OS18" s="62"/>
-      <c r="OT18" s="62"/>
-      <c r="OU18" s="62"/>
-      <c r="OV18" s="62"/>
-      <c r="OW18" s="62"/>
-      <c r="OX18" s="62"/>
-      <c r="OY18" s="62"/>
+      <c r="NV18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="NW18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="NX18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="NY18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="NZ18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="OA18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="OB18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="OC18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="OD18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="OE18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="OF18" s="62" t="n">
+        <v>198</v>
+      </c>
+      <c r="OG18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OH18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OI18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OJ18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OK18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OL18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OM18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="ON18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OO18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OP18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OQ18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OR18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OS18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OT18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OU18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OV18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OW18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OX18" s="62" t="n">
+        <v>199</v>
+      </c>
+      <c r="OY18" s="62" t="n">
+        <v>199</v>
+      </c>
       <c r="OZ18" s="62"/>
       <c r="PA18" s="62"/>
       <c r="PB18" s="62"/>
@@ -23926,36 +24919,96 @@
       <c r="NU19" s="65" t="n">
         <v>106593543</v>
       </c>
-      <c r="NV19" s="66"/>
-      <c r="NW19" s="66"/>
-      <c r="NX19" s="66"/>
-      <c r="NY19" s="66"/>
-      <c r="NZ19" s="66"/>
-      <c r="OA19" s="66"/>
-      <c r="OB19" s="66"/>
-      <c r="OC19" s="66"/>
-      <c r="OD19" s="66"/>
-      <c r="OE19" s="66"/>
-      <c r="OF19" s="66"/>
-      <c r="OG19" s="66"/>
-      <c r="OH19" s="66"/>
-      <c r="OI19" s="66"/>
-      <c r="OJ19" s="66"/>
-      <c r="OK19" s="66"/>
-      <c r="OL19" s="66"/>
-      <c r="OM19" s="66"/>
-      <c r="ON19" s="66"/>
-      <c r="OO19" s="66"/>
-      <c r="OP19" s="66"/>
-      <c r="OQ19" s="66"/>
-      <c r="OR19" s="66"/>
-      <c r="OS19" s="66"/>
-      <c r="OT19" s="66"/>
-      <c r="OU19" s="66"/>
-      <c r="OV19" s="66"/>
-      <c r="OW19" s="66"/>
-      <c r="OX19" s="66"/>
-      <c r="OY19" s="66"/>
+      <c r="NV19" s="66" t="n">
+        <v>106639034</v>
+      </c>
+      <c r="NW19" s="66" t="n">
+        <v>106847683</v>
+      </c>
+      <c r="NX19" s="66" t="n">
+        <v>106969250</v>
+      </c>
+      <c r="NY19" s="66" t="n">
+        <v>107297311</v>
+      </c>
+      <c r="NZ19" s="66" t="n">
+        <v>107601086</v>
+      </c>
+      <c r="OA19" s="66" t="n">
+        <v>107891749</v>
+      </c>
+      <c r="OB19" s="66" t="n">
+        <v>108123485</v>
+      </c>
+      <c r="OC19" s="66" t="n">
+        <v>108340596</v>
+      </c>
+      <c r="OD19" s="66" t="n">
+        <v>108607576</v>
+      </c>
+      <c r="OE19" s="66" t="n">
+        <v>108845812</v>
+      </c>
+      <c r="OF19" s="66" t="n">
+        <v>109119986</v>
+      </c>
+      <c r="OG19" s="66" t="n">
+        <v>109392965</v>
+      </c>
+      <c r="OH19" s="66" t="n">
+        <v>109654835</v>
+      </c>
+      <c r="OI19" s="66" t="n">
+        <v>109952233</v>
+      </c>
+      <c r="OJ19" s="66" t="n">
+        <v>110217627</v>
+      </c>
+      <c r="OK19" s="66" t="n">
+        <v>110483941</v>
+      </c>
+      <c r="OL19" s="66" t="n">
+        <v>110703464</v>
+      </c>
+      <c r="OM19" s="66" t="n">
+        <v>110872598</v>
+      </c>
+      <c r="ON19" s="66" t="n">
+        <v>111084973</v>
+      </c>
+      <c r="OO19" s="66" t="n">
+        <v>111348698</v>
+      </c>
+      <c r="OP19" s="66" t="n">
+        <v>111589288</v>
+      </c>
+      <c r="OQ19" s="66" t="n">
+        <v>111846148</v>
+      </c>
+      <c r="OR19" s="66" t="n">
+        <v>112083266</v>
+      </c>
+      <c r="OS19" s="66" t="n">
+        <v>112312082</v>
+      </c>
+      <c r="OT19" s="66" t="n">
+        <v>112462459</v>
+      </c>
+      <c r="OU19" s="66" t="n">
+        <v>112714744</v>
+      </c>
+      <c r="OV19" s="66" t="n">
+        <v>112954130</v>
+      </c>
+      <c r="OW19" s="66" t="n">
+        <v>113229663</v>
+      </c>
+      <c r="OX19" s="66" t="n">
+        <v>113485651</v>
+      </c>
+      <c r="OY19" s="66" t="n">
+        <v>113578325</v>
+      </c>
       <c r="OZ19" s="66"/>
       <c r="PA19" s="66"/>
       <c r="PB19" s="66"/>
@@ -25208,36 +26261,96 @@
       <c r="NU20" s="68" t="n">
         <v>192</v>
       </c>
-      <c r="NV20" s="69"/>
-      <c r="NW20" s="69"/>
-      <c r="NX20" s="69"/>
-      <c r="NY20" s="69"/>
-      <c r="NZ20" s="69"/>
-      <c r="OA20" s="69"/>
-      <c r="OB20" s="69"/>
-      <c r="OC20" s="69"/>
-      <c r="OD20" s="69"/>
-      <c r="OE20" s="69"/>
-      <c r="OF20" s="69"/>
-      <c r="OG20" s="69"/>
-      <c r="OH20" s="69"/>
-      <c r="OI20" s="69"/>
-      <c r="OJ20" s="69"/>
-      <c r="OK20" s="69"/>
-      <c r="OL20" s="69"/>
-      <c r="OM20" s="69"/>
-      <c r="ON20" s="69"/>
-      <c r="OO20" s="69"/>
-      <c r="OP20" s="69"/>
-      <c r="OQ20" s="69"/>
-      <c r="OR20" s="69"/>
-      <c r="OS20" s="69"/>
-      <c r="OT20" s="69"/>
-      <c r="OU20" s="69"/>
-      <c r="OV20" s="69"/>
-      <c r="OW20" s="69"/>
-      <c r="OX20" s="69"/>
-      <c r="OY20" s="69"/>
+      <c r="NV20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="NW20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="NX20" s="69" t="n">
+        <v>187</v>
+      </c>
+      <c r="NY20" s="69" t="n">
+        <v>188</v>
+      </c>
+      <c r="NZ20" s="69" t="n">
+        <v>191</v>
+      </c>
+      <c r="OA20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="OB20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="OC20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="OD20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="OE20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="OF20" s="69" t="n">
+        <v>193</v>
+      </c>
+      <c r="OG20" s="69" t="n">
+        <v>193</v>
+      </c>
+      <c r="OH20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="OI20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="OJ20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="OK20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="OL20" s="69" t="n">
+        <v>195</v>
+      </c>
+      <c r="OM20" s="69" t="n">
+        <v>190</v>
+      </c>
+      <c r="ON20" s="69" t="n">
+        <v>189</v>
+      </c>
+      <c r="OO20" s="69" t="n">
+        <v>191</v>
+      </c>
+      <c r="OP20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="OQ20" s="69" t="n">
+        <v>192</v>
+      </c>
+      <c r="OR20" s="69" t="n">
+        <v>193</v>
+      </c>
+      <c r="OS20" s="69" t="n">
+        <v>193</v>
+      </c>
+      <c r="OT20" s="69" t="n">
+        <v>191</v>
+      </c>
+      <c r="OU20" s="69" t="n">
+        <v>191</v>
+      </c>
+      <c r="OV20" s="69" t="n">
+        <v>191</v>
+      </c>
+      <c r="OW20" s="69" t="n">
+        <v>191</v>
+      </c>
+      <c r="OX20" s="69" t="n">
+        <v>191</v>
+      </c>
+      <c r="OY20" s="69" t="n">
+        <v>190</v>
+      </c>
       <c r="OZ20" s="69"/>
       <c r="PA20" s="69"/>
       <c r="PB20" s="69"/>
@@ -26492,36 +27605,96 @@
       <c r="NU21" s="73" t="n">
         <v>106083363</v>
       </c>
-      <c r="NV21" s="73"/>
-      <c r="NW21" s="73"/>
-      <c r="NX21" s="73"/>
-      <c r="NY21" s="73"/>
-      <c r="NZ21" s="73"/>
-      <c r="OA21" s="73"/>
-      <c r="OB21" s="73"/>
-      <c r="OC21" s="73"/>
-      <c r="OD21" s="73"/>
-      <c r="OE21" s="73"/>
-      <c r="OF21" s="73"/>
-      <c r="OG21" s="73"/>
-      <c r="OH21" s="73"/>
-      <c r="OI21" s="73"/>
-      <c r="OJ21" s="73"/>
-      <c r="OK21" s="73"/>
-      <c r="OL21" s="73"/>
-      <c r="OM21" s="73"/>
-      <c r="ON21" s="73"/>
-      <c r="OO21" s="73"/>
-      <c r="OP21" s="73"/>
-      <c r="OQ21" s="73"/>
-      <c r="OR21" s="73"/>
-      <c r="OS21" s="73"/>
-      <c r="OT21" s="73"/>
-      <c r="OU21" s="73"/>
-      <c r="OV21" s="73"/>
-      <c r="OW21" s="73"/>
-      <c r="OX21" s="73"/>
-      <c r="OY21" s="73"/>
+      <c r="NV21" s="73" t="n">
+        <v>106190069</v>
+      </c>
+      <c r="NW21" s="73" t="n">
+        <v>106290673</v>
+      </c>
+      <c r="NX21" s="73" t="n">
+        <v>106397043</v>
+      </c>
+      <c r="NY21" s="73" t="n">
+        <v>106473757</v>
+      </c>
+      <c r="NZ21" s="73" t="n">
+        <v>106506299</v>
+      </c>
+      <c r="OA21" s="73" t="n">
+        <v>106586930</v>
+      </c>
+      <c r="OB21" s="73" t="n">
+        <v>106650456</v>
+      </c>
+      <c r="OC21" s="73" t="n">
+        <v>106770905</v>
+      </c>
+      <c r="OD21" s="73" t="n">
+        <v>106897567</v>
+      </c>
+      <c r="OE21" s="73" t="n">
+        <v>106820309</v>
+      </c>
+      <c r="OF21" s="73" t="n">
+        <v>106904906</v>
+      </c>
+      <c r="OG21" s="73" t="n">
+        <v>106992508</v>
+      </c>
+      <c r="OH21" s="73" t="n">
+        <v>107074513</v>
+      </c>
+      <c r="OI21" s="73" t="n">
+        <v>107168601</v>
+      </c>
+      <c r="OJ21" s="73" t="n">
+        <v>107152305</v>
+      </c>
+      <c r="OK21" s="73" t="n">
+        <v>107265288</v>
+      </c>
+      <c r="OL21" s="73" t="n">
+        <v>107405719</v>
+      </c>
+      <c r="OM21" s="73" t="n">
+        <v>107513711</v>
+      </c>
+      <c r="ON21" s="73" t="n">
+        <v>107481663</v>
+      </c>
+      <c r="OO21" s="73" t="n">
+        <v>107583796</v>
+      </c>
+      <c r="OP21" s="73" t="n">
+        <v>107754255</v>
+      </c>
+      <c r="OQ21" s="73" t="n">
+        <v>107705992</v>
+      </c>
+      <c r="OR21" s="73" t="n">
+        <v>107791332</v>
+      </c>
+      <c r="OS21" s="73" t="n">
+        <v>107932098</v>
+      </c>
+      <c r="OT21" s="73" t="n">
+        <v>108028238</v>
+      </c>
+      <c r="OU21" s="73" t="n">
+        <v>108139658</v>
+      </c>
+      <c r="OV21" s="73" t="n">
+        <v>108220434</v>
+      </c>
+      <c r="OW21" s="73" t="n">
+        <v>108048562</v>
+      </c>
+      <c r="OX21" s="73" t="n">
+        <v>108148632</v>
+      </c>
+      <c r="OY21" s="73" t="n">
+        <v>108255233</v>
+      </c>
       <c r="OZ21" s="73"/>
       <c r="PA21" s="73"/>
       <c r="PB21" s="73"/>
@@ -27774,36 +28947,96 @@
       <c r="NU22" s="76" t="n">
         <v>199</v>
       </c>
-      <c r="NV22" s="76"/>
-      <c r="NW22" s="76"/>
-      <c r="NX22" s="76"/>
-      <c r="NY22" s="76"/>
-      <c r="NZ22" s="76"/>
-      <c r="OA22" s="76"/>
-      <c r="OB22" s="76"/>
-      <c r="OC22" s="76"/>
-      <c r="OD22" s="76"/>
-      <c r="OE22" s="76"/>
-      <c r="OF22" s="76"/>
-      <c r="OG22" s="76"/>
-      <c r="OH22" s="76"/>
-      <c r="OI22" s="76"/>
-      <c r="OJ22" s="76"/>
-      <c r="OK22" s="76"/>
-      <c r="OL22" s="76"/>
-      <c r="OM22" s="76"/>
-      <c r="ON22" s="76"/>
-      <c r="OO22" s="76"/>
-      <c r="OP22" s="76"/>
-      <c r="OQ22" s="76"/>
-      <c r="OR22" s="76"/>
-      <c r="OS22" s="76"/>
-      <c r="OT22" s="76"/>
-      <c r="OU22" s="76"/>
-      <c r="OV22" s="76"/>
-      <c r="OW22" s="76"/>
-      <c r="OX22" s="76"/>
-      <c r="OY22" s="76"/>
+      <c r="NV22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="NW22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="NX22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="NY22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="NZ22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OA22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OB22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OC22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OD22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OE22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OF22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OG22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OH22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OI22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OJ22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OK22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OL22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OM22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="ON22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OO22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OP22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OQ22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OR22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OS22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OT22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OU22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OV22" s="76" t="n">
+        <v>200</v>
+      </c>
+      <c r="OW22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OX22" s="76" t="n">
+        <v>199</v>
+      </c>
+      <c r="OY22" s="76" t="n">
+        <v>200</v>
+      </c>
       <c r="OZ22" s="76"/>
       <c r="PA22" s="76"/>
       <c r="PB22" s="76"/>
@@ -27904,1589 +29137,4377 @@
       <c r="SS22" s="76"/>
       <c r="AMJ22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="77" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="78" t="s">
+    <row r="23" s="8" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(D2)&amp;", ""month"": "&amp;MONTH(D2)&amp;", ""day"": "&amp;DAY(D2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;D3&amp;", ""memberCount"": "&amp;D4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;D5&amp;", ""memberCount"": "&amp;D6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;D7&amp;", ""memberCount"": "&amp;D8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;D9&amp;", ""memberCount"": "&amp;D10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;D11&amp;", ""memberCount"": "&amp;D12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;D13&amp;", ""memberCount"": "&amp;D14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;D15&amp;", ""memberCount"": "&amp;D16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;D17&amp;", ""memberCount"": "&amp;D18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;D19&amp;", ""memberCount"": "&amp;D20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;D21&amp;", ""memberCount"": "&amp;D22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 161140101, "memberCount": null}, {"name": "Smile", "contribution": 161686485, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="E25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(E2)&amp;", ""month"": "&amp;MONTH(E2)&amp;", ""day"": "&amp;DAY(E2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;E3&amp;", ""memberCount"": "&amp;E4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;E5&amp;", ""memberCount"": "&amp;E6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;E7&amp;", ""memberCount"": "&amp;E8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;E9&amp;", ""memberCount"": "&amp;E10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;E11&amp;", ""memberCount"": "&amp;E12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;E13&amp;", ""memberCount"": "&amp;E14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;E15&amp;", ""memberCount"": "&amp;E16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;E17&amp;", ""memberCount"": "&amp;E18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;E19&amp;", ""memberCount"": "&amp;E20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;E21&amp;", ""memberCount"": "&amp;E22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 161042838, "memberCount": null}, {"name": "Smile", "contribution": 162059117, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="F25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(F2)&amp;", ""month"": "&amp;MONTH(F2)&amp;", ""day"": "&amp;DAY(F2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;F3&amp;", ""memberCount"": "&amp;F4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;F5&amp;", ""memberCount"": "&amp;F6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;F7&amp;", ""memberCount"": "&amp;F8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;F9&amp;", ""memberCount"": "&amp;F10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;F11&amp;", ""memberCount"": "&amp;F12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;F13&amp;", ""memberCount"": "&amp;F14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;F15&amp;", ""memberCount"": "&amp;F16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;F17&amp;", ""memberCount"": "&amp;F18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;F19&amp;", ""memberCount"": "&amp;F20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;F21&amp;", ""memberCount"": "&amp;F22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 161278187, "memberCount": null}, {"name": "Smile", "contribution": 162367297, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="G25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(G2)&amp;", ""month"": "&amp;MONTH(G2)&amp;", ""day"": "&amp;DAY(G2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;G3&amp;", ""memberCount"": "&amp;G4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;G5&amp;", ""memberCount"": "&amp;G6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;G7&amp;", ""memberCount"": "&amp;G8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;G9&amp;", ""memberCount"": "&amp;G10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;G11&amp;", ""memberCount"": "&amp;G12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;G13&amp;", ""memberCount"": "&amp;G14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;G15&amp;", ""memberCount"": "&amp;G16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;G17&amp;", ""memberCount"": "&amp;G18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;G19&amp;", ""memberCount"": "&amp;G20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;G21&amp;", ""memberCount"": "&amp;G22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 161607812, "memberCount": null}, {"name": "Smile", "contribution": 162687457, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="H25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(H2)&amp;", ""month"": "&amp;MONTH(H2)&amp;", ""day"": "&amp;DAY(H2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;H3&amp;", ""memberCount"": "&amp;H4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;H5&amp;", ""memberCount"": "&amp;H6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;H7&amp;", ""memberCount"": "&amp;H8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;H9&amp;", ""memberCount"": "&amp;H10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;H11&amp;", ""memberCount"": "&amp;H12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;H13&amp;", ""memberCount"": "&amp;H14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;H15&amp;", ""memberCount"": "&amp;H16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;H17&amp;", ""memberCount"": "&amp;H18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;H19&amp;", ""memberCount"": "&amp;H20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;H21&amp;", ""memberCount"": "&amp;H22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 161231442, "memberCount": null}, {"name": "Smile", "contribution": 162823582, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="I25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(I2)&amp;", ""month"": "&amp;MONTH(I2)&amp;", ""day"": "&amp;DAY(I2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;I3&amp;", ""memberCount"": "&amp;I4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;I5&amp;", ""memberCount"": "&amp;I6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;I7&amp;", ""memberCount"": "&amp;I8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;I9&amp;", ""memberCount"": "&amp;I10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;I11&amp;", ""memberCount"": "&amp;I12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;I13&amp;", ""memberCount"": "&amp;I14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;I15&amp;", ""memberCount"": "&amp;I16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;I17&amp;", ""memberCount"": "&amp;I18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;I19&amp;", ""memberCount"": "&amp;I20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;I21&amp;", ""memberCount"": "&amp;I22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 161285006, "memberCount": null}, {"name": "Smile", "contribution": 163139819, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="J25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(J2)&amp;", ""month"": "&amp;MONTH(J2)&amp;", ""day"": "&amp;DAY(J2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;J3&amp;", ""memberCount"": "&amp;J4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;J5&amp;", ""memberCount"": "&amp;J6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;J7&amp;", ""memberCount"": "&amp;J8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;J9&amp;", ""memberCount"": "&amp;J10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;J11&amp;", ""memberCount"": "&amp;J12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;J13&amp;", ""memberCount"": "&amp;J14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;J15&amp;", ""memberCount"": "&amp;J16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;J17&amp;", ""memberCount"": "&amp;J18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;J19&amp;", ""memberCount"": "&amp;J20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;J21&amp;", ""memberCount"": "&amp;J22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 161518037, "memberCount": null}, {"name": "Smile", "contribution": 163436639, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="K25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(K2)&amp;", ""month"": "&amp;MONTH(K2)&amp;", ""day"": "&amp;DAY(K2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;K3&amp;", ""memberCount"": "&amp;K4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;K5&amp;", ""memberCount"": "&amp;K6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;K7&amp;", ""memberCount"": "&amp;K8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;K9&amp;", ""memberCount"": "&amp;K10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;K11&amp;", ""memberCount"": "&amp;K12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;K13&amp;", ""memberCount"": "&amp;K14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;K15&amp;", ""memberCount"": "&amp;K16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;K17&amp;", ""memberCount"": "&amp;K18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;K19&amp;", ""memberCount"": "&amp;K20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;K21&amp;", ""memberCount"": "&amp;K22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 161870928, "memberCount": null}, {"name": "Smile", "contribution": 163716171, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="L25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(L2)&amp;", ""month"": "&amp;MONTH(L2)&amp;", ""day"": "&amp;DAY(L2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;L3&amp;", ""memberCount"": "&amp;L4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;L5&amp;", ""memberCount"": "&amp;L6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;L7&amp;", ""memberCount"": "&amp;L8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;L9&amp;", ""memberCount"": "&amp;L10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;L11&amp;", ""memberCount"": "&amp;L12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;L13&amp;", ""memberCount"": "&amp;L14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;L15&amp;", ""memberCount"": "&amp;L16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;L17&amp;", ""memberCount"": "&amp;L18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;L19&amp;", ""memberCount"": "&amp;L20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;L21&amp;", ""memberCount"": "&amp;L22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 162171093, "memberCount": 197}, {"name": "Smile", "contribution": 164065238, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="M25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(M2)&amp;", ""month"": "&amp;MONTH(M2)&amp;", ""day"": "&amp;DAY(M2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;M3&amp;", ""memberCount"": "&amp;M4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;M5&amp;", ""memberCount"": "&amp;M6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;M7&amp;", ""memberCount"": "&amp;M8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;M9&amp;", ""memberCount"": "&amp;M10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;M11&amp;", ""memberCount"": "&amp;M12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;M13&amp;", ""memberCount"": "&amp;M14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;M15&amp;", ""memberCount"": "&amp;M16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;M17&amp;", ""memberCount"": "&amp;M18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;M19&amp;", ""memberCount"": "&amp;M20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;M21&amp;", ""memberCount"": "&amp;M22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 162409328, "memberCount": 198}, {"name": "Smile", "contribution": 164315858, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="N25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(N2)&amp;", ""month"": "&amp;MONTH(N2)&amp;", ""day"": "&amp;DAY(N2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;N3&amp;", ""memberCount"": "&amp;N4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;N5&amp;", ""memberCount"": "&amp;N6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;N7&amp;", ""memberCount"": "&amp;N8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;N9&amp;", ""memberCount"": "&amp;N10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;N11&amp;", ""memberCount"": "&amp;N12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;N13&amp;", ""memberCount"": "&amp;N14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;N15&amp;", ""memberCount"": "&amp;N16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;N17&amp;", ""memberCount"": "&amp;N18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;N19&amp;", ""memberCount"": "&amp;N20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;N21&amp;", ""memberCount"": "&amp;N22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 162685325, "memberCount": 199}, {"name": "Smile", "contribution": 164566587, "memberCount": 196}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="O25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(O2)&amp;", ""month"": "&amp;MONTH(O2)&amp;", ""day"": "&amp;DAY(O2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;O3&amp;", ""memberCount"": "&amp;O4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;O5&amp;", ""memberCount"": "&amp;O6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;O7&amp;", ""memberCount"": "&amp;O8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;O9&amp;", ""memberCount"": "&amp;O10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;O11&amp;", ""memberCount"": "&amp;O12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;O13&amp;", ""memberCount"": "&amp;O14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;O15&amp;", ""memberCount"": "&amp;O16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;O17&amp;", ""memberCount"": "&amp;O18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;O19&amp;", ""memberCount"": "&amp;O20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;O21&amp;", ""memberCount"": "&amp;O22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 162982306, "memberCount": 199}, {"name": "Smile", "contribution": 164866647, "memberCount": 196}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="P25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(P2)&amp;", ""month"": "&amp;MONTH(P2)&amp;", ""day"": "&amp;DAY(P2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;P3&amp;", ""memberCount"": "&amp;P4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;P5&amp;", ""memberCount"": "&amp;P6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;P7&amp;", ""memberCount"": "&amp;P8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;P9&amp;", ""memberCount"": "&amp;P10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;P11&amp;", ""memberCount"": "&amp;P12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;P13&amp;", ""memberCount"": "&amp;P14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;P15&amp;", ""memberCount"": "&amp;P16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;P17&amp;", ""memberCount"": "&amp;P18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;P19&amp;", ""memberCount"": "&amp;P20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;P21&amp;", ""memberCount"": "&amp;P22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 163219067, "memberCount": 199}, {"name": "Smile", "contribution": 165179792, "memberCount": 196}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="Q25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(Q2)&amp;", ""month"": "&amp;MONTH(Q2)&amp;", ""day"": "&amp;DAY(Q2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;Q3&amp;", ""memberCount"": "&amp;Q4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;Q5&amp;", ""memberCount"": "&amp;Q6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;Q7&amp;", ""memberCount"": "&amp;Q8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;Q9&amp;", ""memberCount"": "&amp;Q10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;Q11&amp;", ""memberCount"": "&amp;Q12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;Q13&amp;", ""memberCount"": "&amp;Q14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;Q15&amp;", ""memberCount"": "&amp;Q16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;Q17&amp;", ""memberCount"": "&amp;Q18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;Q19&amp;", ""memberCount"": "&amp;Q20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;Q21&amp;", ""memberCount"": "&amp;Q22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 163523893, "memberCount": 199}, {"name": "Smile", "contribution": 165369857, "memberCount": 197}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="R25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(R2)&amp;", ""month"": "&amp;MONTH(R2)&amp;", ""day"": "&amp;DAY(R2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;R3&amp;", ""memberCount"": "&amp;R4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;R5&amp;", ""memberCount"": "&amp;R6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;R7&amp;", ""memberCount"": "&amp;R8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;R9&amp;", ""memberCount"": "&amp;R10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;R11&amp;", ""memberCount"": "&amp;R12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;R13&amp;", ""memberCount"": "&amp;R14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;R15&amp;", ""memberCount"": "&amp;R16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;R17&amp;", ""memberCount"": "&amp;R18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;R19&amp;", ""memberCount"": "&amp;R20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;R21&amp;", ""memberCount"": "&amp;R22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 163782457, "memberCount": 199}, {"name": "Smile", "contribution": 165684895, "memberCount": 197}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="S25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(S2)&amp;", ""month"": "&amp;MONTH(S2)&amp;", ""day"": "&amp;DAY(S2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;S3&amp;", ""memberCount"": "&amp;S4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;S5&amp;", ""memberCount"": "&amp;S6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;S7&amp;", ""memberCount"": "&amp;S8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;S9&amp;", ""memberCount"": "&amp;S10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;S11&amp;", ""memberCount"": "&amp;S12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;S13&amp;", ""memberCount"": "&amp;S14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;S15&amp;", ""memberCount"": "&amp;S16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;S17&amp;", ""memberCount"": "&amp;S18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;S19&amp;", ""memberCount"": "&amp;S20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;S21&amp;", ""memberCount"": "&amp;S22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 164033334, "memberCount": 199}, {"name": "Smile", "contribution": 166009506, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="T25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(T2)&amp;", ""month"": "&amp;MONTH(T2)&amp;", ""day"": "&amp;DAY(T2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;T3&amp;", ""memberCount"": "&amp;T4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;T5&amp;", ""memberCount"": "&amp;T6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;T7&amp;", ""memberCount"": "&amp;T8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;T9&amp;", ""memberCount"": "&amp;T10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;T11&amp;", ""memberCount"": "&amp;T12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;T13&amp;", ""memberCount"": "&amp;T14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;T15&amp;", ""memberCount"": "&amp;T16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;T17&amp;", ""memberCount"": "&amp;T18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;T19&amp;", ""memberCount"": "&amp;T20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;T21&amp;", ""memberCount"": "&amp;T22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 164303010, "memberCount": 199}, {"name": "Smile", "contribution": 166357681, "memberCount": 199}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="U25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(U2)&amp;", ""month"": "&amp;MONTH(U2)&amp;", ""day"": "&amp;DAY(U2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;U3&amp;", ""memberCount"": "&amp;U4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;U5&amp;", ""memberCount"": "&amp;U6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;U7&amp;", ""memberCount"": "&amp;U8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;U9&amp;", ""memberCount"": "&amp;U10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;U11&amp;", ""memberCount"": "&amp;U12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;U13&amp;", ""memberCount"": "&amp;U14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;U15&amp;", ""memberCount"": "&amp;U16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;U17&amp;", ""memberCount"": "&amp;U18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;U19&amp;", ""memberCount"": "&amp;U20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;U21&amp;", ""memberCount"": "&amp;U22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 164484652, "memberCount": 198}, {"name": "Smile", "contribution": 166644172, "memberCount": 199}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="V25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(V2)&amp;", ""month"": "&amp;MONTH(V2)&amp;", ""day"": "&amp;DAY(V2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;V3&amp;", ""memberCount"": "&amp;V4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;V5&amp;", ""memberCount"": "&amp;V6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;V7&amp;", ""memberCount"": "&amp;V8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;V9&amp;", ""memberCount"": "&amp;V10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;V11&amp;", ""memberCount"": "&amp;V12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;V13&amp;", ""memberCount"": "&amp;V14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;V15&amp;", ""memberCount"": "&amp;V16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;V17&amp;", ""memberCount"": "&amp;V18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;V19&amp;", ""memberCount"": "&amp;V20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;V21&amp;", ""memberCount"": "&amp;V22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 164711324, "memberCount": 198}, {"name": "Smile", "contribution": 167002659, "memberCount": 199}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="W25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(W2)&amp;", ""month"": "&amp;MONTH(W2)&amp;", ""day"": "&amp;DAY(W2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;W3&amp;", ""memberCount"": "&amp;W4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;W5&amp;", ""memberCount"": "&amp;W6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;W7&amp;", ""memberCount"": "&amp;W8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;W9&amp;", ""memberCount"": "&amp;W10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;W11&amp;", ""memberCount"": "&amp;W12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;W13&amp;", ""memberCount"": "&amp;W14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;W15&amp;", ""memberCount"": "&amp;W16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;W17&amp;", ""memberCount"": "&amp;W18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;W19&amp;", ""memberCount"": "&amp;W20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;W21&amp;", ""memberCount"": "&amp;W22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 164968413, "memberCount": 199}, {"name": "Smile", "contribution": 167249775, "memberCount": 199}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="X25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(X2)&amp;", ""month"": "&amp;MONTH(X2)&amp;", ""day"": "&amp;DAY(X2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;X3&amp;", ""memberCount"": "&amp;X4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;X5&amp;", ""memberCount"": "&amp;X6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;X7&amp;", ""memberCount"": "&amp;X8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;X9&amp;", ""memberCount"": "&amp;X10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;X11&amp;", ""memberCount"": "&amp;X12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;X13&amp;", ""memberCount"": "&amp;X14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;X15&amp;", ""memberCount"": "&amp;X16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;X17&amp;", ""memberCount"": "&amp;X18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;X19&amp;", ""memberCount"": "&amp;X20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;X21&amp;", ""memberCount"": "&amp;X22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 165176792, "memberCount": 199}, {"name": "Smile", "contribution": 155743078, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="Y25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(Y2)&amp;", ""month"": "&amp;MONTH(Y2)&amp;", ""day"": "&amp;DAY(Y2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;Y3&amp;", ""memberCount"": "&amp;Y4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;Y5&amp;", ""memberCount"": "&amp;Y6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;Y7&amp;", ""memberCount"": "&amp;Y8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;Y9&amp;", ""memberCount"": "&amp;Y10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;Y11&amp;", ""memberCount"": "&amp;Y12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;Y13&amp;", ""memberCount"": "&amp;Y14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;Y15&amp;", ""memberCount"": "&amp;Y16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;Y17&amp;", ""memberCount"": "&amp;Y18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;Y19&amp;", ""memberCount"": "&amp;Y20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;Y21&amp;", ""memberCount"": "&amp;Y22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 9, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 164832694, "memberCount": 198}, {"name": "Smile", "contribution": 152695544, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="Z25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(Z2)&amp;", ""month"": "&amp;MONTH(Z2)&amp;", ""day"": "&amp;DAY(Z2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;Z3&amp;", ""memberCount"": "&amp;Z4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;Z5&amp;", ""memberCount"": "&amp;Z6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;Z7&amp;", ""memberCount"": "&amp;Z8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;Z9&amp;", ""memberCount"": "&amp;Z10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;Z11&amp;", ""memberCount"": "&amp;Z12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;Z13&amp;", ""memberCount"": "&amp;Z14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;Z15&amp;", ""memberCount"": "&amp;Z16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;Z17&amp;", ""memberCount"": "&amp;Z18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;Z19&amp;", ""memberCount"": "&amp;Z20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;Z21&amp;", ""memberCount"": "&amp;Z22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 165092815, "memberCount": 198}, {"name": "Smile", "contribution": 150585052, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AA25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AA2)&amp;", ""month"": "&amp;MONTH(AA2)&amp;", ""day"": "&amp;DAY(AA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AA3&amp;", ""memberCount"": "&amp;AA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AA5&amp;", ""memberCount"": "&amp;AA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AA7&amp;", ""memberCount"": "&amp;AA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AA9&amp;", ""memberCount"": "&amp;AA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AA11&amp;", ""memberCount"": "&amp;AA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AA13&amp;", ""memberCount"": "&amp;AA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AA15&amp;", ""memberCount"": "&amp;AA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AA17&amp;", ""memberCount"": "&amp;AA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AA19&amp;", ""memberCount"": "&amp;AA20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AA21&amp;", ""memberCount"": "&amp;AA22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 165366508, "memberCount": 198}, {"name": "Smile", "contribution": 150809939, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AB25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AB2)&amp;", ""month"": "&amp;MONTH(AB2)&amp;", ""day"": "&amp;DAY(AB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AB3&amp;", ""memberCount"": "&amp;AB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AB5&amp;", ""memberCount"": "&amp;AB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AB7&amp;", ""memberCount"": "&amp;AB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AB9&amp;", ""memberCount"": "&amp;AB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AB11&amp;", ""memberCount"": "&amp;AB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AB13&amp;", ""memberCount"": "&amp;AB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AB15&amp;", ""memberCount"": "&amp;AB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AB17&amp;", ""memberCount"": "&amp;AB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AB19&amp;", ""memberCount"": "&amp;AB20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AB21&amp;", ""memberCount"": "&amp;AB22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 165614337, "memberCount": 199}, {"name": "Smile", "contribution": 148091825, "memberCount": 166}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AC25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AC2)&amp;", ""month"": "&amp;MONTH(AC2)&amp;", ""day"": "&amp;DAY(AC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AC3&amp;", ""memberCount"": "&amp;AC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AC5&amp;", ""memberCount"": "&amp;AC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AC7&amp;", ""memberCount"": "&amp;AC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AC9&amp;", ""memberCount"": "&amp;AC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AC11&amp;", ""memberCount"": "&amp;AC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AC13&amp;", ""memberCount"": "&amp;AC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AC15&amp;", ""memberCount"": "&amp;AC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AC17&amp;", ""memberCount"": "&amp;AC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AC19&amp;", ""memberCount"": "&amp;AC20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AC21&amp;", ""memberCount"": "&amp;AC22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 165936454, "memberCount": 199}, {"name": "Smile", "contribution": 148415088, "memberCount": 167}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AD25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AD2)&amp;", ""month"": "&amp;MONTH(AD2)&amp;", ""day"": "&amp;DAY(AD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AD3&amp;", ""memberCount"": "&amp;AD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AD5&amp;", ""memberCount"": "&amp;AD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AD7&amp;", ""memberCount"": "&amp;AD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AD9&amp;", ""memberCount"": "&amp;AD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AD11&amp;", ""memberCount"": "&amp;AD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AD13&amp;", ""memberCount"": "&amp;AD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AD15&amp;", ""memberCount"": "&amp;AD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AD17&amp;", ""memberCount"": "&amp;AD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AD19&amp;", ""memberCount"": "&amp;AD20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AD21&amp;", ""memberCount"": "&amp;AD22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 165835359, "memberCount": 199}, {"name": "Smile", "contribution": 148649504, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AE25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AE2)&amp;", ""month"": "&amp;MONTH(AE2)&amp;", ""day"": "&amp;DAY(AE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AE3&amp;", ""memberCount"": "&amp;AE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AE5&amp;", ""memberCount"": "&amp;AE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AE7&amp;", ""memberCount"": "&amp;AE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AE9&amp;", ""memberCount"": "&amp;AE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AE11&amp;", ""memberCount"": "&amp;AE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AE13&amp;", ""memberCount"": "&amp;AE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AE15&amp;", ""memberCount"": "&amp;AE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AE17&amp;", ""memberCount"": "&amp;AE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AE19&amp;", ""memberCount"": "&amp;AE20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AE21&amp;", ""memberCount"": "&amp;AE22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 166110979, "memberCount": 200}, {"name": "Smile", "contribution": 148882269, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AF25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AF2)&amp;", ""month"": "&amp;MONTH(AF2)&amp;", ""day"": "&amp;DAY(AF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AF3&amp;", ""memberCount"": "&amp;AF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AF5&amp;", ""memberCount"": "&amp;AF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AF7&amp;", ""memberCount"": "&amp;AF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AF9&amp;", ""memberCount"": "&amp;AF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AF11&amp;", ""memberCount"": "&amp;AF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AF13&amp;", ""memberCount"": "&amp;AF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AF15&amp;", ""memberCount"": "&amp;AF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AF17&amp;", ""memberCount"": "&amp;AF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AF19&amp;", ""memberCount"": "&amp;AF20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AF21&amp;", ""memberCount"": "&amp;AF22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 166103086, "memberCount": 198}, {"name": "Smile", "contribution": 149207984, "memberCount": 168}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AG25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AG2)&amp;", ""month"": "&amp;MONTH(AG2)&amp;", ""day"": "&amp;DAY(AG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AG3&amp;", ""memberCount"": "&amp;AG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AG5&amp;", ""memberCount"": "&amp;AG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AG7&amp;", ""memberCount"": "&amp;AG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AG9&amp;", ""memberCount"": "&amp;AG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AG11&amp;", ""memberCount"": "&amp;AG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AG13&amp;", ""memberCount"": "&amp;AG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AG15&amp;", ""memberCount"": "&amp;AG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AG17&amp;", ""memberCount"": "&amp;AG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AG19&amp;", ""memberCount"": "&amp;AG20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AG21&amp;", ""memberCount"": "&amp;AG22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 166377788, "memberCount": 198}, {"name": "Smile", "contribution": 147836382, "memberCount": 174}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AH25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AH2)&amp;", ""month"": "&amp;MONTH(AH2)&amp;", ""day"": "&amp;DAY(AH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AH3&amp;", ""memberCount"": "&amp;AH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AH5&amp;", ""memberCount"": "&amp;AH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AH7&amp;", ""memberCount"": "&amp;AH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AH9&amp;", ""memberCount"": "&amp;AH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AH11&amp;", ""memberCount"": "&amp;AH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AH13&amp;", ""memberCount"": "&amp;AH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AH15&amp;", ""memberCount"": "&amp;AH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AH17&amp;", ""memberCount"": "&amp;AH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AH19&amp;", ""memberCount"": "&amp;AH20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AH21&amp;", ""memberCount"": "&amp;AH22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 166074845, "memberCount": 199}, {"name": "Smile", "contribution": 148135222, "memberCount": 174}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AI25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AI2)&amp;", ""month"": "&amp;MONTH(AI2)&amp;", ""day"": "&amp;DAY(AI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AI3&amp;", ""memberCount"": "&amp;AI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AI5&amp;", ""memberCount"": "&amp;AI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AI7&amp;", ""memberCount"": "&amp;AI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AI9&amp;", ""memberCount"": "&amp;AI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AI11&amp;", ""memberCount"": "&amp;AI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AI13&amp;", ""memberCount"": "&amp;AI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AI15&amp;", ""memberCount"": "&amp;AI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AI17&amp;", ""memberCount"": "&amp;AI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AI19&amp;", ""memberCount"": "&amp;AI20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AI21&amp;", ""memberCount"": "&amp;AI22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 166143560, "memberCount": 199}, {"name": "Smile", "contribution": 146091821, "memberCount": 177}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AJ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AJ2)&amp;", ""month"": "&amp;MONTH(AJ2)&amp;", ""day"": "&amp;DAY(AJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AJ3&amp;", ""memberCount"": "&amp;AJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AJ5&amp;", ""memberCount"": "&amp;AJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AJ7&amp;", ""memberCount"": "&amp;AJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AJ9&amp;", ""memberCount"": "&amp;AJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AJ11&amp;", ""memberCount"": "&amp;AJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AJ13&amp;", ""memberCount"": "&amp;AJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AJ15&amp;", ""memberCount"": "&amp;AJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AJ17&amp;", ""memberCount"": "&amp;AJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AJ19&amp;", ""memberCount"": "&amp;AJ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AJ21&amp;", ""memberCount"": "&amp;AJ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 166564881, "memberCount": 199}, {"name": "Smile", "contribution": 146409582, "memberCount": 178}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AK25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AK2)&amp;", ""month"": "&amp;MONTH(AK2)&amp;", ""day"": "&amp;DAY(AK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AK3&amp;", ""memberCount"": "&amp;AK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AK5&amp;", ""memberCount"": "&amp;AK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AK7&amp;", ""memberCount"": "&amp;AK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AK9&amp;", ""memberCount"": "&amp;AK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AK11&amp;", ""memberCount"": "&amp;AK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AK13&amp;", ""memberCount"": "&amp;AK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AK15&amp;", ""memberCount"": "&amp;AK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AK17&amp;", ""memberCount"": "&amp;AK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AK19&amp;", ""memberCount"": "&amp;AK20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AK21&amp;", ""memberCount"": "&amp;AK22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 166887260, "memberCount": 199}, {"name": "Smile", "contribution": 146664008, "memberCount": 178}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AL25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AL2)&amp;", ""month"": "&amp;MONTH(AL2)&amp;", ""day"": "&amp;DAY(AL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AL3&amp;", ""memberCount"": "&amp;AL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AL5&amp;", ""memberCount"": "&amp;AL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AL7&amp;", ""memberCount"": "&amp;AL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AL9&amp;", ""memberCount"": "&amp;AL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AL11&amp;", ""memberCount"": "&amp;AL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AL13&amp;", ""memberCount"": "&amp;AL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AL15&amp;", ""memberCount"": "&amp;AL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AL17&amp;", ""memberCount"": "&amp;AL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AL19&amp;", ""memberCount"": "&amp;AL20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AL21&amp;", ""memberCount"": "&amp;AL22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 167180223, "memberCount": 199}, {"name": "Smile", "contribution": 147015871, "memberCount": 179}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AM25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AM2)&amp;", ""month"": "&amp;MONTH(AM2)&amp;", ""day"": "&amp;DAY(AM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AM3&amp;", ""memberCount"": "&amp;AM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AM5&amp;", ""memberCount"": "&amp;AM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AM7&amp;", ""memberCount"": "&amp;AM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AM9&amp;", ""memberCount"": "&amp;AM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AM11&amp;", ""memberCount"": "&amp;AM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AM13&amp;", ""memberCount"": "&amp;AM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AM15&amp;", ""memberCount"": "&amp;AM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AM17&amp;", ""memberCount"": "&amp;AM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AM19&amp;", ""memberCount"": "&amp;AM20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AM21&amp;", ""memberCount"": "&amp;AM22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 167476603, "memberCount": 200}, {"name": "Smile", "contribution": 146672719, "memberCount": 177}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AN25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AN2)&amp;", ""month"": "&amp;MONTH(AN2)&amp;", ""day"": "&amp;DAY(AN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AN3&amp;", ""memberCount"": "&amp;AN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AN5&amp;", ""memberCount"": "&amp;AN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AN7&amp;", ""memberCount"": "&amp;AN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AN9&amp;", ""memberCount"": "&amp;AN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AN11&amp;", ""memberCount"": "&amp;AN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AN13&amp;", ""memberCount"": "&amp;AN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AN15&amp;", ""memberCount"": "&amp;AN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AN17&amp;", ""memberCount"": "&amp;AN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AN19&amp;", ""memberCount"": "&amp;AN20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AN21&amp;", ""memberCount"": "&amp;AN22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 167707282, "memberCount": 200}, {"name": "Smile", "contribution": 145750746, "memberCount": 177}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AO25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AO2)&amp;", ""month"": "&amp;MONTH(AO2)&amp;", ""day"": "&amp;DAY(AO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AO3&amp;", ""memberCount"": "&amp;AO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AO5&amp;", ""memberCount"": "&amp;AO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AO7&amp;", ""memberCount"": "&amp;AO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AO9&amp;", ""memberCount"": "&amp;AO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AO11&amp;", ""memberCount"": "&amp;AO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AO13&amp;", ""memberCount"": "&amp;AO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AO15&amp;", ""memberCount"": "&amp;AO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AO17&amp;", ""memberCount"": "&amp;AO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AO19&amp;", ""memberCount"": "&amp;AO20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AO21&amp;", ""memberCount"": "&amp;AO22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 167628539, "memberCount": 200}, {"name": "Smile", "contribution": 146064725, "memberCount": 177}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AP25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AP2)&amp;", ""month"": "&amp;MONTH(AP2)&amp;", ""day"": "&amp;DAY(AP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AP3&amp;", ""memberCount"": "&amp;AP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AP5&amp;", ""memberCount"": "&amp;AP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AP7&amp;", ""memberCount"": "&amp;AP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AP9&amp;", ""memberCount"": "&amp;AP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AP11&amp;", ""memberCount"": "&amp;AP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AP13&amp;", ""memberCount"": "&amp;AP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AP15&amp;", ""memberCount"": "&amp;AP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AP17&amp;", ""memberCount"": "&amp;AP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AP19&amp;", ""memberCount"": "&amp;AP20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AP21&amp;", ""memberCount"": "&amp;AP22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 167902030, "memberCount": 198}, {"name": "Smile", "contribution": 146332167, "memberCount": 178}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AQ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AQ2)&amp;", ""month"": "&amp;MONTH(AQ2)&amp;", ""day"": "&amp;DAY(AQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AQ3&amp;", ""memberCount"": "&amp;AQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AQ5&amp;", ""memberCount"": "&amp;AQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AQ7&amp;", ""memberCount"": "&amp;AQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AQ9&amp;", ""memberCount"": "&amp;AQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AQ11&amp;", ""memberCount"": "&amp;AQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AQ13&amp;", ""memberCount"": "&amp;AQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AQ15&amp;", ""memberCount"": "&amp;AQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AQ17&amp;", ""memberCount"": "&amp;AQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AQ19&amp;", ""memberCount"": "&amp;AQ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AQ21&amp;", ""memberCount"": "&amp;AQ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 168259751, "memberCount": 198}, {"name": "Smile", "contribution": 146673575, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AR25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AR2)&amp;", ""month"": "&amp;MONTH(AR2)&amp;", ""day"": "&amp;DAY(AR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AR3&amp;", ""memberCount"": "&amp;AR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AR5&amp;", ""memberCount"": "&amp;AR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AR7&amp;", ""memberCount"": "&amp;AR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AR9&amp;", ""memberCount"": "&amp;AR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AR11&amp;", ""memberCount"": "&amp;AR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AR13&amp;", ""memberCount"": "&amp;AR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AR15&amp;", ""memberCount"": "&amp;AR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AR17&amp;", ""memberCount"": "&amp;AR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AR19&amp;", ""memberCount"": "&amp;AR20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AR21&amp;", ""memberCount"": "&amp;AR22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 168478060, "memberCount": 198}, {"name": "Smile", "contribution": 146932801, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AS25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AS2)&amp;", ""month"": "&amp;MONTH(AS2)&amp;", ""day"": "&amp;DAY(AS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AS3&amp;", ""memberCount"": "&amp;AS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AS5&amp;", ""memberCount"": "&amp;AS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AS7&amp;", ""memberCount"": "&amp;AS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AS9&amp;", ""memberCount"": "&amp;AS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AS11&amp;", ""memberCount"": "&amp;AS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AS13&amp;", ""memberCount"": "&amp;AS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AS15&amp;", ""memberCount"": "&amp;AS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AS17&amp;", ""memberCount"": "&amp;AS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AS19&amp;", ""memberCount"": "&amp;AS20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AS21&amp;", ""memberCount"": "&amp;AS22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 168785289, "memberCount": 198}, {"name": "Smile", "contribution": 147283112, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AT25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AT2)&amp;", ""month"": "&amp;MONTH(AT2)&amp;", ""day"": "&amp;DAY(AT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AT3&amp;", ""memberCount"": "&amp;AT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AT5&amp;", ""memberCount"": "&amp;AT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AT7&amp;", ""memberCount"": "&amp;AT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AT9&amp;", ""memberCount"": "&amp;AT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AT11&amp;", ""memberCount"": "&amp;AT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AT13&amp;", ""memberCount"": "&amp;AT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AT15&amp;", ""memberCount"": "&amp;AT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AT17&amp;", ""memberCount"": "&amp;AT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AT19&amp;", ""memberCount"": "&amp;AT20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AT21&amp;", ""memberCount"": "&amp;AT22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 169088680, "memberCount": 198}, {"name": "Smile", "contribution": 147319349, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AU25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AU2)&amp;", ""month"": "&amp;MONTH(AU2)&amp;", ""day"": "&amp;DAY(AU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AU3&amp;", ""memberCount"": "&amp;AU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AU5&amp;", ""memberCount"": "&amp;AU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AU7&amp;", ""memberCount"": "&amp;AU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AU9&amp;", ""memberCount"": "&amp;AU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AU11&amp;", ""memberCount"": "&amp;AU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AU13&amp;", ""memberCount"": "&amp;AU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AU15&amp;", ""memberCount"": "&amp;AU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AU17&amp;", ""memberCount"": "&amp;AU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AU19&amp;", ""memberCount"": "&amp;AU20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AU21&amp;", ""memberCount"": "&amp;AU22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 169419541, "memberCount": 199}, {"name": "Smile", "contribution": 147216301, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AV25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AV2)&amp;", ""month"": "&amp;MONTH(AV2)&amp;", ""day"": "&amp;DAY(AV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AV3&amp;", ""memberCount"": "&amp;AV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AV5&amp;", ""memberCount"": "&amp;AV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AV7&amp;", ""memberCount"": "&amp;AV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AV9&amp;", ""memberCount"": "&amp;AV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AV11&amp;", ""memberCount"": "&amp;AV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AV13&amp;", ""memberCount"": "&amp;AV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AV15&amp;", ""memberCount"": "&amp;AV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AV17&amp;", ""memberCount"": "&amp;AV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AV19&amp;", ""memberCount"": "&amp;AV20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AV21&amp;", ""memberCount"": "&amp;AV22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 169715610, "memberCount": 199}, {"name": "Smile", "contribution": 147566010, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AW25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AW2)&amp;", ""month"": "&amp;MONTH(AW2)&amp;", ""day"": "&amp;DAY(AW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AW3&amp;", ""memberCount"": "&amp;AW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AW5&amp;", ""memberCount"": "&amp;AW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AW7&amp;", ""memberCount"": "&amp;AW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AW9&amp;", ""memberCount"": "&amp;AW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AW11&amp;", ""memberCount"": "&amp;AW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AW13&amp;", ""memberCount"": "&amp;AW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AW15&amp;", ""memberCount"": "&amp;AW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AW17&amp;", ""memberCount"": "&amp;AW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AW19&amp;", ""memberCount"": "&amp;AW20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AW21&amp;", ""memberCount"": "&amp;AW22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 169911632, "memberCount": 199}, {"name": "Smile", "contribution": 147827701, "memberCount": 184}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AX25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AX2)&amp;", ""month"": "&amp;MONTH(AX2)&amp;", ""day"": "&amp;DAY(AX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AX3&amp;", ""memberCount"": "&amp;AX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AX5&amp;", ""memberCount"": "&amp;AX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AX7&amp;", ""memberCount"": "&amp;AX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AX9&amp;", ""memberCount"": "&amp;AX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AX11&amp;", ""memberCount"": "&amp;AX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AX13&amp;", ""memberCount"": "&amp;AX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AX15&amp;", ""memberCount"": "&amp;AX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AX17&amp;", ""memberCount"": "&amp;AX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AX19&amp;", ""memberCount"": "&amp;AX20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AX21&amp;", ""memberCount"": "&amp;AX22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 170168321, "memberCount": 199}, {"name": "Smile", "contribution": 148043273, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AY25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AY2)&amp;", ""month"": "&amp;MONTH(AY2)&amp;", ""day"": "&amp;DAY(AY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AY3&amp;", ""memberCount"": "&amp;AY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AY5&amp;", ""memberCount"": "&amp;AY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AY7&amp;", ""memberCount"": "&amp;AY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AY9&amp;", ""memberCount"": "&amp;AY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AY11&amp;", ""memberCount"": "&amp;AY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AY13&amp;", ""memberCount"": "&amp;AY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AY15&amp;", ""memberCount"": "&amp;AY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AY17&amp;", ""memberCount"": "&amp;AY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AY19&amp;", ""memberCount"": "&amp;AY20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AY21&amp;", ""memberCount"": "&amp;AY22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 170411974, "memberCount": 199}, {"name": "Smile", "contribution": 148333612, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="AZ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(AZ2)&amp;", ""month"": "&amp;MONTH(AZ2)&amp;", ""day"": "&amp;DAY(AZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;AZ3&amp;", ""memberCount"": "&amp;AZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;AZ5&amp;", ""memberCount"": "&amp;AZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;AZ7&amp;", ""memberCount"": "&amp;AZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;AZ9&amp;", ""memberCount"": "&amp;AZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;AZ11&amp;", ""memberCount"": "&amp;AZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;AZ13&amp;", ""memberCount"": "&amp;AZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;AZ15&amp;", ""memberCount"": "&amp;AZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;AZ17&amp;", ""memberCount"": "&amp;AZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;AZ19&amp;", ""memberCount"": "&amp;AZ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;AZ21&amp;", ""memberCount"": "&amp;AZ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 170673397, "memberCount": 199}, {"name": "Smile", "contribution": 148615041, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BA25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BA2)&amp;", ""month"": "&amp;MONTH(BA2)&amp;", ""day"": "&amp;DAY(BA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BA3&amp;", ""memberCount"": "&amp;BA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BA5&amp;", ""memberCount"": "&amp;BA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BA7&amp;", ""memberCount"": "&amp;BA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BA9&amp;", ""memberCount"": "&amp;BA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BA11&amp;", ""memberCount"": "&amp;BA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BA13&amp;", ""memberCount"": "&amp;BA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BA15&amp;", ""memberCount"": "&amp;BA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BA17&amp;", ""memberCount"": "&amp;BA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BA19&amp;", ""memberCount"": "&amp;BA20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BA21&amp;", ""memberCount"": "&amp;BA22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 171024300, "memberCount": 200}, {"name": "Smile", "contribution": 148918557, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BB25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BB2)&amp;", ""month"": "&amp;MONTH(BB2)&amp;", ""day"": "&amp;DAY(BB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BB3&amp;", ""memberCount"": "&amp;BB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BB5&amp;", ""memberCount"": "&amp;BB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BB7&amp;", ""memberCount"": "&amp;BB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BB9&amp;", ""memberCount"": "&amp;BB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BB11&amp;", ""memberCount"": "&amp;BB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BB13&amp;", ""memberCount"": "&amp;BB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BB15&amp;", ""memberCount"": "&amp;BB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BB17&amp;", ""memberCount"": "&amp;BB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BB19&amp;", ""memberCount"": "&amp;BB20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BB21&amp;", ""memberCount"": "&amp;BB22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 170869036, "memberCount": 198}, {"name": "Smile", "contribution": 149225333, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BC25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BC2)&amp;", ""month"": "&amp;MONTH(BC2)&amp;", ""day"": "&amp;DAY(BC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BC3&amp;", ""memberCount"": "&amp;BC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BC5&amp;", ""memberCount"": "&amp;BC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BC7&amp;", ""memberCount"": "&amp;BC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BC9&amp;", ""memberCount"": "&amp;BC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BC11&amp;", ""memberCount"": "&amp;BC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BC13&amp;", ""memberCount"": "&amp;BC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BC15&amp;", ""memberCount"": "&amp;BC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BC17&amp;", ""memberCount"": "&amp;BC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BC19&amp;", ""memberCount"": "&amp;BC20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BC21&amp;", ""memberCount"": "&amp;BC22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 171112991, "memberCount": 198}, {"name": "Smile", "contribution": 149491202, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BD25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BD2)&amp;", ""month"": "&amp;MONTH(BD2)&amp;", ""day"": "&amp;DAY(BD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BD3&amp;", ""memberCount"": "&amp;BD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BD5&amp;", ""memberCount"": "&amp;BD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BD7&amp;", ""memberCount"": "&amp;BD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BD9&amp;", ""memberCount"": "&amp;BD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BD11&amp;", ""memberCount"": "&amp;BD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BD13&amp;", ""memberCount"": "&amp;BD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BD15&amp;", ""memberCount"": "&amp;BD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BD17&amp;", ""memberCount"": "&amp;BD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BD19&amp;", ""memberCount"": "&amp;BD20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BD21&amp;", ""memberCount"": "&amp;BD22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 10, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BE25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BE2)&amp;", ""month"": "&amp;MONTH(BE2)&amp;", ""day"": "&amp;DAY(BE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BE3&amp;", ""memberCount"": "&amp;BE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BE5&amp;", ""memberCount"": "&amp;BE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BE7&amp;", ""memberCount"": "&amp;BE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BE9&amp;", ""memberCount"": "&amp;BE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BE11&amp;", ""memberCount"": "&amp;BE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BE13&amp;", ""memberCount"": "&amp;BE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BE15&amp;", ""memberCount"": "&amp;BE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BE17&amp;", ""memberCount"": "&amp;BE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BE19&amp;", ""memberCount"": "&amp;BE20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BE21&amp;", ""memberCount"": "&amp;BE22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 171655854, "memberCount": 199}, {"name": "Smile", "contribution": 149975738, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BF25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BF2)&amp;", ""month"": "&amp;MONTH(BF2)&amp;", ""day"": "&amp;DAY(BF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BF3&amp;", ""memberCount"": "&amp;BF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BF5&amp;", ""memberCount"": "&amp;BF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BF7&amp;", ""memberCount"": "&amp;BF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BF9&amp;", ""memberCount"": "&amp;BF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BF11&amp;", ""memberCount"": "&amp;BF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BF13&amp;", ""memberCount"": "&amp;BF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BF15&amp;", ""memberCount"": "&amp;BF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BF17&amp;", ""memberCount"": "&amp;BF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BF19&amp;", ""memberCount"": "&amp;BF20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BF21&amp;", ""memberCount"": "&amp;BF22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BG25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BG2)&amp;", ""month"": "&amp;MONTH(BG2)&amp;", ""day"": "&amp;DAY(BG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BG3&amp;", ""memberCount"": "&amp;BG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BG5&amp;", ""memberCount"": "&amp;BG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BG7&amp;", ""memberCount"": "&amp;BG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BG9&amp;", ""memberCount"": "&amp;BG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BG11&amp;", ""memberCount"": "&amp;BG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BG13&amp;", ""memberCount"": "&amp;BG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BG15&amp;", ""memberCount"": "&amp;BG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BG17&amp;", ""memberCount"": "&amp;BG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BG19&amp;", ""memberCount"": "&amp;BG20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BG21&amp;", ""memberCount"": "&amp;BG22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BH25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BH2)&amp;", ""month"": "&amp;MONTH(BH2)&amp;", ""day"": "&amp;DAY(BH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BH3&amp;", ""memberCount"": "&amp;BH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BH5&amp;", ""memberCount"": "&amp;BH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BH7&amp;", ""memberCount"": "&amp;BH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BH9&amp;", ""memberCount"": "&amp;BH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BH11&amp;", ""memberCount"": "&amp;BH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BH13&amp;", ""memberCount"": "&amp;BH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BH15&amp;", ""memberCount"": "&amp;BH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BH17&amp;", ""memberCount"": "&amp;BH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BH19&amp;", ""memberCount"": "&amp;BH20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BH21&amp;", ""memberCount"": "&amp;BH22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 172440821, "memberCount": 199}, {"name": "Smile", "contribution": 147056627, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BI25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BI2)&amp;", ""month"": "&amp;MONTH(BI2)&amp;", ""day"": "&amp;DAY(BI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BI3&amp;", ""memberCount"": "&amp;BI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BI5&amp;", ""memberCount"": "&amp;BI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BI7&amp;", ""memberCount"": "&amp;BI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BI9&amp;", ""memberCount"": "&amp;BI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BI11&amp;", ""memberCount"": "&amp;BI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BI13&amp;", ""memberCount"": "&amp;BI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BI15&amp;", ""memberCount"": "&amp;BI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BI17&amp;", ""memberCount"": "&amp;BI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BI19&amp;", ""memberCount"": "&amp;BI20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BI21&amp;", ""memberCount"": "&amp;BI22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 172684806, "memberCount": 199}, {"name": "Smile", "contribution": 147238674, "memberCount": 180}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BJ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BJ2)&amp;", ""month"": "&amp;MONTH(BJ2)&amp;", ""day"": "&amp;DAY(BJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BJ3&amp;", ""memberCount"": "&amp;BJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BJ5&amp;", ""memberCount"": "&amp;BJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BJ7&amp;", ""memberCount"": "&amp;BJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BJ9&amp;", ""memberCount"": "&amp;BJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BJ11&amp;", ""memberCount"": "&amp;BJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BJ13&amp;", ""memberCount"": "&amp;BJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BJ15&amp;", ""memberCount"": "&amp;BJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BJ17&amp;", ""memberCount"": "&amp;BJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BJ19&amp;", ""memberCount"": "&amp;BJ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BJ21&amp;", ""memberCount"": "&amp;BJ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 173066706, "memberCount": 200}, {"name": "Smile", "contribution": 147460383, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BK25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BK2)&amp;", ""month"": "&amp;MONTH(BK2)&amp;", ""day"": "&amp;DAY(BK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BK3&amp;", ""memberCount"": "&amp;BK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BK5&amp;", ""memberCount"": "&amp;BK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BK7&amp;", ""memberCount"": "&amp;BK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BK9&amp;", ""memberCount"": "&amp;BK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BK11&amp;", ""memberCount"": "&amp;BK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BK13&amp;", ""memberCount"": "&amp;BK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BK15&amp;", ""memberCount"": "&amp;BK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BK17&amp;", ""memberCount"": "&amp;BK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BK19&amp;", ""memberCount"": "&amp;BK20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BK21&amp;", ""memberCount"": "&amp;BK22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 173272261, "memberCount": 199}, {"name": "Smile", "contribution": 147726173, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BL25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BL2)&amp;", ""month"": "&amp;MONTH(BL2)&amp;", ""day"": "&amp;DAY(BL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BL3&amp;", ""memberCount"": "&amp;BL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BL5&amp;", ""memberCount"": "&amp;BL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BL7&amp;", ""memberCount"": "&amp;BL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BL9&amp;", ""memberCount"": "&amp;BL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BL11&amp;", ""memberCount"": "&amp;BL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BL13&amp;", ""memberCount"": "&amp;BL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BL15&amp;", ""memberCount"": "&amp;BL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BL17&amp;", ""memberCount"": "&amp;BL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BL19&amp;", ""memberCount"": "&amp;BL20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BL21&amp;", ""memberCount"": "&amp;BL22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 173576671, "memberCount": 199}, {"name": "Smile", "contribution": 147967155, "memberCount": 181}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BM25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BM2)&amp;", ""month"": "&amp;MONTH(BM2)&amp;", ""day"": "&amp;DAY(BM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BM3&amp;", ""memberCount"": "&amp;BM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BM5&amp;", ""memberCount"": "&amp;BM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BM7&amp;", ""memberCount"": "&amp;BM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BM9&amp;", ""memberCount"": "&amp;BM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BM11&amp;", ""memberCount"": "&amp;BM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BM13&amp;", ""memberCount"": "&amp;BM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BM15&amp;", ""memberCount"": "&amp;BM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BM17&amp;", ""memberCount"": "&amp;BM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BM19&amp;", ""memberCount"": "&amp;BM20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BM21&amp;", ""memberCount"": "&amp;BM22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 173795904, "memberCount": 199}, {"name": "Smile", "contribution": 148237475, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BN25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BN2)&amp;", ""month"": "&amp;MONTH(BN2)&amp;", ""day"": "&amp;DAY(BN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BN3&amp;", ""memberCount"": "&amp;BN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BN5&amp;", ""memberCount"": "&amp;BN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BN7&amp;", ""memberCount"": "&amp;BN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BN9&amp;", ""memberCount"": "&amp;BN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BN11&amp;", ""memberCount"": "&amp;BN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BN13&amp;", ""memberCount"": "&amp;BN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BN15&amp;", ""memberCount"": "&amp;BN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BN17&amp;", ""memberCount"": "&amp;BN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BN19&amp;", ""memberCount"": "&amp;BN20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BN21&amp;", ""memberCount"": "&amp;BN22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 174094215, "memberCount": 199}, {"name": "Smile", "contribution": 148511113, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BO25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BO2)&amp;", ""month"": "&amp;MONTH(BO2)&amp;", ""day"": "&amp;DAY(BO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BO3&amp;", ""memberCount"": "&amp;BO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BO5&amp;", ""memberCount"": "&amp;BO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BO7&amp;", ""memberCount"": "&amp;BO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BO9&amp;", ""memberCount"": "&amp;BO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BO11&amp;", ""memberCount"": "&amp;BO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BO13&amp;", ""memberCount"": "&amp;BO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BO15&amp;", ""memberCount"": "&amp;BO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BO17&amp;", ""memberCount"": "&amp;BO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BO19&amp;", ""memberCount"": "&amp;BO20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BO21&amp;", ""memberCount"": "&amp;BO22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 174382505, "memberCount": 199}, {"name": "Smile", "contribution": 148693935, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BP25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BP2)&amp;", ""month"": "&amp;MONTH(BP2)&amp;", ""day"": "&amp;DAY(BP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BP3&amp;", ""memberCount"": "&amp;BP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BP5&amp;", ""memberCount"": "&amp;BP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BP7&amp;", ""memberCount"": "&amp;BP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BP9&amp;", ""memberCount"": "&amp;BP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BP11&amp;", ""memberCount"": "&amp;BP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BP13&amp;", ""memberCount"": "&amp;BP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BP15&amp;", ""memberCount"": "&amp;BP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BP17&amp;", ""memberCount"": "&amp;BP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BP19&amp;", ""memberCount"": "&amp;BP20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BP21&amp;", ""memberCount"": "&amp;BP22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 174706970, "memberCount": 199}, {"name": "Smile", "contribution": 148956298, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BQ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BQ2)&amp;", ""month"": "&amp;MONTH(BQ2)&amp;", ""day"": "&amp;DAY(BQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BQ3&amp;", ""memberCount"": "&amp;BQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BQ5&amp;", ""memberCount"": "&amp;BQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BQ7&amp;", ""memberCount"": "&amp;BQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BQ9&amp;", ""memberCount"": "&amp;BQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BQ11&amp;", ""memberCount"": "&amp;BQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BQ13&amp;", ""memberCount"": "&amp;BQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BQ15&amp;", ""memberCount"": "&amp;BQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BQ17&amp;", ""memberCount"": "&amp;BQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BQ19&amp;", ""memberCount"": "&amp;BQ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BQ21&amp;", ""memberCount"": "&amp;BQ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 174953481, "memberCount": 199}, {"name": "Smile", "contribution": 148889761, "memberCount": 183}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BR25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BR2)&amp;", ""month"": "&amp;MONTH(BR2)&amp;", ""day"": "&amp;DAY(BR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BR3&amp;", ""memberCount"": "&amp;BR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BR5&amp;", ""memberCount"": "&amp;BR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BR7&amp;", ""memberCount"": "&amp;BR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BR9&amp;", ""memberCount"": "&amp;BR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BR11&amp;", ""memberCount"": "&amp;BR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BR13&amp;", ""memberCount"": "&amp;BR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BR15&amp;", ""memberCount"": "&amp;BR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BR17&amp;", ""memberCount"": "&amp;BR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BR19&amp;", ""memberCount"": "&amp;BR20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BR21&amp;", ""memberCount"": "&amp;BR22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 174765629, "memberCount": 199}, {"name": "Smile", "contribution": 149019681, "memberCount": 182}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BS25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BS2)&amp;", ""month"": "&amp;MONTH(BS2)&amp;", ""day"": "&amp;DAY(BS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BS3&amp;", ""memberCount"": "&amp;BS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BS5&amp;", ""memberCount"": "&amp;BS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BS7&amp;", ""memberCount"": "&amp;BS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BS9&amp;", ""memberCount"": "&amp;BS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BS11&amp;", ""memberCount"": "&amp;BS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BS13&amp;", ""memberCount"": "&amp;BS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BS15&amp;", ""memberCount"": "&amp;BS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BS17&amp;", ""memberCount"": "&amp;BS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BS19&amp;", ""memberCount"": "&amp;BS20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BS21&amp;", ""memberCount"": "&amp;BS22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 175218524, "memberCount": 199}, {"name": "Smile", "contribution": 149302152, "memberCount": 184}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BT25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BT2)&amp;", ""month"": "&amp;MONTH(BT2)&amp;", ""day"": "&amp;DAY(BT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BT3&amp;", ""memberCount"": "&amp;BT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BT5&amp;", ""memberCount"": "&amp;BT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BT7&amp;", ""memberCount"": "&amp;BT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BT9&amp;", ""memberCount"": "&amp;BT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BT11&amp;", ""memberCount"": "&amp;BT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BT13&amp;", ""memberCount"": "&amp;BT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BT15&amp;", ""memberCount"": "&amp;BT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BT17&amp;", ""memberCount"": "&amp;BT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BT19&amp;", ""memberCount"": "&amp;BT20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BT21&amp;", ""memberCount"": "&amp;BT22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BU25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BU2)&amp;", ""month"": "&amp;MONTH(BU2)&amp;", ""day"": "&amp;DAY(BU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BU3&amp;", ""memberCount"": "&amp;BU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BU5&amp;", ""memberCount"": "&amp;BU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BU7&amp;", ""memberCount"": "&amp;BU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BU9&amp;", ""memberCount"": "&amp;BU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BU11&amp;", ""memberCount"": "&amp;BU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BU13&amp;", ""memberCount"": "&amp;BU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BU15&amp;", ""memberCount"": "&amp;BU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BU17&amp;", ""memberCount"": "&amp;BU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BU19&amp;", ""memberCount"": "&amp;BU20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BU21&amp;", ""memberCount"": "&amp;BU22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 175765564, "memberCount": 199}, {"name": "Smile", "contribution": 149726051, "memberCount": 186}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BV25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BV2)&amp;", ""month"": "&amp;MONTH(BV2)&amp;", ""day"": "&amp;DAY(BV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BV3&amp;", ""memberCount"": "&amp;BV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BV5&amp;", ""memberCount"": "&amp;BV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BV7&amp;", ""memberCount"": "&amp;BV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BV9&amp;", ""memberCount"": "&amp;BV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BV11&amp;", ""memberCount"": "&amp;BV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BV13&amp;", ""memberCount"": "&amp;BV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BV15&amp;", ""memberCount"": "&amp;BV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BV17&amp;", ""memberCount"": "&amp;BV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BV19&amp;", ""memberCount"": "&amp;BV20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BV21&amp;", ""memberCount"": "&amp;BV22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 176079506, "memberCount": 199}, {"name": "Smile", "contribution": 149969698, "memberCount": 186}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BW25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BW2)&amp;", ""month"": "&amp;MONTH(BW2)&amp;", ""day"": "&amp;DAY(BW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BW3&amp;", ""memberCount"": "&amp;BW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BW5&amp;", ""memberCount"": "&amp;BW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BW7&amp;", ""memberCount"": "&amp;BW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BW9&amp;", ""memberCount"": "&amp;BW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BW11&amp;", ""memberCount"": "&amp;BW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BW13&amp;", ""memberCount"": "&amp;BW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BW15&amp;", ""memberCount"": "&amp;BW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BW17&amp;", ""memberCount"": "&amp;BW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BW19&amp;", ""memberCount"": "&amp;BW20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BW21&amp;", ""memberCount"": "&amp;BW22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 176343763, "memberCount": 199}, {"name": "Smile", "contribution": 150277530, "memberCount": 187}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BX25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BX2)&amp;", ""month"": "&amp;MONTH(BX2)&amp;", ""day"": "&amp;DAY(BX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BX3&amp;", ""memberCount"": "&amp;BX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BX5&amp;", ""memberCount"": "&amp;BX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BX7&amp;", ""memberCount"": "&amp;BX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BX9&amp;", ""memberCount"": "&amp;BX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BX11&amp;", ""memberCount"": "&amp;BX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BX13&amp;", ""memberCount"": "&amp;BX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BX15&amp;", ""memberCount"": "&amp;BX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BX17&amp;", ""memberCount"": "&amp;BX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BX19&amp;", ""memberCount"": "&amp;BX20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BX21&amp;", ""memberCount"": "&amp;BX22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BY25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BY2)&amp;", ""month"": "&amp;MONTH(BY2)&amp;", ""day"": "&amp;DAY(BY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BY3&amp;", ""memberCount"": "&amp;BY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BY5&amp;", ""memberCount"": "&amp;BY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BY7&amp;", ""memberCount"": "&amp;BY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BY9&amp;", ""memberCount"": "&amp;BY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BY11&amp;", ""memberCount"": "&amp;BY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BY13&amp;", ""memberCount"": "&amp;BY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BY15&amp;", ""memberCount"": "&amp;BY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BY17&amp;", ""memberCount"": "&amp;BY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BY19&amp;", ""memberCount"": "&amp;BY20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BY21&amp;", ""memberCount"": "&amp;BY22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 176860193, "memberCount": 199}, {"name": "Smile", "contribution": 150797492, "memberCount": 188}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="BZ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(BZ2)&amp;", ""month"": "&amp;MONTH(BZ2)&amp;", ""day"": "&amp;DAY(BZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;BZ3&amp;", ""memberCount"": "&amp;BZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;BZ5&amp;", ""memberCount"": "&amp;BZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;BZ7&amp;", ""memberCount"": "&amp;BZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;BZ9&amp;", ""memberCount"": "&amp;BZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;BZ11&amp;", ""memberCount"": "&amp;BZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;BZ13&amp;", ""memberCount"": "&amp;BZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;BZ15&amp;", ""memberCount"": "&amp;BZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;BZ17&amp;", ""memberCount"": "&amp;BZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;BZ19&amp;", ""memberCount"": "&amp;BZ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;BZ21&amp;", ""memberCount"": "&amp;BZ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 177184954, "memberCount": 199}, {"name": "Smile", "contribution": 151029638, "memberCount": 189}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CA25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CA2)&amp;", ""month"": "&amp;MONTH(CA2)&amp;", ""day"": "&amp;DAY(CA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CA3&amp;", ""memberCount"": "&amp;CA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CA5&amp;", ""memberCount"": "&amp;CA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CA7&amp;", ""memberCount"": "&amp;CA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CA9&amp;", ""memberCount"": "&amp;CA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CA11&amp;", ""memberCount"": "&amp;CA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CA13&amp;", ""memberCount"": "&amp;CA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CA15&amp;", ""memberCount"": "&amp;CA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CA17&amp;", ""memberCount"": "&amp;CA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CA19&amp;", ""memberCount"": "&amp;CA20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CA21&amp;", ""memberCount"": "&amp;CA22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 177450207, "memberCount": 199}, {"name": "Smile", "contribution": 151304993, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CB25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CB2)&amp;", ""month"": "&amp;MONTH(CB2)&amp;", ""day"": "&amp;DAY(CB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CB3&amp;", ""memberCount"": "&amp;CB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CB5&amp;", ""memberCount"": "&amp;CB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CB7&amp;", ""memberCount"": "&amp;CB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CB9&amp;", ""memberCount"": "&amp;CB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CB11&amp;", ""memberCount"": "&amp;CB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CB13&amp;", ""memberCount"": "&amp;CB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CB15&amp;", ""memberCount"": "&amp;CB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CB17&amp;", ""memberCount"": "&amp;CB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CB19&amp;", ""memberCount"": "&amp;CB20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CB21&amp;", ""memberCount"": "&amp;CB22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 177712429, "memberCount": 199}, {"name": "Smile", "contribution": 151562805, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CC25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CC2)&amp;", ""month"": "&amp;MONTH(CC2)&amp;", ""day"": "&amp;DAY(CC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CC3&amp;", ""memberCount"": "&amp;CC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CC5&amp;", ""memberCount"": "&amp;CC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CC7&amp;", ""memberCount"": "&amp;CC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CC9&amp;", ""memberCount"": "&amp;CC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CC11&amp;", ""memberCount"": "&amp;CC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CC13&amp;", ""memberCount"": "&amp;CC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CC15&amp;", ""memberCount"": "&amp;CC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CC17&amp;", ""memberCount"": "&amp;CC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CC19&amp;", ""memberCount"": "&amp;CC20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CC21&amp;", ""memberCount"": "&amp;CC22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CD25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CD2)&amp;", ""month"": "&amp;MONTH(CD2)&amp;", ""day"": "&amp;DAY(CD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CD3&amp;", ""memberCount"": "&amp;CD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CD5&amp;", ""memberCount"": "&amp;CD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CD7&amp;", ""memberCount"": "&amp;CD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CD9&amp;", ""memberCount"": "&amp;CD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CD11&amp;", ""memberCount"": "&amp;CD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CD13&amp;", ""memberCount"": "&amp;CD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CD15&amp;", ""memberCount"": "&amp;CD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CD17&amp;", ""memberCount"": "&amp;CD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CD19&amp;", ""memberCount"": "&amp;CD20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CD21&amp;", ""memberCount"": "&amp;CD22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CE25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CE2)&amp;", ""month"": "&amp;MONTH(CE2)&amp;", ""day"": "&amp;DAY(CE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CE3&amp;", ""memberCount"": "&amp;CE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CE5&amp;", ""memberCount"": "&amp;CE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CE7&amp;", ""memberCount"": "&amp;CE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CE9&amp;", ""memberCount"": "&amp;CE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CE11&amp;", ""memberCount"": "&amp;CE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CE13&amp;", ""memberCount"": "&amp;CE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CE15&amp;", ""memberCount"": "&amp;CE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CE17&amp;", ""memberCount"": "&amp;CE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CE19&amp;", ""memberCount"": "&amp;CE20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CE21&amp;", ""memberCount"": "&amp;CE22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CF25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CF2)&amp;", ""month"": "&amp;MONTH(CF2)&amp;", ""day"": "&amp;DAY(CF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CF3&amp;", ""memberCount"": "&amp;CF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CF5&amp;", ""memberCount"": "&amp;CF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CF7&amp;", ""memberCount"": "&amp;CF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CF9&amp;", ""memberCount"": "&amp;CF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CF11&amp;", ""memberCount"": "&amp;CF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CF13&amp;", ""memberCount"": "&amp;CF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CF15&amp;", ""memberCount"": "&amp;CF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CF17&amp;", ""memberCount"": "&amp;CF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CF19&amp;", ""memberCount"": "&amp;CF20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CF21&amp;", ""memberCount"": "&amp;CF22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CG25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CG2)&amp;", ""month"": "&amp;MONTH(CG2)&amp;", ""day"": "&amp;DAY(CG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CG3&amp;", ""memberCount"": "&amp;CG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CG5&amp;", ""memberCount"": "&amp;CG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CG7&amp;", ""memberCount"": "&amp;CG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CG9&amp;", ""memberCount"": "&amp;CG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CG11&amp;", ""memberCount"": "&amp;CG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CG13&amp;", ""memberCount"": "&amp;CG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CG15&amp;", ""memberCount"": "&amp;CG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CG17&amp;", ""memberCount"": "&amp;CG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CG19&amp;", ""memberCount"": "&amp;CG20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CG21&amp;", ""memberCount"": "&amp;CG22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 178556388, "memberCount": 199}, {"name": "Smile", "contribution": 152722699, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CH25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CH2)&amp;", ""month"": "&amp;MONTH(CH2)&amp;", ""day"": "&amp;DAY(CH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CH3&amp;", ""memberCount"": "&amp;CH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CH5&amp;", ""memberCount"": "&amp;CH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CH7&amp;", ""memberCount"": "&amp;CH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CH9&amp;", ""memberCount"": "&amp;CH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CH11&amp;", ""memberCount"": "&amp;CH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CH13&amp;", ""memberCount"": "&amp;CH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CH15&amp;", ""memberCount"": "&amp;CH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CH17&amp;", ""memberCount"": "&amp;CH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CH19&amp;", ""memberCount"": "&amp;CH20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CH21&amp;", ""memberCount"": "&amp;CH22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 11, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 178744882, "memberCount": 199}, {"name": "Smile", "contribution": 152264135, "memberCount": 188}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CI25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CI2)&amp;", ""month"": "&amp;MONTH(CI2)&amp;", ""day"": "&amp;DAY(CI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CI3&amp;", ""memberCount"": "&amp;CI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CI5&amp;", ""memberCount"": "&amp;CI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CI7&amp;", ""memberCount"": "&amp;CI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CI9&amp;", ""memberCount"": "&amp;CI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CI11&amp;", ""memberCount"": "&amp;CI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CI13&amp;", ""memberCount"": "&amp;CI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CI15&amp;", ""memberCount"": "&amp;CI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CI17&amp;", ""memberCount"": "&amp;CI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CI19&amp;", ""memberCount"": "&amp;CI20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CI21&amp;", ""memberCount"": "&amp;CI22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CJ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CJ2)&amp;", ""month"": "&amp;MONTH(CJ2)&amp;", ""day"": "&amp;DAY(CJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CJ3&amp;", ""memberCount"": "&amp;CJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CJ5&amp;", ""memberCount"": "&amp;CJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CJ7&amp;", ""memberCount"": "&amp;CJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CJ9&amp;", ""memberCount"": "&amp;CJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CJ11&amp;", ""memberCount"": "&amp;CJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CJ13&amp;", ""memberCount"": "&amp;CJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CJ15&amp;", ""memberCount"": "&amp;CJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CJ17&amp;", ""memberCount"": "&amp;CJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CJ19&amp;", ""memberCount"": "&amp;CJ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CJ21&amp;", ""memberCount"": "&amp;CJ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CK25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CK2)&amp;", ""month"": "&amp;MONTH(CK2)&amp;", ""day"": "&amp;DAY(CK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CK3&amp;", ""memberCount"": "&amp;CK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CK5&amp;", ""memberCount"": "&amp;CK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CK7&amp;", ""memberCount"": "&amp;CK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CK9&amp;", ""memberCount"": "&amp;CK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CK11&amp;", ""memberCount"": "&amp;CK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CK13&amp;", ""memberCount"": "&amp;CK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CK15&amp;", ""memberCount"": "&amp;CK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CK17&amp;", ""memberCount"": "&amp;CK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CK19&amp;", ""memberCount"": "&amp;CK20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CK21&amp;", ""memberCount"": "&amp;CK22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 179524235, "memberCount": 199}, {"name": "Smile", "contribution": 152722828, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CL25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CL2)&amp;", ""month"": "&amp;MONTH(CL2)&amp;", ""day"": "&amp;DAY(CL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CL3&amp;", ""memberCount"": "&amp;CL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CL5&amp;", ""memberCount"": "&amp;CL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CL7&amp;", ""memberCount"": "&amp;CL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CL9&amp;", ""memberCount"": "&amp;CL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CL11&amp;", ""memberCount"": "&amp;CL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CL13&amp;", ""memberCount"": "&amp;CL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CL15&amp;", ""memberCount"": "&amp;CL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CL17&amp;", ""memberCount"": "&amp;CL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CL19&amp;", ""memberCount"": "&amp;CL20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CL21&amp;", ""memberCount"": "&amp;CL22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 179673834, "memberCount": 198}, {"name": "Smile", "contribution": 152934584, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CM25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CM2)&amp;", ""month"": "&amp;MONTH(CM2)&amp;", ""day"": "&amp;DAY(CM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CM3&amp;", ""memberCount"": "&amp;CM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CM5&amp;", ""memberCount"": "&amp;CM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CM7&amp;", ""memberCount"": "&amp;CM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CM9&amp;", ""memberCount"": "&amp;CM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CM11&amp;", ""memberCount"": "&amp;CM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CM13&amp;", ""memberCount"": "&amp;CM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CM15&amp;", ""memberCount"": "&amp;CM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CM17&amp;", ""memberCount"": "&amp;CM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CM19&amp;", ""memberCount"": "&amp;CM20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CM21&amp;", ""memberCount"": "&amp;CM22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 179946319, "memberCount": 198}, {"name": "Smile", "contribution": 153168438, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CN25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CN2)&amp;", ""month"": "&amp;MONTH(CN2)&amp;", ""day"": "&amp;DAY(CN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CN3&amp;", ""memberCount"": "&amp;CN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CN5&amp;", ""memberCount"": "&amp;CN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CN7&amp;", ""memberCount"": "&amp;CN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CN9&amp;", ""memberCount"": "&amp;CN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CN11&amp;", ""memberCount"": "&amp;CN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CN13&amp;", ""memberCount"": "&amp;CN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CN15&amp;", ""memberCount"": "&amp;CN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CN17&amp;", ""memberCount"": "&amp;CN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CN19&amp;", ""memberCount"": "&amp;CN20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CN21&amp;", ""memberCount"": "&amp;CN22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 180176115, "memberCount": 199}, {"name": "Smile", "contribution": 153390094, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CO25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CO2)&amp;", ""month"": "&amp;MONTH(CO2)&amp;", ""day"": "&amp;DAY(CO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CO3&amp;", ""memberCount"": "&amp;CO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CO5&amp;", ""memberCount"": "&amp;CO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CO7&amp;", ""memberCount"": "&amp;CO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CO9&amp;", ""memberCount"": "&amp;CO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CO11&amp;", ""memberCount"": "&amp;CO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CO13&amp;", ""memberCount"": "&amp;CO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CO15&amp;", ""memberCount"": "&amp;CO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CO17&amp;", ""memberCount"": "&amp;CO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CO19&amp;", ""memberCount"": "&amp;CO20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CO21&amp;", ""memberCount"": "&amp;CO22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 180472308, "memberCount": 199}, {"name": "Smile", "contribution": 153581062, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CP25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CP2)&amp;", ""month"": "&amp;MONTH(CP2)&amp;", ""day"": "&amp;DAY(CP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CP3&amp;", ""memberCount"": "&amp;CP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CP5&amp;", ""memberCount"": "&amp;CP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CP7&amp;", ""memberCount"": "&amp;CP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CP9&amp;", ""memberCount"": "&amp;CP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CP11&amp;", ""memberCount"": "&amp;CP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CP13&amp;", ""memberCount"": "&amp;CP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CP15&amp;", ""memberCount"": "&amp;CP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CP17&amp;", ""memberCount"": "&amp;CP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CP19&amp;", ""memberCount"": "&amp;CP20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CP21&amp;", ""memberCount"": "&amp;CP22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 180655528, "memberCount": 199}, {"name": "Smile", "contribution": 153777314, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CQ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CQ2)&amp;", ""month"": "&amp;MONTH(CQ2)&amp;", ""day"": "&amp;DAY(CQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CQ3&amp;", ""memberCount"": "&amp;CQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CQ5&amp;", ""memberCount"": "&amp;CQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CQ7&amp;", ""memberCount"": "&amp;CQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CQ9&amp;", ""memberCount"": "&amp;CQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CQ11&amp;", ""memberCount"": "&amp;CQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CQ13&amp;", ""memberCount"": "&amp;CQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CQ15&amp;", ""memberCount"": "&amp;CQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CQ17&amp;", ""memberCount"": "&amp;CQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CQ19&amp;", ""memberCount"": "&amp;CQ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CQ21&amp;", ""memberCount"": "&amp;CQ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 180891894, "memberCount": 199}, {"name": "Smile", "contribution": 154003498, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CR25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CR2)&amp;", ""month"": "&amp;MONTH(CR2)&amp;", ""day"": "&amp;DAY(CR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CR3&amp;", ""memberCount"": "&amp;CR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CR5&amp;", ""memberCount"": "&amp;CR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CR7&amp;", ""memberCount"": "&amp;CR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CR9&amp;", ""memberCount"": "&amp;CR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CR11&amp;", ""memberCount"": "&amp;CR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CR13&amp;", ""memberCount"": "&amp;CR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CR15&amp;", ""memberCount"": "&amp;CR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CR17&amp;", ""memberCount"": "&amp;CR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CR19&amp;", ""memberCount"": "&amp;CR20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CR21&amp;", ""memberCount"": "&amp;CR22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 181124367, "memberCount": 199}, {"name": "Smile", "contribution": 154212333, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CS25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CS2)&amp;", ""month"": "&amp;MONTH(CS2)&amp;", ""day"": "&amp;DAY(CS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CS3&amp;", ""memberCount"": "&amp;CS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CS5&amp;", ""memberCount"": "&amp;CS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CS7&amp;", ""memberCount"": "&amp;CS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CS9&amp;", ""memberCount"": "&amp;CS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CS11&amp;", ""memberCount"": "&amp;CS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CS13&amp;", ""memberCount"": "&amp;CS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CS15&amp;", ""memberCount"": "&amp;CS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CS17&amp;", ""memberCount"": "&amp;CS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CS19&amp;", ""memberCount"": "&amp;CS20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CS21&amp;", ""memberCount"": "&amp;CS22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 181389343, "memberCount": 199}, {"name": "Smile", "contribution": 154442920, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CT25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CT2)&amp;", ""month"": "&amp;MONTH(CT2)&amp;", ""day"": "&amp;DAY(CT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CT3&amp;", ""memberCount"": "&amp;CT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CT5&amp;", ""memberCount"": "&amp;CT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CT7&amp;", ""memberCount"": "&amp;CT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CT9&amp;", ""memberCount"": "&amp;CT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CT11&amp;", ""memberCount"": "&amp;CT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CT13&amp;", ""memberCount"": "&amp;CT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CT15&amp;", ""memberCount"": "&amp;CT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CT17&amp;", ""memberCount"": "&amp;CT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CT19&amp;", ""memberCount"": "&amp;CT20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CT21&amp;", ""memberCount"": "&amp;CT22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 181631827, "memberCount": 199}, {"name": "Smile", "contribution": 154669513, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CU25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CU2)&amp;", ""month"": "&amp;MONTH(CU2)&amp;", ""day"": "&amp;DAY(CU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CU3&amp;", ""memberCount"": "&amp;CU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CU5&amp;", ""memberCount"": "&amp;CU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CU7&amp;", ""memberCount"": "&amp;CU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CU9&amp;", ""memberCount"": "&amp;CU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CU11&amp;", ""memberCount"": "&amp;CU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CU13&amp;", ""memberCount"": "&amp;CU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CU15&amp;", ""memberCount"": "&amp;CU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CU17&amp;", ""memberCount"": "&amp;CU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CU19&amp;", ""memberCount"": "&amp;CU20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CU21&amp;", ""memberCount"": "&amp;CU22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 181876107, "memberCount": 199}, {"name": "Smile", "contribution": 154926700, "memberCount": 187}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CV25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CV2)&amp;", ""month"": "&amp;MONTH(CV2)&amp;", ""day"": "&amp;DAY(CV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CV3&amp;", ""memberCount"": "&amp;CV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CV5&amp;", ""memberCount"": "&amp;CV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CV7&amp;", ""memberCount"": "&amp;CV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CV9&amp;", ""memberCount"": "&amp;CV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CV11&amp;", ""memberCount"": "&amp;CV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CV13&amp;", ""memberCount"": "&amp;CV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CV15&amp;", ""memberCount"": "&amp;CV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CV17&amp;", ""memberCount"": "&amp;CV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CV19&amp;", ""memberCount"": "&amp;CV20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CV21&amp;", ""memberCount"": "&amp;CV22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CW25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CW2)&amp;", ""month"": "&amp;MONTH(CW2)&amp;", ""day"": "&amp;DAY(CW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CW3&amp;", ""memberCount"": "&amp;CW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CW5&amp;", ""memberCount"": "&amp;CW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CW7&amp;", ""memberCount"": "&amp;CW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CW9&amp;", ""memberCount"": "&amp;CW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CW11&amp;", ""memberCount"": "&amp;CW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CW13&amp;", ""memberCount"": "&amp;CW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CW15&amp;", ""memberCount"": "&amp;CW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CW17&amp;", ""memberCount"": "&amp;CW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CW19&amp;", ""memberCount"": "&amp;CW20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CW21&amp;", ""memberCount"": "&amp;CW22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 182367482, "memberCount": 199}, {"name": "Smile", "contribution": 155349623, "memberCount": 188}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CX25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CX2)&amp;", ""month"": "&amp;MONTH(CX2)&amp;", ""day"": "&amp;DAY(CX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CX3&amp;", ""memberCount"": "&amp;CX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CX5&amp;", ""memberCount"": "&amp;CX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CX7&amp;", ""memberCount"": "&amp;CX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CX9&amp;", ""memberCount"": "&amp;CX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CX11&amp;", ""memberCount"": "&amp;CX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CX13&amp;", ""memberCount"": "&amp;CX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CX15&amp;", ""memberCount"": "&amp;CX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CX17&amp;", ""memberCount"": "&amp;CX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CX19&amp;", ""memberCount"": "&amp;CX20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CX21&amp;", ""memberCount"": "&amp;CX22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 182583652, "memberCount": 199}, {"name": "Smile", "contribution": 155602058, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CY25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CY2)&amp;", ""month"": "&amp;MONTH(CY2)&amp;", ""day"": "&amp;DAY(CY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CY3&amp;", ""memberCount"": "&amp;CY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CY5&amp;", ""memberCount"": "&amp;CY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CY7&amp;", ""memberCount"": "&amp;CY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CY9&amp;", ""memberCount"": "&amp;CY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CY11&amp;", ""memberCount"": "&amp;CY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CY13&amp;", ""memberCount"": "&amp;CY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CY15&amp;", ""memberCount"": "&amp;CY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CY17&amp;", ""memberCount"": "&amp;CY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CY19&amp;", ""memberCount"": "&amp;CY20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CY21&amp;", ""memberCount"": "&amp;CY22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 182800778, "memberCount": 199}, {"name": "Smile", "contribution": 155919179, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="CZ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(CZ2)&amp;", ""month"": "&amp;MONTH(CZ2)&amp;", ""day"": "&amp;DAY(CZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;CZ3&amp;", ""memberCount"": "&amp;CZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;CZ5&amp;", ""memberCount"": "&amp;CZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;CZ7&amp;", ""memberCount"": "&amp;CZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;CZ9&amp;", ""memberCount"": "&amp;CZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;CZ11&amp;", ""memberCount"": "&amp;CZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;CZ13&amp;", ""memberCount"": "&amp;CZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;CZ15&amp;", ""memberCount"": "&amp;CZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;CZ17&amp;", ""memberCount"": "&amp;CZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;CZ19&amp;", ""memberCount"": "&amp;CZ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;CZ21&amp;", ""memberCount"": "&amp;CZ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": 182961613, "memberCount": 199}, {"name": "Smile", "contribution": 156200059, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DA25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DA2)&amp;", ""month"": "&amp;MONTH(DA2)&amp;", ""day"": "&amp;DAY(DA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DA3&amp;", ""memberCount"": "&amp;DA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DA5&amp;", ""memberCount"": "&amp;DA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DA7&amp;", ""memberCount"": "&amp;DA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DA9&amp;", ""memberCount"": "&amp;DA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DA11&amp;", ""memberCount"": "&amp;DA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DA13&amp;", ""memberCount"": "&amp;DA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DA15&amp;", ""memberCount"": "&amp;DA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DA17&amp;", ""memberCount"": "&amp;DA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DA19&amp;", ""memberCount"": "&amp;DA20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DA21&amp;", ""memberCount"": "&amp;DA22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DB25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DB2)&amp;", ""month"": "&amp;MONTH(DB2)&amp;", ""day"": "&amp;DAY(DB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DB3&amp;", ""memberCount"": "&amp;DB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DB5&amp;", ""memberCount"": "&amp;DB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DB7&amp;", ""memberCount"": "&amp;DB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DB9&amp;", ""memberCount"": "&amp;DB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DB11&amp;", ""memberCount"": "&amp;DB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DB13&amp;", ""memberCount"": "&amp;DB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DB15&amp;", ""memberCount"": "&amp;DB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DB17&amp;", ""memberCount"": "&amp;DB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DB19&amp;", ""memberCount"": "&amp;DB20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DB21&amp;", ""memberCount"": "&amp;DB22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 182622991, "memberCount": 196}, {"name": "Smile", "contribution": 156748575, "memberCount": 197}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DC25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DC2)&amp;", ""month"": "&amp;MONTH(DC2)&amp;", ""day"": "&amp;DAY(DC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DC3&amp;", ""memberCount"": "&amp;DC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DC5&amp;", ""memberCount"": "&amp;DC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DC7&amp;", ""memberCount"": "&amp;DC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DC9&amp;", ""memberCount"": "&amp;DC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DC11&amp;", ""memberCount"": "&amp;DC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DC13&amp;", ""memberCount"": "&amp;DC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DC15&amp;", ""memberCount"": "&amp;DC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DC17&amp;", ""memberCount"": "&amp;DC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DC19&amp;", ""memberCount"": "&amp;DC20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DC21&amp;", ""memberCount"": "&amp;DC22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 182896222, "memberCount": 196}, {"name": "Smile", "contribution": 157047533, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DD25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DD2)&amp;", ""month"": "&amp;MONTH(DD2)&amp;", ""day"": "&amp;DAY(DD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DD3&amp;", ""memberCount"": "&amp;DD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DD5&amp;", ""memberCount"": "&amp;DD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DD7&amp;", ""memberCount"": "&amp;DD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DD9&amp;", ""memberCount"": "&amp;DD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DD11&amp;", ""memberCount"": "&amp;DD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DD13&amp;", ""memberCount"": "&amp;DD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DD15&amp;", ""memberCount"": "&amp;DD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DD17&amp;", ""memberCount"": "&amp;DD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DD19&amp;", ""memberCount"": "&amp;DD20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DD21&amp;", ""memberCount"": "&amp;DD22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 183056451, "memberCount": 196}, {"name": "Smile", "contribution": 157324074, "memberCount": 197}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DE25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DE2)&amp;", ""month"": "&amp;MONTH(DE2)&amp;", ""day"": "&amp;DAY(DE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DE3&amp;", ""memberCount"": "&amp;DE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DE5&amp;", ""memberCount"": "&amp;DE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DE7&amp;", ""memberCount"": "&amp;DE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DE9&amp;", ""memberCount"": "&amp;DE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DE11&amp;", ""memberCount"": "&amp;DE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DE13&amp;", ""memberCount"": "&amp;DE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DE15&amp;", ""memberCount"": "&amp;DE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DE17&amp;", ""memberCount"": "&amp;DE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DE19&amp;", ""memberCount"": "&amp;DE20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DE21&amp;", ""memberCount"": "&amp;DE22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 183327141, "memberCount": 196}, {"name": "Smile", "contribution": 157654214, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DF25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DF2)&amp;", ""month"": "&amp;MONTH(DF2)&amp;", ""day"": "&amp;DAY(DF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DF3&amp;", ""memberCount"": "&amp;DF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DF5&amp;", ""memberCount"": "&amp;DF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DF7&amp;", ""memberCount"": "&amp;DF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DF9&amp;", ""memberCount"": "&amp;DF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DF11&amp;", ""memberCount"": "&amp;DF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DF13&amp;", ""memberCount"": "&amp;DF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DF15&amp;", ""memberCount"": "&amp;DF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DF17&amp;", ""memberCount"": "&amp;DF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DF19&amp;", ""memberCount"": "&amp;DF20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DF21&amp;", ""memberCount"": "&amp;DF22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 183507955, "memberCount": 197}, {"name": "Smile", "contribution": 157873697, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DG25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DG2)&amp;", ""month"": "&amp;MONTH(DG2)&amp;", ""day"": "&amp;DAY(DG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DG3&amp;", ""memberCount"": "&amp;DG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DG5&amp;", ""memberCount"": "&amp;DG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DG7&amp;", ""memberCount"": "&amp;DG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DG9&amp;", ""memberCount"": "&amp;DG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DG11&amp;", ""memberCount"": "&amp;DG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DG13&amp;", ""memberCount"": "&amp;DG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DG15&amp;", ""memberCount"": "&amp;DG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DG17&amp;", ""memberCount"": "&amp;DG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DG19&amp;", ""memberCount"": "&amp;DG20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DG21&amp;", ""memberCount"": "&amp;DG22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 183734947, "memberCount": 197}, {"name": "Smile", "contribution": 158109784, "memberCount": 198}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DH25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DH2)&amp;", ""month"": "&amp;MONTH(DH2)&amp;", ""day"": "&amp;DAY(DH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DH3&amp;", ""memberCount"": "&amp;DH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DH5&amp;", ""memberCount"": "&amp;DH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DH7&amp;", ""memberCount"": "&amp;DH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DH9&amp;", ""memberCount"": "&amp;DH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DH11&amp;", ""memberCount"": "&amp;DH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DH13&amp;", ""memberCount"": "&amp;DH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DH15&amp;", ""memberCount"": "&amp;DH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DH17&amp;", ""memberCount"": "&amp;DH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DH19&amp;", ""memberCount"": "&amp;DH20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DH21&amp;", ""memberCount"": "&amp;DH22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 183958289, "memberCount": 197}, {"name": "Smile", "contribution": 158201494, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DI25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DI2)&amp;", ""month"": "&amp;MONTH(DI2)&amp;", ""day"": "&amp;DAY(DI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DI3&amp;", ""memberCount"": "&amp;DI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DI5&amp;", ""memberCount"": "&amp;DI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DI7&amp;", ""memberCount"": "&amp;DI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DI9&amp;", ""memberCount"": "&amp;DI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DI11&amp;", ""memberCount"": "&amp;DI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DI13&amp;", ""memberCount"": "&amp;DI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DI15&amp;", ""memberCount"": "&amp;DI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DI17&amp;", ""memberCount"": "&amp;DI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DI19&amp;", ""memberCount"": "&amp;DI20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DI21&amp;", ""memberCount"": "&amp;DI22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DJ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DJ2)&amp;", ""month"": "&amp;MONTH(DJ2)&amp;", ""day"": "&amp;DAY(DJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DJ3&amp;", ""memberCount"": "&amp;DJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DJ5&amp;", ""memberCount"": "&amp;DJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DJ7&amp;", ""memberCount"": "&amp;DJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DJ9&amp;", ""memberCount"": "&amp;DJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DJ11&amp;", ""memberCount"": "&amp;DJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DJ13&amp;", ""memberCount"": "&amp;DJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DJ15&amp;", ""memberCount"": "&amp;DJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DJ17&amp;", ""memberCount"": "&amp;DJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DJ19&amp;", ""memberCount"": "&amp;DJ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DJ21&amp;", ""memberCount"": "&amp;DJ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 184394450, "memberCount": 197}, {"name": "Smile", "contribution": 158736927, "memberCount": 195}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DK25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DK2)&amp;", ""month"": "&amp;MONTH(DK2)&amp;", ""day"": "&amp;DAY(DK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DK3&amp;", ""memberCount"": "&amp;DK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DK5&amp;", ""memberCount"": "&amp;DK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DK7&amp;", ""memberCount"": "&amp;DK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DK9&amp;", ""memberCount"": "&amp;DK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DK11&amp;", ""memberCount"": "&amp;DK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DK13&amp;", ""memberCount"": "&amp;DK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DK15&amp;", ""memberCount"": "&amp;DK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DK17&amp;", ""memberCount"": "&amp;DK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DK19&amp;", ""memberCount"": "&amp;DK20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DK21&amp;", ""memberCount"": "&amp;DK22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 184610058, "memberCount": 197}, {"name": "Smile", "contribution": 158770099, "memberCount": 194}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DL25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DL2)&amp;", ""month"": "&amp;MONTH(DL2)&amp;", ""day"": "&amp;DAY(DL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DL3&amp;", ""memberCount"": "&amp;DL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DL5&amp;", ""memberCount"": "&amp;DL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DL7&amp;", ""memberCount"": "&amp;DL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DL9&amp;", ""memberCount"": "&amp;DL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DL11&amp;", ""memberCount"": "&amp;DL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DL13&amp;", ""memberCount"": "&amp;DL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DL15&amp;", ""memberCount"": "&amp;DL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DL17&amp;", ""memberCount"": "&amp;DL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DL19&amp;", ""memberCount"": "&amp;DL20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DL21&amp;", ""memberCount"": "&amp;DL22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DM25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DM2)&amp;", ""month"": "&amp;MONTH(DM2)&amp;", ""day"": "&amp;DAY(DM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DM3&amp;", ""memberCount"": "&amp;DM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DM5&amp;", ""memberCount"": "&amp;DM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DM7&amp;", ""memberCount"": "&amp;DM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DM9&amp;", ""memberCount"": "&amp;DM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DM11&amp;", ""memberCount"": "&amp;DM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DM13&amp;", ""memberCount"": "&amp;DM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DM15&amp;", ""memberCount"": "&amp;DM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DM17&amp;", ""memberCount"": "&amp;DM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DM19&amp;", ""memberCount"": "&amp;DM20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DM21&amp;", ""memberCount"": "&amp;DM22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2018, "month": 12, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DN25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DN2)&amp;", ""month"": "&amp;MONTH(DN2)&amp;", ""day"": "&amp;DAY(DN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DN3&amp;", ""memberCount"": "&amp;DN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DN5&amp;", ""memberCount"": "&amp;DN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DN7&amp;", ""memberCount"": "&amp;DN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DN9&amp;", ""memberCount"": "&amp;DN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DN11&amp;", ""memberCount"": "&amp;DN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DN13&amp;", ""memberCount"": "&amp;DN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DN15&amp;", ""memberCount"": "&amp;DN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DN17&amp;", ""memberCount"": "&amp;DN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DN19&amp;", ""memberCount"": "&amp;DN20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DN21&amp;", ""memberCount"": "&amp;DN22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 185200323, "memberCount": 197}, {"name": "Smile", "contribution": 159299718, "memberCount": 193}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DO25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DO2)&amp;", ""month"": "&amp;MONTH(DO2)&amp;", ""day"": "&amp;DAY(DO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DO3&amp;", ""memberCount"": "&amp;DO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DO5&amp;", ""memberCount"": "&amp;DO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DO7&amp;", ""memberCount"": "&amp;DO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DO9&amp;", ""memberCount"": "&amp;DO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DO11&amp;", ""memberCount"": "&amp;DO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DO13&amp;", ""memberCount"": "&amp;DO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DO15&amp;", ""memberCount"": "&amp;DO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DO17&amp;", ""memberCount"": "&amp;DO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DO19&amp;", ""memberCount"": "&amp;DO20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DO21&amp;", ""memberCount"": "&amp;DO22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": 185165577, "memberCount": 194}, {"name": "Smile", "contribution": 159561807, "memberCount": 193}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DP25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DP2)&amp;", ""month"": "&amp;MONTH(DP2)&amp;", ""day"": "&amp;DAY(DP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DP3&amp;", ""memberCount"": "&amp;DP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DP5&amp;", ""memberCount"": "&amp;DP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DP7&amp;", ""memberCount"": "&amp;DP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DP9&amp;", ""memberCount"": "&amp;DP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DP11&amp;", ""memberCount"": "&amp;DP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DP13&amp;", ""memberCount"": "&amp;DP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DP15&amp;", ""memberCount"": "&amp;DP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DP17&amp;", ""memberCount"": "&amp;DP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DP19&amp;", ""memberCount"": "&amp;DP20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DP21&amp;", ""memberCount"": "&amp;DP22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 185397575, "memberCount": 194}, {"name": "Smile", "contribution": 159020140, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DQ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DQ2)&amp;", ""month"": "&amp;MONTH(DQ2)&amp;", ""day"": "&amp;DAY(DQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DQ3&amp;", ""memberCount"": "&amp;DQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DQ5&amp;", ""memberCount"": "&amp;DQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DQ7&amp;", ""memberCount"": "&amp;DQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DQ9&amp;", ""memberCount"": "&amp;DQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DQ11&amp;", ""memberCount"": "&amp;DQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DQ13&amp;", ""memberCount"": "&amp;DQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DQ15&amp;", ""memberCount"": "&amp;DQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DQ17&amp;", ""memberCount"": "&amp;DQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DQ19&amp;", ""memberCount"": "&amp;DQ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DQ21&amp;", ""memberCount"": "&amp;DQ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 185591824, "memberCount": 195}, {"name": "Smile", "contribution": 159223000, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DR25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DR2)&amp;", ""month"": "&amp;MONTH(DR2)&amp;", ""day"": "&amp;DAY(DR2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DR3&amp;", ""memberCount"": "&amp;DR4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DR5&amp;", ""memberCount"": "&amp;DR6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DR7&amp;", ""memberCount"": "&amp;DR8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DR9&amp;", ""memberCount"": "&amp;DR10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DR11&amp;", ""memberCount"": "&amp;DR12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DR13&amp;", ""memberCount"": "&amp;DR14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DR15&amp;", ""memberCount"": "&amp;DR16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DR17&amp;", ""memberCount"": "&amp;DR18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DR19&amp;", ""memberCount"": "&amp;DR20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DR21&amp;", ""memberCount"": "&amp;DR22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 185818605, "memberCount": 194}, {"name": "Smile", "contribution": 159454512, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DS25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DS2)&amp;", ""month"": "&amp;MONTH(DS2)&amp;", ""day"": "&amp;DAY(DS2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DS3&amp;", ""memberCount"": "&amp;DS4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DS5&amp;", ""memberCount"": "&amp;DS6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DS7&amp;", ""memberCount"": "&amp;DS8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DS9&amp;", ""memberCount"": "&amp;DS10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DS11&amp;", ""memberCount"": "&amp;DS12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DS13&amp;", ""memberCount"": "&amp;DS14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DS15&amp;", ""memberCount"": "&amp;DS16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DS17&amp;", ""memberCount"": "&amp;DS18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DS19&amp;", ""memberCount"": "&amp;DS20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DS21&amp;", ""memberCount"": "&amp;DS22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 186103508, "memberCount": 195}, {"name": "Smile", "contribution": 159701078, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DT25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DT2)&amp;", ""month"": "&amp;MONTH(DT2)&amp;", ""day"": "&amp;DAY(DT2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DT3&amp;", ""memberCount"": "&amp;DT4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DT5&amp;", ""memberCount"": "&amp;DT6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DT7&amp;", ""memberCount"": "&amp;DT8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DT9&amp;", ""memberCount"": "&amp;DT10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DT11&amp;", ""memberCount"": "&amp;DT12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DT13&amp;", ""memberCount"": "&amp;DT14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DT15&amp;", ""memberCount"": "&amp;DT16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DT17&amp;", ""memberCount"": "&amp;DT18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DT19&amp;", ""memberCount"": "&amp;DT20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DT21&amp;", ""memberCount"": "&amp;DT22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 186342981, "memberCount": 195}, {"name": "Smile", "contribution": 159955093, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DU25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DU2)&amp;", ""month"": "&amp;MONTH(DU2)&amp;", ""day"": "&amp;DAY(DU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DU3&amp;", ""memberCount"": "&amp;DU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DU5&amp;", ""memberCount"": "&amp;DU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DU7&amp;", ""memberCount"": "&amp;DU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DU9&amp;", ""memberCount"": "&amp;DU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DU11&amp;", ""memberCount"": "&amp;DU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DU13&amp;", ""memberCount"": "&amp;DU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DU15&amp;", ""memberCount"": "&amp;DU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DU17&amp;", ""memberCount"": "&amp;DU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DU19&amp;", ""memberCount"": "&amp;DU20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DU21&amp;", ""memberCount"": "&amp;DU22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 186538216, "memberCount": 195}, {"name": "Smile", "contribution": 160221769, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DV25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DV2)&amp;", ""month"": "&amp;MONTH(DV2)&amp;", ""day"": "&amp;DAY(DV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DV3&amp;", ""memberCount"": "&amp;DV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DV5&amp;", ""memberCount"": "&amp;DV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DV7&amp;", ""memberCount"": "&amp;DV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DV9&amp;", ""memberCount"": "&amp;DV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DV11&amp;", ""memberCount"": "&amp;DV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DV13&amp;", ""memberCount"": "&amp;DV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DV15&amp;", ""memberCount"": "&amp;DV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DV17&amp;", ""memberCount"": "&amp;DV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DV19&amp;", ""memberCount"": "&amp;DV20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DV21&amp;", ""memberCount"": "&amp;DV22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 186839873, "memberCount": 197}, {"name": "Smile", "contribution": 160456920, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DW25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DW2)&amp;", ""month"": "&amp;MONTH(DW2)&amp;", ""day"": "&amp;DAY(DW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DW3&amp;", ""memberCount"": "&amp;DW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DW5&amp;", ""memberCount"": "&amp;DW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DW7&amp;", ""memberCount"": "&amp;DW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DW9&amp;", ""memberCount"": "&amp;DW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DW11&amp;", ""memberCount"": "&amp;DW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DW13&amp;", ""memberCount"": "&amp;DW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DW15&amp;", ""memberCount"": "&amp;DW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DW17&amp;", ""memberCount"": "&amp;DW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DW19&amp;", ""memberCount"": "&amp;DW20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DW21&amp;", ""memberCount"": "&amp;DW22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DX25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DX2)&amp;", ""month"": "&amp;MONTH(DX2)&amp;", ""day"": "&amp;DAY(DX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DX3&amp;", ""memberCount"": "&amp;DX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DX5&amp;", ""memberCount"": "&amp;DX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DX7&amp;", ""memberCount"": "&amp;DX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DX9&amp;", ""memberCount"": "&amp;DX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DX11&amp;", ""memberCount"": "&amp;DX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DX13&amp;", ""memberCount"": "&amp;DX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DX15&amp;", ""memberCount"": "&amp;DX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DX17&amp;", ""memberCount"": "&amp;DX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DX19&amp;", ""memberCount"": "&amp;DX20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DX21&amp;", ""memberCount"": "&amp;DX22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": 187400850, "memberCount": 197}, {"name": "Smile", "contribution": 160976728, "memberCount": 192}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DY25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DY2)&amp;", ""month"": "&amp;MONTH(DY2)&amp;", ""day"": "&amp;DAY(DY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DY3&amp;", ""memberCount"": "&amp;DY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DY5&amp;", ""memberCount"": "&amp;DY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DY7&amp;", ""memberCount"": "&amp;DY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DY9&amp;", ""memberCount"": "&amp;DY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DY11&amp;", ""memberCount"": "&amp;DY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DY13&amp;", ""memberCount"": "&amp;DY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DY15&amp;", ""memberCount"": "&amp;DY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DY17&amp;", ""memberCount"": "&amp;DY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DY19&amp;", ""memberCount"": "&amp;DY20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DY21&amp;", ""memberCount"": "&amp;DY22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="DZ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(DZ2)&amp;", ""month"": "&amp;MONTH(DZ2)&amp;", ""day"": "&amp;DAY(DZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;DZ3&amp;", ""memberCount"": "&amp;DZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;DZ5&amp;", ""memberCount"": "&amp;DZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;DZ7&amp;", ""memberCount"": "&amp;DZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;DZ9&amp;", ""memberCount"": "&amp;DZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;DZ11&amp;", ""memberCount"": "&amp;DZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;DZ13&amp;", ""memberCount"": "&amp;DZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;DZ15&amp;", ""memberCount"": "&amp;DZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;DZ17&amp;", ""memberCount"": "&amp;DZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;DZ19&amp;", ""memberCount"": "&amp;DZ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;DZ21&amp;", ""memberCount"": "&amp;DZ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 187931211, "memberCount": 198}, {"name": "Smile", "contribution": 161321505, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EA25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EA2)&amp;", ""month"": "&amp;MONTH(EA2)&amp;", ""day"": "&amp;DAY(EA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EA3&amp;", ""memberCount"": "&amp;EA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EA5&amp;", ""memberCount"": "&amp;EA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EA7&amp;", ""memberCount"": "&amp;EA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EA9&amp;", ""memberCount"": "&amp;EA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EA11&amp;", ""memberCount"": "&amp;EA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EA13&amp;", ""memberCount"": "&amp;EA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EA15&amp;", ""memberCount"": "&amp;EA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EA17&amp;", ""memberCount"": "&amp;EA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EA19&amp;", ""memberCount"": "&amp;EA20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EA21&amp;", ""memberCount"": "&amp;EA22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 188156311, "memberCount": 197}, {"name": "Smile", "contribution": 161555387, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EB25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EB2)&amp;", ""month"": "&amp;MONTH(EB2)&amp;", ""day"": "&amp;DAY(EB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EB3&amp;", ""memberCount"": "&amp;EB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EB5&amp;", ""memberCount"": "&amp;EB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EB7&amp;", ""memberCount"": "&amp;EB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EB9&amp;", ""memberCount"": "&amp;EB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EB11&amp;", ""memberCount"": "&amp;EB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EB13&amp;", ""memberCount"": "&amp;EB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EB15&amp;", ""memberCount"": "&amp;EB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EB17&amp;", ""memberCount"": "&amp;EB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EB19&amp;", ""memberCount"": "&amp;EB20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EB21&amp;", ""memberCount"": "&amp;EB22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 188430959, "memberCount": 195}, {"name": "Smile", "contribution": 161793095, "memberCount": 190}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EC25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EC2)&amp;", ""month"": "&amp;MONTH(EC2)&amp;", ""day"": "&amp;DAY(EC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EC3&amp;", ""memberCount"": "&amp;EC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EC5&amp;", ""memberCount"": "&amp;EC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EC7&amp;", ""memberCount"": "&amp;EC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EC9&amp;", ""memberCount"": "&amp;EC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EC11&amp;", ""memberCount"": "&amp;EC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EC13&amp;", ""memberCount"": "&amp;EC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EC15&amp;", ""memberCount"": "&amp;EC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EC17&amp;", ""memberCount"": "&amp;EC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EC19&amp;", ""memberCount"": "&amp;EC20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EC21&amp;", ""memberCount"": "&amp;EC22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 16, "guildEntries": [{"name": "Eternal", "contribution": 188699895, "memberCount": 195}, {"name": "Smile", "contribution": 162078278, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="ED25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ED2)&amp;", ""month"": "&amp;MONTH(ED2)&amp;", ""day"": "&amp;DAY(ED2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ED3&amp;", ""memberCount"": "&amp;ED4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ED5&amp;", ""memberCount"": "&amp;ED6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ED7&amp;", ""memberCount"": "&amp;ED8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ED9&amp;", ""memberCount"": "&amp;ED10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ED11&amp;", ""memberCount"": "&amp;ED12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ED13&amp;", ""memberCount"": "&amp;ED14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ED15&amp;", ""memberCount"": "&amp;ED16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ED17&amp;", ""memberCount"": "&amp;ED18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ED19&amp;", ""memberCount"": "&amp;ED20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;ED21&amp;", ""memberCount"": "&amp;ED22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 17, "guildEntries": [{"name": "Eternal", "contribution": 188933902, "memberCount": 195}, {"name": "Smile", "contribution": 162285948, "memberCount": 191}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EE25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EE2)&amp;", ""month"": "&amp;MONTH(EE2)&amp;", ""day"": "&amp;DAY(EE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EE3&amp;", ""memberCount"": "&amp;EE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EE5&amp;", ""memberCount"": "&amp;EE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EE7&amp;", ""memberCount"": "&amp;EE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EE9&amp;", ""memberCount"": "&amp;EE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EE11&amp;", ""memberCount"": "&amp;EE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EE13&amp;", ""memberCount"": "&amp;EE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EE15&amp;", ""memberCount"": "&amp;EE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EE17&amp;", ""memberCount"": "&amp;EE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EE19&amp;", ""memberCount"": "&amp;EE20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EE21&amp;", ""memberCount"": "&amp;EE22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 18, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EF25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EF2)&amp;", ""month"": "&amp;MONTH(EF2)&amp;", ""day"": "&amp;DAY(EF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EF3&amp;", ""memberCount"": "&amp;EF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EF5&amp;", ""memberCount"": "&amp;EF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EF7&amp;", ""memberCount"": "&amp;EF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EF9&amp;", ""memberCount"": "&amp;EF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EF11&amp;", ""memberCount"": "&amp;EF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EF13&amp;", ""memberCount"": "&amp;EF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EF15&amp;", ""memberCount"": "&amp;EF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EF17&amp;", ""memberCount"": "&amp;EF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EF19&amp;", ""memberCount"": "&amp;EF20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EF21&amp;", ""memberCount"": "&amp;EF22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 19, "guildEntries": [{"name": "Eternal", "contribution": 189438101, "memberCount": 195}, {"name": "Smile", "contribution": 162718851, "memberCount": 193}, {"name": "Elite", "contribution": 153632149, "memberCount": 198}, {"name": "Savages", "contribution": 147726884, "memberCount": 199}, {"name": "Bounce", "contribution": 117809192, "memberCount": 199}, {"name": "Spring", "contribution": 128509084, "memberCount": 196}, {"name": "Sunset", "contribution": 123736742, "memberCount": 195}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EG25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EG2)&amp;", ""month"": "&amp;MONTH(EG2)&amp;", ""day"": "&amp;DAY(EG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EG3&amp;", ""memberCount"": "&amp;EG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EG5&amp;", ""memberCount"": "&amp;EG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EG7&amp;", ""memberCount"": "&amp;EG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EG9&amp;", ""memberCount"": "&amp;EG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EG11&amp;", ""memberCount"": "&amp;EG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EG13&amp;", ""memberCount"": "&amp;EG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EG15&amp;", ""memberCount"": "&amp;EG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EG17&amp;", ""memberCount"": "&amp;EG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EG19&amp;", ""memberCount"": "&amp;EG20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EG21&amp;", ""memberCount"": "&amp;EG22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 20, "guildEntries": [{"name": "Eternal", "contribution": 189765833, "memberCount": 195}, {"name": "Smile", "contribution": 162979036, "memberCount": 193}, {"name": "Elite", "contribution": 153839284, "memberCount": 198}, {"name": "Savages", "contribution": 147903390, "memberCount": 199}, {"name": "Bounce", "contribution": 118202201, "memberCount": 199}, {"name": "Spring", "contribution": 128627785, "memberCount": 196}, {"name": "Sunset", "contribution": 123931566, "memberCount": 196}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EH25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EH2)&amp;", ""month"": "&amp;MONTH(EH2)&amp;", ""day"": "&amp;DAY(EH2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EH3&amp;", ""memberCount"": "&amp;EH4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EH5&amp;", ""memberCount"": "&amp;EH6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EH7&amp;", ""memberCount"": "&amp;EH8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EH9&amp;", ""memberCount"": "&amp;EH10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EH11&amp;", ""memberCount"": "&amp;EH12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EH13&amp;", ""memberCount"": "&amp;EH14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EH15&amp;", ""memberCount"": "&amp;EH16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EH17&amp;", ""memberCount"": "&amp;EH18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EH19&amp;", ""memberCount"": "&amp;EH20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EH21&amp;", ""memberCount"": "&amp;EH22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 21, "guildEntries": [{"name": "Eternal", "contribution": 190021176, "memberCount": 196}, {"name": "Smile", "contribution": 163218398, "memberCount": 193}, {"name": "Elite", "contribution": 154023549, "memberCount": 198}, {"name": "Savages", "contribution": 148074114, "memberCount": 199}, {"name": "Bounce", "contribution": 118324864, "memberCount": 195}, {"name": "Spring", "contribution": 128726770, "memberCount": 196}, {"name": "Sunset", "contribution": 124055808, "memberCount": 197}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EI25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EI2)&amp;", ""month"": "&amp;MONTH(EI2)&amp;", ""day"": "&amp;DAY(EI2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EI3&amp;", ""memberCount"": "&amp;EI4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EI5&amp;", ""memberCount"": "&amp;EI6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EI7&amp;", ""memberCount"": "&amp;EI8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EI9&amp;", ""memberCount"": "&amp;EI10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EI11&amp;", ""memberCount"": "&amp;EI12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EI13&amp;", ""memberCount"": "&amp;EI14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EI15&amp;", ""memberCount"": "&amp;EI16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EI17&amp;", ""memberCount"": "&amp;EI18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EI19&amp;", ""memberCount"": "&amp;EI20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EI21&amp;", ""memberCount"": "&amp;EI22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 22, "guildEntries": [{"name": "Eternal", "contribution": 190287755, "memberCount": 196}, {"name": "Smile", "contribution": 163497947, "memberCount": 193}, {"name": "Elite", "contribution": 154338017, "memberCount": 198}, {"name": "Savages", "contribution": 148220799, "memberCount": 199}, {"name": "Bounce", "contribution": 118560848, "memberCount": 195}, {"name": "Spring", "contribution": 128828967, "memberCount": 196}, {"name": "Sunset", "contribution": 124190713, "memberCount": 197}, {"name": "Downtime", "contribution": 84374573, "memberCount": 199}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 104746636, "memberCount": 199}]}</v>
-      </c>
-      <c r="EJ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EJ2)&amp;", ""month"": "&amp;MONTH(EJ2)&amp;", ""day"": "&amp;DAY(EJ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EJ3&amp;", ""memberCount"": "&amp;EJ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EJ5&amp;", ""memberCount"": "&amp;EJ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EJ7&amp;", ""memberCount"": "&amp;EJ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EJ9&amp;", ""memberCount"": "&amp;EJ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EJ11&amp;", ""memberCount"": "&amp;EJ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EJ13&amp;", ""memberCount"": "&amp;EJ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EJ15&amp;", ""memberCount"": "&amp;EJ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EJ17&amp;", ""memberCount"": "&amp;EJ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EJ19&amp;", ""memberCount"": "&amp;EJ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EJ21&amp;", ""memberCount"": "&amp;EJ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 23, "guildEntries": [{"name": "Eternal", "contribution": 190513621, "memberCount": 197}, {"name": "Smile", "contribution": 163734703, "memberCount": 193}, {"name": "Elite", "contribution": 154508859, "memberCount": 198}, {"name": "Savages", "contribution": 148343901, "memberCount": 199}, {"name": "Bounce", "contribution": 118775882, "memberCount": 195}, {"name": "Spring", "contribution": 128993512, "memberCount": 197}, {"name": "Sunset", "contribution": 124286541, "memberCount": 197}, {"name": "Downtime", "contribution": 84490781, "memberCount": 200}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 104982797, "memberCount": 199}]}</v>
-      </c>
-      <c r="EK25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EK2)&amp;", ""month"": "&amp;MONTH(EK2)&amp;", ""day"": "&amp;DAY(EK2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EK3&amp;", ""memberCount"": "&amp;EK4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EK5&amp;", ""memberCount"": "&amp;EK6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EK7&amp;", ""memberCount"": "&amp;EK8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EK9&amp;", ""memberCount"": "&amp;EK10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EK11&amp;", ""memberCount"": "&amp;EK12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EK13&amp;", ""memberCount"": "&amp;EK14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EK15&amp;", ""memberCount"": "&amp;EK16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EK17&amp;", ""memberCount"": "&amp;EK18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EK19&amp;", ""memberCount"": "&amp;EK20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EK21&amp;", ""memberCount"": "&amp;EK22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 24, "guildEntries": [{"name": "Eternal", "contribution": 190814131, "memberCount": 197}, {"name": "Smile", "contribution": 164010344, "memberCount": 193}, {"name": "Elite", "contribution": 154706458, "memberCount": 198}, {"name": "Savages", "contribution": 148480227, "memberCount": 199}, {"name": "Bounce", "contribution": 119031790, "memberCount": 195}, {"name": "Spring", "contribution": 129084086, "memberCount": 197}, {"name": "Sunset", "contribution": 117396613, "memberCount": 176}, {"name": "Downtime", "contribution": 84613096, "memberCount": 200}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 105170978, "memberCount": 200}]}</v>
-      </c>
-      <c r="EL25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EL2)&amp;", ""month"": "&amp;MONTH(EL2)&amp;", ""day"": "&amp;DAY(EL2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EL3&amp;", ""memberCount"": "&amp;EL4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EL5&amp;", ""memberCount"": "&amp;EL6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EL7&amp;", ""memberCount"": "&amp;EL8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EL9&amp;", ""memberCount"": "&amp;EL10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EL11&amp;", ""memberCount"": "&amp;EL12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EL13&amp;", ""memberCount"": "&amp;EL14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EL15&amp;", ""memberCount"": "&amp;EL16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EL17&amp;", ""memberCount"": "&amp;EL18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EL19&amp;", ""memberCount"": "&amp;EL20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EL21&amp;", ""memberCount"": "&amp;EL22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 25, "guildEntries": [{"name": "Eternal", "contribution": 191035540, "memberCount": 198}, {"name": "Smile", "contribution": 164212994, "memberCount": 194}, {"name": "Elite", "contribution": 154933476, "memberCount": 198}, {"name": "Savages", "contribution": 148568088, "memberCount": 199}, {"name": "Bounce", "contribution": 119229692, "memberCount": 195}, {"name": "Spring", "contribution": 129189038, "memberCount": 197}, {"name": "Sunset", "contribution": 117584928, "memberCount": 178}, {"name": "Downtime", "contribution": 84781117, "memberCount": 200}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 105375446, "memberCount": 200}]}</v>
-      </c>
-      <c r="EM25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EM2)&amp;", ""month"": "&amp;MONTH(EM2)&amp;", ""day"": "&amp;DAY(EM2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EM3&amp;", ""memberCount"": "&amp;EM4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EM5&amp;", ""memberCount"": "&amp;EM6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EM7&amp;", ""memberCount"": "&amp;EM8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EM9&amp;", ""memberCount"": "&amp;EM10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EM11&amp;", ""memberCount"": "&amp;EM12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EM13&amp;", ""memberCount"": "&amp;EM14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EM15&amp;", ""memberCount"": "&amp;EM16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EM17&amp;", ""memberCount"": "&amp;EM18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EM19&amp;", ""memberCount"": "&amp;EM20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EM21&amp;", ""memberCount"": "&amp;EM22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 26, "guildEntries": [{"name": "Eternal", "contribution": 191264525, "memberCount": 200}, {"name": "Smile", "contribution": 164197235, "memberCount": 194}, {"name": "Elite", "contribution": 155169508, "memberCount": 198}, {"name": "Savages", "contribution": 148680596, "memberCount": 199}, {"name": "Bounce", "contribution": 119497040, "memberCount": 195}, {"name": "Spring", "contribution": 129316377, "memberCount": 197}, {"name": "Sunset", "contribution": 117732505, "memberCount": 178}, {"name": "Downtime", "contribution": 84871283, "memberCount": 200}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 105521612, "memberCount": 200}]}</v>
-      </c>
-      <c r="EN25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EN2)&amp;", ""month"": "&amp;MONTH(EN2)&amp;", ""day"": "&amp;DAY(EN2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EN3&amp;", ""memberCount"": "&amp;EN4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EN5&amp;", ""memberCount"": "&amp;EN6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EN7&amp;", ""memberCount"": "&amp;EN8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EN9&amp;", ""memberCount"": "&amp;EN10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EN11&amp;", ""memberCount"": "&amp;EN12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EN13&amp;", ""memberCount"": "&amp;EN14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EN15&amp;", ""memberCount"": "&amp;EN16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EN17&amp;", ""memberCount"": "&amp;EN18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EN19&amp;", ""memberCount"": "&amp;EN20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EN21&amp;", ""memberCount"": "&amp;EN22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 27, "guildEntries": [{"name": "Eternal", "contribution": 190901833, "memberCount": 197}, {"name": "Smile", "contribution": 164494879, "memberCount": 194}, {"name": "Elite", "contribution": 155365136, "memberCount": 198}, {"name": "Savages", "contribution": 148772158, "memberCount": 197}, {"name": "Bounce", "contribution": 119784943, "memberCount": 196}, {"name": "Spring", "contribution": 129122583, "memberCount": 196}, {"name": "Sunset", "contribution": 117909968, "memberCount": 178}, {"name": "Downtime", "contribution": 84973302, "memberCount": 200}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 105723823, "memberCount": 200}]}</v>
-      </c>
-      <c r="EO25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EO2)&amp;", ""month"": "&amp;MONTH(EO2)&amp;", ""day"": "&amp;DAY(EO2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EO3&amp;", ""memberCount"": "&amp;EO4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EO5&amp;", ""memberCount"": "&amp;EO6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EO7&amp;", ""memberCount"": "&amp;EO8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EO9&amp;", ""memberCount"": "&amp;EO10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EO11&amp;", ""memberCount"": "&amp;EO12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EO13&amp;", ""memberCount"": "&amp;EO14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EO15&amp;", ""memberCount"": "&amp;EO16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EO17&amp;", ""memberCount"": "&amp;EO18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EO19&amp;", ""memberCount"": "&amp;EO20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EO21&amp;", ""memberCount"": "&amp;EO22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 28, "guildEntries": [{"name": "Eternal", "contribution": 191125263, "memberCount": 197}, {"name": "Smile", "contribution": 164668631, "memberCount": 194}, {"name": "Elite", "contribution": 155620832, "memberCount": 198}, {"name": "Savages", "contribution": 148903164, "memberCount": 197}, {"name": "Bounce", "contribution": 120055747, "memberCount": 197}, {"name": "Spring", "contribution": 129204841, "memberCount": 196}, {"name": "Sunset", "contribution": 118001857, "memberCount": 180}, {"name": "Downtime", "contribution": 85092605, "memberCount": 200}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 105747168, "memberCount": 200}]}</v>
-      </c>
-      <c r="EP25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EP2)&amp;", ""month"": "&amp;MONTH(EP2)&amp;", ""day"": "&amp;DAY(EP2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EP3&amp;", ""memberCount"": "&amp;EP4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EP5&amp;", ""memberCount"": "&amp;EP6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EP7&amp;", ""memberCount"": "&amp;EP8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EP9&amp;", ""memberCount"": "&amp;EP10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EP11&amp;", ""memberCount"": "&amp;EP12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EP13&amp;", ""memberCount"": "&amp;EP14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EP15&amp;", ""memberCount"": "&amp;EP16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EP17&amp;", ""memberCount"": "&amp;EP18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EP19&amp;", ""memberCount"": "&amp;EP20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EP21&amp;", ""memberCount"": "&amp;EP22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 29, "guildEntries": [{"name": "Eternal", "contribution": 191447600, "memberCount": 199}, {"name": "Smile", "contribution": 164867904, "memberCount": 194}, {"name": "Elite", "contribution": 155817459, "memberCount": 198}, {"name": "Savages", "contribution": 148737276, "memberCount": 196}, {"name": "Bounce", "contribution": 120337647, "memberCount": 198}, {"name": "Spring", "contribution": 129327151, "memberCount": 196}, {"name": "Sunset", "contribution": 118177613, "memberCount": 180}, {"name": "Downtime", "contribution": 85240216, "memberCount": 200}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 105907477, "memberCount": 200}]}</v>
-      </c>
-      <c r="EQ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EQ2)&amp;", ""month"": "&amp;MONTH(EQ2)&amp;", ""day"": "&amp;DAY(EQ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EQ3&amp;", ""memberCount"": "&amp;EQ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EQ5&amp;", ""memberCount"": "&amp;EQ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EQ7&amp;", ""memberCount"": "&amp;EQ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EQ9&amp;", ""memberCount"": "&amp;EQ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EQ11&amp;", ""memberCount"": "&amp;EQ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EQ13&amp;", ""memberCount"": "&amp;EQ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EQ15&amp;", ""memberCount"": "&amp;EQ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EQ17&amp;", ""memberCount"": "&amp;EQ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EQ19&amp;", ""memberCount"": "&amp;EQ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EQ21&amp;", ""memberCount"": "&amp;EQ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 30, "guildEntries": [{"name": "Eternal", "contribution": 191676104, "memberCount": 199}, {"name": "Smile", "contribution": 165080052, "memberCount": 194}, {"name": "Elite", "contribution": 156026713, "memberCount": 198}, {"name": "Savages", "contribution": 148873498, "memberCount": 198}, {"name": "Bounce", "contribution": 120575359, "memberCount": 199}, {"name": "Spring", "contribution": 129520962, "memberCount": 197}, {"name": "Sunset", "contribution": 118361638, "memberCount": 181}, {"name": "Downtime", "contribution": 85350091, "memberCount": 200}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 106122811, "memberCount": 200}]}</v>
-      </c>
-      <c r="ER25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ER2)&amp;", ""month"": "&amp;MONTH(ER2)&amp;", ""day"": "&amp;DAY(ER2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ER3&amp;", ""memberCount"": "&amp;ER4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ER5&amp;", ""memberCount"": "&amp;ER6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ER7&amp;", ""memberCount"": "&amp;ER8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ER9&amp;", ""memberCount"": "&amp;ER10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ER11&amp;", ""memberCount"": "&amp;ER12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ER13&amp;", ""memberCount"": "&amp;ER14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ER15&amp;", ""memberCount"": "&amp;ER16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ER17&amp;", ""memberCount"": "&amp;ER18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ER19&amp;", ""memberCount"": "&amp;ER20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;ER21&amp;", ""memberCount"": "&amp;ER22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 1, "day": 31, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="ES25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ES2)&amp;", ""month"": "&amp;MONTH(ES2)&amp;", ""day"": "&amp;DAY(ES2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ES3&amp;", ""memberCount"": "&amp;ES4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ES5&amp;", ""memberCount"": "&amp;ES6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ES7&amp;", ""memberCount"": "&amp;ES8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ES9&amp;", ""memberCount"": "&amp;ES10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ES11&amp;", ""memberCount"": "&amp;ES12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ES13&amp;", ""memberCount"": "&amp;ES14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ES15&amp;", ""memberCount"": "&amp;ES16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ES17&amp;", ""memberCount"": "&amp;ES18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ES19&amp;", ""memberCount"": "&amp;ES20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;ES21&amp;", ""memberCount"": "&amp;ES22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 1, "guildEntries": [{"name": "Eternal", "contribution": 192245907, "memberCount": 199}, {"name": "Smile", "contribution": 165505136, "memberCount": 194}, {"name": "Elite", "contribution": 156425360, "memberCount": 198}, {"name": "Savages", "contribution": 149041818, "memberCount": 198}, {"name": "Bounce", "contribution": 119445730, "memberCount": 195}, {"name": "Spring", "contribution": 129828884, "memberCount": 199}, {"name": "Sunset", "contribution": 118665057, "memberCount": 182}, {"name": "Downtime", "contribution": 85184324, "memberCount": 198}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 106593196, "memberCount": 200}]}</v>
-      </c>
-      <c r="ET25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(ET2)&amp;", ""month"": "&amp;MONTH(ET2)&amp;", ""day"": "&amp;DAY(ET2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;ET3&amp;", ""memberCount"": "&amp;ET4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;ET5&amp;", ""memberCount"": "&amp;ET6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;ET7&amp;", ""memberCount"": "&amp;ET8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;ET9&amp;", ""memberCount"": "&amp;ET10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;ET11&amp;", ""memberCount"": "&amp;ET12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;ET13&amp;", ""memberCount"": "&amp;ET14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;ET15&amp;", ""memberCount"": "&amp;ET16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;ET17&amp;", ""memberCount"": "&amp;ET18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;ET19&amp;", ""memberCount"": "&amp;ET20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;ET21&amp;", ""memberCount"": "&amp;ET22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 2, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="EU25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EU2)&amp;", ""month"": "&amp;MONTH(EU2)&amp;", ""day"": "&amp;DAY(EU2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EU3&amp;", ""memberCount"": "&amp;EU4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EU5&amp;", ""memberCount"": "&amp;EU6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EU7&amp;", ""memberCount"": "&amp;EU8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EU9&amp;", ""memberCount"": "&amp;EU10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EU11&amp;", ""memberCount"": "&amp;EU12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EU13&amp;", ""memberCount"": "&amp;EU14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EU15&amp;", ""memberCount"": "&amp;EU16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EU17&amp;", ""memberCount"": "&amp;EU18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EU19&amp;", ""memberCount"": "&amp;EU20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EU21&amp;", ""memberCount"": "&amp;EU22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 3, "guildEntries": [{"name": "Eternal", "contribution": 190988240, "memberCount": 199}, {"name": "Smile", "contribution": 165961289, "memberCount": 194}, {"name": "Elite", "contribution": 156808113, "memberCount": 198}, {"name": "Savages", "contribution": 149236626, "memberCount": 199}, {"name": "Bounce", "contribution": 120109254, "memberCount": 197}, {"name": "Spring", "contribution": 130048333, "memberCount": 199}, {"name": "Sunset", "contribution": 119064983, "memberCount": 192}, {"name": "Downtime", "contribution": 85424224, "memberCount": 198}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 106891363, "memberCount": 199}]}</v>
-      </c>
-      <c r="EV25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EV2)&amp;", ""month"": "&amp;MONTH(EV2)&amp;", ""day"": "&amp;DAY(EV2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EV3&amp;", ""memberCount"": "&amp;EV4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EV5&amp;", ""memberCount"": "&amp;EV6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EV7&amp;", ""memberCount"": "&amp;EV8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EV9&amp;", ""memberCount"": "&amp;EV10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EV11&amp;", ""memberCount"": "&amp;EV12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EV13&amp;", ""memberCount"": "&amp;EV14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EV15&amp;", ""memberCount"": "&amp;EV16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EV17&amp;", ""memberCount"": "&amp;EV18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EV19&amp;", ""memberCount"": "&amp;EV20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EV21&amp;", ""memberCount"": "&amp;EV22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 4, "guildEntries": [{"name": "Eternal", "contribution": 191185702, "memberCount": 197}, {"name": "Smile", "contribution": 166200326, "memberCount": 195}, {"name": "Elite", "contribution": 157062133, "memberCount": 199}, {"name": "Savages", "contribution": 149319259, "memberCount": 199}, {"name": "Bounce", "contribution": 120412234, "memberCount": 198}, {"name": "Spring", "contribution": 130192802, "memberCount": 199}, {"name": "Sunset", "contribution": 119241466, "memberCount": 197}, {"name": "Downtime", "contribution": 85561297, "memberCount": 198}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 107089091, "memberCount": 198}]}</v>
-      </c>
-      <c r="EW25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EW2)&amp;", ""month"": "&amp;MONTH(EW2)&amp;", ""day"": "&amp;DAY(EW2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EW3&amp;", ""memberCount"": "&amp;EW4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EW5&amp;", ""memberCount"": "&amp;EW6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EW7&amp;", ""memberCount"": "&amp;EW8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EW9&amp;", ""memberCount"": "&amp;EW10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EW11&amp;", ""memberCount"": "&amp;EW12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EW13&amp;", ""memberCount"": "&amp;EW14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EW15&amp;", ""memberCount"": "&amp;EW16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EW17&amp;", ""memberCount"": "&amp;EW18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EW19&amp;", ""memberCount"": "&amp;EW20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EW21&amp;", ""memberCount"": "&amp;EW22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 5, "guildEntries": [{"name": "Eternal", "contribution": 191475728, "memberCount": 198}, {"name": "Smile", "contribution": 166371187, "memberCount": 195}, {"name": "Elite", "contribution": 157252433, "memberCount": 199}, {"name": "Savages", "contribution": 149404671, "memberCount": 199}, {"name": "Bounce", "contribution": 120698889, "memberCount": 199}, {"name": "Spring", "contribution": 130327215, "memberCount": 199}, {"name": "Sunset", "contribution": 119502645, "memberCount": 195}, {"name": "Downtime", "contribution": 85684163, "memberCount": 198}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 107275800, "memberCount": 198}]}</v>
-      </c>
-      <c r="EX25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EX2)&amp;", ""month"": "&amp;MONTH(EX2)&amp;", ""day"": "&amp;DAY(EX2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EX3&amp;", ""memberCount"": "&amp;EX4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EX5&amp;", ""memberCount"": "&amp;EX6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EX7&amp;", ""memberCount"": "&amp;EX8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EX9&amp;", ""memberCount"": "&amp;EX10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EX11&amp;", ""memberCount"": "&amp;EX12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EX13&amp;", ""memberCount"": "&amp;EX14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EX15&amp;", ""memberCount"": "&amp;EX16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EX17&amp;", ""memberCount"": "&amp;EX18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EX19&amp;", ""memberCount"": "&amp;EX20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EX21&amp;", ""memberCount"": "&amp;EX22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 6, "guildEntries": [{"name": "Eternal", "contribution": 191758797, "memberCount": 198}, {"name": "Smile", "contribution": 166628392, "memberCount": 195}, {"name": "Elite", "contribution": 157458860, "memberCount": 199}, {"name": "Savages", "contribution": 149505281, "memberCount": 199}, {"name": "Bounce", "contribution": 121004523, "memberCount": 199}, {"name": "Spring", "contribution": 130519064, "memberCount": 200}, {"name": "Sunset", "contribution": 119727961, "memberCount": 197}, {"name": "Downtime", "contribution": 85802184, "memberCount": 198}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 102448802, "memberCount": 197}]}</v>
-      </c>
-      <c r="EY25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EY2)&amp;", ""month"": "&amp;MONTH(EY2)&amp;", ""day"": "&amp;DAY(EY2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EY3&amp;", ""memberCount"": "&amp;EY4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EY5&amp;", ""memberCount"": "&amp;EY6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EY7&amp;", ""memberCount"": "&amp;EY8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EY9&amp;", ""memberCount"": "&amp;EY10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EY11&amp;", ""memberCount"": "&amp;EY12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EY13&amp;", ""memberCount"": "&amp;EY14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EY15&amp;", ""memberCount"": "&amp;EY16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EY17&amp;", ""memberCount"": "&amp;EY18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EY19&amp;", ""memberCount"": "&amp;EY20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EY21&amp;", ""memberCount"": "&amp;EY22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 7, "guildEntries": [{"name": "Eternal", "contribution": 191950446, "memberCount": 198}, {"name": "Smile", "contribution": 166819646, "memberCount": 195}, {"name": "Elite", "contribution": 157678798, "memberCount": 199}, {"name": "Savages", "contribution": 149576422, "memberCount": 199}, {"name": "Bounce", "contribution": 121326495, "memberCount": 199}, {"name": "Spring", "contribution": 130606386, "memberCount": 200}, {"name": "Sunset", "contribution": 119904626, "memberCount": 197}, {"name": "Downtime", "contribution": 85930720, "memberCount": 199}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 102608184, "memberCount": 197}]}</v>
-      </c>
-      <c r="EZ25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(EZ2)&amp;", ""month"": "&amp;MONTH(EZ2)&amp;", ""day"": "&amp;DAY(EZ2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;EZ3&amp;", ""memberCount"": "&amp;EZ4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;EZ5&amp;", ""memberCount"": "&amp;EZ6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;EZ7&amp;", ""memberCount"": "&amp;EZ8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;EZ9&amp;", ""memberCount"": "&amp;EZ10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;EZ11&amp;", ""memberCount"": "&amp;EZ12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;EZ13&amp;", ""memberCount"": "&amp;EZ14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;EZ15&amp;", ""memberCount"": "&amp;EZ16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;EZ17&amp;", ""memberCount"": "&amp;EZ18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;EZ19&amp;", ""memberCount"": "&amp;EZ20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;EZ21&amp;", ""memberCount"": "&amp;EZ22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 8, "guildEntries": [{"name": "Eternal", "contribution": 192242741, "memberCount": 198}, {"name": "Smile", "contribution": 167065574, "memberCount": 196}, {"name": "Elite", "contribution": 157935067, "memberCount": 199}, {"name": "Savages", "contribution": 149660220, "memberCount": 199}, {"name": "Bounce", "contribution": 121578702, "memberCount": 199}, {"name": "Spring", "contribution": 130790017, "memberCount": 200}, {"name": "Sunset", "contribution": 120099691, "memberCount": 199}, {"name": "Downtime", "contribution": 85059543, "memberCount": 197}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 102825055, "memberCount": 197}]}</v>
-      </c>
-      <c r="FA25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FA2)&amp;", ""month"": "&amp;MONTH(FA2)&amp;", ""day"": "&amp;DAY(FA2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FA3&amp;", ""memberCount"": "&amp;FA4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FA5&amp;", ""memberCount"": "&amp;FA6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FA7&amp;", ""memberCount"": "&amp;FA8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FA9&amp;", ""memberCount"": "&amp;FA10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FA11&amp;", ""memberCount"": "&amp;FA12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FA13&amp;", ""memberCount"": "&amp;FA14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FA15&amp;", ""memberCount"": "&amp;FA16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FA17&amp;", ""memberCount"": "&amp;FA18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FA19&amp;", ""memberCount"": "&amp;FA20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;FA21&amp;", ""memberCount"": "&amp;FA22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 9, "guildEntries": [{"name": "Eternal", "contribution": 192547785, "memberCount": 198}, {"name": "Smile", "contribution": 167292732, "memberCount": 196}, {"name": "Elite", "contribution": 158177528, "memberCount": 199}, {"name": "Savages", "contribution": 149737192, "memberCount": 199}, {"name": "Bounce", "contribution": 121938993, "memberCount": 199}, {"name": "Spring", "contribution": 130957630, "memberCount": 200}, {"name": "Sunset", "contribution": 118789304, "memberCount": 196}, {"name": "Downtime", "contribution": 85125522, "memberCount": 196}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 103010459, "memberCount": 197}]}</v>
-      </c>
-      <c r="FB25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FB2)&amp;", ""month"": "&amp;MONTH(FB2)&amp;", ""day"": "&amp;DAY(FB2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FB3&amp;", ""memberCount"": "&amp;FB4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FB5&amp;", ""memberCount"": "&amp;FB6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FB7&amp;", ""memberCount"": "&amp;FB8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FB9&amp;", ""memberCount"": "&amp;FB10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FB11&amp;", ""memberCount"": "&amp;FB12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FB13&amp;", ""memberCount"": "&amp;FB14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FB15&amp;", ""memberCount"": "&amp;FB16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FB17&amp;", ""memberCount"": "&amp;FB18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FB19&amp;", ""memberCount"": "&amp;FB20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;FB21&amp;", ""memberCount"": "&amp;FB22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 10, "guildEntries": [{"name": "Eternal", "contribution": 192848490, "memberCount": 198}, {"name": "Smile", "contribution": 167340060, "memberCount": 189}, {"name": "Elite", "contribution": 158407802, "memberCount": 199}, {"name": "Savages", "contribution": 149819536, "memberCount": 199}, {"name": "Bounce", "contribution": 122275514, "memberCount": 199}, {"name": "Spring", "contribution": 131082366, "memberCount": 199}, {"name": "Sunset", "contribution": 118996616, "memberCount": 195}, {"name": "Downtime", "contribution": 85294289, "memberCount": 196}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 103196934, "memberCount": 197}]}</v>
-      </c>
-      <c r="FC25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FC2)&amp;", ""month"": "&amp;MONTH(FC2)&amp;", ""day"": "&amp;DAY(FC2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FC3&amp;", ""memberCount"": "&amp;FC4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FC5&amp;", ""memberCount"": "&amp;FC6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FC7&amp;", ""memberCount"": "&amp;FC8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FC9&amp;", ""memberCount"": "&amp;FC10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FC11&amp;", ""memberCount"": "&amp;FC12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FC13&amp;", ""memberCount"": "&amp;FC14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FC15&amp;", ""memberCount"": "&amp;FC16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FC17&amp;", ""memberCount"": "&amp;FC18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FC19&amp;", ""memberCount"": "&amp;FC20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;FC21&amp;", ""memberCount"": "&amp;FC22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 11, "guildEntries": [{"name": "Eternal", "contribution": null, "memberCount": null}, {"name": "Smile", "contribution": null, "memberCount": null}, {"name": "Elite", "contribution": null, "memberCount": null}, {"name": "Savages", "contribution": null, "memberCount": null}, {"name": "Bounce", "contribution": null, "memberCount": null}, {"name": "Spring", "contribution": null, "memberCount": null}, {"name": "Sunset", "contribution": null, "memberCount": null}, {"name": "Downtime", "contribution": null, "memberCount": null}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": null, "memberCount": null}]}</v>
-      </c>
-      <c r="FD25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FD2)&amp;", ""month"": "&amp;MONTH(FD2)&amp;", ""day"": "&amp;DAY(FD2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FD3&amp;", ""memberCount"": "&amp;FD4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FD5&amp;", ""memberCount"": "&amp;FD6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FD7&amp;", ""memberCount"": "&amp;FD8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FD9&amp;", ""memberCount"": "&amp;FD10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FD11&amp;", ""memberCount"": "&amp;FD12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FD13&amp;", ""memberCount"": "&amp;FD14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FD15&amp;", ""memberCount"": "&amp;FD16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FD17&amp;", ""memberCount"": "&amp;FD18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FD19&amp;", ""memberCount"": "&amp;FD20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;FD21&amp;", ""memberCount"": "&amp;FD22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 12, "guildEntries": [{"name": "Eternal", "contribution": 193287486, "memberCount": 198}, {"name": "Smile", "contribution": 167696651, "memberCount": 189}, {"name": "Elite", "contribution": 158731381, "memberCount": 199}, {"name": "Savages", "contribution": 149773039, "memberCount": 198}, {"name": "Bounce", "contribution": 122832556, "memberCount": 199}, {"name": "Spring", "contribution": 131334050, "memberCount": 200}, {"name": "Sunset", "contribution": 119359280, "memberCount": 195}, {"name": "Downtime", "contribution": 85593759, "memberCount": 196}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 103491112, "memberCount": 197}]}</v>
-      </c>
-      <c r="FE25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FE2)&amp;", ""month"": "&amp;MONTH(FE2)&amp;", ""day"": "&amp;DAY(FE2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FE3&amp;", ""memberCount"": "&amp;FE4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FE5&amp;", ""memberCount"": "&amp;FE6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FE7&amp;", ""memberCount"": "&amp;FE8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FE9&amp;", ""memberCount"": "&amp;FE10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FE11&amp;", ""memberCount"": "&amp;FE12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FE13&amp;", ""memberCount"": "&amp;FE14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FE15&amp;", ""memberCount"": "&amp;FE16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FE17&amp;", ""memberCount"": "&amp;FE18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FE19&amp;", ""memberCount"": "&amp;FE20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;FE21&amp;", ""memberCount"": "&amp;FE22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 13, "guildEntries": [{"name": "Eternal", "contribution": 193558807, "memberCount": 198}, {"name": "Smile", "contribution": 167917405, "memberCount": 190}, {"name": "Elite", "contribution": 158942482, "memberCount": 199}, {"name": "Savages", "contribution": 149863413, "memberCount": 198}, {"name": "Bounce", "contribution": 123141159, "memberCount": 199}, {"name": "Spring", "contribution": 131479022, "memberCount": 200}, {"name": "Sunset", "contribution": 119543285, "memberCount": 196}, {"name": "Downtime", "contribution": 85795734, "memberCount": 197}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 103690516, "memberCount": 197}]}</v>
-      </c>
-      <c r="FF25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FF2)&amp;", ""month"": "&amp;MONTH(FF2)&amp;", ""day"": "&amp;DAY(FF2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FF3&amp;", ""memberCount"": "&amp;FF4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FF5&amp;", ""memberCount"": "&amp;FF6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FF7&amp;", ""memberCount"": "&amp;FF8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FF9&amp;", ""memberCount"": "&amp;FF10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FF11&amp;", ""memberCount"": "&amp;FF12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FF13&amp;", ""memberCount"": "&amp;FF14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FF15&amp;", ""memberCount"": "&amp;FF16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FF17&amp;", ""memberCount"": "&amp;FF18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FF19&amp;", ""memberCount"": "&amp;FF20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;FF21&amp;", ""memberCount"": "&amp;FF22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 14, "guildEntries": [{"name": "Eternal", "contribution": 193765796, "memberCount": 198}, {"name": "Smile", "contribution": 168190125, "memberCount": 190}, {"name": "Elite", "contribution": 159139524, "memberCount": 199}, {"name": "Savages", "contribution": 149940519, "memberCount": 198}, {"name": "Bounce", "contribution": 123380438, "memberCount": 199}, {"name": "Spring", "contribution": 131568733, "memberCount": 200}, {"name": "Sunset", "contribution": 119666812, "memberCount": 196}, {"name": "Downtime", "contribution": 85858806, "memberCount": 197}, {"name": "Epic", "contribution": null, "memberCount": null}, {"name": "Beaters", "contribution": 103843944, "memberCount": 197}]}</v>
-      </c>
-      <c r="FG25" s="77" t="str">
-        <f aca="false">"    "&amp;", {"&amp;"""year"": "&amp;YEAR(FG2)&amp;", ""month"": "&amp;MONTH(FG2)&amp;", ""day"": "&amp;DAY(FG2)&amp;", ""guildEntries"": ["&amp;"{""name"": """&amp;$B$3&amp;""", ""contribution"": "&amp;FG3&amp;", ""memberCount"": "&amp;FG4&amp;"}, "&amp;"{""name"": """&amp;$B$5&amp;""", ""contribution"": "&amp;FG5&amp;", ""memberCount"": "&amp;FG6&amp;"}, "&amp;"{""name"": """&amp;$B$7&amp;""", ""contribution"": "&amp;FG7&amp;", ""memberCount"": "&amp;FG8&amp;"}, "&amp;"{""name"": """&amp;$B$9&amp;""", ""contribution"": "&amp;FG9&amp;", ""memberCount"": "&amp;FG10&amp;"}, "&amp;"{""name"": """&amp;$B$11&amp;""", ""contribution"": "&amp;FG11&amp;", ""memberCount"": "&amp;FG12&amp;"}, "&amp;"{""name"": """&amp;$B$13&amp;""", ""contribution"": "&amp;FG13&amp;", ""memberCount"": "&amp;FG14&amp;"}, "&amp;"{""name"": """&amp;$B$15&amp;""", ""contribution"": "&amp;FG15&amp;", ""memberCount"": "&amp;FG16&amp;"}, "&amp;"{""name"": """&amp;$B$17&amp;""", ""contribution"": "&amp;FG17&amp;", ""memberCount"": "&amp;FG18&amp;"}, "&amp;"{""name"": """&amp;$B$19&amp;""", ""contribution"": "&amp;FG19&amp;", ""memberCount"": "&amp;FG20&amp;"}, "&amp;"{""name"": """&amp;$B$21&amp;""", ""contribution"": "&amp;FG21&amp;", ""memberCount"": "&amp;FG22&amp;"}"&amp;"]}"</f>
-        <v>, {"year": 2019, "month": 2, "day": 15, "guildEntries": [{"name": "Eternal", "contribution": 194024347, "memberCount": 198}, {"name": "Smile", "contribution": 168389588, "memberCount": 191}, {"name": "Elite", "contribution": 159424447, "memberCount": 199}, {"name": "Savages", "contribution": 150005245, "memberCount": 198}, {"name": "Bounce", "contribution": 123617503, "memberCount": 199}, {"name": "Spring", "contribution": 131739410, "memberCount": 200}, {"name": "Sunset", "contribution": 119881805, "memberCount": 197}, {"name": "Downtime", "contribution": 85972408, "memberCount": 197}, {"name": "Epic", "contribution": null, "memberCoun